--- a/자소서/스펙업 2017 하반기 채용다이어리.xlsx
+++ b/자소서/스펙업 2017 하반기 채용다이어리.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8628" windowHeight="11436" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8628" windowHeight="11436" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="메인" sheetId="18" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="908">
   <si>
     <t>카톡으로 공채 소식 받기</t>
   </si>
@@ -3748,6 +3748,14 @@
   </si>
   <si>
     <t>인천국제공항청사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>티켓몬스터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>티켓몬스터</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4727,6 +4735,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4745,25 +4762,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4772,25 +4774,19 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4799,22 +4795,16 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4841,10 +4831,13 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4856,10 +4849,25 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4886,16 +4894,16 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4961,8 +4969,23 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4973,12 +4996,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4988,14 +5005,23 @@
     <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5036,24 +5062,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5087,7 +5095,10 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5099,10 +5110,7 @@
     <xf numFmtId="0" fontId="5" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6702,84 +6710,84 @@
       <c r="M1" s="129"/>
     </row>
     <row r="2" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="136" t="s">
+      <c r="B2" s="130" t="s">
         <v>706</v>
       </c>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137"/>
-      <c r="K2" s="137"/>
-      <c r="L2" s="137"/>
-      <c r="M2" s="138"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="132"/>
     </row>
     <row r="3" spans="2:13" ht="171" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="133" t="s">
+      <c r="B3" s="136" t="s">
         <v>675</v>
       </c>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="134"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="134"/>
-      <c r="K3" s="134"/>
-      <c r="L3" s="134"/>
-      <c r="M3" s="135"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="137"/>
+      <c r="M3" s="138"/>
     </row>
     <row r="4" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="136" t="s">
+      <c r="B4" s="130" t="s">
         <v>707</v>
       </c>
-      <c r="C4" s="137"/>
-      <c r="D4" s="137"/>
-      <c r="E4" s="137"/>
-      <c r="F4" s="137"/>
-      <c r="G4" s="137"/>
-      <c r="H4" s="137"/>
-      <c r="I4" s="137"/>
-      <c r="J4" s="137"/>
-      <c r="K4" s="137"/>
-      <c r="L4" s="137"/>
-      <c r="M4" s="138"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="131"/>
+      <c r="G4" s="131"/>
+      <c r="H4" s="131"/>
+      <c r="I4" s="131"/>
+      <c r="J4" s="131"/>
+      <c r="K4" s="131"/>
+      <c r="L4" s="131"/>
+      <c r="M4" s="132"/>
     </row>
     <row r="5" spans="2:13" ht="286.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="136" t="s">
         <v>850</v>
       </c>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="134"/>
-      <c r="H5" s="134"/>
-      <c r="I5" s="134"/>
-      <c r="J5" s="134"/>
-      <c r="K5" s="134"/>
-      <c r="L5" s="134"/>
-      <c r="M5" s="135"/>
+      <c r="C5" s="137"/>
+      <c r="D5" s="137"/>
+      <c r="E5" s="137"/>
+      <c r="F5" s="137"/>
+      <c r="G5" s="137"/>
+      <c r="H5" s="137"/>
+      <c r="I5" s="137"/>
+      <c r="J5" s="137"/>
+      <c r="K5" s="137"/>
+      <c r="L5" s="137"/>
+      <c r="M5" s="138"/>
     </row>
     <row r="6" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="136" t="s">
+      <c r="B6" s="130" t="s">
         <v>651</v>
       </c>
-      <c r="C6" s="137"/>
-      <c r="D6" s="137"/>
-      <c r="E6" s="137"/>
-      <c r="F6" s="137"/>
-      <c r="G6" s="137"/>
-      <c r="H6" s="137"/>
-      <c r="I6" s="137"/>
-      <c r="J6" s="137"/>
-      <c r="K6" s="137"/>
-      <c r="L6" s="137"/>
-      <c r="M6" s="138"/>
+      <c r="C6" s="131"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="131"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="131"/>
+      <c r="L6" s="131"/>
+      <c r="M6" s="132"/>
     </row>
     <row r="7" spans="2:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="127"/>
@@ -6830,23 +6838,17 @@
       <c r="E10" s="128"/>
       <c r="F10" s="128"/>
       <c r="G10" s="129"/>
-      <c r="H10" s="130" t="s">
+      <c r="H10" s="133" t="s">
         <v>653</v>
       </c>
-      <c r="I10" s="131"/>
-      <c r="J10" s="131"/>
-      <c r="K10" s="131"/>
-      <c r="L10" s="131"/>
-      <c r="M10" s="132"/>
+      <c r="I10" s="134"/>
+      <c r="J10" s="134"/>
+      <c r="K10" s="134"/>
+      <c r="L10" s="134"/>
+      <c r="M10" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="H9:M9"/>
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="H10:M10"/>
     <mergeCell ref="B3:M3"/>
@@ -6854,6 +6856,12 @@
     <mergeCell ref="B5:M5"/>
     <mergeCell ref="B6:M6"/>
     <mergeCell ref="B7:M7"/>
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="H9:M9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6898,7 +6906,7 @@
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
-      <c r="B3" s="209" t="s">
+      <c r="B3" s="214" t="s">
         <v>639</v>
       </c>
       <c r="C3" s="128"/>
@@ -7235,7 +7243,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="163" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:3" s="157" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:3" s="48" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="15"/>
       <c r="B6" s="44" t="s">
@@ -7458,7 +7466,7 @@
     </row>
     <row r="4" spans="1:14" s="77" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="74"/>
-      <c r="B4" s="156" t="s">
+      <c r="B4" s="171" t="s">
         <v>547</v>
       </c>
       <c r="C4" s="189"/>
@@ -7467,32 +7475,32 @@
       <c r="F4" s="189"/>
       <c r="G4" s="189"/>
       <c r="H4" s="189"/>
-      <c r="I4" s="157"/>
-      <c r="J4" s="254" t="s">
+      <c r="I4" s="172"/>
+      <c r="J4" s="250" t="s">
         <v>642</v>
       </c>
-      <c r="K4" s="254"/>
-      <c r="L4" s="254"/>
-      <c r="M4" s="254"/>
-      <c r="N4" s="255"/>
-    </row>
-    <row r="5" spans="1:14" s="163" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="K4" s="250"/>
+      <c r="L4" s="250"/>
+      <c r="M4" s="250"/>
+      <c r="N4" s="251"/>
+    </row>
+    <row r="5" spans="1:14" s="157" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:14" s="86" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="251" t="s">
+      <c r="B6" s="252" t="s">
         <v>638</v>
       </c>
-      <c r="C6" s="252"/>
-      <c r="D6" s="252"/>
-      <c r="E6" s="252"/>
-      <c r="F6" s="252"/>
-      <c r="G6" s="252"/>
-      <c r="H6" s="252"/>
-      <c r="I6" s="252"/>
-      <c r="J6" s="252"/>
-      <c r="K6" s="252"/>
-      <c r="L6" s="252"/>
-      <c r="M6" s="252"/>
-      <c r="N6" s="253"/>
+      <c r="C6" s="253"/>
+      <c r="D6" s="253"/>
+      <c r="E6" s="253"/>
+      <c r="F6" s="253"/>
+      <c r="G6" s="253"/>
+      <c r="H6" s="253"/>
+      <c r="I6" s="253"/>
+      <c r="J6" s="253"/>
+      <c r="K6" s="253"/>
+      <c r="L6" s="253"/>
+      <c r="M6" s="253"/>
+      <c r="N6" s="254"/>
     </row>
     <row r="7" spans="1:14" s="48" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="15"/>
@@ -7538,7 +7546,7 @@
     </row>
     <row r="8" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="86"/>
-      <c r="B8" s="250" t="s">
+      <c r="B8" s="255" t="s">
         <v>625</v>
       </c>
       <c r="C8" s="248" t="s">
@@ -7562,7 +7570,7 @@
     </row>
     <row r="9" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="86"/>
-      <c r="B9" s="250"/>
+      <c r="B9" s="255"/>
       <c r="C9" s="248"/>
       <c r="D9" s="94" t="s">
         <v>629</v>
@@ -7582,7 +7590,7 @@
     </row>
     <row r="10" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="86"/>
-      <c r="B10" s="250"/>
+      <c r="B10" s="255"/>
       <c r="C10" s="248"/>
       <c r="D10" s="94" t="s">
         <v>630</v>
@@ -7606,7 +7614,7 @@
     </row>
     <row r="11" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="86"/>
-      <c r="B11" s="250"/>
+      <c r="B11" s="255"/>
       <c r="C11" s="248" t="s">
         <v>631</v>
       </c>
@@ -7634,7 +7642,7 @@
     </row>
     <row r="12" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="86"/>
-      <c r="B12" s="250"/>
+      <c r="B12" s="255"/>
       <c r="C12" s="248"/>
       <c r="D12" s="95" t="s">
         <v>633</v>
@@ -7672,7 +7680,7 @@
     </row>
     <row r="13" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="86"/>
-      <c r="B13" s="250"/>
+      <c r="B13" s="255"/>
       <c r="C13" s="248"/>
       <c r="D13" s="95" t="s">
         <v>634</v>
@@ -7710,7 +7718,7 @@
     </row>
     <row r="14" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="86"/>
-      <c r="B14" s="250"/>
+      <c r="B14" s="255"/>
       <c r="C14" s="248"/>
       <c r="D14" s="95" t="s">
         <v>635</v>
@@ -7734,7 +7742,7 @@
     </row>
     <row r="15" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="86"/>
-      <c r="B15" s="250"/>
+      <c r="B15" s="255"/>
       <c r="C15" s="248"/>
       <c r="D15" s="95" t="s">
         <v>636</v>
@@ -7756,7 +7764,7 @@
     </row>
     <row r="16" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="86"/>
-      <c r="B16" s="250"/>
+      <c r="B16" s="255"/>
       <c r="C16" s="248"/>
       <c r="D16" s="95" t="s">
         <v>637</v>
@@ -7782,7 +7790,7 @@
     </row>
     <row r="17" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="86"/>
-      <c r="B17" s="250" t="s">
+      <c r="B17" s="255" t="s">
         <v>550</v>
       </c>
       <c r="C17" s="248" t="s">
@@ -7812,7 +7820,7 @@
     </row>
     <row r="18" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="86"/>
-      <c r="B18" s="250"/>
+      <c r="B18" s="255"/>
       <c r="C18" s="248"/>
       <c r="D18" s="95" t="s">
         <v>553</v>
@@ -7832,7 +7840,7 @@
     </row>
     <row r="19" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="86"/>
-      <c r="B19" s="250"/>
+      <c r="B19" s="255"/>
       <c r="C19" s="248"/>
       <c r="D19" s="95" t="s">
         <v>554</v>
@@ -7856,7 +7864,7 @@
     </row>
     <row r="20" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="86"/>
-      <c r="B20" s="250"/>
+      <c r="B20" s="255"/>
       <c r="C20" s="248"/>
       <c r="D20" s="95" t="s">
         <v>555</v>
@@ -7876,7 +7884,7 @@
     </row>
     <row r="21" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="86"/>
-      <c r="B21" s="250"/>
+      <c r="B21" s="255"/>
       <c r="C21" s="248"/>
       <c r="D21" s="95" t="s">
         <v>556</v>
@@ -7900,7 +7908,7 @@
     </row>
     <row r="22" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="86"/>
-      <c r="B22" s="250"/>
+      <c r="B22" s="255"/>
       <c r="C22" s="248"/>
       <c r="D22" s="95" t="s">
         <v>557</v>
@@ -7922,7 +7930,7 @@
     </row>
     <row r="23" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="86"/>
-      <c r="B23" s="250"/>
+      <c r="B23" s="255"/>
       <c r="C23" s="248"/>
       <c r="D23" s="95" t="s">
         <v>558</v>
@@ -7946,7 +7954,7 @@
     </row>
     <row r="24" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="86"/>
-      <c r="B24" s="250"/>
+      <c r="B24" s="255"/>
       <c r="C24" s="13" t="s">
         <v>559</v>
       </c>
@@ -7986,7 +7994,7 @@
     </row>
     <row r="25" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="86"/>
-      <c r="B25" s="250" t="s">
+      <c r="B25" s="255" t="s">
         <v>560</v>
       </c>
       <c r="C25" s="248" t="s">
@@ -8014,7 +8022,7 @@
     </row>
     <row r="26" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="86"/>
-      <c r="B26" s="250"/>
+      <c r="B26" s="255"/>
       <c r="C26" s="248"/>
       <c r="D26" s="95" t="s">
         <v>563</v>
@@ -8038,7 +8046,7 @@
     </row>
     <row r="27" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="86"/>
-      <c r="B27" s="250"/>
+      <c r="B27" s="255"/>
       <c r="C27" s="248"/>
       <c r="D27" s="95" t="s">
         <v>564</v>
@@ -8060,7 +8068,7 @@
     </row>
     <row r="28" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="86"/>
-      <c r="B28" s="250"/>
+      <c r="B28" s="255"/>
       <c r="C28" s="248" t="s">
         <v>565</v>
       </c>
@@ -8090,7 +8098,7 @@
     </row>
     <row r="29" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="86"/>
-      <c r="B29" s="250"/>
+      <c r="B29" s="255"/>
       <c r="C29" s="248"/>
       <c r="D29" s="95" t="s">
         <v>567</v>
@@ -8114,7 +8122,7 @@
     </row>
     <row r="30" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="86"/>
-      <c r="B30" s="250"/>
+      <c r="B30" s="255"/>
       <c r="C30" s="248"/>
       <c r="D30" s="95" t="s">
         <v>568</v>
@@ -8144,7 +8152,7 @@
     </row>
     <row r="31" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="86"/>
-      <c r="B31" s="250"/>
+      <c r="B31" s="255"/>
       <c r="C31" s="248"/>
       <c r="D31" s="96" t="s">
         <v>569</v>
@@ -8176,7 +8184,7 @@
     </row>
     <row r="32" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="86"/>
-      <c r="B32" s="250"/>
+      <c r="B32" s="255"/>
       <c r="C32" s="248"/>
       <c r="D32" s="95" t="s">
         <v>570</v>
@@ -8200,7 +8208,7 @@
     </row>
     <row r="33" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="86"/>
-      <c r="B33" s="250"/>
+      <c r="B33" s="255"/>
       <c r="C33" s="248" t="s">
         <v>571</v>
       </c>
@@ -8224,7 +8232,7 @@
     </row>
     <row r="34" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="86"/>
-      <c r="B34" s="250"/>
+      <c r="B34" s="255"/>
       <c r="C34" s="248"/>
       <c r="D34" s="95" t="s">
         <v>573</v>
@@ -8248,7 +8256,7 @@
     </row>
     <row r="35" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="86"/>
-      <c r="B35" s="250" t="s">
+      <c r="B35" s="255" t="s">
         <v>574</v>
       </c>
       <c r="C35" s="248" t="s">
@@ -8272,7 +8280,7 @@
     </row>
     <row r="36" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="86"/>
-      <c r="B36" s="250"/>
+      <c r="B36" s="255"/>
       <c r="C36" s="248"/>
       <c r="D36" s="95" t="s">
         <v>577</v>
@@ -8292,7 +8300,7 @@
     </row>
     <row r="37" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="86"/>
-      <c r="B37" s="250"/>
+      <c r="B37" s="255"/>
       <c r="C37" s="248"/>
       <c r="D37" s="95" t="s">
         <v>578</v>
@@ -8312,7 +8320,7 @@
     </row>
     <row r="38" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="86"/>
-      <c r="B38" s="250"/>
+      <c r="B38" s="255"/>
       <c r="C38" s="248" t="s">
         <v>579</v>
       </c>
@@ -8334,7 +8342,7 @@
     </row>
     <row r="39" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="86"/>
-      <c r="B39" s="250"/>
+      <c r="B39" s="255"/>
       <c r="C39" s="248"/>
       <c r="D39" s="95" t="s">
         <v>581</v>
@@ -8358,7 +8366,7 @@
     </row>
     <row r="40" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="86"/>
-      <c r="B40" s="250"/>
+      <c r="B40" s="255"/>
       <c r="C40" s="248"/>
       <c r="D40" s="95" t="s">
         <v>582</v>
@@ -8384,7 +8392,7 @@
     </row>
     <row r="41" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="86"/>
-      <c r="B41" s="250"/>
+      <c r="B41" s="255"/>
       <c r="C41" s="248"/>
       <c r="D41" s="95" t="s">
         <v>583</v>
@@ -8404,18 +8412,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="B3:N3"/>
-    <mergeCell ref="A5:XFD5"/>
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:N4"/>
-    <mergeCell ref="B6:N6"/>
-    <mergeCell ref="B8:B16"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="B17:B24"/>
-    <mergeCell ref="C17:C23"/>
     <mergeCell ref="B25:B34"/>
     <mergeCell ref="C25:C27"/>
     <mergeCell ref="C28:C32"/>
@@ -8423,6 +8419,18 @@
     <mergeCell ref="B35:B41"/>
     <mergeCell ref="C35:C37"/>
     <mergeCell ref="C38:C41"/>
+    <mergeCell ref="B6:N6"/>
+    <mergeCell ref="B8:B16"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="B17:B24"/>
+    <mergeCell ref="C17:C23"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="A5:XFD5"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:N4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -11627,8 +11635,8 @@
   </sheetPr>
   <dimension ref="A1:K436"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+    <sheetView topLeftCell="B65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.4"/>
@@ -11641,66 +11649,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="118.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="160"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="162"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="156"/>
     </row>
     <row r="2" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
-      <c r="B2" s="170" t="s">
+      <c r="B2" s="165" t="s">
         <v>708</v>
       </c>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
-      <c r="G2" s="171"/>
-      <c r="H2" s="171"/>
-      <c r="I2" s="172"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="167"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="67"/>
-      <c r="B3" s="164" t="s">
+      <c r="B3" s="158" t="s">
         <v>540</v>
       </c>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="166"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="160"/>
       <c r="J3" s="67"/>
     </row>
     <row r="4" spans="1:10" s="75" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="74"/>
-      <c r="B4" s="154" t="s">
+      <c r="B4" s="169" t="s">
         <v>709</v>
       </c>
-      <c r="C4" s="155"/>
-      <c r="D4" s="156" t="s">
+      <c r="C4" s="170"/>
+      <c r="D4" s="171" t="s">
         <v>529</v>
       </c>
-      <c r="E4" s="157"/>
-      <c r="F4" s="156" t="s">
+      <c r="E4" s="172"/>
+      <c r="F4" s="171" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="157"/>
-      <c r="H4" s="156" t="s">
+      <c r="G4" s="172"/>
+      <c r="H4" s="171" t="s">
         <v>530</v>
       </c>
-      <c r="I4" s="157"/>
+      <c r="I4" s="172"/>
       <c r="J4" s="15"/>
     </row>
-    <row r="5" spans="1:10" s="163" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:10" s="157" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:10" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="158"/>
+      <c r="B6" s="162"/>
       <c r="C6" s="55" t="s">
         <v>858</v>
       </c>
@@ -11724,7 +11732,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="159"/>
+      <c r="B7" s="163"/>
       <c r="C7" s="121" t="s">
         <v>711</v>
       </c>
@@ -11748,7 +11756,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="149" t="s">
+      <c r="B8" s="152" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="63"/>
@@ -11768,7 +11776,7 @@
       <c r="I8" s="63"/>
     </row>
     <row r="9" spans="1:10" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="149"/>
+      <c r="B9" s="152"/>
       <c r="C9" s="63"/>
       <c r="D9" s="63"/>
       <c r="E9" s="63"/>
@@ -11780,7 +11788,7 @@
       <c r="I9" s="63"/>
     </row>
     <row r="10" spans="1:10" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="149"/>
+      <c r="B10" s="152"/>
       <c r="C10" s="63"/>
       <c r="D10" s="63"/>
       <c r="E10" s="63"/>
@@ -11792,7 +11800,7 @@
       <c r="I10" s="63"/>
     </row>
     <row r="11" spans="1:10" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="149"/>
+      <c r="B11" s="152"/>
       <c r="C11" s="63"/>
       <c r="D11" s="63"/>
       <c r="E11" s="63"/>
@@ -11804,7 +11812,7 @@
       <c r="I11" s="63"/>
     </row>
     <row r="12" spans="1:10" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="149"/>
+      <c r="B12" s="152"/>
       <c r="C12" s="63"/>
       <c r="D12" s="63"/>
       <c r="E12" s="63"/>
@@ -11816,7 +11824,7 @@
       <c r="I12" s="63"/>
     </row>
     <row r="13" spans="1:10" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="149"/>
+      <c r="B13" s="152"/>
       <c r="C13" s="63"/>
       <c r="D13" s="63"/>
       <c r="E13" s="63"/>
@@ -11828,7 +11836,7 @@
       <c r="I13" s="63"/>
     </row>
     <row r="14" spans="1:10" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="149"/>
+      <c r="B14" s="152"/>
       <c r="C14" s="63"/>
       <c r="D14" s="63"/>
       <c r="E14" s="63"/>
@@ -11840,7 +11848,7 @@
       <c r="I14" s="63"/>
     </row>
     <row r="15" spans="1:10" s="124" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="149"/>
+      <c r="B15" s="152"/>
       <c r="C15" s="63"/>
       <c r="D15" s="63"/>
       <c r="E15" s="63"/>
@@ -11852,7 +11860,7 @@
       <c r="I15" s="63"/>
     </row>
     <row r="16" spans="1:10" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="149"/>
+      <c r="B16" s="152"/>
       <c r="C16" s="63"/>
       <c r="D16" s="63"/>
       <c r="E16" s="63"/>
@@ -11864,7 +11872,7 @@
       <c r="I16" s="63"/>
     </row>
     <row r="17" spans="1:10" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="151" t="s">
+      <c r="B17" s="164" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="70"/>
@@ -11876,7 +11884,7 @@
       <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:10" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="152"/>
+      <c r="B18" s="148"/>
       <c r="C18" s="72"/>
       <c r="D18" s="63"/>
       <c r="E18" s="71"/>
@@ -11886,7 +11894,7 @@
       <c r="I18" s="63"/>
     </row>
     <row r="19" spans="1:10" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="152"/>
+      <c r="B19" s="148"/>
       <c r="C19" s="63"/>
       <c r="D19" s="63"/>
       <c r="E19" s="63"/>
@@ -11896,7 +11904,7 @@
       <c r="I19" s="63"/>
     </row>
     <row r="20" spans="1:10" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="139" t="s">
+      <c r="B20" s="147" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7"/>
@@ -11908,7 +11916,7 @@
       <c r="I20" s="7"/>
     </row>
     <row r="21" spans="1:10" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="140"/>
+      <c r="B21" s="139"/>
       <c r="C21" s="63"/>
       <c r="D21" s="63"/>
       <c r="E21" s="63"/>
@@ -11918,7 +11926,7 @@
       <c r="I21" s="63"/>
     </row>
     <row r="22" spans="1:10" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="140"/>
+      <c r="B22" s="139"/>
       <c r="C22" s="63"/>
       <c r="D22" s="63"/>
       <c r="E22" s="63"/>
@@ -11928,7 +11936,7 @@
       <c r="I22" s="63"/>
     </row>
     <row r="23" spans="1:10" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="142" t="s">
+      <c r="B23" s="151" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="7"/>
@@ -11940,7 +11948,7 @@
       <c r="I23" s="7"/>
     </row>
     <row r="24" spans="1:10" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="143"/>
+      <c r="B24" s="141"/>
       <c r="C24" s="63"/>
       <c r="D24" s="63"/>
       <c r="E24" s="63"/>
@@ -11950,7 +11958,7 @@
       <c r="I24" s="63"/>
     </row>
     <row r="25" spans="1:10" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="143"/>
+      <c r="B25" s="141"/>
       <c r="C25" s="63"/>
       <c r="D25" s="63"/>
       <c r="E25" s="63"/>
@@ -11960,7 +11968,7 @@
       <c r="I25" s="63"/>
     </row>
     <row r="26" spans="1:10" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="145" t="s">
+      <c r="B26" s="150" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="7"/>
@@ -11972,7 +11980,7 @@
       <c r="I26" s="7"/>
     </row>
     <row r="27" spans="1:10" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="146"/>
+      <c r="B27" s="143"/>
       <c r="C27" s="63"/>
       <c r="D27" s="63"/>
       <c r="E27" s="63"/>
@@ -11982,7 +11990,7 @@
       <c r="I27" s="63"/>
     </row>
     <row r="28" spans="1:10" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="146"/>
+      <c r="B28" s="143"/>
       <c r="C28" s="63"/>
       <c r="D28" s="63"/>
       <c r="E28" s="63"/>
@@ -11992,7 +12000,7 @@
       <c r="I28" s="63"/>
     </row>
     <row r="29" spans="1:10" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="167" t="s">
+      <c r="B29" s="161" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="60"/>
@@ -12004,7 +12012,7 @@
       <c r="I29" s="7"/>
     </row>
     <row r="30" spans="1:10" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="168"/>
+      <c r="B30" s="145"/>
       <c r="C30" s="63"/>
       <c r="D30" s="63"/>
       <c r="E30" s="63"/>
@@ -12014,7 +12022,7 @@
       <c r="I30" s="63"/>
     </row>
     <row r="31" spans="1:10" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="168"/>
+      <c r="B31" s="145"/>
       <c r="C31" s="63"/>
       <c r="D31" s="63"/>
       <c r="E31" s="63"/>
@@ -12025,7 +12033,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
-      <c r="B32" s="158"/>
+      <c r="B32" s="162"/>
       <c r="C32" s="55" t="s">
         <v>712</v>
       </c>
@@ -12051,7 +12059,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
-      <c r="B33" s="159"/>
+      <c r="B33" s="163"/>
       <c r="C33" s="121" t="s">
         <v>711</v>
       </c>
@@ -12077,7 +12085,7 @@
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
-      <c r="B34" s="148" t="s">
+      <c r="B34" s="168" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="63" t="s">
@@ -12099,7 +12107,7 @@
     </row>
     <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="120"/>
-      <c r="B35" s="149"/>
+      <c r="B35" s="152"/>
       <c r="C35" s="63" t="s">
         <v>870</v>
       </c>
@@ -12119,7 +12127,7 @@
     </row>
     <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="120"/>
-      <c r="B36" s="149"/>
+      <c r="B36" s="152"/>
       <c r="C36" s="63" t="s">
         <v>869</v>
       </c>
@@ -12133,7 +12141,7 @@
     </row>
     <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="120"/>
-      <c r="B37" s="149"/>
+      <c r="B37" s="152"/>
       <c r="C37" s="63" t="s">
         <v>879</v>
       </c>
@@ -12147,7 +12155,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
-      <c r="B38" s="149"/>
+      <c r="B38" s="152"/>
       <c r="C38" s="126" t="s">
         <v>883</v>
       </c>
@@ -12161,7 +12169,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" s="124"/>
-      <c r="B39" s="149"/>
+      <c r="B39" s="152"/>
       <c r="C39" s="61" t="s">
         <v>884</v>
       </c>
@@ -12175,7 +12183,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40" s="124"/>
-      <c r="B40" s="149"/>
+      <c r="B40" s="152"/>
       <c r="C40" s="61" t="s">
         <v>885</v>
       </c>
@@ -12189,7 +12197,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41" s="125"/>
-      <c r="B41" s="149"/>
+      <c r="B41" s="152"/>
       <c r="C41" s="61" t="s">
         <v>888</v>
       </c>
@@ -12203,7 +12211,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A42" s="125"/>
-      <c r="B42" s="149"/>
+      <c r="B42" s="152"/>
       <c r="C42" s="61" t="s">
         <v>893</v>
       </c>
@@ -12217,7 +12225,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A43" s="1"/>
-      <c r="B43" s="150"/>
+      <c r="B43" s="153"/>
       <c r="C43" s="63" t="s">
         <v>900</v>
       </c>
@@ -12231,7 +12239,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44" s="1"/>
-      <c r="B44" s="151" t="s">
+      <c r="B44" s="164" t="s">
         <v>9</v>
       </c>
       <c r="C44" s="70"/>
@@ -12247,7 +12255,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45" s="1"/>
-      <c r="B45" s="152"/>
+      <c r="B45" s="148"/>
       <c r="C45" s="72"/>
       <c r="D45" s="5"/>
       <c r="E45" s="71"/>
@@ -12259,7 +12267,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A46" s="1"/>
-      <c r="B46" s="152"/>
+      <c r="B46" s="148"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
@@ -12271,7 +12279,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A47" s="1"/>
-      <c r="B47" s="139" t="s">
+      <c r="B47" s="147" t="s">
         <v>10</v>
       </c>
       <c r="C47" s="7"/>
@@ -12285,7 +12293,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A48" s="1"/>
-      <c r="B48" s="140"/>
+      <c r="B48" s="139"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -12297,7 +12305,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A49" s="1"/>
-      <c r="B49" s="140"/>
+      <c r="B49" s="139"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -12309,7 +12317,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A50" s="1"/>
-      <c r="B50" s="142" t="s">
+      <c r="B50" s="151" t="s">
         <v>11</v>
       </c>
       <c r="C50" s="7"/>
@@ -12323,7 +12331,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A51" s="1"/>
-      <c r="B51" s="143"/>
+      <c r="B51" s="141"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
@@ -12335,7 +12343,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A52" s="1"/>
-      <c r="B52" s="143"/>
+      <c r="B52" s="141"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -12347,7 +12355,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A53" s="1"/>
-      <c r="B53" s="145" t="s">
+      <c r="B53" s="150" t="s">
         <v>12</v>
       </c>
       <c r="C53" s="7"/>
@@ -12361,7 +12369,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A54" s="1"/>
-      <c r="B54" s="146"/>
+      <c r="B54" s="143"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
@@ -12373,7 +12381,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A55" s="1"/>
-      <c r="B55" s="146"/>
+      <c r="B55" s="143"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -12385,7 +12393,7 @@
     </row>
     <row r="56" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="1"/>
-      <c r="B56" s="167" t="s">
+      <c r="B56" s="161" t="s">
         <v>13</v>
       </c>
       <c r="C56" s="60"/>
@@ -12399,7 +12407,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A57" s="1"/>
-      <c r="B57" s="168"/>
+      <c r="B57" s="145"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
@@ -12411,7 +12419,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A58" s="1"/>
-      <c r="B58" s="168"/>
+      <c r="B58" s="145"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -12475,10 +12483,12 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A61" s="1"/>
-      <c r="B61" s="148" t="s">
+      <c r="B61" s="168" t="s">
         <v>8</v>
       </c>
-      <c r="C61" s="7"/>
+      <c r="C61" s="7" t="s">
+        <v>906</v>
+      </c>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
@@ -12489,7 +12499,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A62" s="1"/>
-      <c r="B62" s="149"/>
+      <c r="B62" s="152"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -12501,7 +12511,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A63" s="1"/>
-      <c r="B63" s="150"/>
+      <c r="B63" s="153"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
@@ -12513,7 +12523,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A64" s="1"/>
-      <c r="B64" s="151" t="s">
+      <c r="B64" s="164" t="s">
         <v>9</v>
       </c>
       <c r="C64" s="7" t="s">
@@ -12537,7 +12547,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A65" s="1"/>
-      <c r="B65" s="152"/>
+      <c r="B65" s="148"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5" t="s">
@@ -12555,7 +12565,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A66" s="124"/>
-      <c r="B66" s="152"/>
+      <c r="B66" s="148"/>
       <c r="C66" s="63"/>
       <c r="D66" s="63"/>
       <c r="E66" s="63" t="s">
@@ -12571,7 +12581,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A67" s="125"/>
-      <c r="B67" s="152"/>
+      <c r="B67" s="148"/>
       <c r="C67" s="63"/>
       <c r="D67" s="63"/>
       <c r="E67" s="63"/>
@@ -12585,7 +12595,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A68" s="125"/>
-      <c r="B68" s="152"/>
+      <c r="B68" s="148"/>
       <c r="C68" s="63"/>
       <c r="D68" s="63"/>
       <c r="E68" s="63"/>
@@ -12596,7 +12606,7 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A69" s="125"/>
-      <c r="B69" s="152"/>
+      <c r="B69" s="148"/>
       <c r="C69" s="63"/>
       <c r="D69" s="63"/>
       <c r="E69" s="63"/>
@@ -12608,7 +12618,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A70" s="1"/>
-      <c r="B70" s="153"/>
+      <c r="B70" s="149"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
@@ -12620,7 +12630,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A71" s="1"/>
-      <c r="B71" s="139" t="s">
+      <c r="B71" s="147" t="s">
         <v>10</v>
       </c>
       <c r="C71" s="7"/>
@@ -12634,7 +12644,7 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A72" s="1"/>
-      <c r="B72" s="140"/>
+      <c r="B72" s="139"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -12646,7 +12656,7 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A73" s="1"/>
-      <c r="B73" s="141"/>
+      <c r="B73" s="140"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
@@ -12658,7 +12668,7 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A74" s="1"/>
-      <c r="B74" s="142" t="s">
+      <c r="B74" s="151" t="s">
         <v>11</v>
       </c>
       <c r="C74" s="7"/>
@@ -12672,7 +12682,7 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A75" s="1"/>
-      <c r="B75" s="143"/>
+      <c r="B75" s="141"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -12684,7 +12694,7 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A76" s="1"/>
-      <c r="B76" s="144"/>
+      <c r="B76" s="142"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
@@ -12696,7 +12706,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A77" s="1"/>
-      <c r="B77" s="145" t="s">
+      <c r="B77" s="150" t="s">
         <v>12</v>
       </c>
       <c r="C77" s="7"/>
@@ -12710,7 +12720,7 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A78" s="1"/>
-      <c r="B78" s="146"/>
+      <c r="B78" s="143"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -12722,7 +12732,7 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A79" s="1"/>
-      <c r="B79" s="147"/>
+      <c r="B79" s="144"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
@@ -12734,7 +12744,7 @@
     </row>
     <row r="80" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="1"/>
-      <c r="B80" s="167" t="s">
+      <c r="B80" s="161" t="s">
         <v>13</v>
       </c>
       <c r="C80" s="7"/>
@@ -12748,7 +12758,7 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A81" s="1"/>
-      <c r="B81" s="168"/>
+      <c r="B81" s="145"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -12760,7 +12770,7 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A82" s="1"/>
-      <c r="B82" s="169"/>
+      <c r="B82" s="146"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
@@ -12824,7 +12834,7 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A85" s="1"/>
-      <c r="B85" s="148" t="s">
+      <c r="B85" s="168" t="s">
         <v>8</v>
       </c>
       <c r="C85" s="7"/>
@@ -12838,7 +12848,7 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A86" s="1"/>
-      <c r="B86" s="149"/>
+      <c r="B86" s="152"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
@@ -12850,7 +12860,7 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A87" s="1"/>
-      <c r="B87" s="150"/>
+      <c r="B87" s="153"/>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
@@ -12862,7 +12872,7 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A88" s="1"/>
-      <c r="B88" s="151" t="s">
+      <c r="B88" s="164" t="s">
         <v>9</v>
       </c>
       <c r="C88" s="7" t="s">
@@ -12884,7 +12894,7 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A89" s="1"/>
-      <c r="B89" s="152"/>
+      <c r="B89" s="148"/>
       <c r="C89" s="5" t="s">
         <v>862</v>
       </c>
@@ -12904,7 +12914,7 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A90" s="124"/>
-      <c r="B90" s="152"/>
+      <c r="B90" s="148"/>
       <c r="C90" s="63" t="s">
         <v>882</v>
       </c>
@@ -12922,7 +12932,7 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A91" s="125"/>
-      <c r="B91" s="152"/>
+      <c r="B91" s="148"/>
       <c r="C91" s="61" t="s">
         <v>876</v>
       </c>
@@ -12938,7 +12948,7 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A92" s="125"/>
-      <c r="B92" s="152"/>
+      <c r="B92" s="148"/>
       <c r="C92" s="63" t="s">
         <v>890</v>
       </c>
@@ -12952,7 +12962,7 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A93" s="125"/>
-      <c r="B93" s="152"/>
+      <c r="B93" s="148"/>
       <c r="C93" s="63" t="s">
         <v>899</v>
       </c>
@@ -12966,7 +12976,7 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A94" s="1"/>
-      <c r="B94" s="153"/>
+      <c r="B94" s="149"/>
       <c r="C94" s="61" t="s">
         <v>901</v>
       </c>
@@ -12980,7 +12990,7 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A95" s="1"/>
-      <c r="B95" s="139" t="s">
+      <c r="B95" s="147" t="s">
         <v>10</v>
       </c>
       <c r="C95" s="7"/>
@@ -12994,7 +13004,7 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A96" s="1"/>
-      <c r="B96" s="140"/>
+      <c r="B96" s="139"/>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
@@ -13006,7 +13016,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A97" s="1"/>
-      <c r="B97" s="141"/>
+      <c r="B97" s="140"/>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
       <c r="E97" s="6"/>
@@ -13018,7 +13028,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A98" s="1"/>
-      <c r="B98" s="142" t="s">
+      <c r="B98" s="151" t="s">
         <v>11</v>
       </c>
       <c r="C98" s="7"/>
@@ -13032,7 +13042,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A99" s="1"/>
-      <c r="B99" s="143"/>
+      <c r="B99" s="141"/>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
@@ -13044,7 +13054,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A100" s="1"/>
-      <c r="B100" s="144"/>
+      <c r="B100" s="142"/>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
       <c r="E100" s="6"/>
@@ -13056,7 +13066,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A101" s="1"/>
-      <c r="B101" s="145" t="s">
+      <c r="B101" s="150" t="s">
         <v>12</v>
       </c>
       <c r="C101" s="7"/>
@@ -13070,7 +13080,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A102" s="1"/>
-      <c r="B102" s="146"/>
+      <c r="B102" s="143"/>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
@@ -13082,7 +13092,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A103" s="1"/>
-      <c r="B103" s="147"/>
+      <c r="B103" s="144"/>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
       <c r="E103" s="6"/>
@@ -13095,7 +13105,7 @@
     </row>
     <row r="104" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="1"/>
-      <c r="B104" s="167" t="s">
+      <c r="B104" s="161" t="s">
         <v>13</v>
       </c>
       <c r="C104" s="7"/>
@@ -13110,7 +13120,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A105" s="1"/>
-      <c r="B105" s="168"/>
+      <c r="B105" s="145"/>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
@@ -13123,7 +13133,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A106" s="1"/>
-      <c r="B106" s="169"/>
+      <c r="B106" s="146"/>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
       <c r="E106" s="6"/>
@@ -13190,7 +13200,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A109" s="1"/>
-      <c r="B109" s="149" t="s">
+      <c r="B109" s="152" t="s">
         <v>8</v>
       </c>
       <c r="C109" s="5"/>
@@ -13205,7 +13215,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A110" s="1"/>
-      <c r="B110" s="149"/>
+      <c r="B110" s="152"/>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
@@ -13218,7 +13228,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A111" s="1"/>
-      <c r="B111" s="150"/>
+      <c r="B111" s="153"/>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
       <c r="E111" s="6"/>
@@ -13231,7 +13241,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A112" s="1"/>
-      <c r="B112" s="152" t="s">
+      <c r="B112" s="148" t="s">
         <v>9</v>
       </c>
       <c r="C112" s="5"/>
@@ -13248,7 +13258,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A113" s="1"/>
-      <c r="B113" s="152"/>
+      <c r="B113" s="148"/>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
@@ -13261,7 +13271,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A114" s="1"/>
-      <c r="B114" s="153"/>
+      <c r="B114" s="149"/>
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
       <c r="E114" s="6"/>
@@ -13274,7 +13284,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A115" s="1"/>
-      <c r="B115" s="140" t="s">
+      <c r="B115" s="139" t="s">
         <v>10</v>
       </c>
       <c r="C115" s="5"/>
@@ -13291,7 +13301,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A116" s="1"/>
-      <c r="B116" s="140"/>
+      <c r="B116" s="139"/>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
@@ -13304,7 +13314,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A117" s="1"/>
-      <c r="B117" s="141"/>
+      <c r="B117" s="140"/>
       <c r="C117" s="6"/>
       <c r="D117" s="6"/>
       <c r="E117" s="6"/>
@@ -13317,7 +13327,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A118" s="1"/>
-      <c r="B118" s="143" t="s">
+      <c r="B118" s="141" t="s">
         <v>11</v>
       </c>
       <c r="C118" s="5"/>
@@ -13332,7 +13342,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A119" s="1"/>
-      <c r="B119" s="143"/>
+      <c r="B119" s="141"/>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
@@ -13345,7 +13355,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A120" s="1"/>
-      <c r="B120" s="144"/>
+      <c r="B120" s="142"/>
       <c r="C120" s="6"/>
       <c r="D120" s="6"/>
       <c r="E120" s="6"/>
@@ -13358,7 +13368,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A121" s="1"/>
-      <c r="B121" s="146" t="s">
+      <c r="B121" s="143" t="s">
         <v>12</v>
       </c>
       <c r="C121" s="5"/>
@@ -13373,7 +13383,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A122" s="1"/>
-      <c r="B122" s="146"/>
+      <c r="B122" s="143"/>
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
@@ -13386,7 +13396,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A123" s="1"/>
-      <c r="B123" s="147"/>
+      <c r="B123" s="144"/>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
       <c r="E123" s="6"/>
@@ -13398,7 +13408,7 @@
     </row>
     <row r="124" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="1"/>
-      <c r="B124" s="168" t="s">
+      <c r="B124" s="145" t="s">
         <v>13</v>
       </c>
       <c r="C124" s="5"/>
@@ -13412,7 +13422,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A125" s="1"/>
-      <c r="B125" s="168"/>
+      <c r="B125" s="145"/>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
@@ -13424,7 +13434,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A126" s="1"/>
-      <c r="B126" s="169"/>
+      <c r="B126" s="146"/>
       <c r="C126" s="6"/>
       <c r="D126" s="6"/>
       <c r="E126" s="6"/>
@@ -15962,15 +15972,21 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B115:B117"/>
-    <mergeCell ref="B118:B120"/>
-    <mergeCell ref="B121:B123"/>
-    <mergeCell ref="B124:B126"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B112:B114"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B109:B111"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="B88:B94"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B64:B70"/>
+    <mergeCell ref="B34:B43"/>
+    <mergeCell ref="B44:B46"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="A5:XFD5"/>
     <mergeCell ref="B3:I3"/>
@@ -15987,21 +16003,15 @@
     <mergeCell ref="B80:B82"/>
     <mergeCell ref="B47:B49"/>
     <mergeCell ref="B50:B52"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B64:B70"/>
-    <mergeCell ref="B34:B43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="B88:B94"/>
+    <mergeCell ref="B115:B117"/>
+    <mergeCell ref="B118:B120"/>
+    <mergeCell ref="B121:B123"/>
+    <mergeCell ref="B124:B126"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B112:B114"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B109:B111"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -16020,8 +16030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M577"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -16033,41 +16043,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="119.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="160"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="162"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="156"/>
     </row>
     <row r="2" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
-      <c r="B2" s="170" t="s">
+      <c r="B2" s="165" t="s">
         <v>741</v>
       </c>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="183"/>
-      <c r="I2" s="184"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="186"/>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="67"/>
-      <c r="B3" s="164" t="s">
+      <c r="B3" s="158" t="s">
         <v>540</v>
       </c>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="166"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="160"/>
       <c r="J3" s="67"/>
     </row>
     <row r="4" spans="1:10" s="76" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -16076,24 +16086,24 @@
         <v>847</v>
       </c>
       <c r="C4" s="188"/>
-      <c r="D4" s="156" t="s">
+      <c r="D4" s="171" t="s">
         <v>544</v>
       </c>
-      <c r="E4" s="157"/>
-      <c r="F4" s="156" t="s">
+      <c r="E4" s="172"/>
+      <c r="F4" s="171" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="189"/>
-      <c r="H4" s="156" t="s">
+      <c r="H4" s="171" t="s">
         <v>529</v>
       </c>
-      <c r="I4" s="157"/>
+      <c r="I4" s="172"/>
       <c r="J4" s="74"/>
     </row>
-    <row r="5" spans="1:10" s="163" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:10" s="157" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="158"/>
+      <c r="B6" s="162"/>
       <c r="C6" s="55" t="s">
         <v>742</v>
       </c>
@@ -16119,7 +16129,7 @@
     </row>
     <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="159"/>
+      <c r="B7" s="163"/>
       <c r="C7" s="56" t="s">
         <v>1</v>
       </c>
@@ -16183,7 +16193,7 @@
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="173" t="s">
+      <c r="B11" s="183" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="11"/>
@@ -16197,7 +16207,7 @@
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="173"/>
+      <c r="B12" s="183"/>
       <c r="C12" s="11"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -16209,7 +16219,7 @@
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="174"/>
+      <c r="B13" s="184"/>
       <c r="C13" s="10"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -16335,7 +16345,7 @@
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
-      <c r="B23" s="185" t="s">
+      <c r="B23" s="173" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="11"/>
@@ -16349,7 +16359,7 @@
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
-      <c r="B24" s="185"/>
+      <c r="B24" s="173"/>
       <c r="C24" s="11"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -16361,7 +16371,7 @@
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
-      <c r="B25" s="186"/>
+      <c r="B25" s="174"/>
       <c r="C25" s="10"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -16463,7 +16473,7 @@
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
-      <c r="B31" s="173" t="s">
+      <c r="B31" s="183" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="11"/>
@@ -16472,14 +16482,16 @@
         <v>865</v>
       </c>
       <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
+      <c r="G31" s="5" t="s">
+        <v>907</v>
+      </c>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
-      <c r="B32" s="173"/>
+      <c r="B32" s="183"/>
       <c r="C32" s="11"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -16491,7 +16503,7 @@
     </row>
     <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
-      <c r="B33" s="174"/>
+      <c r="B33" s="184"/>
       <c r="C33" s="10"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -16619,7 +16631,7 @@
     </row>
     <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1"/>
-      <c r="B43" s="185" t="s">
+      <c r="B43" s="173" t="s">
         <v>13</v>
       </c>
       <c r="C43" s="11"/>
@@ -16633,7 +16645,7 @@
     </row>
     <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="1"/>
-      <c r="B44" s="185"/>
+      <c r="B44" s="173"/>
       <c r="C44" s="11"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -16645,7 +16657,7 @@
     </row>
     <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1"/>
-      <c r="B45" s="186"/>
+      <c r="B45" s="174"/>
       <c r="C45" s="10"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
@@ -16747,7 +16759,7 @@
     </row>
     <row r="51" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1"/>
-      <c r="B51" s="173" t="s">
+      <c r="B51" s="183" t="s">
         <v>9</v>
       </c>
       <c r="C51" s="11"/>
@@ -16761,7 +16773,7 @@
     </row>
     <row r="52" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1"/>
-      <c r="B52" s="173"/>
+      <c r="B52" s="183"/>
       <c r="C52" s="11"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -16773,7 +16785,7 @@
     </row>
     <row r="53" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="1"/>
-      <c r="B53" s="174"/>
+      <c r="B53" s="184"/>
       <c r="C53" s="10"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
@@ -16900,7 +16912,7 @@
     </row>
     <row r="63" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="1"/>
-      <c r="B63" s="185" t="s">
+      <c r="B63" s="173" t="s">
         <v>13</v>
       </c>
       <c r="C63" s="11"/>
@@ -16914,7 +16926,7 @@
     </row>
     <row r="64" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="1"/>
-      <c r="B64" s="185"/>
+      <c r="B64" s="173"/>
       <c r="C64" s="11"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -16929,7 +16941,7 @@
     </row>
     <row r="65" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="1"/>
-      <c r="B65" s="186"/>
+      <c r="B65" s="174"/>
       <c r="C65" s="10"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
@@ -17049,7 +17061,7 @@
     </row>
     <row r="71" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="1"/>
-      <c r="B71" s="173" t="s">
+      <c r="B71" s="183" t="s">
         <v>9</v>
       </c>
       <c r="C71" s="11"/>
@@ -17066,7 +17078,7 @@
     </row>
     <row r="72" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="1"/>
-      <c r="B72" s="173"/>
+      <c r="B72" s="183"/>
       <c r="C72" s="11"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -17081,7 +17093,7 @@
     </row>
     <row r="73" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="1"/>
-      <c r="B73" s="174"/>
+      <c r="B73" s="184"/>
       <c r="C73" s="10"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
@@ -17237,7 +17249,7 @@
     </row>
     <row r="83" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="1"/>
-      <c r="B83" s="185" t="s">
+      <c r="B83" s="173" t="s">
         <v>13</v>
       </c>
       <c r="C83" s="11"/>
@@ -17254,7 +17266,7 @@
     </row>
     <row r="84" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="1"/>
-      <c r="B84" s="185"/>
+      <c r="B84" s="173"/>
       <c r="C84" s="11"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -17269,7 +17281,7 @@
     </row>
     <row r="85" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="1"/>
-      <c r="B85" s="186"/>
+      <c r="B85" s="174"/>
       <c r="C85" s="10"/>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
@@ -17377,7 +17389,7 @@
     </row>
     <row r="91" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="1"/>
-      <c r="B91" s="173" t="s">
+      <c r="B91" s="183" t="s">
         <v>9</v>
       </c>
       <c r="C91" s="11"/>
@@ -17391,7 +17403,7 @@
     </row>
     <row r="92" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="1"/>
-      <c r="B92" s="173"/>
+      <c r="B92" s="183"/>
       <c r="C92" s="11"/>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -17403,7 +17415,7 @@
     </row>
     <row r="93" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="1"/>
-      <c r="B93" s="174"/>
+      <c r="B93" s="184"/>
       <c r="C93" s="10"/>
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
@@ -17529,7 +17541,7 @@
     </row>
     <row r="103" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="1"/>
-      <c r="B103" s="185" t="s">
+      <c r="B103" s="173" t="s">
         <v>13</v>
       </c>
       <c r="C103" s="11"/>
@@ -17543,7 +17555,7 @@
     </row>
     <row r="104" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="1"/>
-      <c r="B104" s="185"/>
+      <c r="B104" s="173"/>
       <c r="C104" s="11"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
@@ -17555,7 +17567,7 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A105" s="1"/>
-      <c r="B105" s="186"/>
+      <c r="B105" s="174"/>
       <c r="C105" s="69"/>
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
@@ -21821,6 +21833,29 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B6:B7"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B103:B105"/>
     <mergeCell ref="A5:XFD5"/>
@@ -21837,29 +21872,6 @@
     <mergeCell ref="B54:B56"/>
     <mergeCell ref="B57:B59"/>
     <mergeCell ref="B60:B62"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B68:B70"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -21902,30 +21914,30 @@
     </row>
     <row r="2" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
-      <c r="B2" s="170" t="s">
+      <c r="B2" s="165" t="s">
         <v>778</v>
       </c>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
-      <c r="G2" s="171"/>
-      <c r="H2" s="171"/>
-      <c r="I2" s="172"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="167"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="67"/>
-      <c r="B3" s="164" t="s">
+      <c r="B3" s="158" t="s">
         <v>540</v>
       </c>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="166"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="160"/>
       <c r="J3" s="67"/>
     </row>
     <row r="4" spans="1:10" s="77" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -21934,24 +21946,24 @@
         <v>849</v>
       </c>
       <c r="C4" s="188"/>
-      <c r="D4" s="156" t="s">
+      <c r="D4" s="171" t="s">
         <v>545</v>
       </c>
-      <c r="E4" s="157"/>
-      <c r="F4" s="156" t="s">
+      <c r="E4" s="172"/>
+      <c r="F4" s="171" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="189"/>
-      <c r="H4" s="156" t="s">
+      <c r="H4" s="171" t="s">
         <v>529</v>
       </c>
-      <c r="I4" s="157"/>
+      <c r="I4" s="172"/>
       <c r="J4" s="74"/>
     </row>
-    <row r="5" spans="1:10" s="163" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:10" s="157" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="158"/>
+      <c r="B6" s="162"/>
       <c r="C6" s="104" t="s">
         <v>779</v>
       </c>
@@ -21977,7 +21989,7 @@
     </row>
     <row r="7" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="159"/>
+      <c r="B7" s="163"/>
       <c r="C7" s="105" t="s">
         <v>780</v>
       </c>
@@ -22003,7 +22015,7 @@
     </row>
     <row r="8" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="149" t="s">
+      <c r="B8" s="152" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="5"/>
@@ -22017,7 +22029,7 @@
     </row>
     <row r="9" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="149"/>
+      <c r="B9" s="152"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -22029,7 +22041,7 @@
     </row>
     <row r="10" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="150"/>
+      <c r="B10" s="153"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -22041,7 +22053,7 @@
     </row>
     <row r="11" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="152" t="s">
+      <c r="B11" s="148" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="5"/>
@@ -22055,7 +22067,7 @@
     </row>
     <row r="12" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="152"/>
+      <c r="B12" s="148"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -22067,7 +22079,7 @@
     </row>
     <row r="13" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="153"/>
+      <c r="B13" s="149"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -22079,7 +22091,7 @@
     </row>
     <row r="14" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="140" t="s">
+      <c r="B14" s="139" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="5"/>
@@ -22093,7 +22105,7 @@
     </row>
     <row r="15" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="140"/>
+      <c r="B15" s="139"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -22105,7 +22117,7 @@
     </row>
     <row r="16" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
-      <c r="B16" s="141"/>
+      <c r="B16" s="140"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -22117,7 +22129,7 @@
     </row>
     <row r="17" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
-      <c r="B17" s="143" t="s">
+      <c r="B17" s="141" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="5"/>
@@ -22131,7 +22143,7 @@
     </row>
     <row r="18" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
-      <c r="B18" s="143"/>
+      <c r="B18" s="141"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -22143,7 +22155,7 @@
     </row>
     <row r="19" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
-      <c r="B19" s="144"/>
+      <c r="B19" s="142"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -22155,7 +22167,7 @@
     </row>
     <row r="20" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
-      <c r="B20" s="146" t="s">
+      <c r="B20" s="143" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="5"/>
@@ -22169,7 +22181,7 @@
     </row>
     <row r="21" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
-      <c r="B21" s="146"/>
+      <c r="B21" s="143"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -22181,7 +22193,7 @@
     </row>
     <row r="22" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
-      <c r="B22" s="147"/>
+      <c r="B22" s="144"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -22193,7 +22205,7 @@
     </row>
     <row r="23" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
-      <c r="B23" s="168" t="s">
+      <c r="B23" s="145" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="5"/>
@@ -22207,7 +22219,7 @@
     </row>
     <row r="24" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
-      <c r="B24" s="168"/>
+      <c r="B24" s="145"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -22219,7 +22231,7 @@
     </row>
     <row r="25" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
-      <c r="B25" s="169"/>
+      <c r="B25" s="146"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -22283,7 +22295,7 @@
     </row>
     <row r="28" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
-      <c r="B28" s="149" t="s">
+      <c r="B28" s="152" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="5"/>
@@ -22298,7 +22310,7 @@
     </row>
     <row r="29" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
-      <c r="B29" s="149"/>
+      <c r="B29" s="152"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -22310,7 +22322,7 @@
     </row>
     <row r="30" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
-      <c r="B30" s="150"/>
+      <c r="B30" s="153"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -22322,7 +22334,7 @@
     </row>
     <row r="31" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
-      <c r="B31" s="152" t="s">
+      <c r="B31" s="148" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="5"/>
@@ -22336,7 +22348,7 @@
     </row>
     <row r="32" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
-      <c r="B32" s="152"/>
+      <c r="B32" s="148"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -22348,7 +22360,7 @@
     </row>
     <row r="33" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
-      <c r="B33" s="153"/>
+      <c r="B33" s="149"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -22360,7 +22372,7 @@
     </row>
     <row r="34" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
-      <c r="B34" s="140" t="s">
+      <c r="B34" s="139" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="5"/>
@@ -22374,7 +22386,7 @@
     </row>
     <row r="35" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
-      <c r="B35" s="140"/>
+      <c r="B35" s="139"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -22386,7 +22398,7 @@
     </row>
     <row r="36" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
-      <c r="B36" s="141"/>
+      <c r="B36" s="140"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -22398,7 +22410,7 @@
     </row>
     <row r="37" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
-      <c r="B37" s="143" t="s">
+      <c r="B37" s="141" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="5"/>
@@ -22412,7 +22424,7 @@
     </row>
     <row r="38" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
-      <c r="B38" s="143"/>
+      <c r="B38" s="141"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -22424,7 +22436,7 @@
     </row>
     <row r="39" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1"/>
-      <c r="B39" s="144"/>
+      <c r="B39" s="142"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -22436,7 +22448,7 @@
     </row>
     <row r="40" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1"/>
-      <c r="B40" s="146" t="s">
+      <c r="B40" s="143" t="s">
         <v>12</v>
       </c>
       <c r="C40" s="5"/>
@@ -22450,7 +22462,7 @@
     </row>
     <row r="41" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1"/>
-      <c r="B41" s="146"/>
+      <c r="B41" s="143"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -22462,7 +22474,7 @@
     </row>
     <row r="42" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="1"/>
-      <c r="B42" s="147"/>
+      <c r="B42" s="144"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -22474,7 +22486,7 @@
     </row>
     <row r="43" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1"/>
-      <c r="B43" s="168" t="s">
+      <c r="B43" s="145" t="s">
         <v>13</v>
       </c>
       <c r="C43" s="5"/>
@@ -22488,7 +22500,7 @@
     </row>
     <row r="44" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="1"/>
-      <c r="B44" s="168"/>
+      <c r="B44" s="145"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -22500,7 +22512,7 @@
     </row>
     <row r="45" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1"/>
-      <c r="B45" s="169"/>
+      <c r="B45" s="146"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
@@ -22564,7 +22576,7 @@
     </row>
     <row r="48" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="1"/>
-      <c r="B48" s="149" t="s">
+      <c r="B48" s="152" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="5"/>
@@ -22578,7 +22590,7 @@
     </row>
     <row r="49" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1"/>
-      <c r="B49" s="149"/>
+      <c r="B49" s="152"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -22590,7 +22602,7 @@
     </row>
     <row r="50" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="1"/>
-      <c r="B50" s="150"/>
+      <c r="B50" s="153"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
@@ -22602,7 +22614,7 @@
     </row>
     <row r="51" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1"/>
-      <c r="B51" s="152" t="s">
+      <c r="B51" s="148" t="s">
         <v>9</v>
       </c>
       <c r="C51" s="5"/>
@@ -22616,7 +22628,7 @@
     </row>
     <row r="52" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1"/>
-      <c r="B52" s="152"/>
+      <c r="B52" s="148"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -22628,7 +22640,7 @@
     </row>
     <row r="53" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="1"/>
-      <c r="B53" s="153"/>
+      <c r="B53" s="149"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
@@ -22640,7 +22652,7 @@
     </row>
     <row r="54" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="1"/>
-      <c r="B54" s="140" t="s">
+      <c r="B54" s="139" t="s">
         <v>10</v>
       </c>
       <c r="C54" s="5"/>
@@ -22654,7 +22666,7 @@
     </row>
     <row r="55" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="1"/>
-      <c r="B55" s="140"/>
+      <c r="B55" s="139"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -22666,7 +22678,7 @@
     </row>
     <row r="56" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="1"/>
-      <c r="B56" s="141"/>
+      <c r="B56" s="140"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
@@ -22678,7 +22690,7 @@
     </row>
     <row r="57" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="1"/>
-      <c r="B57" s="143" t="s">
+      <c r="B57" s="141" t="s">
         <v>11</v>
       </c>
       <c r="C57" s="5"/>
@@ -22692,7 +22704,7 @@
     </row>
     <row r="58" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="1"/>
-      <c r="B58" s="143"/>
+      <c r="B58" s="141"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -22704,7 +22716,7 @@
     </row>
     <row r="59" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="1"/>
-      <c r="B59" s="144"/>
+      <c r="B59" s="142"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
@@ -22716,7 +22728,7 @@
     </row>
     <row r="60" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="1"/>
-      <c r="B60" s="146" t="s">
+      <c r="B60" s="143" t="s">
         <v>12</v>
       </c>
       <c r="C60" s="5"/>
@@ -22730,7 +22742,7 @@
     </row>
     <row r="61" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="1"/>
-      <c r="B61" s="146"/>
+      <c r="B61" s="143"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -22742,7 +22754,7 @@
     </row>
     <row r="62" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="1"/>
-      <c r="B62" s="147"/>
+      <c r="B62" s="144"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
@@ -22754,7 +22766,7 @@
     </row>
     <row r="63" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="1"/>
-      <c r="B63" s="168" t="s">
+      <c r="B63" s="145" t="s">
         <v>13</v>
       </c>
       <c r="C63" s="5"/>
@@ -22768,7 +22780,7 @@
     </row>
     <row r="64" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="1"/>
-      <c r="B64" s="168"/>
+      <c r="B64" s="145"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -22780,7 +22792,7 @@
     </row>
     <row r="65" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="1"/>
-      <c r="B65" s="169"/>
+      <c r="B65" s="146"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
@@ -22847,7 +22859,7 @@
     </row>
     <row r="68" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="1"/>
-      <c r="B68" s="149" t="s">
+      <c r="B68" s="152" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="5"/>
@@ -22862,7 +22874,7 @@
     </row>
     <row r="69" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="1"/>
-      <c r="B69" s="149"/>
+      <c r="B69" s="152"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -22875,7 +22887,7 @@
     </row>
     <row r="70" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="1"/>
-      <c r="B70" s="150"/>
+      <c r="B70" s="153"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
@@ -22888,7 +22900,7 @@
     </row>
     <row r="71" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="1"/>
-      <c r="B71" s="152" t="s">
+      <c r="B71" s="148" t="s">
         <v>9</v>
       </c>
       <c r="C71" s="5"/>
@@ -22903,7 +22915,7 @@
     </row>
     <row r="72" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="1"/>
-      <c r="B72" s="152"/>
+      <c r="B72" s="148"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -22916,7 +22928,7 @@
     </row>
     <row r="73" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="1"/>
-      <c r="B73" s="153"/>
+      <c r="B73" s="149"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
@@ -22929,7 +22941,7 @@
     </row>
     <row r="74" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="1"/>
-      <c r="B74" s="140" t="s">
+      <c r="B74" s="139" t="s">
         <v>10</v>
       </c>
       <c r="C74" s="5"/>
@@ -22944,7 +22956,7 @@
     </row>
     <row r="75" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="1"/>
-      <c r="B75" s="140"/>
+      <c r="B75" s="139"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -22956,7 +22968,7 @@
     </row>
     <row r="76" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="1"/>
-      <c r="B76" s="141"/>
+      <c r="B76" s="140"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
@@ -22968,7 +22980,7 @@
     </row>
     <row r="77" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="1"/>
-      <c r="B77" s="143" t="s">
+      <c r="B77" s="141" t="s">
         <v>11</v>
       </c>
       <c r="C77" s="5"/>
@@ -22982,7 +22994,7 @@
     </row>
     <row r="78" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="1"/>
-      <c r="B78" s="143"/>
+      <c r="B78" s="141"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -22994,7 +23006,7 @@
     </row>
     <row r="79" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="1"/>
-      <c r="B79" s="144"/>
+      <c r="B79" s="142"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
@@ -23006,7 +23018,7 @@
     </row>
     <row r="80" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="1"/>
-      <c r="B80" s="146" t="s">
+      <c r="B80" s="143" t="s">
         <v>12</v>
       </c>
       <c r="C80" s="5"/>
@@ -23020,7 +23032,7 @@
     </row>
     <row r="81" spans="1:16" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="1"/>
-      <c r="B81" s="146"/>
+      <c r="B81" s="143"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -23032,7 +23044,7 @@
     </row>
     <row r="82" spans="1:16" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="1"/>
-      <c r="B82" s="147"/>
+      <c r="B82" s="144"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
@@ -23044,7 +23056,7 @@
     </row>
     <row r="83" spans="1:16" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="1"/>
-      <c r="B83" s="168" t="s">
+      <c r="B83" s="145" t="s">
         <v>13</v>
       </c>
       <c r="C83" s="5"/>
@@ -23058,7 +23070,7 @@
     </row>
     <row r="84" spans="1:16" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="1"/>
-      <c r="B84" s="168"/>
+      <c r="B84" s="145"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -23070,7 +23082,7 @@
     </row>
     <row r="85" spans="1:16" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="1"/>
-      <c r="B85" s="169"/>
+      <c r="B85" s="146"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
@@ -25253,11 +25265,18 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B68:B70"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="A5:XFD5"/>
@@ -25274,18 +25293,11 @@
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B60:B62"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -25327,30 +25339,30 @@
     </row>
     <row r="2" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
-      <c r="B2" s="170" t="s">
+      <c r="B2" s="165" t="s">
         <v>837</v>
       </c>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
-      <c r="G2" s="171"/>
-      <c r="H2" s="171"/>
-      <c r="I2" s="172"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="167"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="67"/>
-      <c r="B3" s="164" t="s">
+      <c r="B3" s="158" t="s">
         <v>540</v>
       </c>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="166"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="160"/>
       <c r="J3" s="67"/>
     </row>
     <row r="4" spans="1:10" s="75" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -25359,24 +25371,24 @@
         <v>848</v>
       </c>
       <c r="C4" s="188"/>
-      <c r="D4" s="156" t="s">
+      <c r="D4" s="171" t="s">
         <v>704</v>
       </c>
-      <c r="E4" s="157"/>
-      <c r="F4" s="156" t="s">
+      <c r="E4" s="172"/>
+      <c r="F4" s="171" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="189"/>
-      <c r="H4" s="156" t="s">
+      <c r="H4" s="171" t="s">
         <v>543</v>
       </c>
-      <c r="I4" s="157"/>
+      <c r="I4" s="172"/>
       <c r="J4" s="15"/>
     </row>
-    <row r="5" spans="1:10" s="163" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:10" s="157" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="158"/>
+      <c r="B6" s="162"/>
       <c r="C6" s="55" t="s">
         <v>809</v>
       </c>
@@ -25402,7 +25414,7 @@
     </row>
     <row r="7" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="159"/>
+      <c r="B7" s="163"/>
       <c r="C7" s="56" t="s">
         <v>1</v>
       </c>
@@ -25428,7 +25440,7 @@
     </row>
     <row r="8" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="149" t="s">
+      <c r="B8" s="152" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="5"/>
@@ -25442,7 +25454,7 @@
     </row>
     <row r="9" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="149"/>
+      <c r="B9" s="152"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -25454,7 +25466,7 @@
     </row>
     <row r="10" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="150"/>
+      <c r="B10" s="153"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -25466,7 +25478,7 @@
     </row>
     <row r="11" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="152" t="s">
+      <c r="B11" s="148" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="5"/>
@@ -25480,7 +25492,7 @@
     </row>
     <row r="12" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="152"/>
+      <c r="B12" s="148"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -25492,7 +25504,7 @@
     </row>
     <row r="13" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="153"/>
+      <c r="B13" s="149"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -25504,7 +25516,7 @@
     </row>
     <row r="14" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="140" t="s">
+      <c r="B14" s="139" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="5"/>
@@ -25518,7 +25530,7 @@
     </row>
     <row r="15" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="140"/>
+      <c r="B15" s="139"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -25530,7 +25542,7 @@
     </row>
     <row r="16" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
-      <c r="B16" s="141"/>
+      <c r="B16" s="140"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -25542,7 +25554,7 @@
     </row>
     <row r="17" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
-      <c r="B17" s="143" t="s">
+      <c r="B17" s="141" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="5"/>
@@ -25556,7 +25568,7 @@
     </row>
     <row r="18" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
-      <c r="B18" s="143"/>
+      <c r="B18" s="141"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -25568,7 +25580,7 @@
     </row>
     <row r="19" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
-      <c r="B19" s="144"/>
+      <c r="B19" s="142"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -25580,7 +25592,7 @@
     </row>
     <row r="20" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
-      <c r="B20" s="146" t="s">
+      <c r="B20" s="143" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="5"/>
@@ -25594,7 +25606,7 @@
     </row>
     <row r="21" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
-      <c r="B21" s="146"/>
+      <c r="B21" s="143"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -25606,7 +25618,7 @@
     </row>
     <row r="22" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
-      <c r="B22" s="147"/>
+      <c r="B22" s="144"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -25618,7 +25630,7 @@
     </row>
     <row r="23" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
-      <c r="B23" s="168" t="s">
+      <c r="B23" s="145" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="5"/>
@@ -25632,7 +25644,7 @@
     </row>
     <row r="24" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
-      <c r="B24" s="168"/>
+      <c r="B24" s="145"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -25644,7 +25656,7 @@
     </row>
     <row r="25" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
-      <c r="B25" s="169"/>
+      <c r="B25" s="146"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -25708,7 +25720,7 @@
     </row>
     <row r="28" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
-      <c r="B28" s="149" t="s">
+      <c r="B28" s="152" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="5"/>
@@ -25722,7 +25734,7 @@
     </row>
     <row r="29" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
-      <c r="B29" s="149"/>
+      <c r="B29" s="152"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -25734,7 +25746,7 @@
     </row>
     <row r="30" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
-      <c r="B30" s="150"/>
+      <c r="B30" s="153"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -25746,7 +25758,7 @@
     </row>
     <row r="31" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
-      <c r="B31" s="152" t="s">
+      <c r="B31" s="148" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="5"/>
@@ -25760,7 +25772,7 @@
     </row>
     <row r="32" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
-      <c r="B32" s="152"/>
+      <c r="B32" s="148"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -25772,7 +25784,7 @@
     </row>
     <row r="33" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
-      <c r="B33" s="153"/>
+      <c r="B33" s="149"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -25784,7 +25796,7 @@
     </row>
     <row r="34" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
-      <c r="B34" s="140" t="s">
+      <c r="B34" s="139" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="5"/>
@@ -25798,7 +25810,7 @@
     </row>
     <row r="35" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
-      <c r="B35" s="140"/>
+      <c r="B35" s="139"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -25810,7 +25822,7 @@
     </row>
     <row r="36" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
-      <c r="B36" s="141"/>
+      <c r="B36" s="140"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -25822,7 +25834,7 @@
     </row>
     <row r="37" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
-      <c r="B37" s="143" t="s">
+      <c r="B37" s="141" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="5"/>
@@ -25836,7 +25848,7 @@
     </row>
     <row r="38" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
-      <c r="B38" s="143"/>
+      <c r="B38" s="141"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -25848,7 +25860,7 @@
     </row>
     <row r="39" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1"/>
-      <c r="B39" s="144"/>
+      <c r="B39" s="142"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -25860,7 +25872,7 @@
     </row>
     <row r="40" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1"/>
-      <c r="B40" s="146" t="s">
+      <c r="B40" s="143" t="s">
         <v>12</v>
       </c>
       <c r="C40" s="5"/>
@@ -25874,7 +25886,7 @@
     </row>
     <row r="41" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1"/>
-      <c r="B41" s="146"/>
+      <c r="B41" s="143"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -25886,7 +25898,7 @@
     </row>
     <row r="42" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="1"/>
-      <c r="B42" s="147"/>
+      <c r="B42" s="144"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -25898,7 +25910,7 @@
     </row>
     <row r="43" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1"/>
-      <c r="B43" s="168" t="s">
+      <c r="B43" s="145" t="s">
         <v>13</v>
       </c>
       <c r="C43" s="5"/>
@@ -25912,7 +25924,7 @@
     </row>
     <row r="44" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="1"/>
-      <c r="B44" s="168"/>
+      <c r="B44" s="145"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -25924,7 +25936,7 @@
     </row>
     <row r="45" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1"/>
-      <c r="B45" s="169"/>
+      <c r="B45" s="146"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
@@ -25988,7 +26000,7 @@
     </row>
     <row r="48" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="1"/>
-      <c r="B48" s="149" t="s">
+      <c r="B48" s="152" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="5"/>
@@ -26002,7 +26014,7 @@
     </row>
     <row r="49" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1"/>
-      <c r="B49" s="149"/>
+      <c r="B49" s="152"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -26014,7 +26026,7 @@
     </row>
     <row r="50" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="1"/>
-      <c r="B50" s="150"/>
+      <c r="B50" s="153"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
@@ -26026,7 +26038,7 @@
     </row>
     <row r="51" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1"/>
-      <c r="B51" s="152" t="s">
+      <c r="B51" s="148" t="s">
         <v>9</v>
       </c>
       <c r="C51" s="5"/>
@@ -26040,7 +26052,7 @@
     </row>
     <row r="52" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1"/>
-      <c r="B52" s="152"/>
+      <c r="B52" s="148"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -26052,7 +26064,7 @@
     </row>
     <row r="53" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="1"/>
-      <c r="B53" s="153"/>
+      <c r="B53" s="149"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
@@ -26064,7 +26076,7 @@
     </row>
     <row r="54" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="1"/>
-      <c r="B54" s="140" t="s">
+      <c r="B54" s="139" t="s">
         <v>10</v>
       </c>
       <c r="C54" s="5"/>
@@ -26078,7 +26090,7 @@
     </row>
     <row r="55" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="1"/>
-      <c r="B55" s="140"/>
+      <c r="B55" s="139"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -26090,7 +26102,7 @@
     </row>
     <row r="56" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="1"/>
-      <c r="B56" s="141"/>
+      <c r="B56" s="140"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
@@ -26102,7 +26114,7 @@
     </row>
     <row r="57" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="1"/>
-      <c r="B57" s="143" t="s">
+      <c r="B57" s="141" t="s">
         <v>11</v>
       </c>
       <c r="C57" s="5"/>
@@ -26116,7 +26128,7 @@
     </row>
     <row r="58" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="1"/>
-      <c r="B58" s="143"/>
+      <c r="B58" s="141"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -26128,7 +26140,7 @@
     </row>
     <row r="59" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="1"/>
-      <c r="B59" s="144"/>
+      <c r="B59" s="142"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
@@ -26140,7 +26152,7 @@
     </row>
     <row r="60" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="1"/>
-      <c r="B60" s="146" t="s">
+      <c r="B60" s="143" t="s">
         <v>12</v>
       </c>
       <c r="C60" s="5"/>
@@ -26154,7 +26166,7 @@
     </row>
     <row r="61" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="1"/>
-      <c r="B61" s="146"/>
+      <c r="B61" s="143"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -26167,7 +26179,7 @@
     </row>
     <row r="62" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="1"/>
-      <c r="B62" s="147"/>
+      <c r="B62" s="144"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
@@ -26180,7 +26192,7 @@
     </row>
     <row r="63" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="1"/>
-      <c r="B63" s="168" t="s">
+      <c r="B63" s="145" t="s">
         <v>13</v>
       </c>
       <c r="C63" s="5"/>
@@ -26195,7 +26207,7 @@
     </row>
     <row r="64" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="1"/>
-      <c r="B64" s="168"/>
+      <c r="B64" s="145"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -26208,7 +26220,7 @@
     </row>
     <row r="65" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="1"/>
-      <c r="B65" s="169"/>
+      <c r="B65" s="146"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
@@ -26275,7 +26287,7 @@
     </row>
     <row r="68" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="1"/>
-      <c r="B68" s="149" t="s">
+      <c r="B68" s="152" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="5"/>
@@ -26290,7 +26302,7 @@
     </row>
     <row r="69" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="1"/>
-      <c r="B69" s="149"/>
+      <c r="B69" s="152"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -26303,7 +26315,7 @@
     </row>
     <row r="70" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="1"/>
-      <c r="B70" s="150"/>
+      <c r="B70" s="153"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
@@ -26316,7 +26328,7 @@
     </row>
     <row r="71" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="1"/>
-      <c r="B71" s="152" t="s">
+      <c r="B71" s="148" t="s">
         <v>9</v>
       </c>
       <c r="C71" s="5"/>
@@ -26331,7 +26343,7 @@
     </row>
     <row r="72" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="1"/>
-      <c r="B72" s="152"/>
+      <c r="B72" s="148"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -26344,7 +26356,7 @@
     </row>
     <row r="73" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="1"/>
-      <c r="B73" s="153"/>
+      <c r="B73" s="149"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
@@ -26357,7 +26369,7 @@
     </row>
     <row r="74" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="1"/>
-      <c r="B74" s="140" t="s">
+      <c r="B74" s="139" t="s">
         <v>10</v>
       </c>
       <c r="C74" s="5"/>
@@ -26372,7 +26384,7 @@
     </row>
     <row r="75" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="1"/>
-      <c r="B75" s="140"/>
+      <c r="B75" s="139"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -26385,7 +26397,7 @@
     </row>
     <row r="76" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="1"/>
-      <c r="B76" s="141"/>
+      <c r="B76" s="140"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
@@ -26397,7 +26409,7 @@
     </row>
     <row r="77" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="1"/>
-      <c r="B77" s="143" t="s">
+      <c r="B77" s="141" t="s">
         <v>11</v>
       </c>
       <c r="C77" s="5"/>
@@ -26411,7 +26423,7 @@
     </row>
     <row r="78" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="1"/>
-      <c r="B78" s="143"/>
+      <c r="B78" s="141"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -26423,7 +26435,7 @@
     </row>
     <row r="79" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="1"/>
-      <c r="B79" s="144"/>
+      <c r="B79" s="142"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
@@ -26435,7 +26447,7 @@
     </row>
     <row r="80" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="1"/>
-      <c r="B80" s="146" t="s">
+      <c r="B80" s="143" t="s">
         <v>12</v>
       </c>
       <c r="C80" s="5"/>
@@ -26449,7 +26461,7 @@
     </row>
     <row r="81" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="1"/>
-      <c r="B81" s="146"/>
+      <c r="B81" s="143"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -26461,7 +26473,7 @@
     </row>
     <row r="82" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="1"/>
-      <c r="B82" s="147"/>
+      <c r="B82" s="144"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
@@ -26473,7 +26485,7 @@
     </row>
     <row r="83" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="1"/>
-      <c r="B83" s="167" t="s">
+      <c r="B83" s="161" t="s">
         <v>13</v>
       </c>
       <c r="C83" s="7"/>
@@ -26487,7 +26499,7 @@
     </row>
     <row r="84" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="1"/>
-      <c r="B84" s="168"/>
+      <c r="B84" s="145"/>
       <c r="C84" s="63"/>
       <c r="D84" s="63"/>
       <c r="E84" s="63"/>
@@ -26499,7 +26511,7 @@
     </row>
     <row r="85" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="1"/>
-      <c r="B85" s="169"/>
+      <c r="B85" s="146"/>
       <c r="C85" s="107"/>
       <c r="D85" s="107"/>
       <c r="E85" s="107"/>
@@ -29020,15 +29032,14 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B71:B73"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="B40:B42"/>
@@ -29045,14 +29056,15 @@
     <mergeCell ref="B43:B45"/>
     <mergeCell ref="B48:B50"/>
     <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -29110,29 +29122,29 @@
     </row>
     <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="67"/>
-      <c r="B3" s="164" t="s">
+      <c r="B3" s="158" t="s">
         <v>540</v>
       </c>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="166"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="160"/>
       <c r="J3" s="67"/>
     </row>
     <row r="4" spans="1:10" s="75" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="74"/>
-      <c r="B4" s="154" t="s">
+      <c r="B4" s="169" t="s">
         <v>698</v>
       </c>
-      <c r="C4" s="155"/>
-      <c r="D4" s="156" t="s">
+      <c r="C4" s="170"/>
+      <c r="D4" s="171" t="s">
         <v>704</v>
       </c>
-      <c r="E4" s="157"/>
-      <c r="F4" s="156" t="s">
+      <c r="E4" s="172"/>
+      <c r="F4" s="171" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="189"/>
@@ -29142,10 +29154,10 @@
       <c r="I4" s="188"/>
       <c r="J4" s="15"/>
     </row>
-    <row r="5" spans="1:10" s="163" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:10" s="157" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="158"/>
+      <c r="B6" s="162"/>
       <c r="C6" s="55" t="s">
         <v>838</v>
       </c>
@@ -29171,7 +29183,7 @@
     </row>
     <row r="7" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="159"/>
+      <c r="B7" s="163"/>
       <c r="C7" s="56" t="s">
         <v>1</v>
       </c>
@@ -29197,7 +29209,7 @@
     </row>
     <row r="8" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="149" t="s">
+      <c r="B8" s="152" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="5"/>
@@ -29211,7 +29223,7 @@
     </row>
     <row r="9" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="149"/>
+      <c r="B9" s="152"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -29223,7 +29235,7 @@
     </row>
     <row r="10" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="150"/>
+      <c r="B10" s="153"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -29235,7 +29247,7 @@
     </row>
     <row r="11" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="152" t="s">
+      <c r="B11" s="148" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="5"/>
@@ -29249,7 +29261,7 @@
     </row>
     <row r="12" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="152"/>
+      <c r="B12" s="148"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -29261,7 +29273,7 @@
     </row>
     <row r="13" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="153"/>
+      <c r="B13" s="149"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -29273,7 +29285,7 @@
     </row>
     <row r="14" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="140" t="s">
+      <c r="B14" s="139" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="5"/>
@@ -29287,7 +29299,7 @@
     </row>
     <row r="15" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="140"/>
+      <c r="B15" s="139"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -29299,7 +29311,7 @@
     </row>
     <row r="16" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
-      <c r="B16" s="141"/>
+      <c r="B16" s="140"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -29311,7 +29323,7 @@
     </row>
     <row r="17" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
-      <c r="B17" s="143" t="s">
+      <c r="B17" s="141" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="5"/>
@@ -29325,7 +29337,7 @@
     </row>
     <row r="18" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
-      <c r="B18" s="143"/>
+      <c r="B18" s="141"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -29337,7 +29349,7 @@
     </row>
     <row r="19" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
-      <c r="B19" s="144"/>
+      <c r="B19" s="142"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -29349,7 +29361,7 @@
     </row>
     <row r="20" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
-      <c r="B20" s="146" t="s">
+      <c r="B20" s="143" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="5"/>
@@ -29363,7 +29375,7 @@
     </row>
     <row r="21" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
-      <c r="B21" s="146"/>
+      <c r="B21" s="143"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -29375,7 +29387,7 @@
     </row>
     <row r="22" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
-      <c r="B22" s="147"/>
+      <c r="B22" s="144"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -29387,7 +29399,7 @@
     </row>
     <row r="23" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
-      <c r="B23" s="168" t="s">
+      <c r="B23" s="145" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="5"/>
@@ -29401,7 +29413,7 @@
     </row>
     <row r="24" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
-      <c r="B24" s="168"/>
+      <c r="B24" s="145"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -29413,7 +29425,7 @@
     </row>
     <row r="25" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
-      <c r="B25" s="169"/>
+      <c r="B25" s="146"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -29477,7 +29489,7 @@
     </row>
     <row r="28" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
-      <c r="B28" s="149" t="s">
+      <c r="B28" s="152" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="5"/>
@@ -29491,7 +29503,7 @@
     </row>
     <row r="29" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
-      <c r="B29" s="149"/>
+      <c r="B29" s="152"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -29503,7 +29515,7 @@
     </row>
     <row r="30" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
-      <c r="B30" s="150"/>
+      <c r="B30" s="153"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -29515,7 +29527,7 @@
     </row>
     <row r="31" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
-      <c r="B31" s="152" t="s">
+      <c r="B31" s="148" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="5"/>
@@ -29529,7 +29541,7 @@
     </row>
     <row r="32" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
-      <c r="B32" s="152"/>
+      <c r="B32" s="148"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -29541,7 +29553,7 @@
     </row>
     <row r="33" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
-      <c r="B33" s="153"/>
+      <c r="B33" s="149"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -29553,7 +29565,7 @@
     </row>
     <row r="34" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
-      <c r="B34" s="140" t="s">
+      <c r="B34" s="139" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="5"/>
@@ -29568,7 +29580,7 @@
     </row>
     <row r="35" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
-      <c r="B35" s="140"/>
+      <c r="B35" s="139"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -29581,7 +29593,7 @@
     </row>
     <row r="36" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
-      <c r="B36" s="141"/>
+      <c r="B36" s="140"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -29593,7 +29605,7 @@
     </row>
     <row r="37" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
-      <c r="B37" s="143" t="s">
+      <c r="B37" s="141" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="5"/>
@@ -29607,7 +29619,7 @@
     </row>
     <row r="38" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
-      <c r="B38" s="143"/>
+      <c r="B38" s="141"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -29619,7 +29631,7 @@
     </row>
     <row r="39" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1"/>
-      <c r="B39" s="144"/>
+      <c r="B39" s="142"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -29631,7 +29643,7 @@
     </row>
     <row r="40" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1"/>
-      <c r="B40" s="146" t="s">
+      <c r="B40" s="143" t="s">
         <v>12</v>
       </c>
       <c r="C40" s="5"/>
@@ -29645,7 +29657,7 @@
     </row>
     <row r="41" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1"/>
-      <c r="B41" s="146"/>
+      <c r="B41" s="143"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -29657,7 +29669,7 @@
     </row>
     <row r="42" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="1"/>
-      <c r="B42" s="147"/>
+      <c r="B42" s="144"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -29669,7 +29681,7 @@
     </row>
     <row r="43" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1"/>
-      <c r="B43" s="168" t="s">
+      <c r="B43" s="145" t="s">
         <v>13</v>
       </c>
       <c r="C43" s="5"/>
@@ -29683,7 +29695,7 @@
     </row>
     <row r="44" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="1"/>
-      <c r="B44" s="168"/>
+      <c r="B44" s="145"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -29695,7 +29707,7 @@
     </row>
     <row r="45" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1"/>
-      <c r="B45" s="169"/>
+      <c r="B45" s="146"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
@@ -29759,7 +29771,7 @@
     </row>
     <row r="48" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="1"/>
-      <c r="B48" s="149" t="s">
+      <c r="B48" s="152" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="5"/>
@@ -29773,7 +29785,7 @@
     </row>
     <row r="49" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1"/>
-      <c r="B49" s="149"/>
+      <c r="B49" s="152"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -29785,7 +29797,7 @@
     </row>
     <row r="50" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="1"/>
-      <c r="B50" s="150"/>
+      <c r="B50" s="153"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
@@ -29797,7 +29809,7 @@
     </row>
     <row r="51" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1"/>
-      <c r="B51" s="152" t="s">
+      <c r="B51" s="148" t="s">
         <v>9</v>
       </c>
       <c r="C51" s="5"/>
@@ -29811,7 +29823,7 @@
     </row>
     <row r="52" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1"/>
-      <c r="B52" s="152"/>
+      <c r="B52" s="148"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -29823,7 +29835,7 @@
     </row>
     <row r="53" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="1"/>
-      <c r="B53" s="153"/>
+      <c r="B53" s="149"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
@@ -29835,7 +29847,7 @@
     </row>
     <row r="54" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="1"/>
-      <c r="B54" s="140" t="s">
+      <c r="B54" s="139" t="s">
         <v>10</v>
       </c>
       <c r="C54" s="5"/>
@@ -29849,7 +29861,7 @@
     </row>
     <row r="55" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="1"/>
-      <c r="B55" s="140"/>
+      <c r="B55" s="139"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -29861,7 +29873,7 @@
     </row>
     <row r="56" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="1"/>
-      <c r="B56" s="141"/>
+      <c r="B56" s="140"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
@@ -29873,7 +29885,7 @@
     </row>
     <row r="57" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="1"/>
-      <c r="B57" s="143" t="s">
+      <c r="B57" s="141" t="s">
         <v>11</v>
       </c>
       <c r="C57" s="5"/>
@@ -29887,7 +29899,7 @@
     </row>
     <row r="58" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="1"/>
-      <c r="B58" s="143"/>
+      <c r="B58" s="141"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -29899,7 +29911,7 @@
     </row>
     <row r="59" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="1"/>
-      <c r="B59" s="144"/>
+      <c r="B59" s="142"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
@@ -29911,7 +29923,7 @@
     </row>
     <row r="60" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="1"/>
-      <c r="B60" s="146" t="s">
+      <c r="B60" s="143" t="s">
         <v>12</v>
       </c>
       <c r="C60" s="5"/>
@@ -29925,7 +29937,7 @@
     </row>
     <row r="61" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="1"/>
-      <c r="B61" s="146"/>
+      <c r="B61" s="143"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -29937,7 +29949,7 @@
     </row>
     <row r="62" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="1"/>
-      <c r="B62" s="147"/>
+      <c r="B62" s="144"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
@@ -29949,7 +29961,7 @@
     </row>
     <row r="63" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="1"/>
-      <c r="B63" s="168" t="s">
+      <c r="B63" s="145" t="s">
         <v>13</v>
       </c>
       <c r="C63" s="5"/>
@@ -29963,7 +29975,7 @@
     </row>
     <row r="64" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="1"/>
-      <c r="B64" s="168"/>
+      <c r="B64" s="145"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -29976,7 +29988,7 @@
     </row>
     <row r="65" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="1"/>
-      <c r="B65" s="169"/>
+      <c r="B65" s="146"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
@@ -30043,7 +30055,7 @@
     </row>
     <row r="68" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="1"/>
-      <c r="B68" s="149" t="s">
+      <c r="B68" s="152" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="5"/>
@@ -30058,7 +30070,7 @@
     </row>
     <row r="69" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="1"/>
-      <c r="B69" s="149"/>
+      <c r="B69" s="152"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -30071,7 +30083,7 @@
     </row>
     <row r="70" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="1"/>
-      <c r="B70" s="150"/>
+      <c r="B70" s="153"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
@@ -30084,7 +30096,7 @@
     </row>
     <row r="71" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="1"/>
-      <c r="B71" s="152" t="s">
+      <c r="B71" s="148" t="s">
         <v>9</v>
       </c>
       <c r="C71" s="5"/>
@@ -30099,7 +30111,7 @@
     </row>
     <row r="72" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="1"/>
-      <c r="B72" s="152"/>
+      <c r="B72" s="148"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -30112,7 +30124,7 @@
     </row>
     <row r="73" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="1"/>
-      <c r="B73" s="153"/>
+      <c r="B73" s="149"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
@@ -30125,7 +30137,7 @@
     </row>
     <row r="74" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="1"/>
-      <c r="B74" s="140" t="s">
+      <c r="B74" s="139" t="s">
         <v>10</v>
       </c>
       <c r="C74" s="5"/>
@@ -30140,7 +30152,7 @@
     </row>
     <row r="75" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="1"/>
-      <c r="B75" s="140"/>
+      <c r="B75" s="139"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -30152,7 +30164,7 @@
     </row>
     <row r="76" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="1"/>
-      <c r="B76" s="141"/>
+      <c r="B76" s="140"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
@@ -30164,7 +30176,7 @@
     </row>
     <row r="77" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="1"/>
-      <c r="B77" s="143" t="s">
+      <c r="B77" s="141" t="s">
         <v>11</v>
       </c>
       <c r="C77" s="5"/>
@@ -30178,7 +30190,7 @@
     </row>
     <row r="78" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="1"/>
-      <c r="B78" s="143"/>
+      <c r="B78" s="141"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -30190,7 +30202,7 @@
     </row>
     <row r="79" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="1"/>
-      <c r="B79" s="144"/>
+      <c r="B79" s="142"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
@@ -30202,7 +30214,7 @@
     </row>
     <row r="80" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="1"/>
-      <c r="B80" s="146" t="s">
+      <c r="B80" s="143" t="s">
         <v>12</v>
       </c>
       <c r="C80" s="5"/>
@@ -30216,7 +30228,7 @@
     </row>
     <row r="81" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="1"/>
-      <c r="B81" s="146"/>
+      <c r="B81" s="143"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -30228,7 +30240,7 @@
     </row>
     <row r="82" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="1"/>
-      <c r="B82" s="147"/>
+      <c r="B82" s="144"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
@@ -30240,7 +30252,7 @@
     </row>
     <row r="83" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="1"/>
-      <c r="B83" s="168" t="s">
+      <c r="B83" s="145" t="s">
         <v>13</v>
       </c>
       <c r="C83" s="5"/>
@@ -30254,7 +30266,7 @@
     </row>
     <row r="84" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="1"/>
-      <c r="B84" s="168"/>
+      <c r="B84" s="145"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -30266,7 +30278,7 @@
     </row>
     <row r="85" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="1"/>
-      <c r="B85" s="169"/>
+      <c r="B85" s="146"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
@@ -30320,7 +30332,7 @@
     </row>
     <row r="88" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="1"/>
-      <c r="B88" s="149" t="s">
+      <c r="B88" s="152" t="s">
         <v>8</v>
       </c>
       <c r="C88" s="5"/>
@@ -30337,7 +30349,7 @@
     </row>
     <row r="89" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="1"/>
-      <c r="B89" s="149"/>
+      <c r="B89" s="152"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -30352,7 +30364,7 @@
     </row>
     <row r="90" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="1"/>
-      <c r="B90" s="150"/>
+      <c r="B90" s="153"/>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
@@ -30367,7 +30379,7 @@
     </row>
     <row r="91" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="1"/>
-      <c r="B91" s="152" t="s">
+      <c r="B91" s="148" t="s">
         <v>9</v>
       </c>
       <c r="C91" s="5"/>
@@ -30384,7 +30396,7 @@
     </row>
     <row r="92" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="1"/>
-      <c r="B92" s="152"/>
+      <c r="B92" s="148"/>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -30399,7 +30411,7 @@
     </row>
     <row r="93" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="1"/>
-      <c r="B93" s="153"/>
+      <c r="B93" s="149"/>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
@@ -30414,7 +30426,7 @@
     </row>
     <row r="94" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="1"/>
-      <c r="B94" s="140" t="s">
+      <c r="B94" s="139" t="s">
         <v>10</v>
       </c>
       <c r="C94" s="5"/>
@@ -30431,7 +30443,7 @@
     </row>
     <row r="95" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="1"/>
-      <c r="B95" s="140"/>
+      <c r="B95" s="139"/>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
@@ -30446,7 +30458,7 @@
     </row>
     <row r="96" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="1"/>
-      <c r="B96" s="141"/>
+      <c r="B96" s="140"/>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
@@ -30461,7 +30473,7 @@
     </row>
     <row r="97" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="1"/>
-      <c r="B97" s="143" t="s">
+      <c r="B97" s="141" t="s">
         <v>11</v>
       </c>
       <c r="C97" s="5"/>
@@ -30478,7 +30490,7 @@
     </row>
     <row r="98" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="1"/>
-      <c r="B98" s="143"/>
+      <c r="B98" s="141"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
@@ -30493,7 +30505,7 @@
     </row>
     <row r="99" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="1"/>
-      <c r="B99" s="144"/>
+      <c r="B99" s="142"/>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
       <c r="E99" s="6"/>
@@ -30508,7 +30520,7 @@
     </row>
     <row r="100" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="1"/>
-      <c r="B100" s="146" t="s">
+      <c r="B100" s="143" t="s">
         <v>12</v>
       </c>
       <c r="C100" s="5"/>
@@ -30525,7 +30537,7 @@
     </row>
     <row r="101" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="1"/>
-      <c r="B101" s="146"/>
+      <c r="B101" s="143"/>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
@@ -30540,7 +30552,7 @@
     </row>
     <row r="102" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="1"/>
-      <c r="B102" s="147"/>
+      <c r="B102" s="144"/>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
       <c r="E102" s="6"/>
@@ -30555,7 +30567,7 @@
     </row>
     <row r="103" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="1"/>
-      <c r="B103" s="168" t="s">
+      <c r="B103" s="145" t="s">
         <v>13</v>
       </c>
       <c r="C103" s="5"/>
@@ -30572,7 +30584,7 @@
     </row>
     <row r="104" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="1"/>
-      <c r="B104" s="168"/>
+      <c r="B104" s="145"/>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
@@ -30587,7 +30599,7 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A105" s="1"/>
-      <c r="B105" s="169"/>
+      <c r="B105" s="146"/>
       <c r="C105" s="89"/>
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
@@ -31174,29 +31186,6 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="B97:B99"/>
-    <mergeCell ref="B100:B102"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
     <mergeCell ref="B103:B105"/>
     <mergeCell ref="A5:XFD5"/>
     <mergeCell ref="B74:B76"/>
@@ -31213,6 +31202,29 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B94:B96"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B97:B99"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B71:B73"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -31298,23 +31310,23 @@
     </row>
     <row r="4" spans="1:13" s="99" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="98"/>
-      <c r="B4" s="156" t="s">
+      <c r="B4" s="171" t="s">
         <v>647</v>
       </c>
       <c r="C4" s="189"/>
-      <c r="D4" s="157"/>
-      <c r="E4" s="156" t="s">
+      <c r="D4" s="172"/>
+      <c r="E4" s="171" t="s">
         <v>648</v>
       </c>
       <c r="F4" s="189"/>
-      <c r="G4" s="157"/>
-      <c r="H4" s="156" t="s">
+      <c r="G4" s="172"/>
+      <c r="H4" s="171" t="s">
         <v>649</v>
       </c>
       <c r="I4" s="189"/>
       <c r="J4" s="189"/>
       <c r="K4" s="189"/>
-      <c r="L4" s="157"/>
+      <c r="L4" s="172"/>
       <c r="M4" s="98"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
@@ -31840,53 +31852,53 @@
     </row>
     <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
-      <c r="B3" s="209" t="s">
+      <c r="B3" s="214" t="s">
         <v>541</v>
       </c>
-      <c r="C3" s="210"/>
-      <c r="D3" s="210"/>
-      <c r="E3" s="210"/>
-      <c r="F3" s="210"/>
-      <c r="G3" s="210"/>
-      <c r="H3" s="210"/>
-      <c r="I3" s="210"/>
-      <c r="J3" s="210"/>
-      <c r="K3" s="211"/>
+      <c r="C3" s="215"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="215"/>
+      <c r="F3" s="215"/>
+      <c r="G3" s="215"/>
+      <c r="H3" s="215"/>
+      <c r="I3" s="215"/>
+      <c r="J3" s="215"/>
+      <c r="K3" s="216"/>
       <c r="L3" s="24"/>
       <c r="M3" s="24"/>
     </row>
     <row r="4" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
-      <c r="B4" s="214" t="s">
+      <c r="B4" s="217" t="s">
         <v>533</v>
       </c>
-      <c r="C4" s="215"/>
-      <c r="D4" s="215"/>
-      <c r="E4" s="215"/>
-      <c r="F4" s="215"/>
-      <c r="G4" s="215"/>
-      <c r="H4" s="215"/>
-      <c r="I4" s="215"/>
-      <c r="J4" s="215"/>
-      <c r="K4" s="216"/>
+      <c r="C4" s="218"/>
+      <c r="D4" s="218"/>
+      <c r="E4" s="218"/>
+      <c r="F4" s="218"/>
+      <c r="G4" s="218"/>
+      <c r="H4" s="218"/>
+      <c r="I4" s="218"/>
+      <c r="J4" s="218"/>
+      <c r="K4" s="219"/>
       <c r="L4" s="24"/>
       <c r="M4" s="24"/>
     </row>
-    <row r="5" spans="1:20" s="213" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:20" s="208" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24"/>
-      <c r="B6" s="212" t="s">
+      <c r="B6" s="209" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="212"/>
-      <c r="D6" s="212"/>
-      <c r="E6" s="212"/>
-      <c r="F6" s="212"/>
-      <c r="G6" s="212"/>
-      <c r="H6" s="212"/>
-      <c r="I6" s="212"/>
-      <c r="J6" s="212"/>
-      <c r="K6" s="212"/>
+      <c r="C6" s="209"/>
+      <c r="D6" s="209"/>
+      <c r="E6" s="209"/>
+      <c r="F6" s="209"/>
+      <c r="G6" s="209"/>
+      <c r="H6" s="209"/>
+      <c r="I6" s="209"/>
+      <c r="J6" s="209"/>
+      <c r="K6" s="209"/>
       <c r="L6" s="24"/>
       <c r="M6" s="24"/>
     </row>
@@ -31895,19 +31907,19 @@
       <c r="B7" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="208"/>
-      <c r="D7" s="208"/>
-      <c r="E7" s="208"/>
+      <c r="C7" s="211"/>
+      <c r="D7" s="211"/>
+      <c r="E7" s="211"/>
       <c r="F7" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="208"/>
-      <c r="H7" s="208"/>
+      <c r="G7" s="211"/>
+      <c r="H7" s="211"/>
       <c r="I7" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="208"/>
-      <c r="K7" s="208"/>
+      <c r="J7" s="211"/>
+      <c r="K7" s="211"/>
       <c r="L7" s="24"/>
       <c r="M7" s="24"/>
     </row>
@@ -31916,19 +31928,19 @@
       <c r="B8" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="208"/>
-      <c r="D8" s="208"/>
-      <c r="E8" s="208"/>
+      <c r="C8" s="211"/>
+      <c r="D8" s="211"/>
+      <c r="E8" s="211"/>
       <c r="F8" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="208"/>
-      <c r="H8" s="208"/>
+      <c r="G8" s="211"/>
+      <c r="H8" s="211"/>
       <c r="I8" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="208"/>
-      <c r="K8" s="208"/>
+      <c r="J8" s="211"/>
+      <c r="K8" s="211"/>
       <c r="L8" s="24"/>
       <c r="M8" s="24"/>
     </row>
@@ -31937,15 +31949,15 @@
       <c r="B9" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="208"/>
-      <c r="D9" s="208"/>
-      <c r="E9" s="208"/>
-      <c r="F9" s="208"/>
-      <c r="G9" s="208"/>
-      <c r="H9" s="208"/>
-      <c r="I9" s="208"/>
-      <c r="J9" s="208"/>
-      <c r="K9" s="208"/>
+      <c r="C9" s="211"/>
+      <c r="D9" s="211"/>
+      <c r="E9" s="211"/>
+      <c r="F9" s="211"/>
+      <c r="G9" s="211"/>
+      <c r="H9" s="211"/>
+      <c r="I9" s="211"/>
+      <c r="J9" s="211"/>
+      <c r="K9" s="211"/>
       <c r="L9" s="24"/>
       <c r="M9" s="24"/>
     </row>
@@ -31954,15 +31966,15 @@
       <c r="B10" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="208"/>
-      <c r="D10" s="208"/>
-      <c r="E10" s="208"/>
-      <c r="F10" s="208"/>
-      <c r="G10" s="208"/>
-      <c r="H10" s="208"/>
-      <c r="I10" s="208"/>
-      <c r="J10" s="208"/>
-      <c r="K10" s="208"/>
+      <c r="C10" s="211"/>
+      <c r="D10" s="211"/>
+      <c r="E10" s="211"/>
+      <c r="F10" s="211"/>
+      <c r="G10" s="211"/>
+      <c r="H10" s="211"/>
+      <c r="I10" s="211"/>
+      <c r="J10" s="211"/>
+      <c r="K10" s="211"/>
       <c r="L10" s="24"/>
       <c r="M10" s="24"/>
     </row>
@@ -31971,19 +31983,19 @@
       <c r="B11" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="208"/>
-      <c r="D11" s="208"/>
-      <c r="E11" s="208"/>
+      <c r="C11" s="211"/>
+      <c r="D11" s="211"/>
+      <c r="E11" s="211"/>
       <c r="F11" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="208"/>
-      <c r="H11" s="208"/>
+      <c r="G11" s="211"/>
+      <c r="H11" s="211"/>
       <c r="I11" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="J11" s="208"/>
-      <c r="K11" s="208"/>
+      <c r="J11" s="211"/>
+      <c r="K11" s="211"/>
       <c r="L11" s="24"/>
       <c r="M11" s="24"/>
       <c r="T11" s="25" t="s">
@@ -31995,49 +32007,49 @@
       <c r="B12" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="217" t="s">
+      <c r="C12" s="210" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="217"/>
-      <c r="E12" s="217"/>
+      <c r="D12" s="210"/>
+      <c r="E12" s="210"/>
       <c r="F12" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="208"/>
-      <c r="H12" s="208"/>
+      <c r="G12" s="211"/>
+      <c r="H12" s="211"/>
       <c r="I12" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="208"/>
-      <c r="K12" s="208"/>
+      <c r="J12" s="211"/>
+      <c r="K12" s="211"/>
       <c r="L12" s="24"/>
       <c r="M12" s="24"/>
     </row>
-    <row r="13" spans="1:20" s="213" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:20" s="208" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24"/>
-      <c r="B14" s="212" t="s">
+      <c r="B14" s="209" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="212"/>
-      <c r="D14" s="212"/>
-      <c r="E14" s="212"/>
-      <c r="F14" s="212"/>
-      <c r="G14" s="212"/>
-      <c r="H14" s="212"/>
-      <c r="I14" s="212"/>
-      <c r="J14" s="212"/>
-      <c r="K14" s="212"/>
+      <c r="C14" s="209"/>
+      <c r="D14" s="209"/>
+      <c r="E14" s="209"/>
+      <c r="F14" s="209"/>
+      <c r="G14" s="209"/>
+      <c r="H14" s="209"/>
+      <c r="I14" s="209"/>
+      <c r="J14" s="209"/>
+      <c r="K14" s="209"/>
       <c r="L14" s="24"/>
       <c r="M14" s="24"/>
     </row>
     <row r="15" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
-      <c r="B15" s="218" t="s">
+      <c r="B15" s="212" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="218"/>
-      <c r="D15" s="218"/>
+      <c r="C15" s="212"/>
+      <c r="D15" s="212"/>
       <c r="E15" s="34" t="s">
         <v>44</v>
       </c>
@@ -32064,11 +32076,11 @@
     </row>
     <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
-      <c r="B16" s="217" t="s">
+      <c r="B16" s="210" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="217"/>
-      <c r="D16" s="217"/>
+      <c r="C16" s="210"/>
+      <c r="D16" s="210"/>
       <c r="E16" s="30"/>
       <c r="F16" s="30"/>
       <c r="G16" s="30"/>
@@ -32083,11 +32095,11 @@
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
-      <c r="B17" s="217" t="s">
+      <c r="B17" s="210" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="217"/>
-      <c r="D17" s="217"/>
+      <c r="C17" s="210"/>
+      <c r="D17" s="210"/>
       <c r="E17" s="30"/>
       <c r="F17" s="30"/>
       <c r="G17" s="30"/>
@@ -32100,11 +32112,11 @@
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
-      <c r="B18" s="217" t="s">
+      <c r="B18" s="210" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="217"/>
-      <c r="D18" s="217"/>
+      <c r="C18" s="210"/>
+      <c r="D18" s="210"/>
       <c r="E18" s="30"/>
       <c r="F18" s="30"/>
       <c r="G18" s="30"/>
@@ -32117,11 +32129,11 @@
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
-      <c r="B19" s="217" t="s">
+      <c r="B19" s="210" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="217"/>
-      <c r="D19" s="217"/>
+      <c r="C19" s="210"/>
+      <c r="D19" s="210"/>
       <c r="E19" s="30"/>
       <c r="F19" s="30"/>
       <c r="G19" s="30"/>
@@ -32134,11 +32146,11 @@
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24"/>
-      <c r="B20" s="217" t="s">
+      <c r="B20" s="210" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="217"/>
-      <c r="D20" s="217"/>
+      <c r="C20" s="210"/>
+      <c r="D20" s="210"/>
       <c r="E20" s="30"/>
       <c r="F20" s="30"/>
       <c r="G20" s="30"/>
@@ -32149,21 +32161,21 @@
       <c r="L20" s="24"/>
       <c r="M20" s="24"/>
     </row>
-    <row r="21" spans="1:13" s="213" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:13" s="208" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="24"/>
-      <c r="B22" s="212" t="s">
+      <c r="B22" s="209" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="212"/>
-      <c r="D22" s="212"/>
-      <c r="E22" s="212"/>
-      <c r="F22" s="212"/>
-      <c r="G22" s="212"/>
-      <c r="H22" s="212"/>
-      <c r="I22" s="212"/>
-      <c r="J22" s="212"/>
-      <c r="K22" s="212"/>
+      <c r="C22" s="209"/>
+      <c r="D22" s="209"/>
+      <c r="E22" s="209"/>
+      <c r="F22" s="209"/>
+      <c r="G22" s="209"/>
+      <c r="H22" s="209"/>
+      <c r="I22" s="209"/>
+      <c r="J22" s="209"/>
+      <c r="K22" s="209"/>
       <c r="L22" s="24"/>
       <c r="M22" s="24"/>
     </row>
@@ -32172,19 +32184,19 @@
       <c r="B23" s="34" t="s">
         <v>514</v>
       </c>
-      <c r="C23" s="208"/>
-      <c r="D23" s="208"/>
-      <c r="E23" s="208"/>
-      <c r="F23" s="208"/>
+      <c r="C23" s="211"/>
+      <c r="D23" s="211"/>
+      <c r="E23" s="211"/>
+      <c r="F23" s="211"/>
       <c r="G23" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="H23" s="217" t="s">
+      <c r="H23" s="210" t="s">
         <v>55</v>
       </c>
-      <c r="I23" s="217"/>
-      <c r="J23" s="217"/>
-      <c r="K23" s="217"/>
+      <c r="I23" s="210"/>
+      <c r="J23" s="210"/>
+      <c r="K23" s="210"/>
       <c r="L23" s="24"/>
       <c r="M23" s="24"/>
     </row>
@@ -32193,19 +32205,19 @@
       <c r="B24" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="208"/>
-      <c r="D24" s="208"/>
-      <c r="E24" s="208"/>
-      <c r="F24" s="208"/>
+      <c r="C24" s="211"/>
+      <c r="D24" s="211"/>
+      <c r="E24" s="211"/>
+      <c r="F24" s="211"/>
       <c r="G24" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="H24" s="219" t="s">
+      <c r="H24" s="213" t="s">
         <v>58</v>
       </c>
-      <c r="I24" s="219"/>
-      <c r="J24" s="219"/>
-      <c r="K24" s="219"/>
+      <c r="I24" s="213"/>
+      <c r="J24" s="213"/>
+      <c r="K24" s="213"/>
       <c r="L24" s="24"/>
       <c r="M24" s="24"/>
     </row>
@@ -32214,17 +32226,17 @@
       <c r="B25" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="208"/>
-      <c r="D25" s="208"/>
-      <c r="E25" s="208"/>
-      <c r="F25" s="208"/>
+      <c r="C25" s="211"/>
+      <c r="D25" s="211"/>
+      <c r="E25" s="211"/>
+      <c r="F25" s="211"/>
       <c r="G25" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="H25" s="208"/>
-      <c r="I25" s="208"/>
-      <c r="J25" s="208"/>
-      <c r="K25" s="208"/>
+      <c r="H25" s="211"/>
+      <c r="I25" s="211"/>
+      <c r="J25" s="211"/>
+      <c r="K25" s="211"/>
       <c r="L25" s="24"/>
       <c r="M25" s="24"/>
     </row>
@@ -32233,17 +32245,17 @@
       <c r="B26" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="208"/>
-      <c r="D26" s="208"/>
-      <c r="E26" s="208"/>
-      <c r="F26" s="208"/>
+      <c r="C26" s="211"/>
+      <c r="D26" s="211"/>
+      <c r="E26" s="211"/>
+      <c r="F26" s="211"/>
       <c r="G26" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="H26" s="208"/>
-      <c r="I26" s="208"/>
-      <c r="J26" s="208"/>
-      <c r="K26" s="208"/>
+      <c r="H26" s="211"/>
+      <c r="I26" s="211"/>
+      <c r="J26" s="211"/>
+      <c r="K26" s="211"/>
       <c r="L26" s="24"/>
       <c r="M26" s="24"/>
     </row>
@@ -32267,19 +32279,19 @@
       <c r="B28" s="34" t="s">
         <v>515</v>
       </c>
-      <c r="C28" s="208"/>
-      <c r="D28" s="208"/>
-      <c r="E28" s="208"/>
-      <c r="F28" s="208"/>
+      <c r="C28" s="211"/>
+      <c r="D28" s="211"/>
+      <c r="E28" s="211"/>
+      <c r="F28" s="211"/>
       <c r="G28" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="H28" s="217" t="s">
+      <c r="H28" s="210" t="s">
         <v>55</v>
       </c>
-      <c r="I28" s="217"/>
-      <c r="J28" s="217"/>
-      <c r="K28" s="217"/>
+      <c r="I28" s="210"/>
+      <c r="J28" s="210"/>
+      <c r="K28" s="210"/>
       <c r="L28" s="24"/>
       <c r="M28" s="24"/>
     </row>
@@ -32288,17 +32300,17 @@
       <c r="B29" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="208"/>
-      <c r="D29" s="208"/>
-      <c r="E29" s="208"/>
-      <c r="F29" s="208"/>
+      <c r="C29" s="211"/>
+      <c r="D29" s="211"/>
+      <c r="E29" s="211"/>
+      <c r="F29" s="211"/>
       <c r="G29" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="H29" s="208"/>
-      <c r="I29" s="208"/>
-      <c r="J29" s="208"/>
-      <c r="K29" s="208"/>
+      <c r="H29" s="211"/>
+      <c r="I29" s="211"/>
+      <c r="J29" s="211"/>
+      <c r="K29" s="211"/>
       <c r="L29" s="24"/>
       <c r="M29" s="24"/>
     </row>
@@ -32307,17 +32319,17 @@
       <c r="B30" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="208"/>
-      <c r="D30" s="208"/>
-      <c r="E30" s="208"/>
-      <c r="F30" s="208"/>
+      <c r="C30" s="211"/>
+      <c r="D30" s="211"/>
+      <c r="E30" s="211"/>
+      <c r="F30" s="211"/>
       <c r="G30" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="H30" s="208"/>
-      <c r="I30" s="208"/>
-      <c r="J30" s="208"/>
-      <c r="K30" s="208"/>
+      <c r="H30" s="211"/>
+      <c r="I30" s="211"/>
+      <c r="J30" s="211"/>
+      <c r="K30" s="211"/>
       <c r="L30" s="24"/>
       <c r="M30" s="24"/>
     </row>
@@ -32326,34 +32338,34 @@
       <c r="B31" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="208"/>
-      <c r="D31" s="208"/>
-      <c r="E31" s="208"/>
-      <c r="F31" s="208"/>
+      <c r="C31" s="211"/>
+      <c r="D31" s="211"/>
+      <c r="E31" s="211"/>
+      <c r="F31" s="211"/>
       <c r="G31" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="H31" s="208"/>
-      <c r="I31" s="208"/>
-      <c r="J31" s="208"/>
-      <c r="K31" s="208"/>
+      <c r="H31" s="211"/>
+      <c r="I31" s="211"/>
+      <c r="J31" s="211"/>
+      <c r="K31" s="211"/>
       <c r="L31" s="24"/>
       <c r="M31" s="24"/>
     </row>
-    <row r="32" spans="1:13" s="213" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:13" s="208" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="24"/>
-      <c r="B33" s="212" t="s">
+      <c r="B33" s="209" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="212"/>
-      <c r="D33" s="212"/>
-      <c r="E33" s="212"/>
-      <c r="F33" s="212"/>
-      <c r="G33" s="212"/>
-      <c r="H33" s="212"/>
-      <c r="I33" s="212"/>
-      <c r="J33" s="212"/>
+      <c r="C33" s="209"/>
+      <c r="D33" s="209"/>
+      <c r="E33" s="209"/>
+      <c r="F33" s="209"/>
+      <c r="G33" s="209"/>
+      <c r="H33" s="209"/>
+      <c r="I33" s="209"/>
+      <c r="J33" s="209"/>
       <c r="K33" s="32"/>
       <c r="L33" s="24"/>
       <c r="M33" s="24"/>
@@ -32372,12 +32384,12 @@
       <c r="E34" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="F34" s="218" t="s">
+      <c r="F34" s="212" t="s">
         <v>68</v>
       </c>
-      <c r="G34" s="218"/>
-      <c r="H34" s="218"/>
-      <c r="I34" s="218"/>
+      <c r="G34" s="212"/>
+      <c r="H34" s="212"/>
+      <c r="I34" s="212"/>
       <c r="J34" s="34" t="s">
         <v>69</v>
       </c>
@@ -32395,12 +32407,12 @@
       </c>
       <c r="D35" s="30"/>
       <c r="E35" s="30"/>
-      <c r="F35" s="217" t="s">
+      <c r="F35" s="210" t="s">
         <v>72</v>
       </c>
-      <c r="G35" s="217"/>
-      <c r="H35" s="217"/>
-      <c r="I35" s="217"/>
+      <c r="G35" s="210"/>
+      <c r="H35" s="210"/>
+      <c r="I35" s="210"/>
       <c r="J35" s="30"/>
       <c r="K35" s="32"/>
       <c r="L35" s="24"/>
@@ -32421,20 +32433,20 @@
       <c r="L36" s="24"/>
       <c r="M36" s="24"/>
     </row>
-    <row r="37" spans="1:13" s="213" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:13" s="208" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="24"/>
-      <c r="B38" s="212" t="s">
+      <c r="B38" s="209" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="212"/>
-      <c r="D38" s="212"/>
-      <c r="E38" s="212"/>
-      <c r="F38" s="212"/>
-      <c r="G38" s="212"/>
-      <c r="H38" s="212"/>
-      <c r="I38" s="212"/>
-      <c r="J38" s="212"/>
+      <c r="C38" s="209"/>
+      <c r="D38" s="209"/>
+      <c r="E38" s="209"/>
+      <c r="F38" s="209"/>
+      <c r="G38" s="209"/>
+      <c r="H38" s="209"/>
+      <c r="I38" s="209"/>
+      <c r="J38" s="209"/>
       <c r="K38" s="32"/>
       <c r="L38" s="24"/>
       <c r="M38" s="24"/>
@@ -32447,21 +32459,21 @@
       <c r="C39" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="D39" s="218" t="s">
+      <c r="D39" s="212" t="s">
         <v>75</v>
       </c>
-      <c r="E39" s="218"/>
-      <c r="F39" s="218" t="s">
+      <c r="E39" s="212"/>
+      <c r="F39" s="212" t="s">
         <v>76</v>
       </c>
-      <c r="G39" s="218"/>
+      <c r="G39" s="212"/>
       <c r="H39" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="I39" s="218" t="s">
+      <c r="I39" s="212" t="s">
         <v>78</v>
       </c>
-      <c r="J39" s="218"/>
+      <c r="J39" s="212"/>
       <c r="K39" s="32"/>
       <c r="L39" s="24"/>
       <c r="M39" s="24"/>
@@ -32472,17 +32484,17 @@
         <v>517</v>
       </c>
       <c r="C40" s="30"/>
-      <c r="D40" s="217" t="s">
+      <c r="D40" s="210" t="s">
         <v>51</v>
       </c>
-      <c r="E40" s="217"/>
-      <c r="F40" s="208"/>
-      <c r="G40" s="208"/>
+      <c r="E40" s="210"/>
+      <c r="F40" s="211"/>
+      <c r="G40" s="211"/>
       <c r="H40" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="I40" s="208"/>
-      <c r="J40" s="208"/>
+      <c r="I40" s="211"/>
+      <c r="J40" s="211"/>
       <c r="K40" s="32"/>
       <c r="L40" s="24"/>
       <c r="M40" s="24"/>
@@ -32491,17 +32503,17 @@
       <c r="A41" s="24"/>
       <c r="B41" s="30"/>
       <c r="C41" s="30"/>
-      <c r="D41" s="217" t="s">
+      <c r="D41" s="210" t="s">
         <v>51</v>
       </c>
-      <c r="E41" s="217"/>
-      <c r="F41" s="208"/>
-      <c r="G41" s="208"/>
+      <c r="E41" s="210"/>
+      <c r="F41" s="211"/>
+      <c r="G41" s="211"/>
       <c r="H41" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="I41" s="208"/>
-      <c r="J41" s="208"/>
+      <c r="I41" s="211"/>
+      <c r="J41" s="211"/>
       <c r="K41" s="32"/>
       <c r="L41" s="24"/>
       <c r="M41" s="24"/>
@@ -32510,32 +32522,32 @@
       <c r="A42" s="24"/>
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
-      <c r="D42" s="217" t="s">
+      <c r="D42" s="210" t="s">
         <v>51</v>
       </c>
-      <c r="E42" s="217"/>
-      <c r="F42" s="208"/>
-      <c r="G42" s="208"/>
+      <c r="E42" s="210"/>
+      <c r="F42" s="211"/>
+      <c r="G42" s="211"/>
       <c r="H42" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="I42" s="208"/>
-      <c r="J42" s="208"/>
+      <c r="I42" s="211"/>
+      <c r="J42" s="211"/>
       <c r="K42" s="32"/>
       <c r="L42" s="24"/>
       <c r="M42" s="24"/>
     </row>
-    <row r="43" spans="1:13" s="213" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:13" s="208" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="24"/>
-      <c r="B44" s="212" t="s">
+      <c r="B44" s="209" t="s">
         <v>80</v>
       </c>
-      <c r="C44" s="212"/>
-      <c r="D44" s="212"/>
-      <c r="E44" s="212"/>
-      <c r="F44" s="212"/>
-      <c r="G44" s="212"/>
+      <c r="C44" s="209"/>
+      <c r="D44" s="209"/>
+      <c r="E44" s="209"/>
+      <c r="F44" s="209"/>
+      <c r="G44" s="209"/>
       <c r="H44" s="32"/>
       <c r="I44" s="32"/>
       <c r="J44" s="32"/>
@@ -32551,14 +32563,14 @@
       <c r="C45" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="D45" s="218" t="s">
+      <c r="D45" s="212" t="s">
         <v>83</v>
       </c>
-      <c r="E45" s="218"/>
-      <c r="F45" s="218" t="s">
+      <c r="E45" s="212"/>
+      <c r="F45" s="212" t="s">
         <v>84</v>
       </c>
-      <c r="G45" s="218"/>
+      <c r="G45" s="212"/>
       <c r="H45" s="32"/>
       <c r="I45" s="32"/>
       <c r="J45" s="32"/>
@@ -32570,10 +32582,10 @@
       <c r="A46" s="24"/>
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
-      <c r="D46" s="208"/>
-      <c r="E46" s="208"/>
-      <c r="F46" s="208"/>
-      <c r="G46" s="208"/>
+      <c r="D46" s="211"/>
+      <c r="E46" s="211"/>
+      <c r="F46" s="211"/>
+      <c r="G46" s="211"/>
       <c r="H46" s="32"/>
       <c r="I46" s="32"/>
       <c r="J46" s="32"/>
@@ -32585,10 +32597,10 @@
       <c r="A47" s="24"/>
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
-      <c r="D47" s="208"/>
-      <c r="E47" s="208"/>
-      <c r="F47" s="208"/>
-      <c r="G47" s="208"/>
+      <c r="D47" s="211"/>
+      <c r="E47" s="211"/>
+      <c r="F47" s="211"/>
+      <c r="G47" s="211"/>
       <c r="H47" s="32"/>
       <c r="I47" s="32"/>
       <c r="J47" s="32"/>
@@ -32600,10 +32612,10 @@
       <c r="A48" s="24"/>
       <c r="B48" s="30"/>
       <c r="C48" s="30"/>
-      <c r="D48" s="208"/>
-      <c r="E48" s="208"/>
-      <c r="F48" s="208"/>
-      <c r="G48" s="208"/>
+      <c r="D48" s="211"/>
+      <c r="E48" s="211"/>
+      <c r="F48" s="211"/>
+      <c r="G48" s="211"/>
       <c r="H48" s="32"/>
       <c r="I48" s="32"/>
       <c r="J48" s="32"/>
@@ -32626,17 +32638,17 @@
       <c r="L49" s="24"/>
       <c r="M49" s="24"/>
     </row>
-    <row r="50" spans="1:13" s="213" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:13" s="208" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="24"/>
-      <c r="B51" s="212" t="s">
+      <c r="B51" s="209" t="s">
         <v>85</v>
       </c>
-      <c r="C51" s="212"/>
-      <c r="D51" s="212"/>
-      <c r="E51" s="212"/>
-      <c r="F51" s="212"/>
-      <c r="G51" s="212"/>
+      <c r="C51" s="209"/>
+      <c r="D51" s="209"/>
+      <c r="E51" s="209"/>
+      <c r="F51" s="209"/>
+      <c r="G51" s="209"/>
       <c r="H51" s="32"/>
       <c r="I51" s="32"/>
       <c r="J51" s="32"/>
@@ -32746,15 +32758,15 @@
       <c r="L57" s="24"/>
       <c r="M57" s="24"/>
     </row>
-    <row r="58" spans="1:13" s="213" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:13" s="208" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="24"/>
-      <c r="B59" s="212" t="s">
+      <c r="B59" s="209" t="s">
         <v>92</v>
       </c>
-      <c r="C59" s="212"/>
-      <c r="D59" s="212"/>
-      <c r="E59" s="212"/>
+      <c r="C59" s="209"/>
+      <c r="D59" s="209"/>
+      <c r="E59" s="209"/>
       <c r="F59" s="32"/>
       <c r="G59" s="32"/>
       <c r="H59" s="32"/>
@@ -32847,16 +32859,16 @@
       <c r="L64" s="24"/>
       <c r="M64" s="24"/>
     </row>
-    <row r="65" spans="1:13" s="213" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="1:13" s="208" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="24"/>
-      <c r="B66" s="212" t="s">
+      <c r="B66" s="209" t="s">
         <v>97</v>
       </c>
-      <c r="C66" s="212"/>
-      <c r="D66" s="212"/>
-      <c r="E66" s="212"/>
-      <c r="F66" s="212"/>
+      <c r="C66" s="209"/>
+      <c r="D66" s="209"/>
+      <c r="E66" s="209"/>
+      <c r="F66" s="209"/>
       <c r="G66" s="32"/>
       <c r="H66" s="32"/>
       <c r="I66" s="32"/>
@@ -32950,16 +32962,16 @@
       <c r="L71" s="24"/>
       <c r="M71" s="24"/>
     </row>
-    <row r="72" spans="1:13" s="213" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="1:13" s="208" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="73" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="24"/>
-      <c r="B73" s="212" t="s">
+      <c r="B73" s="209" t="s">
         <v>102</v>
       </c>
-      <c r="C73" s="212"/>
-      <c r="D73" s="212"/>
-      <c r="E73" s="212"/>
-      <c r="F73" s="212"/>
+      <c r="C73" s="209"/>
+      <c r="D73" s="209"/>
+      <c r="E73" s="209"/>
+      <c r="F73" s="209"/>
       <c r="G73" s="32"/>
       <c r="H73" s="32"/>
       <c r="I73" s="32"/>
@@ -33053,13 +33065,13 @@
       <c r="L78" s="24"/>
       <c r="M78" s="24"/>
     </row>
-    <row r="79" spans="1:13" s="213" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:13" s="208" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="80" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="24"/>
-      <c r="B80" s="212" t="s">
+      <c r="B80" s="209" t="s">
         <v>108</v>
       </c>
-      <c r="C80" s="212"/>
+      <c r="C80" s="209"/>
       <c r="D80" s="32"/>
       <c r="E80" s="32"/>
       <c r="F80" s="32"/>
@@ -33198,7 +33210,7 @@
       <c r="L87" s="24"/>
       <c r="M87" s="24"/>
     </row>
-    <row r="88" spans="1:13" s="213" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="1:13" s="208" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="89" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="24"/>
       <c r="B89" s="42" t="s">
@@ -33339,17 +33351,17 @@
       <c r="L96" s="24"/>
       <c r="M96" s="24"/>
     </row>
-    <row r="97" spans="1:13" s="213" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" spans="1:13" s="208" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="98" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="24"/>
-      <c r="B98" s="212" t="s">
+      <c r="B98" s="209" t="s">
         <v>130</v>
       </c>
-      <c r="C98" s="212"/>
-      <c r="D98" s="212"/>
-      <c r="E98" s="212"/>
-      <c r="F98" s="212"/>
-      <c r="G98" s="212"/>
+      <c r="C98" s="209"/>
+      <c r="D98" s="209"/>
+      <c r="E98" s="209"/>
+      <c r="F98" s="209"/>
+      <c r="G98" s="209"/>
       <c r="H98" s="32"/>
       <c r="I98" s="32"/>
       <c r="J98" s="32"/>
@@ -33461,14 +33473,14 @@
     </row>
     <row r="105" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="24"/>
-      <c r="B105" s="217" t="s">
+      <c r="B105" s="210" t="s">
         <v>135</v>
       </c>
-      <c r="C105" s="217"/>
-      <c r="D105" s="217"/>
-      <c r="E105" s="217"/>
-      <c r="F105" s="217"/>
-      <c r="G105" s="217"/>
+      <c r="C105" s="210"/>
+      <c r="D105" s="210"/>
+      <c r="E105" s="210"/>
+      <c r="F105" s="210"/>
+      <c r="G105" s="210"/>
       <c r="H105" s="32"/>
       <c r="I105" s="32"/>
       <c r="J105" s="32"/>
@@ -33476,7 +33488,7 @@
       <c r="L105" s="24"/>
       <c r="M105" s="24"/>
     </row>
-    <row r="106" spans="1:13" s="213" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" spans="1:13" s="208" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="24"/>
       <c r="B107" s="24"/>
@@ -33524,6 +33536,81 @@
     </row>
   </sheetData>
   <mergeCells count="91">
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A5:XFD5"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="A21:XFD21"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="A13:XFD13"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B22:K22"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="B38:J38"/>
+    <mergeCell ref="A37:XFD37"/>
+    <mergeCell ref="A32:XFD32"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="B33:J33"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B66:F66"/>
+    <mergeCell ref="B73:F73"/>
     <mergeCell ref="B27:K27"/>
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="A106:XFD106"/>
@@ -33540,81 +33627,6 @@
     <mergeCell ref="A88:XFD88"/>
     <mergeCell ref="A97:XFD97"/>
     <mergeCell ref="B44:G44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B66:F66"/>
-    <mergeCell ref="B73:F73"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B38:J38"/>
-    <mergeCell ref="A37:XFD37"/>
-    <mergeCell ref="A32:XFD32"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="B33:J33"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="A21:XFD21"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="A13:XFD13"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B22:K22"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A5:XFD5"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="B4:K4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -33653,38 +33665,38 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="2:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="233" t="s">
+      <c r="B2" s="220" t="s">
         <v>531</v>
       </c>
-      <c r="C2" s="234"/>
-      <c r="D2" s="234"/>
-      <c r="E2" s="234"/>
-      <c r="F2" s="235"/>
+      <c r="C2" s="221"/>
+      <c r="D2" s="221"/>
+      <c r="E2" s="221"/>
+      <c r="F2" s="222"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="236" t="s">
+      <c r="B3" s="223" t="s">
         <v>542</v>
       </c>
-      <c r="C3" s="237"/>
-      <c r="D3" s="237"/>
-      <c r="E3" s="237"/>
-      <c r="F3" s="238"/>
+      <c r="C3" s="224"/>
+      <c r="D3" s="224"/>
+      <c r="E3" s="224"/>
+      <c r="F3" s="225"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="2:7" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="156" t="s">
+      <c r="B4" s="171" t="s">
         <v>136</v>
       </c>
       <c r="C4" s="189"/>
-      <c r="D4" s="157"/>
+      <c r="D4" s="172"/>
       <c r="E4" s="189" t="s">
         <v>536</v>
       </c>
-      <c r="F4" s="157"/>
+      <c r="F4" s="172"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="2:7" s="220" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="2:7" s="226" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="2:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="13"/>
       <c r="C6" s="44" t="s">
@@ -33702,39 +33714,39 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="2:7" s="52" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="229" t="s">
+      <c r="B7" s="235" t="s">
         <v>141</v>
       </c>
-      <c r="C7" s="231" t="s">
+      <c r="C7" s="237" t="s">
         <v>538</v>
       </c>
-      <c r="D7" s="158" t="s">
+      <c r="D7" s="162" t="s">
         <v>142</v>
       </c>
       <c r="E7" s="84" t="s">
         <v>677</v>
       </c>
-      <c r="F7" s="221" t="s">
+      <c r="F7" s="227" t="s">
         <v>539</v>
       </c>
       <c r="G7" s="18"/>
     </row>
     <row r="8" spans="2:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="230"/>
-      <c r="C8" s="232"/>
-      <c r="D8" s="159"/>
+      <c r="B8" s="236"/>
+      <c r="C8" s="238"/>
+      <c r="D8" s="163"/>
       <c r="E8" s="83" t="s">
         <v>676</v>
       </c>
-      <c r="F8" s="222"/>
+      <c r="F8" s="228"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="2:7" s="52" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="199"/>
-      <c r="C9" s="223" t="s">
+      <c r="C9" s="229" t="s">
         <v>537</v>
       </c>
-      <c r="D9" s="226" t="s">
+      <c r="D9" s="232" t="s">
         <v>525</v>
       </c>
       <c r="E9" s="82" t="s">
@@ -33749,8 +33761,8 @@
     </row>
     <row r="10" spans="2:7" s="52" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="200"/>
-      <c r="C10" s="224"/>
-      <c r="D10" s="227"/>
+      <c r="C10" s="230"/>
+      <c r="D10" s="233"/>
       <c r="E10" s="82" t="s">
         <v>518</v>
       </c>
@@ -33759,8 +33771,8 @@
     </row>
     <row r="11" spans="2:7" s="52" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="200"/>
-      <c r="C11" s="224"/>
-      <c r="D11" s="227"/>
+      <c r="C11" s="230"/>
+      <c r="D11" s="233"/>
       <c r="E11" s="82" t="s">
         <v>520</v>
       </c>
@@ -33769,8 +33781,8 @@
     </row>
     <row r="12" spans="2:7" s="52" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="200"/>
-      <c r="C12" s="224"/>
-      <c r="D12" s="227"/>
+      <c r="C12" s="230"/>
+      <c r="D12" s="233"/>
       <c r="E12" s="82" t="s">
         <v>521</v>
       </c>
@@ -33779,8 +33791,8 @@
     </row>
     <row r="13" spans="2:7" s="52" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="200"/>
-      <c r="C13" s="224"/>
-      <c r="D13" s="227"/>
+      <c r="C13" s="230"/>
+      <c r="D13" s="233"/>
       <c r="E13" s="82" t="s">
         <v>519</v>
       </c>
@@ -33789,8 +33801,8 @@
     </row>
     <row r="14" spans="2:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="201"/>
-      <c r="C14" s="225"/>
-      <c r="D14" s="228"/>
+      <c r="C14" s="231"/>
+      <c r="D14" s="234"/>
       <c r="E14" s="82" t="s">
         <v>523</v>
       </c>
@@ -33957,11 +33969,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:F4"/>
     <mergeCell ref="A5:XFD5"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="B9:B14"/>
@@ -33971,6 +33978,11 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="G9:G14"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:F4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>

--- a/자소서/스펙업 2017 하반기 채용다이어리.xlsx
+++ b/자소서/스펙업 2017 하반기 채용다이어리.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="936">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="937">
   <si>
     <t>카톡으로 공채 소식 받기</t>
   </si>
@@ -3868,6 +3868,10 @@
   </si>
   <si>
     <t>한국증권금융</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>골프존</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4859,6 +4863,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4877,25 +4890,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4904,25 +4902,19 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4931,22 +4923,16 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4973,10 +4959,13 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4988,10 +4977,25 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5018,16 +5022,16 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5093,8 +5097,23 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5105,12 +5124,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5120,14 +5133,23 @@
     <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5168,24 +5190,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5219,7 +5223,10 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5231,10 +5238,7 @@
     <xf numFmtId="0" fontId="5" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6834,84 +6838,84 @@
       <c r="M1" s="133"/>
     </row>
     <row r="2" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="140" t="s">
+      <c r="B2" s="134" t="s">
         <v>706</v>
       </c>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="141"/>
-      <c r="K2" s="141"/>
-      <c r="L2" s="141"/>
-      <c r="M2" s="142"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="136"/>
     </row>
     <row r="3" spans="2:13" ht="171" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="137" t="s">
+      <c r="B3" s="140" t="s">
         <v>675</v>
       </c>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="138"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="138"/>
-      <c r="J3" s="138"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="138"/>
-      <c r="M3" s="139"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="141"/>
+      <c r="L3" s="141"/>
+      <c r="M3" s="142"/>
     </row>
     <row r="4" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="140" t="s">
+      <c r="B4" s="134" t="s">
         <v>707</v>
       </c>
-      <c r="C4" s="141"/>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
-      <c r="F4" s="141"/>
-      <c r="G4" s="141"/>
-      <c r="H4" s="141"/>
-      <c r="I4" s="141"/>
-      <c r="J4" s="141"/>
-      <c r="K4" s="141"/>
-      <c r="L4" s="141"/>
-      <c r="M4" s="142"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="135"/>
+      <c r="J4" s="135"/>
+      <c r="K4" s="135"/>
+      <c r="L4" s="135"/>
+      <c r="M4" s="136"/>
     </row>
     <row r="5" spans="2:13" ht="286.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="137" t="s">
+      <c r="B5" s="140" t="s">
         <v>850</v>
       </c>
-      <c r="C5" s="138"/>
-      <c r="D5" s="138"/>
-      <c r="E5" s="138"/>
-      <c r="F5" s="138"/>
-      <c r="G5" s="138"/>
-      <c r="H5" s="138"/>
-      <c r="I5" s="138"/>
-      <c r="J5" s="138"/>
-      <c r="K5" s="138"/>
-      <c r="L5" s="138"/>
-      <c r="M5" s="139"/>
+      <c r="C5" s="141"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="141"/>
+      <c r="F5" s="141"/>
+      <c r="G5" s="141"/>
+      <c r="H5" s="141"/>
+      <c r="I5" s="141"/>
+      <c r="J5" s="141"/>
+      <c r="K5" s="141"/>
+      <c r="L5" s="141"/>
+      <c r="M5" s="142"/>
     </row>
     <row r="6" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="140" t="s">
+      <c r="B6" s="134" t="s">
         <v>651</v>
       </c>
-      <c r="C6" s="141"/>
-      <c r="D6" s="141"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="141"/>
-      <c r="G6" s="141"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="141"/>
-      <c r="J6" s="141"/>
-      <c r="K6" s="141"/>
-      <c r="L6" s="141"/>
-      <c r="M6" s="142"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="135"/>
+      <c r="K6" s="135"/>
+      <c r="L6" s="135"/>
+      <c r="M6" s="136"/>
     </row>
     <row r="7" spans="2:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="131"/>
@@ -6962,23 +6966,17 @@
       <c r="E10" s="132"/>
       <c r="F10" s="132"/>
       <c r="G10" s="133"/>
-      <c r="H10" s="134" t="s">
+      <c r="H10" s="137" t="s">
         <v>653</v>
       </c>
-      <c r="I10" s="135"/>
-      <c r="J10" s="135"/>
-      <c r="K10" s="135"/>
-      <c r="L10" s="135"/>
-      <c r="M10" s="136"/>
+      <c r="I10" s="138"/>
+      <c r="J10" s="138"/>
+      <c r="K10" s="138"/>
+      <c r="L10" s="138"/>
+      <c r="M10" s="139"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="H9:M9"/>
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="H10:M10"/>
     <mergeCell ref="B3:M3"/>
@@ -6986,6 +6984,12 @@
     <mergeCell ref="B5:M5"/>
     <mergeCell ref="B6:M6"/>
     <mergeCell ref="B7:M7"/>
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="H9:M9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7030,7 +7034,7 @@
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
-      <c r="B3" s="213" t="s">
+      <c r="B3" s="218" t="s">
         <v>639</v>
       </c>
       <c r="C3" s="132"/>
@@ -7367,7 +7371,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="167" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:3" s="161" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:3" s="48" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="15"/>
       <c r="B6" s="44" t="s">
@@ -7590,7 +7594,7 @@
     </row>
     <row r="4" spans="1:14" s="77" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="74"/>
-      <c r="B4" s="160" t="s">
+      <c r="B4" s="175" t="s">
         <v>547</v>
       </c>
       <c r="C4" s="193"/>
@@ -7599,32 +7603,32 @@
       <c r="F4" s="193"/>
       <c r="G4" s="193"/>
       <c r="H4" s="193"/>
-      <c r="I4" s="161"/>
-      <c r="J4" s="258" t="s">
+      <c r="I4" s="176"/>
+      <c r="J4" s="254" t="s">
         <v>642</v>
       </c>
-      <c r="K4" s="258"/>
-      <c r="L4" s="258"/>
-      <c r="M4" s="258"/>
-      <c r="N4" s="259"/>
-    </row>
-    <row r="5" spans="1:14" s="167" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="K4" s="254"/>
+      <c r="L4" s="254"/>
+      <c r="M4" s="254"/>
+      <c r="N4" s="255"/>
+    </row>
+    <row r="5" spans="1:14" s="161" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:14" s="86" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="255" t="s">
+      <c r="B6" s="256" t="s">
         <v>638</v>
       </c>
-      <c r="C6" s="256"/>
-      <c r="D6" s="256"/>
-      <c r="E6" s="256"/>
-      <c r="F6" s="256"/>
-      <c r="G6" s="256"/>
-      <c r="H6" s="256"/>
-      <c r="I6" s="256"/>
-      <c r="J6" s="256"/>
-      <c r="K6" s="256"/>
-      <c r="L6" s="256"/>
-      <c r="M6" s="256"/>
-      <c r="N6" s="257"/>
+      <c r="C6" s="257"/>
+      <c r="D6" s="257"/>
+      <c r="E6" s="257"/>
+      <c r="F6" s="257"/>
+      <c r="G6" s="257"/>
+      <c r="H6" s="257"/>
+      <c r="I6" s="257"/>
+      <c r="J6" s="257"/>
+      <c r="K6" s="257"/>
+      <c r="L6" s="257"/>
+      <c r="M6" s="257"/>
+      <c r="N6" s="258"/>
     </row>
     <row r="7" spans="1:14" s="48" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="15"/>
@@ -7670,7 +7674,7 @@
     </row>
     <row r="8" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="86"/>
-      <c r="B8" s="254" t="s">
+      <c r="B8" s="259" t="s">
         <v>625</v>
       </c>
       <c r="C8" s="252" t="s">
@@ -7694,7 +7698,7 @@
     </row>
     <row r="9" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="86"/>
-      <c r="B9" s="254"/>
+      <c r="B9" s="259"/>
       <c r="C9" s="252"/>
       <c r="D9" s="94" t="s">
         <v>629</v>
@@ -7714,7 +7718,7 @@
     </row>
     <row r="10" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="86"/>
-      <c r="B10" s="254"/>
+      <c r="B10" s="259"/>
       <c r="C10" s="252"/>
       <c r="D10" s="94" t="s">
         <v>630</v>
@@ -7738,7 +7742,7 @@
     </row>
     <row r="11" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="86"/>
-      <c r="B11" s="254"/>
+      <c r="B11" s="259"/>
       <c r="C11" s="252" t="s">
         <v>631</v>
       </c>
@@ -7766,7 +7770,7 @@
     </row>
     <row r="12" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="86"/>
-      <c r="B12" s="254"/>
+      <c r="B12" s="259"/>
       <c r="C12" s="252"/>
       <c r="D12" s="95" t="s">
         <v>633</v>
@@ -7804,7 +7808,7 @@
     </row>
     <row r="13" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="86"/>
-      <c r="B13" s="254"/>
+      <c r="B13" s="259"/>
       <c r="C13" s="252"/>
       <c r="D13" s="95" t="s">
         <v>634</v>
@@ -7842,7 +7846,7 @@
     </row>
     <row r="14" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="86"/>
-      <c r="B14" s="254"/>
+      <c r="B14" s="259"/>
       <c r="C14" s="252"/>
       <c r="D14" s="95" t="s">
         <v>635</v>
@@ -7866,7 +7870,7 @@
     </row>
     <row r="15" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="86"/>
-      <c r="B15" s="254"/>
+      <c r="B15" s="259"/>
       <c r="C15" s="252"/>
       <c r="D15" s="95" t="s">
         <v>636</v>
@@ -7888,7 +7892,7 @@
     </row>
     <row r="16" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="86"/>
-      <c r="B16" s="254"/>
+      <c r="B16" s="259"/>
       <c r="C16" s="252"/>
       <c r="D16" s="95" t="s">
         <v>637</v>
@@ -7914,7 +7918,7 @@
     </row>
     <row r="17" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="86"/>
-      <c r="B17" s="254" t="s">
+      <c r="B17" s="259" t="s">
         <v>550</v>
       </c>
       <c r="C17" s="252" t="s">
@@ -7944,7 +7948,7 @@
     </row>
     <row r="18" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="86"/>
-      <c r="B18" s="254"/>
+      <c r="B18" s="259"/>
       <c r="C18" s="252"/>
       <c r="D18" s="95" t="s">
         <v>553</v>
@@ -7964,7 +7968,7 @@
     </row>
     <row r="19" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="86"/>
-      <c r="B19" s="254"/>
+      <c r="B19" s="259"/>
       <c r="C19" s="252"/>
       <c r="D19" s="95" t="s">
         <v>554</v>
@@ -7988,7 +7992,7 @@
     </row>
     <row r="20" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="86"/>
-      <c r="B20" s="254"/>
+      <c r="B20" s="259"/>
       <c r="C20" s="252"/>
       <c r="D20" s="95" t="s">
         <v>555</v>
@@ -8008,7 +8012,7 @@
     </row>
     <row r="21" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="86"/>
-      <c r="B21" s="254"/>
+      <c r="B21" s="259"/>
       <c r="C21" s="252"/>
       <c r="D21" s="95" t="s">
         <v>556</v>
@@ -8032,7 +8036,7 @@
     </row>
     <row r="22" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="86"/>
-      <c r="B22" s="254"/>
+      <c r="B22" s="259"/>
       <c r="C22" s="252"/>
       <c r="D22" s="95" t="s">
         <v>557</v>
@@ -8054,7 +8058,7 @@
     </row>
     <row r="23" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="86"/>
-      <c r="B23" s="254"/>
+      <c r="B23" s="259"/>
       <c r="C23" s="252"/>
       <c r="D23" s="95" t="s">
         <v>558</v>
@@ -8078,7 +8082,7 @@
     </row>
     <row r="24" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="86"/>
-      <c r="B24" s="254"/>
+      <c r="B24" s="259"/>
       <c r="C24" s="13" t="s">
         <v>559</v>
       </c>
@@ -8118,7 +8122,7 @@
     </row>
     <row r="25" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="86"/>
-      <c r="B25" s="254" t="s">
+      <c r="B25" s="259" t="s">
         <v>560</v>
       </c>
       <c r="C25" s="252" t="s">
@@ -8146,7 +8150,7 @@
     </row>
     <row r="26" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="86"/>
-      <c r="B26" s="254"/>
+      <c r="B26" s="259"/>
       <c r="C26" s="252"/>
       <c r="D26" s="95" t="s">
         <v>563</v>
@@ -8170,7 +8174,7 @@
     </row>
     <row r="27" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="86"/>
-      <c r="B27" s="254"/>
+      <c r="B27" s="259"/>
       <c r="C27" s="252"/>
       <c r="D27" s="95" t="s">
         <v>564</v>
@@ -8192,7 +8196,7 @@
     </row>
     <row r="28" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="86"/>
-      <c r="B28" s="254"/>
+      <c r="B28" s="259"/>
       <c r="C28" s="252" t="s">
         <v>565</v>
       </c>
@@ -8222,7 +8226,7 @@
     </row>
     <row r="29" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="86"/>
-      <c r="B29" s="254"/>
+      <c r="B29" s="259"/>
       <c r="C29" s="252"/>
       <c r="D29" s="95" t="s">
         <v>567</v>
@@ -8246,7 +8250,7 @@
     </row>
     <row r="30" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="86"/>
-      <c r="B30" s="254"/>
+      <c r="B30" s="259"/>
       <c r="C30" s="252"/>
       <c r="D30" s="95" t="s">
         <v>568</v>
@@ -8276,7 +8280,7 @@
     </row>
     <row r="31" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="86"/>
-      <c r="B31" s="254"/>
+      <c r="B31" s="259"/>
       <c r="C31" s="252"/>
       <c r="D31" s="96" t="s">
         <v>569</v>
@@ -8308,7 +8312,7 @@
     </row>
     <row r="32" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="86"/>
-      <c r="B32" s="254"/>
+      <c r="B32" s="259"/>
       <c r="C32" s="252"/>
       <c r="D32" s="95" t="s">
         <v>570</v>
@@ -8332,7 +8336,7 @@
     </row>
     <row r="33" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="86"/>
-      <c r="B33" s="254"/>
+      <c r="B33" s="259"/>
       <c r="C33" s="252" t="s">
         <v>571</v>
       </c>
@@ -8356,7 +8360,7 @@
     </row>
     <row r="34" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="86"/>
-      <c r="B34" s="254"/>
+      <c r="B34" s="259"/>
       <c r="C34" s="252"/>
       <c r="D34" s="95" t="s">
         <v>573</v>
@@ -8380,7 +8384,7 @@
     </row>
     <row r="35" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="86"/>
-      <c r="B35" s="254" t="s">
+      <c r="B35" s="259" t="s">
         <v>574</v>
       </c>
       <c r="C35" s="252" t="s">
@@ -8404,7 +8408,7 @@
     </row>
     <row r="36" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="86"/>
-      <c r="B36" s="254"/>
+      <c r="B36" s="259"/>
       <c r="C36" s="252"/>
       <c r="D36" s="95" t="s">
         <v>577</v>
@@ -8424,7 +8428,7 @@
     </row>
     <row r="37" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="86"/>
-      <c r="B37" s="254"/>
+      <c r="B37" s="259"/>
       <c r="C37" s="252"/>
       <c r="D37" s="95" t="s">
         <v>578</v>
@@ -8444,7 +8448,7 @@
     </row>
     <row r="38" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="86"/>
-      <c r="B38" s="254"/>
+      <c r="B38" s="259"/>
       <c r="C38" s="252" t="s">
         <v>579</v>
       </c>
@@ -8466,7 +8470,7 @@
     </row>
     <row r="39" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="86"/>
-      <c r="B39" s="254"/>
+      <c r="B39" s="259"/>
       <c r="C39" s="252"/>
       <c r="D39" s="95" t="s">
         <v>581</v>
@@ -8490,7 +8494,7 @@
     </row>
     <row r="40" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="86"/>
-      <c r="B40" s="254"/>
+      <c r="B40" s="259"/>
       <c r="C40" s="252"/>
       <c r="D40" s="95" t="s">
         <v>582</v>
@@ -8516,7 +8520,7 @@
     </row>
     <row r="41" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="86"/>
-      <c r="B41" s="254"/>
+      <c r="B41" s="259"/>
       <c r="C41" s="252"/>
       <c r="D41" s="95" t="s">
         <v>583</v>
@@ -8536,18 +8540,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="B3:N3"/>
-    <mergeCell ref="A5:XFD5"/>
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:N4"/>
-    <mergeCell ref="B6:N6"/>
-    <mergeCell ref="B8:B16"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="B17:B24"/>
-    <mergeCell ref="C17:C23"/>
     <mergeCell ref="B25:B34"/>
     <mergeCell ref="C25:C27"/>
     <mergeCell ref="C28:C32"/>
@@ -8555,6 +8547,18 @@
     <mergeCell ref="B35:B41"/>
     <mergeCell ref="C35:C37"/>
     <mergeCell ref="C38:C41"/>
+    <mergeCell ref="B6:N6"/>
+    <mergeCell ref="B8:B16"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="B17:B24"/>
+    <mergeCell ref="C17:C23"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="A5:XFD5"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:N4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -11759,8 +11763,8 @@
   </sheetPr>
   <dimension ref="A1:K438"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F88" sqref="F88"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.4"/>
@@ -11773,66 +11777,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="118.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="164"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
-      <c r="I1" s="166"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="159"/>
+      <c r="I1" s="160"/>
     </row>
     <row r="2" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
-      <c r="B2" s="174" t="s">
+      <c r="B2" s="169" t="s">
         <v>708</v>
       </c>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="175"/>
-      <c r="H2" s="175"/>
-      <c r="I2" s="176"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="171"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="67"/>
-      <c r="B3" s="168" t="s">
+      <c r="B3" s="162" t="s">
         <v>540</v>
       </c>
-      <c r="C3" s="169"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="169"/>
-      <c r="I3" s="170"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="164"/>
       <c r="J3" s="67"/>
     </row>
     <row r="4" spans="1:10" s="75" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="74"/>
-      <c r="B4" s="158" t="s">
+      <c r="B4" s="173" t="s">
         <v>709</v>
       </c>
-      <c r="C4" s="159"/>
-      <c r="D4" s="160" t="s">
+      <c r="C4" s="174"/>
+      <c r="D4" s="175" t="s">
         <v>529</v>
       </c>
-      <c r="E4" s="161"/>
-      <c r="F4" s="160" t="s">
+      <c r="E4" s="176"/>
+      <c r="F4" s="175" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="161"/>
-      <c r="H4" s="160" t="s">
+      <c r="G4" s="176"/>
+      <c r="H4" s="175" t="s">
         <v>530</v>
       </c>
-      <c r="I4" s="161"/>
+      <c r="I4" s="176"/>
       <c r="J4" s="15"/>
     </row>
-    <row r="5" spans="1:10" s="167" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:10" s="161" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:10" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="162"/>
+      <c r="B6" s="166"/>
       <c r="C6" s="55" t="s">
         <v>858</v>
       </c>
@@ -11856,7 +11860,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="163"/>
+      <c r="B7" s="167"/>
       <c r="C7" s="121" t="s">
         <v>711</v>
       </c>
@@ -11880,7 +11884,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="153" t="s">
+      <c r="B8" s="156" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="63"/>
@@ -11900,7 +11904,7 @@
       <c r="I8" s="63"/>
     </row>
     <row r="9" spans="1:10" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="153"/>
+      <c r="B9" s="156"/>
       <c r="C9" s="63"/>
       <c r="D9" s="63"/>
       <c r="E9" s="63"/>
@@ -11912,7 +11916,7 @@
       <c r="I9" s="63"/>
     </row>
     <row r="10" spans="1:10" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="153"/>
+      <c r="B10" s="156"/>
       <c r="C10" s="63"/>
       <c r="D10" s="63"/>
       <c r="E10" s="63"/>
@@ -11924,7 +11928,7 @@
       <c r="I10" s="63"/>
     </row>
     <row r="11" spans="1:10" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="153"/>
+      <c r="B11" s="156"/>
       <c r="C11" s="63"/>
       <c r="D11" s="63"/>
       <c r="E11" s="63"/>
@@ -11936,7 +11940,7 @@
       <c r="I11" s="63"/>
     </row>
     <row r="12" spans="1:10" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="153"/>
+      <c r="B12" s="156"/>
       <c r="C12" s="63"/>
       <c r="D12" s="63"/>
       <c r="E12" s="63"/>
@@ -11948,7 +11952,7 @@
       <c r="I12" s="63"/>
     </row>
     <row r="13" spans="1:10" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="153"/>
+      <c r="B13" s="156"/>
       <c r="C13" s="63"/>
       <c r="D13" s="63"/>
       <c r="E13" s="63"/>
@@ -11960,7 +11964,7 @@
       <c r="I13" s="63"/>
     </row>
     <row r="14" spans="1:10" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="153"/>
+      <c r="B14" s="156"/>
       <c r="C14" s="63"/>
       <c r="D14" s="63"/>
       <c r="E14" s="63"/>
@@ -11972,7 +11976,7 @@
       <c r="I14" s="63"/>
     </row>
     <row r="15" spans="1:10" s="124" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="153"/>
+      <c r="B15" s="156"/>
       <c r="C15" s="63"/>
       <c r="D15" s="63"/>
       <c r="E15" s="63"/>
@@ -11984,7 +11988,7 @@
       <c r="I15" s="63"/>
     </row>
     <row r="16" spans="1:10" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="153"/>
+      <c r="B16" s="156"/>
       <c r="C16" s="63"/>
       <c r="D16" s="63"/>
       <c r="E16" s="63"/>
@@ -11996,7 +12000,7 @@
       <c r="I16" s="63"/>
     </row>
     <row r="17" spans="1:10" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="155" t="s">
+      <c r="B17" s="168" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="70"/>
@@ -12008,7 +12012,7 @@
       <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:10" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="156"/>
+      <c r="B18" s="152"/>
       <c r="C18" s="72"/>
       <c r="D18" s="63"/>
       <c r="E18" s="71"/>
@@ -12018,7 +12022,7 @@
       <c r="I18" s="63"/>
     </row>
     <row r="19" spans="1:10" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="156"/>
+      <c r="B19" s="152"/>
       <c r="C19" s="63"/>
       <c r="D19" s="63"/>
       <c r="E19" s="63"/>
@@ -12028,7 +12032,7 @@
       <c r="I19" s="63"/>
     </row>
     <row r="20" spans="1:10" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="143" t="s">
+      <c r="B20" s="151" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7"/>
@@ -12040,7 +12044,7 @@
       <c r="I20" s="7"/>
     </row>
     <row r="21" spans="1:10" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="144"/>
+      <c r="B21" s="143"/>
       <c r="C21" s="63"/>
       <c r="D21" s="63"/>
       <c r="E21" s="63"/>
@@ -12050,7 +12054,7 @@
       <c r="I21" s="63"/>
     </row>
     <row r="22" spans="1:10" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="144"/>
+      <c r="B22" s="143"/>
       <c r="C22" s="63"/>
       <c r="D22" s="63"/>
       <c r="E22" s="63"/>
@@ -12060,7 +12064,7 @@
       <c r="I22" s="63"/>
     </row>
     <row r="23" spans="1:10" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="146" t="s">
+      <c r="B23" s="155" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="7"/>
@@ -12072,7 +12076,7 @@
       <c r="I23" s="7"/>
     </row>
     <row r="24" spans="1:10" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="147"/>
+      <c r="B24" s="145"/>
       <c r="C24" s="63"/>
       <c r="D24" s="63"/>
       <c r="E24" s="63"/>
@@ -12082,7 +12086,7 @@
       <c r="I24" s="63"/>
     </row>
     <row r="25" spans="1:10" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="147"/>
+      <c r="B25" s="145"/>
       <c r="C25" s="63"/>
       <c r="D25" s="63"/>
       <c r="E25" s="63"/>
@@ -12092,7 +12096,7 @@
       <c r="I25" s="63"/>
     </row>
     <row r="26" spans="1:10" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="149" t="s">
+      <c r="B26" s="154" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="7"/>
@@ -12104,7 +12108,7 @@
       <c r="I26" s="7"/>
     </row>
     <row r="27" spans="1:10" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="150"/>
+      <c r="B27" s="147"/>
       <c r="C27" s="63"/>
       <c r="D27" s="63"/>
       <c r="E27" s="63"/>
@@ -12114,7 +12118,7 @@
       <c r="I27" s="63"/>
     </row>
     <row r="28" spans="1:10" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="150"/>
+      <c r="B28" s="147"/>
       <c r="C28" s="63"/>
       <c r="D28" s="63"/>
       <c r="E28" s="63"/>
@@ -12124,7 +12128,7 @@
       <c r="I28" s="63"/>
     </row>
     <row r="29" spans="1:10" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="171" t="s">
+      <c r="B29" s="165" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="60"/>
@@ -12136,7 +12140,7 @@
       <c r="I29" s="7"/>
     </row>
     <row r="30" spans="1:10" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="172"/>
+      <c r="B30" s="149"/>
       <c r="C30" s="63"/>
       <c r="D30" s="63"/>
       <c r="E30" s="63"/>
@@ -12146,7 +12150,7 @@
       <c r="I30" s="63"/>
     </row>
     <row r="31" spans="1:10" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="172"/>
+      <c r="B31" s="149"/>
       <c r="C31" s="63"/>
       <c r="D31" s="63"/>
       <c r="E31" s="63"/>
@@ -12157,7 +12161,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
-      <c r="B32" s="162"/>
+      <c r="B32" s="166"/>
       <c r="C32" s="55" t="s">
         <v>712</v>
       </c>
@@ -12183,7 +12187,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
-      <c r="B33" s="163"/>
+      <c r="B33" s="167"/>
       <c r="C33" s="121" t="s">
         <v>711</v>
       </c>
@@ -12209,7 +12213,7 @@
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
-      <c r="B34" s="152" t="s">
+      <c r="B34" s="172" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="63" t="s">
@@ -12231,7 +12235,7 @@
     </row>
     <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="120"/>
-      <c r="B35" s="153"/>
+      <c r="B35" s="156"/>
       <c r="C35" s="63" t="s">
         <v>870</v>
       </c>
@@ -12251,7 +12255,7 @@
     </row>
     <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="120"/>
-      <c r="B36" s="153"/>
+      <c r="B36" s="156"/>
       <c r="C36" s="63" t="s">
         <v>869</v>
       </c>
@@ -12267,7 +12271,7 @@
     </row>
     <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="120"/>
-      <c r="B37" s="153"/>
+      <c r="B37" s="156"/>
       <c r="C37" s="63" t="s">
         <v>878</v>
       </c>
@@ -12281,7 +12285,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
-      <c r="B38" s="153"/>
+      <c r="B38" s="156"/>
       <c r="C38" s="126" t="s">
         <v>882</v>
       </c>
@@ -12295,7 +12299,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" s="124"/>
-      <c r="B39" s="153"/>
+      <c r="B39" s="156"/>
       <c r="C39" s="61" t="s">
         <v>883</v>
       </c>
@@ -12309,7 +12313,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40" s="124"/>
-      <c r="B40" s="153"/>
+      <c r="B40" s="156"/>
       <c r="C40" s="61" t="s">
         <v>884</v>
       </c>
@@ -12323,7 +12327,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41" s="125"/>
-      <c r="B41" s="153"/>
+      <c r="B41" s="156"/>
       <c r="C41" s="61" t="s">
         <v>887</v>
       </c>
@@ -12337,7 +12341,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A42" s="125"/>
-      <c r="B42" s="153"/>
+      <c r="B42" s="156"/>
       <c r="C42" s="61" t="s">
         <v>892</v>
       </c>
@@ -12351,7 +12355,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A43" s="127"/>
-      <c r="B43" s="153"/>
+      <c r="B43" s="156"/>
       <c r="C43" s="61" t="s">
         <v>907</v>
       </c>
@@ -12365,7 +12369,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44" s="1"/>
-      <c r="B44" s="154"/>
+      <c r="B44" s="157"/>
       <c r="C44" s="63" t="s">
         <v>898</v>
       </c>
@@ -12379,7 +12383,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45" s="1"/>
-      <c r="B45" s="155" t="s">
+      <c r="B45" s="168" t="s">
         <v>9</v>
       </c>
       <c r="C45" s="70"/>
@@ -12395,7 +12399,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A46" s="1"/>
-      <c r="B46" s="156"/>
+      <c r="B46" s="152"/>
       <c r="C46" s="72"/>
       <c r="D46" s="5"/>
       <c r="E46" s="71"/>
@@ -12407,7 +12411,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A47" s="1"/>
-      <c r="B47" s="156"/>
+      <c r="B47" s="152"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -12419,7 +12423,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A48" s="1"/>
-      <c r="B48" s="143" t="s">
+      <c r="B48" s="151" t="s">
         <v>10</v>
       </c>
       <c r="C48" s="7"/>
@@ -12433,7 +12437,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A49" s="1"/>
-      <c r="B49" s="144"/>
+      <c r="B49" s="143"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -12445,7 +12449,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A50" s="1"/>
-      <c r="B50" s="144"/>
+      <c r="B50" s="143"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
@@ -12457,7 +12461,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A51" s="1"/>
-      <c r="B51" s="146" t="s">
+      <c r="B51" s="155" t="s">
         <v>11</v>
       </c>
       <c r="C51" s="7"/>
@@ -12471,7 +12475,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A52" s="1"/>
-      <c r="B52" s="147"/>
+      <c r="B52" s="145"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -12483,7 +12487,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A53" s="1"/>
-      <c r="B53" s="147"/>
+      <c r="B53" s="145"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
@@ -12495,7 +12499,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A54" s="1"/>
-      <c r="B54" s="149" t="s">
+      <c r="B54" s="154" t="s">
         <v>12</v>
       </c>
       <c r="C54" s="7"/>
@@ -12509,7 +12513,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A55" s="1"/>
-      <c r="B55" s="150"/>
+      <c r="B55" s="147"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -12521,7 +12525,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A56" s="1"/>
-      <c r="B56" s="150"/>
+      <c r="B56" s="147"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
@@ -12533,7 +12537,7 @@
     </row>
     <row r="57" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="1"/>
-      <c r="B57" s="171" t="s">
+      <c r="B57" s="165" t="s">
         <v>13</v>
       </c>
       <c r="C57" s="60"/>
@@ -12547,7 +12551,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A58" s="1"/>
-      <c r="B58" s="172"/>
+      <c r="B58" s="149"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -12559,7 +12563,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A59" s="1"/>
-      <c r="B59" s="172"/>
+      <c r="B59" s="149"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
@@ -12623,7 +12627,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A62" s="1"/>
-      <c r="B62" s="152" t="s">
+      <c r="B62" s="172" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="7" t="s">
@@ -12641,8 +12645,10 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A63" s="1"/>
-      <c r="B63" s="153"/>
-      <c r="C63" s="5"/>
+      <c r="B63" s="156"/>
+      <c r="C63" s="5" t="s">
+        <v>936</v>
+      </c>
       <c r="D63" s="5"/>
       <c r="E63" s="5" t="s">
         <v>935</v>
@@ -12655,7 +12661,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A64" s="1"/>
-      <c r="B64" s="154"/>
+      <c r="B64" s="157"/>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
@@ -12667,7 +12673,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A65" s="1"/>
-      <c r="B65" s="155" t="s">
+      <c r="B65" s="168" t="s">
         <v>9</v>
       </c>
       <c r="C65" s="7" t="s">
@@ -12691,7 +12697,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A66" s="1"/>
-      <c r="B66" s="156"/>
+      <c r="B66" s="152"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5" t="s">
@@ -12709,7 +12715,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A67" s="124"/>
-      <c r="B67" s="156"/>
+      <c r="B67" s="152"/>
       <c r="C67" s="63"/>
       <c r="D67" s="63"/>
       <c r="E67" s="63" t="s">
@@ -12725,7 +12731,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A68" s="125"/>
-      <c r="B68" s="156"/>
+      <c r="B68" s="152"/>
       <c r="C68" s="63"/>
       <c r="D68" s="63"/>
       <c r="E68" s="63" t="s">
@@ -12741,7 +12747,7 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A69" s="125"/>
-      <c r="B69" s="156"/>
+      <c r="B69" s="152"/>
       <c r="C69" s="63"/>
       <c r="D69" s="63"/>
       <c r="E69" s="63"/>
@@ -12752,7 +12758,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A70" s="125"/>
-      <c r="B70" s="156"/>
+      <c r="B70" s="152"/>
       <c r="C70" s="63"/>
       <c r="D70" s="63"/>
       <c r="E70" s="63"/>
@@ -12764,7 +12770,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A71" s="1"/>
-      <c r="B71" s="157"/>
+      <c r="B71" s="153"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
@@ -12776,7 +12782,7 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A72" s="1"/>
-      <c r="B72" s="143" t="s">
+      <c r="B72" s="151" t="s">
         <v>10</v>
       </c>
       <c r="C72" s="7"/>
@@ -12790,7 +12796,7 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A73" s="1"/>
-      <c r="B73" s="144"/>
+      <c r="B73" s="143"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -12802,7 +12808,7 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A74" s="1"/>
-      <c r="B74" s="145"/>
+      <c r="B74" s="144"/>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
@@ -12814,7 +12820,7 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A75" s="1"/>
-      <c r="B75" s="146" t="s">
+      <c r="B75" s="155" t="s">
         <v>11</v>
       </c>
       <c r="C75" s="7"/>
@@ -12828,7 +12834,7 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A76" s="1"/>
-      <c r="B76" s="147"/>
+      <c r="B76" s="145"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
@@ -12840,7 +12846,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A77" s="1"/>
-      <c r="B77" s="148"/>
+      <c r="B77" s="146"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
@@ -12852,7 +12858,7 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A78" s="1"/>
-      <c r="B78" s="149" t="s">
+      <c r="B78" s="154" t="s">
         <v>12</v>
       </c>
       <c r="C78" s="7"/>
@@ -12866,7 +12872,7 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A79" s="1"/>
-      <c r="B79" s="150"/>
+      <c r="B79" s="147"/>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
@@ -12878,7 +12884,7 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A80" s="1"/>
-      <c r="B80" s="151"/>
+      <c r="B80" s="148"/>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
@@ -12890,7 +12896,7 @@
     </row>
     <row r="81" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="1"/>
-      <c r="B81" s="171" t="s">
+      <c r="B81" s="165" t="s">
         <v>13</v>
       </c>
       <c r="C81" s="7"/>
@@ -12904,7 +12910,7 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A82" s="1"/>
-      <c r="B82" s="172"/>
+      <c r="B82" s="149"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
@@ -12916,7 +12922,7 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A83" s="1"/>
-      <c r="B83" s="173"/>
+      <c r="B83" s="150"/>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
@@ -12980,7 +12986,7 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A86" s="1"/>
-      <c r="B86" s="152" t="s">
+      <c r="B86" s="172" t="s">
         <v>8</v>
       </c>
       <c r="C86" s="7" t="s">
@@ -12996,7 +13002,7 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A87" s="1"/>
-      <c r="B87" s="153"/>
+      <c r="B87" s="156"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
@@ -13008,7 +13014,7 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A88" s="1"/>
-      <c r="B88" s="154"/>
+      <c r="B88" s="157"/>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
@@ -13020,7 +13026,7 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A89" s="1"/>
-      <c r="B89" s="155" t="s">
+      <c r="B89" s="168" t="s">
         <v>9</v>
       </c>
       <c r="C89" s="7" t="s">
@@ -13042,7 +13048,7 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A90" s="1"/>
-      <c r="B90" s="156"/>
+      <c r="B90" s="152"/>
       <c r="C90" s="5" t="s">
         <v>862</v>
       </c>
@@ -13062,7 +13068,7 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A91" s="124"/>
-      <c r="B91" s="156"/>
+      <c r="B91" s="152"/>
       <c r="C91" s="63" t="s">
         <v>881</v>
       </c>
@@ -13082,7 +13088,7 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A92" s="125"/>
-      <c r="B92" s="156"/>
+      <c r="B92" s="152"/>
       <c r="C92" s="61" t="s">
         <v>875</v>
       </c>
@@ -13098,21 +13104,23 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A93" s="125"/>
-      <c r="B93" s="156"/>
+      <c r="B93" s="152"/>
       <c r="C93" s="63" t="s">
         <v>889</v>
       </c>
       <c r="D93" s="63"/>
       <c r="E93" s="63"/>
       <c r="F93" s="63"/>
-      <c r="G93" s="63"/>
+      <c r="G93" s="63" t="s">
+        <v>936</v>
+      </c>
       <c r="H93" s="63"/>
       <c r="I93" s="63"/>
       <c r="J93" s="125"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A94" s="125"/>
-      <c r="B94" s="156"/>
+      <c r="B94" s="152"/>
       <c r="C94" s="63" t="s">
         <v>897</v>
       </c>
@@ -13126,7 +13134,7 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A95" s="127"/>
-      <c r="B95" s="156"/>
+      <c r="B95" s="152"/>
       <c r="C95" s="63" t="s">
         <v>907</v>
       </c>
@@ -13140,7 +13148,7 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A96" s="1"/>
-      <c r="B96" s="157"/>
+      <c r="B96" s="153"/>
       <c r="C96" s="61" t="s">
         <v>899</v>
       </c>
@@ -13154,7 +13162,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A97" s="1"/>
-      <c r="B97" s="143" t="s">
+      <c r="B97" s="151" t="s">
         <v>10</v>
       </c>
       <c r="C97" s="7"/>
@@ -13168,7 +13176,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A98" s="1"/>
-      <c r="B98" s="144"/>
+      <c r="B98" s="143"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
@@ -13180,7 +13188,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A99" s="1"/>
-      <c r="B99" s="145"/>
+      <c r="B99" s="144"/>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
       <c r="E99" s="6"/>
@@ -13192,7 +13200,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A100" s="1"/>
-      <c r="B100" s="146" t="s">
+      <c r="B100" s="155" t="s">
         <v>11</v>
       </c>
       <c r="C100" s="7"/>
@@ -13206,7 +13214,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A101" s="1"/>
-      <c r="B101" s="147"/>
+      <c r="B101" s="145"/>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
@@ -13218,7 +13226,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A102" s="1"/>
-      <c r="B102" s="148"/>
+      <c r="B102" s="146"/>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
       <c r="E102" s="6"/>
@@ -13230,7 +13238,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A103" s="1"/>
-      <c r="B103" s="149" t="s">
+      <c r="B103" s="154" t="s">
         <v>12</v>
       </c>
       <c r="C103" s="7"/>
@@ -13244,7 +13252,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A104" s="1"/>
-      <c r="B104" s="150"/>
+      <c r="B104" s="147"/>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
@@ -13256,7 +13264,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A105" s="1"/>
-      <c r="B105" s="151"/>
+      <c r="B105" s="148"/>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
@@ -13269,7 +13277,7 @@
     </row>
     <row r="106" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="1"/>
-      <c r="B106" s="171" t="s">
+      <c r="B106" s="165" t="s">
         <v>13</v>
       </c>
       <c r="C106" s="7"/>
@@ -13284,7 +13292,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A107" s="1"/>
-      <c r="B107" s="172"/>
+      <c r="B107" s="149"/>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
@@ -13297,7 +13305,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A108" s="1"/>
-      <c r="B108" s="173"/>
+      <c r="B108" s="150"/>
       <c r="C108" s="6"/>
       <c r="D108" s="6"/>
       <c r="E108" s="6"/>
@@ -13364,7 +13372,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A111" s="1"/>
-      <c r="B111" s="153" t="s">
+      <c r="B111" s="156" t="s">
         <v>8</v>
       </c>
       <c r="C111" s="5"/>
@@ -13379,7 +13387,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A112" s="1"/>
-      <c r="B112" s="153"/>
+      <c r="B112" s="156"/>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
@@ -13392,7 +13400,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A113" s="1"/>
-      <c r="B113" s="154"/>
+      <c r="B113" s="157"/>
       <c r="C113" s="6"/>
       <c r="D113" s="6"/>
       <c r="E113" s="6"/>
@@ -13405,7 +13413,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A114" s="1"/>
-      <c r="B114" s="156" t="s">
+      <c r="B114" s="152" t="s">
         <v>9</v>
       </c>
       <c r="C114" s="5"/>
@@ -13422,7 +13430,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A115" s="1"/>
-      <c r="B115" s="156"/>
+      <c r="B115" s="152"/>
       <c r="C115" s="5"/>
       <c r="D115" s="5" t="s">
         <v>934</v>
@@ -13437,7 +13445,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A116" s="1"/>
-      <c r="B116" s="157"/>
+      <c r="B116" s="153"/>
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
       <c r="E116" s="6"/>
@@ -13450,7 +13458,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A117" s="1"/>
-      <c r="B117" s="144" t="s">
+      <c r="B117" s="143" t="s">
         <v>10</v>
       </c>
       <c r="C117" s="5"/>
@@ -13467,7 +13475,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A118" s="1"/>
-      <c r="B118" s="144"/>
+      <c r="B118" s="143"/>
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
@@ -13480,7 +13488,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A119" s="1"/>
-      <c r="B119" s="145"/>
+      <c r="B119" s="144"/>
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
       <c r="E119" s="6"/>
@@ -13493,7 +13501,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A120" s="1"/>
-      <c r="B120" s="147" t="s">
+      <c r="B120" s="145" t="s">
         <v>11</v>
       </c>
       <c r="C120" s="5"/>
@@ -13508,7 +13516,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A121" s="1"/>
-      <c r="B121" s="147"/>
+      <c r="B121" s="145"/>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
@@ -13521,7 +13529,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A122" s="1"/>
-      <c r="B122" s="148"/>
+      <c r="B122" s="146"/>
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
       <c r="E122" s="6"/>
@@ -13534,7 +13542,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A123" s="1"/>
-      <c r="B123" s="150" t="s">
+      <c r="B123" s="147" t="s">
         <v>12</v>
       </c>
       <c r="C123" s="5"/>
@@ -13549,7 +13557,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A124" s="1"/>
-      <c r="B124" s="150"/>
+      <c r="B124" s="147"/>
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
@@ -13562,7 +13570,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A125" s="1"/>
-      <c r="B125" s="151"/>
+      <c r="B125" s="148"/>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
       <c r="E125" s="6"/>
@@ -13574,7 +13582,7 @@
     </row>
     <row r="126" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="1"/>
-      <c r="B126" s="172" t="s">
+      <c r="B126" s="149" t="s">
         <v>13</v>
       </c>
       <c r="C126" s="5"/>
@@ -13588,7 +13596,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A127" s="1"/>
-      <c r="B127" s="172"/>
+      <c r="B127" s="149"/>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
@@ -13600,7 +13608,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A128" s="1"/>
-      <c r="B128" s="173"/>
+      <c r="B128" s="150"/>
       <c r="C128" s="6"/>
       <c r="D128" s="6"/>
       <c r="E128" s="6"/>
@@ -16138,15 +16146,21 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B123:B125"/>
-    <mergeCell ref="B126:B128"/>
-    <mergeCell ref="B97:B99"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="B100:B102"/>
-    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="B89:B96"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="B65:B71"/>
+    <mergeCell ref="B34:B44"/>
+    <mergeCell ref="B45:B47"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="A5:XFD5"/>
     <mergeCell ref="B3:I3"/>
@@ -16163,21 +16177,15 @@
     <mergeCell ref="B81:B83"/>
     <mergeCell ref="B48:B50"/>
     <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="B65:B71"/>
-    <mergeCell ref="B34:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="B89:B96"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B123:B125"/>
+    <mergeCell ref="B126:B128"/>
+    <mergeCell ref="B97:B99"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="B111:B113"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -16209,41 +16217,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="119.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="164"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
-      <c r="I1" s="166"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="159"/>
+      <c r="I1" s="160"/>
     </row>
     <row r="2" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
-      <c r="B2" s="174" t="s">
+      <c r="B2" s="169" t="s">
         <v>741</v>
       </c>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="187"/>
-      <c r="I2" s="188"/>
+      <c r="C2" s="189"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="189"/>
+      <c r="G2" s="189"/>
+      <c r="H2" s="189"/>
+      <c r="I2" s="190"/>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="67"/>
-      <c r="B3" s="168" t="s">
+      <c r="B3" s="162" t="s">
         <v>540</v>
       </c>
-      <c r="C3" s="169"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="169"/>
-      <c r="I3" s="170"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="164"/>
       <c r="J3" s="67"/>
     </row>
     <row r="4" spans="1:10" s="76" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -16252,24 +16260,24 @@
         <v>847</v>
       </c>
       <c r="C4" s="192"/>
-      <c r="D4" s="160" t="s">
+      <c r="D4" s="175" t="s">
         <v>544</v>
       </c>
-      <c r="E4" s="161"/>
-      <c r="F4" s="160" t="s">
+      <c r="E4" s="176"/>
+      <c r="F4" s="175" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="193"/>
-      <c r="H4" s="160" t="s">
+      <c r="H4" s="175" t="s">
         <v>529</v>
       </c>
-      <c r="I4" s="161"/>
+      <c r="I4" s="176"/>
       <c r="J4" s="74"/>
     </row>
-    <row r="5" spans="1:10" s="167" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:10" s="161" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="162"/>
+      <c r="B6" s="166"/>
       <c r="C6" s="55" t="s">
         <v>742</v>
       </c>
@@ -16295,7 +16303,7 @@
     </row>
     <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="163"/>
+      <c r="B7" s="167"/>
       <c r="C7" s="56" t="s">
         <v>1</v>
       </c>
@@ -16359,7 +16367,7 @@
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="177" t="s">
+      <c r="B11" s="187" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="11"/>
@@ -16373,7 +16381,7 @@
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="177"/>
+      <c r="B12" s="187"/>
       <c r="C12" s="11"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -16385,7 +16393,7 @@
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="178"/>
+      <c r="B13" s="188"/>
       <c r="C13" s="10"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -16511,7 +16519,7 @@
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
-      <c r="B23" s="189" t="s">
+      <c r="B23" s="177" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="11"/>
@@ -16525,7 +16533,7 @@
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
-      <c r="B24" s="189"/>
+      <c r="B24" s="177"/>
       <c r="C24" s="11"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -16537,7 +16545,7 @@
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
-      <c r="B25" s="190"/>
+      <c r="B25" s="178"/>
       <c r="C25" s="10"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -16639,7 +16647,7 @@
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
-      <c r="B31" s="177" t="s">
+      <c r="B31" s="187" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="11"/>
@@ -16657,7 +16665,7 @@
     </row>
     <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
-      <c r="B32" s="177"/>
+      <c r="B32" s="187"/>
       <c r="C32" s="11"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5" t="s">
@@ -16671,7 +16679,7 @@
     </row>
     <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
-      <c r="B33" s="178"/>
+      <c r="B33" s="188"/>
       <c r="C33" s="10"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -16799,7 +16807,7 @@
     </row>
     <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1"/>
-      <c r="B43" s="189" t="s">
+      <c r="B43" s="177" t="s">
         <v>13</v>
       </c>
       <c r="C43" s="11"/>
@@ -16813,7 +16821,7 @@
     </row>
     <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="1"/>
-      <c r="B44" s="189"/>
+      <c r="B44" s="177"/>
       <c r="C44" s="11"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -16825,7 +16833,7 @@
     </row>
     <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1"/>
-      <c r="B45" s="190"/>
+      <c r="B45" s="178"/>
       <c r="C45" s="10"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
@@ -16927,7 +16935,7 @@
     </row>
     <row r="51" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1"/>
-      <c r="B51" s="177" t="s">
+      <c r="B51" s="187" t="s">
         <v>9</v>
       </c>
       <c r="C51" s="11"/>
@@ -16941,7 +16949,7 @@
     </row>
     <row r="52" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1"/>
-      <c r="B52" s="177"/>
+      <c r="B52" s="187"/>
       <c r="C52" s="11"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -16953,7 +16961,7 @@
     </row>
     <row r="53" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="1"/>
-      <c r="B53" s="178"/>
+      <c r="B53" s="188"/>
       <c r="C53" s="10"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
@@ -17080,7 +17088,7 @@
     </row>
     <row r="63" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="1"/>
-      <c r="B63" s="189" t="s">
+      <c r="B63" s="177" t="s">
         <v>13</v>
       </c>
       <c r="C63" s="11"/>
@@ -17094,7 +17102,7 @@
     </row>
     <row r="64" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="1"/>
-      <c r="B64" s="189"/>
+      <c r="B64" s="177"/>
       <c r="C64" s="11"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -17109,7 +17117,7 @@
     </row>
     <row r="65" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="1"/>
-      <c r="B65" s="190"/>
+      <c r="B65" s="178"/>
       <c r="C65" s="10"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
@@ -17229,7 +17237,7 @@
     </row>
     <row r="71" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="1"/>
-      <c r="B71" s="177" t="s">
+      <c r="B71" s="187" t="s">
         <v>9</v>
       </c>
       <c r="C71" s="11"/>
@@ -17246,7 +17254,7 @@
     </row>
     <row r="72" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="1"/>
-      <c r="B72" s="177"/>
+      <c r="B72" s="187"/>
       <c r="C72" s="11"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -17261,7 +17269,7 @@
     </row>
     <row r="73" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="1"/>
-      <c r="B73" s="178"/>
+      <c r="B73" s="188"/>
       <c r="C73" s="10"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
@@ -17417,7 +17425,7 @@
     </row>
     <row r="83" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="1"/>
-      <c r="B83" s="189" t="s">
+      <c r="B83" s="177" t="s">
         <v>13</v>
       </c>
       <c r="C83" s="11"/>
@@ -17434,7 +17442,7 @@
     </row>
     <row r="84" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="1"/>
-      <c r="B84" s="189"/>
+      <c r="B84" s="177"/>
       <c r="C84" s="11"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -17449,7 +17457,7 @@
     </row>
     <row r="85" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="1"/>
-      <c r="B85" s="190"/>
+      <c r="B85" s="178"/>
       <c r="C85" s="10"/>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
@@ -17557,7 +17565,7 @@
     </row>
     <row r="91" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="1"/>
-      <c r="B91" s="177" t="s">
+      <c r="B91" s="187" t="s">
         <v>9</v>
       </c>
       <c r="C91" s="11"/>
@@ -17571,7 +17579,7 @@
     </row>
     <row r="92" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="1"/>
-      <c r="B92" s="177"/>
+      <c r="B92" s="187"/>
       <c r="C92" s="11"/>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -17583,7 +17591,7 @@
     </row>
     <row r="93" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="1"/>
-      <c r="B93" s="178"/>
+      <c r="B93" s="188"/>
       <c r="C93" s="10"/>
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
@@ -17709,7 +17717,7 @@
     </row>
     <row r="103" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="1"/>
-      <c r="B103" s="189" t="s">
+      <c r="B103" s="177" t="s">
         <v>13</v>
       </c>
       <c r="C103" s="11"/>
@@ -17723,7 +17731,7 @@
     </row>
     <row r="104" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="1"/>
-      <c r="B104" s="189"/>
+      <c r="B104" s="177"/>
       <c r="C104" s="11"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
@@ -17735,7 +17743,7 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A105" s="1"/>
-      <c r="B105" s="190"/>
+      <c r="B105" s="178"/>
       <c r="C105" s="69"/>
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
@@ -22001,6 +22009,29 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B6:B7"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B103:B105"/>
     <mergeCell ref="A5:XFD5"/>
@@ -22017,29 +22048,6 @@
     <mergeCell ref="B54:B56"/>
     <mergeCell ref="B57:B59"/>
     <mergeCell ref="B60:B62"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B68:B70"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -22082,30 +22090,30 @@
     </row>
     <row r="2" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
-      <c r="B2" s="174" t="s">
+      <c r="B2" s="169" t="s">
         <v>778</v>
       </c>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="175"/>
-      <c r="H2" s="175"/>
-      <c r="I2" s="176"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="171"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="67"/>
-      <c r="B3" s="168" t="s">
+      <c r="B3" s="162" t="s">
         <v>540</v>
       </c>
-      <c r="C3" s="169"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="169"/>
-      <c r="I3" s="170"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="164"/>
       <c r="J3" s="67"/>
     </row>
     <row r="4" spans="1:10" s="77" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -22114,24 +22122,24 @@
         <v>849</v>
       </c>
       <c r="C4" s="192"/>
-      <c r="D4" s="160" t="s">
+      <c r="D4" s="175" t="s">
         <v>545</v>
       </c>
-      <c r="E4" s="161"/>
-      <c r="F4" s="160" t="s">
+      <c r="E4" s="176"/>
+      <c r="F4" s="175" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="193"/>
-      <c r="H4" s="160" t="s">
+      <c r="H4" s="175" t="s">
         <v>529</v>
       </c>
-      <c r="I4" s="161"/>
+      <c r="I4" s="176"/>
       <c r="J4" s="74"/>
     </row>
-    <row r="5" spans="1:10" s="167" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:10" s="161" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="162"/>
+      <c r="B6" s="166"/>
       <c r="C6" s="104" t="s">
         <v>779</v>
       </c>
@@ -22157,7 +22165,7 @@
     </row>
     <row r="7" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="163"/>
+      <c r="B7" s="167"/>
       <c r="C7" s="105" t="s">
         <v>780</v>
       </c>
@@ -22183,7 +22191,7 @@
     </row>
     <row r="8" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="153" t="s">
+      <c r="B8" s="156" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="5"/>
@@ -22197,7 +22205,7 @@
     </row>
     <row r="9" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="153"/>
+      <c r="B9" s="156"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -22209,7 +22217,7 @@
     </row>
     <row r="10" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="154"/>
+      <c r="B10" s="157"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -22221,7 +22229,7 @@
     </row>
     <row r="11" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="156" t="s">
+      <c r="B11" s="152" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="5"/>
@@ -22235,7 +22243,7 @@
     </row>
     <row r="12" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="156"/>
+      <c r="B12" s="152"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -22247,7 +22255,7 @@
     </row>
     <row r="13" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="157"/>
+      <c r="B13" s="153"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -22259,7 +22267,7 @@
     </row>
     <row r="14" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="144" t="s">
+      <c r="B14" s="143" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="5"/>
@@ -22273,7 +22281,7 @@
     </row>
     <row r="15" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="144"/>
+      <c r="B15" s="143"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -22285,7 +22293,7 @@
     </row>
     <row r="16" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
-      <c r="B16" s="145"/>
+      <c r="B16" s="144"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -22297,7 +22305,7 @@
     </row>
     <row r="17" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
-      <c r="B17" s="147" t="s">
+      <c r="B17" s="145" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="5"/>
@@ -22311,7 +22319,7 @@
     </row>
     <row r="18" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
-      <c r="B18" s="147"/>
+      <c r="B18" s="145"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -22323,7 +22331,7 @@
     </row>
     <row r="19" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
-      <c r="B19" s="148"/>
+      <c r="B19" s="146"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -22335,7 +22343,7 @@
     </row>
     <row r="20" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
-      <c r="B20" s="150" t="s">
+      <c r="B20" s="147" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="5"/>
@@ -22349,7 +22357,7 @@
     </row>
     <row r="21" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
-      <c r="B21" s="150"/>
+      <c r="B21" s="147"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -22361,7 +22369,7 @@
     </row>
     <row r="22" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
-      <c r="B22" s="151"/>
+      <c r="B22" s="148"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -22373,7 +22381,7 @@
     </row>
     <row r="23" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
-      <c r="B23" s="172" t="s">
+      <c r="B23" s="149" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="5"/>
@@ -22387,7 +22395,7 @@
     </row>
     <row r="24" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
-      <c r="B24" s="172"/>
+      <c r="B24" s="149"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -22399,7 +22407,7 @@
     </row>
     <row r="25" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
-      <c r="B25" s="173"/>
+      <c r="B25" s="150"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -22463,7 +22471,7 @@
     </row>
     <row r="28" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
-      <c r="B28" s="153" t="s">
+      <c r="B28" s="156" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="5"/>
@@ -22478,7 +22486,7 @@
     </row>
     <row r="29" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
-      <c r="B29" s="153"/>
+      <c r="B29" s="156"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -22490,7 +22498,7 @@
     </row>
     <row r="30" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
-      <c r="B30" s="154"/>
+      <c r="B30" s="157"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -22502,7 +22510,7 @@
     </row>
     <row r="31" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
-      <c r="B31" s="156" t="s">
+      <c r="B31" s="152" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="5"/>
@@ -22516,7 +22524,7 @@
     </row>
     <row r="32" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
-      <c r="B32" s="156"/>
+      <c r="B32" s="152"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -22528,7 +22536,7 @@
     </row>
     <row r="33" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
-      <c r="B33" s="157"/>
+      <c r="B33" s="153"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -22540,7 +22548,7 @@
     </row>
     <row r="34" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
-      <c r="B34" s="144" t="s">
+      <c r="B34" s="143" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="5"/>
@@ -22554,7 +22562,7 @@
     </row>
     <row r="35" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
-      <c r="B35" s="144"/>
+      <c r="B35" s="143"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -22566,7 +22574,7 @@
     </row>
     <row r="36" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
-      <c r="B36" s="145"/>
+      <c r="B36" s="144"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -22578,7 +22586,7 @@
     </row>
     <row r="37" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
-      <c r="B37" s="147" t="s">
+      <c r="B37" s="145" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="5"/>
@@ -22592,7 +22600,7 @@
     </row>
     <row r="38" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
-      <c r="B38" s="147"/>
+      <c r="B38" s="145"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -22604,7 +22612,7 @@
     </row>
     <row r="39" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1"/>
-      <c r="B39" s="148"/>
+      <c r="B39" s="146"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -22616,7 +22624,7 @@
     </row>
     <row r="40" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1"/>
-      <c r="B40" s="150" t="s">
+      <c r="B40" s="147" t="s">
         <v>12</v>
       </c>
       <c r="C40" s="5"/>
@@ -22630,7 +22638,7 @@
     </row>
     <row r="41" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1"/>
-      <c r="B41" s="150"/>
+      <c r="B41" s="147"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -22642,7 +22650,7 @@
     </row>
     <row r="42" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="1"/>
-      <c r="B42" s="151"/>
+      <c r="B42" s="148"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -22654,7 +22662,7 @@
     </row>
     <row r="43" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1"/>
-      <c r="B43" s="172" t="s">
+      <c r="B43" s="149" t="s">
         <v>13</v>
       </c>
       <c r="C43" s="5"/>
@@ -22668,7 +22676,7 @@
     </row>
     <row r="44" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="1"/>
-      <c r="B44" s="172"/>
+      <c r="B44" s="149"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -22680,7 +22688,7 @@
     </row>
     <row r="45" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1"/>
-      <c r="B45" s="173"/>
+      <c r="B45" s="150"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
@@ -22744,7 +22752,7 @@
     </row>
     <row r="48" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="1"/>
-      <c r="B48" s="153" t="s">
+      <c r="B48" s="156" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="5"/>
@@ -22758,7 +22766,7 @@
     </row>
     <row r="49" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1"/>
-      <c r="B49" s="153"/>
+      <c r="B49" s="156"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -22770,7 +22778,7 @@
     </row>
     <row r="50" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="1"/>
-      <c r="B50" s="154"/>
+      <c r="B50" s="157"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
@@ -22782,7 +22790,7 @@
     </row>
     <row r="51" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1"/>
-      <c r="B51" s="156" t="s">
+      <c r="B51" s="152" t="s">
         <v>9</v>
       </c>
       <c r="C51" s="5"/>
@@ -22796,7 +22804,7 @@
     </row>
     <row r="52" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1"/>
-      <c r="B52" s="156"/>
+      <c r="B52" s="152"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -22808,7 +22816,7 @@
     </row>
     <row r="53" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="1"/>
-      <c r="B53" s="157"/>
+      <c r="B53" s="153"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
@@ -22820,7 +22828,7 @@
     </row>
     <row r="54" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="1"/>
-      <c r="B54" s="144" t="s">
+      <c r="B54" s="143" t="s">
         <v>10</v>
       </c>
       <c r="C54" s="5"/>
@@ -22834,7 +22842,7 @@
     </row>
     <row r="55" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="1"/>
-      <c r="B55" s="144"/>
+      <c r="B55" s="143"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -22846,7 +22854,7 @@
     </row>
     <row r="56" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="1"/>
-      <c r="B56" s="145"/>
+      <c r="B56" s="144"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
@@ -22858,7 +22866,7 @@
     </row>
     <row r="57" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="1"/>
-      <c r="B57" s="147" t="s">
+      <c r="B57" s="145" t="s">
         <v>11</v>
       </c>
       <c r="C57" s="5"/>
@@ -22872,7 +22880,7 @@
     </row>
     <row r="58" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="1"/>
-      <c r="B58" s="147"/>
+      <c r="B58" s="145"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -22884,7 +22892,7 @@
     </row>
     <row r="59" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="1"/>
-      <c r="B59" s="148"/>
+      <c r="B59" s="146"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
@@ -22896,7 +22904,7 @@
     </row>
     <row r="60" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="1"/>
-      <c r="B60" s="150" t="s">
+      <c r="B60" s="147" t="s">
         <v>12</v>
       </c>
       <c r="C60" s="5"/>
@@ -22910,7 +22918,7 @@
     </row>
     <row r="61" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="1"/>
-      <c r="B61" s="150"/>
+      <c r="B61" s="147"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -22922,7 +22930,7 @@
     </row>
     <row r="62" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="1"/>
-      <c r="B62" s="151"/>
+      <c r="B62" s="148"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
@@ -22934,7 +22942,7 @@
     </row>
     <row r="63" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="1"/>
-      <c r="B63" s="172" t="s">
+      <c r="B63" s="149" t="s">
         <v>13</v>
       </c>
       <c r="C63" s="5"/>
@@ -22948,7 +22956,7 @@
     </row>
     <row r="64" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="1"/>
-      <c r="B64" s="172"/>
+      <c r="B64" s="149"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -22960,7 +22968,7 @@
     </row>
     <row r="65" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="1"/>
-      <c r="B65" s="173"/>
+      <c r="B65" s="150"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
@@ -23027,7 +23035,7 @@
     </row>
     <row r="68" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="1"/>
-      <c r="B68" s="153" t="s">
+      <c r="B68" s="156" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="5"/>
@@ -23042,7 +23050,7 @@
     </row>
     <row r="69" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="1"/>
-      <c r="B69" s="153"/>
+      <c r="B69" s="156"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -23055,7 +23063,7 @@
     </row>
     <row r="70" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="1"/>
-      <c r="B70" s="154"/>
+      <c r="B70" s="157"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
@@ -23068,7 +23076,7 @@
     </row>
     <row r="71" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="1"/>
-      <c r="B71" s="156" t="s">
+      <c r="B71" s="152" t="s">
         <v>9</v>
       </c>
       <c r="C71" s="5"/>
@@ -23083,7 +23091,7 @@
     </row>
     <row r="72" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="1"/>
-      <c r="B72" s="156"/>
+      <c r="B72" s="152"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -23096,7 +23104,7 @@
     </row>
     <row r="73" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="1"/>
-      <c r="B73" s="157"/>
+      <c r="B73" s="153"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
@@ -23109,7 +23117,7 @@
     </row>
     <row r="74" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="1"/>
-      <c r="B74" s="144" t="s">
+      <c r="B74" s="143" t="s">
         <v>10</v>
       </c>
       <c r="C74" s="5"/>
@@ -23124,7 +23132,7 @@
     </row>
     <row r="75" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="1"/>
-      <c r="B75" s="144"/>
+      <c r="B75" s="143"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -23136,7 +23144,7 @@
     </row>
     <row r="76" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="1"/>
-      <c r="B76" s="145"/>
+      <c r="B76" s="144"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
@@ -23148,7 +23156,7 @@
     </row>
     <row r="77" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="1"/>
-      <c r="B77" s="147" t="s">
+      <c r="B77" s="145" t="s">
         <v>11</v>
       </c>
       <c r="C77" s="5"/>
@@ -23162,7 +23170,7 @@
     </row>
     <row r="78" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="1"/>
-      <c r="B78" s="147"/>
+      <c r="B78" s="145"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -23174,7 +23182,7 @@
     </row>
     <row r="79" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="1"/>
-      <c r="B79" s="148"/>
+      <c r="B79" s="146"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
@@ -23186,7 +23194,7 @@
     </row>
     <row r="80" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="1"/>
-      <c r="B80" s="150" t="s">
+      <c r="B80" s="147" t="s">
         <v>12</v>
       </c>
       <c r="C80" s="5"/>
@@ -23200,7 +23208,7 @@
     </row>
     <row r="81" spans="1:16" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="1"/>
-      <c r="B81" s="150"/>
+      <c r="B81" s="147"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -23212,7 +23220,7 @@
     </row>
     <row r="82" spans="1:16" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="1"/>
-      <c r="B82" s="151"/>
+      <c r="B82" s="148"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
@@ -23224,7 +23232,7 @@
     </row>
     <row r="83" spans="1:16" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="1"/>
-      <c r="B83" s="172" t="s">
+      <c r="B83" s="149" t="s">
         <v>13</v>
       </c>
       <c r="C83" s="5"/>
@@ -23238,7 +23246,7 @@
     </row>
     <row r="84" spans="1:16" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="1"/>
-      <c r="B84" s="172"/>
+      <c r="B84" s="149"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -23250,7 +23258,7 @@
     </row>
     <row r="85" spans="1:16" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="1"/>
-      <c r="B85" s="173"/>
+      <c r="B85" s="150"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
@@ -25433,11 +25441,18 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B68:B70"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="A5:XFD5"/>
@@ -25454,18 +25469,11 @@
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B60:B62"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -25507,30 +25515,30 @@
     </row>
     <row r="2" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
-      <c r="B2" s="174" t="s">
+      <c r="B2" s="169" t="s">
         <v>837</v>
       </c>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="175"/>
-      <c r="H2" s="175"/>
-      <c r="I2" s="176"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="171"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="67"/>
-      <c r="B3" s="168" t="s">
+      <c r="B3" s="162" t="s">
         <v>540</v>
       </c>
-      <c r="C3" s="169"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="169"/>
-      <c r="I3" s="170"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="164"/>
       <c r="J3" s="67"/>
     </row>
     <row r="4" spans="1:10" s="75" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -25539,24 +25547,24 @@
         <v>848</v>
       </c>
       <c r="C4" s="192"/>
-      <c r="D4" s="160" t="s">
+      <c r="D4" s="175" t="s">
         <v>704</v>
       </c>
-      <c r="E4" s="161"/>
-      <c r="F4" s="160" t="s">
+      <c r="E4" s="176"/>
+      <c r="F4" s="175" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="193"/>
-      <c r="H4" s="160" t="s">
+      <c r="H4" s="175" t="s">
         <v>543</v>
       </c>
-      <c r="I4" s="161"/>
+      <c r="I4" s="176"/>
       <c r="J4" s="15"/>
     </row>
-    <row r="5" spans="1:10" s="167" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:10" s="161" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="162"/>
+      <c r="B6" s="166"/>
       <c r="C6" s="55" t="s">
         <v>809</v>
       </c>
@@ -25582,7 +25590,7 @@
     </row>
     <row r="7" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="163"/>
+      <c r="B7" s="167"/>
       <c r="C7" s="56" t="s">
         <v>1</v>
       </c>
@@ -25608,7 +25616,7 @@
     </row>
     <row r="8" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="153" t="s">
+      <c r="B8" s="156" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="5"/>
@@ -25622,7 +25630,7 @@
     </row>
     <row r="9" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="153"/>
+      <c r="B9" s="156"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -25634,7 +25642,7 @@
     </row>
     <row r="10" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="154"/>
+      <c r="B10" s="157"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -25646,7 +25654,7 @@
     </row>
     <row r="11" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="156" t="s">
+      <c r="B11" s="152" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="5"/>
@@ -25660,7 +25668,7 @@
     </row>
     <row r="12" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="156"/>
+      <c r="B12" s="152"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -25672,7 +25680,7 @@
     </row>
     <row r="13" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="157"/>
+      <c r="B13" s="153"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -25684,7 +25692,7 @@
     </row>
     <row r="14" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="144" t="s">
+      <c r="B14" s="143" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="5"/>
@@ -25698,7 +25706,7 @@
     </row>
     <row r="15" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="144"/>
+      <c r="B15" s="143"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -25710,7 +25718,7 @@
     </row>
     <row r="16" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
-      <c r="B16" s="145"/>
+      <c r="B16" s="144"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -25722,7 +25730,7 @@
     </row>
     <row r="17" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
-      <c r="B17" s="147" t="s">
+      <c r="B17" s="145" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="5"/>
@@ -25736,7 +25744,7 @@
     </row>
     <row r="18" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
-      <c r="B18" s="147"/>
+      <c r="B18" s="145"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -25748,7 +25756,7 @@
     </row>
     <row r="19" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
-      <c r="B19" s="148"/>
+      <c r="B19" s="146"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -25760,7 +25768,7 @@
     </row>
     <row r="20" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
-      <c r="B20" s="150" t="s">
+      <c r="B20" s="147" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="5"/>
@@ -25774,7 +25782,7 @@
     </row>
     <row r="21" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
-      <c r="B21" s="150"/>
+      <c r="B21" s="147"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -25786,7 +25794,7 @@
     </row>
     <row r="22" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
-      <c r="B22" s="151"/>
+      <c r="B22" s="148"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -25798,7 +25806,7 @@
     </row>
     <row r="23" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
-      <c r="B23" s="172" t="s">
+      <c r="B23" s="149" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="5"/>
@@ -25812,7 +25820,7 @@
     </row>
     <row r="24" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
-      <c r="B24" s="172"/>
+      <c r="B24" s="149"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -25824,7 +25832,7 @@
     </row>
     <row r="25" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
-      <c r="B25" s="173"/>
+      <c r="B25" s="150"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -25888,7 +25896,7 @@
     </row>
     <row r="28" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
-      <c r="B28" s="153" t="s">
+      <c r="B28" s="156" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="5"/>
@@ -25902,7 +25910,7 @@
     </row>
     <row r="29" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
-      <c r="B29" s="153"/>
+      <c r="B29" s="156"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -25914,7 +25922,7 @@
     </row>
     <row r="30" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
-      <c r="B30" s="154"/>
+      <c r="B30" s="157"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -25926,7 +25934,7 @@
     </row>
     <row r="31" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
-      <c r="B31" s="156" t="s">
+      <c r="B31" s="152" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="5"/>
@@ -25940,7 +25948,7 @@
     </row>
     <row r="32" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
-      <c r="B32" s="156"/>
+      <c r="B32" s="152"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -25952,7 +25960,7 @@
     </row>
     <row r="33" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
-      <c r="B33" s="157"/>
+      <c r="B33" s="153"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -25964,7 +25972,7 @@
     </row>
     <row r="34" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
-      <c r="B34" s="144" t="s">
+      <c r="B34" s="143" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="5"/>
@@ -25978,7 +25986,7 @@
     </row>
     <row r="35" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
-      <c r="B35" s="144"/>
+      <c r="B35" s="143"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -25990,7 +25998,7 @@
     </row>
     <row r="36" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
-      <c r="B36" s="145"/>
+      <c r="B36" s="144"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -26002,7 +26010,7 @@
     </row>
     <row r="37" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
-      <c r="B37" s="147" t="s">
+      <c r="B37" s="145" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="5"/>
@@ -26016,7 +26024,7 @@
     </row>
     <row r="38" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
-      <c r="B38" s="147"/>
+      <c r="B38" s="145"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -26028,7 +26036,7 @@
     </row>
     <row r="39" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1"/>
-      <c r="B39" s="148"/>
+      <c r="B39" s="146"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -26040,7 +26048,7 @@
     </row>
     <row r="40" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1"/>
-      <c r="B40" s="150" t="s">
+      <c r="B40" s="147" t="s">
         <v>12</v>
       </c>
       <c r="C40" s="5"/>
@@ -26054,7 +26062,7 @@
     </row>
     <row r="41" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1"/>
-      <c r="B41" s="150"/>
+      <c r="B41" s="147"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -26066,7 +26074,7 @@
     </row>
     <row r="42" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="1"/>
-      <c r="B42" s="151"/>
+      <c r="B42" s="148"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -26078,7 +26086,7 @@
     </row>
     <row r="43" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1"/>
-      <c r="B43" s="172" t="s">
+      <c r="B43" s="149" t="s">
         <v>13</v>
       </c>
       <c r="C43" s="5"/>
@@ -26092,7 +26100,7 @@
     </row>
     <row r="44" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="1"/>
-      <c r="B44" s="172"/>
+      <c r="B44" s="149"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -26104,7 +26112,7 @@
     </row>
     <row r="45" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1"/>
-      <c r="B45" s="173"/>
+      <c r="B45" s="150"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
@@ -26168,7 +26176,7 @@
     </row>
     <row r="48" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="1"/>
-      <c r="B48" s="153" t="s">
+      <c r="B48" s="156" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="5"/>
@@ -26182,7 +26190,7 @@
     </row>
     <row r="49" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1"/>
-      <c r="B49" s="153"/>
+      <c r="B49" s="156"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -26194,7 +26202,7 @@
     </row>
     <row r="50" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="1"/>
-      <c r="B50" s="154"/>
+      <c r="B50" s="157"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
@@ -26206,7 +26214,7 @@
     </row>
     <row r="51" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1"/>
-      <c r="B51" s="156" t="s">
+      <c r="B51" s="152" t="s">
         <v>9</v>
       </c>
       <c r="C51" s="5"/>
@@ -26220,7 +26228,7 @@
     </row>
     <row r="52" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1"/>
-      <c r="B52" s="156"/>
+      <c r="B52" s="152"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -26232,7 +26240,7 @@
     </row>
     <row r="53" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="1"/>
-      <c r="B53" s="157"/>
+      <c r="B53" s="153"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
@@ -26244,7 +26252,7 @@
     </row>
     <row r="54" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="1"/>
-      <c r="B54" s="144" t="s">
+      <c r="B54" s="143" t="s">
         <v>10</v>
       </c>
       <c r="C54" s="5"/>
@@ -26258,7 +26266,7 @@
     </row>
     <row r="55" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="1"/>
-      <c r="B55" s="144"/>
+      <c r="B55" s="143"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -26270,7 +26278,7 @@
     </row>
     <row r="56" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="1"/>
-      <c r="B56" s="145"/>
+      <c r="B56" s="144"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
@@ -26282,7 +26290,7 @@
     </row>
     <row r="57" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="1"/>
-      <c r="B57" s="147" t="s">
+      <c r="B57" s="145" t="s">
         <v>11</v>
       </c>
       <c r="C57" s="5"/>
@@ -26296,7 +26304,7 @@
     </row>
     <row r="58" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="1"/>
-      <c r="B58" s="147"/>
+      <c r="B58" s="145"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -26308,7 +26316,7 @@
     </row>
     <row r="59" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="1"/>
-      <c r="B59" s="148"/>
+      <c r="B59" s="146"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
@@ -26320,7 +26328,7 @@
     </row>
     <row r="60" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="1"/>
-      <c r="B60" s="150" t="s">
+      <c r="B60" s="147" t="s">
         <v>12</v>
       </c>
       <c r="C60" s="5"/>
@@ -26334,7 +26342,7 @@
     </row>
     <row r="61" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="1"/>
-      <c r="B61" s="150"/>
+      <c r="B61" s="147"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -26347,7 +26355,7 @@
     </row>
     <row r="62" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="1"/>
-      <c r="B62" s="151"/>
+      <c r="B62" s="148"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
@@ -26360,7 +26368,7 @@
     </row>
     <row r="63" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="1"/>
-      <c r="B63" s="172" t="s">
+      <c r="B63" s="149" t="s">
         <v>13</v>
       </c>
       <c r="C63" s="5"/>
@@ -26375,7 +26383,7 @@
     </row>
     <row r="64" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="1"/>
-      <c r="B64" s="172"/>
+      <c r="B64" s="149"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -26388,7 +26396,7 @@
     </row>
     <row r="65" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="1"/>
-      <c r="B65" s="173"/>
+      <c r="B65" s="150"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
@@ -26455,7 +26463,7 @@
     </row>
     <row r="68" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="1"/>
-      <c r="B68" s="153" t="s">
+      <c r="B68" s="156" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="5"/>
@@ -26470,7 +26478,7 @@
     </row>
     <row r="69" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="1"/>
-      <c r="B69" s="153"/>
+      <c r="B69" s="156"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -26483,7 +26491,7 @@
     </row>
     <row r="70" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="1"/>
-      <c r="B70" s="154"/>
+      <c r="B70" s="157"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
@@ -26496,7 +26504,7 @@
     </row>
     <row r="71" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="1"/>
-      <c r="B71" s="156" t="s">
+      <c r="B71" s="152" t="s">
         <v>9</v>
       </c>
       <c r="C71" s="5"/>
@@ -26511,7 +26519,7 @@
     </row>
     <row r="72" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="1"/>
-      <c r="B72" s="156"/>
+      <c r="B72" s="152"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -26524,7 +26532,7 @@
     </row>
     <row r="73" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="1"/>
-      <c r="B73" s="157"/>
+      <c r="B73" s="153"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
@@ -26537,7 +26545,7 @@
     </row>
     <row r="74" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="1"/>
-      <c r="B74" s="144" t="s">
+      <c r="B74" s="143" t="s">
         <v>10</v>
       </c>
       <c r="C74" s="5"/>
@@ -26552,7 +26560,7 @@
     </row>
     <row r="75" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="1"/>
-      <c r="B75" s="144"/>
+      <c r="B75" s="143"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -26565,7 +26573,7 @@
     </row>
     <row r="76" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="1"/>
-      <c r="B76" s="145"/>
+      <c r="B76" s="144"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
@@ -26577,7 +26585,7 @@
     </row>
     <row r="77" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="1"/>
-      <c r="B77" s="147" t="s">
+      <c r="B77" s="145" t="s">
         <v>11</v>
       </c>
       <c r="C77" s="5"/>
@@ -26591,7 +26599,7 @@
     </row>
     <row r="78" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="1"/>
-      <c r="B78" s="147"/>
+      <c r="B78" s="145"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -26603,7 +26611,7 @@
     </row>
     <row r="79" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="1"/>
-      <c r="B79" s="148"/>
+      <c r="B79" s="146"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
@@ -26615,7 +26623,7 @@
     </row>
     <row r="80" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="1"/>
-      <c r="B80" s="150" t="s">
+      <c r="B80" s="147" t="s">
         <v>12</v>
       </c>
       <c r="C80" s="5"/>
@@ -26629,7 +26637,7 @@
     </row>
     <row r="81" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="1"/>
-      <c r="B81" s="150"/>
+      <c r="B81" s="147"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -26641,7 +26649,7 @@
     </row>
     <row r="82" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="1"/>
-      <c r="B82" s="151"/>
+      <c r="B82" s="148"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
@@ -26653,7 +26661,7 @@
     </row>
     <row r="83" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="1"/>
-      <c r="B83" s="171" t="s">
+      <c r="B83" s="165" t="s">
         <v>13</v>
       </c>
       <c r="C83" s="7"/>
@@ -26667,7 +26675,7 @@
     </row>
     <row r="84" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="1"/>
-      <c r="B84" s="172"/>
+      <c r="B84" s="149"/>
       <c r="C84" s="63"/>
       <c r="D84" s="63"/>
       <c r="E84" s="63"/>
@@ -26679,7 +26687,7 @@
     </row>
     <row r="85" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="1"/>
-      <c r="B85" s="173"/>
+      <c r="B85" s="150"/>
       <c r="C85" s="107"/>
       <c r="D85" s="107"/>
       <c r="E85" s="107"/>
@@ -29200,15 +29208,14 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B71:B73"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="B40:B42"/>
@@ -29225,14 +29232,15 @@
     <mergeCell ref="B43:B45"/>
     <mergeCell ref="B48:B50"/>
     <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -29290,29 +29298,29 @@
     </row>
     <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="67"/>
-      <c r="B3" s="168" t="s">
+      <c r="B3" s="162" t="s">
         <v>540</v>
       </c>
-      <c r="C3" s="169"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="169"/>
-      <c r="I3" s="170"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="164"/>
       <c r="J3" s="67"/>
     </row>
     <row r="4" spans="1:10" s="75" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="74"/>
-      <c r="B4" s="158" t="s">
+      <c r="B4" s="173" t="s">
         <v>698</v>
       </c>
-      <c r="C4" s="159"/>
-      <c r="D4" s="160" t="s">
+      <c r="C4" s="174"/>
+      <c r="D4" s="175" t="s">
         <v>704</v>
       </c>
-      <c r="E4" s="161"/>
-      <c r="F4" s="160" t="s">
+      <c r="E4" s="176"/>
+      <c r="F4" s="175" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="193"/>
@@ -29322,10 +29330,10 @@
       <c r="I4" s="192"/>
       <c r="J4" s="15"/>
     </row>
-    <row r="5" spans="1:10" s="167" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:10" s="161" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="162"/>
+      <c r="B6" s="166"/>
       <c r="C6" s="55" t="s">
         <v>838</v>
       </c>
@@ -29351,7 +29359,7 @@
     </row>
     <row r="7" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="163"/>
+      <c r="B7" s="167"/>
       <c r="C7" s="56" t="s">
         <v>1</v>
       </c>
@@ -29377,7 +29385,7 @@
     </row>
     <row r="8" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="153" t="s">
+      <c r="B8" s="156" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="5"/>
@@ -29391,7 +29399,7 @@
     </row>
     <row r="9" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="153"/>
+      <c r="B9" s="156"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -29403,7 +29411,7 @@
     </row>
     <row r="10" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="154"/>
+      <c r="B10" s="157"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -29415,7 +29423,7 @@
     </row>
     <row r="11" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="156" t="s">
+      <c r="B11" s="152" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="5"/>
@@ -29429,7 +29437,7 @@
     </row>
     <row r="12" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="156"/>
+      <c r="B12" s="152"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -29441,7 +29449,7 @@
     </row>
     <row r="13" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="157"/>
+      <c r="B13" s="153"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -29453,7 +29461,7 @@
     </row>
     <row r="14" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="144" t="s">
+      <c r="B14" s="143" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="5"/>
@@ -29467,7 +29475,7 @@
     </row>
     <row r="15" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="144"/>
+      <c r="B15" s="143"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -29479,7 +29487,7 @@
     </row>
     <row r="16" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
-      <c r="B16" s="145"/>
+      <c r="B16" s="144"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -29491,7 +29499,7 @@
     </row>
     <row r="17" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
-      <c r="B17" s="147" t="s">
+      <c r="B17" s="145" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="5"/>
@@ -29505,7 +29513,7 @@
     </row>
     <row r="18" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
-      <c r="B18" s="147"/>
+      <c r="B18" s="145"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -29517,7 +29525,7 @@
     </row>
     <row r="19" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
-      <c r="B19" s="148"/>
+      <c r="B19" s="146"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -29529,7 +29537,7 @@
     </row>
     <row r="20" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
-      <c r="B20" s="150" t="s">
+      <c r="B20" s="147" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="5"/>
@@ -29543,7 +29551,7 @@
     </row>
     <row r="21" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
-      <c r="B21" s="150"/>
+      <c r="B21" s="147"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -29555,7 +29563,7 @@
     </row>
     <row r="22" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
-      <c r="B22" s="151"/>
+      <c r="B22" s="148"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -29567,7 +29575,7 @@
     </row>
     <row r="23" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
-      <c r="B23" s="172" t="s">
+      <c r="B23" s="149" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="5"/>
@@ -29581,7 +29589,7 @@
     </row>
     <row r="24" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
-      <c r="B24" s="172"/>
+      <c r="B24" s="149"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -29593,7 +29601,7 @@
     </row>
     <row r="25" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
-      <c r="B25" s="173"/>
+      <c r="B25" s="150"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -29657,7 +29665,7 @@
     </row>
     <row r="28" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
-      <c r="B28" s="153" t="s">
+      <c r="B28" s="156" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="5"/>
@@ -29671,7 +29679,7 @@
     </row>
     <row r="29" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
-      <c r="B29" s="153"/>
+      <c r="B29" s="156"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -29683,7 +29691,7 @@
     </row>
     <row r="30" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
-      <c r="B30" s="154"/>
+      <c r="B30" s="157"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -29695,7 +29703,7 @@
     </row>
     <row r="31" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
-      <c r="B31" s="156" t="s">
+      <c r="B31" s="152" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="5"/>
@@ -29709,7 +29717,7 @@
     </row>
     <row r="32" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
-      <c r="B32" s="156"/>
+      <c r="B32" s="152"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -29721,7 +29729,7 @@
     </row>
     <row r="33" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
-      <c r="B33" s="157"/>
+      <c r="B33" s="153"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -29733,7 +29741,7 @@
     </row>
     <row r="34" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
-      <c r="B34" s="144" t="s">
+      <c r="B34" s="143" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="5"/>
@@ -29748,7 +29756,7 @@
     </row>
     <row r="35" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
-      <c r="B35" s="144"/>
+      <c r="B35" s="143"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -29761,7 +29769,7 @@
     </row>
     <row r="36" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
-      <c r="B36" s="145"/>
+      <c r="B36" s="144"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -29773,7 +29781,7 @@
     </row>
     <row r="37" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
-      <c r="B37" s="147" t="s">
+      <c r="B37" s="145" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="5"/>
@@ -29787,7 +29795,7 @@
     </row>
     <row r="38" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
-      <c r="B38" s="147"/>
+      <c r="B38" s="145"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -29799,7 +29807,7 @@
     </row>
     <row r="39" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1"/>
-      <c r="B39" s="148"/>
+      <c r="B39" s="146"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -29811,7 +29819,7 @@
     </row>
     <row r="40" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1"/>
-      <c r="B40" s="150" t="s">
+      <c r="B40" s="147" t="s">
         <v>12</v>
       </c>
       <c r="C40" s="5"/>
@@ -29825,7 +29833,7 @@
     </row>
     <row r="41" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1"/>
-      <c r="B41" s="150"/>
+      <c r="B41" s="147"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -29837,7 +29845,7 @@
     </row>
     <row r="42" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="1"/>
-      <c r="B42" s="151"/>
+      <c r="B42" s="148"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -29849,7 +29857,7 @@
     </row>
     <row r="43" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1"/>
-      <c r="B43" s="172" t="s">
+      <c r="B43" s="149" t="s">
         <v>13</v>
       </c>
       <c r="C43" s="5"/>
@@ -29863,7 +29871,7 @@
     </row>
     <row r="44" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="1"/>
-      <c r="B44" s="172"/>
+      <c r="B44" s="149"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -29875,7 +29883,7 @@
     </row>
     <row r="45" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1"/>
-      <c r="B45" s="173"/>
+      <c r="B45" s="150"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
@@ -29939,7 +29947,7 @@
     </row>
     <row r="48" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="1"/>
-      <c r="B48" s="153" t="s">
+      <c r="B48" s="156" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="5"/>
@@ -29953,7 +29961,7 @@
     </row>
     <row r="49" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1"/>
-      <c r="B49" s="153"/>
+      <c r="B49" s="156"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -29965,7 +29973,7 @@
     </row>
     <row r="50" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="1"/>
-      <c r="B50" s="154"/>
+      <c r="B50" s="157"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
@@ -29977,7 +29985,7 @@
     </row>
     <row r="51" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1"/>
-      <c r="B51" s="156" t="s">
+      <c r="B51" s="152" t="s">
         <v>9</v>
       </c>
       <c r="C51" s="5"/>
@@ -29991,7 +29999,7 @@
     </row>
     <row r="52" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1"/>
-      <c r="B52" s="156"/>
+      <c r="B52" s="152"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -30003,7 +30011,7 @@
     </row>
     <row r="53" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="1"/>
-      <c r="B53" s="157"/>
+      <c r="B53" s="153"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
@@ -30015,7 +30023,7 @@
     </row>
     <row r="54" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="1"/>
-      <c r="B54" s="144" t="s">
+      <c r="B54" s="143" t="s">
         <v>10</v>
       </c>
       <c r="C54" s="5"/>
@@ -30029,7 +30037,7 @@
     </row>
     <row r="55" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="1"/>
-      <c r="B55" s="144"/>
+      <c r="B55" s="143"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -30041,7 +30049,7 @@
     </row>
     <row r="56" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="1"/>
-      <c r="B56" s="145"/>
+      <c r="B56" s="144"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
@@ -30053,7 +30061,7 @@
     </row>
     <row r="57" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="1"/>
-      <c r="B57" s="147" t="s">
+      <c r="B57" s="145" t="s">
         <v>11</v>
       </c>
       <c r="C57" s="5"/>
@@ -30067,7 +30075,7 @@
     </row>
     <row r="58" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="1"/>
-      <c r="B58" s="147"/>
+      <c r="B58" s="145"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -30079,7 +30087,7 @@
     </row>
     <row r="59" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="1"/>
-      <c r="B59" s="148"/>
+      <c r="B59" s="146"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
@@ -30091,7 +30099,7 @@
     </row>
     <row r="60" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="1"/>
-      <c r="B60" s="150" t="s">
+      <c r="B60" s="147" t="s">
         <v>12</v>
       </c>
       <c r="C60" s="5"/>
@@ -30105,7 +30113,7 @@
     </row>
     <row r="61" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="1"/>
-      <c r="B61" s="150"/>
+      <c r="B61" s="147"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -30117,7 +30125,7 @@
     </row>
     <row r="62" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="1"/>
-      <c r="B62" s="151"/>
+      <c r="B62" s="148"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
@@ -30129,7 +30137,7 @@
     </row>
     <row r="63" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="1"/>
-      <c r="B63" s="172" t="s">
+      <c r="B63" s="149" t="s">
         <v>13</v>
       </c>
       <c r="C63" s="5"/>
@@ -30143,7 +30151,7 @@
     </row>
     <row r="64" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="1"/>
-      <c r="B64" s="172"/>
+      <c r="B64" s="149"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -30156,7 +30164,7 @@
     </row>
     <row r="65" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="1"/>
-      <c r="B65" s="173"/>
+      <c r="B65" s="150"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
@@ -30223,7 +30231,7 @@
     </row>
     <row r="68" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="1"/>
-      <c r="B68" s="153" t="s">
+      <c r="B68" s="156" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="5"/>
@@ -30238,7 +30246,7 @@
     </row>
     <row r="69" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="1"/>
-      <c r="B69" s="153"/>
+      <c r="B69" s="156"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -30251,7 +30259,7 @@
     </row>
     <row r="70" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="1"/>
-      <c r="B70" s="154"/>
+      <c r="B70" s="157"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
@@ -30264,7 +30272,7 @@
     </row>
     <row r="71" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="1"/>
-      <c r="B71" s="156" t="s">
+      <c r="B71" s="152" t="s">
         <v>9</v>
       </c>
       <c r="C71" s="5"/>
@@ -30279,7 +30287,7 @@
     </row>
     <row r="72" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="1"/>
-      <c r="B72" s="156"/>
+      <c r="B72" s="152"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -30292,7 +30300,7 @@
     </row>
     <row r="73" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="1"/>
-      <c r="B73" s="157"/>
+      <c r="B73" s="153"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
@@ -30305,7 +30313,7 @@
     </row>
     <row r="74" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="1"/>
-      <c r="B74" s="144" t="s">
+      <c r="B74" s="143" t="s">
         <v>10</v>
       </c>
       <c r="C74" s="5"/>
@@ -30320,7 +30328,7 @@
     </row>
     <row r="75" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="1"/>
-      <c r="B75" s="144"/>
+      <c r="B75" s="143"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -30332,7 +30340,7 @@
     </row>
     <row r="76" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="1"/>
-      <c r="B76" s="145"/>
+      <c r="B76" s="144"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
@@ -30344,7 +30352,7 @@
     </row>
     <row r="77" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="1"/>
-      <c r="B77" s="147" t="s">
+      <c r="B77" s="145" t="s">
         <v>11</v>
       </c>
       <c r="C77" s="5"/>
@@ -30358,7 +30366,7 @@
     </row>
     <row r="78" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="1"/>
-      <c r="B78" s="147"/>
+      <c r="B78" s="145"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -30370,7 +30378,7 @@
     </row>
     <row r="79" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="1"/>
-      <c r="B79" s="148"/>
+      <c r="B79" s="146"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
@@ -30382,7 +30390,7 @@
     </row>
     <row r="80" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="1"/>
-      <c r="B80" s="150" t="s">
+      <c r="B80" s="147" t="s">
         <v>12</v>
       </c>
       <c r="C80" s="5"/>
@@ -30396,7 +30404,7 @@
     </row>
     <row r="81" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="1"/>
-      <c r="B81" s="150"/>
+      <c r="B81" s="147"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -30408,7 +30416,7 @@
     </row>
     <row r="82" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="1"/>
-      <c r="B82" s="151"/>
+      <c r="B82" s="148"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
@@ -30420,7 +30428,7 @@
     </row>
     <row r="83" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="1"/>
-      <c r="B83" s="172" t="s">
+      <c r="B83" s="149" t="s">
         <v>13</v>
       </c>
       <c r="C83" s="5"/>
@@ -30434,7 +30442,7 @@
     </row>
     <row r="84" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="1"/>
-      <c r="B84" s="172"/>
+      <c r="B84" s="149"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -30446,7 +30454,7 @@
     </row>
     <row r="85" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="1"/>
-      <c r="B85" s="173"/>
+      <c r="B85" s="150"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
@@ -30500,7 +30508,7 @@
     </row>
     <row r="88" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="1"/>
-      <c r="B88" s="153" t="s">
+      <c r="B88" s="156" t="s">
         <v>8</v>
       </c>
       <c r="C88" s="5"/>
@@ -30517,7 +30525,7 @@
     </row>
     <row r="89" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="1"/>
-      <c r="B89" s="153"/>
+      <c r="B89" s="156"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -30532,7 +30540,7 @@
     </row>
     <row r="90" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="1"/>
-      <c r="B90" s="154"/>
+      <c r="B90" s="157"/>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
@@ -30547,7 +30555,7 @@
     </row>
     <row r="91" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="1"/>
-      <c r="B91" s="156" t="s">
+      <c r="B91" s="152" t="s">
         <v>9</v>
       </c>
       <c r="C91" s="5"/>
@@ -30564,7 +30572,7 @@
     </row>
     <row r="92" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="1"/>
-      <c r="B92" s="156"/>
+      <c r="B92" s="152"/>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -30579,7 +30587,7 @@
     </row>
     <row r="93" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="1"/>
-      <c r="B93" s="157"/>
+      <c r="B93" s="153"/>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
@@ -30594,7 +30602,7 @@
     </row>
     <row r="94" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="1"/>
-      <c r="B94" s="144" t="s">
+      <c r="B94" s="143" t="s">
         <v>10</v>
       </c>
       <c r="C94" s="5"/>
@@ -30611,7 +30619,7 @@
     </row>
     <row r="95" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="1"/>
-      <c r="B95" s="144"/>
+      <c r="B95" s="143"/>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
@@ -30626,7 +30634,7 @@
     </row>
     <row r="96" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="1"/>
-      <c r="B96" s="145"/>
+      <c r="B96" s="144"/>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
@@ -30641,7 +30649,7 @@
     </row>
     <row r="97" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="1"/>
-      <c r="B97" s="147" t="s">
+      <c r="B97" s="145" t="s">
         <v>11</v>
       </c>
       <c r="C97" s="5"/>
@@ -30658,7 +30666,7 @@
     </row>
     <row r="98" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="1"/>
-      <c r="B98" s="147"/>
+      <c r="B98" s="145"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
@@ -30673,7 +30681,7 @@
     </row>
     <row r="99" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="1"/>
-      <c r="B99" s="148"/>
+      <c r="B99" s="146"/>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
       <c r="E99" s="6"/>
@@ -30688,7 +30696,7 @@
     </row>
     <row r="100" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="1"/>
-      <c r="B100" s="150" t="s">
+      <c r="B100" s="147" t="s">
         <v>12</v>
       </c>
       <c r="C100" s="5"/>
@@ -30705,7 +30713,7 @@
     </row>
     <row r="101" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="1"/>
-      <c r="B101" s="150"/>
+      <c r="B101" s="147"/>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
@@ -30720,7 +30728,7 @@
     </row>
     <row r="102" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="1"/>
-      <c r="B102" s="151"/>
+      <c r="B102" s="148"/>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
       <c r="E102" s="6"/>
@@ -30735,7 +30743,7 @@
     </row>
     <row r="103" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="1"/>
-      <c r="B103" s="172" t="s">
+      <c r="B103" s="149" t="s">
         <v>13</v>
       </c>
       <c r="C103" s="5"/>
@@ -30752,7 +30760,7 @@
     </row>
     <row r="104" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="1"/>
-      <c r="B104" s="172"/>
+      <c r="B104" s="149"/>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
@@ -30767,7 +30775,7 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A105" s="1"/>
-      <c r="B105" s="173"/>
+      <c r="B105" s="150"/>
       <c r="C105" s="89"/>
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
@@ -31354,29 +31362,6 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="B97:B99"/>
-    <mergeCell ref="B100:B102"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
     <mergeCell ref="B103:B105"/>
     <mergeCell ref="A5:XFD5"/>
     <mergeCell ref="B74:B76"/>
@@ -31393,6 +31378,29 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B94:B96"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B97:B99"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B71:B73"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -31478,23 +31486,23 @@
     </row>
     <row r="4" spans="1:13" s="99" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="98"/>
-      <c r="B4" s="160" t="s">
+      <c r="B4" s="175" t="s">
         <v>647</v>
       </c>
       <c r="C4" s="193"/>
-      <c r="D4" s="161"/>
-      <c r="E4" s="160" t="s">
+      <c r="D4" s="176"/>
+      <c r="E4" s="175" t="s">
         <v>648</v>
       </c>
       <c r="F4" s="193"/>
-      <c r="G4" s="161"/>
-      <c r="H4" s="160" t="s">
+      <c r="G4" s="176"/>
+      <c r="H4" s="175" t="s">
         <v>649</v>
       </c>
       <c r="I4" s="193"/>
       <c r="J4" s="193"/>
       <c r="K4" s="193"/>
-      <c r="L4" s="161"/>
+      <c r="L4" s="176"/>
       <c r="M4" s="98"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
@@ -32072,53 +32080,53 @@
     </row>
     <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
-      <c r="B3" s="213" t="s">
+      <c r="B3" s="218" t="s">
         <v>541</v>
       </c>
-      <c r="C3" s="214"/>
-      <c r="D3" s="214"/>
-      <c r="E3" s="214"/>
-      <c r="F3" s="214"/>
-      <c r="G3" s="214"/>
-      <c r="H3" s="214"/>
-      <c r="I3" s="214"/>
-      <c r="J3" s="214"/>
-      <c r="K3" s="215"/>
+      <c r="C3" s="219"/>
+      <c r="D3" s="219"/>
+      <c r="E3" s="219"/>
+      <c r="F3" s="219"/>
+      <c r="G3" s="219"/>
+      <c r="H3" s="219"/>
+      <c r="I3" s="219"/>
+      <c r="J3" s="219"/>
+      <c r="K3" s="220"/>
       <c r="L3" s="24"/>
       <c r="M3" s="24"/>
     </row>
     <row r="4" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
-      <c r="B4" s="218" t="s">
+      <c r="B4" s="221" t="s">
         <v>533</v>
       </c>
-      <c r="C4" s="219"/>
-      <c r="D4" s="219"/>
-      <c r="E4" s="219"/>
-      <c r="F4" s="219"/>
-      <c r="G4" s="219"/>
-      <c r="H4" s="219"/>
-      <c r="I4" s="219"/>
-      <c r="J4" s="219"/>
-      <c r="K4" s="220"/>
+      <c r="C4" s="222"/>
+      <c r="D4" s="222"/>
+      <c r="E4" s="222"/>
+      <c r="F4" s="222"/>
+      <c r="G4" s="222"/>
+      <c r="H4" s="222"/>
+      <c r="I4" s="222"/>
+      <c r="J4" s="222"/>
+      <c r="K4" s="223"/>
       <c r="L4" s="24"/>
       <c r="M4" s="24"/>
     </row>
-    <row r="5" spans="1:20" s="217" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:20" s="212" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24"/>
-      <c r="B6" s="216" t="s">
+      <c r="B6" s="213" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="216"/>
-      <c r="D6" s="216"/>
-      <c r="E6" s="216"/>
-      <c r="F6" s="216"/>
-      <c r="G6" s="216"/>
-      <c r="H6" s="216"/>
-      <c r="I6" s="216"/>
-      <c r="J6" s="216"/>
-      <c r="K6" s="216"/>
+      <c r="C6" s="213"/>
+      <c r="D6" s="213"/>
+      <c r="E6" s="213"/>
+      <c r="F6" s="213"/>
+      <c r="G6" s="213"/>
+      <c r="H6" s="213"/>
+      <c r="I6" s="213"/>
+      <c r="J6" s="213"/>
+      <c r="K6" s="213"/>
       <c r="L6" s="24"/>
       <c r="M6" s="24"/>
     </row>
@@ -32127,19 +32135,19 @@
       <c r="B7" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="212"/>
-      <c r="D7" s="212"/>
-      <c r="E7" s="212"/>
+      <c r="C7" s="215"/>
+      <c r="D7" s="215"/>
+      <c r="E7" s="215"/>
       <c r="F7" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="212"/>
-      <c r="H7" s="212"/>
+      <c r="G7" s="215"/>
+      <c r="H7" s="215"/>
       <c r="I7" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="212"/>
-      <c r="K7" s="212"/>
+      <c r="J7" s="215"/>
+      <c r="K7" s="215"/>
       <c r="L7" s="24"/>
       <c r="M7" s="24"/>
     </row>
@@ -32148,19 +32156,19 @@
       <c r="B8" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="212"/>
-      <c r="D8" s="212"/>
-      <c r="E8" s="212"/>
+      <c r="C8" s="215"/>
+      <c r="D8" s="215"/>
+      <c r="E8" s="215"/>
       <c r="F8" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="212"/>
-      <c r="H8" s="212"/>
+      <c r="G8" s="215"/>
+      <c r="H8" s="215"/>
       <c r="I8" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="212"/>
-      <c r="K8" s="212"/>
+      <c r="J8" s="215"/>
+      <c r="K8" s="215"/>
       <c r="L8" s="24"/>
       <c r="M8" s="24"/>
     </row>
@@ -32169,15 +32177,15 @@
       <c r="B9" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="212"/>
-      <c r="D9" s="212"/>
-      <c r="E9" s="212"/>
-      <c r="F9" s="212"/>
-      <c r="G9" s="212"/>
-      <c r="H9" s="212"/>
-      <c r="I9" s="212"/>
-      <c r="J9" s="212"/>
-      <c r="K9" s="212"/>
+      <c r="C9" s="215"/>
+      <c r="D9" s="215"/>
+      <c r="E9" s="215"/>
+      <c r="F9" s="215"/>
+      <c r="G9" s="215"/>
+      <c r="H9" s="215"/>
+      <c r="I9" s="215"/>
+      <c r="J9" s="215"/>
+      <c r="K9" s="215"/>
       <c r="L9" s="24"/>
       <c r="M9" s="24"/>
     </row>
@@ -32186,15 +32194,15 @@
       <c r="B10" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="212"/>
-      <c r="D10" s="212"/>
-      <c r="E10" s="212"/>
-      <c r="F10" s="212"/>
-      <c r="G10" s="212"/>
-      <c r="H10" s="212"/>
-      <c r="I10" s="212"/>
-      <c r="J10" s="212"/>
-      <c r="K10" s="212"/>
+      <c r="C10" s="215"/>
+      <c r="D10" s="215"/>
+      <c r="E10" s="215"/>
+      <c r="F10" s="215"/>
+      <c r="G10" s="215"/>
+      <c r="H10" s="215"/>
+      <c r="I10" s="215"/>
+      <c r="J10" s="215"/>
+      <c r="K10" s="215"/>
       <c r="L10" s="24"/>
       <c r="M10" s="24"/>
     </row>
@@ -32203,19 +32211,19 @@
       <c r="B11" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="212"/>
-      <c r="D11" s="212"/>
-      <c r="E11" s="212"/>
+      <c r="C11" s="215"/>
+      <c r="D11" s="215"/>
+      <c r="E11" s="215"/>
       <c r="F11" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="212"/>
-      <c r="H11" s="212"/>
+      <c r="G11" s="215"/>
+      <c r="H11" s="215"/>
       <c r="I11" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="J11" s="212"/>
-      <c r="K11" s="212"/>
+      <c r="J11" s="215"/>
+      <c r="K11" s="215"/>
       <c r="L11" s="24"/>
       <c r="M11" s="24"/>
       <c r="T11" s="25" t="s">
@@ -32227,49 +32235,49 @@
       <c r="B12" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="221" t="s">
+      <c r="C12" s="214" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="221"/>
-      <c r="E12" s="221"/>
+      <c r="D12" s="214"/>
+      <c r="E12" s="214"/>
       <c r="F12" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="212"/>
-      <c r="H12" s="212"/>
+      <c r="G12" s="215"/>
+      <c r="H12" s="215"/>
       <c r="I12" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="212"/>
-      <c r="K12" s="212"/>
+      <c r="J12" s="215"/>
+      <c r="K12" s="215"/>
       <c r="L12" s="24"/>
       <c r="M12" s="24"/>
     </row>
-    <row r="13" spans="1:20" s="217" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:20" s="212" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24"/>
-      <c r="B14" s="216" t="s">
+      <c r="B14" s="213" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="216"/>
-      <c r="D14" s="216"/>
-      <c r="E14" s="216"/>
-      <c r="F14" s="216"/>
-      <c r="G14" s="216"/>
-      <c r="H14" s="216"/>
-      <c r="I14" s="216"/>
-      <c r="J14" s="216"/>
-      <c r="K14" s="216"/>
+      <c r="C14" s="213"/>
+      <c r="D14" s="213"/>
+      <c r="E14" s="213"/>
+      <c r="F14" s="213"/>
+      <c r="G14" s="213"/>
+      <c r="H14" s="213"/>
+      <c r="I14" s="213"/>
+      <c r="J14" s="213"/>
+      <c r="K14" s="213"/>
       <c r="L14" s="24"/>
       <c r="M14" s="24"/>
     </row>
     <row r="15" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
-      <c r="B15" s="222" t="s">
+      <c r="B15" s="216" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="222"/>
-      <c r="D15" s="222"/>
+      <c r="C15" s="216"/>
+      <c r="D15" s="216"/>
       <c r="E15" s="34" t="s">
         <v>44</v>
       </c>
@@ -32296,11 +32304,11 @@
     </row>
     <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
-      <c r="B16" s="221" t="s">
+      <c r="B16" s="214" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="221"/>
-      <c r="D16" s="221"/>
+      <c r="C16" s="214"/>
+      <c r="D16" s="214"/>
       <c r="E16" s="30"/>
       <c r="F16" s="30"/>
       <c r="G16" s="30"/>
@@ -32315,11 +32323,11 @@
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
-      <c r="B17" s="221" t="s">
+      <c r="B17" s="214" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="221"/>
-      <c r="D17" s="221"/>
+      <c r="C17" s="214"/>
+      <c r="D17" s="214"/>
       <c r="E17" s="30"/>
       <c r="F17" s="30"/>
       <c r="G17" s="30"/>
@@ -32332,11 +32340,11 @@
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
-      <c r="B18" s="221" t="s">
+      <c r="B18" s="214" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="221"/>
-      <c r="D18" s="221"/>
+      <c r="C18" s="214"/>
+      <c r="D18" s="214"/>
       <c r="E18" s="30"/>
       <c r="F18" s="30"/>
       <c r="G18" s="30"/>
@@ -32349,11 +32357,11 @@
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
-      <c r="B19" s="221" t="s">
+      <c r="B19" s="214" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="221"/>
-      <c r="D19" s="221"/>
+      <c r="C19" s="214"/>
+      <c r="D19" s="214"/>
       <c r="E19" s="30"/>
       <c r="F19" s="30"/>
       <c r="G19" s="30"/>
@@ -32366,11 +32374,11 @@
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24"/>
-      <c r="B20" s="221" t="s">
+      <c r="B20" s="214" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="221"/>
-      <c r="D20" s="221"/>
+      <c r="C20" s="214"/>
+      <c r="D20" s="214"/>
       <c r="E20" s="30"/>
       <c r="F20" s="30"/>
       <c r="G20" s="30"/>
@@ -32381,21 +32389,21 @@
       <c r="L20" s="24"/>
       <c r="M20" s="24"/>
     </row>
-    <row r="21" spans="1:13" s="217" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:13" s="212" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="24"/>
-      <c r="B22" s="216" t="s">
+      <c r="B22" s="213" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="216"/>
-      <c r="D22" s="216"/>
-      <c r="E22" s="216"/>
-      <c r="F22" s="216"/>
-      <c r="G22" s="216"/>
-      <c r="H22" s="216"/>
-      <c r="I22" s="216"/>
-      <c r="J22" s="216"/>
-      <c r="K22" s="216"/>
+      <c r="C22" s="213"/>
+      <c r="D22" s="213"/>
+      <c r="E22" s="213"/>
+      <c r="F22" s="213"/>
+      <c r="G22" s="213"/>
+      <c r="H22" s="213"/>
+      <c r="I22" s="213"/>
+      <c r="J22" s="213"/>
+      <c r="K22" s="213"/>
       <c r="L22" s="24"/>
       <c r="M22" s="24"/>
     </row>
@@ -32404,19 +32412,19 @@
       <c r="B23" s="34" t="s">
         <v>514</v>
       </c>
-      <c r="C23" s="212"/>
-      <c r="D23" s="212"/>
-      <c r="E23" s="212"/>
-      <c r="F23" s="212"/>
+      <c r="C23" s="215"/>
+      <c r="D23" s="215"/>
+      <c r="E23" s="215"/>
+      <c r="F23" s="215"/>
       <c r="G23" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="H23" s="221" t="s">
+      <c r="H23" s="214" t="s">
         <v>55</v>
       </c>
-      <c r="I23" s="221"/>
-      <c r="J23" s="221"/>
-      <c r="K23" s="221"/>
+      <c r="I23" s="214"/>
+      <c r="J23" s="214"/>
+      <c r="K23" s="214"/>
       <c r="L23" s="24"/>
       <c r="M23" s="24"/>
     </row>
@@ -32425,19 +32433,19 @@
       <c r="B24" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="212"/>
-      <c r="D24" s="212"/>
-      <c r="E24" s="212"/>
-      <c r="F24" s="212"/>
+      <c r="C24" s="215"/>
+      <c r="D24" s="215"/>
+      <c r="E24" s="215"/>
+      <c r="F24" s="215"/>
       <c r="G24" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="H24" s="223" t="s">
+      <c r="H24" s="217" t="s">
         <v>58</v>
       </c>
-      <c r="I24" s="223"/>
-      <c r="J24" s="223"/>
-      <c r="K24" s="223"/>
+      <c r="I24" s="217"/>
+      <c r="J24" s="217"/>
+      <c r="K24" s="217"/>
       <c r="L24" s="24"/>
       <c r="M24" s="24"/>
     </row>
@@ -32446,17 +32454,17 @@
       <c r="B25" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="212"/>
-      <c r="D25" s="212"/>
-      <c r="E25" s="212"/>
-      <c r="F25" s="212"/>
+      <c r="C25" s="215"/>
+      <c r="D25" s="215"/>
+      <c r="E25" s="215"/>
+      <c r="F25" s="215"/>
       <c r="G25" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="H25" s="212"/>
-      <c r="I25" s="212"/>
-      <c r="J25" s="212"/>
-      <c r="K25" s="212"/>
+      <c r="H25" s="215"/>
+      <c r="I25" s="215"/>
+      <c r="J25" s="215"/>
+      <c r="K25" s="215"/>
       <c r="L25" s="24"/>
       <c r="M25" s="24"/>
     </row>
@@ -32465,17 +32473,17 @@
       <c r="B26" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="212"/>
-      <c r="D26" s="212"/>
-      <c r="E26" s="212"/>
-      <c r="F26" s="212"/>
+      <c r="C26" s="215"/>
+      <c r="D26" s="215"/>
+      <c r="E26" s="215"/>
+      <c r="F26" s="215"/>
       <c r="G26" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="H26" s="212"/>
-      <c r="I26" s="212"/>
-      <c r="J26" s="212"/>
-      <c r="K26" s="212"/>
+      <c r="H26" s="215"/>
+      <c r="I26" s="215"/>
+      <c r="J26" s="215"/>
+      <c r="K26" s="215"/>
       <c r="L26" s="24"/>
       <c r="M26" s="24"/>
     </row>
@@ -32499,19 +32507,19 @@
       <c r="B28" s="34" t="s">
         <v>515</v>
       </c>
-      <c r="C28" s="212"/>
-      <c r="D28" s="212"/>
-      <c r="E28" s="212"/>
-      <c r="F28" s="212"/>
+      <c r="C28" s="215"/>
+      <c r="D28" s="215"/>
+      <c r="E28" s="215"/>
+      <c r="F28" s="215"/>
       <c r="G28" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="H28" s="221" t="s">
+      <c r="H28" s="214" t="s">
         <v>55</v>
       </c>
-      <c r="I28" s="221"/>
-      <c r="J28" s="221"/>
-      <c r="K28" s="221"/>
+      <c r="I28" s="214"/>
+      <c r="J28" s="214"/>
+      <c r="K28" s="214"/>
       <c r="L28" s="24"/>
       <c r="M28" s="24"/>
     </row>
@@ -32520,17 +32528,17 @@
       <c r="B29" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="212"/>
-      <c r="D29" s="212"/>
-      <c r="E29" s="212"/>
-      <c r="F29" s="212"/>
+      <c r="C29" s="215"/>
+      <c r="D29" s="215"/>
+      <c r="E29" s="215"/>
+      <c r="F29" s="215"/>
       <c r="G29" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="H29" s="212"/>
-      <c r="I29" s="212"/>
-      <c r="J29" s="212"/>
-      <c r="K29" s="212"/>
+      <c r="H29" s="215"/>
+      <c r="I29" s="215"/>
+      <c r="J29" s="215"/>
+      <c r="K29" s="215"/>
       <c r="L29" s="24"/>
       <c r="M29" s="24"/>
     </row>
@@ -32539,17 +32547,17 @@
       <c r="B30" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="212"/>
-      <c r="D30" s="212"/>
-      <c r="E30" s="212"/>
-      <c r="F30" s="212"/>
+      <c r="C30" s="215"/>
+      <c r="D30" s="215"/>
+      <c r="E30" s="215"/>
+      <c r="F30" s="215"/>
       <c r="G30" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="H30" s="212"/>
-      <c r="I30" s="212"/>
-      <c r="J30" s="212"/>
-      <c r="K30" s="212"/>
+      <c r="H30" s="215"/>
+      <c r="I30" s="215"/>
+      <c r="J30" s="215"/>
+      <c r="K30" s="215"/>
       <c r="L30" s="24"/>
       <c r="M30" s="24"/>
     </row>
@@ -32558,34 +32566,34 @@
       <c r="B31" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="212"/>
-      <c r="D31" s="212"/>
-      <c r="E31" s="212"/>
-      <c r="F31" s="212"/>
+      <c r="C31" s="215"/>
+      <c r="D31" s="215"/>
+      <c r="E31" s="215"/>
+      <c r="F31" s="215"/>
       <c r="G31" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="H31" s="212"/>
-      <c r="I31" s="212"/>
-      <c r="J31" s="212"/>
-      <c r="K31" s="212"/>
+      <c r="H31" s="215"/>
+      <c r="I31" s="215"/>
+      <c r="J31" s="215"/>
+      <c r="K31" s="215"/>
       <c r="L31" s="24"/>
       <c r="M31" s="24"/>
     </row>
-    <row r="32" spans="1:13" s="217" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:13" s="212" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="24"/>
-      <c r="B33" s="216" t="s">
+      <c r="B33" s="213" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="216"/>
-      <c r="D33" s="216"/>
-      <c r="E33" s="216"/>
-      <c r="F33" s="216"/>
-      <c r="G33" s="216"/>
-      <c r="H33" s="216"/>
-      <c r="I33" s="216"/>
-      <c r="J33" s="216"/>
+      <c r="C33" s="213"/>
+      <c r="D33" s="213"/>
+      <c r="E33" s="213"/>
+      <c r="F33" s="213"/>
+      <c r="G33" s="213"/>
+      <c r="H33" s="213"/>
+      <c r="I33" s="213"/>
+      <c r="J33" s="213"/>
       <c r="K33" s="32"/>
       <c r="L33" s="24"/>
       <c r="M33" s="24"/>
@@ -32604,12 +32612,12 @@
       <c r="E34" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="F34" s="222" t="s">
+      <c r="F34" s="216" t="s">
         <v>68</v>
       </c>
-      <c r="G34" s="222"/>
-      <c r="H34" s="222"/>
-      <c r="I34" s="222"/>
+      <c r="G34" s="216"/>
+      <c r="H34" s="216"/>
+      <c r="I34" s="216"/>
       <c r="J34" s="34" t="s">
         <v>69</v>
       </c>
@@ -32627,12 +32635,12 @@
       </c>
       <c r="D35" s="30"/>
       <c r="E35" s="30"/>
-      <c r="F35" s="221" t="s">
+      <c r="F35" s="214" t="s">
         <v>72</v>
       </c>
-      <c r="G35" s="221"/>
-      <c r="H35" s="221"/>
-      <c r="I35" s="221"/>
+      <c r="G35" s="214"/>
+      <c r="H35" s="214"/>
+      <c r="I35" s="214"/>
       <c r="J35" s="30"/>
       <c r="K35" s="32"/>
       <c r="L35" s="24"/>
@@ -32653,20 +32661,20 @@
       <c r="L36" s="24"/>
       <c r="M36" s="24"/>
     </row>
-    <row r="37" spans="1:13" s="217" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:13" s="212" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="24"/>
-      <c r="B38" s="216" t="s">
+      <c r="B38" s="213" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="216"/>
-      <c r="D38" s="216"/>
-      <c r="E38" s="216"/>
-      <c r="F38" s="216"/>
-      <c r="G38" s="216"/>
-      <c r="H38" s="216"/>
-      <c r="I38" s="216"/>
-      <c r="J38" s="216"/>
+      <c r="C38" s="213"/>
+      <c r="D38" s="213"/>
+      <c r="E38" s="213"/>
+      <c r="F38" s="213"/>
+      <c r="G38" s="213"/>
+      <c r="H38" s="213"/>
+      <c r="I38" s="213"/>
+      <c r="J38" s="213"/>
       <c r="K38" s="32"/>
       <c r="L38" s="24"/>
       <c r="M38" s="24"/>
@@ -32679,21 +32687,21 @@
       <c r="C39" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="D39" s="222" t="s">
+      <c r="D39" s="216" t="s">
         <v>75</v>
       </c>
-      <c r="E39" s="222"/>
-      <c r="F39" s="222" t="s">
+      <c r="E39" s="216"/>
+      <c r="F39" s="216" t="s">
         <v>76</v>
       </c>
-      <c r="G39" s="222"/>
+      <c r="G39" s="216"/>
       <c r="H39" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="I39" s="222" t="s">
+      <c r="I39" s="216" t="s">
         <v>78</v>
       </c>
-      <c r="J39" s="222"/>
+      <c r="J39" s="216"/>
       <c r="K39" s="32"/>
       <c r="L39" s="24"/>
       <c r="M39" s="24"/>
@@ -32704,17 +32712,17 @@
         <v>517</v>
       </c>
       <c r="C40" s="30"/>
-      <c r="D40" s="221" t="s">
+      <c r="D40" s="214" t="s">
         <v>51</v>
       </c>
-      <c r="E40" s="221"/>
-      <c r="F40" s="212"/>
-      <c r="G40" s="212"/>
+      <c r="E40" s="214"/>
+      <c r="F40" s="215"/>
+      <c r="G40" s="215"/>
       <c r="H40" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="I40" s="212"/>
-      <c r="J40" s="212"/>
+      <c r="I40" s="215"/>
+      <c r="J40" s="215"/>
       <c r="K40" s="32"/>
       <c r="L40" s="24"/>
       <c r="M40" s="24"/>
@@ -32723,17 +32731,17 @@
       <c r="A41" s="24"/>
       <c r="B41" s="30"/>
       <c r="C41" s="30"/>
-      <c r="D41" s="221" t="s">
+      <c r="D41" s="214" t="s">
         <v>51</v>
       </c>
-      <c r="E41" s="221"/>
-      <c r="F41" s="212"/>
-      <c r="G41" s="212"/>
+      <c r="E41" s="214"/>
+      <c r="F41" s="215"/>
+      <c r="G41" s="215"/>
       <c r="H41" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="I41" s="212"/>
-      <c r="J41" s="212"/>
+      <c r="I41" s="215"/>
+      <c r="J41" s="215"/>
       <c r="K41" s="32"/>
       <c r="L41" s="24"/>
       <c r="M41" s="24"/>
@@ -32742,32 +32750,32 @@
       <c r="A42" s="24"/>
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
-      <c r="D42" s="221" t="s">
+      <c r="D42" s="214" t="s">
         <v>51</v>
       </c>
-      <c r="E42" s="221"/>
-      <c r="F42" s="212"/>
-      <c r="G42" s="212"/>
+      <c r="E42" s="214"/>
+      <c r="F42" s="215"/>
+      <c r="G42" s="215"/>
       <c r="H42" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="I42" s="212"/>
-      <c r="J42" s="212"/>
+      <c r="I42" s="215"/>
+      <c r="J42" s="215"/>
       <c r="K42" s="32"/>
       <c r="L42" s="24"/>
       <c r="M42" s="24"/>
     </row>
-    <row r="43" spans="1:13" s="217" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:13" s="212" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="24"/>
-      <c r="B44" s="216" t="s">
+      <c r="B44" s="213" t="s">
         <v>80</v>
       </c>
-      <c r="C44" s="216"/>
-      <c r="D44" s="216"/>
-      <c r="E44" s="216"/>
-      <c r="F44" s="216"/>
-      <c r="G44" s="216"/>
+      <c r="C44" s="213"/>
+      <c r="D44" s="213"/>
+      <c r="E44" s="213"/>
+      <c r="F44" s="213"/>
+      <c r="G44" s="213"/>
       <c r="H44" s="32"/>
       <c r="I44" s="32"/>
       <c r="J44" s="32"/>
@@ -32783,14 +32791,14 @@
       <c r="C45" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="D45" s="222" t="s">
+      <c r="D45" s="216" t="s">
         <v>83</v>
       </c>
-      <c r="E45" s="222"/>
-      <c r="F45" s="222" t="s">
+      <c r="E45" s="216"/>
+      <c r="F45" s="216" t="s">
         <v>84</v>
       </c>
-      <c r="G45" s="222"/>
+      <c r="G45" s="216"/>
       <c r="H45" s="32"/>
       <c r="I45" s="32"/>
       <c r="J45" s="32"/>
@@ -32802,10 +32810,10 @@
       <c r="A46" s="24"/>
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
-      <c r="D46" s="212"/>
-      <c r="E46" s="212"/>
-      <c r="F46" s="212"/>
-      <c r="G46" s="212"/>
+      <c r="D46" s="215"/>
+      <c r="E46" s="215"/>
+      <c r="F46" s="215"/>
+      <c r="G46" s="215"/>
       <c r="H46" s="32"/>
       <c r="I46" s="32"/>
       <c r="J46" s="32"/>
@@ -32817,10 +32825,10 @@
       <c r="A47" s="24"/>
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
-      <c r="D47" s="212"/>
-      <c r="E47" s="212"/>
-      <c r="F47" s="212"/>
-      <c r="G47" s="212"/>
+      <c r="D47" s="215"/>
+      <c r="E47" s="215"/>
+      <c r="F47" s="215"/>
+      <c r="G47" s="215"/>
       <c r="H47" s="32"/>
       <c r="I47" s="32"/>
       <c r="J47" s="32"/>
@@ -32832,10 +32840,10 @@
       <c r="A48" s="24"/>
       <c r="B48" s="30"/>
       <c r="C48" s="30"/>
-      <c r="D48" s="212"/>
-      <c r="E48" s="212"/>
-      <c r="F48" s="212"/>
-      <c r="G48" s="212"/>
+      <c r="D48" s="215"/>
+      <c r="E48" s="215"/>
+      <c r="F48" s="215"/>
+      <c r="G48" s="215"/>
       <c r="H48" s="32"/>
       <c r="I48" s="32"/>
       <c r="J48" s="32"/>
@@ -32858,17 +32866,17 @@
       <c r="L49" s="24"/>
       <c r="M49" s="24"/>
     </row>
-    <row r="50" spans="1:13" s="217" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:13" s="212" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="24"/>
-      <c r="B51" s="216" t="s">
+      <c r="B51" s="213" t="s">
         <v>85</v>
       </c>
-      <c r="C51" s="216"/>
-      <c r="D51" s="216"/>
-      <c r="E51" s="216"/>
-      <c r="F51" s="216"/>
-      <c r="G51" s="216"/>
+      <c r="C51" s="213"/>
+      <c r="D51" s="213"/>
+      <c r="E51" s="213"/>
+      <c r="F51" s="213"/>
+      <c r="G51" s="213"/>
       <c r="H51" s="32"/>
       <c r="I51" s="32"/>
       <c r="J51" s="32"/>
@@ -32978,15 +32986,15 @@
       <c r="L57" s="24"/>
       <c r="M57" s="24"/>
     </row>
-    <row r="58" spans="1:13" s="217" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:13" s="212" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="24"/>
-      <c r="B59" s="216" t="s">
+      <c r="B59" s="213" t="s">
         <v>92</v>
       </c>
-      <c r="C59" s="216"/>
-      <c r="D59" s="216"/>
-      <c r="E59" s="216"/>
+      <c r="C59" s="213"/>
+      <c r="D59" s="213"/>
+      <c r="E59" s="213"/>
       <c r="F59" s="32"/>
       <c r="G59" s="32"/>
       <c r="H59" s="32"/>
@@ -33079,16 +33087,16 @@
       <c r="L64" s="24"/>
       <c r="M64" s="24"/>
     </row>
-    <row r="65" spans="1:13" s="217" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="1:13" s="212" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="24"/>
-      <c r="B66" s="216" t="s">
+      <c r="B66" s="213" t="s">
         <v>97</v>
       </c>
-      <c r="C66" s="216"/>
-      <c r="D66" s="216"/>
-      <c r="E66" s="216"/>
-      <c r="F66" s="216"/>
+      <c r="C66" s="213"/>
+      <c r="D66" s="213"/>
+      <c r="E66" s="213"/>
+      <c r="F66" s="213"/>
       <c r="G66" s="32"/>
       <c r="H66" s="32"/>
       <c r="I66" s="32"/>
@@ -33182,16 +33190,16 @@
       <c r="L71" s="24"/>
       <c r="M71" s="24"/>
     </row>
-    <row r="72" spans="1:13" s="217" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="1:13" s="212" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="73" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="24"/>
-      <c r="B73" s="216" t="s">
+      <c r="B73" s="213" t="s">
         <v>102</v>
       </c>
-      <c r="C73" s="216"/>
-      <c r="D73" s="216"/>
-      <c r="E73" s="216"/>
-      <c r="F73" s="216"/>
+      <c r="C73" s="213"/>
+      <c r="D73" s="213"/>
+      <c r="E73" s="213"/>
+      <c r="F73" s="213"/>
       <c r="G73" s="32"/>
       <c r="H73" s="32"/>
       <c r="I73" s="32"/>
@@ -33285,13 +33293,13 @@
       <c r="L78" s="24"/>
       <c r="M78" s="24"/>
     </row>
-    <row r="79" spans="1:13" s="217" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:13" s="212" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="80" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="24"/>
-      <c r="B80" s="216" t="s">
+      <c r="B80" s="213" t="s">
         <v>108</v>
       </c>
-      <c r="C80" s="216"/>
+      <c r="C80" s="213"/>
       <c r="D80" s="32"/>
       <c r="E80" s="32"/>
       <c r="F80" s="32"/>
@@ -33430,7 +33438,7 @@
       <c r="L87" s="24"/>
       <c r="M87" s="24"/>
     </row>
-    <row r="88" spans="1:13" s="217" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="1:13" s="212" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="89" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="24"/>
       <c r="B89" s="42" t="s">
@@ -33571,17 +33579,17 @@
       <c r="L96" s="24"/>
       <c r="M96" s="24"/>
     </row>
-    <row r="97" spans="1:13" s="217" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" spans="1:13" s="212" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="98" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="24"/>
-      <c r="B98" s="216" t="s">
+      <c r="B98" s="213" t="s">
         <v>130</v>
       </c>
-      <c r="C98" s="216"/>
-      <c r="D98" s="216"/>
-      <c r="E98" s="216"/>
-      <c r="F98" s="216"/>
-      <c r="G98" s="216"/>
+      <c r="C98" s="213"/>
+      <c r="D98" s="213"/>
+      <c r="E98" s="213"/>
+      <c r="F98" s="213"/>
+      <c r="G98" s="213"/>
       <c r="H98" s="32"/>
       <c r="I98" s="32"/>
       <c r="J98" s="32"/>
@@ -33693,14 +33701,14 @@
     </row>
     <row r="105" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="24"/>
-      <c r="B105" s="221" t="s">
+      <c r="B105" s="214" t="s">
         <v>135</v>
       </c>
-      <c r="C105" s="221"/>
-      <c r="D105" s="221"/>
-      <c r="E105" s="221"/>
-      <c r="F105" s="221"/>
-      <c r="G105" s="221"/>
+      <c r="C105" s="214"/>
+      <c r="D105" s="214"/>
+      <c r="E105" s="214"/>
+      <c r="F105" s="214"/>
+      <c r="G105" s="214"/>
       <c r="H105" s="32"/>
       <c r="I105" s="32"/>
       <c r="J105" s="32"/>
@@ -33708,7 +33716,7 @@
       <c r="L105" s="24"/>
       <c r="M105" s="24"/>
     </row>
-    <row r="106" spans="1:13" s="217" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" spans="1:13" s="212" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="24"/>
       <c r="B107" s="24"/>
@@ -33756,6 +33764,81 @@
     </row>
   </sheetData>
   <mergeCells count="91">
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A5:XFD5"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="A21:XFD21"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="A13:XFD13"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B22:K22"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="B38:J38"/>
+    <mergeCell ref="A37:XFD37"/>
+    <mergeCell ref="A32:XFD32"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="B33:J33"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B66:F66"/>
+    <mergeCell ref="B73:F73"/>
     <mergeCell ref="B27:K27"/>
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="A106:XFD106"/>
@@ -33772,81 +33855,6 @@
     <mergeCell ref="A88:XFD88"/>
     <mergeCell ref="A97:XFD97"/>
     <mergeCell ref="B44:G44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B66:F66"/>
-    <mergeCell ref="B73:F73"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B38:J38"/>
-    <mergeCell ref="A37:XFD37"/>
-    <mergeCell ref="A32:XFD32"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="B33:J33"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="A21:XFD21"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="A13:XFD13"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B22:K22"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A5:XFD5"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="B4:K4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -33885,38 +33893,38 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="2:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="237" t="s">
+      <c r="B2" s="224" t="s">
         <v>531</v>
       </c>
-      <c r="C2" s="238"/>
-      <c r="D2" s="238"/>
-      <c r="E2" s="238"/>
-      <c r="F2" s="239"/>
+      <c r="C2" s="225"/>
+      <c r="D2" s="225"/>
+      <c r="E2" s="225"/>
+      <c r="F2" s="226"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="240" t="s">
+      <c r="B3" s="227" t="s">
         <v>542</v>
       </c>
-      <c r="C3" s="241"/>
-      <c r="D3" s="241"/>
-      <c r="E3" s="241"/>
-      <c r="F3" s="242"/>
+      <c r="C3" s="228"/>
+      <c r="D3" s="228"/>
+      <c r="E3" s="228"/>
+      <c r="F3" s="229"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="2:7" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="160" t="s">
+      <c r="B4" s="175" t="s">
         <v>136</v>
       </c>
       <c r="C4" s="193"/>
-      <c r="D4" s="161"/>
+      <c r="D4" s="176"/>
       <c r="E4" s="193" t="s">
         <v>536</v>
       </c>
-      <c r="F4" s="161"/>
+      <c r="F4" s="176"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="2:7" s="224" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="2:7" s="230" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="2:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="13"/>
       <c r="C6" s="44" t="s">
@@ -33934,39 +33942,39 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="2:7" s="52" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="233" t="s">
+      <c r="B7" s="239" t="s">
         <v>141</v>
       </c>
-      <c r="C7" s="235" t="s">
+      <c r="C7" s="241" t="s">
         <v>538</v>
       </c>
-      <c r="D7" s="162" t="s">
+      <c r="D7" s="166" t="s">
         <v>142</v>
       </c>
       <c r="E7" s="84" t="s">
         <v>677</v>
       </c>
-      <c r="F7" s="225" t="s">
+      <c r="F7" s="231" t="s">
         <v>539</v>
       </c>
       <c r="G7" s="18"/>
     </row>
     <row r="8" spans="2:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="234"/>
-      <c r="C8" s="236"/>
-      <c r="D8" s="163"/>
+      <c r="B8" s="240"/>
+      <c r="C8" s="242"/>
+      <c r="D8" s="167"/>
       <c r="E8" s="83" t="s">
         <v>676</v>
       </c>
-      <c r="F8" s="226"/>
+      <c r="F8" s="232"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="2:7" s="52" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="203"/>
-      <c r="C9" s="227" t="s">
+      <c r="C9" s="233" t="s">
         <v>537</v>
       </c>
-      <c r="D9" s="230" t="s">
+      <c r="D9" s="236" t="s">
         <v>525</v>
       </c>
       <c r="E9" s="82" t="s">
@@ -33981,8 +33989,8 @@
     </row>
     <row r="10" spans="2:7" s="52" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="204"/>
-      <c r="C10" s="228"/>
-      <c r="D10" s="231"/>
+      <c r="C10" s="234"/>
+      <c r="D10" s="237"/>
       <c r="E10" s="82" t="s">
         <v>518</v>
       </c>
@@ -33991,8 +33999,8 @@
     </row>
     <row r="11" spans="2:7" s="52" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="204"/>
-      <c r="C11" s="228"/>
-      <c r="D11" s="231"/>
+      <c r="C11" s="234"/>
+      <c r="D11" s="237"/>
       <c r="E11" s="82" t="s">
         <v>520</v>
       </c>
@@ -34001,8 +34009,8 @@
     </row>
     <row r="12" spans="2:7" s="52" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="204"/>
-      <c r="C12" s="228"/>
-      <c r="D12" s="231"/>
+      <c r="C12" s="234"/>
+      <c r="D12" s="237"/>
       <c r="E12" s="82" t="s">
         <v>521</v>
       </c>
@@ -34011,8 +34019,8 @@
     </row>
     <row r="13" spans="2:7" s="52" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="204"/>
-      <c r="C13" s="228"/>
-      <c r="D13" s="231"/>
+      <c r="C13" s="234"/>
+      <c r="D13" s="237"/>
       <c r="E13" s="82" t="s">
         <v>519</v>
       </c>
@@ -34021,8 +34029,8 @@
     </row>
     <row r="14" spans="2:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="205"/>
-      <c r="C14" s="229"/>
-      <c r="D14" s="232"/>
+      <c r="C14" s="235"/>
+      <c r="D14" s="238"/>
       <c r="E14" s="82" t="s">
         <v>523</v>
       </c>
@@ -34189,11 +34197,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:F4"/>
     <mergeCell ref="A5:XFD5"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="B9:B14"/>
@@ -34203,6 +34206,11 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="G9:G14"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:F4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>

--- a/자소서/스펙업 2017 하반기 채용다이어리.xlsx
+++ b/자소서/스펙업 2017 하반기 채용다이어리.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8625" windowHeight="11430" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8625" windowHeight="11430" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="메인" sheetId="18" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="967">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="968">
   <si>
     <t>카톡으로 공채 소식 받기</t>
   </si>
@@ -3947,10 +3947,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>9월 18일 23:59</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>코오롱그룹</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3992,6 +3988,14 @@
   </si>
   <si>
     <t>넥슨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9월 18일 12:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -11886,7 +11890,7 @@
   </sheetPr>
   <dimension ref="A1:K439"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A74" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
@@ -12045,7 +12049,7 @@
       <c r="E10" s="62"/>
       <c r="F10" s="62"/>
       <c r="G10" s="62" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H10" s="62"/>
       <c r="I10" s="62"/>
@@ -12773,10 +12777,10 @@
         <v>932</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
@@ -12794,7 +12798,7 @@
       </c>
       <c r="F64" s="5"/>
       <c r="G64" s="5" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
@@ -13235,7 +13239,7 @@
       </c>
       <c r="D93" s="62"/>
       <c r="E93" s="62" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="F93" s="62"/>
       <c r="G93" s="62" t="s">
@@ -13563,10 +13567,10 @@
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
       <c r="G115" s="7" t="s">
+        <v>961</v>
+      </c>
+      <c r="H115" s="62" t="s">
         <v>962</v>
-      </c>
-      <c r="H115" s="62" t="s">
-        <v>963</v>
       </c>
       <c r="I115" s="5"/>
       <c r="J115" s="1"/>
@@ -16827,7 +16831,7 @@
       <c r="C33" s="10"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
@@ -29404,8 +29408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -29816,13 +29820,13 @@
         <v>928</v>
       </c>
       <c r="C18" s="23" t="s">
+        <v>958</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>960</v>
+      </c>
+      <c r="E18" s="28" t="s">
         <v>959</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>961</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>960</v>
       </c>
       <c r="F18" s="28"/>
       <c r="G18" s="28"/>
@@ -29843,7 +29847,7 @@
         <v>931</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="F19" s="28"/>
       <c r="G19" s="28"/>
@@ -29864,7 +29868,7 @@
         <v>938</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="F20" s="28"/>
       <c r="G20" s="28"/>
@@ -29884,7 +29888,9 @@
       <c r="D21" s="26" t="s">
         <v>941</v>
       </c>
-      <c r="E21" s="28"/>
+      <c r="E21" s="28" t="s">
+        <v>967</v>
+      </c>
       <c r="F21" s="28"/>
       <c r="G21" s="28"/>
       <c r="H21" s="28"/>
@@ -29952,7 +29958,7 @@
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B25" s="129" t="s">
-        <v>950</v>
+        <v>862</v>
       </c>
       <c r="C25" s="23" t="s">
         <v>950</v>
@@ -29996,7 +30002,7 @@
         <v>954</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>955</v>
+        <v>966</v>
       </c>
       <c r="E27" s="28"/>
       <c r="F27" s="28"/>
@@ -30009,13 +30015,13 @@
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B28" s="129" t="s">
+        <v>955</v>
+      </c>
+      <c r="C28" s="23" t="s">
         <v>956</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="D28" s="28" t="s">
         <v>957</v>
-      </c>
-      <c r="D28" s="28" t="s">
-        <v>958</v>
       </c>
       <c r="E28" s="28"/>
       <c r="F28" s="28"/>

--- a/자소서/스펙업 2017 하반기 채용다이어리.xlsx
+++ b/자소서/스펙업 2017 하반기 채용다이어리.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="1011">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="1022">
   <si>
     <t>카톡으로 공채 소식 받기</t>
   </si>
@@ -4168,6 +4168,50 @@
   </si>
   <si>
     <t>O</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>골프존</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>골프존뉴딘그룹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9월 25일 13:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이다스아이티</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이다스아이티</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9월 26일 18:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>금호그룹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아시아나IDT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9월 26일 18:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5165,6 +5209,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5183,25 +5236,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5210,25 +5248,19 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5237,22 +5269,16 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5279,10 +5305,13 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5294,10 +5323,25 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5324,16 +5368,16 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5399,8 +5443,23 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5411,12 +5470,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5426,14 +5479,23 @@
     <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5474,24 +5536,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5525,7 +5569,10 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5537,10 +5584,7 @@
     <xf numFmtId="0" fontId="5" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7140,84 +7184,84 @@
       <c r="M1" s="135"/>
     </row>
     <row r="2" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="142" t="s">
+      <c r="B2" s="136" t="s">
         <v>706</v>
       </c>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
-      <c r="K2" s="143"/>
-      <c r="L2" s="143"/>
-      <c r="M2" s="144"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="137"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="137"/>
+      <c r="M2" s="138"/>
     </row>
     <row r="3" spans="2:13" ht="171" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="139" t="s">
+      <c r="B3" s="142" t="s">
         <v>675</v>
       </c>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="140"/>
-      <c r="J3" s="140"/>
-      <c r="K3" s="140"/>
-      <c r="L3" s="140"/>
-      <c r="M3" s="141"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="143"/>
+      <c r="J3" s="143"/>
+      <c r="K3" s="143"/>
+      <c r="L3" s="143"/>
+      <c r="M3" s="144"/>
     </row>
     <row r="4" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="142" t="s">
+      <c r="B4" s="136" t="s">
         <v>707</v>
       </c>
-      <c r="C4" s="143"/>
-      <c r="D4" s="143"/>
-      <c r="E4" s="143"/>
-      <c r="F4" s="143"/>
-      <c r="G4" s="143"/>
-      <c r="H4" s="143"/>
-      <c r="I4" s="143"/>
-      <c r="J4" s="143"/>
-      <c r="K4" s="143"/>
-      <c r="L4" s="143"/>
-      <c r="M4" s="144"/>
+      <c r="C4" s="137"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="137"/>
+      <c r="M4" s="138"/>
     </row>
     <row r="5" spans="2:13" ht="286.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="139" t="s">
+      <c r="B5" s="142" t="s">
         <v>850</v>
       </c>
-      <c r="C5" s="140"/>
-      <c r="D5" s="140"/>
-      <c r="E5" s="140"/>
-      <c r="F5" s="140"/>
-      <c r="G5" s="140"/>
-      <c r="H5" s="140"/>
-      <c r="I5" s="140"/>
-      <c r="J5" s="140"/>
-      <c r="K5" s="140"/>
-      <c r="L5" s="140"/>
-      <c r="M5" s="141"/>
+      <c r="C5" s="143"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="143"/>
+      <c r="K5" s="143"/>
+      <c r="L5" s="143"/>
+      <c r="M5" s="144"/>
     </row>
     <row r="6" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="142" t="s">
+      <c r="B6" s="136" t="s">
         <v>651</v>
       </c>
-      <c r="C6" s="143"/>
-      <c r="D6" s="143"/>
-      <c r="E6" s="143"/>
-      <c r="F6" s="143"/>
-      <c r="G6" s="143"/>
-      <c r="H6" s="143"/>
-      <c r="I6" s="143"/>
-      <c r="J6" s="143"/>
-      <c r="K6" s="143"/>
-      <c r="L6" s="143"/>
-      <c r="M6" s="144"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="137"/>
+      <c r="K6" s="137"/>
+      <c r="L6" s="137"/>
+      <c r="M6" s="138"/>
     </row>
     <row r="7" spans="2:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="133"/>
@@ -7268,23 +7312,17 @@
       <c r="E10" s="134"/>
       <c r="F10" s="134"/>
       <c r="G10" s="135"/>
-      <c r="H10" s="136" t="s">
+      <c r="H10" s="139" t="s">
         <v>653</v>
       </c>
-      <c r="I10" s="137"/>
-      <c r="J10" s="137"/>
-      <c r="K10" s="137"/>
-      <c r="L10" s="137"/>
-      <c r="M10" s="138"/>
+      <c r="I10" s="140"/>
+      <c r="J10" s="140"/>
+      <c r="K10" s="140"/>
+      <c r="L10" s="140"/>
+      <c r="M10" s="141"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="H9:M9"/>
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="H10:M10"/>
     <mergeCell ref="B3:M3"/>
@@ -7292,6 +7330,12 @@
     <mergeCell ref="B5:M5"/>
     <mergeCell ref="B6:M6"/>
     <mergeCell ref="B7:M7"/>
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="H9:M9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7336,7 +7380,7 @@
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="215" t="s">
+      <c r="B3" s="220" t="s">
         <v>639</v>
       </c>
       <c r="C3" s="134"/>
@@ -7673,7 +7717,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="169" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:3" s="163" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:3" s="47" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15"/>
       <c r="B6" s="43" t="s">
@@ -7896,7 +7940,7 @@
     </row>
     <row r="4" spans="1:14" s="76" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="73"/>
-      <c r="B4" s="162" t="s">
+      <c r="B4" s="177" t="s">
         <v>547</v>
       </c>
       <c r="C4" s="195"/>
@@ -7905,32 +7949,32 @@
       <c r="F4" s="195"/>
       <c r="G4" s="195"/>
       <c r="H4" s="195"/>
-      <c r="I4" s="163"/>
-      <c r="J4" s="260" t="s">
+      <c r="I4" s="178"/>
+      <c r="J4" s="256" t="s">
         <v>642</v>
       </c>
-      <c r="K4" s="260"/>
-      <c r="L4" s="260"/>
-      <c r="M4" s="260"/>
-      <c r="N4" s="261"/>
-    </row>
-    <row r="5" spans="1:14" s="169" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="K4" s="256"/>
+      <c r="L4" s="256"/>
+      <c r="M4" s="256"/>
+      <c r="N4" s="257"/>
+    </row>
+    <row r="5" spans="1:14" s="163" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:14" s="85" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="257" t="s">
+      <c r="B6" s="258" t="s">
         <v>638</v>
       </c>
-      <c r="C6" s="258"/>
-      <c r="D6" s="258"/>
-      <c r="E6" s="258"/>
-      <c r="F6" s="258"/>
-      <c r="G6" s="258"/>
-      <c r="H6" s="258"/>
-      <c r="I6" s="258"/>
-      <c r="J6" s="258"/>
-      <c r="K6" s="258"/>
-      <c r="L6" s="258"/>
-      <c r="M6" s="258"/>
-      <c r="N6" s="259"/>
+      <c r="C6" s="259"/>
+      <c r="D6" s="259"/>
+      <c r="E6" s="259"/>
+      <c r="F6" s="259"/>
+      <c r="G6" s="259"/>
+      <c r="H6" s="259"/>
+      <c r="I6" s="259"/>
+      <c r="J6" s="259"/>
+      <c r="K6" s="259"/>
+      <c r="L6" s="259"/>
+      <c r="M6" s="259"/>
+      <c r="N6" s="260"/>
     </row>
     <row r="7" spans="1:14" s="47" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
@@ -7976,7 +8020,7 @@
     </row>
     <row r="8" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="85"/>
-      <c r="B8" s="256" t="s">
+      <c r="B8" s="261" t="s">
         <v>625</v>
       </c>
       <c r="C8" s="254" t="s">
@@ -8000,7 +8044,7 @@
     </row>
     <row r="9" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="85"/>
-      <c r="B9" s="256"/>
+      <c r="B9" s="261"/>
       <c r="C9" s="254"/>
       <c r="D9" s="93" t="s">
         <v>629</v>
@@ -8020,7 +8064,7 @@
     </row>
     <row r="10" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="85"/>
-      <c r="B10" s="256"/>
+      <c r="B10" s="261"/>
       <c r="C10" s="254"/>
       <c r="D10" s="93" t="s">
         <v>630</v>
@@ -8044,7 +8088,7 @@
     </row>
     <row r="11" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="85"/>
-      <c r="B11" s="256"/>
+      <c r="B11" s="261"/>
       <c r="C11" s="254" t="s">
         <v>631</v>
       </c>
@@ -8072,7 +8116,7 @@
     </row>
     <row r="12" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="85"/>
-      <c r="B12" s="256"/>
+      <c r="B12" s="261"/>
       <c r="C12" s="254"/>
       <c r="D12" s="94" t="s">
         <v>633</v>
@@ -8110,7 +8154,7 @@
     </row>
     <row r="13" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="85"/>
-      <c r="B13" s="256"/>
+      <c r="B13" s="261"/>
       <c r="C13" s="254"/>
       <c r="D13" s="94" t="s">
         <v>634</v>
@@ -8148,7 +8192,7 @@
     </row>
     <row r="14" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="85"/>
-      <c r="B14" s="256"/>
+      <c r="B14" s="261"/>
       <c r="C14" s="254"/>
       <c r="D14" s="94" t="s">
         <v>635</v>
@@ -8172,7 +8216,7 @@
     </row>
     <row r="15" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="85"/>
-      <c r="B15" s="256"/>
+      <c r="B15" s="261"/>
       <c r="C15" s="254"/>
       <c r="D15" s="94" t="s">
         <v>636</v>
@@ -8194,7 +8238,7 @@
     </row>
     <row r="16" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="85"/>
-      <c r="B16" s="256"/>
+      <c r="B16" s="261"/>
       <c r="C16" s="254"/>
       <c r="D16" s="94" t="s">
         <v>637</v>
@@ -8220,7 +8264,7 @@
     </row>
     <row r="17" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="85"/>
-      <c r="B17" s="256" t="s">
+      <c r="B17" s="261" t="s">
         <v>550</v>
       </c>
       <c r="C17" s="254" t="s">
@@ -8250,7 +8294,7 @@
     </row>
     <row r="18" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="85"/>
-      <c r="B18" s="256"/>
+      <c r="B18" s="261"/>
       <c r="C18" s="254"/>
       <c r="D18" s="94" t="s">
         <v>553</v>
@@ -8270,7 +8314,7 @@
     </row>
     <row r="19" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="85"/>
-      <c r="B19" s="256"/>
+      <c r="B19" s="261"/>
       <c r="C19" s="254"/>
       <c r="D19" s="94" t="s">
         <v>554</v>
@@ -8294,7 +8338,7 @@
     </row>
     <row r="20" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="85"/>
-      <c r="B20" s="256"/>
+      <c r="B20" s="261"/>
       <c r="C20" s="254"/>
       <c r="D20" s="94" t="s">
         <v>555</v>
@@ -8314,7 +8358,7 @@
     </row>
     <row r="21" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="85"/>
-      <c r="B21" s="256"/>
+      <c r="B21" s="261"/>
       <c r="C21" s="254"/>
       <c r="D21" s="94" t="s">
         <v>556</v>
@@ -8338,7 +8382,7 @@
     </row>
     <row r="22" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="85"/>
-      <c r="B22" s="256"/>
+      <c r="B22" s="261"/>
       <c r="C22" s="254"/>
       <c r="D22" s="94" t="s">
         <v>557</v>
@@ -8360,7 +8404,7 @@
     </row>
     <row r="23" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="85"/>
-      <c r="B23" s="256"/>
+      <c r="B23" s="261"/>
       <c r="C23" s="254"/>
       <c r="D23" s="94" t="s">
         <v>558</v>
@@ -8384,7 +8428,7 @@
     </row>
     <row r="24" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="85"/>
-      <c r="B24" s="256"/>
+      <c r="B24" s="261"/>
       <c r="C24" s="13" t="s">
         <v>559</v>
       </c>
@@ -8424,7 +8468,7 @@
     </row>
     <row r="25" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="85"/>
-      <c r="B25" s="256" t="s">
+      <c r="B25" s="261" t="s">
         <v>560</v>
       </c>
       <c r="C25" s="254" t="s">
@@ -8452,7 +8496,7 @@
     </row>
     <row r="26" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="85"/>
-      <c r="B26" s="256"/>
+      <c r="B26" s="261"/>
       <c r="C26" s="254"/>
       <c r="D26" s="94" t="s">
         <v>563</v>
@@ -8476,7 +8520,7 @@
     </row>
     <row r="27" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="85"/>
-      <c r="B27" s="256"/>
+      <c r="B27" s="261"/>
       <c r="C27" s="254"/>
       <c r="D27" s="94" t="s">
         <v>564</v>
@@ -8498,7 +8542,7 @@
     </row>
     <row r="28" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="85"/>
-      <c r="B28" s="256"/>
+      <c r="B28" s="261"/>
       <c r="C28" s="254" t="s">
         <v>565</v>
       </c>
@@ -8528,7 +8572,7 @@
     </row>
     <row r="29" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="85"/>
-      <c r="B29" s="256"/>
+      <c r="B29" s="261"/>
       <c r="C29" s="254"/>
       <c r="D29" s="94" t="s">
         <v>567</v>
@@ -8552,7 +8596,7 @@
     </row>
     <row r="30" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="85"/>
-      <c r="B30" s="256"/>
+      <c r="B30" s="261"/>
       <c r="C30" s="254"/>
       <c r="D30" s="94" t="s">
         <v>568</v>
@@ -8582,7 +8626,7 @@
     </row>
     <row r="31" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="85"/>
-      <c r="B31" s="256"/>
+      <c r="B31" s="261"/>
       <c r="C31" s="254"/>
       <c r="D31" s="95" t="s">
         <v>569</v>
@@ -8614,7 +8658,7 @@
     </row>
     <row r="32" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="85"/>
-      <c r="B32" s="256"/>
+      <c r="B32" s="261"/>
       <c r="C32" s="254"/>
       <c r="D32" s="94" t="s">
         <v>570</v>
@@ -8638,7 +8682,7 @@
     </row>
     <row r="33" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="85"/>
-      <c r="B33" s="256"/>
+      <c r="B33" s="261"/>
       <c r="C33" s="254" t="s">
         <v>571</v>
       </c>
@@ -8662,7 +8706,7 @@
     </row>
     <row r="34" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="85"/>
-      <c r="B34" s="256"/>
+      <c r="B34" s="261"/>
       <c r="C34" s="254"/>
       <c r="D34" s="94" t="s">
         <v>573</v>
@@ -8686,7 +8730,7 @@
     </row>
     <row r="35" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="85"/>
-      <c r="B35" s="256" t="s">
+      <c r="B35" s="261" t="s">
         <v>574</v>
       </c>
       <c r="C35" s="254" t="s">
@@ -8710,7 +8754,7 @@
     </row>
     <row r="36" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="85"/>
-      <c r="B36" s="256"/>
+      <c r="B36" s="261"/>
       <c r="C36" s="254"/>
       <c r="D36" s="94" t="s">
         <v>577</v>
@@ -8730,7 +8774,7 @@
     </row>
     <row r="37" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="85"/>
-      <c r="B37" s="256"/>
+      <c r="B37" s="261"/>
       <c r="C37" s="254"/>
       <c r="D37" s="94" t="s">
         <v>578</v>
@@ -8750,7 +8794,7 @@
     </row>
     <row r="38" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="85"/>
-      <c r="B38" s="256"/>
+      <c r="B38" s="261"/>
       <c r="C38" s="254" t="s">
         <v>579</v>
       </c>
@@ -8772,7 +8816,7 @@
     </row>
     <row r="39" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="85"/>
-      <c r="B39" s="256"/>
+      <c r="B39" s="261"/>
       <c r="C39" s="254"/>
       <c r="D39" s="94" t="s">
         <v>581</v>
@@ -8796,7 +8840,7 @@
     </row>
     <row r="40" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="85"/>
-      <c r="B40" s="256"/>
+      <c r="B40" s="261"/>
       <c r="C40" s="254"/>
       <c r="D40" s="94" t="s">
         <v>582</v>
@@ -8822,7 +8866,7 @@
     </row>
     <row r="41" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="85"/>
-      <c r="B41" s="256"/>
+      <c r="B41" s="261"/>
       <c r="C41" s="254"/>
       <c r="D41" s="94" t="s">
         <v>583</v>
@@ -8842,18 +8886,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="B3:N3"/>
-    <mergeCell ref="A5:XFD5"/>
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:N4"/>
-    <mergeCell ref="B6:N6"/>
-    <mergeCell ref="B8:B16"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="B17:B24"/>
-    <mergeCell ref="C17:C23"/>
     <mergeCell ref="B25:B34"/>
     <mergeCell ref="C25:C27"/>
     <mergeCell ref="C28:C32"/>
@@ -8861,6 +8893,18 @@
     <mergeCell ref="B35:B41"/>
     <mergeCell ref="C35:C37"/>
     <mergeCell ref="C38:C41"/>
+    <mergeCell ref="B6:N6"/>
+    <mergeCell ref="B8:B16"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="B17:B24"/>
+    <mergeCell ref="C17:C23"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="A5:XFD5"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:N4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -12065,8 +12109,8 @@
   </sheetPr>
   <dimension ref="A1:K440"/>
   <sheetViews>
-    <sheetView topLeftCell="A101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D125" sqref="D125"/>
+    <sheetView topLeftCell="A95" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H116" sqref="H116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -12079,66 +12123,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="118.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="166"/>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="167"/>
-      <c r="G1" s="167"/>
-      <c r="H1" s="167"/>
-      <c r="I1" s="168"/>
+      <c r="B1" s="160"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="162"/>
     </row>
     <row r="2" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="176" t="s">
+      <c r="B2" s="171" t="s">
         <v>708</v>
       </c>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177"/>
-      <c r="I2" s="178"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="172"/>
+      <c r="I2" s="173"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="66"/>
-      <c r="B3" s="170" t="s">
+      <c r="B3" s="164" t="s">
         <v>540</v>
       </c>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="171"/>
-      <c r="G3" s="171"/>
-      <c r="H3" s="171"/>
-      <c r="I3" s="172"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="166"/>
       <c r="J3" s="66"/>
     </row>
     <row r="4" spans="1:10" s="74" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="73"/>
-      <c r="B4" s="160" t="s">
+      <c r="B4" s="175" t="s">
         <v>709</v>
       </c>
-      <c r="C4" s="161"/>
-      <c r="D4" s="162" t="s">
+      <c r="C4" s="176"/>
+      <c r="D4" s="177" t="s">
         <v>529</v>
       </c>
-      <c r="E4" s="163"/>
-      <c r="F4" s="162" t="s">
+      <c r="E4" s="178"/>
+      <c r="F4" s="177" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="163"/>
-      <c r="H4" s="162" t="s">
+      <c r="G4" s="178"/>
+      <c r="H4" s="177" t="s">
         <v>530</v>
       </c>
-      <c r="I4" s="163"/>
+      <c r="I4" s="178"/>
       <c r="J4" s="15"/>
     </row>
-    <row r="5" spans="1:10" s="169" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:10" s="163" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:10" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="164"/>
+      <c r="B6" s="168"/>
       <c r="C6" s="54" t="s">
         <v>858</v>
       </c>
@@ -12162,7 +12206,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="165"/>
+      <c r="B7" s="169"/>
       <c r="C7" s="120" t="s">
         <v>711</v>
       </c>
@@ -12186,7 +12230,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="155" t="s">
+      <c r="B8" s="158" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="62"/>
@@ -12206,7 +12250,7 @@
       <c r="I8" s="62"/>
     </row>
     <row r="9" spans="1:10" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="155"/>
+      <c r="B9" s="158"/>
       <c r="C9" s="62"/>
       <c r="D9" s="62"/>
       <c r="E9" s="62"/>
@@ -12218,7 +12262,7 @@
       <c r="I9" s="62"/>
     </row>
     <row r="10" spans="1:10" s="131" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="155"/>
+      <c r="B10" s="158"/>
       <c r="C10" s="62"/>
       <c r="D10" s="62"/>
       <c r="E10" s="62"/>
@@ -12230,7 +12274,7 @@
       <c r="I10" s="62"/>
     </row>
     <row r="11" spans="1:10" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="155"/>
+      <c r="B11" s="158"/>
       <c r="C11" s="62"/>
       <c r="D11" s="62"/>
       <c r="E11" s="62"/>
@@ -12242,7 +12286,7 @@
       <c r="I11" s="62"/>
     </row>
     <row r="12" spans="1:10" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="155"/>
+      <c r="B12" s="158"/>
       <c r="C12" s="62"/>
       <c r="D12" s="62"/>
       <c r="E12" s="62"/>
@@ -12254,7 +12298,7 @@
       <c r="I12" s="62"/>
     </row>
     <row r="13" spans="1:10" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="155"/>
+      <c r="B13" s="158"/>
       <c r="C13" s="62"/>
       <c r="D13" s="62"/>
       <c r="E13" s="62"/>
@@ -12266,7 +12310,7 @@
       <c r="I13" s="62"/>
     </row>
     <row r="14" spans="1:10" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="155"/>
+      <c r="B14" s="158"/>
       <c r="C14" s="62"/>
       <c r="D14" s="62"/>
       <c r="E14" s="62"/>
@@ -12278,7 +12322,7 @@
       <c r="I14" s="62"/>
     </row>
     <row r="15" spans="1:10" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="155"/>
+      <c r="B15" s="158"/>
       <c r="C15" s="62"/>
       <c r="D15" s="62"/>
       <c r="E15" s="62"/>
@@ -12290,7 +12334,7 @@
       <c r="I15" s="62"/>
     </row>
     <row r="16" spans="1:10" s="123" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="155"/>
+      <c r="B16" s="158"/>
       <c r="C16" s="62"/>
       <c r="D16" s="62"/>
       <c r="E16" s="62"/>
@@ -12302,7 +12346,7 @@
       <c r="I16" s="62"/>
     </row>
     <row r="17" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="155"/>
+      <c r="B17" s="158"/>
       <c r="C17" s="62"/>
       <c r="D17" s="62"/>
       <c r="E17" s="62"/>
@@ -12314,7 +12358,7 @@
       <c r="I17" s="62"/>
     </row>
     <row r="18" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="157" t="s">
+      <c r="B18" s="170" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="69"/>
@@ -12326,7 +12370,7 @@
       <c r="I18" s="7"/>
     </row>
     <row r="19" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="158"/>
+      <c r="B19" s="154"/>
       <c r="C19" s="71"/>
       <c r="D19" s="62"/>
       <c r="E19" s="70"/>
@@ -12336,7 +12380,7 @@
       <c r="I19" s="62"/>
     </row>
     <row r="20" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="158"/>
+      <c r="B20" s="154"/>
       <c r="C20" s="62"/>
       <c r="D20" s="62"/>
       <c r="E20" s="62"/>
@@ -12346,7 +12390,7 @@
       <c r="I20" s="62"/>
     </row>
     <row r="21" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="145" t="s">
+      <c r="B21" s="153" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="7"/>
@@ -12358,7 +12402,7 @@
       <c r="I21" s="7"/>
     </row>
     <row r="22" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="146"/>
+      <c r="B22" s="145"/>
       <c r="C22" s="62"/>
       <c r="D22" s="62"/>
       <c r="E22" s="62"/>
@@ -12368,7 +12412,7 @@
       <c r="I22" s="62"/>
     </row>
     <row r="23" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="146"/>
+      <c r="B23" s="145"/>
       <c r="C23" s="62"/>
       <c r="D23" s="62"/>
       <c r="E23" s="62"/>
@@ -12378,7 +12422,7 @@
       <c r="I23" s="62"/>
     </row>
     <row r="24" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="148" t="s">
+      <c r="B24" s="157" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="7"/>
@@ -12390,7 +12434,7 @@
       <c r="I24" s="7"/>
     </row>
     <row r="25" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="149"/>
+      <c r="B25" s="147"/>
       <c r="C25" s="62"/>
       <c r="D25" s="62"/>
       <c r="E25" s="62"/>
@@ -12400,7 +12444,7 @@
       <c r="I25" s="62"/>
     </row>
     <row r="26" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="149"/>
+      <c r="B26" s="147"/>
       <c r="C26" s="62"/>
       <c r="D26" s="62"/>
       <c r="E26" s="62"/>
@@ -12410,7 +12454,7 @@
       <c r="I26" s="62"/>
     </row>
     <row r="27" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="151" t="s">
+      <c r="B27" s="156" t="s">
         <v>12</v>
       </c>
       <c r="C27" s="7"/>
@@ -12422,7 +12466,7 @@
       <c r="I27" s="7"/>
     </row>
     <row r="28" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="152"/>
+      <c r="B28" s="149"/>
       <c r="C28" s="62"/>
       <c r="D28" s="62"/>
       <c r="E28" s="62"/>
@@ -12432,7 +12476,7 @@
       <c r="I28" s="62"/>
     </row>
     <row r="29" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="152"/>
+      <c r="B29" s="149"/>
       <c r="C29" s="62"/>
       <c r="D29" s="62"/>
       <c r="E29" s="62"/>
@@ -12442,7 +12486,7 @@
       <c r="I29" s="62"/>
     </row>
     <row r="30" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="173" t="s">
+      <c r="B30" s="167" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="59"/>
@@ -12454,7 +12498,7 @@
       <c r="I30" s="7"/>
     </row>
     <row r="31" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="174"/>
+      <c r="B31" s="151"/>
       <c r="C31" s="62"/>
       <c r="D31" s="62"/>
       <c r="E31" s="62"/>
@@ -12464,7 +12508,7 @@
       <c r="I31" s="62"/>
     </row>
     <row r="32" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="174"/>
+      <c r="B32" s="151"/>
       <c r="C32" s="62"/>
       <c r="D32" s="62"/>
       <c r="E32" s="62"/>
@@ -12475,7 +12519,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
-      <c r="B33" s="164"/>
+      <c r="B33" s="168"/>
       <c r="C33" s="54" t="s">
         <v>712</v>
       </c>
@@ -12501,7 +12545,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
-      <c r="B34" s="165"/>
+      <c r="B34" s="169"/>
       <c r="C34" s="120" t="s">
         <v>711</v>
       </c>
@@ -12527,7 +12571,7 @@
     </row>
     <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
-      <c r="B35" s="154" t="s">
+      <c r="B35" s="174" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="62" t="s">
@@ -12549,7 +12593,7 @@
     </row>
     <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="119"/>
-      <c r="B36" s="155"/>
+      <c r="B36" s="158"/>
       <c r="C36" s="62" t="s">
         <v>870</v>
       </c>
@@ -12569,7 +12613,7 @@
     </row>
     <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="119"/>
-      <c r="B37" s="155"/>
+      <c r="B37" s="158"/>
       <c r="C37" s="62" t="s">
         <v>869</v>
       </c>
@@ -12585,7 +12629,7 @@
     </row>
     <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="119"/>
-      <c r="B38" s="155"/>
+      <c r="B38" s="158"/>
       <c r="C38" s="62" t="s">
         <v>878</v>
       </c>
@@ -12599,7 +12643,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
-      <c r="B39" s="155"/>
+      <c r="B39" s="158"/>
       <c r="C39" s="125" t="s">
         <v>882</v>
       </c>
@@ -12613,7 +12657,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="123"/>
-      <c r="B40" s="155"/>
+      <c r="B40" s="158"/>
       <c r="C40" s="60" t="s">
         <v>883</v>
       </c>
@@ -12627,7 +12671,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="123"/>
-      <c r="B41" s="155"/>
+      <c r="B41" s="158"/>
       <c r="C41" s="60" t="s">
         <v>884</v>
       </c>
@@ -12641,7 +12685,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="124"/>
-      <c r="B42" s="155"/>
+      <c r="B42" s="158"/>
       <c r="C42" s="60" t="s">
         <v>887</v>
       </c>
@@ -12655,7 +12699,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="124"/>
-      <c r="B43" s="155"/>
+      <c r="B43" s="158"/>
       <c r="C43" s="60" t="s">
         <v>892</v>
       </c>
@@ -12669,7 +12713,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="126"/>
-      <c r="B44" s="155"/>
+      <c r="B44" s="158"/>
       <c r="C44" s="60" t="s">
         <v>907</v>
       </c>
@@ -12683,7 +12727,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
-      <c r="B45" s="156"/>
+      <c r="B45" s="159"/>
       <c r="C45" s="62" t="s">
         <v>898</v>
       </c>
@@ -12697,7 +12741,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
-      <c r="B46" s="157" t="s">
+      <c r="B46" s="170" t="s">
         <v>9</v>
       </c>
       <c r="C46" s="69"/>
@@ -12713,7 +12757,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
-      <c r="B47" s="158"/>
+      <c r="B47" s="154"/>
       <c r="C47" s="71"/>
       <c r="D47" s="5"/>
       <c r="E47" s="70"/>
@@ -12725,7 +12769,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
-      <c r="B48" s="158"/>
+      <c r="B48" s="154"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -12737,7 +12781,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
-      <c r="B49" s="145" t="s">
+      <c r="B49" s="153" t="s">
         <v>10</v>
       </c>
       <c r="C49" s="7"/>
@@ -12751,7 +12795,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
-      <c r="B50" s="146"/>
+      <c r="B50" s="145"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
@@ -12763,7 +12807,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
-      <c r="B51" s="146"/>
+      <c r="B51" s="145"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
@@ -12775,7 +12819,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
-      <c r="B52" s="148" t="s">
+      <c r="B52" s="157" t="s">
         <v>11</v>
       </c>
       <c r="C52" s="7"/>
@@ -12789,7 +12833,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
-      <c r="B53" s="149"/>
+      <c r="B53" s="147"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
@@ -12801,7 +12845,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
-      <c r="B54" s="149"/>
+      <c r="B54" s="147"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
@@ -12813,7 +12857,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
-      <c r="B55" s="151" t="s">
+      <c r="B55" s="156" t="s">
         <v>12</v>
       </c>
       <c r="C55" s="7"/>
@@ -12827,7 +12871,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
-      <c r="B56" s="152"/>
+      <c r="B56" s="149"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
@@ -12839,7 +12883,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
-      <c r="B57" s="152"/>
+      <c r="B57" s="149"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
@@ -12851,7 +12895,7 @@
     </row>
     <row r="58" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
-      <c r="B58" s="173" t="s">
+      <c r="B58" s="167" t="s">
         <v>13</v>
       </c>
       <c r="C58" s="59"/>
@@ -12865,7 +12909,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
-      <c r="B59" s="174"/>
+      <c r="B59" s="151"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
@@ -12877,7 +12921,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
-      <c r="B60" s="174"/>
+      <c r="B60" s="151"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
@@ -12941,7 +12985,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
-      <c r="B63" s="154" t="s">
+      <c r="B63" s="174" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="7" t="s">
@@ -12963,7 +13007,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
-      <c r="B64" s="155"/>
+      <c r="B64" s="158"/>
       <c r="C64" s="5" t="s">
         <v>933</v>
       </c>
@@ -12981,7 +13025,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="132"/>
-      <c r="B65" s="155"/>
+      <c r="B65" s="158"/>
       <c r="C65" s="62" t="s">
         <v>999</v>
       </c>
@@ -12995,7 +13039,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
-      <c r="B66" s="156"/>
+      <c r="B66" s="159"/>
       <c r="C66" s="6" t="s">
         <v>996</v>
       </c>
@@ -13009,7 +13053,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
-      <c r="B67" s="157" t="s">
+      <c r="B67" s="170" t="s">
         <v>9</v>
       </c>
       <c r="C67" s="7" t="s">
@@ -13033,7 +13077,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
-      <c r="B68" s="158"/>
+      <c r="B68" s="154"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5" t="s">
@@ -13051,7 +13095,7 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="123"/>
-      <c r="B69" s="158"/>
+      <c r="B69" s="154"/>
       <c r="C69" s="62"/>
       <c r="D69" s="62"/>
       <c r="E69" s="62" t="s">
@@ -13067,7 +13111,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="124"/>
-      <c r="B70" s="158"/>
+      <c r="B70" s="154"/>
       <c r="C70" s="62"/>
       <c r="D70" s="62"/>
       <c r="E70" s="62" t="s">
@@ -13083,7 +13127,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="124"/>
-      <c r="B71" s="158"/>
+      <c r="B71" s="154"/>
       <c r="C71" s="62"/>
       <c r="D71" s="62"/>
       <c r="E71" s="62"/>
@@ -13094,7 +13138,7 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="124"/>
-      <c r="B72" s="158"/>
+      <c r="B72" s="154"/>
       <c r="C72" s="62"/>
       <c r="D72" s="62"/>
       <c r="E72" s="62"/>
@@ -13106,7 +13150,7 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
-      <c r="B73" s="159"/>
+      <c r="B73" s="155"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
@@ -13118,7 +13162,7 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
-      <c r="B74" s="145" t="s">
+      <c r="B74" s="153" t="s">
         <v>10</v>
       </c>
       <c r="C74" s="7"/>
@@ -13132,7 +13176,7 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
-      <c r="B75" s="146"/>
+      <c r="B75" s="145"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -13144,7 +13188,7 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
-      <c r="B76" s="147"/>
+      <c r="B76" s="146"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
@@ -13156,7 +13200,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
-      <c r="B77" s="148" t="s">
+      <c r="B77" s="157" t="s">
         <v>11</v>
       </c>
       <c r="C77" s="7"/>
@@ -13170,7 +13214,7 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
-      <c r="B78" s="149"/>
+      <c r="B78" s="147"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -13182,7 +13226,7 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
-      <c r="B79" s="150"/>
+      <c r="B79" s="148"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
@@ -13194,7 +13238,7 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
-      <c r="B80" s="151" t="s">
+      <c r="B80" s="156" t="s">
         <v>12</v>
       </c>
       <c r="C80" s="7"/>
@@ -13208,7 +13252,7 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
-      <c r="B81" s="152"/>
+      <c r="B81" s="149"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -13220,7 +13264,7 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
-      <c r="B82" s="153"/>
+      <c r="B82" s="150"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
@@ -13232,7 +13276,7 @@
     </row>
     <row r="83" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
-      <c r="B83" s="173" t="s">
+      <c r="B83" s="167" t="s">
         <v>13</v>
       </c>
       <c r="C83" s="7"/>
@@ -13246,7 +13290,7 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
-      <c r="B84" s="174"/>
+      <c r="B84" s="151"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -13258,7 +13302,7 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
-      <c r="B85" s="175"/>
+      <c r="B85" s="152"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
@@ -13322,7 +13366,7 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
-      <c r="B88" s="154" t="s">
+      <c r="B88" s="174" t="s">
         <v>8</v>
       </c>
       <c r="C88" s="7" t="s">
@@ -13338,7 +13382,7 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
-      <c r="B89" s="155"/>
+      <c r="B89" s="158"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -13350,7 +13394,7 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
-      <c r="B90" s="156"/>
+      <c r="B90" s="159"/>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
@@ -13362,7 +13406,7 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
-      <c r="B91" s="157" t="s">
+      <c r="B91" s="170" t="s">
         <v>9</v>
       </c>
       <c r="C91" s="7" t="s">
@@ -13384,7 +13428,7 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
-      <c r="B92" s="158"/>
+      <c r="B92" s="154"/>
       <c r="C92" s="5" t="s">
         <v>862</v>
       </c>
@@ -13404,7 +13448,7 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="123"/>
-      <c r="B93" s="158"/>
+      <c r="B93" s="154"/>
       <c r="C93" s="62" t="s">
         <v>881</v>
       </c>
@@ -13424,7 +13468,7 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="124"/>
-      <c r="B94" s="158"/>
+      <c r="B94" s="154"/>
       <c r="C94" s="62" t="s">
         <v>889</v>
       </c>
@@ -13442,7 +13486,7 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="124"/>
-      <c r="B95" s="158"/>
+      <c r="B95" s="154"/>
       <c r="C95" s="62" t="s">
         <v>897</v>
       </c>
@@ -13458,7 +13502,7 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="124"/>
-      <c r="B96" s="158"/>
+      <c r="B96" s="154"/>
       <c r="C96" s="62" t="s">
         <v>907</v>
       </c>
@@ -13474,7 +13518,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="126"/>
-      <c r="B97" s="158"/>
+      <c r="B97" s="154"/>
       <c r="C97" s="60" t="s">
         <v>899</v>
       </c>
@@ -13488,7 +13532,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
-      <c r="B98" s="159"/>
+      <c r="B98" s="155"/>
       <c r="D98" s="6"/>
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
@@ -13499,7 +13543,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
-      <c r="B99" s="145" t="s">
+      <c r="B99" s="153" t="s">
         <v>10</v>
       </c>
       <c r="C99" s="7"/>
@@ -13513,7 +13557,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
-      <c r="B100" s="146"/>
+      <c r="B100" s="145"/>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
@@ -13525,7 +13569,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
-      <c r="B101" s="147"/>
+      <c r="B101" s="146"/>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
       <c r="E101" s="6"/>
@@ -13537,7 +13581,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
-      <c r="B102" s="148" t="s">
+      <c r="B102" s="157" t="s">
         <v>11</v>
       </c>
       <c r="C102" s="7"/>
@@ -13551,7 +13595,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
-      <c r="B103" s="149"/>
+      <c r="B103" s="147"/>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
@@ -13563,7 +13607,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
-      <c r="B104" s="150"/>
+      <c r="B104" s="148"/>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
       <c r="E104" s="6"/>
@@ -13575,7 +13619,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
-      <c r="B105" s="151" t="s">
+      <c r="B105" s="156" t="s">
         <v>12</v>
       </c>
       <c r="C105" s="7"/>
@@ -13589,7 +13633,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
-      <c r="B106" s="152"/>
+      <c r="B106" s="149"/>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
@@ -13601,7 +13645,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
-      <c r="B107" s="153"/>
+      <c r="B107" s="150"/>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
       <c r="E107" s="6"/>
@@ -13614,7 +13658,7 @@
     </row>
     <row r="108" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
-      <c r="B108" s="173" t="s">
+      <c r="B108" s="167" t="s">
         <v>13</v>
       </c>
       <c r="C108" s="7"/>
@@ -13629,7 +13673,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
-      <c r="B109" s="174"/>
+      <c r="B109" s="151"/>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
@@ -13642,7 +13686,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
-      <c r="B110" s="175"/>
+      <c r="B110" s="152"/>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
       <c r="E110" s="6"/>
@@ -13709,7 +13753,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
-      <c r="B113" s="155" t="s">
+      <c r="B113" s="158" t="s">
         <v>8</v>
       </c>
       <c r="C113" s="5" t="s">
@@ -13726,7 +13770,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
-      <c r="B114" s="155"/>
+      <c r="B114" s="158"/>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
@@ -13739,7 +13783,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
-      <c r="B115" s="156"/>
+      <c r="B115" s="159"/>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
       <c r="E115" s="6"/>
@@ -13752,7 +13796,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
-      <c r="B116" s="158" t="s">
+      <c r="B116" s="154" t="s">
         <v>9</v>
       </c>
       <c r="C116" s="5" t="s">
@@ -13775,7 +13819,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
-      <c r="B117" s="158"/>
+      <c r="B117" s="154"/>
       <c r="C117" s="5"/>
       <c r="D117" s="5" t="s">
         <v>931</v>
@@ -13790,7 +13834,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
-      <c r="B118" s="159"/>
+      <c r="B118" s="155"/>
       <c r="C118" s="6"/>
       <c r="D118" s="6"/>
       <c r="E118" s="6"/>
@@ -13803,7 +13847,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
-      <c r="B119" s="146" t="s">
+      <c r="B119" s="145" t="s">
         <v>10</v>
       </c>
       <c r="C119" s="5"/>
@@ -13820,7 +13864,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
-      <c r="B120" s="146"/>
+      <c r="B120" s="145"/>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
@@ -13833,7 +13877,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
-      <c r="B121" s="147"/>
+      <c r="B121" s="146"/>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
       <c r="E121" s="6"/>
@@ -13846,7 +13890,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
-      <c r="B122" s="149" t="s">
+      <c r="B122" s="147" t="s">
         <v>11</v>
       </c>
       <c r="C122" s="5"/>
@@ -13861,7 +13905,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
-      <c r="B123" s="149"/>
+      <c r="B123" s="147"/>
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
@@ -13874,7 +13918,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
-      <c r="B124" s="150"/>
+      <c r="B124" s="148"/>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
       <c r="E124" s="6"/>
@@ -13887,7 +13931,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
-      <c r="B125" s="152" t="s">
+      <c r="B125" s="149" t="s">
         <v>12</v>
       </c>
       <c r="C125" s="5"/>
@@ -13902,7 +13946,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
-      <c r="B126" s="152"/>
+      <c r="B126" s="149"/>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
@@ -13915,7 +13959,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
-      <c r="B127" s="153"/>
+      <c r="B127" s="150"/>
       <c r="C127" s="6"/>
       <c r="D127" s="6"/>
       <c r="E127" s="6"/>
@@ -13927,7 +13971,7 @@
     </row>
     <row r="128" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
-      <c r="B128" s="174" t="s">
+      <c r="B128" s="151" t="s">
         <v>13</v>
       </c>
       <c r="C128" s="5"/>
@@ -13941,7 +13985,7 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
-      <c r="B129" s="174"/>
+      <c r="B129" s="151"/>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
@@ -13953,7 +13997,7 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="1"/>
-      <c r="B130" s="175"/>
+      <c r="B130" s="152"/>
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
       <c r="E130" s="6"/>
@@ -16491,15 +16535,21 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B119:B121"/>
-    <mergeCell ref="B122:B124"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="B116:B118"/>
-    <mergeCell ref="B105:B107"/>
-    <mergeCell ref="B102:B104"/>
-    <mergeCell ref="B113:B115"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="B91:B98"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="B67:B73"/>
+    <mergeCell ref="B35:B45"/>
+    <mergeCell ref="B46:B48"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="A5:XFD5"/>
     <mergeCell ref="B3:I3"/>
@@ -16516,21 +16566,15 @@
     <mergeCell ref="B83:B85"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B52:B54"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="B67:B73"/>
-    <mergeCell ref="B35:B45"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="B91:B98"/>
+    <mergeCell ref="B119:B121"/>
+    <mergeCell ref="B122:B124"/>
+    <mergeCell ref="B125:B127"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="B116:B118"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="B102:B104"/>
+    <mergeCell ref="B113:B115"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -16562,41 +16606,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="119.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="166"/>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="167"/>
-      <c r="G1" s="167"/>
-      <c r="H1" s="167"/>
-      <c r="I1" s="168"/>
+      <c r="B1" s="160"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="162"/>
     </row>
     <row r="2" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="176" t="s">
+      <c r="B2" s="171" t="s">
         <v>741</v>
       </c>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="189"/>
-      <c r="I2" s="190"/>
+      <c r="C2" s="191"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="192"/>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="66"/>
-      <c r="B3" s="170" t="s">
+      <c r="B3" s="164" t="s">
         <v>540</v>
       </c>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="171"/>
-      <c r="G3" s="171"/>
-      <c r="H3" s="171"/>
-      <c r="I3" s="172"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="166"/>
       <c r="J3" s="66"/>
     </row>
     <row r="4" spans="1:10" s="75" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -16605,24 +16649,24 @@
         <v>847</v>
       </c>
       <c r="C4" s="194"/>
-      <c r="D4" s="162" t="s">
+      <c r="D4" s="177" t="s">
         <v>544</v>
       </c>
-      <c r="E4" s="163"/>
-      <c r="F4" s="162" t="s">
+      <c r="E4" s="178"/>
+      <c r="F4" s="177" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="195"/>
-      <c r="H4" s="162" t="s">
+      <c r="H4" s="177" t="s">
         <v>529</v>
       </c>
-      <c r="I4" s="163"/>
+      <c r="I4" s="178"/>
       <c r="J4" s="73"/>
     </row>
-    <row r="5" spans="1:10" s="169" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:10" s="163" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="164"/>
+      <c r="B6" s="168"/>
       <c r="C6" s="54" t="s">
         <v>742</v>
       </c>
@@ -16648,7 +16692,7 @@
     </row>
     <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="165"/>
+      <c r="B7" s="169"/>
       <c r="C7" s="55" t="s">
         <v>1</v>
       </c>
@@ -16712,7 +16756,7 @@
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="179" t="s">
+      <c r="B11" s="189" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="11"/>
@@ -16726,7 +16770,7 @@
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="179"/>
+      <c r="B12" s="189"/>
       <c r="C12" s="11"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -16738,7 +16782,7 @@
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="180"/>
+      <c r="B13" s="190"/>
       <c r="C13" s="10"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -16864,7 +16908,7 @@
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="191" t="s">
+      <c r="B23" s="179" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="11"/>
@@ -16878,7 +16922,7 @@
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="191"/>
+      <c r="B24" s="179"/>
       <c r="C24" s="11"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -16890,7 +16934,7 @@
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
-      <c r="B25" s="192"/>
+      <c r="B25" s="180"/>
       <c r="C25" s="10"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -16992,7 +17036,7 @@
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
-      <c r="B31" s="179" t="s">
+      <c r="B31" s="189" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="11"/>
@@ -17012,7 +17056,7 @@
     </row>
     <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
-      <c r="B32" s="179"/>
+      <c r="B32" s="189"/>
       <c r="C32" s="11"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5" t="s">
@@ -17026,7 +17070,7 @@
     </row>
     <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
-      <c r="B33" s="180"/>
+      <c r="B33" s="190"/>
       <c r="C33" s="10"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6" t="s">
@@ -17156,7 +17200,7 @@
     </row>
     <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
-      <c r="B43" s="191" t="s">
+      <c r="B43" s="179" t="s">
         <v>13</v>
       </c>
       <c r="C43" s="11"/>
@@ -17170,7 +17214,7 @@
     </row>
     <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
-      <c r="B44" s="191"/>
+      <c r="B44" s="179"/>
       <c r="C44" s="11"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -17182,7 +17226,7 @@
     </row>
     <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
-      <c r="B45" s="192"/>
+      <c r="B45" s="180"/>
       <c r="C45" s="10"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
@@ -17284,7 +17328,7 @@
     </row>
     <row r="51" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
-      <c r="B51" s="179" t="s">
+      <c r="B51" s="189" t="s">
         <v>9</v>
       </c>
       <c r="C51" s="11"/>
@@ -17298,7 +17342,7 @@
     </row>
     <row r="52" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
-      <c r="B52" s="179"/>
+      <c r="B52" s="189"/>
       <c r="C52" s="11"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -17310,7 +17354,7 @@
     </row>
     <row r="53" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
-      <c r="B53" s="180"/>
+      <c r="B53" s="190"/>
       <c r="C53" s="10"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
@@ -17437,7 +17481,7 @@
     </row>
     <row r="63" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
-      <c r="B63" s="191" t="s">
+      <c r="B63" s="179" t="s">
         <v>13</v>
       </c>
       <c r="C63" s="11"/>
@@ -17451,7 +17495,7 @@
     </row>
     <row r="64" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
-      <c r="B64" s="191"/>
+      <c r="B64" s="179"/>
       <c r="C64" s="11"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -17466,7 +17510,7 @@
     </row>
     <row r="65" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
-      <c r="B65" s="192"/>
+      <c r="B65" s="180"/>
       <c r="C65" s="10"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
@@ -17586,7 +17630,7 @@
     </row>
     <row r="71" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
-      <c r="B71" s="179" t="s">
+      <c r="B71" s="189" t="s">
         <v>9</v>
       </c>
       <c r="C71" s="11"/>
@@ -17603,7 +17647,7 @@
     </row>
     <row r="72" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
-      <c r="B72" s="179"/>
+      <c r="B72" s="189"/>
       <c r="C72" s="11"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -17618,7 +17662,7 @@
     </row>
     <row r="73" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
-      <c r="B73" s="180"/>
+      <c r="B73" s="190"/>
       <c r="C73" s="10"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
@@ -17774,7 +17818,7 @@
     </row>
     <row r="83" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
-      <c r="B83" s="191" t="s">
+      <c r="B83" s="179" t="s">
         <v>13</v>
       </c>
       <c r="C83" s="11"/>
@@ -17791,7 +17835,7 @@
     </row>
     <row r="84" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
-      <c r="B84" s="191"/>
+      <c r="B84" s="179"/>
       <c r="C84" s="11"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -17806,7 +17850,7 @@
     </row>
     <row r="85" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
-      <c r="B85" s="192"/>
+      <c r="B85" s="180"/>
       <c r="C85" s="10"/>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
@@ -17914,7 +17958,7 @@
     </row>
     <row r="91" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
-      <c r="B91" s="179" t="s">
+      <c r="B91" s="189" t="s">
         <v>9</v>
       </c>
       <c r="C91" s="11"/>
@@ -17928,7 +17972,7 @@
     </row>
     <row r="92" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
-      <c r="B92" s="179"/>
+      <c r="B92" s="189"/>
       <c r="C92" s="11"/>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -17940,7 +17984,7 @@
     </row>
     <row r="93" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
-      <c r="B93" s="180"/>
+      <c r="B93" s="190"/>
       <c r="C93" s="10"/>
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
@@ -18066,7 +18110,7 @@
     </row>
     <row r="103" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
-      <c r="B103" s="191" t="s">
+      <c r="B103" s="179" t="s">
         <v>13</v>
       </c>
       <c r="C103" s="11"/>
@@ -18080,7 +18124,7 @@
     </row>
     <row r="104" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
-      <c r="B104" s="191"/>
+      <c r="B104" s="179"/>
       <c r="C104" s="11"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
@@ -18092,7 +18136,7 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
-      <c r="B105" s="192"/>
+      <c r="B105" s="180"/>
       <c r="C105" s="68"/>
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
@@ -22358,6 +22402,29 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B6:B7"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B103:B105"/>
     <mergeCell ref="A5:XFD5"/>
@@ -22374,29 +22441,6 @@
     <mergeCell ref="B54:B56"/>
     <mergeCell ref="B57:B59"/>
     <mergeCell ref="B60:B62"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B68:B70"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -22439,30 +22483,30 @@
     </row>
     <row r="2" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="176" t="s">
+      <c r="B2" s="171" t="s">
         <v>778</v>
       </c>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177"/>
-      <c r="I2" s="178"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="172"/>
+      <c r="I2" s="173"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="66"/>
-      <c r="B3" s="170" t="s">
+      <c r="B3" s="164" t="s">
         <v>540</v>
       </c>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="171"/>
-      <c r="G3" s="171"/>
-      <c r="H3" s="171"/>
-      <c r="I3" s="172"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="166"/>
       <c r="J3" s="66"/>
     </row>
     <row r="4" spans="1:10" s="76" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -22471,24 +22515,24 @@
         <v>849</v>
       </c>
       <c r="C4" s="194"/>
-      <c r="D4" s="162" t="s">
+      <c r="D4" s="177" t="s">
         <v>545</v>
       </c>
-      <c r="E4" s="163"/>
-      <c r="F4" s="162" t="s">
+      <c r="E4" s="178"/>
+      <c r="F4" s="177" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="195"/>
-      <c r="H4" s="162" t="s">
+      <c r="H4" s="177" t="s">
         <v>529</v>
       </c>
-      <c r="I4" s="163"/>
+      <c r="I4" s="178"/>
       <c r="J4" s="73"/>
     </row>
-    <row r="5" spans="1:10" s="169" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:10" s="163" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="164"/>
+      <c r="B6" s="168"/>
       <c r="C6" s="103" t="s">
         <v>779</v>
       </c>
@@ -22514,7 +22558,7 @@
     </row>
     <row r="7" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="165"/>
+      <c r="B7" s="169"/>
       <c r="C7" s="104" t="s">
         <v>780</v>
       </c>
@@ -22540,7 +22584,7 @@
     </row>
     <row r="8" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="155" t="s">
+      <c r="B8" s="158" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="5"/>
@@ -22554,7 +22598,7 @@
     </row>
     <row r="9" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="155"/>
+      <c r="B9" s="158"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -22566,7 +22610,7 @@
     </row>
     <row r="10" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="156"/>
+      <c r="B10" s="159"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -22578,7 +22622,7 @@
     </row>
     <row r="11" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="158" t="s">
+      <c r="B11" s="154" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="5"/>
@@ -22592,7 +22636,7 @@
     </row>
     <row r="12" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="158"/>
+      <c r="B12" s="154"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -22604,7 +22648,7 @@
     </row>
     <row r="13" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="159"/>
+      <c r="B13" s="155"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -22616,7 +22660,7 @@
     </row>
     <row r="14" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="146" t="s">
+      <c r="B14" s="145" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="5"/>
@@ -22630,7 +22674,7 @@
     </row>
     <row r="15" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="146"/>
+      <c r="B15" s="145"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -22642,7 +22686,7 @@
     </row>
     <row r="16" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="147"/>
+      <c r="B16" s="146"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -22654,7 +22698,7 @@
     </row>
     <row r="17" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="149" t="s">
+      <c r="B17" s="147" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="5"/>
@@ -22668,7 +22712,7 @@
     </row>
     <row r="18" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="149"/>
+      <c r="B18" s="147"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -22680,7 +22724,7 @@
     </row>
     <row r="19" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="150"/>
+      <c r="B19" s="148"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -22692,7 +22736,7 @@
     </row>
     <row r="20" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="152" t="s">
+      <c r="B20" s="149" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="5"/>
@@ -22706,7 +22750,7 @@
     </row>
     <row r="21" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="152"/>
+      <c r="B21" s="149"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -22718,7 +22762,7 @@
     </row>
     <row r="22" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="153"/>
+      <c r="B22" s="150"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -22730,7 +22774,7 @@
     </row>
     <row r="23" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="174" t="s">
+      <c r="B23" s="151" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="5"/>
@@ -22744,7 +22788,7 @@
     </row>
     <row r="24" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="174"/>
+      <c r="B24" s="151"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -22756,7 +22800,7 @@
     </row>
     <row r="25" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
-      <c r="B25" s="175"/>
+      <c r="B25" s="152"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -22820,7 +22864,7 @@
     </row>
     <row r="28" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
-      <c r="B28" s="155" t="s">
+      <c r="B28" s="158" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="5"/>
@@ -22835,7 +22879,7 @@
     </row>
     <row r="29" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
-      <c r="B29" s="155"/>
+      <c r="B29" s="158"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -22847,7 +22891,7 @@
     </row>
     <row r="30" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="B30" s="156"/>
+      <c r="B30" s="159"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -22859,7 +22903,7 @@
     </row>
     <row r="31" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
-      <c r="B31" s="158" t="s">
+      <c r="B31" s="154" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="5"/>
@@ -22873,7 +22917,7 @@
     </row>
     <row r="32" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
-      <c r="B32" s="158"/>
+      <c r="B32" s="154"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -22885,7 +22929,7 @@
     </row>
     <row r="33" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
-      <c r="B33" s="159"/>
+      <c r="B33" s="155"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -22897,7 +22941,7 @@
     </row>
     <row r="34" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
-      <c r="B34" s="146" t="s">
+      <c r="B34" s="145" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="5"/>
@@ -22911,7 +22955,7 @@
     </row>
     <row r="35" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
-      <c r="B35" s="146"/>
+      <c r="B35" s="145"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -22923,7 +22967,7 @@
     </row>
     <row r="36" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
-      <c r="B36" s="147"/>
+      <c r="B36" s="146"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -22935,7 +22979,7 @@
     </row>
     <row r="37" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
-      <c r="B37" s="149" t="s">
+      <c r="B37" s="147" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="5"/>
@@ -22949,7 +22993,7 @@
     </row>
     <row r="38" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
-      <c r="B38" s="149"/>
+      <c r="B38" s="147"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -22961,7 +23005,7 @@
     </row>
     <row r="39" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
-      <c r="B39" s="150"/>
+      <c r="B39" s="148"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -22973,7 +23017,7 @@
     </row>
     <row r="40" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
-      <c r="B40" s="152" t="s">
+      <c r="B40" s="149" t="s">
         <v>12</v>
       </c>
       <c r="C40" s="5"/>
@@ -22987,7 +23031,7 @@
     </row>
     <row r="41" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
-      <c r="B41" s="152"/>
+      <c r="B41" s="149"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -22999,7 +23043,7 @@
     </row>
     <row r="42" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
-      <c r="B42" s="153"/>
+      <c r="B42" s="150"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -23011,7 +23055,7 @@
     </row>
     <row r="43" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
-      <c r="B43" s="174" t="s">
+      <c r="B43" s="151" t="s">
         <v>13</v>
       </c>
       <c r="C43" s="5"/>
@@ -23025,7 +23069,7 @@
     </row>
     <row r="44" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
-      <c r="B44" s="174"/>
+      <c r="B44" s="151"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -23037,7 +23081,7 @@
     </row>
     <row r="45" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
-      <c r="B45" s="175"/>
+      <c r="B45" s="152"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
@@ -23101,7 +23145,7 @@
     </row>
     <row r="48" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
-      <c r="B48" s="155" t="s">
+      <c r="B48" s="158" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="5"/>
@@ -23115,7 +23159,7 @@
     </row>
     <row r="49" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
-      <c r="B49" s="155"/>
+      <c r="B49" s="158"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -23127,7 +23171,7 @@
     </row>
     <row r="50" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
-      <c r="B50" s="156"/>
+      <c r="B50" s="159"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
@@ -23139,7 +23183,7 @@
     </row>
     <row r="51" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
-      <c r="B51" s="158" t="s">
+      <c r="B51" s="154" t="s">
         <v>9</v>
       </c>
       <c r="C51" s="5"/>
@@ -23153,7 +23197,7 @@
     </row>
     <row r="52" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
-      <c r="B52" s="158"/>
+      <c r="B52" s="154"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -23165,7 +23209,7 @@
     </row>
     <row r="53" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
-      <c r="B53" s="159"/>
+      <c r="B53" s="155"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
@@ -23177,7 +23221,7 @@
     </row>
     <row r="54" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
-      <c r="B54" s="146" t="s">
+      <c r="B54" s="145" t="s">
         <v>10</v>
       </c>
       <c r="C54" s="5"/>
@@ -23191,7 +23235,7 @@
     </row>
     <row r="55" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
-      <c r="B55" s="146"/>
+      <c r="B55" s="145"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -23203,7 +23247,7 @@
     </row>
     <row r="56" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
-      <c r="B56" s="147"/>
+      <c r="B56" s="146"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
@@ -23215,7 +23259,7 @@
     </row>
     <row r="57" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
-      <c r="B57" s="149" t="s">
+      <c r="B57" s="147" t="s">
         <v>11</v>
       </c>
       <c r="C57" s="5"/>
@@ -23229,7 +23273,7 @@
     </row>
     <row r="58" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
-      <c r="B58" s="149"/>
+      <c r="B58" s="147"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -23241,7 +23285,7 @@
     </row>
     <row r="59" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
-      <c r="B59" s="150"/>
+      <c r="B59" s="148"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
@@ -23253,7 +23297,7 @@
     </row>
     <row r="60" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
-      <c r="B60" s="152" t="s">
+      <c r="B60" s="149" t="s">
         <v>12</v>
       </c>
       <c r="C60" s="5"/>
@@ -23267,7 +23311,7 @@
     </row>
     <row r="61" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
-      <c r="B61" s="152"/>
+      <c r="B61" s="149"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -23279,7 +23323,7 @@
     </row>
     <row r="62" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
-      <c r="B62" s="153"/>
+      <c r="B62" s="150"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
@@ -23291,7 +23335,7 @@
     </row>
     <row r="63" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
-      <c r="B63" s="174" t="s">
+      <c r="B63" s="151" t="s">
         <v>13</v>
       </c>
       <c r="C63" s="5"/>
@@ -23305,7 +23349,7 @@
     </row>
     <row r="64" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
-      <c r="B64" s="174"/>
+      <c r="B64" s="151"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -23317,7 +23361,7 @@
     </row>
     <row r="65" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
-      <c r="B65" s="175"/>
+      <c r="B65" s="152"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
@@ -23384,7 +23428,7 @@
     </row>
     <row r="68" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
-      <c r="B68" s="155" t="s">
+      <c r="B68" s="158" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="5"/>
@@ -23399,7 +23443,7 @@
     </row>
     <row r="69" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
-      <c r="B69" s="155"/>
+      <c r="B69" s="158"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -23412,7 +23456,7 @@
     </row>
     <row r="70" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
-      <c r="B70" s="156"/>
+      <c r="B70" s="159"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
@@ -23425,7 +23469,7 @@
     </row>
     <row r="71" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
-      <c r="B71" s="158" t="s">
+      <c r="B71" s="154" t="s">
         <v>9</v>
       </c>
       <c r="C71" s="5"/>
@@ -23440,7 +23484,7 @@
     </row>
     <row r="72" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
-      <c r="B72" s="158"/>
+      <c r="B72" s="154"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -23453,7 +23497,7 @@
     </row>
     <row r="73" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
-      <c r="B73" s="159"/>
+      <c r="B73" s="155"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
@@ -23466,7 +23510,7 @@
     </row>
     <row r="74" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
-      <c r="B74" s="146" t="s">
+      <c r="B74" s="145" t="s">
         <v>10</v>
       </c>
       <c r="C74" s="5"/>
@@ -23481,7 +23525,7 @@
     </row>
     <row r="75" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
-      <c r="B75" s="146"/>
+      <c r="B75" s="145"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -23493,7 +23537,7 @@
     </row>
     <row r="76" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
-      <c r="B76" s="147"/>
+      <c r="B76" s="146"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
@@ -23505,7 +23549,7 @@
     </row>
     <row r="77" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
-      <c r="B77" s="149" t="s">
+      <c r="B77" s="147" t="s">
         <v>11</v>
       </c>
       <c r="C77" s="5"/>
@@ -23519,7 +23563,7 @@
     </row>
     <row r="78" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
-      <c r="B78" s="149"/>
+      <c r="B78" s="147"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -23531,7 +23575,7 @@
     </row>
     <row r="79" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
-      <c r="B79" s="150"/>
+      <c r="B79" s="148"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
@@ -23543,7 +23587,7 @@
     </row>
     <row r="80" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
-      <c r="B80" s="152" t="s">
+      <c r="B80" s="149" t="s">
         <v>12</v>
       </c>
       <c r="C80" s="5"/>
@@ -23557,7 +23601,7 @@
     </row>
     <row r="81" spans="1:16" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
-      <c r="B81" s="152"/>
+      <c r="B81" s="149"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -23569,7 +23613,7 @@
     </row>
     <row r="82" spans="1:16" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
-      <c r="B82" s="153"/>
+      <c r="B82" s="150"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
@@ -23581,7 +23625,7 @@
     </row>
     <row r="83" spans="1:16" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
-      <c r="B83" s="174" t="s">
+      <c r="B83" s="151" t="s">
         <v>13</v>
       </c>
       <c r="C83" s="5"/>
@@ -23595,7 +23639,7 @@
     </row>
     <row r="84" spans="1:16" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
-      <c r="B84" s="174"/>
+      <c r="B84" s="151"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -23607,7 +23651,7 @@
     </row>
     <row r="85" spans="1:16" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
-      <c r="B85" s="175"/>
+      <c r="B85" s="152"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
@@ -25790,11 +25834,18 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B68:B70"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="A5:XFD5"/>
@@ -25811,18 +25862,11 @@
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B60:B62"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -25840,8 +25884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -25908,23 +25952,23 @@
     </row>
     <row r="4" spans="1:13" s="98" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="97"/>
-      <c r="B4" s="162" t="s">
+      <c r="B4" s="177" t="s">
         <v>647</v>
       </c>
       <c r="C4" s="195"/>
-      <c r="D4" s="163"/>
-      <c r="E4" s="162" t="s">
+      <c r="D4" s="178"/>
+      <c r="E4" s="177" t="s">
         <v>648</v>
       </c>
       <c r="F4" s="195"/>
-      <c r="G4" s="163"/>
-      <c r="H4" s="162" t="s">
+      <c r="G4" s="178"/>
+      <c r="H4" s="177" t="s">
         <v>649</v>
       </c>
       <c r="I4" s="195"/>
       <c r="J4" s="195"/>
       <c r="K4" s="195"/>
-      <c r="L4" s="163"/>
+      <c r="L4" s="178"/>
       <c r="M4" s="97"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -26350,7 +26394,9 @@
       <c r="E22" s="28" t="s">
         <v>965</v>
       </c>
-      <c r="F22" s="28"/>
+      <c r="F22" s="28" t="s">
+        <v>1021</v>
+      </c>
       <c r="G22" s="28"/>
       <c r="H22" s="28"/>
       <c r="I22" s="28"/>
@@ -26641,7 +26687,9 @@
       <c r="D36" s="28" t="s">
         <v>983</v>
       </c>
-      <c r="E36" s="28"/>
+      <c r="E36" s="28" t="s">
+        <v>1011</v>
+      </c>
       <c r="F36" s="28"/>
       <c r="G36" s="28"/>
       <c r="H36" s="28"/>
@@ -26712,9 +26760,15 @@
       <c r="L39" s="28"/>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B40" s="129"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="28"/>
+      <c r="B40" s="129" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>1014</v>
+      </c>
       <c r="E40" s="28"/>
       <c r="F40" s="28"/>
       <c r="G40" s="28"/>
@@ -26725,9 +26779,15 @@
       <c r="L40" s="28"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B41" s="129"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="28"/>
+      <c r="B41" s="129" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>1017</v>
+      </c>
       <c r="E41" s="28"/>
       <c r="F41" s="28"/>
       <c r="G41" s="28"/>
@@ -26738,9 +26798,15 @@
       <c r="L41" s="28"/>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B42" s="129"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="28"/>
+      <c r="B42" s="129" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>1020</v>
+      </c>
       <c r="E42" s="28"/>
       <c r="F42" s="28"/>
       <c r="G42" s="28"/>
@@ -26831,30 +26897,30 @@
     </row>
     <row r="2" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="176" t="s">
+      <c r="B2" s="171" t="s">
         <v>837</v>
       </c>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177"/>
-      <c r="I2" s="178"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="172"/>
+      <c r="I2" s="173"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="66"/>
-      <c r="B3" s="170" t="s">
+      <c r="B3" s="164" t="s">
         <v>540</v>
       </c>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="171"/>
-      <c r="G3" s="171"/>
-      <c r="H3" s="171"/>
-      <c r="I3" s="172"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="166"/>
       <c r="J3" s="66"/>
     </row>
     <row r="4" spans="1:10" s="74" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -26863,24 +26929,24 @@
         <v>848</v>
       </c>
       <c r="C4" s="194"/>
-      <c r="D4" s="162" t="s">
+      <c r="D4" s="177" t="s">
         <v>704</v>
       </c>
-      <c r="E4" s="163"/>
-      <c r="F4" s="162" t="s">
+      <c r="E4" s="178"/>
+      <c r="F4" s="177" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="195"/>
-      <c r="H4" s="162" t="s">
+      <c r="H4" s="177" t="s">
         <v>543</v>
       </c>
-      <c r="I4" s="163"/>
+      <c r="I4" s="178"/>
       <c r="J4" s="15"/>
     </row>
-    <row r="5" spans="1:10" s="169" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:10" s="163" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="164"/>
+      <c r="B6" s="168"/>
       <c r="C6" s="54" t="s">
         <v>809</v>
       </c>
@@ -26906,7 +26972,7 @@
     </row>
     <row r="7" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="165"/>
+      <c r="B7" s="169"/>
       <c r="C7" s="55" t="s">
         <v>1</v>
       </c>
@@ -26932,7 +26998,7 @@
     </row>
     <row r="8" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="155" t="s">
+      <c r="B8" s="158" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="5"/>
@@ -26946,7 +27012,7 @@
     </row>
     <row r="9" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="155"/>
+      <c r="B9" s="158"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -26958,7 +27024,7 @@
     </row>
     <row r="10" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="156"/>
+      <c r="B10" s="159"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -26970,7 +27036,7 @@
     </row>
     <row r="11" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="158" t="s">
+      <c r="B11" s="154" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="5"/>
@@ -26984,7 +27050,7 @@
     </row>
     <row r="12" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="158"/>
+      <c r="B12" s="154"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -26996,7 +27062,7 @@
     </row>
     <row r="13" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="159"/>
+      <c r="B13" s="155"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -27008,7 +27074,7 @@
     </row>
     <row r="14" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="146" t="s">
+      <c r="B14" s="145" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="5"/>
@@ -27022,7 +27088,7 @@
     </row>
     <row r="15" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="146"/>
+      <c r="B15" s="145"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -27034,7 +27100,7 @@
     </row>
     <row r="16" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="147"/>
+      <c r="B16" s="146"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -27046,7 +27112,7 @@
     </row>
     <row r="17" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="149" t="s">
+      <c r="B17" s="147" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="5"/>
@@ -27060,7 +27126,7 @@
     </row>
     <row r="18" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="149"/>
+      <c r="B18" s="147"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -27072,7 +27138,7 @@
     </row>
     <row r="19" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="150"/>
+      <c r="B19" s="148"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -27084,7 +27150,7 @@
     </row>
     <row r="20" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="152" t="s">
+      <c r="B20" s="149" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="5"/>
@@ -27098,7 +27164,7 @@
     </row>
     <row r="21" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="152"/>
+      <c r="B21" s="149"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -27110,7 +27176,7 @@
     </row>
     <row r="22" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="153"/>
+      <c r="B22" s="150"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -27122,7 +27188,7 @@
     </row>
     <row r="23" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="174" t="s">
+      <c r="B23" s="151" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="5"/>
@@ -27136,7 +27202,7 @@
     </row>
     <row r="24" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="174"/>
+      <c r="B24" s="151"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -27148,7 +27214,7 @@
     </row>
     <row r="25" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
-      <c r="B25" s="175"/>
+      <c r="B25" s="152"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -27212,7 +27278,7 @@
     </row>
     <row r="28" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
-      <c r="B28" s="155" t="s">
+      <c r="B28" s="158" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="5"/>
@@ -27226,7 +27292,7 @@
     </row>
     <row r="29" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
-      <c r="B29" s="155"/>
+      <c r="B29" s="158"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -27238,7 +27304,7 @@
     </row>
     <row r="30" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="B30" s="156"/>
+      <c r="B30" s="159"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -27250,7 +27316,7 @@
     </row>
     <row r="31" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
-      <c r="B31" s="158" t="s">
+      <c r="B31" s="154" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="5"/>
@@ -27264,7 +27330,7 @@
     </row>
     <row r="32" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
-      <c r="B32" s="158"/>
+      <c r="B32" s="154"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -27276,7 +27342,7 @@
     </row>
     <row r="33" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
-      <c r="B33" s="159"/>
+      <c r="B33" s="155"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -27288,7 +27354,7 @@
     </row>
     <row r="34" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
-      <c r="B34" s="146" t="s">
+      <c r="B34" s="145" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="5"/>
@@ -27302,7 +27368,7 @@
     </row>
     <row r="35" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
-      <c r="B35" s="146"/>
+      <c r="B35" s="145"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -27314,7 +27380,7 @@
     </row>
     <row r="36" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
-      <c r="B36" s="147"/>
+      <c r="B36" s="146"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -27326,7 +27392,7 @@
     </row>
     <row r="37" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
-      <c r="B37" s="149" t="s">
+      <c r="B37" s="147" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="5"/>
@@ -27340,7 +27406,7 @@
     </row>
     <row r="38" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
-      <c r="B38" s="149"/>
+      <c r="B38" s="147"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -27352,7 +27418,7 @@
     </row>
     <row r="39" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
-      <c r="B39" s="150"/>
+      <c r="B39" s="148"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -27364,7 +27430,7 @@
     </row>
     <row r="40" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
-      <c r="B40" s="152" t="s">
+      <c r="B40" s="149" t="s">
         <v>12</v>
       </c>
       <c r="C40" s="5"/>
@@ -27378,7 +27444,7 @@
     </row>
     <row r="41" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
-      <c r="B41" s="152"/>
+      <c r="B41" s="149"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -27390,7 +27456,7 @@
     </row>
     <row r="42" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
-      <c r="B42" s="153"/>
+      <c r="B42" s="150"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -27402,7 +27468,7 @@
     </row>
     <row r="43" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
-      <c r="B43" s="174" t="s">
+      <c r="B43" s="151" t="s">
         <v>13</v>
       </c>
       <c r="C43" s="5"/>
@@ -27416,7 +27482,7 @@
     </row>
     <row r="44" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
-      <c r="B44" s="174"/>
+      <c r="B44" s="151"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -27428,7 +27494,7 @@
     </row>
     <row r="45" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
-      <c r="B45" s="175"/>
+      <c r="B45" s="152"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
@@ -27492,7 +27558,7 @@
     </row>
     <row r="48" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
-      <c r="B48" s="155" t="s">
+      <c r="B48" s="158" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="5"/>
@@ -27506,7 +27572,7 @@
     </row>
     <row r="49" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
-      <c r="B49" s="155"/>
+      <c r="B49" s="158"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -27518,7 +27584,7 @@
     </row>
     <row r="50" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
-      <c r="B50" s="156"/>
+      <c r="B50" s="159"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
@@ -27530,7 +27596,7 @@
     </row>
     <row r="51" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
-      <c r="B51" s="158" t="s">
+      <c r="B51" s="154" t="s">
         <v>9</v>
       </c>
       <c r="C51" s="5"/>
@@ -27544,7 +27610,7 @@
     </row>
     <row r="52" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
-      <c r="B52" s="158"/>
+      <c r="B52" s="154"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -27556,7 +27622,7 @@
     </row>
     <row r="53" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
-      <c r="B53" s="159"/>
+      <c r="B53" s="155"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
@@ -27568,7 +27634,7 @@
     </row>
     <row r="54" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
-      <c r="B54" s="146" t="s">
+      <c r="B54" s="145" t="s">
         <v>10</v>
       </c>
       <c r="C54" s="5"/>
@@ -27582,7 +27648,7 @@
     </row>
     <row r="55" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
-      <c r="B55" s="146"/>
+      <c r="B55" s="145"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -27594,7 +27660,7 @@
     </row>
     <row r="56" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
-      <c r="B56" s="147"/>
+      <c r="B56" s="146"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
@@ -27606,7 +27672,7 @@
     </row>
     <row r="57" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
-      <c r="B57" s="149" t="s">
+      <c r="B57" s="147" t="s">
         <v>11</v>
       </c>
       <c r="C57" s="5"/>
@@ -27620,7 +27686,7 @@
     </row>
     <row r="58" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
-      <c r="B58" s="149"/>
+      <c r="B58" s="147"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -27632,7 +27698,7 @@
     </row>
     <row r="59" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
-      <c r="B59" s="150"/>
+      <c r="B59" s="148"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
@@ -27644,7 +27710,7 @@
     </row>
     <row r="60" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
-      <c r="B60" s="152" t="s">
+      <c r="B60" s="149" t="s">
         <v>12</v>
       </c>
       <c r="C60" s="5"/>
@@ -27658,7 +27724,7 @@
     </row>
     <row r="61" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
-      <c r="B61" s="152"/>
+      <c r="B61" s="149"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -27671,7 +27737,7 @@
     </row>
     <row r="62" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
-      <c r="B62" s="153"/>
+      <c r="B62" s="150"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
@@ -27684,7 +27750,7 @@
     </row>
     <row r="63" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
-      <c r="B63" s="174" t="s">
+      <c r="B63" s="151" t="s">
         <v>13</v>
       </c>
       <c r="C63" s="5"/>
@@ -27699,7 +27765,7 @@
     </row>
     <row r="64" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
-      <c r="B64" s="174"/>
+      <c r="B64" s="151"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -27712,7 +27778,7 @@
     </row>
     <row r="65" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
-      <c r="B65" s="175"/>
+      <c r="B65" s="152"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
@@ -27779,7 +27845,7 @@
     </row>
     <row r="68" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
-      <c r="B68" s="155" t="s">
+      <c r="B68" s="158" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="5"/>
@@ -27794,7 +27860,7 @@
     </row>
     <row r="69" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
-      <c r="B69" s="155"/>
+      <c r="B69" s="158"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -27807,7 +27873,7 @@
     </row>
     <row r="70" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
-      <c r="B70" s="156"/>
+      <c r="B70" s="159"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
@@ -27820,7 +27886,7 @@
     </row>
     <row r="71" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
-      <c r="B71" s="158" t="s">
+      <c r="B71" s="154" t="s">
         <v>9</v>
       </c>
       <c r="C71" s="5"/>
@@ -27835,7 +27901,7 @@
     </row>
     <row r="72" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
-      <c r="B72" s="158"/>
+      <c r="B72" s="154"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -27848,7 +27914,7 @@
     </row>
     <row r="73" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
-      <c r="B73" s="159"/>
+      <c r="B73" s="155"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
@@ -27861,7 +27927,7 @@
     </row>
     <row r="74" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
-      <c r="B74" s="146" t="s">
+      <c r="B74" s="145" t="s">
         <v>10</v>
       </c>
       <c r="C74" s="5"/>
@@ -27876,7 +27942,7 @@
     </row>
     <row r="75" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
-      <c r="B75" s="146"/>
+      <c r="B75" s="145"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -27889,7 +27955,7 @@
     </row>
     <row r="76" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
-      <c r="B76" s="147"/>
+      <c r="B76" s="146"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
@@ -27901,7 +27967,7 @@
     </row>
     <row r="77" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
-      <c r="B77" s="149" t="s">
+      <c r="B77" s="147" t="s">
         <v>11</v>
       </c>
       <c r="C77" s="5"/>
@@ -27915,7 +27981,7 @@
     </row>
     <row r="78" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
-      <c r="B78" s="149"/>
+      <c r="B78" s="147"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -27927,7 +27993,7 @@
     </row>
     <row r="79" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
-      <c r="B79" s="150"/>
+      <c r="B79" s="148"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
@@ -27939,7 +28005,7 @@
     </row>
     <row r="80" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
-      <c r="B80" s="152" t="s">
+      <c r="B80" s="149" t="s">
         <v>12</v>
       </c>
       <c r="C80" s="5"/>
@@ -27953,7 +28019,7 @@
     </row>
     <row r="81" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
-      <c r="B81" s="152"/>
+      <c r="B81" s="149"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -27965,7 +28031,7 @@
     </row>
     <row r="82" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
-      <c r="B82" s="153"/>
+      <c r="B82" s="150"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
@@ -27977,7 +28043,7 @@
     </row>
     <row r="83" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
-      <c r="B83" s="173" t="s">
+      <c r="B83" s="167" t="s">
         <v>13</v>
       </c>
       <c r="C83" s="7"/>
@@ -27991,7 +28057,7 @@
     </row>
     <row r="84" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
-      <c r="B84" s="174"/>
+      <c r="B84" s="151"/>
       <c r="C84" s="62"/>
       <c r="D84" s="62"/>
       <c r="E84" s="62"/>
@@ -28003,7 +28069,7 @@
     </row>
     <row r="85" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
-      <c r="B85" s="175"/>
+      <c r="B85" s="152"/>
       <c r="C85" s="106"/>
       <c r="D85" s="106"/>
       <c r="E85" s="106"/>
@@ -30524,15 +30590,14 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B71:B73"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="B40:B42"/>
@@ -30549,14 +30614,15 @@
     <mergeCell ref="B43:B45"/>
     <mergeCell ref="B48:B50"/>
     <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -30614,29 +30680,29 @@
     </row>
     <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="66"/>
-      <c r="B3" s="170" t="s">
+      <c r="B3" s="164" t="s">
         <v>540</v>
       </c>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="171"/>
-      <c r="G3" s="171"/>
-      <c r="H3" s="171"/>
-      <c r="I3" s="172"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="166"/>
       <c r="J3" s="66"/>
     </row>
     <row r="4" spans="1:10" s="74" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="73"/>
-      <c r="B4" s="160" t="s">
+      <c r="B4" s="175" t="s">
         <v>698</v>
       </c>
-      <c r="C4" s="161"/>
-      <c r="D4" s="162" t="s">
+      <c r="C4" s="176"/>
+      <c r="D4" s="177" t="s">
         <v>704</v>
       </c>
-      <c r="E4" s="163"/>
-      <c r="F4" s="162" t="s">
+      <c r="E4" s="178"/>
+      <c r="F4" s="177" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="195"/>
@@ -30646,10 +30712,10 @@
       <c r="I4" s="194"/>
       <c r="J4" s="15"/>
     </row>
-    <row r="5" spans="1:10" s="169" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:10" s="163" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="164"/>
+      <c r="B6" s="168"/>
       <c r="C6" s="54" t="s">
         <v>838</v>
       </c>
@@ -30675,7 +30741,7 @@
     </row>
     <row r="7" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="165"/>
+      <c r="B7" s="169"/>
       <c r="C7" s="55" t="s">
         <v>1</v>
       </c>
@@ -30701,7 +30767,7 @@
     </row>
     <row r="8" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="155" t="s">
+      <c r="B8" s="158" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="5"/>
@@ -30715,7 +30781,7 @@
     </row>
     <row r="9" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="155"/>
+      <c r="B9" s="158"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -30727,7 +30793,7 @@
     </row>
     <row r="10" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="156"/>
+      <c r="B10" s="159"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -30739,7 +30805,7 @@
     </row>
     <row r="11" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="158" t="s">
+      <c r="B11" s="154" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="5"/>
@@ -30753,7 +30819,7 @@
     </row>
     <row r="12" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="158"/>
+      <c r="B12" s="154"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -30765,7 +30831,7 @@
     </row>
     <row r="13" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="159"/>
+      <c r="B13" s="155"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -30777,7 +30843,7 @@
     </row>
     <row r="14" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="146" t="s">
+      <c r="B14" s="145" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="5"/>
@@ -30791,7 +30857,7 @@
     </row>
     <row r="15" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="146"/>
+      <c r="B15" s="145"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -30803,7 +30869,7 @@
     </row>
     <row r="16" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="147"/>
+      <c r="B16" s="146"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -30815,7 +30881,7 @@
     </row>
     <row r="17" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="149" t="s">
+      <c r="B17" s="147" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="5"/>
@@ -30829,7 +30895,7 @@
     </row>
     <row r="18" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="149"/>
+      <c r="B18" s="147"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -30841,7 +30907,7 @@
     </row>
     <row r="19" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="150"/>
+      <c r="B19" s="148"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -30853,7 +30919,7 @@
     </row>
     <row r="20" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="152" t="s">
+      <c r="B20" s="149" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="5"/>
@@ -30867,7 +30933,7 @@
     </row>
     <row r="21" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="152"/>
+      <c r="B21" s="149"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -30879,7 +30945,7 @@
     </row>
     <row r="22" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="153"/>
+      <c r="B22" s="150"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -30891,7 +30957,7 @@
     </row>
     <row r="23" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="174" t="s">
+      <c r="B23" s="151" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="5"/>
@@ -30905,7 +30971,7 @@
     </row>
     <row r="24" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="174"/>
+      <c r="B24" s="151"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -30917,7 +30983,7 @@
     </row>
     <row r="25" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
-      <c r="B25" s="175"/>
+      <c r="B25" s="152"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -30981,7 +31047,7 @@
     </row>
     <row r="28" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
-      <c r="B28" s="155" t="s">
+      <c r="B28" s="158" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="5"/>
@@ -30995,7 +31061,7 @@
     </row>
     <row r="29" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
-      <c r="B29" s="155"/>
+      <c r="B29" s="158"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -31007,7 +31073,7 @@
     </row>
     <row r="30" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="B30" s="156"/>
+      <c r="B30" s="159"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -31019,7 +31085,7 @@
     </row>
     <row r="31" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
-      <c r="B31" s="158" t="s">
+      <c r="B31" s="154" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="5"/>
@@ -31033,7 +31099,7 @@
     </row>
     <row r="32" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
-      <c r="B32" s="158"/>
+      <c r="B32" s="154"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -31045,7 +31111,7 @@
     </row>
     <row r="33" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
-      <c r="B33" s="159"/>
+      <c r="B33" s="155"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -31057,7 +31123,7 @@
     </row>
     <row r="34" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
-      <c r="B34" s="146" t="s">
+      <c r="B34" s="145" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="5"/>
@@ -31072,7 +31138,7 @@
     </row>
     <row r="35" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
-      <c r="B35" s="146"/>
+      <c r="B35" s="145"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -31085,7 +31151,7 @@
     </row>
     <row r="36" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
-      <c r="B36" s="147"/>
+      <c r="B36" s="146"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -31097,7 +31163,7 @@
     </row>
     <row r="37" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
-      <c r="B37" s="149" t="s">
+      <c r="B37" s="147" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="5"/>
@@ -31111,7 +31177,7 @@
     </row>
     <row r="38" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
-      <c r="B38" s="149"/>
+      <c r="B38" s="147"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -31123,7 +31189,7 @@
     </row>
     <row r="39" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
-      <c r="B39" s="150"/>
+      <c r="B39" s="148"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -31135,7 +31201,7 @@
     </row>
     <row r="40" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
-      <c r="B40" s="152" t="s">
+      <c r="B40" s="149" t="s">
         <v>12</v>
       </c>
       <c r="C40" s="5"/>
@@ -31149,7 +31215,7 @@
     </row>
     <row r="41" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
-      <c r="B41" s="152"/>
+      <c r="B41" s="149"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -31161,7 +31227,7 @@
     </row>
     <row r="42" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
-      <c r="B42" s="153"/>
+      <c r="B42" s="150"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -31173,7 +31239,7 @@
     </row>
     <row r="43" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
-      <c r="B43" s="174" t="s">
+      <c r="B43" s="151" t="s">
         <v>13</v>
       </c>
       <c r="C43" s="5"/>
@@ -31187,7 +31253,7 @@
     </row>
     <row r="44" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
-      <c r="B44" s="174"/>
+      <c r="B44" s="151"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -31199,7 +31265,7 @@
     </row>
     <row r="45" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
-      <c r="B45" s="175"/>
+      <c r="B45" s="152"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
@@ -31263,7 +31329,7 @@
     </row>
     <row r="48" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
-      <c r="B48" s="155" t="s">
+      <c r="B48" s="158" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="5"/>
@@ -31277,7 +31343,7 @@
     </row>
     <row r="49" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
-      <c r="B49" s="155"/>
+      <c r="B49" s="158"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -31289,7 +31355,7 @@
     </row>
     <row r="50" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
-      <c r="B50" s="156"/>
+      <c r="B50" s="159"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
@@ -31301,7 +31367,7 @@
     </row>
     <row r="51" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
-      <c r="B51" s="158" t="s">
+      <c r="B51" s="154" t="s">
         <v>9</v>
       </c>
       <c r="C51" s="5"/>
@@ -31315,7 +31381,7 @@
     </row>
     <row r="52" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
-      <c r="B52" s="158"/>
+      <c r="B52" s="154"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -31327,7 +31393,7 @@
     </row>
     <row r="53" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
-      <c r="B53" s="159"/>
+      <c r="B53" s="155"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
@@ -31339,7 +31405,7 @@
     </row>
     <row r="54" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
-      <c r="B54" s="146" t="s">
+      <c r="B54" s="145" t="s">
         <v>10</v>
       </c>
       <c r="C54" s="5"/>
@@ -31353,7 +31419,7 @@
     </row>
     <row r="55" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
-      <c r="B55" s="146"/>
+      <c r="B55" s="145"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -31365,7 +31431,7 @@
     </row>
     <row r="56" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
-      <c r="B56" s="147"/>
+      <c r="B56" s="146"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
@@ -31377,7 +31443,7 @@
     </row>
     <row r="57" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
-      <c r="B57" s="149" t="s">
+      <c r="B57" s="147" t="s">
         <v>11</v>
       </c>
       <c r="C57" s="5"/>
@@ -31391,7 +31457,7 @@
     </row>
     <row r="58" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
-      <c r="B58" s="149"/>
+      <c r="B58" s="147"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -31403,7 +31469,7 @@
     </row>
     <row r="59" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
-      <c r="B59" s="150"/>
+      <c r="B59" s="148"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
@@ -31415,7 +31481,7 @@
     </row>
     <row r="60" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
-      <c r="B60" s="152" t="s">
+      <c r="B60" s="149" t="s">
         <v>12</v>
       </c>
       <c r="C60" s="5"/>
@@ -31429,7 +31495,7 @@
     </row>
     <row r="61" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
-      <c r="B61" s="152"/>
+      <c r="B61" s="149"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -31441,7 +31507,7 @@
     </row>
     <row r="62" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
-      <c r="B62" s="153"/>
+      <c r="B62" s="150"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
@@ -31453,7 +31519,7 @@
     </row>
     <row r="63" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
-      <c r="B63" s="174" t="s">
+      <c r="B63" s="151" t="s">
         <v>13</v>
       </c>
       <c r="C63" s="5"/>
@@ -31467,7 +31533,7 @@
     </row>
     <row r="64" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
-      <c r="B64" s="174"/>
+      <c r="B64" s="151"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -31480,7 +31546,7 @@
     </row>
     <row r="65" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
-      <c r="B65" s="175"/>
+      <c r="B65" s="152"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
@@ -31547,7 +31613,7 @@
     </row>
     <row r="68" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
-      <c r="B68" s="155" t="s">
+      <c r="B68" s="158" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="5"/>
@@ -31562,7 +31628,7 @@
     </row>
     <row r="69" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
-      <c r="B69" s="155"/>
+      <c r="B69" s="158"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -31575,7 +31641,7 @@
     </row>
     <row r="70" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
-      <c r="B70" s="156"/>
+      <c r="B70" s="159"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
@@ -31588,7 +31654,7 @@
     </row>
     <row r="71" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
-      <c r="B71" s="158" t="s">
+      <c r="B71" s="154" t="s">
         <v>9</v>
       </c>
       <c r="C71" s="5"/>
@@ -31603,7 +31669,7 @@
     </row>
     <row r="72" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
-      <c r="B72" s="158"/>
+      <c r="B72" s="154"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -31616,7 +31682,7 @@
     </row>
     <row r="73" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
-      <c r="B73" s="159"/>
+      <c r="B73" s="155"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
@@ -31629,7 +31695,7 @@
     </row>
     <row r="74" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
-      <c r="B74" s="146" t="s">
+      <c r="B74" s="145" t="s">
         <v>10</v>
       </c>
       <c r="C74" s="5"/>
@@ -31644,7 +31710,7 @@
     </row>
     <row r="75" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
-      <c r="B75" s="146"/>
+      <c r="B75" s="145"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -31656,7 +31722,7 @@
     </row>
     <row r="76" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
-      <c r="B76" s="147"/>
+      <c r="B76" s="146"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
@@ -31668,7 +31734,7 @@
     </row>
     <row r="77" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
-      <c r="B77" s="149" t="s">
+      <c r="B77" s="147" t="s">
         <v>11</v>
       </c>
       <c r="C77" s="5"/>
@@ -31682,7 +31748,7 @@
     </row>
     <row r="78" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
-      <c r="B78" s="149"/>
+      <c r="B78" s="147"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -31694,7 +31760,7 @@
     </row>
     <row r="79" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
-      <c r="B79" s="150"/>
+      <c r="B79" s="148"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
@@ -31706,7 +31772,7 @@
     </row>
     <row r="80" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
-      <c r="B80" s="152" t="s">
+      <c r="B80" s="149" t="s">
         <v>12</v>
       </c>
       <c r="C80" s="5"/>
@@ -31720,7 +31786,7 @@
     </row>
     <row r="81" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
-      <c r="B81" s="152"/>
+      <c r="B81" s="149"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -31732,7 +31798,7 @@
     </row>
     <row r="82" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
-      <c r="B82" s="153"/>
+      <c r="B82" s="150"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
@@ -31744,7 +31810,7 @@
     </row>
     <row r="83" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
-      <c r="B83" s="174" t="s">
+      <c r="B83" s="151" t="s">
         <v>13</v>
       </c>
       <c r="C83" s="5"/>
@@ -31758,7 +31824,7 @@
     </row>
     <row r="84" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
-      <c r="B84" s="174"/>
+      <c r="B84" s="151"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -31770,7 +31836,7 @@
     </row>
     <row r="85" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
-      <c r="B85" s="175"/>
+      <c r="B85" s="152"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
@@ -31824,7 +31890,7 @@
     </row>
     <row r="88" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
-      <c r="B88" s="155" t="s">
+      <c r="B88" s="158" t="s">
         <v>8</v>
       </c>
       <c r="C88" s="5"/>
@@ -31841,7 +31907,7 @@
     </row>
     <row r="89" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
-      <c r="B89" s="155"/>
+      <c r="B89" s="158"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -31856,7 +31922,7 @@
     </row>
     <row r="90" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
-      <c r="B90" s="156"/>
+      <c r="B90" s="159"/>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
@@ -31871,7 +31937,7 @@
     </row>
     <row r="91" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
-      <c r="B91" s="158" t="s">
+      <c r="B91" s="154" t="s">
         <v>9</v>
       </c>
       <c r="C91" s="5"/>
@@ -31888,7 +31954,7 @@
     </row>
     <row r="92" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
-      <c r="B92" s="158"/>
+      <c r="B92" s="154"/>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -31903,7 +31969,7 @@
     </row>
     <row r="93" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
-      <c r="B93" s="159"/>
+      <c r="B93" s="155"/>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
@@ -31918,7 +31984,7 @@
     </row>
     <row r="94" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
-      <c r="B94" s="146" t="s">
+      <c r="B94" s="145" t="s">
         <v>10</v>
       </c>
       <c r="C94" s="5"/>
@@ -31935,7 +32001,7 @@
     </row>
     <row r="95" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
-      <c r="B95" s="146"/>
+      <c r="B95" s="145"/>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
@@ -31950,7 +32016,7 @@
     </row>
     <row r="96" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
-      <c r="B96" s="147"/>
+      <c r="B96" s="146"/>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
@@ -31965,7 +32031,7 @@
     </row>
     <row r="97" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
-      <c r="B97" s="149" t="s">
+      <c r="B97" s="147" t="s">
         <v>11</v>
       </c>
       <c r="C97" s="5"/>
@@ -31982,7 +32048,7 @@
     </row>
     <row r="98" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
-      <c r="B98" s="149"/>
+      <c r="B98" s="147"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
@@ -31997,7 +32063,7 @@
     </row>
     <row r="99" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
-      <c r="B99" s="150"/>
+      <c r="B99" s="148"/>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
       <c r="E99" s="6"/>
@@ -32012,7 +32078,7 @@
     </row>
     <row r="100" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
-      <c r="B100" s="152" t="s">
+      <c r="B100" s="149" t="s">
         <v>12</v>
       </c>
       <c r="C100" s="5"/>
@@ -32029,7 +32095,7 @@
     </row>
     <row r="101" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
-      <c r="B101" s="152"/>
+      <c r="B101" s="149"/>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
@@ -32044,7 +32110,7 @@
     </row>
     <row r="102" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
-      <c r="B102" s="153"/>
+      <c r="B102" s="150"/>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
       <c r="E102" s="6"/>
@@ -32059,7 +32125,7 @@
     </row>
     <row r="103" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
-      <c r="B103" s="174" t="s">
+      <c r="B103" s="151" t="s">
         <v>13</v>
       </c>
       <c r="C103" s="5"/>
@@ -32076,7 +32142,7 @@
     </row>
     <row r="104" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
-      <c r="B104" s="174"/>
+      <c r="B104" s="151"/>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
@@ -32091,7 +32157,7 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
-      <c r="B105" s="175"/>
+      <c r="B105" s="152"/>
       <c r="C105" s="88"/>
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
@@ -32678,29 +32744,6 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="B97:B99"/>
-    <mergeCell ref="B100:B102"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
     <mergeCell ref="B103:B105"/>
     <mergeCell ref="A5:XFD5"/>
     <mergeCell ref="B74:B76"/>
@@ -32717,6 +32760,29 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B94:B96"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B97:B99"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B71:B73"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -32786,53 +32852,53 @@
     </row>
     <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24"/>
-      <c r="B3" s="215" t="s">
+      <c r="B3" s="220" t="s">
         <v>541</v>
       </c>
-      <c r="C3" s="216"/>
-      <c r="D3" s="216"/>
-      <c r="E3" s="216"/>
-      <c r="F3" s="216"/>
-      <c r="G3" s="216"/>
-      <c r="H3" s="216"/>
-      <c r="I3" s="216"/>
-      <c r="J3" s="216"/>
-      <c r="K3" s="217"/>
+      <c r="C3" s="221"/>
+      <c r="D3" s="221"/>
+      <c r="E3" s="221"/>
+      <c r="F3" s="221"/>
+      <c r="G3" s="221"/>
+      <c r="H3" s="221"/>
+      <c r="I3" s="221"/>
+      <c r="J3" s="221"/>
+      <c r="K3" s="222"/>
       <c r="L3" s="24"/>
       <c r="M3" s="24"/>
     </row>
     <row r="4" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="24"/>
-      <c r="B4" s="220" t="s">
+      <c r="B4" s="223" t="s">
         <v>533</v>
       </c>
-      <c r="C4" s="221"/>
-      <c r="D4" s="221"/>
-      <c r="E4" s="221"/>
-      <c r="F4" s="221"/>
-      <c r="G4" s="221"/>
-      <c r="H4" s="221"/>
-      <c r="I4" s="221"/>
-      <c r="J4" s="221"/>
-      <c r="K4" s="222"/>
+      <c r="C4" s="224"/>
+      <c r="D4" s="224"/>
+      <c r="E4" s="224"/>
+      <c r="F4" s="224"/>
+      <c r="G4" s="224"/>
+      <c r="H4" s="224"/>
+      <c r="I4" s="224"/>
+      <c r="J4" s="224"/>
+      <c r="K4" s="225"/>
       <c r="L4" s="24"/>
       <c r="M4" s="24"/>
     </row>
-    <row r="5" spans="1:20" s="219" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:20" s="214" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="24"/>
-      <c r="B6" s="218" t="s">
+      <c r="B6" s="215" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="218"/>
-      <c r="D6" s="218"/>
-      <c r="E6" s="218"/>
-      <c r="F6" s="218"/>
-      <c r="G6" s="218"/>
-      <c r="H6" s="218"/>
-      <c r="I6" s="218"/>
-      <c r="J6" s="218"/>
-      <c r="K6" s="218"/>
+      <c r="C6" s="215"/>
+      <c r="D6" s="215"/>
+      <c r="E6" s="215"/>
+      <c r="F6" s="215"/>
+      <c r="G6" s="215"/>
+      <c r="H6" s="215"/>
+      <c r="I6" s="215"/>
+      <c r="J6" s="215"/>
+      <c r="K6" s="215"/>
       <c r="L6" s="24"/>
       <c r="M6" s="24"/>
     </row>
@@ -32841,19 +32907,19 @@
       <c r="B7" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="214"/>
-      <c r="D7" s="214"/>
-      <c r="E7" s="214"/>
+      <c r="C7" s="217"/>
+      <c r="D7" s="217"/>
+      <c r="E7" s="217"/>
       <c r="F7" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="214"/>
-      <c r="H7" s="214"/>
+      <c r="G7" s="217"/>
+      <c r="H7" s="217"/>
       <c r="I7" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="214"/>
-      <c r="K7" s="214"/>
+      <c r="J7" s="217"/>
+      <c r="K7" s="217"/>
       <c r="L7" s="24"/>
       <c r="M7" s="24"/>
     </row>
@@ -32862,19 +32928,19 @@
       <c r="B8" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="214"/>
-      <c r="D8" s="214"/>
-      <c r="E8" s="214"/>
+      <c r="C8" s="217"/>
+      <c r="D8" s="217"/>
+      <c r="E8" s="217"/>
       <c r="F8" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="214"/>
-      <c r="H8" s="214"/>
+      <c r="G8" s="217"/>
+      <c r="H8" s="217"/>
       <c r="I8" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="214"/>
-      <c r="K8" s="214"/>
+      <c r="J8" s="217"/>
+      <c r="K8" s="217"/>
       <c r="L8" s="24"/>
       <c r="M8" s="24"/>
     </row>
@@ -32883,15 +32949,15 @@
       <c r="B9" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="214"/>
-      <c r="D9" s="214"/>
-      <c r="E9" s="214"/>
-      <c r="F9" s="214"/>
-      <c r="G9" s="214"/>
-      <c r="H9" s="214"/>
-      <c r="I9" s="214"/>
-      <c r="J9" s="214"/>
-      <c r="K9" s="214"/>
+      <c r="C9" s="217"/>
+      <c r="D9" s="217"/>
+      <c r="E9" s="217"/>
+      <c r="F9" s="217"/>
+      <c r="G9" s="217"/>
+      <c r="H9" s="217"/>
+      <c r="I9" s="217"/>
+      <c r="J9" s="217"/>
+      <c r="K9" s="217"/>
       <c r="L9" s="24"/>
       <c r="M9" s="24"/>
     </row>
@@ -32900,15 +32966,15 @@
       <c r="B10" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="214"/>
-      <c r="D10" s="214"/>
-      <c r="E10" s="214"/>
-      <c r="F10" s="214"/>
-      <c r="G10" s="214"/>
-      <c r="H10" s="214"/>
-      <c r="I10" s="214"/>
-      <c r="J10" s="214"/>
-      <c r="K10" s="214"/>
+      <c r="C10" s="217"/>
+      <c r="D10" s="217"/>
+      <c r="E10" s="217"/>
+      <c r="F10" s="217"/>
+      <c r="G10" s="217"/>
+      <c r="H10" s="217"/>
+      <c r="I10" s="217"/>
+      <c r="J10" s="217"/>
+      <c r="K10" s="217"/>
       <c r="L10" s="24"/>
       <c r="M10" s="24"/>
     </row>
@@ -32917,19 +32983,19 @@
       <c r="B11" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="214"/>
-      <c r="D11" s="214"/>
-      <c r="E11" s="214"/>
+      <c r="C11" s="217"/>
+      <c r="D11" s="217"/>
+      <c r="E11" s="217"/>
       <c r="F11" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="214"/>
-      <c r="H11" s="214"/>
+      <c r="G11" s="217"/>
+      <c r="H11" s="217"/>
       <c r="I11" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="J11" s="214"/>
-      <c r="K11" s="214"/>
+      <c r="J11" s="217"/>
+      <c r="K11" s="217"/>
       <c r="L11" s="24"/>
       <c r="M11" s="24"/>
       <c r="T11" s="25" t="s">
@@ -32941,49 +33007,49 @@
       <c r="B12" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="223" t="s">
+      <c r="C12" s="216" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="223"/>
-      <c r="E12" s="223"/>
+      <c r="D12" s="216"/>
+      <c r="E12" s="216"/>
       <c r="F12" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="214"/>
-      <c r="H12" s="214"/>
+      <c r="G12" s="217"/>
+      <c r="H12" s="217"/>
       <c r="I12" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="214"/>
-      <c r="K12" s="214"/>
+      <c r="J12" s="217"/>
+      <c r="K12" s="217"/>
       <c r="L12" s="24"/>
       <c r="M12" s="24"/>
     </row>
-    <row r="13" spans="1:20" s="219" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:20" s="214" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="24"/>
-      <c r="B14" s="218" t="s">
+      <c r="B14" s="215" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="218"/>
-      <c r="D14" s="218"/>
-      <c r="E14" s="218"/>
-      <c r="F14" s="218"/>
-      <c r="G14" s="218"/>
-      <c r="H14" s="218"/>
-      <c r="I14" s="218"/>
-      <c r="J14" s="218"/>
-      <c r="K14" s="218"/>
+      <c r="C14" s="215"/>
+      <c r="D14" s="215"/>
+      <c r="E14" s="215"/>
+      <c r="F14" s="215"/>
+      <c r="G14" s="215"/>
+      <c r="H14" s="215"/>
+      <c r="I14" s="215"/>
+      <c r="J14" s="215"/>
+      <c r="K14" s="215"/>
       <c r="L14" s="24"/>
       <c r="M14" s="24"/>
     </row>
     <row r="15" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="24"/>
-      <c r="B15" s="224" t="s">
+      <c r="B15" s="218" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="224"/>
-      <c r="D15" s="224"/>
+      <c r="C15" s="218"/>
+      <c r="D15" s="218"/>
       <c r="E15" s="33" t="s">
         <v>44</v>
       </c>
@@ -33010,11 +33076,11 @@
     </row>
     <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="24"/>
-      <c r="B16" s="223" t="s">
+      <c r="B16" s="216" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="223"/>
-      <c r="D16" s="223"/>
+      <c r="C16" s="216"/>
+      <c r="D16" s="216"/>
       <c r="E16" s="29"/>
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
@@ -33029,11 +33095,11 @@
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="24"/>
-      <c r="B17" s="223" t="s">
+      <c r="B17" s="216" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="223"/>
-      <c r="D17" s="223"/>
+      <c r="C17" s="216"/>
+      <c r="D17" s="216"/>
       <c r="E17" s="29"/>
       <c r="F17" s="29"/>
       <c r="G17" s="29"/>
@@ -33046,11 +33112,11 @@
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="24"/>
-      <c r="B18" s="223" t="s">
+      <c r="B18" s="216" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="223"/>
-      <c r="D18" s="223"/>
+      <c r="C18" s="216"/>
+      <c r="D18" s="216"/>
       <c r="E18" s="29"/>
       <c r="F18" s="29"/>
       <c r="G18" s="29"/>
@@ -33063,11 +33129,11 @@
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="24"/>
-      <c r="B19" s="223" t="s">
+      <c r="B19" s="216" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="223"/>
-      <c r="D19" s="223"/>
+      <c r="C19" s="216"/>
+      <c r="D19" s="216"/>
       <c r="E19" s="29"/>
       <c r="F19" s="29"/>
       <c r="G19" s="29"/>
@@ -33080,11 +33146,11 @@
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="24"/>
-      <c r="B20" s="223" t="s">
+      <c r="B20" s="216" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="223"/>
-      <c r="D20" s="223"/>
+      <c r="C20" s="216"/>
+      <c r="D20" s="216"/>
       <c r="E20" s="29"/>
       <c r="F20" s="29"/>
       <c r="G20" s="29"/>
@@ -33095,21 +33161,21 @@
       <c r="L20" s="24"/>
       <c r="M20" s="24"/>
     </row>
-    <row r="21" spans="1:13" s="219" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:13" s="214" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="24"/>
-      <c r="B22" s="218" t="s">
+      <c r="B22" s="215" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="218"/>
-      <c r="D22" s="218"/>
-      <c r="E22" s="218"/>
-      <c r="F22" s="218"/>
-      <c r="G22" s="218"/>
-      <c r="H22" s="218"/>
-      <c r="I22" s="218"/>
-      <c r="J22" s="218"/>
-      <c r="K22" s="218"/>
+      <c r="C22" s="215"/>
+      <c r="D22" s="215"/>
+      <c r="E22" s="215"/>
+      <c r="F22" s="215"/>
+      <c r="G22" s="215"/>
+      <c r="H22" s="215"/>
+      <c r="I22" s="215"/>
+      <c r="J22" s="215"/>
+      <c r="K22" s="215"/>
       <c r="L22" s="24"/>
       <c r="M22" s="24"/>
     </row>
@@ -33118,19 +33184,19 @@
       <c r="B23" s="33" t="s">
         <v>514</v>
       </c>
-      <c r="C23" s="214"/>
-      <c r="D23" s="214"/>
-      <c r="E23" s="214"/>
-      <c r="F23" s="214"/>
+      <c r="C23" s="217"/>
+      <c r="D23" s="217"/>
+      <c r="E23" s="217"/>
+      <c r="F23" s="217"/>
       <c r="G23" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="H23" s="223" t="s">
+      <c r="H23" s="216" t="s">
         <v>55</v>
       </c>
-      <c r="I23" s="223"/>
-      <c r="J23" s="223"/>
-      <c r="K23" s="223"/>
+      <c r="I23" s="216"/>
+      <c r="J23" s="216"/>
+      <c r="K23" s="216"/>
       <c r="L23" s="24"/>
       <c r="M23" s="24"/>
     </row>
@@ -33139,19 +33205,19 @@
       <c r="B24" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="214"/>
-      <c r="D24" s="214"/>
-      <c r="E24" s="214"/>
-      <c r="F24" s="214"/>
+      <c r="C24" s="217"/>
+      <c r="D24" s="217"/>
+      <c r="E24" s="217"/>
+      <c r="F24" s="217"/>
       <c r="G24" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="H24" s="225" t="s">
+      <c r="H24" s="219" t="s">
         <v>58</v>
       </c>
-      <c r="I24" s="225"/>
-      <c r="J24" s="225"/>
-      <c r="K24" s="225"/>
+      <c r="I24" s="219"/>
+      <c r="J24" s="219"/>
+      <c r="K24" s="219"/>
       <c r="L24" s="24"/>
       <c r="M24" s="24"/>
     </row>
@@ -33160,17 +33226,17 @@
       <c r="B25" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="214"/>
-      <c r="D25" s="214"/>
-      <c r="E25" s="214"/>
-      <c r="F25" s="214"/>
+      <c r="C25" s="217"/>
+      <c r="D25" s="217"/>
+      <c r="E25" s="217"/>
+      <c r="F25" s="217"/>
       <c r="G25" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="H25" s="214"/>
-      <c r="I25" s="214"/>
-      <c r="J25" s="214"/>
-      <c r="K25" s="214"/>
+      <c r="H25" s="217"/>
+      <c r="I25" s="217"/>
+      <c r="J25" s="217"/>
+      <c r="K25" s="217"/>
       <c r="L25" s="24"/>
       <c r="M25" s="24"/>
     </row>
@@ -33179,17 +33245,17 @@
       <c r="B26" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="214"/>
-      <c r="D26" s="214"/>
-      <c r="E26" s="214"/>
-      <c r="F26" s="214"/>
+      <c r="C26" s="217"/>
+      <c r="D26" s="217"/>
+      <c r="E26" s="217"/>
+      <c r="F26" s="217"/>
       <c r="G26" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="H26" s="214"/>
-      <c r="I26" s="214"/>
-      <c r="J26" s="214"/>
-      <c r="K26" s="214"/>
+      <c r="H26" s="217"/>
+      <c r="I26" s="217"/>
+      <c r="J26" s="217"/>
+      <c r="K26" s="217"/>
       <c r="L26" s="24"/>
       <c r="M26" s="24"/>
     </row>
@@ -33213,19 +33279,19 @@
       <c r="B28" s="33" t="s">
         <v>515</v>
       </c>
-      <c r="C28" s="214"/>
-      <c r="D28" s="214"/>
-      <c r="E28" s="214"/>
-      <c r="F28" s="214"/>
+      <c r="C28" s="217"/>
+      <c r="D28" s="217"/>
+      <c r="E28" s="217"/>
+      <c r="F28" s="217"/>
       <c r="G28" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="H28" s="223" t="s">
+      <c r="H28" s="216" t="s">
         <v>55</v>
       </c>
-      <c r="I28" s="223"/>
-      <c r="J28" s="223"/>
-      <c r="K28" s="223"/>
+      <c r="I28" s="216"/>
+      <c r="J28" s="216"/>
+      <c r="K28" s="216"/>
       <c r="L28" s="24"/>
       <c r="M28" s="24"/>
     </row>
@@ -33234,17 +33300,17 @@
       <c r="B29" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="214"/>
-      <c r="D29" s="214"/>
-      <c r="E29" s="214"/>
-      <c r="F29" s="214"/>
+      <c r="C29" s="217"/>
+      <c r="D29" s="217"/>
+      <c r="E29" s="217"/>
+      <c r="F29" s="217"/>
       <c r="G29" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="H29" s="214"/>
-      <c r="I29" s="214"/>
-      <c r="J29" s="214"/>
-      <c r="K29" s="214"/>
+      <c r="H29" s="217"/>
+      <c r="I29" s="217"/>
+      <c r="J29" s="217"/>
+      <c r="K29" s="217"/>
       <c r="L29" s="24"/>
       <c r="M29" s="24"/>
     </row>
@@ -33253,17 +33319,17 @@
       <c r="B30" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="214"/>
-      <c r="D30" s="214"/>
-      <c r="E30" s="214"/>
-      <c r="F30" s="214"/>
+      <c r="C30" s="217"/>
+      <c r="D30" s="217"/>
+      <c r="E30" s="217"/>
+      <c r="F30" s="217"/>
       <c r="G30" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="H30" s="214"/>
-      <c r="I30" s="214"/>
-      <c r="J30" s="214"/>
-      <c r="K30" s="214"/>
+      <c r="H30" s="217"/>
+      <c r="I30" s="217"/>
+      <c r="J30" s="217"/>
+      <c r="K30" s="217"/>
       <c r="L30" s="24"/>
       <c r="M30" s="24"/>
     </row>
@@ -33272,34 +33338,34 @@
       <c r="B31" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="214"/>
-      <c r="D31" s="214"/>
-      <c r="E31" s="214"/>
-      <c r="F31" s="214"/>
+      <c r="C31" s="217"/>
+      <c r="D31" s="217"/>
+      <c r="E31" s="217"/>
+      <c r="F31" s="217"/>
       <c r="G31" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="H31" s="214"/>
-      <c r="I31" s="214"/>
-      <c r="J31" s="214"/>
-      <c r="K31" s="214"/>
+      <c r="H31" s="217"/>
+      <c r="I31" s="217"/>
+      <c r="J31" s="217"/>
+      <c r="K31" s="217"/>
       <c r="L31" s="24"/>
       <c r="M31" s="24"/>
     </row>
-    <row r="32" spans="1:13" s="219" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:13" s="214" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="24"/>
-      <c r="B33" s="218" t="s">
+      <c r="B33" s="215" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="218"/>
-      <c r="D33" s="218"/>
-      <c r="E33" s="218"/>
-      <c r="F33" s="218"/>
-      <c r="G33" s="218"/>
-      <c r="H33" s="218"/>
-      <c r="I33" s="218"/>
-      <c r="J33" s="218"/>
+      <c r="C33" s="215"/>
+      <c r="D33" s="215"/>
+      <c r="E33" s="215"/>
+      <c r="F33" s="215"/>
+      <c r="G33" s="215"/>
+      <c r="H33" s="215"/>
+      <c r="I33" s="215"/>
+      <c r="J33" s="215"/>
       <c r="K33" s="31"/>
       <c r="L33" s="24"/>
       <c r="M33" s="24"/>
@@ -33318,12 +33384,12 @@
       <c r="E34" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="F34" s="224" t="s">
+      <c r="F34" s="218" t="s">
         <v>68</v>
       </c>
-      <c r="G34" s="224"/>
-      <c r="H34" s="224"/>
-      <c r="I34" s="224"/>
+      <c r="G34" s="218"/>
+      <c r="H34" s="218"/>
+      <c r="I34" s="218"/>
       <c r="J34" s="33" t="s">
         <v>69</v>
       </c>
@@ -33341,12 +33407,12 @@
       </c>
       <c r="D35" s="29"/>
       <c r="E35" s="29"/>
-      <c r="F35" s="223" t="s">
+      <c r="F35" s="216" t="s">
         <v>72</v>
       </c>
-      <c r="G35" s="223"/>
-      <c r="H35" s="223"/>
-      <c r="I35" s="223"/>
+      <c r="G35" s="216"/>
+      <c r="H35" s="216"/>
+      <c r="I35" s="216"/>
       <c r="J35" s="29"/>
       <c r="K35" s="31"/>
       <c r="L35" s="24"/>
@@ -33367,20 +33433,20 @@
       <c r="L36" s="24"/>
       <c r="M36" s="24"/>
     </row>
-    <row r="37" spans="1:13" s="219" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:13" s="214" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="24"/>
-      <c r="B38" s="218" t="s">
+      <c r="B38" s="215" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="218"/>
-      <c r="D38" s="218"/>
-      <c r="E38" s="218"/>
-      <c r="F38" s="218"/>
-      <c r="G38" s="218"/>
-      <c r="H38" s="218"/>
-      <c r="I38" s="218"/>
-      <c r="J38" s="218"/>
+      <c r="C38" s="215"/>
+      <c r="D38" s="215"/>
+      <c r="E38" s="215"/>
+      <c r="F38" s="215"/>
+      <c r="G38" s="215"/>
+      <c r="H38" s="215"/>
+      <c r="I38" s="215"/>
+      <c r="J38" s="215"/>
       <c r="K38" s="31"/>
       <c r="L38" s="24"/>
       <c r="M38" s="24"/>
@@ -33393,21 +33459,21 @@
       <c r="C39" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="D39" s="224" t="s">
+      <c r="D39" s="218" t="s">
         <v>75</v>
       </c>
-      <c r="E39" s="224"/>
-      <c r="F39" s="224" t="s">
+      <c r="E39" s="218"/>
+      <c r="F39" s="218" t="s">
         <v>76</v>
       </c>
-      <c r="G39" s="224"/>
+      <c r="G39" s="218"/>
       <c r="H39" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="I39" s="224" t="s">
+      <c r="I39" s="218" t="s">
         <v>78</v>
       </c>
-      <c r="J39" s="224"/>
+      <c r="J39" s="218"/>
       <c r="K39" s="31"/>
       <c r="L39" s="24"/>
       <c r="M39" s="24"/>
@@ -33418,17 +33484,17 @@
         <v>517</v>
       </c>
       <c r="C40" s="29"/>
-      <c r="D40" s="223" t="s">
+      <c r="D40" s="216" t="s">
         <v>51</v>
       </c>
-      <c r="E40" s="223"/>
-      <c r="F40" s="214"/>
-      <c r="G40" s="214"/>
+      <c r="E40" s="216"/>
+      <c r="F40" s="217"/>
+      <c r="G40" s="217"/>
       <c r="H40" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="I40" s="214"/>
-      <c r="J40" s="214"/>
+      <c r="I40" s="217"/>
+      <c r="J40" s="217"/>
       <c r="K40" s="31"/>
       <c r="L40" s="24"/>
       <c r="M40" s="24"/>
@@ -33437,17 +33503,17 @@
       <c r="A41" s="24"/>
       <c r="B41" s="29"/>
       <c r="C41" s="29"/>
-      <c r="D41" s="223" t="s">
+      <c r="D41" s="216" t="s">
         <v>51</v>
       </c>
-      <c r="E41" s="223"/>
-      <c r="F41" s="214"/>
-      <c r="G41" s="214"/>
+      <c r="E41" s="216"/>
+      <c r="F41" s="217"/>
+      <c r="G41" s="217"/>
       <c r="H41" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="I41" s="214"/>
-      <c r="J41" s="214"/>
+      <c r="I41" s="217"/>
+      <c r="J41" s="217"/>
       <c r="K41" s="31"/>
       <c r="L41" s="24"/>
       <c r="M41" s="24"/>
@@ -33456,32 +33522,32 @@
       <c r="A42" s="24"/>
       <c r="B42" s="29"/>
       <c r="C42" s="29"/>
-      <c r="D42" s="223" t="s">
+      <c r="D42" s="216" t="s">
         <v>51</v>
       </c>
-      <c r="E42" s="223"/>
-      <c r="F42" s="214"/>
-      <c r="G42" s="214"/>
+      <c r="E42" s="216"/>
+      <c r="F42" s="217"/>
+      <c r="G42" s="217"/>
       <c r="H42" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="I42" s="214"/>
-      <c r="J42" s="214"/>
+      <c r="I42" s="217"/>
+      <c r="J42" s="217"/>
       <c r="K42" s="31"/>
       <c r="L42" s="24"/>
       <c r="M42" s="24"/>
     </row>
-    <row r="43" spans="1:13" s="219" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:13" s="214" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="44" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="24"/>
-      <c r="B44" s="218" t="s">
+      <c r="B44" s="215" t="s">
         <v>80</v>
       </c>
-      <c r="C44" s="218"/>
-      <c r="D44" s="218"/>
-      <c r="E44" s="218"/>
-      <c r="F44" s="218"/>
-      <c r="G44" s="218"/>
+      <c r="C44" s="215"/>
+      <c r="D44" s="215"/>
+      <c r="E44" s="215"/>
+      <c r="F44" s="215"/>
+      <c r="G44" s="215"/>
       <c r="H44" s="31"/>
       <c r="I44" s="31"/>
       <c r="J44" s="31"/>
@@ -33497,14 +33563,14 @@
       <c r="C45" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="D45" s="224" t="s">
+      <c r="D45" s="218" t="s">
         <v>83</v>
       </c>
-      <c r="E45" s="224"/>
-      <c r="F45" s="224" t="s">
+      <c r="E45" s="218"/>
+      <c r="F45" s="218" t="s">
         <v>84</v>
       </c>
-      <c r="G45" s="224"/>
+      <c r="G45" s="218"/>
       <c r="H45" s="31"/>
       <c r="I45" s="31"/>
       <c r="J45" s="31"/>
@@ -33516,10 +33582,10 @@
       <c r="A46" s="24"/>
       <c r="B46" s="29"/>
       <c r="C46" s="29"/>
-      <c r="D46" s="214"/>
-      <c r="E46" s="214"/>
-      <c r="F46" s="214"/>
-      <c r="G46" s="214"/>
+      <c r="D46" s="217"/>
+      <c r="E46" s="217"/>
+      <c r="F46" s="217"/>
+      <c r="G46" s="217"/>
       <c r="H46" s="31"/>
       <c r="I46" s="31"/>
       <c r="J46" s="31"/>
@@ -33531,10 +33597,10 @@
       <c r="A47" s="24"/>
       <c r="B47" s="29"/>
       <c r="C47" s="29"/>
-      <c r="D47" s="214"/>
-      <c r="E47" s="214"/>
-      <c r="F47" s="214"/>
-      <c r="G47" s="214"/>
+      <c r="D47" s="217"/>
+      <c r="E47" s="217"/>
+      <c r="F47" s="217"/>
+      <c r="G47" s="217"/>
       <c r="H47" s="31"/>
       <c r="I47" s="31"/>
       <c r="J47" s="31"/>
@@ -33546,10 +33612,10 @@
       <c r="A48" s="24"/>
       <c r="B48" s="29"/>
       <c r="C48" s="29"/>
-      <c r="D48" s="214"/>
-      <c r="E48" s="214"/>
-      <c r="F48" s="214"/>
-      <c r="G48" s="214"/>
+      <c r="D48" s="217"/>
+      <c r="E48" s="217"/>
+      <c r="F48" s="217"/>
+      <c r="G48" s="217"/>
       <c r="H48" s="31"/>
       <c r="I48" s="31"/>
       <c r="J48" s="31"/>
@@ -33572,17 +33638,17 @@
       <c r="L49" s="24"/>
       <c r="M49" s="24"/>
     </row>
-    <row r="50" spans="1:13" s="219" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" spans="1:13" s="214" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="24"/>
-      <c r="B51" s="218" t="s">
+      <c r="B51" s="215" t="s">
         <v>85</v>
       </c>
-      <c r="C51" s="218"/>
-      <c r="D51" s="218"/>
-      <c r="E51" s="218"/>
-      <c r="F51" s="218"/>
-      <c r="G51" s="218"/>
+      <c r="C51" s="215"/>
+      <c r="D51" s="215"/>
+      <c r="E51" s="215"/>
+      <c r="F51" s="215"/>
+      <c r="G51" s="215"/>
       <c r="H51" s="31"/>
       <c r="I51" s="31"/>
       <c r="J51" s="31"/>
@@ -33692,15 +33758,15 @@
       <c r="L57" s="24"/>
       <c r="M57" s="24"/>
     </row>
-    <row r="58" spans="1:13" s="219" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="1:13" s="214" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="59" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="24"/>
-      <c r="B59" s="218" t="s">
+      <c r="B59" s="215" t="s">
         <v>92</v>
       </c>
-      <c r="C59" s="218"/>
-      <c r="D59" s="218"/>
-      <c r="E59" s="218"/>
+      <c r="C59" s="215"/>
+      <c r="D59" s="215"/>
+      <c r="E59" s="215"/>
       <c r="F59" s="31"/>
       <c r="G59" s="31"/>
       <c r="H59" s="31"/>
@@ -33793,16 +33859,16 @@
       <c r="L64" s="24"/>
       <c r="M64" s="24"/>
     </row>
-    <row r="65" spans="1:13" s="219" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" spans="1:13" s="214" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="66" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="24"/>
-      <c r="B66" s="218" t="s">
+      <c r="B66" s="215" t="s">
         <v>97</v>
       </c>
-      <c r="C66" s="218"/>
-      <c r="D66" s="218"/>
-      <c r="E66" s="218"/>
-      <c r="F66" s="218"/>
+      <c r="C66" s="215"/>
+      <c r="D66" s="215"/>
+      <c r="E66" s="215"/>
+      <c r="F66" s="215"/>
       <c r="G66" s="31"/>
       <c r="H66" s="31"/>
       <c r="I66" s="31"/>
@@ -33896,16 +33962,16 @@
       <c r="L71" s="24"/>
       <c r="M71" s="24"/>
     </row>
-    <row r="72" spans="1:13" s="219" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" spans="1:13" s="214" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="73" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="24"/>
-      <c r="B73" s="218" t="s">
+      <c r="B73" s="215" t="s">
         <v>102</v>
       </c>
-      <c r="C73" s="218"/>
-      <c r="D73" s="218"/>
-      <c r="E73" s="218"/>
-      <c r="F73" s="218"/>
+      <c r="C73" s="215"/>
+      <c r="D73" s="215"/>
+      <c r="E73" s="215"/>
+      <c r="F73" s="215"/>
       <c r="G73" s="31"/>
       <c r="H73" s="31"/>
       <c r="I73" s="31"/>
@@ -33999,13 +34065,13 @@
       <c r="L78" s="24"/>
       <c r="M78" s="24"/>
     </row>
-    <row r="79" spans="1:13" s="219" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="1:13" s="214" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="80" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="24"/>
-      <c r="B80" s="218" t="s">
+      <c r="B80" s="215" t="s">
         <v>108</v>
       </c>
-      <c r="C80" s="218"/>
+      <c r="C80" s="215"/>
       <c r="D80" s="31"/>
       <c r="E80" s="31"/>
       <c r="F80" s="31"/>
@@ -34144,7 +34210,7 @@
       <c r="L87" s="24"/>
       <c r="M87" s="24"/>
     </row>
-    <row r="88" spans="1:13" s="219" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" spans="1:13" s="214" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="89" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="24"/>
       <c r="B89" s="41" t="s">
@@ -34285,17 +34351,17 @@
       <c r="L96" s="24"/>
       <c r="M96" s="24"/>
     </row>
-    <row r="97" spans="1:13" s="219" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" spans="1:13" s="214" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="98" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="24"/>
-      <c r="B98" s="218" t="s">
+      <c r="B98" s="215" t="s">
         <v>130</v>
       </c>
-      <c r="C98" s="218"/>
-      <c r="D98" s="218"/>
-      <c r="E98" s="218"/>
-      <c r="F98" s="218"/>
-      <c r="G98" s="218"/>
+      <c r="C98" s="215"/>
+      <c r="D98" s="215"/>
+      <c r="E98" s="215"/>
+      <c r="F98" s="215"/>
+      <c r="G98" s="215"/>
       <c r="H98" s="31"/>
       <c r="I98" s="31"/>
       <c r="J98" s="31"/>
@@ -34407,14 +34473,14 @@
     </row>
     <row r="105" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="24"/>
-      <c r="B105" s="223" t="s">
+      <c r="B105" s="216" t="s">
         <v>135</v>
       </c>
-      <c r="C105" s="223"/>
-      <c r="D105" s="223"/>
-      <c r="E105" s="223"/>
-      <c r="F105" s="223"/>
-      <c r="G105" s="223"/>
+      <c r="C105" s="216"/>
+      <c r="D105" s="216"/>
+      <c r="E105" s="216"/>
+      <c r="F105" s="216"/>
+      <c r="G105" s="216"/>
       <c r="H105" s="31"/>
       <c r="I105" s="31"/>
       <c r="J105" s="31"/>
@@ -34422,7 +34488,7 @@
       <c r="L105" s="24"/>
       <c r="M105" s="24"/>
     </row>
-    <row r="106" spans="1:13" s="219" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="106" spans="1:13" s="214" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" s="24"/>
       <c r="B107" s="24"/>
@@ -34470,6 +34536,81 @@
     </row>
   </sheetData>
   <mergeCells count="91">
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A5:XFD5"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="A21:XFD21"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="A13:XFD13"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B22:K22"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="B38:J38"/>
+    <mergeCell ref="A37:XFD37"/>
+    <mergeCell ref="A32:XFD32"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="B33:J33"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B66:F66"/>
+    <mergeCell ref="B73:F73"/>
     <mergeCell ref="B27:K27"/>
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="A106:XFD106"/>
@@ -34486,81 +34627,6 @@
     <mergeCell ref="A88:XFD88"/>
     <mergeCell ref="A97:XFD97"/>
     <mergeCell ref="B44:G44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B66:F66"/>
-    <mergeCell ref="B73:F73"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B38:J38"/>
-    <mergeCell ref="A37:XFD37"/>
-    <mergeCell ref="A32:XFD32"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="B33:J33"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="A21:XFD21"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="A13:XFD13"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B22:K22"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A5:XFD5"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="B4:K4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -34599,38 +34665,38 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="2:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="239" t="s">
+      <c r="B2" s="226" t="s">
         <v>531</v>
       </c>
-      <c r="C2" s="240"/>
-      <c r="D2" s="240"/>
-      <c r="E2" s="240"/>
-      <c r="F2" s="241"/>
+      <c r="C2" s="227"/>
+      <c r="D2" s="227"/>
+      <c r="E2" s="227"/>
+      <c r="F2" s="228"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="242" t="s">
+      <c r="B3" s="229" t="s">
         <v>542</v>
       </c>
-      <c r="C3" s="243"/>
-      <c r="D3" s="243"/>
-      <c r="E3" s="243"/>
-      <c r="F3" s="244"/>
+      <c r="C3" s="230"/>
+      <c r="D3" s="230"/>
+      <c r="E3" s="230"/>
+      <c r="F3" s="231"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="2:7" s="47" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="162" t="s">
+      <c r="B4" s="177" t="s">
         <v>136</v>
       </c>
       <c r="C4" s="195"/>
-      <c r="D4" s="163"/>
+      <c r="D4" s="178"/>
       <c r="E4" s="195" t="s">
         <v>536</v>
       </c>
-      <c r="F4" s="163"/>
+      <c r="F4" s="178"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="2:7" s="226" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:7" s="232" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="13"/>
       <c r="C6" s="43" t="s">
@@ -34648,39 +34714,39 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="2:7" s="51" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="235" t="s">
+      <c r="B7" s="241" t="s">
         <v>141</v>
       </c>
-      <c r="C7" s="237" t="s">
+      <c r="C7" s="243" t="s">
         <v>538</v>
       </c>
-      <c r="D7" s="164" t="s">
+      <c r="D7" s="168" t="s">
         <v>142</v>
       </c>
       <c r="E7" s="83" t="s">
         <v>677</v>
       </c>
-      <c r="F7" s="227" t="s">
+      <c r="F7" s="233" t="s">
         <v>539</v>
       </c>
       <c r="G7" s="18"/>
     </row>
     <row r="8" spans="2:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="236"/>
-      <c r="C8" s="238"/>
-      <c r="D8" s="165"/>
+      <c r="B8" s="242"/>
+      <c r="C8" s="244"/>
+      <c r="D8" s="169"/>
       <c r="E8" s="82" t="s">
         <v>676</v>
       </c>
-      <c r="F8" s="228"/>
+      <c r="F8" s="234"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="2:7" s="51" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="199"/>
-      <c r="C9" s="229" t="s">
+      <c r="C9" s="235" t="s">
         <v>537</v>
       </c>
-      <c r="D9" s="232" t="s">
+      <c r="D9" s="238" t="s">
         <v>525</v>
       </c>
       <c r="E9" s="81" t="s">
@@ -34695,8 +34761,8 @@
     </row>
     <row r="10" spans="2:7" s="51" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="200"/>
-      <c r="C10" s="230"/>
-      <c r="D10" s="233"/>
+      <c r="C10" s="236"/>
+      <c r="D10" s="239"/>
       <c r="E10" s="81" t="s">
         <v>518</v>
       </c>
@@ -34705,8 +34771,8 @@
     </row>
     <row r="11" spans="2:7" s="51" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="200"/>
-      <c r="C11" s="230"/>
-      <c r="D11" s="233"/>
+      <c r="C11" s="236"/>
+      <c r="D11" s="239"/>
       <c r="E11" s="81" t="s">
         <v>520</v>
       </c>
@@ -34715,8 +34781,8 @@
     </row>
     <row r="12" spans="2:7" s="51" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="200"/>
-      <c r="C12" s="230"/>
-      <c r="D12" s="233"/>
+      <c r="C12" s="236"/>
+      <c r="D12" s="239"/>
       <c r="E12" s="81" t="s">
         <v>521</v>
       </c>
@@ -34725,8 +34791,8 @@
     </row>
     <row r="13" spans="2:7" s="51" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="200"/>
-      <c r="C13" s="230"/>
-      <c r="D13" s="233"/>
+      <c r="C13" s="236"/>
+      <c r="D13" s="239"/>
       <c r="E13" s="81" t="s">
         <v>519</v>
       </c>
@@ -34735,8 +34801,8 @@
     </row>
     <row r="14" spans="2:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="201"/>
-      <c r="C14" s="231"/>
-      <c r="D14" s="234"/>
+      <c r="C14" s="237"/>
+      <c r="D14" s="240"/>
       <c r="E14" s="81" t="s">
         <v>523</v>
       </c>
@@ -34903,11 +34969,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:F4"/>
     <mergeCell ref="A5:XFD5"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="B9:B14"/>
@@ -34917,6 +34978,11 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="G9:G14"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:F4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>

--- a/자소서/스펙업 2017 하반기 채용다이어리.xlsx
+++ b/자소서/스펙업 2017 하반기 채용다이어리.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="1022">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="1017">
   <si>
     <t>카톡으로 공채 소식 받기</t>
   </si>
@@ -4131,14 +4131,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>하나은행</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9월 25일 18:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>엔씨소프트</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4172,18 +4164,6 @@
   </si>
   <si>
     <t>O</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>골프존</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>골프존뉴딘그룹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9월 25일 13:00</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -13757,7 +13737,7 @@
         <v>8</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
@@ -17045,7 +17025,7 @@
         <v>865</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>905</v>
@@ -25882,10 +25862,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M49"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38:E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -26128,7 +26108,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="128" t="s">
         <v>513</v>
       </c>
@@ -26370,12 +26350,12 @@
         <v>964</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="G21" s="28"/>
       <c r="H21" s="28"/>
       <c r="I21" s="28" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="J21" s="28"/>
       <c r="K21" s="28"/>
@@ -26395,7 +26375,7 @@
         <v>965</v>
       </c>
       <c r="F22" s="28" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="G22" s="28"/>
       <c r="H22" s="28"/>
@@ -26637,16 +26617,16 @@
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B34" s="129" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E34" s="28" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="F34" s="28"/>
       <c r="G34" s="28"/>
@@ -26667,7 +26647,7 @@
         <v>980</v>
       </c>
       <c r="E35" s="28" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="F35" s="28"/>
       <c r="G35" s="28"/>
@@ -26688,7 +26668,7 @@
         <v>983</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="F36" s="28"/>
       <c r="G36" s="28"/>
@@ -26709,7 +26689,7 @@
         <v>986</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="F37" s="28"/>
       <c r="G37" s="28"/>
@@ -26730,7 +26710,7 @@
         <v>989</v>
       </c>
       <c r="E38" s="28" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="F38" s="28"/>
       <c r="G38" s="28"/>
@@ -26742,13 +26722,13 @@
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B39" s="129" t="s">
-        <v>1001</v>
+        <v>1010</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>999</v>
+        <v>1011</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>1002</v>
+        <v>1012</v>
       </c>
       <c r="E39" s="28"/>
       <c r="F39" s="28"/>
@@ -26764,10 +26744,10 @@
         <v>1013</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="E40" s="28"/>
       <c r="F40" s="28"/>
@@ -26779,15 +26759,9 @@
       <c r="L40" s="28"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B41" s="129" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C41" s="23" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D41" s="28" t="s">
-        <v>1017</v>
-      </c>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="28"/>
       <c r="E41" s="28"/>
       <c r="F41" s="28"/>
       <c r="G41" s="28"/>
@@ -26798,36 +26772,10 @@
       <c r="L41" s="28"/>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B42" s="129" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C42" s="23" t="s">
-        <v>1019</v>
-      </c>
-      <c r="D42" s="28" t="s">
-        <v>1020</v>
-      </c>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="28"/>
-      <c r="L42" s="28"/>
+      <c r="B42" s="130"/>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="28"/>
-      <c r="K43" s="28"/>
-      <c r="L43" s="28"/>
+      <c r="B43" s="130"/>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B44" s="130"/>
@@ -26840,12 +26788,6 @@
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B47" s="130"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B48" s="130"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B49" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/자소서/스펙업 2017 하반기 채용다이어리.xlsx
+++ b/자소서/스펙업 2017 하반기 채용다이어리.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8628" windowHeight="11436" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8628" windowHeight="11436" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="메인" sheetId="18" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="1033">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="1036">
   <si>
     <t>카톡으로 공채 소식 받기</t>
   </si>
@@ -4256,6 +4256,18 @@
   </si>
   <si>
     <t>아모레퍼시픽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5253,6 +5265,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5271,25 +5292,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5298,25 +5304,19 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5325,22 +5325,16 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5367,10 +5361,13 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5382,10 +5379,25 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5412,16 +5424,16 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5487,8 +5499,23 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5499,12 +5526,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5514,14 +5535,23 @@
     <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5562,24 +5592,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5613,7 +5625,10 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5625,10 +5640,7 @@
     <xf numFmtId="0" fontId="5" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7228,84 +7240,84 @@
       <c r="M1" s="135"/>
     </row>
     <row r="2" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="142" t="s">
+      <c r="B2" s="136" t="s">
         <v>706</v>
       </c>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
-      <c r="K2" s="143"/>
-      <c r="L2" s="143"/>
-      <c r="M2" s="144"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="137"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="137"/>
+      <c r="M2" s="138"/>
     </row>
     <row r="3" spans="2:13" ht="171" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="139" t="s">
+      <c r="B3" s="142" t="s">
         <v>675</v>
       </c>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="140"/>
-      <c r="J3" s="140"/>
-      <c r="K3" s="140"/>
-      <c r="L3" s="140"/>
-      <c r="M3" s="141"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="143"/>
+      <c r="J3" s="143"/>
+      <c r="K3" s="143"/>
+      <c r="L3" s="143"/>
+      <c r="M3" s="144"/>
     </row>
     <row r="4" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="142" t="s">
+      <c r="B4" s="136" t="s">
         <v>707</v>
       </c>
-      <c r="C4" s="143"/>
-      <c r="D4" s="143"/>
-      <c r="E4" s="143"/>
-      <c r="F4" s="143"/>
-      <c r="G4" s="143"/>
-      <c r="H4" s="143"/>
-      <c r="I4" s="143"/>
-      <c r="J4" s="143"/>
-      <c r="K4" s="143"/>
-      <c r="L4" s="143"/>
-      <c r="M4" s="144"/>
+      <c r="C4" s="137"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="137"/>
+      <c r="M4" s="138"/>
     </row>
     <row r="5" spans="2:13" ht="286.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="139" t="s">
+      <c r="B5" s="142" t="s">
         <v>850</v>
       </c>
-      <c r="C5" s="140"/>
-      <c r="D5" s="140"/>
-      <c r="E5" s="140"/>
-      <c r="F5" s="140"/>
-      <c r="G5" s="140"/>
-      <c r="H5" s="140"/>
-      <c r="I5" s="140"/>
-      <c r="J5" s="140"/>
-      <c r="K5" s="140"/>
-      <c r="L5" s="140"/>
-      <c r="M5" s="141"/>
+      <c r="C5" s="143"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="143"/>
+      <c r="K5" s="143"/>
+      <c r="L5" s="143"/>
+      <c r="M5" s="144"/>
     </row>
     <row r="6" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="142" t="s">
+      <c r="B6" s="136" t="s">
         <v>651</v>
       </c>
-      <c r="C6" s="143"/>
-      <c r="D6" s="143"/>
-      <c r="E6" s="143"/>
-      <c r="F6" s="143"/>
-      <c r="G6" s="143"/>
-      <c r="H6" s="143"/>
-      <c r="I6" s="143"/>
-      <c r="J6" s="143"/>
-      <c r="K6" s="143"/>
-      <c r="L6" s="143"/>
-      <c r="M6" s="144"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="137"/>
+      <c r="K6" s="137"/>
+      <c r="L6" s="137"/>
+      <c r="M6" s="138"/>
     </row>
     <row r="7" spans="2:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="133"/>
@@ -7356,23 +7368,17 @@
       <c r="E10" s="134"/>
       <c r="F10" s="134"/>
       <c r="G10" s="135"/>
-      <c r="H10" s="136" t="s">
+      <c r="H10" s="139" t="s">
         <v>653</v>
       </c>
-      <c r="I10" s="137"/>
-      <c r="J10" s="137"/>
-      <c r="K10" s="137"/>
-      <c r="L10" s="137"/>
-      <c r="M10" s="138"/>
+      <c r="I10" s="140"/>
+      <c r="J10" s="140"/>
+      <c r="K10" s="140"/>
+      <c r="L10" s="140"/>
+      <c r="M10" s="141"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="H9:M9"/>
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="H10:M10"/>
     <mergeCell ref="B3:M3"/>
@@ -7380,6 +7386,12 @@
     <mergeCell ref="B5:M5"/>
     <mergeCell ref="B6:M6"/>
     <mergeCell ref="B7:M7"/>
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="H9:M9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7424,7 +7436,7 @@
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
-      <c r="B3" s="215" t="s">
+      <c r="B3" s="220" t="s">
         <v>639</v>
       </c>
       <c r="C3" s="134"/>
@@ -7761,7 +7773,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="169" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:3" s="163" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:3" s="47" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="15"/>
       <c r="B6" s="43" t="s">
@@ -7984,7 +7996,7 @@
     </row>
     <row r="4" spans="1:14" s="76" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="73"/>
-      <c r="B4" s="162" t="s">
+      <c r="B4" s="177" t="s">
         <v>547</v>
       </c>
       <c r="C4" s="195"/>
@@ -7993,32 +8005,32 @@
       <c r="F4" s="195"/>
       <c r="G4" s="195"/>
       <c r="H4" s="195"/>
-      <c r="I4" s="163"/>
-      <c r="J4" s="260" t="s">
+      <c r="I4" s="178"/>
+      <c r="J4" s="256" t="s">
         <v>642</v>
       </c>
-      <c r="K4" s="260"/>
-      <c r="L4" s="260"/>
-      <c r="M4" s="260"/>
-      <c r="N4" s="261"/>
-    </row>
-    <row r="5" spans="1:14" s="169" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="K4" s="256"/>
+      <c r="L4" s="256"/>
+      <c r="M4" s="256"/>
+      <c r="N4" s="257"/>
+    </row>
+    <row r="5" spans="1:14" s="163" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:14" s="85" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="257" t="s">
+      <c r="B6" s="258" t="s">
         <v>638</v>
       </c>
-      <c r="C6" s="258"/>
-      <c r="D6" s="258"/>
-      <c r="E6" s="258"/>
-      <c r="F6" s="258"/>
-      <c r="G6" s="258"/>
-      <c r="H6" s="258"/>
-      <c r="I6" s="258"/>
-      <c r="J6" s="258"/>
-      <c r="K6" s="258"/>
-      <c r="L6" s="258"/>
-      <c r="M6" s="258"/>
-      <c r="N6" s="259"/>
+      <c r="C6" s="259"/>
+      <c r="D6" s="259"/>
+      <c r="E6" s="259"/>
+      <c r="F6" s="259"/>
+      <c r="G6" s="259"/>
+      <c r="H6" s="259"/>
+      <c r="I6" s="259"/>
+      <c r="J6" s="259"/>
+      <c r="K6" s="259"/>
+      <c r="L6" s="259"/>
+      <c r="M6" s="259"/>
+      <c r="N6" s="260"/>
     </row>
     <row r="7" spans="1:14" s="47" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="15"/>
@@ -8064,7 +8076,7 @@
     </row>
     <row r="8" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="85"/>
-      <c r="B8" s="256" t="s">
+      <c r="B8" s="261" t="s">
         <v>625</v>
       </c>
       <c r="C8" s="254" t="s">
@@ -8088,7 +8100,7 @@
     </row>
     <row r="9" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="85"/>
-      <c r="B9" s="256"/>
+      <c r="B9" s="261"/>
       <c r="C9" s="254"/>
       <c r="D9" s="93" t="s">
         <v>629</v>
@@ -8108,7 +8120,7 @@
     </row>
     <row r="10" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="85"/>
-      <c r="B10" s="256"/>
+      <c r="B10" s="261"/>
       <c r="C10" s="254"/>
       <c r="D10" s="93" t="s">
         <v>630</v>
@@ -8132,7 +8144,7 @@
     </row>
     <row r="11" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="85"/>
-      <c r="B11" s="256"/>
+      <c r="B11" s="261"/>
       <c r="C11" s="254" t="s">
         <v>631</v>
       </c>
@@ -8160,7 +8172,7 @@
     </row>
     <row r="12" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="85"/>
-      <c r="B12" s="256"/>
+      <c r="B12" s="261"/>
       <c r="C12" s="254"/>
       <c r="D12" s="94" t="s">
         <v>633</v>
@@ -8198,7 +8210,7 @@
     </row>
     <row r="13" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="85"/>
-      <c r="B13" s="256"/>
+      <c r="B13" s="261"/>
       <c r="C13" s="254"/>
       <c r="D13" s="94" t="s">
         <v>634</v>
@@ -8236,7 +8248,7 @@
     </row>
     <row r="14" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="85"/>
-      <c r="B14" s="256"/>
+      <c r="B14" s="261"/>
       <c r="C14" s="254"/>
       <c r="D14" s="94" t="s">
         <v>635</v>
@@ -8260,7 +8272,7 @@
     </row>
     <row r="15" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="85"/>
-      <c r="B15" s="256"/>
+      <c r="B15" s="261"/>
       <c r="C15" s="254"/>
       <c r="D15" s="94" t="s">
         <v>636</v>
@@ -8282,7 +8294,7 @@
     </row>
     <row r="16" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="85"/>
-      <c r="B16" s="256"/>
+      <c r="B16" s="261"/>
       <c r="C16" s="254"/>
       <c r="D16" s="94" t="s">
         <v>637</v>
@@ -8308,7 +8320,7 @@
     </row>
     <row r="17" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="85"/>
-      <c r="B17" s="256" t="s">
+      <c r="B17" s="261" t="s">
         <v>550</v>
       </c>
       <c r="C17" s="254" t="s">
@@ -8338,7 +8350,7 @@
     </row>
     <row r="18" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="85"/>
-      <c r="B18" s="256"/>
+      <c r="B18" s="261"/>
       <c r="C18" s="254"/>
       <c r="D18" s="94" t="s">
         <v>553</v>
@@ -8358,7 +8370,7 @@
     </row>
     <row r="19" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="85"/>
-      <c r="B19" s="256"/>
+      <c r="B19" s="261"/>
       <c r="C19" s="254"/>
       <c r="D19" s="94" t="s">
         <v>554</v>
@@ -8382,7 +8394,7 @@
     </row>
     <row r="20" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="85"/>
-      <c r="B20" s="256"/>
+      <c r="B20" s="261"/>
       <c r="C20" s="254"/>
       <c r="D20" s="94" t="s">
         <v>555</v>
@@ -8402,7 +8414,7 @@
     </row>
     <row r="21" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="85"/>
-      <c r="B21" s="256"/>
+      <c r="B21" s="261"/>
       <c r="C21" s="254"/>
       <c r="D21" s="94" t="s">
         <v>556</v>
@@ -8426,7 +8438,7 @@
     </row>
     <row r="22" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="85"/>
-      <c r="B22" s="256"/>
+      <c r="B22" s="261"/>
       <c r="C22" s="254"/>
       <c r="D22" s="94" t="s">
         <v>557</v>
@@ -8448,7 +8460,7 @@
     </row>
     <row r="23" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="85"/>
-      <c r="B23" s="256"/>
+      <c r="B23" s="261"/>
       <c r="C23" s="254"/>
       <c r="D23" s="94" t="s">
         <v>558</v>
@@ -8472,7 +8484,7 @@
     </row>
     <row r="24" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="85"/>
-      <c r="B24" s="256"/>
+      <c r="B24" s="261"/>
       <c r="C24" s="13" t="s">
         <v>559</v>
       </c>
@@ -8512,7 +8524,7 @@
     </row>
     <row r="25" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="85"/>
-      <c r="B25" s="256" t="s">
+      <c r="B25" s="261" t="s">
         <v>560</v>
       </c>
       <c r="C25" s="254" t="s">
@@ -8540,7 +8552,7 @@
     </row>
     <row r="26" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="85"/>
-      <c r="B26" s="256"/>
+      <c r="B26" s="261"/>
       <c r="C26" s="254"/>
       <c r="D26" s="94" t="s">
         <v>563</v>
@@ -8564,7 +8576,7 @@
     </row>
     <row r="27" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="85"/>
-      <c r="B27" s="256"/>
+      <c r="B27" s="261"/>
       <c r="C27" s="254"/>
       <c r="D27" s="94" t="s">
         <v>564</v>
@@ -8586,7 +8598,7 @@
     </row>
     <row r="28" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="85"/>
-      <c r="B28" s="256"/>
+      <c r="B28" s="261"/>
       <c r="C28" s="254" t="s">
         <v>565</v>
       </c>
@@ -8616,7 +8628,7 @@
     </row>
     <row r="29" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="85"/>
-      <c r="B29" s="256"/>
+      <c r="B29" s="261"/>
       <c r="C29" s="254"/>
       <c r="D29" s="94" t="s">
         <v>567</v>
@@ -8640,7 +8652,7 @@
     </row>
     <row r="30" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="85"/>
-      <c r="B30" s="256"/>
+      <c r="B30" s="261"/>
       <c r="C30" s="254"/>
       <c r="D30" s="94" t="s">
         <v>568</v>
@@ -8670,7 +8682,7 @@
     </row>
     <row r="31" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="85"/>
-      <c r="B31" s="256"/>
+      <c r="B31" s="261"/>
       <c r="C31" s="254"/>
       <c r="D31" s="95" t="s">
         <v>569</v>
@@ -8702,7 +8714,7 @@
     </row>
     <row r="32" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="85"/>
-      <c r="B32" s="256"/>
+      <c r="B32" s="261"/>
       <c r="C32" s="254"/>
       <c r="D32" s="94" t="s">
         <v>570</v>
@@ -8726,7 +8738,7 @@
     </row>
     <row r="33" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="85"/>
-      <c r="B33" s="256"/>
+      <c r="B33" s="261"/>
       <c r="C33" s="254" t="s">
         <v>571</v>
       </c>
@@ -8750,7 +8762,7 @@
     </row>
     <row r="34" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="85"/>
-      <c r="B34" s="256"/>
+      <c r="B34" s="261"/>
       <c r="C34" s="254"/>
       <c r="D34" s="94" t="s">
         <v>573</v>
@@ -8774,7 +8786,7 @@
     </row>
     <row r="35" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="85"/>
-      <c r="B35" s="256" t="s">
+      <c r="B35" s="261" t="s">
         <v>574</v>
       </c>
       <c r="C35" s="254" t="s">
@@ -8798,7 +8810,7 @@
     </row>
     <row r="36" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="85"/>
-      <c r="B36" s="256"/>
+      <c r="B36" s="261"/>
       <c r="C36" s="254"/>
       <c r="D36" s="94" t="s">
         <v>577</v>
@@ -8818,7 +8830,7 @@
     </row>
     <row r="37" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="85"/>
-      <c r="B37" s="256"/>
+      <c r="B37" s="261"/>
       <c r="C37" s="254"/>
       <c r="D37" s="94" t="s">
         <v>578</v>
@@ -8838,7 +8850,7 @@
     </row>
     <row r="38" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="85"/>
-      <c r="B38" s="256"/>
+      <c r="B38" s="261"/>
       <c r="C38" s="254" t="s">
         <v>579</v>
       </c>
@@ -8860,7 +8872,7 @@
     </row>
     <row r="39" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="85"/>
-      <c r="B39" s="256"/>
+      <c r="B39" s="261"/>
       <c r="C39" s="254"/>
       <c r="D39" s="94" t="s">
         <v>581</v>
@@ -8884,7 +8896,7 @@
     </row>
     <row r="40" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="85"/>
-      <c r="B40" s="256"/>
+      <c r="B40" s="261"/>
       <c r="C40" s="254"/>
       <c r="D40" s="94" t="s">
         <v>582</v>
@@ -8910,7 +8922,7 @@
     </row>
     <row r="41" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="85"/>
-      <c r="B41" s="256"/>
+      <c r="B41" s="261"/>
       <c r="C41" s="254"/>
       <c r="D41" s="94" t="s">
         <v>583</v>
@@ -8930,18 +8942,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="B3:N3"/>
-    <mergeCell ref="A5:XFD5"/>
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:N4"/>
-    <mergeCell ref="B6:N6"/>
-    <mergeCell ref="B8:B16"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="B17:B24"/>
-    <mergeCell ref="C17:C23"/>
     <mergeCell ref="B25:B34"/>
     <mergeCell ref="C25:C27"/>
     <mergeCell ref="C28:C32"/>
@@ -8949,6 +8949,18 @@
     <mergeCell ref="B35:B41"/>
     <mergeCell ref="C35:C37"/>
     <mergeCell ref="C38:C41"/>
+    <mergeCell ref="B6:N6"/>
+    <mergeCell ref="B8:B16"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="B17:B24"/>
+    <mergeCell ref="C17:C23"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="A5:XFD5"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:N4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -12167,66 +12179,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="118.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="166"/>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="167"/>
-      <c r="G1" s="167"/>
-      <c r="H1" s="167"/>
-      <c r="I1" s="168"/>
+      <c r="B1" s="160"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="162"/>
     </row>
     <row r="2" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
-      <c r="B2" s="176" t="s">
+      <c r="B2" s="171" t="s">
         <v>708</v>
       </c>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177"/>
-      <c r="I2" s="178"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="172"/>
+      <c r="I2" s="173"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="66"/>
-      <c r="B3" s="170" t="s">
+      <c r="B3" s="164" t="s">
         <v>540</v>
       </c>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="171"/>
-      <c r="G3" s="171"/>
-      <c r="H3" s="171"/>
-      <c r="I3" s="172"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="166"/>
       <c r="J3" s="66"/>
     </row>
     <row r="4" spans="1:10" s="74" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="73"/>
-      <c r="B4" s="160" t="s">
+      <c r="B4" s="175" t="s">
         <v>709</v>
       </c>
-      <c r="C4" s="161"/>
-      <c r="D4" s="162" t="s">
+      <c r="C4" s="176"/>
+      <c r="D4" s="177" t="s">
         <v>529</v>
       </c>
-      <c r="E4" s="163"/>
-      <c r="F4" s="162" t="s">
+      <c r="E4" s="178"/>
+      <c r="F4" s="177" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="163"/>
-      <c r="H4" s="162" t="s">
+      <c r="G4" s="178"/>
+      <c r="H4" s="177" t="s">
         <v>530</v>
       </c>
-      <c r="I4" s="163"/>
+      <c r="I4" s="178"/>
       <c r="J4" s="15"/>
     </row>
-    <row r="5" spans="1:10" s="169" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:10" s="163" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:10" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="164"/>
+      <c r="B6" s="168"/>
       <c r="C6" s="54" t="s">
         <v>858</v>
       </c>
@@ -12250,7 +12262,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="165"/>
+      <c r="B7" s="169"/>
       <c r="C7" s="120" t="s">
         <v>711</v>
       </c>
@@ -12274,7 +12286,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="155" t="s">
+      <c r="B8" s="158" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="62"/>
@@ -12294,7 +12306,7 @@
       <c r="I8" s="62"/>
     </row>
     <row r="9" spans="1:10" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="155"/>
+      <c r="B9" s="158"/>
       <c r="C9" s="62"/>
       <c r="D9" s="62"/>
       <c r="E9" s="62"/>
@@ -12306,7 +12318,7 @@
       <c r="I9" s="62"/>
     </row>
     <row r="10" spans="1:10" s="131" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="155"/>
+      <c r="B10" s="158"/>
       <c r="C10" s="62"/>
       <c r="D10" s="62"/>
       <c r="E10" s="62"/>
@@ -12318,7 +12330,7 @@
       <c r="I10" s="62"/>
     </row>
     <row r="11" spans="1:10" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="155"/>
+      <c r="B11" s="158"/>
       <c r="C11" s="62"/>
       <c r="D11" s="62"/>
       <c r="E11" s="62"/>
@@ -12330,7 +12342,7 @@
       <c r="I11" s="62"/>
     </row>
     <row r="12" spans="1:10" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="155"/>
+      <c r="B12" s="158"/>
       <c r="C12" s="62"/>
       <c r="D12" s="62"/>
       <c r="E12" s="62"/>
@@ -12342,7 +12354,7 @@
       <c r="I12" s="62"/>
     </row>
     <row r="13" spans="1:10" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="155"/>
+      <c r="B13" s="158"/>
       <c r="C13" s="62"/>
       <c r="D13" s="62"/>
       <c r="E13" s="62"/>
@@ -12354,7 +12366,7 @@
       <c r="I13" s="62"/>
     </row>
     <row r="14" spans="1:10" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="155"/>
+      <c r="B14" s="158"/>
       <c r="C14" s="62"/>
       <c r="D14" s="62"/>
       <c r="E14" s="62"/>
@@ -12366,7 +12378,7 @@
       <c r="I14" s="62"/>
     </row>
     <row r="15" spans="1:10" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="155"/>
+      <c r="B15" s="158"/>
       <c r="C15" s="62"/>
       <c r="D15" s="62"/>
       <c r="E15" s="62"/>
@@ -12378,7 +12390,7 @@
       <c r="I15" s="62"/>
     </row>
     <row r="16" spans="1:10" s="123" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="155"/>
+      <c r="B16" s="158"/>
       <c r="C16" s="62"/>
       <c r="D16" s="62"/>
       <c r="E16" s="62"/>
@@ -12390,7 +12402,7 @@
       <c r="I16" s="62"/>
     </row>
     <row r="17" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="155"/>
+      <c r="B17" s="158"/>
       <c r="C17" s="62"/>
       <c r="D17" s="62"/>
       <c r="E17" s="62"/>
@@ -12402,7 +12414,7 @@
       <c r="I17" s="62"/>
     </row>
     <row r="18" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="157" t="s">
+      <c r="B18" s="170" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="69"/>
@@ -12414,7 +12426,7 @@
       <c r="I18" s="7"/>
     </row>
     <row r="19" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="158"/>
+      <c r="B19" s="154"/>
       <c r="C19" s="71"/>
       <c r="D19" s="62"/>
       <c r="E19" s="70"/>
@@ -12424,7 +12436,7 @@
       <c r="I19" s="62"/>
     </row>
     <row r="20" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="158"/>
+      <c r="B20" s="154"/>
       <c r="C20" s="62"/>
       <c r="D20" s="62"/>
       <c r="E20" s="62"/>
@@ -12434,7 +12446,7 @@
       <c r="I20" s="62"/>
     </row>
     <row r="21" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="145" t="s">
+      <c r="B21" s="153" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="7"/>
@@ -12446,7 +12458,7 @@
       <c r="I21" s="7"/>
     </row>
     <row r="22" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="146"/>
+      <c r="B22" s="145"/>
       <c r="C22" s="62"/>
       <c r="D22" s="62"/>
       <c r="E22" s="62"/>
@@ -12456,7 +12468,7 @@
       <c r="I22" s="62"/>
     </row>
     <row r="23" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="146"/>
+      <c r="B23" s="145"/>
       <c r="C23" s="62"/>
       <c r="D23" s="62"/>
       <c r="E23" s="62"/>
@@ -12466,7 +12478,7 @@
       <c r="I23" s="62"/>
     </row>
     <row r="24" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="148" t="s">
+      <c r="B24" s="157" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="7"/>
@@ -12478,7 +12490,7 @@
       <c r="I24" s="7"/>
     </row>
     <row r="25" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="149"/>
+      <c r="B25" s="147"/>
       <c r="C25" s="62"/>
       <c r="D25" s="62"/>
       <c r="E25" s="62"/>
@@ -12488,7 +12500,7 @@
       <c r="I25" s="62"/>
     </row>
     <row r="26" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="149"/>
+      <c r="B26" s="147"/>
       <c r="C26" s="62"/>
       <c r="D26" s="62"/>
       <c r="E26" s="62"/>
@@ -12498,7 +12510,7 @@
       <c r="I26" s="62"/>
     </row>
     <row r="27" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="151" t="s">
+      <c r="B27" s="156" t="s">
         <v>12</v>
       </c>
       <c r="C27" s="7"/>
@@ -12510,7 +12522,7 @@
       <c r="I27" s="7"/>
     </row>
     <row r="28" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="152"/>
+      <c r="B28" s="149"/>
       <c r="C28" s="62"/>
       <c r="D28" s="62"/>
       <c r="E28" s="62"/>
@@ -12520,7 +12532,7 @@
       <c r="I28" s="62"/>
     </row>
     <row r="29" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="152"/>
+      <c r="B29" s="149"/>
       <c r="C29" s="62"/>
       <c r="D29" s="62"/>
       <c r="E29" s="62"/>
@@ -12530,7 +12542,7 @@
       <c r="I29" s="62"/>
     </row>
     <row r="30" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="173" t="s">
+      <c r="B30" s="167" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="59"/>
@@ -12542,7 +12554,7 @@
       <c r="I30" s="7"/>
     </row>
     <row r="31" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="174"/>
+      <c r="B31" s="151"/>
       <c r="C31" s="62"/>
       <c r="D31" s="62"/>
       <c r="E31" s="62"/>
@@ -12552,7 +12564,7 @@
       <c r="I31" s="62"/>
     </row>
     <row r="32" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="174"/>
+      <c r="B32" s="151"/>
       <c r="C32" s="62"/>
       <c r="D32" s="62"/>
       <c r="E32" s="62"/>
@@ -12563,7 +12575,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
-      <c r="B33" s="164"/>
+      <c r="B33" s="168"/>
       <c r="C33" s="54" t="s">
         <v>712</v>
       </c>
@@ -12589,7 +12601,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
-      <c r="B34" s="165"/>
+      <c r="B34" s="169"/>
       <c r="C34" s="120" t="s">
         <v>711</v>
       </c>
@@ -12615,7 +12627,7 @@
     </row>
     <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
-      <c r="B35" s="154" t="s">
+      <c r="B35" s="174" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="62" t="s">
@@ -12639,7 +12651,7 @@
     </row>
     <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="119"/>
-      <c r="B36" s="155"/>
+      <c r="B36" s="158"/>
       <c r="C36" s="62" t="s">
         <v>870</v>
       </c>
@@ -12659,7 +12671,7 @@
     </row>
     <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="119"/>
-      <c r="B37" s="155"/>
+      <c r="B37" s="158"/>
       <c r="C37" s="62" t="s">
         <v>869</v>
       </c>
@@ -12675,7 +12687,7 @@
     </row>
     <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="119"/>
-      <c r="B38" s="155"/>
+      <c r="B38" s="158"/>
       <c r="C38" s="62" t="s">
         <v>878</v>
       </c>
@@ -12689,7 +12701,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" s="1"/>
-      <c r="B39" s="155"/>
+      <c r="B39" s="158"/>
       <c r="C39" s="125" t="s">
         <v>882</v>
       </c>
@@ -12703,7 +12715,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40" s="123"/>
-      <c r="B40" s="155"/>
+      <c r="B40" s="158"/>
       <c r="C40" s="60" t="s">
         <v>883</v>
       </c>
@@ -12717,7 +12729,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41" s="123"/>
-      <c r="B41" s="155"/>
+      <c r="B41" s="158"/>
       <c r="C41" s="60" t="s">
         <v>884</v>
       </c>
@@ -12731,7 +12743,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A42" s="124"/>
-      <c r="B42" s="155"/>
+      <c r="B42" s="158"/>
       <c r="C42" s="60" t="s">
         <v>887</v>
       </c>
@@ -12745,7 +12757,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A43" s="124"/>
-      <c r="B43" s="155"/>
+      <c r="B43" s="158"/>
       <c r="C43" s="60" t="s">
         <v>892</v>
       </c>
@@ -12759,7 +12771,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44" s="126"/>
-      <c r="B44" s="155"/>
+      <c r="B44" s="158"/>
       <c r="C44" s="60" t="s">
         <v>907</v>
       </c>
@@ -12773,7 +12785,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45" s="1"/>
-      <c r="B45" s="156"/>
+      <c r="B45" s="159"/>
       <c r="C45" s="62" t="s">
         <v>898</v>
       </c>
@@ -12787,7 +12799,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A46" s="1"/>
-      <c r="B46" s="157" t="s">
+      <c r="B46" s="170" t="s">
         <v>9</v>
       </c>
       <c r="C46" s="69"/>
@@ -12803,7 +12815,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A47" s="1"/>
-      <c r="B47" s="158"/>
+      <c r="B47" s="154"/>
       <c r="C47" s="71"/>
       <c r="D47" s="5"/>
       <c r="E47" s="70"/>
@@ -12815,7 +12827,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A48" s="1"/>
-      <c r="B48" s="158"/>
+      <c r="B48" s="154"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -12827,7 +12839,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A49" s="1"/>
-      <c r="B49" s="145" t="s">
+      <c r="B49" s="153" t="s">
         <v>10</v>
       </c>
       <c r="C49" s="7"/>
@@ -12841,7 +12853,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A50" s="1"/>
-      <c r="B50" s="146"/>
+      <c r="B50" s="145"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
@@ -12853,7 +12865,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A51" s="1"/>
-      <c r="B51" s="146"/>
+      <c r="B51" s="145"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
@@ -12865,7 +12877,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A52" s="1"/>
-      <c r="B52" s="148" t="s">
+      <c r="B52" s="157" t="s">
         <v>11</v>
       </c>
       <c r="C52" s="7"/>
@@ -12879,7 +12891,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A53" s="1"/>
-      <c r="B53" s="149"/>
+      <c r="B53" s="147"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
@@ -12891,7 +12903,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A54" s="1"/>
-      <c r="B54" s="149"/>
+      <c r="B54" s="147"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
@@ -12903,7 +12915,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A55" s="1"/>
-      <c r="B55" s="151" t="s">
+      <c r="B55" s="156" t="s">
         <v>12</v>
       </c>
       <c r="C55" s="7"/>
@@ -12917,7 +12929,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A56" s="1"/>
-      <c r="B56" s="152"/>
+      <c r="B56" s="149"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
@@ -12929,7 +12941,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A57" s="1"/>
-      <c r="B57" s="152"/>
+      <c r="B57" s="149"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
@@ -12941,7 +12953,7 @@
     </row>
     <row r="58" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="1"/>
-      <c r="B58" s="173" t="s">
+      <c r="B58" s="167" t="s">
         <v>13</v>
       </c>
       <c r="C58" s="59"/>
@@ -12955,7 +12967,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A59" s="1"/>
-      <c r="B59" s="174"/>
+      <c r="B59" s="151"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
@@ -12967,7 +12979,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A60" s="1"/>
-      <c r="B60" s="174"/>
+      <c r="B60" s="151"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
@@ -13031,7 +13043,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A63" s="1"/>
-      <c r="B63" s="154" t="s">
+      <c r="B63" s="174" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="7" t="s">
@@ -13053,7 +13065,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A64" s="1"/>
-      <c r="B64" s="155"/>
+      <c r="B64" s="158"/>
       <c r="C64" s="5" t="s">
         <v>933</v>
       </c>
@@ -13071,7 +13083,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A65" s="132"/>
-      <c r="B65" s="155"/>
+      <c r="B65" s="158"/>
       <c r="C65" s="62" t="s">
         <v>999</v>
       </c>
@@ -13085,7 +13097,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A66" s="1"/>
-      <c r="B66" s="156"/>
+      <c r="B66" s="159"/>
       <c r="C66" s="6" t="s">
         <v>996</v>
       </c>
@@ -13099,7 +13111,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A67" s="1"/>
-      <c r="B67" s="157" t="s">
+      <c r="B67" s="170" t="s">
         <v>9</v>
       </c>
       <c r="C67" s="7" t="s">
@@ -13123,7 +13135,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A68" s="1"/>
-      <c r="B68" s="158"/>
+      <c r="B68" s="154"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5" t="s">
@@ -13141,7 +13153,7 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A69" s="123"/>
-      <c r="B69" s="158"/>
+      <c r="B69" s="154"/>
       <c r="C69" s="62"/>
       <c r="D69" s="62"/>
       <c r="E69" s="62" t="s">
@@ -13157,7 +13169,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A70" s="124"/>
-      <c r="B70" s="158"/>
+      <c r="B70" s="154"/>
       <c r="C70" s="62"/>
       <c r="D70" s="62"/>
       <c r="E70" s="62" t="s">
@@ -13173,7 +13185,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A71" s="124"/>
-      <c r="B71" s="158"/>
+      <c r="B71" s="154"/>
       <c r="C71" s="62"/>
       <c r="D71" s="62"/>
       <c r="E71" s="62"/>
@@ -13184,7 +13196,7 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A72" s="124"/>
-      <c r="B72" s="158"/>
+      <c r="B72" s="154"/>
       <c r="C72" s="62"/>
       <c r="D72" s="62"/>
       <c r="E72" s="62"/>
@@ -13196,7 +13208,7 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A73" s="1"/>
-      <c r="B73" s="159"/>
+      <c r="B73" s="155"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
@@ -13208,7 +13220,7 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A74" s="1"/>
-      <c r="B74" s="145" t="s">
+      <c r="B74" s="153" t="s">
         <v>10</v>
       </c>
       <c r="C74" s="7"/>
@@ -13222,7 +13234,7 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A75" s="1"/>
-      <c r="B75" s="146"/>
+      <c r="B75" s="145"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -13234,7 +13246,7 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A76" s="1"/>
-      <c r="B76" s="147"/>
+      <c r="B76" s="146"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
@@ -13246,7 +13258,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A77" s="1"/>
-      <c r="B77" s="148" t="s">
+      <c r="B77" s="157" t="s">
         <v>11</v>
       </c>
       <c r="C77" s="7"/>
@@ -13260,7 +13272,7 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A78" s="1"/>
-      <c r="B78" s="149"/>
+      <c r="B78" s="147"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -13272,7 +13284,7 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A79" s="1"/>
-      <c r="B79" s="150"/>
+      <c r="B79" s="148"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
@@ -13284,7 +13296,7 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A80" s="1"/>
-      <c r="B80" s="151" t="s">
+      <c r="B80" s="156" t="s">
         <v>12</v>
       </c>
       <c r="C80" s="7"/>
@@ -13298,7 +13310,7 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A81" s="1"/>
-      <c r="B81" s="152"/>
+      <c r="B81" s="149"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -13310,7 +13322,7 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A82" s="1"/>
-      <c r="B82" s="153"/>
+      <c r="B82" s="150"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
@@ -13322,7 +13334,7 @@
     </row>
     <row r="83" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="1"/>
-      <c r="B83" s="173" t="s">
+      <c r="B83" s="167" t="s">
         <v>13</v>
       </c>
       <c r="C83" s="7"/>
@@ -13336,7 +13348,7 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A84" s="1"/>
-      <c r="B84" s="174"/>
+      <c r="B84" s="151"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -13348,7 +13360,7 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A85" s="1"/>
-      <c r="B85" s="175"/>
+      <c r="B85" s="152"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
@@ -13412,7 +13424,7 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A88" s="1"/>
-      <c r="B88" s="154" t="s">
+      <c r="B88" s="174" t="s">
         <v>8</v>
       </c>
       <c r="C88" s="7" t="s">
@@ -13428,7 +13440,7 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A89" s="1"/>
-      <c r="B89" s="155"/>
+      <c r="B89" s="158"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -13440,7 +13452,7 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A90" s="1"/>
-      <c r="B90" s="156"/>
+      <c r="B90" s="159"/>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
@@ -13452,7 +13464,7 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A91" s="1"/>
-      <c r="B91" s="157" t="s">
+      <c r="B91" s="170" t="s">
         <v>9</v>
       </c>
       <c r="C91" s="7" t="s">
@@ -13474,7 +13486,7 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A92" s="1"/>
-      <c r="B92" s="158"/>
+      <c r="B92" s="154"/>
       <c r="C92" s="5" t="s">
         <v>862</v>
       </c>
@@ -13494,7 +13506,7 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A93" s="123"/>
-      <c r="B93" s="158"/>
+      <c r="B93" s="154"/>
       <c r="C93" s="62" t="s">
         <v>881</v>
       </c>
@@ -13514,7 +13526,7 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A94" s="124"/>
-      <c r="B94" s="158"/>
+      <c r="B94" s="154"/>
       <c r="C94" s="62" t="s">
         <v>889</v>
       </c>
@@ -13532,7 +13544,7 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A95" s="124"/>
-      <c r="B95" s="158"/>
+      <c r="B95" s="154"/>
       <c r="C95" s="62" t="s">
         <v>897</v>
       </c>
@@ -13548,7 +13560,7 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A96" s="124"/>
-      <c r="B96" s="158"/>
+      <c r="B96" s="154"/>
       <c r="C96" s="62" t="s">
         <v>907</v>
       </c>
@@ -13564,7 +13576,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A97" s="126"/>
-      <c r="B97" s="158"/>
+      <c r="B97" s="154"/>
       <c r="C97" s="60" t="s">
         <v>899</v>
       </c>
@@ -13578,7 +13590,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A98" s="1"/>
-      <c r="B98" s="159"/>
+      <c r="B98" s="155"/>
       <c r="D98" s="6"/>
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
@@ -13589,7 +13601,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A99" s="1"/>
-      <c r="B99" s="145" t="s">
+      <c r="B99" s="153" t="s">
         <v>10</v>
       </c>
       <c r="C99" s="7"/>
@@ -13603,7 +13615,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A100" s="1"/>
-      <c r="B100" s="146"/>
+      <c r="B100" s="145"/>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
@@ -13615,7 +13627,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A101" s="1"/>
-      <c r="B101" s="147"/>
+      <c r="B101" s="146"/>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
       <c r="E101" s="6"/>
@@ -13627,7 +13639,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A102" s="1"/>
-      <c r="B102" s="148" t="s">
+      <c r="B102" s="157" t="s">
         <v>11</v>
       </c>
       <c r="C102" s="7"/>
@@ -13641,7 +13653,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A103" s="1"/>
-      <c r="B103" s="149"/>
+      <c r="B103" s="147"/>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
@@ -13653,7 +13665,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A104" s="1"/>
-      <c r="B104" s="150"/>
+      <c r="B104" s="148"/>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
       <c r="E104" s="6"/>
@@ -13665,7 +13677,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A105" s="1"/>
-      <c r="B105" s="151" t="s">
+      <c r="B105" s="156" t="s">
         <v>12</v>
       </c>
       <c r="C105" s="7"/>
@@ -13679,7 +13691,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A106" s="1"/>
-      <c r="B106" s="152"/>
+      <c r="B106" s="149"/>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
@@ -13691,7 +13703,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A107" s="1"/>
-      <c r="B107" s="153"/>
+      <c r="B107" s="150"/>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
       <c r="E107" s="6"/>
@@ -13704,7 +13716,7 @@
     </row>
     <row r="108" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="1"/>
-      <c r="B108" s="173" t="s">
+      <c r="B108" s="167" t="s">
         <v>13</v>
       </c>
       <c r="C108" s="7"/>
@@ -13719,7 +13731,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A109" s="1"/>
-      <c r="B109" s="174"/>
+      <c r="B109" s="151"/>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
@@ -13732,7 +13744,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A110" s="1"/>
-      <c r="B110" s="175"/>
+      <c r="B110" s="152"/>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
       <c r="E110" s="6"/>
@@ -13799,7 +13811,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A113" s="1"/>
-      <c r="B113" s="155" t="s">
+      <c r="B113" s="158" t="s">
         <v>8</v>
       </c>
       <c r="C113" s="5" t="s">
@@ -13818,7 +13830,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A114" s="1"/>
-      <c r="B114" s="155"/>
+      <c r="B114" s="158"/>
       <c r="C114" s="5" t="s">
         <v>1018</v>
       </c>
@@ -13833,7 +13845,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A115" s="1"/>
-      <c r="B115" s="156"/>
+      <c r="B115" s="159"/>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
       <c r="E115" s="6"/>
@@ -13846,7 +13858,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A116" s="1"/>
-      <c r="B116" s="158" t="s">
+      <c r="B116" s="154" t="s">
         <v>9</v>
       </c>
       <c r="C116" s="5" t="s">
@@ -13871,7 +13883,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A117" s="1"/>
-      <c r="B117" s="158"/>
+      <c r="B117" s="154"/>
       <c r="C117" s="5"/>
       <c r="D117" s="5" t="s">
         <v>931</v>
@@ -13886,7 +13898,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A118" s="1"/>
-      <c r="B118" s="159"/>
+      <c r="B118" s="155"/>
       <c r="C118" s="6"/>
       <c r="D118" s="6"/>
       <c r="E118" s="6"/>
@@ -13899,7 +13911,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A119" s="1"/>
-      <c r="B119" s="146" t="s">
+      <c r="B119" s="145" t="s">
         <v>10</v>
       </c>
       <c r="C119" s="5"/>
@@ -13916,7 +13928,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A120" s="1"/>
-      <c r="B120" s="146"/>
+      <c r="B120" s="145"/>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
@@ -13929,7 +13941,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A121" s="1"/>
-      <c r="B121" s="147"/>
+      <c r="B121" s="146"/>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
       <c r="E121" s="6"/>
@@ -13942,7 +13954,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A122" s="1"/>
-      <c r="B122" s="149" t="s">
+      <c r="B122" s="147" t="s">
         <v>11</v>
       </c>
       <c r="C122" s="5"/>
@@ -13957,7 +13969,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A123" s="1"/>
-      <c r="B123" s="149"/>
+      <c r="B123" s="147"/>
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
@@ -13970,7 +13982,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A124" s="1"/>
-      <c r="B124" s="150"/>
+      <c r="B124" s="148"/>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
       <c r="E124" s="6"/>
@@ -13983,7 +13995,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A125" s="1"/>
-      <c r="B125" s="152" t="s">
+      <c r="B125" s="149" t="s">
         <v>12</v>
       </c>
       <c r="C125" s="5"/>
@@ -13998,7 +14010,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A126" s="1"/>
-      <c r="B126" s="152"/>
+      <c r="B126" s="149"/>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
@@ -14011,7 +14023,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A127" s="1"/>
-      <c r="B127" s="153"/>
+      <c r="B127" s="150"/>
       <c r="C127" s="6"/>
       <c r="D127" s="6"/>
       <c r="E127" s="6"/>
@@ -14023,7 +14035,7 @@
     </row>
     <row r="128" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="1"/>
-      <c r="B128" s="174" t="s">
+      <c r="B128" s="151" t="s">
         <v>13</v>
       </c>
       <c r="C128" s="5"/>
@@ -14037,7 +14049,7 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A129" s="1"/>
-      <c r="B129" s="174"/>
+      <c r="B129" s="151"/>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
@@ -14049,7 +14061,7 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A130" s="1"/>
-      <c r="B130" s="175"/>
+      <c r="B130" s="152"/>
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
       <c r="E130" s="6"/>
@@ -16587,15 +16599,21 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B119:B121"/>
-    <mergeCell ref="B122:B124"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="B116:B118"/>
-    <mergeCell ref="B105:B107"/>
-    <mergeCell ref="B102:B104"/>
-    <mergeCell ref="B113:B115"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="B91:B98"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="B67:B73"/>
+    <mergeCell ref="B35:B45"/>
+    <mergeCell ref="B46:B48"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="A5:XFD5"/>
     <mergeCell ref="B3:I3"/>
@@ -16612,21 +16630,15 @@
     <mergeCell ref="B83:B85"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B52:B54"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="B67:B73"/>
-    <mergeCell ref="B35:B45"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="B91:B98"/>
+    <mergeCell ref="B119:B121"/>
+    <mergeCell ref="B122:B124"/>
+    <mergeCell ref="B125:B127"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="B116:B118"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="B102:B104"/>
+    <mergeCell ref="B113:B115"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -16645,7 +16657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M577"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
@@ -16658,41 +16670,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="119.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="166"/>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="167"/>
-      <c r="G1" s="167"/>
-      <c r="H1" s="167"/>
-      <c r="I1" s="168"/>
+      <c r="B1" s="160"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="162"/>
     </row>
     <row r="2" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
-      <c r="B2" s="176" t="s">
+      <c r="B2" s="171" t="s">
         <v>741</v>
       </c>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="189"/>
-      <c r="I2" s="190"/>
+      <c r="C2" s="191"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="192"/>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="66"/>
-      <c r="B3" s="170" t="s">
+      <c r="B3" s="164" t="s">
         <v>540</v>
       </c>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="171"/>
-      <c r="G3" s="171"/>
-      <c r="H3" s="171"/>
-      <c r="I3" s="172"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="166"/>
       <c r="J3" s="66"/>
     </row>
     <row r="4" spans="1:10" s="75" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -16701,24 +16713,24 @@
         <v>847</v>
       </c>
       <c r="C4" s="194"/>
-      <c r="D4" s="162" t="s">
+      <c r="D4" s="177" t="s">
         <v>544</v>
       </c>
-      <c r="E4" s="163"/>
-      <c r="F4" s="162" t="s">
+      <c r="E4" s="178"/>
+      <c r="F4" s="177" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="195"/>
-      <c r="H4" s="162" t="s">
+      <c r="H4" s="177" t="s">
         <v>529</v>
       </c>
-      <c r="I4" s="163"/>
+      <c r="I4" s="178"/>
       <c r="J4" s="73"/>
     </row>
-    <row r="5" spans="1:10" s="169" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:10" s="163" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="164"/>
+      <c r="B6" s="168"/>
       <c r="C6" s="54" t="s">
         <v>742</v>
       </c>
@@ -16744,7 +16756,7 @@
     </row>
     <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="165"/>
+      <c r="B7" s="169"/>
       <c r="C7" s="55" t="s">
         <v>1</v>
       </c>
@@ -16808,7 +16820,7 @@
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="179" t="s">
+      <c r="B11" s="189" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="11"/>
@@ -16822,7 +16834,7 @@
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="179"/>
+      <c r="B12" s="189"/>
       <c r="C12" s="11"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -16834,7 +16846,7 @@
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="180"/>
+      <c r="B13" s="190"/>
       <c r="C13" s="10"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -16960,7 +16972,7 @@
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
-      <c r="B23" s="191" t="s">
+      <c r="B23" s="179" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="11"/>
@@ -16974,7 +16986,7 @@
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
-      <c r="B24" s="191"/>
+      <c r="B24" s="179"/>
       <c r="C24" s="11"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -16986,7 +16998,7 @@
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
-      <c r="B25" s="192"/>
+      <c r="B25" s="180"/>
       <c r="C25" s="10"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -17088,7 +17100,7 @@
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
-      <c r="B31" s="179" t="s">
+      <c r="B31" s="189" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="11"/>
@@ -17110,7 +17122,7 @@
     </row>
     <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
-      <c r="B32" s="179"/>
+      <c r="B32" s="189"/>
       <c r="C32" s="11"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5" t="s">
@@ -17126,7 +17138,7 @@
     </row>
     <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
-      <c r="B33" s="180"/>
+      <c r="B33" s="190"/>
       <c r="C33" s="10"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6" t="s">
@@ -17256,7 +17268,7 @@
     </row>
     <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1"/>
-      <c r="B43" s="191" t="s">
+      <c r="B43" s="179" t="s">
         <v>13</v>
       </c>
       <c r="C43" s="11"/>
@@ -17270,7 +17282,7 @@
     </row>
     <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="1"/>
-      <c r="B44" s="191"/>
+      <c r="B44" s="179"/>
       <c r="C44" s="11"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -17282,7 +17294,7 @@
     </row>
     <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1"/>
-      <c r="B45" s="192"/>
+      <c r="B45" s="180"/>
       <c r="C45" s="10"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
@@ -17384,7 +17396,7 @@
     </row>
     <row r="51" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1"/>
-      <c r="B51" s="179" t="s">
+      <c r="B51" s="189" t="s">
         <v>9</v>
       </c>
       <c r="C51" s="11"/>
@@ -17398,7 +17410,7 @@
     </row>
     <row r="52" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1"/>
-      <c r="B52" s="179"/>
+      <c r="B52" s="189"/>
       <c r="C52" s="11"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -17410,7 +17422,7 @@
     </row>
     <row r="53" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="1"/>
-      <c r="B53" s="180"/>
+      <c r="B53" s="190"/>
       <c r="C53" s="10"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
@@ -17537,7 +17549,7 @@
     </row>
     <row r="63" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="1"/>
-      <c r="B63" s="191" t="s">
+      <c r="B63" s="179" t="s">
         <v>13</v>
       </c>
       <c r="C63" s="11"/>
@@ -17551,7 +17563,7 @@
     </row>
     <row r="64" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="1"/>
-      <c r="B64" s="191"/>
+      <c r="B64" s="179"/>
       <c r="C64" s="11"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -17566,7 +17578,7 @@
     </row>
     <row r="65" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="1"/>
-      <c r="B65" s="192"/>
+      <c r="B65" s="180"/>
       <c r="C65" s="10"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
@@ -17686,7 +17698,7 @@
     </row>
     <row r="71" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="1"/>
-      <c r="B71" s="179" t="s">
+      <c r="B71" s="189" t="s">
         <v>9</v>
       </c>
       <c r="C71" s="11"/>
@@ -17703,7 +17715,7 @@
     </row>
     <row r="72" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="1"/>
-      <c r="B72" s="179"/>
+      <c r="B72" s="189"/>
       <c r="C72" s="11"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -17718,7 +17730,7 @@
     </row>
     <row r="73" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="1"/>
-      <c r="B73" s="180"/>
+      <c r="B73" s="190"/>
       <c r="C73" s="10"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
@@ -17874,7 +17886,7 @@
     </row>
     <row r="83" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="1"/>
-      <c r="B83" s="191" t="s">
+      <c r="B83" s="179" t="s">
         <v>13</v>
       </c>
       <c r="C83" s="11"/>
@@ -17891,7 +17903,7 @@
     </row>
     <row r="84" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="1"/>
-      <c r="B84" s="191"/>
+      <c r="B84" s="179"/>
       <c r="C84" s="11"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -17906,7 +17918,7 @@
     </row>
     <row r="85" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="1"/>
-      <c r="B85" s="192"/>
+      <c r="B85" s="180"/>
       <c r="C85" s="10"/>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
@@ -18014,7 +18026,7 @@
     </row>
     <row r="91" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="1"/>
-      <c r="B91" s="179" t="s">
+      <c r="B91" s="189" t="s">
         <v>9</v>
       </c>
       <c r="C91" s="11"/>
@@ -18028,7 +18040,7 @@
     </row>
     <row r="92" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="1"/>
-      <c r="B92" s="179"/>
+      <c r="B92" s="189"/>
       <c r="C92" s="11"/>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -18040,7 +18052,7 @@
     </row>
     <row r="93" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="1"/>
-      <c r="B93" s="180"/>
+      <c r="B93" s="190"/>
       <c r="C93" s="10"/>
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
@@ -18166,7 +18178,7 @@
     </row>
     <row r="103" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="1"/>
-      <c r="B103" s="191" t="s">
+      <c r="B103" s="179" t="s">
         <v>13</v>
       </c>
       <c r="C103" s="11"/>
@@ -18180,7 +18192,7 @@
     </row>
     <row r="104" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="1"/>
-      <c r="B104" s="191"/>
+      <c r="B104" s="179"/>
       <c r="C104" s="11"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
@@ -18192,7 +18204,7 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A105" s="1"/>
-      <c r="B105" s="192"/>
+      <c r="B105" s="180"/>
       <c r="C105" s="68"/>
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
@@ -22458,6 +22470,29 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B6:B7"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B103:B105"/>
     <mergeCell ref="A5:XFD5"/>
@@ -22474,29 +22509,6 @@
     <mergeCell ref="B54:B56"/>
     <mergeCell ref="B57:B59"/>
     <mergeCell ref="B60:B62"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B68:B70"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -22539,30 +22551,30 @@
     </row>
     <row r="2" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
-      <c r="B2" s="176" t="s">
+      <c r="B2" s="171" t="s">
         <v>778</v>
       </c>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177"/>
-      <c r="I2" s="178"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="172"/>
+      <c r="I2" s="173"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="66"/>
-      <c r="B3" s="170" t="s">
+      <c r="B3" s="164" t="s">
         <v>540</v>
       </c>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="171"/>
-      <c r="G3" s="171"/>
-      <c r="H3" s="171"/>
-      <c r="I3" s="172"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="166"/>
       <c r="J3" s="66"/>
     </row>
     <row r="4" spans="1:10" s="76" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -22571,24 +22583,24 @@
         <v>849</v>
       </c>
       <c r="C4" s="194"/>
-      <c r="D4" s="162" t="s">
+      <c r="D4" s="177" t="s">
         <v>545</v>
       </c>
-      <c r="E4" s="163"/>
-      <c r="F4" s="162" t="s">
+      <c r="E4" s="178"/>
+      <c r="F4" s="177" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="195"/>
-      <c r="H4" s="162" t="s">
+      <c r="H4" s="177" t="s">
         <v>529</v>
       </c>
-      <c r="I4" s="163"/>
+      <c r="I4" s="178"/>
       <c r="J4" s="73"/>
     </row>
-    <row r="5" spans="1:10" s="169" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:10" s="163" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="164"/>
+      <c r="B6" s="168"/>
       <c r="C6" s="103" t="s">
         <v>779</v>
       </c>
@@ -22614,7 +22626,7 @@
     </row>
     <row r="7" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="165"/>
+      <c r="B7" s="169"/>
       <c r="C7" s="104" t="s">
         <v>780</v>
       </c>
@@ -22640,7 +22652,7 @@
     </row>
     <row r="8" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="155" t="s">
+      <c r="B8" s="158" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="5"/>
@@ -22654,7 +22666,7 @@
     </row>
     <row r="9" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="155"/>
+      <c r="B9" s="158"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -22666,7 +22678,7 @@
     </row>
     <row r="10" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="156"/>
+      <c r="B10" s="159"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -22678,7 +22690,7 @@
     </row>
     <row r="11" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="158" t="s">
+      <c r="B11" s="154" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="5"/>
@@ -22692,7 +22704,7 @@
     </row>
     <row r="12" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="158"/>
+      <c r="B12" s="154"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -22704,7 +22716,7 @@
     </row>
     <row r="13" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="159"/>
+      <c r="B13" s="155"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -22716,7 +22728,7 @@
     </row>
     <row r="14" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="146" t="s">
+      <c r="B14" s="145" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="5"/>
@@ -22730,7 +22742,7 @@
     </row>
     <row r="15" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="146"/>
+      <c r="B15" s="145"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -22742,7 +22754,7 @@
     </row>
     <row r="16" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
-      <c r="B16" s="147"/>
+      <c r="B16" s="146"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -22754,7 +22766,7 @@
     </row>
     <row r="17" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
-      <c r="B17" s="149" t="s">
+      <c r="B17" s="147" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="5"/>
@@ -22768,7 +22780,7 @@
     </row>
     <row r="18" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
-      <c r="B18" s="149"/>
+      <c r="B18" s="147"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -22780,7 +22792,7 @@
     </row>
     <row r="19" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
-      <c r="B19" s="150"/>
+      <c r="B19" s="148"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -22792,7 +22804,7 @@
     </row>
     <row r="20" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
-      <c r="B20" s="152" t="s">
+      <c r="B20" s="149" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="5"/>
@@ -22806,7 +22818,7 @@
     </row>
     <row r="21" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
-      <c r="B21" s="152"/>
+      <c r="B21" s="149"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -22818,7 +22830,7 @@
     </row>
     <row r="22" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
-      <c r="B22" s="153"/>
+      <c r="B22" s="150"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -22830,7 +22842,7 @@
     </row>
     <row r="23" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
-      <c r="B23" s="174" t="s">
+      <c r="B23" s="151" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="5"/>
@@ -22844,7 +22856,7 @@
     </row>
     <row r="24" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
-      <c r="B24" s="174"/>
+      <c r="B24" s="151"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -22856,7 +22868,7 @@
     </row>
     <row r="25" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
-      <c r="B25" s="175"/>
+      <c r="B25" s="152"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -22920,7 +22932,7 @@
     </row>
     <row r="28" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
-      <c r="B28" s="155" t="s">
+      <c r="B28" s="158" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="5"/>
@@ -22935,7 +22947,7 @@
     </row>
     <row r="29" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
-      <c r="B29" s="155"/>
+      <c r="B29" s="158"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -22947,7 +22959,7 @@
     </row>
     <row r="30" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
-      <c r="B30" s="156"/>
+      <c r="B30" s="159"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -22959,7 +22971,7 @@
     </row>
     <row r="31" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
-      <c r="B31" s="158" t="s">
+      <c r="B31" s="154" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="5"/>
@@ -22973,7 +22985,7 @@
     </row>
     <row r="32" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
-      <c r="B32" s="158"/>
+      <c r="B32" s="154"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -22985,7 +22997,7 @@
     </row>
     <row r="33" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
-      <c r="B33" s="159"/>
+      <c r="B33" s="155"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -22997,7 +23009,7 @@
     </row>
     <row r="34" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
-      <c r="B34" s="146" t="s">
+      <c r="B34" s="145" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="5"/>
@@ -23011,7 +23023,7 @@
     </row>
     <row r="35" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
-      <c r="B35" s="146"/>
+      <c r="B35" s="145"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -23023,7 +23035,7 @@
     </row>
     <row r="36" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
-      <c r="B36" s="147"/>
+      <c r="B36" s="146"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -23035,7 +23047,7 @@
     </row>
     <row r="37" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
-      <c r="B37" s="149" t="s">
+      <c r="B37" s="147" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="5"/>
@@ -23049,7 +23061,7 @@
     </row>
     <row r="38" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
-      <c r="B38" s="149"/>
+      <c r="B38" s="147"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -23061,7 +23073,7 @@
     </row>
     <row r="39" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1"/>
-      <c r="B39" s="150"/>
+      <c r="B39" s="148"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -23073,7 +23085,7 @@
     </row>
     <row r="40" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1"/>
-      <c r="B40" s="152" t="s">
+      <c r="B40" s="149" t="s">
         <v>12</v>
       </c>
       <c r="C40" s="5"/>
@@ -23087,7 +23099,7 @@
     </row>
     <row r="41" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1"/>
-      <c r="B41" s="152"/>
+      <c r="B41" s="149"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -23099,7 +23111,7 @@
     </row>
     <row r="42" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="1"/>
-      <c r="B42" s="153"/>
+      <c r="B42" s="150"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -23111,7 +23123,7 @@
     </row>
     <row r="43" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1"/>
-      <c r="B43" s="174" t="s">
+      <c r="B43" s="151" t="s">
         <v>13</v>
       </c>
       <c r="C43" s="5"/>
@@ -23125,7 +23137,7 @@
     </row>
     <row r="44" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="1"/>
-      <c r="B44" s="174"/>
+      <c r="B44" s="151"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -23137,7 +23149,7 @@
     </row>
     <row r="45" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1"/>
-      <c r="B45" s="175"/>
+      <c r="B45" s="152"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
@@ -23201,7 +23213,7 @@
     </row>
     <row r="48" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="1"/>
-      <c r="B48" s="155" t="s">
+      <c r="B48" s="158" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="5"/>
@@ -23215,7 +23227,7 @@
     </row>
     <row r="49" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1"/>
-      <c r="B49" s="155"/>
+      <c r="B49" s="158"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -23227,7 +23239,7 @@
     </row>
     <row r="50" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="1"/>
-      <c r="B50" s="156"/>
+      <c r="B50" s="159"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
@@ -23239,7 +23251,7 @@
     </row>
     <row r="51" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1"/>
-      <c r="B51" s="158" t="s">
+      <c r="B51" s="154" t="s">
         <v>9</v>
       </c>
       <c r="C51" s="5"/>
@@ -23253,7 +23265,7 @@
     </row>
     <row r="52" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1"/>
-      <c r="B52" s="158"/>
+      <c r="B52" s="154"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -23265,7 +23277,7 @@
     </row>
     <row r="53" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="1"/>
-      <c r="B53" s="159"/>
+      <c r="B53" s="155"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
@@ -23277,7 +23289,7 @@
     </row>
     <row r="54" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="1"/>
-      <c r="B54" s="146" t="s">
+      <c r="B54" s="145" t="s">
         <v>10</v>
       </c>
       <c r="C54" s="5"/>
@@ -23291,7 +23303,7 @@
     </row>
     <row r="55" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="1"/>
-      <c r="B55" s="146"/>
+      <c r="B55" s="145"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -23303,7 +23315,7 @@
     </row>
     <row r="56" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="1"/>
-      <c r="B56" s="147"/>
+      <c r="B56" s="146"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
@@ -23315,7 +23327,7 @@
     </row>
     <row r="57" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="1"/>
-      <c r="B57" s="149" t="s">
+      <c r="B57" s="147" t="s">
         <v>11</v>
       </c>
       <c r="C57" s="5"/>
@@ -23329,7 +23341,7 @@
     </row>
     <row r="58" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="1"/>
-      <c r="B58" s="149"/>
+      <c r="B58" s="147"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -23341,7 +23353,7 @@
     </row>
     <row r="59" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="1"/>
-      <c r="B59" s="150"/>
+      <c r="B59" s="148"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
@@ -23353,7 +23365,7 @@
     </row>
     <row r="60" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="1"/>
-      <c r="B60" s="152" t="s">
+      <c r="B60" s="149" t="s">
         <v>12</v>
       </c>
       <c r="C60" s="5"/>
@@ -23367,7 +23379,7 @@
     </row>
     <row r="61" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="1"/>
-      <c r="B61" s="152"/>
+      <c r="B61" s="149"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -23379,7 +23391,7 @@
     </row>
     <row r="62" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="1"/>
-      <c r="B62" s="153"/>
+      <c r="B62" s="150"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
@@ -23391,7 +23403,7 @@
     </row>
     <row r="63" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="1"/>
-      <c r="B63" s="174" t="s">
+      <c r="B63" s="151" t="s">
         <v>13</v>
       </c>
       <c r="C63" s="5"/>
@@ -23405,7 +23417,7 @@
     </row>
     <row r="64" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="1"/>
-      <c r="B64" s="174"/>
+      <c r="B64" s="151"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -23417,7 +23429,7 @@
     </row>
     <row r="65" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="1"/>
-      <c r="B65" s="175"/>
+      <c r="B65" s="152"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
@@ -23484,7 +23496,7 @@
     </row>
     <row r="68" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="1"/>
-      <c r="B68" s="155" t="s">
+      <c r="B68" s="158" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="5"/>
@@ -23499,7 +23511,7 @@
     </row>
     <row r="69" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="1"/>
-      <c r="B69" s="155"/>
+      <c r="B69" s="158"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -23512,7 +23524,7 @@
     </row>
     <row r="70" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="1"/>
-      <c r="B70" s="156"/>
+      <c r="B70" s="159"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
@@ -23525,7 +23537,7 @@
     </row>
     <row r="71" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="1"/>
-      <c r="B71" s="158" t="s">
+      <c r="B71" s="154" t="s">
         <v>9</v>
       </c>
       <c r="C71" s="5"/>
@@ -23540,7 +23552,7 @@
     </row>
     <row r="72" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="1"/>
-      <c r="B72" s="158"/>
+      <c r="B72" s="154"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -23553,7 +23565,7 @@
     </row>
     <row r="73" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="1"/>
-      <c r="B73" s="159"/>
+      <c r="B73" s="155"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
@@ -23566,7 +23578,7 @@
     </row>
     <row r="74" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="1"/>
-      <c r="B74" s="146" t="s">
+      <c r="B74" s="145" t="s">
         <v>10</v>
       </c>
       <c r="C74" s="5"/>
@@ -23581,7 +23593,7 @@
     </row>
     <row r="75" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="1"/>
-      <c r="B75" s="146"/>
+      <c r="B75" s="145"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -23593,7 +23605,7 @@
     </row>
     <row r="76" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="1"/>
-      <c r="B76" s="147"/>
+      <c r="B76" s="146"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
@@ -23605,7 +23617,7 @@
     </row>
     <row r="77" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="1"/>
-      <c r="B77" s="149" t="s">
+      <c r="B77" s="147" t="s">
         <v>11</v>
       </c>
       <c r="C77" s="5"/>
@@ -23619,7 +23631,7 @@
     </row>
     <row r="78" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="1"/>
-      <c r="B78" s="149"/>
+      <c r="B78" s="147"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -23631,7 +23643,7 @@
     </row>
     <row r="79" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="1"/>
-      <c r="B79" s="150"/>
+      <c r="B79" s="148"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
@@ -23643,7 +23655,7 @@
     </row>
     <row r="80" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="1"/>
-      <c r="B80" s="152" t="s">
+      <c r="B80" s="149" t="s">
         <v>12</v>
       </c>
       <c r="C80" s="5"/>
@@ -23657,7 +23669,7 @@
     </row>
     <row r="81" spans="1:16" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="1"/>
-      <c r="B81" s="152"/>
+      <c r="B81" s="149"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -23669,7 +23681,7 @@
     </row>
     <row r="82" spans="1:16" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="1"/>
-      <c r="B82" s="153"/>
+      <c r="B82" s="150"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
@@ -23681,7 +23693,7 @@
     </row>
     <row r="83" spans="1:16" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="1"/>
-      <c r="B83" s="174" t="s">
+      <c r="B83" s="151" t="s">
         <v>13</v>
       </c>
       <c r="C83" s="5"/>
@@ -23695,7 +23707,7 @@
     </row>
     <row r="84" spans="1:16" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="1"/>
-      <c r="B84" s="174"/>
+      <c r="B84" s="151"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -23707,7 +23719,7 @@
     </row>
     <row r="85" spans="1:16" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="1"/>
-      <c r="B85" s="175"/>
+      <c r="B85" s="152"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
@@ -25890,11 +25902,18 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B68:B70"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="A5:XFD5"/>
@@ -25911,18 +25930,11 @@
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B60:B62"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -25940,8 +25952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -26008,23 +26020,23 @@
     </row>
     <row r="4" spans="1:13" s="98" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="97"/>
-      <c r="B4" s="162" t="s">
+      <c r="B4" s="177" t="s">
         <v>647</v>
       </c>
       <c r="C4" s="195"/>
-      <c r="D4" s="163"/>
-      <c r="E4" s="162" t="s">
+      <c r="D4" s="178"/>
+      <c r="E4" s="177" t="s">
         <v>648</v>
       </c>
       <c r="F4" s="195"/>
-      <c r="G4" s="163"/>
-      <c r="H4" s="162" t="s">
+      <c r="G4" s="178"/>
+      <c r="H4" s="177" t="s">
         <v>649</v>
       </c>
       <c r="I4" s="195"/>
       <c r="J4" s="195"/>
       <c r="K4" s="195"/>
-      <c r="L4" s="163"/>
+      <c r="L4" s="178"/>
       <c r="M4" s="97"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
@@ -26232,7 +26244,9 @@
       <c r="E12" s="27" t="s">
         <v>509</v>
       </c>
-      <c r="F12" s="27"/>
+      <c r="F12" s="27" t="s">
+        <v>1035</v>
+      </c>
       <c r="G12" s="26" t="s">
         <v>912</v>
       </c>
@@ -26278,7 +26292,9 @@
       <c r="E14" s="28" t="s">
         <v>509</v>
       </c>
-      <c r="F14" s="28"/>
+      <c r="F14" s="28" t="s">
+        <v>1033</v>
+      </c>
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
       <c r="I14" s="28"/>
@@ -26341,7 +26357,9 @@
       <c r="E17" s="28" t="s">
         <v>934</v>
       </c>
-      <c r="F17" s="28"/>
+      <c r="F17" s="28" t="s">
+        <v>1033</v>
+      </c>
       <c r="G17" s="28"/>
       <c r="H17" s="28"/>
       <c r="I17" s="28"/>
@@ -26383,7 +26401,9 @@
       <c r="E19" s="28" t="s">
         <v>956</v>
       </c>
-      <c r="F19" s="28"/>
+      <c r="F19" s="28" t="s">
+        <v>1033</v>
+      </c>
       <c r="G19" s="28"/>
       <c r="H19" s="28"/>
       <c r="I19" s="28"/>
@@ -26559,7 +26579,9 @@
       <c r="E27" s="28" t="s">
         <v>965</v>
       </c>
-      <c r="F27" s="28"/>
+      <c r="F27" s="28" t="s">
+        <v>1034</v>
+      </c>
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
       <c r="I27" s="28"/>
@@ -27017,30 +27039,30 @@
     </row>
     <row r="2" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
-      <c r="B2" s="176" t="s">
+      <c r="B2" s="171" t="s">
         <v>837</v>
       </c>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177"/>
-      <c r="I2" s="178"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="172"/>
+      <c r="I2" s="173"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="66"/>
-      <c r="B3" s="170" t="s">
+      <c r="B3" s="164" t="s">
         <v>540</v>
       </c>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="171"/>
-      <c r="G3" s="171"/>
-      <c r="H3" s="171"/>
-      <c r="I3" s="172"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="166"/>
       <c r="J3" s="66"/>
     </row>
     <row r="4" spans="1:10" s="74" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -27049,24 +27071,24 @@
         <v>848</v>
       </c>
       <c r="C4" s="194"/>
-      <c r="D4" s="162" t="s">
+      <c r="D4" s="177" t="s">
         <v>704</v>
       </c>
-      <c r="E4" s="163"/>
-      <c r="F4" s="162" t="s">
+      <c r="E4" s="178"/>
+      <c r="F4" s="177" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="195"/>
-      <c r="H4" s="162" t="s">
+      <c r="H4" s="177" t="s">
         <v>543</v>
       </c>
-      <c r="I4" s="163"/>
+      <c r="I4" s="178"/>
       <c r="J4" s="15"/>
     </row>
-    <row r="5" spans="1:10" s="169" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:10" s="163" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="164"/>
+      <c r="B6" s="168"/>
       <c r="C6" s="54" t="s">
         <v>809</v>
       </c>
@@ -27092,7 +27114,7 @@
     </row>
     <row r="7" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="165"/>
+      <c r="B7" s="169"/>
       <c r="C7" s="55" t="s">
         <v>1</v>
       </c>
@@ -27118,7 +27140,7 @@
     </row>
     <row r="8" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="155" t="s">
+      <c r="B8" s="158" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="5"/>
@@ -27132,7 +27154,7 @@
     </row>
     <row r="9" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="155"/>
+      <c r="B9" s="158"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -27144,7 +27166,7 @@
     </row>
     <row r="10" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="156"/>
+      <c r="B10" s="159"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -27156,7 +27178,7 @@
     </row>
     <row r="11" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="158" t="s">
+      <c r="B11" s="154" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="5"/>
@@ -27170,7 +27192,7 @@
     </row>
     <row r="12" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="158"/>
+      <c r="B12" s="154"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -27182,7 +27204,7 @@
     </row>
     <row r="13" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="159"/>
+      <c r="B13" s="155"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -27194,7 +27216,7 @@
     </row>
     <row r="14" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="146" t="s">
+      <c r="B14" s="145" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="5"/>
@@ -27208,7 +27230,7 @@
     </row>
     <row r="15" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="146"/>
+      <c r="B15" s="145"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -27220,7 +27242,7 @@
     </row>
     <row r="16" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
-      <c r="B16" s="147"/>
+      <c r="B16" s="146"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -27232,7 +27254,7 @@
     </row>
     <row r="17" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
-      <c r="B17" s="149" t="s">
+      <c r="B17" s="147" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="5"/>
@@ -27246,7 +27268,7 @@
     </row>
     <row r="18" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
-      <c r="B18" s="149"/>
+      <c r="B18" s="147"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -27258,7 +27280,7 @@
     </row>
     <row r="19" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
-      <c r="B19" s="150"/>
+      <c r="B19" s="148"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -27270,7 +27292,7 @@
     </row>
     <row r="20" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
-      <c r="B20" s="152" t="s">
+      <c r="B20" s="149" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="5"/>
@@ -27284,7 +27306,7 @@
     </row>
     <row r="21" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
-      <c r="B21" s="152"/>
+      <c r="B21" s="149"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -27296,7 +27318,7 @@
     </row>
     <row r="22" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
-      <c r="B22" s="153"/>
+      <c r="B22" s="150"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -27308,7 +27330,7 @@
     </row>
     <row r="23" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
-      <c r="B23" s="174" t="s">
+      <c r="B23" s="151" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="5"/>
@@ -27322,7 +27344,7 @@
     </row>
     <row r="24" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
-      <c r="B24" s="174"/>
+      <c r="B24" s="151"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -27334,7 +27356,7 @@
     </row>
     <row r="25" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
-      <c r="B25" s="175"/>
+      <c r="B25" s="152"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -27398,7 +27420,7 @@
     </row>
     <row r="28" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
-      <c r="B28" s="155" t="s">
+      <c r="B28" s="158" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="5"/>
@@ -27412,7 +27434,7 @@
     </row>
     <row r="29" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
-      <c r="B29" s="155"/>
+      <c r="B29" s="158"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -27424,7 +27446,7 @@
     </row>
     <row r="30" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
-      <c r="B30" s="156"/>
+      <c r="B30" s="159"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -27436,7 +27458,7 @@
     </row>
     <row r="31" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
-      <c r="B31" s="158" t="s">
+      <c r="B31" s="154" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="5"/>
@@ -27450,7 +27472,7 @@
     </row>
     <row r="32" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
-      <c r="B32" s="158"/>
+      <c r="B32" s="154"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -27462,7 +27484,7 @@
     </row>
     <row r="33" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
-      <c r="B33" s="159"/>
+      <c r="B33" s="155"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -27474,7 +27496,7 @@
     </row>
     <row r="34" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
-      <c r="B34" s="146" t="s">
+      <c r="B34" s="145" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="5"/>
@@ -27488,7 +27510,7 @@
     </row>
     <row r="35" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
-      <c r="B35" s="146"/>
+      <c r="B35" s="145"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -27500,7 +27522,7 @@
     </row>
     <row r="36" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
-      <c r="B36" s="147"/>
+      <c r="B36" s="146"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -27512,7 +27534,7 @@
     </row>
     <row r="37" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
-      <c r="B37" s="149" t="s">
+      <c r="B37" s="147" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="5"/>
@@ -27526,7 +27548,7 @@
     </row>
     <row r="38" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
-      <c r="B38" s="149"/>
+      <c r="B38" s="147"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -27538,7 +27560,7 @@
     </row>
     <row r="39" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1"/>
-      <c r="B39" s="150"/>
+      <c r="B39" s="148"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -27550,7 +27572,7 @@
     </row>
     <row r="40" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1"/>
-      <c r="B40" s="152" t="s">
+      <c r="B40" s="149" t="s">
         <v>12</v>
       </c>
       <c r="C40" s="5"/>
@@ -27564,7 +27586,7 @@
     </row>
     <row r="41" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1"/>
-      <c r="B41" s="152"/>
+      <c r="B41" s="149"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -27576,7 +27598,7 @@
     </row>
     <row r="42" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="1"/>
-      <c r="B42" s="153"/>
+      <c r="B42" s="150"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -27588,7 +27610,7 @@
     </row>
     <row r="43" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1"/>
-      <c r="B43" s="174" t="s">
+      <c r="B43" s="151" t="s">
         <v>13</v>
       </c>
       <c r="C43" s="5"/>
@@ -27602,7 +27624,7 @@
     </row>
     <row r="44" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="1"/>
-      <c r="B44" s="174"/>
+      <c r="B44" s="151"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -27614,7 +27636,7 @@
     </row>
     <row r="45" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1"/>
-      <c r="B45" s="175"/>
+      <c r="B45" s="152"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
@@ -27678,7 +27700,7 @@
     </row>
     <row r="48" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="1"/>
-      <c r="B48" s="155" t="s">
+      <c r="B48" s="158" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="5"/>
@@ -27692,7 +27714,7 @@
     </row>
     <row r="49" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1"/>
-      <c r="B49" s="155"/>
+      <c r="B49" s="158"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -27704,7 +27726,7 @@
     </row>
     <row r="50" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="1"/>
-      <c r="B50" s="156"/>
+      <c r="B50" s="159"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
@@ -27716,7 +27738,7 @@
     </row>
     <row r="51" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1"/>
-      <c r="B51" s="158" t="s">
+      <c r="B51" s="154" t="s">
         <v>9</v>
       </c>
       <c r="C51" s="5"/>
@@ -27730,7 +27752,7 @@
     </row>
     <row r="52" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1"/>
-      <c r="B52" s="158"/>
+      <c r="B52" s="154"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -27742,7 +27764,7 @@
     </row>
     <row r="53" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="1"/>
-      <c r="B53" s="159"/>
+      <c r="B53" s="155"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
@@ -27754,7 +27776,7 @@
     </row>
     <row r="54" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="1"/>
-      <c r="B54" s="146" t="s">
+      <c r="B54" s="145" t="s">
         <v>10</v>
       </c>
       <c r="C54" s="5"/>
@@ -27768,7 +27790,7 @@
     </row>
     <row r="55" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="1"/>
-      <c r="B55" s="146"/>
+      <c r="B55" s="145"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -27780,7 +27802,7 @@
     </row>
     <row r="56" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="1"/>
-      <c r="B56" s="147"/>
+      <c r="B56" s="146"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
@@ -27792,7 +27814,7 @@
     </row>
     <row r="57" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="1"/>
-      <c r="B57" s="149" t="s">
+      <c r="B57" s="147" t="s">
         <v>11</v>
       </c>
       <c r="C57" s="5"/>
@@ -27806,7 +27828,7 @@
     </row>
     <row r="58" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="1"/>
-      <c r="B58" s="149"/>
+      <c r="B58" s="147"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -27818,7 +27840,7 @@
     </row>
     <row r="59" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="1"/>
-      <c r="B59" s="150"/>
+      <c r="B59" s="148"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
@@ -27830,7 +27852,7 @@
     </row>
     <row r="60" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="1"/>
-      <c r="B60" s="152" t="s">
+      <c r="B60" s="149" t="s">
         <v>12</v>
       </c>
       <c r="C60" s="5"/>
@@ -27844,7 +27866,7 @@
     </row>
     <row r="61" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="1"/>
-      <c r="B61" s="152"/>
+      <c r="B61" s="149"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -27857,7 +27879,7 @@
     </row>
     <row r="62" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="1"/>
-      <c r="B62" s="153"/>
+      <c r="B62" s="150"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
@@ -27870,7 +27892,7 @@
     </row>
     <row r="63" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="1"/>
-      <c r="B63" s="174" t="s">
+      <c r="B63" s="151" t="s">
         <v>13</v>
       </c>
       <c r="C63" s="5"/>
@@ -27885,7 +27907,7 @@
     </row>
     <row r="64" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="1"/>
-      <c r="B64" s="174"/>
+      <c r="B64" s="151"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -27898,7 +27920,7 @@
     </row>
     <row r="65" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="1"/>
-      <c r="B65" s="175"/>
+      <c r="B65" s="152"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
@@ -27965,7 +27987,7 @@
     </row>
     <row r="68" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="1"/>
-      <c r="B68" s="155" t="s">
+      <c r="B68" s="158" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="5"/>
@@ -27980,7 +28002,7 @@
     </row>
     <row r="69" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="1"/>
-      <c r="B69" s="155"/>
+      <c r="B69" s="158"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -27993,7 +28015,7 @@
     </row>
     <row r="70" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="1"/>
-      <c r="B70" s="156"/>
+      <c r="B70" s="159"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
@@ -28006,7 +28028,7 @@
     </row>
     <row r="71" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="1"/>
-      <c r="B71" s="158" t="s">
+      <c r="B71" s="154" t="s">
         <v>9</v>
       </c>
       <c r="C71" s="5"/>
@@ -28021,7 +28043,7 @@
     </row>
     <row r="72" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="1"/>
-      <c r="B72" s="158"/>
+      <c r="B72" s="154"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -28034,7 +28056,7 @@
     </row>
     <row r="73" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="1"/>
-      <c r="B73" s="159"/>
+      <c r="B73" s="155"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
@@ -28047,7 +28069,7 @@
     </row>
     <row r="74" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="1"/>
-      <c r="B74" s="146" t="s">
+      <c r="B74" s="145" t="s">
         <v>10</v>
       </c>
       <c r="C74" s="5"/>
@@ -28062,7 +28084,7 @@
     </row>
     <row r="75" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="1"/>
-      <c r="B75" s="146"/>
+      <c r="B75" s="145"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -28075,7 +28097,7 @@
     </row>
     <row r="76" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="1"/>
-      <c r="B76" s="147"/>
+      <c r="B76" s="146"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
@@ -28087,7 +28109,7 @@
     </row>
     <row r="77" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="1"/>
-      <c r="B77" s="149" t="s">
+      <c r="B77" s="147" t="s">
         <v>11</v>
       </c>
       <c r="C77" s="5"/>
@@ -28101,7 +28123,7 @@
     </row>
     <row r="78" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="1"/>
-      <c r="B78" s="149"/>
+      <c r="B78" s="147"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -28113,7 +28135,7 @@
     </row>
     <row r="79" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="1"/>
-      <c r="B79" s="150"/>
+      <c r="B79" s="148"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
@@ -28125,7 +28147,7 @@
     </row>
     <row r="80" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="1"/>
-      <c r="B80" s="152" t="s">
+      <c r="B80" s="149" t="s">
         <v>12</v>
       </c>
       <c r="C80" s="5"/>
@@ -28139,7 +28161,7 @@
     </row>
     <row r="81" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="1"/>
-      <c r="B81" s="152"/>
+      <c r="B81" s="149"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -28151,7 +28173,7 @@
     </row>
     <row r="82" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="1"/>
-      <c r="B82" s="153"/>
+      <c r="B82" s="150"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
@@ -28163,7 +28185,7 @@
     </row>
     <row r="83" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="1"/>
-      <c r="B83" s="173" t="s">
+      <c r="B83" s="167" t="s">
         <v>13</v>
       </c>
       <c r="C83" s="7"/>
@@ -28177,7 +28199,7 @@
     </row>
     <row r="84" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="1"/>
-      <c r="B84" s="174"/>
+      <c r="B84" s="151"/>
       <c r="C84" s="62"/>
       <c r="D84" s="62"/>
       <c r="E84" s="62"/>
@@ -28189,7 +28211,7 @@
     </row>
     <row r="85" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="1"/>
-      <c r="B85" s="175"/>
+      <c r="B85" s="152"/>
       <c r="C85" s="106"/>
       <c r="D85" s="106"/>
       <c r="E85" s="106"/>
@@ -30710,15 +30732,14 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B71:B73"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="B40:B42"/>
@@ -30735,14 +30756,15 @@
     <mergeCell ref="B43:B45"/>
     <mergeCell ref="B48:B50"/>
     <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -30800,29 +30822,29 @@
     </row>
     <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="66"/>
-      <c r="B3" s="170" t="s">
+      <c r="B3" s="164" t="s">
         <v>540</v>
       </c>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="171"/>
-      <c r="G3" s="171"/>
-      <c r="H3" s="171"/>
-      <c r="I3" s="172"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="166"/>
       <c r="J3" s="66"/>
     </row>
     <row r="4" spans="1:10" s="74" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="73"/>
-      <c r="B4" s="160" t="s">
+      <c r="B4" s="175" t="s">
         <v>698</v>
       </c>
-      <c r="C4" s="161"/>
-      <c r="D4" s="162" t="s">
+      <c r="C4" s="176"/>
+      <c r="D4" s="177" t="s">
         <v>704</v>
       </c>
-      <c r="E4" s="163"/>
-      <c r="F4" s="162" t="s">
+      <c r="E4" s="178"/>
+      <c r="F4" s="177" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="195"/>
@@ -30832,10 +30854,10 @@
       <c r="I4" s="194"/>
       <c r="J4" s="15"/>
     </row>
-    <row r="5" spans="1:10" s="169" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:10" s="163" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="164"/>
+      <c r="B6" s="168"/>
       <c r="C6" s="54" t="s">
         <v>838</v>
       </c>
@@ -30861,7 +30883,7 @@
     </row>
     <row r="7" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="165"/>
+      <c r="B7" s="169"/>
       <c r="C7" s="55" t="s">
         <v>1</v>
       </c>
@@ -30887,7 +30909,7 @@
     </row>
     <row r="8" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="155" t="s">
+      <c r="B8" s="158" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="5"/>
@@ -30901,7 +30923,7 @@
     </row>
     <row r="9" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="155"/>
+      <c r="B9" s="158"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -30913,7 +30935,7 @@
     </row>
     <row r="10" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="156"/>
+      <c r="B10" s="159"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -30925,7 +30947,7 @@
     </row>
     <row r="11" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="158" t="s">
+      <c r="B11" s="154" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="5"/>
@@ -30939,7 +30961,7 @@
     </row>
     <row r="12" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="158"/>
+      <c r="B12" s="154"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -30951,7 +30973,7 @@
     </row>
     <row r="13" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="159"/>
+      <c r="B13" s="155"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -30963,7 +30985,7 @@
     </row>
     <row r="14" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="146" t="s">
+      <c r="B14" s="145" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="5"/>
@@ -30977,7 +30999,7 @@
     </row>
     <row r="15" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="146"/>
+      <c r="B15" s="145"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -30989,7 +31011,7 @@
     </row>
     <row r="16" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
-      <c r="B16" s="147"/>
+      <c r="B16" s="146"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -31001,7 +31023,7 @@
     </row>
     <row r="17" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
-      <c r="B17" s="149" t="s">
+      <c r="B17" s="147" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="5"/>
@@ -31015,7 +31037,7 @@
     </row>
     <row r="18" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
-      <c r="B18" s="149"/>
+      <c r="B18" s="147"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -31027,7 +31049,7 @@
     </row>
     <row r="19" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
-      <c r="B19" s="150"/>
+      <c r="B19" s="148"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -31039,7 +31061,7 @@
     </row>
     <row r="20" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
-      <c r="B20" s="152" t="s">
+      <c r="B20" s="149" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="5"/>
@@ -31053,7 +31075,7 @@
     </row>
     <row r="21" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
-      <c r="B21" s="152"/>
+      <c r="B21" s="149"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -31065,7 +31087,7 @@
     </row>
     <row r="22" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
-      <c r="B22" s="153"/>
+      <c r="B22" s="150"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -31077,7 +31099,7 @@
     </row>
     <row r="23" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
-      <c r="B23" s="174" t="s">
+      <c r="B23" s="151" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="5"/>
@@ -31091,7 +31113,7 @@
     </row>
     <row r="24" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
-      <c r="B24" s="174"/>
+      <c r="B24" s="151"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -31103,7 +31125,7 @@
     </row>
     <row r="25" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
-      <c r="B25" s="175"/>
+      <c r="B25" s="152"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -31167,7 +31189,7 @@
     </row>
     <row r="28" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
-      <c r="B28" s="155" t="s">
+      <c r="B28" s="158" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="5"/>
@@ -31181,7 +31203,7 @@
     </row>
     <row r="29" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
-      <c r="B29" s="155"/>
+      <c r="B29" s="158"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -31193,7 +31215,7 @@
     </row>
     <row r="30" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
-      <c r="B30" s="156"/>
+      <c r="B30" s="159"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -31205,7 +31227,7 @@
     </row>
     <row r="31" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
-      <c r="B31" s="158" t="s">
+      <c r="B31" s="154" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="5"/>
@@ -31219,7 +31241,7 @@
     </row>
     <row r="32" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
-      <c r="B32" s="158"/>
+      <c r="B32" s="154"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -31231,7 +31253,7 @@
     </row>
     <row r="33" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
-      <c r="B33" s="159"/>
+      <c r="B33" s="155"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -31243,7 +31265,7 @@
     </row>
     <row r="34" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
-      <c r="B34" s="146" t="s">
+      <c r="B34" s="145" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="5"/>
@@ -31258,7 +31280,7 @@
     </row>
     <row r="35" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
-      <c r="B35" s="146"/>
+      <c r="B35" s="145"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -31271,7 +31293,7 @@
     </row>
     <row r="36" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
-      <c r="B36" s="147"/>
+      <c r="B36" s="146"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -31283,7 +31305,7 @@
     </row>
     <row r="37" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
-      <c r="B37" s="149" t="s">
+      <c r="B37" s="147" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="5"/>
@@ -31297,7 +31319,7 @@
     </row>
     <row r="38" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
-      <c r="B38" s="149"/>
+      <c r="B38" s="147"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -31309,7 +31331,7 @@
     </row>
     <row r="39" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1"/>
-      <c r="B39" s="150"/>
+      <c r="B39" s="148"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -31321,7 +31343,7 @@
     </row>
     <row r="40" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1"/>
-      <c r="B40" s="152" t="s">
+      <c r="B40" s="149" t="s">
         <v>12</v>
       </c>
       <c r="C40" s="5"/>
@@ -31335,7 +31357,7 @@
     </row>
     <row r="41" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1"/>
-      <c r="B41" s="152"/>
+      <c r="B41" s="149"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -31347,7 +31369,7 @@
     </row>
     <row r="42" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="1"/>
-      <c r="B42" s="153"/>
+      <c r="B42" s="150"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -31359,7 +31381,7 @@
     </row>
     <row r="43" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1"/>
-      <c r="B43" s="174" t="s">
+      <c r="B43" s="151" t="s">
         <v>13</v>
       </c>
       <c r="C43" s="5"/>
@@ -31373,7 +31395,7 @@
     </row>
     <row r="44" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="1"/>
-      <c r="B44" s="174"/>
+      <c r="B44" s="151"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -31385,7 +31407,7 @@
     </row>
     <row r="45" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1"/>
-      <c r="B45" s="175"/>
+      <c r="B45" s="152"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
@@ -31449,7 +31471,7 @@
     </row>
     <row r="48" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="1"/>
-      <c r="B48" s="155" t="s">
+      <c r="B48" s="158" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="5"/>
@@ -31463,7 +31485,7 @@
     </row>
     <row r="49" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1"/>
-      <c r="B49" s="155"/>
+      <c r="B49" s="158"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -31475,7 +31497,7 @@
     </row>
     <row r="50" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="1"/>
-      <c r="B50" s="156"/>
+      <c r="B50" s="159"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
@@ -31487,7 +31509,7 @@
     </row>
     <row r="51" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1"/>
-      <c r="B51" s="158" t="s">
+      <c r="B51" s="154" t="s">
         <v>9</v>
       </c>
       <c r="C51" s="5"/>
@@ -31501,7 +31523,7 @@
     </row>
     <row r="52" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1"/>
-      <c r="B52" s="158"/>
+      <c r="B52" s="154"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -31513,7 +31535,7 @@
     </row>
     <row r="53" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="1"/>
-      <c r="B53" s="159"/>
+      <c r="B53" s="155"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
@@ -31525,7 +31547,7 @@
     </row>
     <row r="54" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="1"/>
-      <c r="B54" s="146" t="s">
+      <c r="B54" s="145" t="s">
         <v>10</v>
       </c>
       <c r="C54" s="5"/>
@@ -31539,7 +31561,7 @@
     </row>
     <row r="55" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="1"/>
-      <c r="B55" s="146"/>
+      <c r="B55" s="145"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -31551,7 +31573,7 @@
     </row>
     <row r="56" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="1"/>
-      <c r="B56" s="147"/>
+      <c r="B56" s="146"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
@@ -31563,7 +31585,7 @@
     </row>
     <row r="57" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="1"/>
-      <c r="B57" s="149" t="s">
+      <c r="B57" s="147" t="s">
         <v>11</v>
       </c>
       <c r="C57" s="5"/>
@@ -31577,7 +31599,7 @@
     </row>
     <row r="58" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="1"/>
-      <c r="B58" s="149"/>
+      <c r="B58" s="147"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -31589,7 +31611,7 @@
     </row>
     <row r="59" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="1"/>
-      <c r="B59" s="150"/>
+      <c r="B59" s="148"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
@@ -31601,7 +31623,7 @@
     </row>
     <row r="60" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="1"/>
-      <c r="B60" s="152" t="s">
+      <c r="B60" s="149" t="s">
         <v>12</v>
       </c>
       <c r="C60" s="5"/>
@@ -31615,7 +31637,7 @@
     </row>
     <row r="61" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="1"/>
-      <c r="B61" s="152"/>
+      <c r="B61" s="149"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -31627,7 +31649,7 @@
     </row>
     <row r="62" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="1"/>
-      <c r="B62" s="153"/>
+      <c r="B62" s="150"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
@@ -31639,7 +31661,7 @@
     </row>
     <row r="63" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="1"/>
-      <c r="B63" s="174" t="s">
+      <c r="B63" s="151" t="s">
         <v>13</v>
       </c>
       <c r="C63" s="5"/>
@@ -31653,7 +31675,7 @@
     </row>
     <row r="64" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="1"/>
-      <c r="B64" s="174"/>
+      <c r="B64" s="151"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -31666,7 +31688,7 @@
     </row>
     <row r="65" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="1"/>
-      <c r="B65" s="175"/>
+      <c r="B65" s="152"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
@@ -31733,7 +31755,7 @@
     </row>
     <row r="68" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="1"/>
-      <c r="B68" s="155" t="s">
+      <c r="B68" s="158" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="5"/>
@@ -31748,7 +31770,7 @@
     </row>
     <row r="69" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="1"/>
-      <c r="B69" s="155"/>
+      <c r="B69" s="158"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -31761,7 +31783,7 @@
     </row>
     <row r="70" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="1"/>
-      <c r="B70" s="156"/>
+      <c r="B70" s="159"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
@@ -31774,7 +31796,7 @@
     </row>
     <row r="71" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="1"/>
-      <c r="B71" s="158" t="s">
+      <c r="B71" s="154" t="s">
         <v>9</v>
       </c>
       <c r="C71" s="5"/>
@@ -31789,7 +31811,7 @@
     </row>
     <row r="72" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="1"/>
-      <c r="B72" s="158"/>
+      <c r="B72" s="154"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -31802,7 +31824,7 @@
     </row>
     <row r="73" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="1"/>
-      <c r="B73" s="159"/>
+      <c r="B73" s="155"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
@@ -31815,7 +31837,7 @@
     </row>
     <row r="74" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="1"/>
-      <c r="B74" s="146" t="s">
+      <c r="B74" s="145" t="s">
         <v>10</v>
       </c>
       <c r="C74" s="5"/>
@@ -31830,7 +31852,7 @@
     </row>
     <row r="75" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="1"/>
-      <c r="B75" s="146"/>
+      <c r="B75" s="145"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -31842,7 +31864,7 @@
     </row>
     <row r="76" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="1"/>
-      <c r="B76" s="147"/>
+      <c r="B76" s="146"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
@@ -31854,7 +31876,7 @@
     </row>
     <row r="77" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="1"/>
-      <c r="B77" s="149" t="s">
+      <c r="B77" s="147" t="s">
         <v>11</v>
       </c>
       <c r="C77" s="5"/>
@@ -31868,7 +31890,7 @@
     </row>
     <row r="78" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="1"/>
-      <c r="B78" s="149"/>
+      <c r="B78" s="147"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -31880,7 +31902,7 @@
     </row>
     <row r="79" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="1"/>
-      <c r="B79" s="150"/>
+      <c r="B79" s="148"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
@@ -31892,7 +31914,7 @@
     </row>
     <row r="80" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="1"/>
-      <c r="B80" s="152" t="s">
+      <c r="B80" s="149" t="s">
         <v>12</v>
       </c>
       <c r="C80" s="5"/>
@@ -31906,7 +31928,7 @@
     </row>
     <row r="81" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="1"/>
-      <c r="B81" s="152"/>
+      <c r="B81" s="149"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -31918,7 +31940,7 @@
     </row>
     <row r="82" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="1"/>
-      <c r="B82" s="153"/>
+      <c r="B82" s="150"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
@@ -31930,7 +31952,7 @@
     </row>
     <row r="83" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="1"/>
-      <c r="B83" s="174" t="s">
+      <c r="B83" s="151" t="s">
         <v>13</v>
       </c>
       <c r="C83" s="5"/>
@@ -31944,7 +31966,7 @@
     </row>
     <row r="84" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="1"/>
-      <c r="B84" s="174"/>
+      <c r="B84" s="151"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -31956,7 +31978,7 @@
     </row>
     <row r="85" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="1"/>
-      <c r="B85" s="175"/>
+      <c r="B85" s="152"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
@@ -32010,7 +32032,7 @@
     </row>
     <row r="88" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="1"/>
-      <c r="B88" s="155" t="s">
+      <c r="B88" s="158" t="s">
         <v>8</v>
       </c>
       <c r="C88" s="5"/>
@@ -32027,7 +32049,7 @@
     </row>
     <row r="89" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="1"/>
-      <c r="B89" s="155"/>
+      <c r="B89" s="158"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -32042,7 +32064,7 @@
     </row>
     <row r="90" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="1"/>
-      <c r="B90" s="156"/>
+      <c r="B90" s="159"/>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
@@ -32057,7 +32079,7 @@
     </row>
     <row r="91" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="1"/>
-      <c r="B91" s="158" t="s">
+      <c r="B91" s="154" t="s">
         <v>9</v>
       </c>
       <c r="C91" s="5"/>
@@ -32074,7 +32096,7 @@
     </row>
     <row r="92" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="1"/>
-      <c r="B92" s="158"/>
+      <c r="B92" s="154"/>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -32089,7 +32111,7 @@
     </row>
     <row r="93" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="1"/>
-      <c r="B93" s="159"/>
+      <c r="B93" s="155"/>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
@@ -32104,7 +32126,7 @@
     </row>
     <row r="94" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="1"/>
-      <c r="B94" s="146" t="s">
+      <c r="B94" s="145" t="s">
         <v>10</v>
       </c>
       <c r="C94" s="5"/>
@@ -32121,7 +32143,7 @@
     </row>
     <row r="95" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="1"/>
-      <c r="B95" s="146"/>
+      <c r="B95" s="145"/>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
@@ -32136,7 +32158,7 @@
     </row>
     <row r="96" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="1"/>
-      <c r="B96" s="147"/>
+      <c r="B96" s="146"/>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
@@ -32151,7 +32173,7 @@
     </row>
     <row r="97" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="1"/>
-      <c r="B97" s="149" t="s">
+      <c r="B97" s="147" t="s">
         <v>11</v>
       </c>
       <c r="C97" s="5"/>
@@ -32168,7 +32190,7 @@
     </row>
     <row r="98" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="1"/>
-      <c r="B98" s="149"/>
+      <c r="B98" s="147"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
@@ -32183,7 +32205,7 @@
     </row>
     <row r="99" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="1"/>
-      <c r="B99" s="150"/>
+      <c r="B99" s="148"/>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
       <c r="E99" s="6"/>
@@ -32198,7 +32220,7 @@
     </row>
     <row r="100" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="1"/>
-      <c r="B100" s="152" t="s">
+      <c r="B100" s="149" t="s">
         <v>12</v>
       </c>
       <c r="C100" s="5"/>
@@ -32215,7 +32237,7 @@
     </row>
     <row r="101" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="1"/>
-      <c r="B101" s="152"/>
+      <c r="B101" s="149"/>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
@@ -32230,7 +32252,7 @@
     </row>
     <row r="102" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="1"/>
-      <c r="B102" s="153"/>
+      <c r="B102" s="150"/>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
       <c r="E102" s="6"/>
@@ -32245,7 +32267,7 @@
     </row>
     <row r="103" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="1"/>
-      <c r="B103" s="174" t="s">
+      <c r="B103" s="151" t="s">
         <v>13</v>
       </c>
       <c r="C103" s="5"/>
@@ -32262,7 +32284,7 @@
     </row>
     <row r="104" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="1"/>
-      <c r="B104" s="174"/>
+      <c r="B104" s="151"/>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
@@ -32277,7 +32299,7 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A105" s="1"/>
-      <c r="B105" s="175"/>
+      <c r="B105" s="152"/>
       <c r="C105" s="88"/>
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
@@ -32864,29 +32886,6 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="B97:B99"/>
-    <mergeCell ref="B100:B102"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
     <mergeCell ref="B103:B105"/>
     <mergeCell ref="A5:XFD5"/>
     <mergeCell ref="B74:B76"/>
@@ -32903,6 +32902,29 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B94:B96"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B97:B99"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B71:B73"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -32972,53 +32994,53 @@
     </row>
     <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
-      <c r="B3" s="215" t="s">
+      <c r="B3" s="220" t="s">
         <v>541</v>
       </c>
-      <c r="C3" s="216"/>
-      <c r="D3" s="216"/>
-      <c r="E3" s="216"/>
-      <c r="F3" s="216"/>
-      <c r="G3" s="216"/>
-      <c r="H3" s="216"/>
-      <c r="I3" s="216"/>
-      <c r="J3" s="216"/>
-      <c r="K3" s="217"/>
+      <c r="C3" s="221"/>
+      <c r="D3" s="221"/>
+      <c r="E3" s="221"/>
+      <c r="F3" s="221"/>
+      <c r="G3" s="221"/>
+      <c r="H3" s="221"/>
+      <c r="I3" s="221"/>
+      <c r="J3" s="221"/>
+      <c r="K3" s="222"/>
       <c r="L3" s="24"/>
       <c r="M3" s="24"/>
     </row>
     <row r="4" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
-      <c r="B4" s="220" t="s">
+      <c r="B4" s="223" t="s">
         <v>533</v>
       </c>
-      <c r="C4" s="221"/>
-      <c r="D4" s="221"/>
-      <c r="E4" s="221"/>
-      <c r="F4" s="221"/>
-      <c r="G4" s="221"/>
-      <c r="H4" s="221"/>
-      <c r="I4" s="221"/>
-      <c r="J4" s="221"/>
-      <c r="K4" s="222"/>
+      <c r="C4" s="224"/>
+      <c r="D4" s="224"/>
+      <c r="E4" s="224"/>
+      <c r="F4" s="224"/>
+      <c r="G4" s="224"/>
+      <c r="H4" s="224"/>
+      <c r="I4" s="224"/>
+      <c r="J4" s="224"/>
+      <c r="K4" s="225"/>
       <c r="L4" s="24"/>
       <c r="M4" s="24"/>
     </row>
-    <row r="5" spans="1:20" s="219" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:20" s="214" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24"/>
-      <c r="B6" s="218" t="s">
+      <c r="B6" s="215" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="218"/>
-      <c r="D6" s="218"/>
-      <c r="E6" s="218"/>
-      <c r="F6" s="218"/>
-      <c r="G6" s="218"/>
-      <c r="H6" s="218"/>
-      <c r="I6" s="218"/>
-      <c r="J6" s="218"/>
-      <c r="K6" s="218"/>
+      <c r="C6" s="215"/>
+      <c r="D6" s="215"/>
+      <c r="E6" s="215"/>
+      <c r="F6" s="215"/>
+      <c r="G6" s="215"/>
+      <c r="H6" s="215"/>
+      <c r="I6" s="215"/>
+      <c r="J6" s="215"/>
+      <c r="K6" s="215"/>
       <c r="L6" s="24"/>
       <c r="M6" s="24"/>
     </row>
@@ -33027,19 +33049,19 @@
       <c r="B7" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="214"/>
-      <c r="D7" s="214"/>
-      <c r="E7" s="214"/>
+      <c r="C7" s="217"/>
+      <c r="D7" s="217"/>
+      <c r="E7" s="217"/>
       <c r="F7" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="214"/>
-      <c r="H7" s="214"/>
+      <c r="G7" s="217"/>
+      <c r="H7" s="217"/>
       <c r="I7" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="214"/>
-      <c r="K7" s="214"/>
+      <c r="J7" s="217"/>
+      <c r="K7" s="217"/>
       <c r="L7" s="24"/>
       <c r="M7" s="24"/>
     </row>
@@ -33048,19 +33070,19 @@
       <c r="B8" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="214"/>
-      <c r="D8" s="214"/>
-      <c r="E8" s="214"/>
+      <c r="C8" s="217"/>
+      <c r="D8" s="217"/>
+      <c r="E8" s="217"/>
       <c r="F8" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="214"/>
-      <c r="H8" s="214"/>
+      <c r="G8" s="217"/>
+      <c r="H8" s="217"/>
       <c r="I8" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="214"/>
-      <c r="K8" s="214"/>
+      <c r="J8" s="217"/>
+      <c r="K8" s="217"/>
       <c r="L8" s="24"/>
       <c r="M8" s="24"/>
     </row>
@@ -33069,15 +33091,15 @@
       <c r="B9" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="214"/>
-      <c r="D9" s="214"/>
-      <c r="E9" s="214"/>
-      <c r="F9" s="214"/>
-      <c r="G9" s="214"/>
-      <c r="H9" s="214"/>
-      <c r="I9" s="214"/>
-      <c r="J9" s="214"/>
-      <c r="K9" s="214"/>
+      <c r="C9" s="217"/>
+      <c r="D9" s="217"/>
+      <c r="E9" s="217"/>
+      <c r="F9" s="217"/>
+      <c r="G9" s="217"/>
+      <c r="H9" s="217"/>
+      <c r="I9" s="217"/>
+      <c r="J9" s="217"/>
+      <c r="K9" s="217"/>
       <c r="L9" s="24"/>
       <c r="M9" s="24"/>
     </row>
@@ -33086,15 +33108,15 @@
       <c r="B10" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="214"/>
-      <c r="D10" s="214"/>
-      <c r="E10" s="214"/>
-      <c r="F10" s="214"/>
-      <c r="G10" s="214"/>
-      <c r="H10" s="214"/>
-      <c r="I10" s="214"/>
-      <c r="J10" s="214"/>
-      <c r="K10" s="214"/>
+      <c r="C10" s="217"/>
+      <c r="D10" s="217"/>
+      <c r="E10" s="217"/>
+      <c r="F10" s="217"/>
+      <c r="G10" s="217"/>
+      <c r="H10" s="217"/>
+      <c r="I10" s="217"/>
+      <c r="J10" s="217"/>
+      <c r="K10" s="217"/>
       <c r="L10" s="24"/>
       <c r="M10" s="24"/>
     </row>
@@ -33103,19 +33125,19 @@
       <c r="B11" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="214"/>
-      <c r="D11" s="214"/>
-      <c r="E11" s="214"/>
+      <c r="C11" s="217"/>
+      <c r="D11" s="217"/>
+      <c r="E11" s="217"/>
       <c r="F11" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="214"/>
-      <c r="H11" s="214"/>
+      <c r="G11" s="217"/>
+      <c r="H11" s="217"/>
       <c r="I11" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="J11" s="214"/>
-      <c r="K11" s="214"/>
+      <c r="J11" s="217"/>
+      <c r="K11" s="217"/>
       <c r="L11" s="24"/>
       <c r="M11" s="24"/>
       <c r="T11" s="25" t="s">
@@ -33127,49 +33149,49 @@
       <c r="B12" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="223" t="s">
+      <c r="C12" s="216" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="223"/>
-      <c r="E12" s="223"/>
+      <c r="D12" s="216"/>
+      <c r="E12" s="216"/>
       <c r="F12" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="214"/>
-      <c r="H12" s="214"/>
+      <c r="G12" s="217"/>
+      <c r="H12" s="217"/>
       <c r="I12" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="214"/>
-      <c r="K12" s="214"/>
+      <c r="J12" s="217"/>
+      <c r="K12" s="217"/>
       <c r="L12" s="24"/>
       <c r="M12" s="24"/>
     </row>
-    <row r="13" spans="1:20" s="219" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:20" s="214" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24"/>
-      <c r="B14" s="218" t="s">
+      <c r="B14" s="215" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="218"/>
-      <c r="D14" s="218"/>
-      <c r="E14" s="218"/>
-      <c r="F14" s="218"/>
-      <c r="G14" s="218"/>
-      <c r="H14" s="218"/>
-      <c r="I14" s="218"/>
-      <c r="J14" s="218"/>
-      <c r="K14" s="218"/>
+      <c r="C14" s="215"/>
+      <c r="D14" s="215"/>
+      <c r="E14" s="215"/>
+      <c r="F14" s="215"/>
+      <c r="G14" s="215"/>
+      <c r="H14" s="215"/>
+      <c r="I14" s="215"/>
+      <c r="J14" s="215"/>
+      <c r="K14" s="215"/>
       <c r="L14" s="24"/>
       <c r="M14" s="24"/>
     </row>
     <row r="15" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
-      <c r="B15" s="224" t="s">
+      <c r="B15" s="218" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="224"/>
-      <c r="D15" s="224"/>
+      <c r="C15" s="218"/>
+      <c r="D15" s="218"/>
       <c r="E15" s="33" t="s">
         <v>44</v>
       </c>
@@ -33196,11 +33218,11 @@
     </row>
     <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
-      <c r="B16" s="223" t="s">
+      <c r="B16" s="216" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="223"/>
-      <c r="D16" s="223"/>
+      <c r="C16" s="216"/>
+      <c r="D16" s="216"/>
       <c r="E16" s="29"/>
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
@@ -33215,11 +33237,11 @@
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
-      <c r="B17" s="223" t="s">
+      <c r="B17" s="216" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="223"/>
-      <c r="D17" s="223"/>
+      <c r="C17" s="216"/>
+      <c r="D17" s="216"/>
       <c r="E17" s="29"/>
       <c r="F17" s="29"/>
       <c r="G17" s="29"/>
@@ -33232,11 +33254,11 @@
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
-      <c r="B18" s="223" t="s">
+      <c r="B18" s="216" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="223"/>
-      <c r="D18" s="223"/>
+      <c r="C18" s="216"/>
+      <c r="D18" s="216"/>
       <c r="E18" s="29"/>
       <c r="F18" s="29"/>
       <c r="G18" s="29"/>
@@ -33249,11 +33271,11 @@
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
-      <c r="B19" s="223" t="s">
+      <c r="B19" s="216" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="223"/>
-      <c r="D19" s="223"/>
+      <c r="C19" s="216"/>
+      <c r="D19" s="216"/>
       <c r="E19" s="29"/>
       <c r="F19" s="29"/>
       <c r="G19" s="29"/>
@@ -33266,11 +33288,11 @@
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24"/>
-      <c r="B20" s="223" t="s">
+      <c r="B20" s="216" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="223"/>
-      <c r="D20" s="223"/>
+      <c r="C20" s="216"/>
+      <c r="D20" s="216"/>
       <c r="E20" s="29"/>
       <c r="F20" s="29"/>
       <c r="G20" s="29"/>
@@ -33281,21 +33303,21 @@
       <c r="L20" s="24"/>
       <c r="M20" s="24"/>
     </row>
-    <row r="21" spans="1:13" s="219" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:13" s="214" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="24"/>
-      <c r="B22" s="218" t="s">
+      <c r="B22" s="215" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="218"/>
-      <c r="D22" s="218"/>
-      <c r="E22" s="218"/>
-      <c r="F22" s="218"/>
-      <c r="G22" s="218"/>
-      <c r="H22" s="218"/>
-      <c r="I22" s="218"/>
-      <c r="J22" s="218"/>
-      <c r="K22" s="218"/>
+      <c r="C22" s="215"/>
+      <c r="D22" s="215"/>
+      <c r="E22" s="215"/>
+      <c r="F22" s="215"/>
+      <c r="G22" s="215"/>
+      <c r="H22" s="215"/>
+      <c r="I22" s="215"/>
+      <c r="J22" s="215"/>
+      <c r="K22" s="215"/>
       <c r="L22" s="24"/>
       <c r="M22" s="24"/>
     </row>
@@ -33304,19 +33326,19 @@
       <c r="B23" s="33" t="s">
         <v>514</v>
       </c>
-      <c r="C23" s="214"/>
-      <c r="D23" s="214"/>
-      <c r="E23" s="214"/>
-      <c r="F23" s="214"/>
+      <c r="C23" s="217"/>
+      <c r="D23" s="217"/>
+      <c r="E23" s="217"/>
+      <c r="F23" s="217"/>
       <c r="G23" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="H23" s="223" t="s">
+      <c r="H23" s="216" t="s">
         <v>55</v>
       </c>
-      <c r="I23" s="223"/>
-      <c r="J23" s="223"/>
-      <c r="K23" s="223"/>
+      <c r="I23" s="216"/>
+      <c r="J23" s="216"/>
+      <c r="K23" s="216"/>
       <c r="L23" s="24"/>
       <c r="M23" s="24"/>
     </row>
@@ -33325,19 +33347,19 @@
       <c r="B24" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="214"/>
-      <c r="D24" s="214"/>
-      <c r="E24" s="214"/>
-      <c r="F24" s="214"/>
+      <c r="C24" s="217"/>
+      <c r="D24" s="217"/>
+      <c r="E24" s="217"/>
+      <c r="F24" s="217"/>
       <c r="G24" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="H24" s="225" t="s">
+      <c r="H24" s="219" t="s">
         <v>58</v>
       </c>
-      <c r="I24" s="225"/>
-      <c r="J24" s="225"/>
-      <c r="K24" s="225"/>
+      <c r="I24" s="219"/>
+      <c r="J24" s="219"/>
+      <c r="K24" s="219"/>
       <c r="L24" s="24"/>
       <c r="M24" s="24"/>
     </row>
@@ -33346,17 +33368,17 @@
       <c r="B25" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="214"/>
-      <c r="D25" s="214"/>
-      <c r="E25" s="214"/>
-      <c r="F25" s="214"/>
+      <c r="C25" s="217"/>
+      <c r="D25" s="217"/>
+      <c r="E25" s="217"/>
+      <c r="F25" s="217"/>
       <c r="G25" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="H25" s="214"/>
-      <c r="I25" s="214"/>
-      <c r="J25" s="214"/>
-      <c r="K25" s="214"/>
+      <c r="H25" s="217"/>
+      <c r="I25" s="217"/>
+      <c r="J25" s="217"/>
+      <c r="K25" s="217"/>
       <c r="L25" s="24"/>
       <c r="M25" s="24"/>
     </row>
@@ -33365,17 +33387,17 @@
       <c r="B26" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="214"/>
-      <c r="D26" s="214"/>
-      <c r="E26" s="214"/>
-      <c r="F26" s="214"/>
+      <c r="C26" s="217"/>
+      <c r="D26" s="217"/>
+      <c r="E26" s="217"/>
+      <c r="F26" s="217"/>
       <c r="G26" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="H26" s="214"/>
-      <c r="I26" s="214"/>
-      <c r="J26" s="214"/>
-      <c r="K26" s="214"/>
+      <c r="H26" s="217"/>
+      <c r="I26" s="217"/>
+      <c r="J26" s="217"/>
+      <c r="K26" s="217"/>
       <c r="L26" s="24"/>
       <c r="M26" s="24"/>
     </row>
@@ -33399,19 +33421,19 @@
       <c r="B28" s="33" t="s">
         <v>515</v>
       </c>
-      <c r="C28" s="214"/>
-      <c r="D28" s="214"/>
-      <c r="E28" s="214"/>
-      <c r="F28" s="214"/>
+      <c r="C28" s="217"/>
+      <c r="D28" s="217"/>
+      <c r="E28" s="217"/>
+      <c r="F28" s="217"/>
       <c r="G28" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="H28" s="223" t="s">
+      <c r="H28" s="216" t="s">
         <v>55</v>
       </c>
-      <c r="I28" s="223"/>
-      <c r="J28" s="223"/>
-      <c r="K28" s="223"/>
+      <c r="I28" s="216"/>
+      <c r="J28" s="216"/>
+      <c r="K28" s="216"/>
       <c r="L28" s="24"/>
       <c r="M28" s="24"/>
     </row>
@@ -33420,17 +33442,17 @@
       <c r="B29" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="214"/>
-      <c r="D29" s="214"/>
-      <c r="E29" s="214"/>
-      <c r="F29" s="214"/>
+      <c r="C29" s="217"/>
+      <c r="D29" s="217"/>
+      <c r="E29" s="217"/>
+      <c r="F29" s="217"/>
       <c r="G29" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="H29" s="214"/>
-      <c r="I29" s="214"/>
-      <c r="J29" s="214"/>
-      <c r="K29" s="214"/>
+      <c r="H29" s="217"/>
+      <c r="I29" s="217"/>
+      <c r="J29" s="217"/>
+      <c r="K29" s="217"/>
       <c r="L29" s="24"/>
       <c r="M29" s="24"/>
     </row>
@@ -33439,17 +33461,17 @@
       <c r="B30" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="214"/>
-      <c r="D30" s="214"/>
-      <c r="E30" s="214"/>
-      <c r="F30" s="214"/>
+      <c r="C30" s="217"/>
+      <c r="D30" s="217"/>
+      <c r="E30" s="217"/>
+      <c r="F30" s="217"/>
       <c r="G30" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="H30" s="214"/>
-      <c r="I30" s="214"/>
-      <c r="J30" s="214"/>
-      <c r="K30" s="214"/>
+      <c r="H30" s="217"/>
+      <c r="I30" s="217"/>
+      <c r="J30" s="217"/>
+      <c r="K30" s="217"/>
       <c r="L30" s="24"/>
       <c r="M30" s="24"/>
     </row>
@@ -33458,34 +33480,34 @@
       <c r="B31" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="214"/>
-      <c r="D31" s="214"/>
-      <c r="E31" s="214"/>
-      <c r="F31" s="214"/>
+      <c r="C31" s="217"/>
+      <c r="D31" s="217"/>
+      <c r="E31" s="217"/>
+      <c r="F31" s="217"/>
       <c r="G31" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="H31" s="214"/>
-      <c r="I31" s="214"/>
-      <c r="J31" s="214"/>
-      <c r="K31" s="214"/>
+      <c r="H31" s="217"/>
+      <c r="I31" s="217"/>
+      <c r="J31" s="217"/>
+      <c r="K31" s="217"/>
       <c r="L31" s="24"/>
       <c r="M31" s="24"/>
     </row>
-    <row r="32" spans="1:13" s="219" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:13" s="214" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="24"/>
-      <c r="B33" s="218" t="s">
+      <c r="B33" s="215" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="218"/>
-      <c r="D33" s="218"/>
-      <c r="E33" s="218"/>
-      <c r="F33" s="218"/>
-      <c r="G33" s="218"/>
-      <c r="H33" s="218"/>
-      <c r="I33" s="218"/>
-      <c r="J33" s="218"/>
+      <c r="C33" s="215"/>
+      <c r="D33" s="215"/>
+      <c r="E33" s="215"/>
+      <c r="F33" s="215"/>
+      <c r="G33" s="215"/>
+      <c r="H33" s="215"/>
+      <c r="I33" s="215"/>
+      <c r="J33" s="215"/>
       <c r="K33" s="31"/>
       <c r="L33" s="24"/>
       <c r="M33" s="24"/>
@@ -33504,12 +33526,12 @@
       <c r="E34" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="F34" s="224" t="s">
+      <c r="F34" s="218" t="s">
         <v>68</v>
       </c>
-      <c r="G34" s="224"/>
-      <c r="H34" s="224"/>
-      <c r="I34" s="224"/>
+      <c r="G34" s="218"/>
+      <c r="H34" s="218"/>
+      <c r="I34" s="218"/>
       <c r="J34" s="33" t="s">
         <v>69</v>
       </c>
@@ -33527,12 +33549,12 @@
       </c>
       <c r="D35" s="29"/>
       <c r="E35" s="29"/>
-      <c r="F35" s="223" t="s">
+      <c r="F35" s="216" t="s">
         <v>72</v>
       </c>
-      <c r="G35" s="223"/>
-      <c r="H35" s="223"/>
-      <c r="I35" s="223"/>
+      <c r="G35" s="216"/>
+      <c r="H35" s="216"/>
+      <c r="I35" s="216"/>
       <c r="J35" s="29"/>
       <c r="K35" s="31"/>
       <c r="L35" s="24"/>
@@ -33553,20 +33575,20 @@
       <c r="L36" s="24"/>
       <c r="M36" s="24"/>
     </row>
-    <row r="37" spans="1:13" s="219" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:13" s="214" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="24"/>
-      <c r="B38" s="218" t="s">
+      <c r="B38" s="215" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="218"/>
-      <c r="D38" s="218"/>
-      <c r="E38" s="218"/>
-      <c r="F38" s="218"/>
-      <c r="G38" s="218"/>
-      <c r="H38" s="218"/>
-      <c r="I38" s="218"/>
-      <c r="J38" s="218"/>
+      <c r="C38" s="215"/>
+      <c r="D38" s="215"/>
+      <c r="E38" s="215"/>
+      <c r="F38" s="215"/>
+      <c r="G38" s="215"/>
+      <c r="H38" s="215"/>
+      <c r="I38" s="215"/>
+      <c r="J38" s="215"/>
       <c r="K38" s="31"/>
       <c r="L38" s="24"/>
       <c r="M38" s="24"/>
@@ -33579,21 +33601,21 @@
       <c r="C39" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="D39" s="224" t="s">
+      <c r="D39" s="218" t="s">
         <v>75</v>
       </c>
-      <c r="E39" s="224"/>
-      <c r="F39" s="224" t="s">
+      <c r="E39" s="218"/>
+      <c r="F39" s="218" t="s">
         <v>76</v>
       </c>
-      <c r="G39" s="224"/>
+      <c r="G39" s="218"/>
       <c r="H39" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="I39" s="224" t="s">
+      <c r="I39" s="218" t="s">
         <v>78</v>
       </c>
-      <c r="J39" s="224"/>
+      <c r="J39" s="218"/>
       <c r="K39" s="31"/>
       <c r="L39" s="24"/>
       <c r="M39" s="24"/>
@@ -33604,17 +33626,17 @@
         <v>517</v>
       </c>
       <c r="C40" s="29"/>
-      <c r="D40" s="223" t="s">
+      <c r="D40" s="216" t="s">
         <v>51</v>
       </c>
-      <c r="E40" s="223"/>
-      <c r="F40" s="214"/>
-      <c r="G40" s="214"/>
+      <c r="E40" s="216"/>
+      <c r="F40" s="217"/>
+      <c r="G40" s="217"/>
       <c r="H40" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="I40" s="214"/>
-      <c r="J40" s="214"/>
+      <c r="I40" s="217"/>
+      <c r="J40" s="217"/>
       <c r="K40" s="31"/>
       <c r="L40" s="24"/>
       <c r="M40" s="24"/>
@@ -33623,17 +33645,17 @@
       <c r="A41" s="24"/>
       <c r="B41" s="29"/>
       <c r="C41" s="29"/>
-      <c r="D41" s="223" t="s">
+      <c r="D41" s="216" t="s">
         <v>51</v>
       </c>
-      <c r="E41" s="223"/>
-      <c r="F41" s="214"/>
-      <c r="G41" s="214"/>
+      <c r="E41" s="216"/>
+      <c r="F41" s="217"/>
+      <c r="G41" s="217"/>
       <c r="H41" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="I41" s="214"/>
-      <c r="J41" s="214"/>
+      <c r="I41" s="217"/>
+      <c r="J41" s="217"/>
       <c r="K41" s="31"/>
       <c r="L41" s="24"/>
       <c r="M41" s="24"/>
@@ -33642,32 +33664,32 @@
       <c r="A42" s="24"/>
       <c r="B42" s="29"/>
       <c r="C42" s="29"/>
-      <c r="D42" s="223" t="s">
+      <c r="D42" s="216" t="s">
         <v>51</v>
       </c>
-      <c r="E42" s="223"/>
-      <c r="F42" s="214"/>
-      <c r="G42" s="214"/>
+      <c r="E42" s="216"/>
+      <c r="F42" s="217"/>
+      <c r="G42" s="217"/>
       <c r="H42" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="I42" s="214"/>
-      <c r="J42" s="214"/>
+      <c r="I42" s="217"/>
+      <c r="J42" s="217"/>
       <c r="K42" s="31"/>
       <c r="L42" s="24"/>
       <c r="M42" s="24"/>
     </row>
-    <row r="43" spans="1:13" s="219" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:13" s="214" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="24"/>
-      <c r="B44" s="218" t="s">
+      <c r="B44" s="215" t="s">
         <v>80</v>
       </c>
-      <c r="C44" s="218"/>
-      <c r="D44" s="218"/>
-      <c r="E44" s="218"/>
-      <c r="F44" s="218"/>
-      <c r="G44" s="218"/>
+      <c r="C44" s="215"/>
+      <c r="D44" s="215"/>
+      <c r="E44" s="215"/>
+      <c r="F44" s="215"/>
+      <c r="G44" s="215"/>
       <c r="H44" s="31"/>
       <c r="I44" s="31"/>
       <c r="J44" s="31"/>
@@ -33683,14 +33705,14 @@
       <c r="C45" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="D45" s="224" t="s">
+      <c r="D45" s="218" t="s">
         <v>83</v>
       </c>
-      <c r="E45" s="224"/>
-      <c r="F45" s="224" t="s">
+      <c r="E45" s="218"/>
+      <c r="F45" s="218" t="s">
         <v>84</v>
       </c>
-      <c r="G45" s="224"/>
+      <c r="G45" s="218"/>
       <c r="H45" s="31"/>
       <c r="I45" s="31"/>
       <c r="J45" s="31"/>
@@ -33702,10 +33724,10 @@
       <c r="A46" s="24"/>
       <c r="B46" s="29"/>
       <c r="C46" s="29"/>
-      <c r="D46" s="214"/>
-      <c r="E46" s="214"/>
-      <c r="F46" s="214"/>
-      <c r="G46" s="214"/>
+      <c r="D46" s="217"/>
+      <c r="E46" s="217"/>
+      <c r="F46" s="217"/>
+      <c r="G46" s="217"/>
       <c r="H46" s="31"/>
       <c r="I46" s="31"/>
       <c r="J46" s="31"/>
@@ -33717,10 +33739,10 @@
       <c r="A47" s="24"/>
       <c r="B47" s="29"/>
       <c r="C47" s="29"/>
-      <c r="D47" s="214"/>
-      <c r="E47" s="214"/>
-      <c r="F47" s="214"/>
-      <c r="G47" s="214"/>
+      <c r="D47" s="217"/>
+      <c r="E47" s="217"/>
+      <c r="F47" s="217"/>
+      <c r="G47" s="217"/>
       <c r="H47" s="31"/>
       <c r="I47" s="31"/>
       <c r="J47" s="31"/>
@@ -33732,10 +33754,10 @@
       <c r="A48" s="24"/>
       <c r="B48" s="29"/>
       <c r="C48" s="29"/>
-      <c r="D48" s="214"/>
-      <c r="E48" s="214"/>
-      <c r="F48" s="214"/>
-      <c r="G48" s="214"/>
+      <c r="D48" s="217"/>
+      <c r="E48" s="217"/>
+      <c r="F48" s="217"/>
+      <c r="G48" s="217"/>
       <c r="H48" s="31"/>
       <c r="I48" s="31"/>
       <c r="J48" s="31"/>
@@ -33758,17 +33780,17 @@
       <c r="L49" s="24"/>
       <c r="M49" s="24"/>
     </row>
-    <row r="50" spans="1:13" s="219" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:13" s="214" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="24"/>
-      <c r="B51" s="218" t="s">
+      <c r="B51" s="215" t="s">
         <v>85</v>
       </c>
-      <c r="C51" s="218"/>
-      <c r="D51" s="218"/>
-      <c r="E51" s="218"/>
-      <c r="F51" s="218"/>
-      <c r="G51" s="218"/>
+      <c r="C51" s="215"/>
+      <c r="D51" s="215"/>
+      <c r="E51" s="215"/>
+      <c r="F51" s="215"/>
+      <c r="G51" s="215"/>
       <c r="H51" s="31"/>
       <c r="I51" s="31"/>
       <c r="J51" s="31"/>
@@ -33878,15 +33900,15 @@
       <c r="L57" s="24"/>
       <c r="M57" s="24"/>
     </row>
-    <row r="58" spans="1:13" s="219" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:13" s="214" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="24"/>
-      <c r="B59" s="218" t="s">
+      <c r="B59" s="215" t="s">
         <v>92</v>
       </c>
-      <c r="C59" s="218"/>
-      <c r="D59" s="218"/>
-      <c r="E59" s="218"/>
+      <c r="C59" s="215"/>
+      <c r="D59" s="215"/>
+      <c r="E59" s="215"/>
       <c r="F59" s="31"/>
       <c r="G59" s="31"/>
       <c r="H59" s="31"/>
@@ -33979,16 +34001,16 @@
       <c r="L64" s="24"/>
       <c r="M64" s="24"/>
     </row>
-    <row r="65" spans="1:13" s="219" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="1:13" s="214" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="24"/>
-      <c r="B66" s="218" t="s">
+      <c r="B66" s="215" t="s">
         <v>97</v>
       </c>
-      <c r="C66" s="218"/>
-      <c r="D66" s="218"/>
-      <c r="E66" s="218"/>
-      <c r="F66" s="218"/>
+      <c r="C66" s="215"/>
+      <c r="D66" s="215"/>
+      <c r="E66" s="215"/>
+      <c r="F66" s="215"/>
       <c r="G66" s="31"/>
       <c r="H66" s="31"/>
       <c r="I66" s="31"/>
@@ -34082,16 +34104,16 @@
       <c r="L71" s="24"/>
       <c r="M71" s="24"/>
     </row>
-    <row r="72" spans="1:13" s="219" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="1:13" s="214" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="73" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="24"/>
-      <c r="B73" s="218" t="s">
+      <c r="B73" s="215" t="s">
         <v>102</v>
       </c>
-      <c r="C73" s="218"/>
-      <c r="D73" s="218"/>
-      <c r="E73" s="218"/>
-      <c r="F73" s="218"/>
+      <c r="C73" s="215"/>
+      <c r="D73" s="215"/>
+      <c r="E73" s="215"/>
+      <c r="F73" s="215"/>
       <c r="G73" s="31"/>
       <c r="H73" s="31"/>
       <c r="I73" s="31"/>
@@ -34185,13 +34207,13 @@
       <c r="L78" s="24"/>
       <c r="M78" s="24"/>
     </row>
-    <row r="79" spans="1:13" s="219" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:13" s="214" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="80" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="24"/>
-      <c r="B80" s="218" t="s">
+      <c r="B80" s="215" t="s">
         <v>108</v>
       </c>
-      <c r="C80" s="218"/>
+      <c r="C80" s="215"/>
       <c r="D80" s="31"/>
       <c r="E80" s="31"/>
       <c r="F80" s="31"/>
@@ -34330,7 +34352,7 @@
       <c r="L87" s="24"/>
       <c r="M87" s="24"/>
     </row>
-    <row r="88" spans="1:13" s="219" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="1:13" s="214" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="89" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="24"/>
       <c r="B89" s="41" t="s">
@@ -34471,17 +34493,17 @@
       <c r="L96" s="24"/>
       <c r="M96" s="24"/>
     </row>
-    <row r="97" spans="1:13" s="219" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" spans="1:13" s="214" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="98" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="24"/>
-      <c r="B98" s="218" t="s">
+      <c r="B98" s="215" t="s">
         <v>130</v>
       </c>
-      <c r="C98" s="218"/>
-      <c r="D98" s="218"/>
-      <c r="E98" s="218"/>
-      <c r="F98" s="218"/>
-      <c r="G98" s="218"/>
+      <c r="C98" s="215"/>
+      <c r="D98" s="215"/>
+      <c r="E98" s="215"/>
+      <c r="F98" s="215"/>
+      <c r="G98" s="215"/>
       <c r="H98" s="31"/>
       <c r="I98" s="31"/>
       <c r="J98" s="31"/>
@@ -34593,14 +34615,14 @@
     </row>
     <row r="105" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="24"/>
-      <c r="B105" s="223" t="s">
+      <c r="B105" s="216" t="s">
         <v>135</v>
       </c>
-      <c r="C105" s="223"/>
-      <c r="D105" s="223"/>
-      <c r="E105" s="223"/>
-      <c r="F105" s="223"/>
-      <c r="G105" s="223"/>
+      <c r="C105" s="216"/>
+      <c r="D105" s="216"/>
+      <c r="E105" s="216"/>
+      <c r="F105" s="216"/>
+      <c r="G105" s="216"/>
       <c r="H105" s="31"/>
       <c r="I105" s="31"/>
       <c r="J105" s="31"/>
@@ -34608,7 +34630,7 @@
       <c r="L105" s="24"/>
       <c r="M105" s="24"/>
     </row>
-    <row r="106" spans="1:13" s="219" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" spans="1:13" s="214" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="24"/>
       <c r="B107" s="24"/>
@@ -34656,6 +34678,81 @@
     </row>
   </sheetData>
   <mergeCells count="91">
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A5:XFD5"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="A21:XFD21"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="A13:XFD13"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B22:K22"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="B38:J38"/>
+    <mergeCell ref="A37:XFD37"/>
+    <mergeCell ref="A32:XFD32"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="B33:J33"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B66:F66"/>
+    <mergeCell ref="B73:F73"/>
     <mergeCell ref="B27:K27"/>
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="A106:XFD106"/>
@@ -34672,81 +34769,6 @@
     <mergeCell ref="A88:XFD88"/>
     <mergeCell ref="A97:XFD97"/>
     <mergeCell ref="B44:G44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B66:F66"/>
-    <mergeCell ref="B73:F73"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B38:J38"/>
-    <mergeCell ref="A37:XFD37"/>
-    <mergeCell ref="A32:XFD32"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="B33:J33"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="A21:XFD21"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="A13:XFD13"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B22:K22"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A5:XFD5"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="B4:K4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -34785,38 +34807,38 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="2:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="239" t="s">
+      <c r="B2" s="226" t="s">
         <v>531</v>
       </c>
-      <c r="C2" s="240"/>
-      <c r="D2" s="240"/>
-      <c r="E2" s="240"/>
-      <c r="F2" s="241"/>
+      <c r="C2" s="227"/>
+      <c r="D2" s="227"/>
+      <c r="E2" s="227"/>
+      <c r="F2" s="228"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="242" t="s">
+      <c r="B3" s="229" t="s">
         <v>542</v>
       </c>
-      <c r="C3" s="243"/>
-      <c r="D3" s="243"/>
-      <c r="E3" s="243"/>
-      <c r="F3" s="244"/>
+      <c r="C3" s="230"/>
+      <c r="D3" s="230"/>
+      <c r="E3" s="230"/>
+      <c r="F3" s="231"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="2:7" s="47" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="162" t="s">
+      <c r="B4" s="177" t="s">
         <v>136</v>
       </c>
       <c r="C4" s="195"/>
-      <c r="D4" s="163"/>
+      <c r="D4" s="178"/>
       <c r="E4" s="195" t="s">
         <v>536</v>
       </c>
-      <c r="F4" s="163"/>
+      <c r="F4" s="178"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="2:7" s="226" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="2:7" s="232" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="2:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="13"/>
       <c r="C6" s="43" t="s">
@@ -34834,39 +34856,39 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="2:7" s="51" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="235" t="s">
+      <c r="B7" s="241" t="s">
         <v>141</v>
       </c>
-      <c r="C7" s="237" t="s">
+      <c r="C7" s="243" t="s">
         <v>538</v>
       </c>
-      <c r="D7" s="164" t="s">
+      <c r="D7" s="168" t="s">
         <v>142</v>
       </c>
       <c r="E7" s="83" t="s">
         <v>677</v>
       </c>
-      <c r="F7" s="227" t="s">
+      <c r="F7" s="233" t="s">
         <v>539</v>
       </c>
       <c r="G7" s="18"/>
     </row>
     <row r="8" spans="2:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="236"/>
-      <c r="C8" s="238"/>
-      <c r="D8" s="165"/>
+      <c r="B8" s="242"/>
+      <c r="C8" s="244"/>
+      <c r="D8" s="169"/>
       <c r="E8" s="82" t="s">
         <v>676</v>
       </c>
-      <c r="F8" s="228"/>
+      <c r="F8" s="234"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="2:7" s="51" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="199"/>
-      <c r="C9" s="229" t="s">
+      <c r="C9" s="235" t="s">
         <v>537</v>
       </c>
-      <c r="D9" s="232" t="s">
+      <c r="D9" s="238" t="s">
         <v>525</v>
       </c>
       <c r="E9" s="81" t="s">
@@ -34881,8 +34903,8 @@
     </row>
     <row r="10" spans="2:7" s="51" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="200"/>
-      <c r="C10" s="230"/>
-      <c r="D10" s="233"/>
+      <c r="C10" s="236"/>
+      <c r="D10" s="239"/>
       <c r="E10" s="81" t="s">
         <v>518</v>
       </c>
@@ -34891,8 +34913,8 @@
     </row>
     <row r="11" spans="2:7" s="51" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="200"/>
-      <c r="C11" s="230"/>
-      <c r="D11" s="233"/>
+      <c r="C11" s="236"/>
+      <c r="D11" s="239"/>
       <c r="E11" s="81" t="s">
         <v>520</v>
       </c>
@@ -34901,8 +34923,8 @@
     </row>
     <row r="12" spans="2:7" s="51" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="200"/>
-      <c r="C12" s="230"/>
-      <c r="D12" s="233"/>
+      <c r="C12" s="236"/>
+      <c r="D12" s="239"/>
       <c r="E12" s="81" t="s">
         <v>521</v>
       </c>
@@ -34911,8 +34933,8 @@
     </row>
     <row r="13" spans="2:7" s="51" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="200"/>
-      <c r="C13" s="230"/>
-      <c r="D13" s="233"/>
+      <c r="C13" s="236"/>
+      <c r="D13" s="239"/>
       <c r="E13" s="81" t="s">
         <v>519</v>
       </c>
@@ -34921,8 +34943,8 @@
     </row>
     <row r="14" spans="2:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="201"/>
-      <c r="C14" s="231"/>
-      <c r="D14" s="234"/>
+      <c r="C14" s="237"/>
+      <c r="D14" s="240"/>
       <c r="E14" s="81" t="s">
         <v>523</v>
       </c>
@@ -35089,11 +35111,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:F4"/>
     <mergeCell ref="A5:XFD5"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="B9:B14"/>
@@ -35103,6 +35120,11 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="G9:G14"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:F4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>

--- a/자소서/스펙업 2017 하반기 채용다이어리.xlsx
+++ b/자소서/스펙업 2017 하반기 채용다이어리.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8628" windowHeight="11436" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8628" windowHeight="11436" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="메인" sheetId="18" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="1036">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="1041">
   <si>
     <t>카톡으로 공채 소식 받기</t>
   </si>
@@ -4268,6 +4268,26 @@
   </si>
   <si>
     <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>케이뱅크</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>케이뱅크</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>케이뱅크</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>슈어소프트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>슈어소프트</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5265,15 +5285,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5292,10 +5303,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5304,19 +5330,25 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5325,16 +5357,22 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5361,13 +5399,10 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5379,25 +5414,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5424,16 +5444,16 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5499,23 +5519,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5526,6 +5531,12 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5535,23 +5546,14 @@
     <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5592,6 +5594,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5625,10 +5645,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5640,7 +5657,10 @@
     <xf numFmtId="0" fontId="5" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7240,84 +7260,84 @@
       <c r="M1" s="135"/>
     </row>
     <row r="2" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="136" t="s">
+      <c r="B2" s="142" t="s">
         <v>706</v>
       </c>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137"/>
-      <c r="K2" s="137"/>
-      <c r="L2" s="137"/>
-      <c r="M2" s="138"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="143"/>
+      <c r="M2" s="144"/>
     </row>
     <row r="3" spans="2:13" ht="171" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="142" t="s">
+      <c r="B3" s="139" t="s">
         <v>675</v>
       </c>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143"/>
-      <c r="K3" s="143"/>
-      <c r="L3" s="143"/>
-      <c r="M3" s="144"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="140"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="140"/>
+      <c r="K3" s="140"/>
+      <c r="L3" s="140"/>
+      <c r="M3" s="141"/>
     </row>
     <row r="4" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="136" t="s">
+      <c r="B4" s="142" t="s">
         <v>707</v>
       </c>
-      <c r="C4" s="137"/>
-      <c r="D4" s="137"/>
-      <c r="E4" s="137"/>
-      <c r="F4" s="137"/>
-      <c r="G4" s="137"/>
-      <c r="H4" s="137"/>
-      <c r="I4" s="137"/>
-      <c r="J4" s="137"/>
-      <c r="K4" s="137"/>
-      <c r="L4" s="137"/>
-      <c r="M4" s="138"/>
+      <c r="C4" s="143"/>
+      <c r="D4" s="143"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="143"/>
+      <c r="G4" s="143"/>
+      <c r="H4" s="143"/>
+      <c r="I4" s="143"/>
+      <c r="J4" s="143"/>
+      <c r="K4" s="143"/>
+      <c r="L4" s="143"/>
+      <c r="M4" s="144"/>
     </row>
     <row r="5" spans="2:13" ht="286.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="142" t="s">
+      <c r="B5" s="139" t="s">
         <v>850</v>
       </c>
-      <c r="C5" s="143"/>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="143"/>
-      <c r="K5" s="143"/>
-      <c r="L5" s="143"/>
-      <c r="M5" s="144"/>
+      <c r="C5" s="140"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="140"/>
+      <c r="I5" s="140"/>
+      <c r="J5" s="140"/>
+      <c r="K5" s="140"/>
+      <c r="L5" s="140"/>
+      <c r="M5" s="141"/>
     </row>
     <row r="6" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="136" t="s">
+      <c r="B6" s="142" t="s">
         <v>651</v>
       </c>
-      <c r="C6" s="137"/>
-      <c r="D6" s="137"/>
-      <c r="E6" s="137"/>
-      <c r="F6" s="137"/>
-      <c r="G6" s="137"/>
-      <c r="H6" s="137"/>
-      <c r="I6" s="137"/>
-      <c r="J6" s="137"/>
-      <c r="K6" s="137"/>
-      <c r="L6" s="137"/>
-      <c r="M6" s="138"/>
+      <c r="C6" s="143"/>
+      <c r="D6" s="143"/>
+      <c r="E6" s="143"/>
+      <c r="F6" s="143"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="143"/>
+      <c r="I6" s="143"/>
+      <c r="J6" s="143"/>
+      <c r="K6" s="143"/>
+      <c r="L6" s="143"/>
+      <c r="M6" s="144"/>
     </row>
     <row r="7" spans="2:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="133"/>
@@ -7368,17 +7388,23 @@
       <c r="E10" s="134"/>
       <c r="F10" s="134"/>
       <c r="G10" s="135"/>
-      <c r="H10" s="139" t="s">
+      <c r="H10" s="136" t="s">
         <v>653</v>
       </c>
-      <c r="I10" s="140"/>
-      <c r="J10" s="140"/>
-      <c r="K10" s="140"/>
-      <c r="L10" s="140"/>
-      <c r="M10" s="141"/>
+      <c r="I10" s="137"/>
+      <c r="J10" s="137"/>
+      <c r="K10" s="137"/>
+      <c r="L10" s="137"/>
+      <c r="M10" s="138"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="H9:M9"/>
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="H10:M10"/>
     <mergeCell ref="B3:M3"/>
@@ -7386,12 +7412,6 @@
     <mergeCell ref="B5:M5"/>
     <mergeCell ref="B6:M6"/>
     <mergeCell ref="B7:M7"/>
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="H9:M9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7436,7 +7456,7 @@
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
-      <c r="B3" s="220" t="s">
+      <c r="B3" s="215" t="s">
         <v>639</v>
       </c>
       <c r="C3" s="134"/>
@@ -7773,7 +7793,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="163" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:3" s="169" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:3" s="47" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="15"/>
       <c r="B6" s="43" t="s">
@@ -7996,7 +8016,7 @@
     </row>
     <row r="4" spans="1:14" s="76" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="73"/>
-      <c r="B4" s="177" t="s">
+      <c r="B4" s="162" t="s">
         <v>547</v>
       </c>
       <c r="C4" s="195"/>
@@ -8005,32 +8025,32 @@
       <c r="F4" s="195"/>
       <c r="G4" s="195"/>
       <c r="H4" s="195"/>
-      <c r="I4" s="178"/>
-      <c r="J4" s="256" t="s">
+      <c r="I4" s="163"/>
+      <c r="J4" s="260" t="s">
         <v>642</v>
       </c>
-      <c r="K4" s="256"/>
-      <c r="L4" s="256"/>
-      <c r="M4" s="256"/>
-      <c r="N4" s="257"/>
-    </row>
-    <row r="5" spans="1:14" s="163" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="K4" s="260"/>
+      <c r="L4" s="260"/>
+      <c r="M4" s="260"/>
+      <c r="N4" s="261"/>
+    </row>
+    <row r="5" spans="1:14" s="169" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:14" s="85" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="258" t="s">
+      <c r="B6" s="257" t="s">
         <v>638</v>
       </c>
-      <c r="C6" s="259"/>
-      <c r="D6" s="259"/>
-      <c r="E6" s="259"/>
-      <c r="F6" s="259"/>
-      <c r="G6" s="259"/>
-      <c r="H6" s="259"/>
-      <c r="I6" s="259"/>
-      <c r="J6" s="259"/>
-      <c r="K6" s="259"/>
-      <c r="L6" s="259"/>
-      <c r="M6" s="259"/>
-      <c r="N6" s="260"/>
+      <c r="C6" s="258"/>
+      <c r="D6" s="258"/>
+      <c r="E6" s="258"/>
+      <c r="F6" s="258"/>
+      <c r="G6" s="258"/>
+      <c r="H6" s="258"/>
+      <c r="I6" s="258"/>
+      <c r="J6" s="258"/>
+      <c r="K6" s="258"/>
+      <c r="L6" s="258"/>
+      <c r="M6" s="258"/>
+      <c r="N6" s="259"/>
     </row>
     <row r="7" spans="1:14" s="47" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="15"/>
@@ -8076,7 +8096,7 @@
     </row>
     <row r="8" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="85"/>
-      <c r="B8" s="261" t="s">
+      <c r="B8" s="256" t="s">
         <v>625</v>
       </c>
       <c r="C8" s="254" t="s">
@@ -8100,7 +8120,7 @@
     </row>
     <row r="9" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="85"/>
-      <c r="B9" s="261"/>
+      <c r="B9" s="256"/>
       <c r="C9" s="254"/>
       <c r="D9" s="93" t="s">
         <v>629</v>
@@ -8120,7 +8140,7 @@
     </row>
     <row r="10" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="85"/>
-      <c r="B10" s="261"/>
+      <c r="B10" s="256"/>
       <c r="C10" s="254"/>
       <c r="D10" s="93" t="s">
         <v>630</v>
@@ -8144,7 +8164,7 @@
     </row>
     <row r="11" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="85"/>
-      <c r="B11" s="261"/>
+      <c r="B11" s="256"/>
       <c r="C11" s="254" t="s">
         <v>631</v>
       </c>
@@ -8172,7 +8192,7 @@
     </row>
     <row r="12" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="85"/>
-      <c r="B12" s="261"/>
+      <c r="B12" s="256"/>
       <c r="C12" s="254"/>
       <c r="D12" s="94" t="s">
         <v>633</v>
@@ -8210,7 +8230,7 @@
     </row>
     <row r="13" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="85"/>
-      <c r="B13" s="261"/>
+      <c r="B13" s="256"/>
       <c r="C13" s="254"/>
       <c r="D13" s="94" t="s">
         <v>634</v>
@@ -8248,7 +8268,7 @@
     </row>
     <row r="14" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="85"/>
-      <c r="B14" s="261"/>
+      <c r="B14" s="256"/>
       <c r="C14" s="254"/>
       <c r="D14" s="94" t="s">
         <v>635</v>
@@ -8272,7 +8292,7 @@
     </row>
     <row r="15" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="85"/>
-      <c r="B15" s="261"/>
+      <c r="B15" s="256"/>
       <c r="C15" s="254"/>
       <c r="D15" s="94" t="s">
         <v>636</v>
@@ -8294,7 +8314,7 @@
     </row>
     <row r="16" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="85"/>
-      <c r="B16" s="261"/>
+      <c r="B16" s="256"/>
       <c r="C16" s="254"/>
       <c r="D16" s="94" t="s">
         <v>637</v>
@@ -8320,7 +8340,7 @@
     </row>
     <row r="17" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="85"/>
-      <c r="B17" s="261" t="s">
+      <c r="B17" s="256" t="s">
         <v>550</v>
       </c>
       <c r="C17" s="254" t="s">
@@ -8350,7 +8370,7 @@
     </row>
     <row r="18" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="85"/>
-      <c r="B18" s="261"/>
+      <c r="B18" s="256"/>
       <c r="C18" s="254"/>
       <c r="D18" s="94" t="s">
         <v>553</v>
@@ -8370,7 +8390,7 @@
     </row>
     <row r="19" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="85"/>
-      <c r="B19" s="261"/>
+      <c r="B19" s="256"/>
       <c r="C19" s="254"/>
       <c r="D19" s="94" t="s">
         <v>554</v>
@@ -8394,7 +8414,7 @@
     </row>
     <row r="20" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="85"/>
-      <c r="B20" s="261"/>
+      <c r="B20" s="256"/>
       <c r="C20" s="254"/>
       <c r="D20" s="94" t="s">
         <v>555</v>
@@ -8414,7 +8434,7 @@
     </row>
     <row r="21" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="85"/>
-      <c r="B21" s="261"/>
+      <c r="B21" s="256"/>
       <c r="C21" s="254"/>
       <c r="D21" s="94" t="s">
         <v>556</v>
@@ -8438,7 +8458,7 @@
     </row>
     <row r="22" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="85"/>
-      <c r="B22" s="261"/>
+      <c r="B22" s="256"/>
       <c r="C22" s="254"/>
       <c r="D22" s="94" t="s">
         <v>557</v>
@@ -8460,7 +8480,7 @@
     </row>
     <row r="23" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="85"/>
-      <c r="B23" s="261"/>
+      <c r="B23" s="256"/>
       <c r="C23" s="254"/>
       <c r="D23" s="94" t="s">
         <v>558</v>
@@ -8484,7 +8504,7 @@
     </row>
     <row r="24" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="85"/>
-      <c r="B24" s="261"/>
+      <c r="B24" s="256"/>
       <c r="C24" s="13" t="s">
         <v>559</v>
       </c>
@@ -8524,7 +8544,7 @@
     </row>
     <row r="25" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="85"/>
-      <c r="B25" s="261" t="s">
+      <c r="B25" s="256" t="s">
         <v>560</v>
       </c>
       <c r="C25" s="254" t="s">
@@ -8552,7 +8572,7 @@
     </row>
     <row r="26" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="85"/>
-      <c r="B26" s="261"/>
+      <c r="B26" s="256"/>
       <c r="C26" s="254"/>
       <c r="D26" s="94" t="s">
         <v>563</v>
@@ -8576,7 +8596,7 @@
     </row>
     <row r="27" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="85"/>
-      <c r="B27" s="261"/>
+      <c r="B27" s="256"/>
       <c r="C27" s="254"/>
       <c r="D27" s="94" t="s">
         <v>564</v>
@@ -8598,7 +8618,7 @@
     </row>
     <row r="28" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="85"/>
-      <c r="B28" s="261"/>
+      <c r="B28" s="256"/>
       <c r="C28" s="254" t="s">
         <v>565</v>
       </c>
@@ -8628,7 +8648,7 @@
     </row>
     <row r="29" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="85"/>
-      <c r="B29" s="261"/>
+      <c r="B29" s="256"/>
       <c r="C29" s="254"/>
       <c r="D29" s="94" t="s">
         <v>567</v>
@@ -8652,7 +8672,7 @@
     </row>
     <row r="30" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="85"/>
-      <c r="B30" s="261"/>
+      <c r="B30" s="256"/>
       <c r="C30" s="254"/>
       <c r="D30" s="94" t="s">
         <v>568</v>
@@ -8682,7 +8702,7 @@
     </row>
     <row r="31" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="85"/>
-      <c r="B31" s="261"/>
+      <c r="B31" s="256"/>
       <c r="C31" s="254"/>
       <c r="D31" s="95" t="s">
         <v>569</v>
@@ -8714,7 +8734,7 @@
     </row>
     <row r="32" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="85"/>
-      <c r="B32" s="261"/>
+      <c r="B32" s="256"/>
       <c r="C32" s="254"/>
       <c r="D32" s="94" t="s">
         <v>570</v>
@@ -8738,7 +8758,7 @@
     </row>
     <row r="33" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="85"/>
-      <c r="B33" s="261"/>
+      <c r="B33" s="256"/>
       <c r="C33" s="254" t="s">
         <v>571</v>
       </c>
@@ -8762,7 +8782,7 @@
     </row>
     <row r="34" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="85"/>
-      <c r="B34" s="261"/>
+      <c r="B34" s="256"/>
       <c r="C34" s="254"/>
       <c r="D34" s="94" t="s">
         <v>573</v>
@@ -8786,7 +8806,7 @@
     </row>
     <row r="35" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="85"/>
-      <c r="B35" s="261" t="s">
+      <c r="B35" s="256" t="s">
         <v>574</v>
       </c>
       <c r="C35" s="254" t="s">
@@ -8810,7 +8830,7 @@
     </row>
     <row r="36" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="85"/>
-      <c r="B36" s="261"/>
+      <c r="B36" s="256"/>
       <c r="C36" s="254"/>
       <c r="D36" s="94" t="s">
         <v>577</v>
@@ -8830,7 +8850,7 @@
     </row>
     <row r="37" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="85"/>
-      <c r="B37" s="261"/>
+      <c r="B37" s="256"/>
       <c r="C37" s="254"/>
       <c r="D37" s="94" t="s">
         <v>578</v>
@@ -8850,7 +8870,7 @@
     </row>
     <row r="38" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="85"/>
-      <c r="B38" s="261"/>
+      <c r="B38" s="256"/>
       <c r="C38" s="254" t="s">
         <v>579</v>
       </c>
@@ -8872,7 +8892,7 @@
     </row>
     <row r="39" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="85"/>
-      <c r="B39" s="261"/>
+      <c r="B39" s="256"/>
       <c r="C39" s="254"/>
       <c r="D39" s="94" t="s">
         <v>581</v>
@@ -8896,7 +8916,7 @@
     </row>
     <row r="40" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="85"/>
-      <c r="B40" s="261"/>
+      <c r="B40" s="256"/>
       <c r="C40" s="254"/>
       <c r="D40" s="94" t="s">
         <v>582</v>
@@ -8922,7 +8942,7 @@
     </row>
     <row r="41" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="85"/>
-      <c r="B41" s="261"/>
+      <c r="B41" s="256"/>
       <c r="C41" s="254"/>
       <c r="D41" s="94" t="s">
         <v>583</v>
@@ -8942,6 +8962,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="A5:XFD5"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="B6:N6"/>
+    <mergeCell ref="B8:B16"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="B17:B24"/>
+    <mergeCell ref="C17:C23"/>
     <mergeCell ref="B25:B34"/>
     <mergeCell ref="C25:C27"/>
     <mergeCell ref="C28:C32"/>
@@ -8949,18 +8981,6 @@
     <mergeCell ref="B35:B41"/>
     <mergeCell ref="C35:C37"/>
     <mergeCell ref="C38:C41"/>
-    <mergeCell ref="B6:N6"/>
-    <mergeCell ref="B8:B16"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="B17:B24"/>
-    <mergeCell ref="C17:C23"/>
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="B3:N3"/>
-    <mergeCell ref="A5:XFD5"/>
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:N4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -12165,8 +12185,8 @@
   </sheetPr>
   <dimension ref="A1:K440"/>
   <sheetViews>
-    <sheetView topLeftCell="A101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D113" sqref="D113"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H91" sqref="H91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.4"/>
@@ -12179,66 +12199,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="118.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="160"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="162"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="168"/>
     </row>
     <row r="2" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
-      <c r="B2" s="171" t="s">
+      <c r="B2" s="176" t="s">
         <v>708</v>
       </c>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
-      <c r="I2" s="173"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="177"/>
+      <c r="G2" s="177"/>
+      <c r="H2" s="177"/>
+      <c r="I2" s="178"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="66"/>
-      <c r="B3" s="164" t="s">
+      <c r="B3" s="170" t="s">
         <v>540</v>
       </c>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="166"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="171"/>
+      <c r="H3" s="171"/>
+      <c r="I3" s="172"/>
       <c r="J3" s="66"/>
     </row>
     <row r="4" spans="1:10" s="74" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="73"/>
-      <c r="B4" s="175" t="s">
+      <c r="B4" s="160" t="s">
         <v>709</v>
       </c>
-      <c r="C4" s="176"/>
-      <c r="D4" s="177" t="s">
+      <c r="C4" s="161"/>
+      <c r="D4" s="162" t="s">
         <v>529</v>
       </c>
-      <c r="E4" s="178"/>
-      <c r="F4" s="177" t="s">
+      <c r="E4" s="163"/>
+      <c r="F4" s="162" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="178"/>
-      <c r="H4" s="177" t="s">
+      <c r="G4" s="163"/>
+      <c r="H4" s="162" t="s">
         <v>530</v>
       </c>
-      <c r="I4" s="178"/>
+      <c r="I4" s="163"/>
       <c r="J4" s="15"/>
     </row>
-    <row r="5" spans="1:10" s="163" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:10" s="169" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:10" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="168"/>
+      <c r="B6" s="164"/>
       <c r="C6" s="54" t="s">
         <v>858</v>
       </c>
@@ -12262,7 +12282,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="169"/>
+      <c r="B7" s="165"/>
       <c r="C7" s="120" t="s">
         <v>711</v>
       </c>
@@ -12286,7 +12306,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="158" t="s">
+      <c r="B8" s="155" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="62"/>
@@ -12306,7 +12326,7 @@
       <c r="I8" s="62"/>
     </row>
     <row r="9" spans="1:10" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="158"/>
+      <c r="B9" s="155"/>
       <c r="C9" s="62"/>
       <c r="D9" s="62"/>
       <c r="E9" s="62"/>
@@ -12318,7 +12338,7 @@
       <c r="I9" s="62"/>
     </row>
     <row r="10" spans="1:10" s="131" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="158"/>
+      <c r="B10" s="155"/>
       <c r="C10" s="62"/>
       <c r="D10" s="62"/>
       <c r="E10" s="62"/>
@@ -12330,7 +12350,7 @@
       <c r="I10" s="62"/>
     </row>
     <row r="11" spans="1:10" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="158"/>
+      <c r="B11" s="155"/>
       <c r="C11" s="62"/>
       <c r="D11" s="62"/>
       <c r="E11" s="62"/>
@@ -12342,7 +12362,7 @@
       <c r="I11" s="62"/>
     </row>
     <row r="12" spans="1:10" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="158"/>
+      <c r="B12" s="155"/>
       <c r="C12" s="62"/>
       <c r="D12" s="62"/>
       <c r="E12" s="62"/>
@@ -12354,7 +12374,7 @@
       <c r="I12" s="62"/>
     </row>
     <row r="13" spans="1:10" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="158"/>
+      <c r="B13" s="155"/>
       <c r="C13" s="62"/>
       <c r="D13" s="62"/>
       <c r="E13" s="62"/>
@@ -12366,7 +12386,7 @@
       <c r="I13" s="62"/>
     </row>
     <row r="14" spans="1:10" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="158"/>
+      <c r="B14" s="155"/>
       <c r="C14" s="62"/>
       <c r="D14" s="62"/>
       <c r="E14" s="62"/>
@@ -12378,7 +12398,7 @@
       <c r="I14" s="62"/>
     </row>
     <row r="15" spans="1:10" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="158"/>
+      <c r="B15" s="155"/>
       <c r="C15" s="62"/>
       <c r="D15" s="62"/>
       <c r="E15" s="62"/>
@@ -12390,7 +12410,7 @@
       <c r="I15" s="62"/>
     </row>
     <row r="16" spans="1:10" s="123" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="158"/>
+      <c r="B16" s="155"/>
       <c r="C16" s="62"/>
       <c r="D16" s="62"/>
       <c r="E16" s="62"/>
@@ -12402,7 +12422,7 @@
       <c r="I16" s="62"/>
     </row>
     <row r="17" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="158"/>
+      <c r="B17" s="155"/>
       <c r="C17" s="62"/>
       <c r="D17" s="62"/>
       <c r="E17" s="62"/>
@@ -12414,7 +12434,7 @@
       <c r="I17" s="62"/>
     </row>
     <row r="18" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="170" t="s">
+      <c r="B18" s="157" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="69"/>
@@ -12426,7 +12446,7 @@
       <c r="I18" s="7"/>
     </row>
     <row r="19" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="154"/>
+      <c r="B19" s="158"/>
       <c r="C19" s="71"/>
       <c r="D19" s="62"/>
       <c r="E19" s="70"/>
@@ -12436,7 +12456,7 @@
       <c r="I19" s="62"/>
     </row>
     <row r="20" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="154"/>
+      <c r="B20" s="158"/>
       <c r="C20" s="62"/>
       <c r="D20" s="62"/>
       <c r="E20" s="62"/>
@@ -12446,7 +12466,7 @@
       <c r="I20" s="62"/>
     </row>
     <row r="21" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="153" t="s">
+      <c r="B21" s="145" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="7"/>
@@ -12458,7 +12478,7 @@
       <c r="I21" s="7"/>
     </row>
     <row r="22" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="145"/>
+      <c r="B22" s="146"/>
       <c r="C22" s="62"/>
       <c r="D22" s="62"/>
       <c r="E22" s="62"/>
@@ -12468,7 +12488,7 @@
       <c r="I22" s="62"/>
     </row>
     <row r="23" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="145"/>
+      <c r="B23" s="146"/>
       <c r="C23" s="62"/>
       <c r="D23" s="62"/>
       <c r="E23" s="62"/>
@@ -12478,7 +12498,7 @@
       <c r="I23" s="62"/>
     </row>
     <row r="24" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="157" t="s">
+      <c r="B24" s="148" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="7"/>
@@ -12490,7 +12510,7 @@
       <c r="I24" s="7"/>
     </row>
     <row r="25" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="147"/>
+      <c r="B25" s="149"/>
       <c r="C25" s="62"/>
       <c r="D25" s="62"/>
       <c r="E25" s="62"/>
@@ -12500,7 +12520,7 @@
       <c r="I25" s="62"/>
     </row>
     <row r="26" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="147"/>
+      <c r="B26" s="149"/>
       <c r="C26" s="62"/>
       <c r="D26" s="62"/>
       <c r="E26" s="62"/>
@@ -12510,7 +12530,7 @@
       <c r="I26" s="62"/>
     </row>
     <row r="27" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="156" t="s">
+      <c r="B27" s="151" t="s">
         <v>12</v>
       </c>
       <c r="C27" s="7"/>
@@ -12522,7 +12542,7 @@
       <c r="I27" s="7"/>
     </row>
     <row r="28" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="149"/>
+      <c r="B28" s="152"/>
       <c r="C28" s="62"/>
       <c r="D28" s="62"/>
       <c r="E28" s="62"/>
@@ -12532,7 +12552,7 @@
       <c r="I28" s="62"/>
     </row>
     <row r="29" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="149"/>
+      <c r="B29" s="152"/>
       <c r="C29" s="62"/>
       <c r="D29" s="62"/>
       <c r="E29" s="62"/>
@@ -12542,7 +12562,7 @@
       <c r="I29" s="62"/>
     </row>
     <row r="30" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="167" t="s">
+      <c r="B30" s="173" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="59"/>
@@ -12554,7 +12574,7 @@
       <c r="I30" s="7"/>
     </row>
     <row r="31" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="151"/>
+      <c r="B31" s="174"/>
       <c r="C31" s="62"/>
       <c r="D31" s="62"/>
       <c r="E31" s="62"/>
@@ -12564,7 +12584,7 @@
       <c r="I31" s="62"/>
     </row>
     <row r="32" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="151"/>
+      <c r="B32" s="174"/>
       <c r="C32" s="62"/>
       <c r="D32" s="62"/>
       <c r="E32" s="62"/>
@@ -12575,7 +12595,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
-      <c r="B33" s="168"/>
+      <c r="B33" s="164"/>
       <c r="C33" s="54" t="s">
         <v>712</v>
       </c>
@@ -12601,7 +12621,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
-      <c r="B34" s="169"/>
+      <c r="B34" s="165"/>
       <c r="C34" s="120" t="s">
         <v>711</v>
       </c>
@@ -12627,7 +12647,7 @@
     </row>
     <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
-      <c r="B35" s="174" t="s">
+      <c r="B35" s="154" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="62" t="s">
@@ -12651,7 +12671,7 @@
     </row>
     <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="119"/>
-      <c r="B36" s="158"/>
+      <c r="B36" s="155"/>
       <c r="C36" s="62" t="s">
         <v>870</v>
       </c>
@@ -12671,7 +12691,7 @@
     </row>
     <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="119"/>
-      <c r="B37" s="158"/>
+      <c r="B37" s="155"/>
       <c r="C37" s="62" t="s">
         <v>869</v>
       </c>
@@ -12687,7 +12707,7 @@
     </row>
     <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="119"/>
-      <c r="B38" s="158"/>
+      <c r="B38" s="155"/>
       <c r="C38" s="62" t="s">
         <v>878</v>
       </c>
@@ -12701,7 +12721,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" s="1"/>
-      <c r="B39" s="158"/>
+      <c r="B39" s="155"/>
       <c r="C39" s="125" t="s">
         <v>882</v>
       </c>
@@ -12715,7 +12735,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40" s="123"/>
-      <c r="B40" s="158"/>
+      <c r="B40" s="155"/>
       <c r="C40" s="60" t="s">
         <v>883</v>
       </c>
@@ -12729,7 +12749,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41" s="123"/>
-      <c r="B41" s="158"/>
+      <c r="B41" s="155"/>
       <c r="C41" s="60" t="s">
         <v>884</v>
       </c>
@@ -12743,7 +12763,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A42" s="124"/>
-      <c r="B42" s="158"/>
+      <c r="B42" s="155"/>
       <c r="C42" s="60" t="s">
         <v>887</v>
       </c>
@@ -12757,7 +12777,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A43" s="124"/>
-      <c r="B43" s="158"/>
+      <c r="B43" s="155"/>
       <c r="C43" s="60" t="s">
         <v>892</v>
       </c>
@@ -12771,7 +12791,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44" s="126"/>
-      <c r="B44" s="158"/>
+      <c r="B44" s="155"/>
       <c r="C44" s="60" t="s">
         <v>907</v>
       </c>
@@ -12785,7 +12805,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45" s="1"/>
-      <c r="B45" s="159"/>
+      <c r="B45" s="156"/>
       <c r="C45" s="62" t="s">
         <v>898</v>
       </c>
@@ -12799,7 +12819,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A46" s="1"/>
-      <c r="B46" s="170" t="s">
+      <c r="B46" s="157" t="s">
         <v>9</v>
       </c>
       <c r="C46" s="69"/>
@@ -12815,7 +12835,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A47" s="1"/>
-      <c r="B47" s="154"/>
+      <c r="B47" s="158"/>
       <c r="C47" s="71"/>
       <c r="D47" s="5"/>
       <c r="E47" s="70"/>
@@ -12827,7 +12847,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A48" s="1"/>
-      <c r="B48" s="154"/>
+      <c r="B48" s="158"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -12839,7 +12859,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A49" s="1"/>
-      <c r="B49" s="153" t="s">
+      <c r="B49" s="145" t="s">
         <v>10</v>
       </c>
       <c r="C49" s="7"/>
@@ -12853,7 +12873,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A50" s="1"/>
-      <c r="B50" s="145"/>
+      <c r="B50" s="146"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
@@ -12865,7 +12885,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A51" s="1"/>
-      <c r="B51" s="145"/>
+      <c r="B51" s="146"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
@@ -12877,7 +12897,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A52" s="1"/>
-      <c r="B52" s="157" t="s">
+      <c r="B52" s="148" t="s">
         <v>11</v>
       </c>
       <c r="C52" s="7"/>
@@ -12891,7 +12911,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A53" s="1"/>
-      <c r="B53" s="147"/>
+      <c r="B53" s="149"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
@@ -12903,7 +12923,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A54" s="1"/>
-      <c r="B54" s="147"/>
+      <c r="B54" s="149"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
@@ -12915,7 +12935,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A55" s="1"/>
-      <c r="B55" s="156" t="s">
+      <c r="B55" s="151" t="s">
         <v>12</v>
       </c>
       <c r="C55" s="7"/>
@@ -12929,7 +12949,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A56" s="1"/>
-      <c r="B56" s="149"/>
+      <c r="B56" s="152"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
@@ -12941,7 +12961,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A57" s="1"/>
-      <c r="B57" s="149"/>
+      <c r="B57" s="152"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
@@ -12953,7 +12973,7 @@
     </row>
     <row r="58" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="1"/>
-      <c r="B58" s="167" t="s">
+      <c r="B58" s="173" t="s">
         <v>13</v>
       </c>
       <c r="C58" s="59"/>
@@ -12967,7 +12987,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A59" s="1"/>
-      <c r="B59" s="151"/>
+      <c r="B59" s="174"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
@@ -12979,7 +12999,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A60" s="1"/>
-      <c r="B60" s="151"/>
+      <c r="B60" s="174"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
@@ -13043,7 +13063,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A63" s="1"/>
-      <c r="B63" s="174" t="s">
+      <c r="B63" s="154" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="7" t="s">
@@ -13065,7 +13085,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A64" s="1"/>
-      <c r="B64" s="158"/>
+      <c r="B64" s="155"/>
       <c r="C64" s="5" t="s">
         <v>933</v>
       </c>
@@ -13083,7 +13103,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A65" s="132"/>
-      <c r="B65" s="158"/>
+      <c r="B65" s="155"/>
       <c r="C65" s="62" t="s">
         <v>999</v>
       </c>
@@ -13097,7 +13117,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A66" s="1"/>
-      <c r="B66" s="159"/>
+      <c r="B66" s="156"/>
       <c r="C66" s="6" t="s">
         <v>996</v>
       </c>
@@ -13111,7 +13131,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A67" s="1"/>
-      <c r="B67" s="170" t="s">
+      <c r="B67" s="157" t="s">
         <v>9</v>
       </c>
       <c r="C67" s="7" t="s">
@@ -13135,7 +13155,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A68" s="1"/>
-      <c r="B68" s="154"/>
+      <c r="B68" s="158"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5" t="s">
@@ -13153,7 +13173,7 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A69" s="123"/>
-      <c r="B69" s="154"/>
+      <c r="B69" s="158"/>
       <c r="C69" s="62"/>
       <c r="D69" s="62"/>
       <c r="E69" s="62" t="s">
@@ -13169,7 +13189,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A70" s="124"/>
-      <c r="B70" s="154"/>
+      <c r="B70" s="158"/>
       <c r="C70" s="62"/>
       <c r="D70" s="62"/>
       <c r="E70" s="62" t="s">
@@ -13185,7 +13205,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A71" s="124"/>
-      <c r="B71" s="154"/>
+      <c r="B71" s="158"/>
       <c r="C71" s="62"/>
       <c r="D71" s="62"/>
       <c r="E71" s="62"/>
@@ -13196,7 +13216,7 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A72" s="124"/>
-      <c r="B72" s="154"/>
+      <c r="B72" s="158"/>
       <c r="C72" s="62"/>
       <c r="D72" s="62"/>
       <c r="E72" s="62"/>
@@ -13208,7 +13228,7 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A73" s="1"/>
-      <c r="B73" s="155"/>
+      <c r="B73" s="159"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
@@ -13220,7 +13240,7 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A74" s="1"/>
-      <c r="B74" s="153" t="s">
+      <c r="B74" s="145" t="s">
         <v>10</v>
       </c>
       <c r="C74" s="7"/>
@@ -13234,7 +13254,7 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A75" s="1"/>
-      <c r="B75" s="145"/>
+      <c r="B75" s="146"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -13246,7 +13266,7 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A76" s="1"/>
-      <c r="B76" s="146"/>
+      <c r="B76" s="147"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
@@ -13258,7 +13278,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A77" s="1"/>
-      <c r="B77" s="157" t="s">
+      <c r="B77" s="148" t="s">
         <v>11</v>
       </c>
       <c r="C77" s="7"/>
@@ -13272,7 +13292,7 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A78" s="1"/>
-      <c r="B78" s="147"/>
+      <c r="B78" s="149"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -13284,7 +13304,7 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A79" s="1"/>
-      <c r="B79" s="148"/>
+      <c r="B79" s="150"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
@@ -13296,7 +13316,7 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A80" s="1"/>
-      <c r="B80" s="156" t="s">
+      <c r="B80" s="151" t="s">
         <v>12</v>
       </c>
       <c r="C80" s="7"/>
@@ -13310,7 +13330,7 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A81" s="1"/>
-      <c r="B81" s="149"/>
+      <c r="B81" s="152"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -13322,7 +13342,7 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A82" s="1"/>
-      <c r="B82" s="150"/>
+      <c r="B82" s="153"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
@@ -13334,7 +13354,7 @@
     </row>
     <row r="83" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="1"/>
-      <c r="B83" s="167" t="s">
+      <c r="B83" s="173" t="s">
         <v>13</v>
       </c>
       <c r="C83" s="7"/>
@@ -13348,7 +13368,7 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A84" s="1"/>
-      <c r="B84" s="151"/>
+      <c r="B84" s="174"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -13360,7 +13380,7 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A85" s="1"/>
-      <c r="B85" s="152"/>
+      <c r="B85" s="175"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
@@ -13424,14 +13444,16 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A88" s="1"/>
-      <c r="B88" s="174" t="s">
+      <c r="B88" s="154" t="s">
         <v>8</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>913</v>
       </c>
       <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
+      <c r="E88" s="7" t="s">
+        <v>1040</v>
+      </c>
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
@@ -13440,7 +13462,7 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A89" s="1"/>
-      <c r="B89" s="158"/>
+      <c r="B89" s="155"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -13452,7 +13474,7 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A90" s="1"/>
-      <c r="B90" s="159"/>
+      <c r="B90" s="156"/>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
@@ -13464,7 +13486,7 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A91" s="1"/>
-      <c r="B91" s="170" t="s">
+      <c r="B91" s="157" t="s">
         <v>9</v>
       </c>
       <c r="C91" s="7" t="s">
@@ -13486,7 +13508,7 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A92" s="1"/>
-      <c r="B92" s="154"/>
+      <c r="B92" s="158"/>
       <c r="C92" s="5" t="s">
         <v>862</v>
       </c>
@@ -13506,7 +13528,7 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A93" s="123"/>
-      <c r="B93" s="154"/>
+      <c r="B93" s="158"/>
       <c r="C93" s="62" t="s">
         <v>881</v>
       </c>
@@ -13526,7 +13548,7 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A94" s="124"/>
-      <c r="B94" s="154"/>
+      <c r="B94" s="158"/>
       <c r="C94" s="62" t="s">
         <v>889</v>
       </c>
@@ -13544,7 +13566,7 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A95" s="124"/>
-      <c r="B95" s="154"/>
+      <c r="B95" s="158"/>
       <c r="C95" s="62" t="s">
         <v>897</v>
       </c>
@@ -13560,7 +13582,7 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A96" s="124"/>
-      <c r="B96" s="154"/>
+      <c r="B96" s="158"/>
       <c r="C96" s="62" t="s">
         <v>907</v>
       </c>
@@ -13576,7 +13598,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A97" s="126"/>
-      <c r="B97" s="154"/>
+      <c r="B97" s="158"/>
       <c r="C97" s="60" t="s">
         <v>899</v>
       </c>
@@ -13590,7 +13612,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A98" s="1"/>
-      <c r="B98" s="155"/>
+      <c r="B98" s="159"/>
       <c r="D98" s="6"/>
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
@@ -13601,7 +13623,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A99" s="1"/>
-      <c r="B99" s="153" t="s">
+      <c r="B99" s="145" t="s">
         <v>10</v>
       </c>
       <c r="C99" s="7"/>
@@ -13615,7 +13637,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A100" s="1"/>
-      <c r="B100" s="145"/>
+      <c r="B100" s="146"/>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
@@ -13627,7 +13649,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A101" s="1"/>
-      <c r="B101" s="146"/>
+      <c r="B101" s="147"/>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
       <c r="E101" s="6"/>
@@ -13639,7 +13661,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A102" s="1"/>
-      <c r="B102" s="157" t="s">
+      <c r="B102" s="148" t="s">
         <v>11</v>
       </c>
       <c r="C102" s="7"/>
@@ -13653,7 +13675,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A103" s="1"/>
-      <c r="B103" s="147"/>
+      <c r="B103" s="149"/>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
@@ -13665,7 +13687,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A104" s="1"/>
-      <c r="B104" s="148"/>
+      <c r="B104" s="150"/>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
       <c r="E104" s="6"/>
@@ -13677,7 +13699,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A105" s="1"/>
-      <c r="B105" s="156" t="s">
+      <c r="B105" s="151" t="s">
         <v>12</v>
       </c>
       <c r="C105" s="7"/>
@@ -13691,7 +13713,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A106" s="1"/>
-      <c r="B106" s="149"/>
+      <c r="B106" s="152"/>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
@@ -13703,7 +13725,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A107" s="1"/>
-      <c r="B107" s="150"/>
+      <c r="B107" s="153"/>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
       <c r="E107" s="6"/>
@@ -13716,7 +13738,7 @@
     </row>
     <row r="108" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="1"/>
-      <c r="B108" s="167" t="s">
+      <c r="B108" s="173" t="s">
         <v>13</v>
       </c>
       <c r="C108" s="7"/>
@@ -13731,7 +13753,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A109" s="1"/>
-      <c r="B109" s="151"/>
+      <c r="B109" s="174"/>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
@@ -13744,7 +13766,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A110" s="1"/>
-      <c r="B110" s="152"/>
+      <c r="B110" s="175"/>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
       <c r="E110" s="6"/>
@@ -13811,7 +13833,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A113" s="1"/>
-      <c r="B113" s="158" t="s">
+      <c r="B113" s="155" t="s">
         <v>8</v>
       </c>
       <c r="C113" s="5" t="s">
@@ -13820,7 +13842,9 @@
       <c r="D113" s="5" t="s">
         <v>1032</v>
       </c>
-      <c r="E113" s="5"/>
+      <c r="E113" s="5" t="s">
+        <v>1037</v>
+      </c>
       <c r="F113" s="5"/>
       <c r="G113" s="5"/>
       <c r="H113" s="5"/>
@@ -13830,7 +13854,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A114" s="1"/>
-      <c r="B114" s="158"/>
+      <c r="B114" s="155"/>
       <c r="C114" s="5" t="s">
         <v>1018</v>
       </c>
@@ -13845,7 +13869,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A115" s="1"/>
-      <c r="B115" s="159"/>
+      <c r="B115" s="156"/>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
       <c r="E115" s="6"/>
@@ -13858,7 +13882,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A116" s="1"/>
-      <c r="B116" s="154" t="s">
+      <c r="B116" s="158" t="s">
         <v>9</v>
       </c>
       <c r="C116" s="5" t="s">
@@ -13883,7 +13907,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A117" s="1"/>
-      <c r="B117" s="154"/>
+      <c r="B117" s="158"/>
       <c r="C117" s="5"/>
       <c r="D117" s="5" t="s">
         <v>931</v>
@@ -13898,7 +13922,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A118" s="1"/>
-      <c r="B118" s="155"/>
+      <c r="B118" s="159"/>
       <c r="C118" s="6"/>
       <c r="D118" s="6"/>
       <c r="E118" s="6"/>
@@ -13911,7 +13935,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A119" s="1"/>
-      <c r="B119" s="145" t="s">
+      <c r="B119" s="146" t="s">
         <v>10</v>
       </c>
       <c r="C119" s="5"/>
@@ -13928,7 +13952,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A120" s="1"/>
-      <c r="B120" s="145"/>
+      <c r="B120" s="146"/>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
@@ -13941,7 +13965,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A121" s="1"/>
-      <c r="B121" s="146"/>
+      <c r="B121" s="147"/>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
       <c r="E121" s="6"/>
@@ -13954,7 +13978,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A122" s="1"/>
-      <c r="B122" s="147" t="s">
+      <c r="B122" s="149" t="s">
         <v>11</v>
       </c>
       <c r="C122" s="5"/>
@@ -13969,7 +13993,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A123" s="1"/>
-      <c r="B123" s="147"/>
+      <c r="B123" s="149"/>
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
@@ -13982,7 +14006,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A124" s="1"/>
-      <c r="B124" s="148"/>
+      <c r="B124" s="150"/>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
       <c r="E124" s="6"/>
@@ -13995,7 +14019,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A125" s="1"/>
-      <c r="B125" s="149" t="s">
+      <c r="B125" s="152" t="s">
         <v>12</v>
       </c>
       <c r="C125" s="5"/>
@@ -14010,7 +14034,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A126" s="1"/>
-      <c r="B126" s="149"/>
+      <c r="B126" s="152"/>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
@@ -14023,7 +14047,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A127" s="1"/>
-      <c r="B127" s="150"/>
+      <c r="B127" s="153"/>
       <c r="C127" s="6"/>
       <c r="D127" s="6"/>
       <c r="E127" s="6"/>
@@ -14035,7 +14059,7 @@
     </row>
     <row r="128" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="1"/>
-      <c r="B128" s="151" t="s">
+      <c r="B128" s="174" t="s">
         <v>13</v>
       </c>
       <c r="C128" s="5"/>
@@ -14049,7 +14073,7 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A129" s="1"/>
-      <c r="B129" s="151"/>
+      <c r="B129" s="174"/>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
@@ -14061,7 +14085,7 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A130" s="1"/>
-      <c r="B130" s="152"/>
+      <c r="B130" s="175"/>
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
       <c r="E130" s="6"/>
@@ -16599,21 +16623,15 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="B91:B98"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="B67:B73"/>
-    <mergeCell ref="B35:B45"/>
-    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B119:B121"/>
+    <mergeCell ref="B122:B124"/>
+    <mergeCell ref="B125:B127"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="B116:B118"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="B102:B104"/>
+    <mergeCell ref="B113:B115"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="A5:XFD5"/>
     <mergeCell ref="B3:I3"/>
@@ -16630,15 +16648,21 @@
     <mergeCell ref="B83:B85"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B52:B54"/>
-    <mergeCell ref="B119:B121"/>
-    <mergeCell ref="B122:B124"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="B116:B118"/>
-    <mergeCell ref="B105:B107"/>
-    <mergeCell ref="B102:B104"/>
-    <mergeCell ref="B113:B115"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="B67:B73"/>
+    <mergeCell ref="B35:B45"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="B91:B98"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -16657,8 +16681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M577"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -16670,41 +16694,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="119.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="160"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="162"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="168"/>
     </row>
     <row r="2" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
-      <c r="B2" s="171" t="s">
+      <c r="B2" s="176" t="s">
         <v>741</v>
       </c>
-      <c r="C2" s="191"/>
-      <c r="D2" s="191"/>
-      <c r="E2" s="191"/>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="191"/>
-      <c r="I2" s="192"/>
+      <c r="C2" s="189"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="189"/>
+      <c r="G2" s="189"/>
+      <c r="H2" s="189"/>
+      <c r="I2" s="190"/>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="66"/>
-      <c r="B3" s="164" t="s">
+      <c r="B3" s="170" t="s">
         <v>540</v>
       </c>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="166"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="171"/>
+      <c r="H3" s="171"/>
+      <c r="I3" s="172"/>
       <c r="J3" s="66"/>
     </row>
     <row r="4" spans="1:10" s="75" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -16713,24 +16737,24 @@
         <v>847</v>
       </c>
       <c r="C4" s="194"/>
-      <c r="D4" s="177" t="s">
+      <c r="D4" s="162" t="s">
         <v>544</v>
       </c>
-      <c r="E4" s="178"/>
-      <c r="F4" s="177" t="s">
+      <c r="E4" s="163"/>
+      <c r="F4" s="162" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="195"/>
-      <c r="H4" s="177" t="s">
+      <c r="H4" s="162" t="s">
         <v>529</v>
       </c>
-      <c r="I4" s="178"/>
+      <c r="I4" s="163"/>
       <c r="J4" s="73"/>
     </row>
-    <row r="5" spans="1:10" s="163" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:10" s="169" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="168"/>
+      <c r="B6" s="164"/>
       <c r="C6" s="54" t="s">
         <v>742</v>
       </c>
@@ -16756,7 +16780,7 @@
     </row>
     <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="169"/>
+      <c r="B7" s="165"/>
       <c r="C7" s="55" t="s">
         <v>1</v>
       </c>
@@ -16820,7 +16844,7 @@
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="189" t="s">
+      <c r="B11" s="179" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="11"/>
@@ -16834,7 +16858,7 @@
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="189"/>
+      <c r="B12" s="179"/>
       <c r="C12" s="11"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -16846,7 +16870,7 @@
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="190"/>
+      <c r="B13" s="180"/>
       <c r="C13" s="10"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -16972,7 +16996,7 @@
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
-      <c r="B23" s="179" t="s">
+      <c r="B23" s="191" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="11"/>
@@ -16986,7 +17010,7 @@
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
-      <c r="B24" s="179"/>
+      <c r="B24" s="191"/>
       <c r="C24" s="11"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -16998,7 +17022,7 @@
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
-      <c r="B25" s="180"/>
+      <c r="B25" s="192"/>
       <c r="C25" s="10"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -17100,7 +17124,7 @@
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
-      <c r="B31" s="189" t="s">
+      <c r="B31" s="179" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="11"/>
@@ -17122,7 +17146,7 @@
     </row>
     <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
-      <c r="B32" s="189"/>
+      <c r="B32" s="179"/>
       <c r="C32" s="11"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5" t="s">
@@ -17138,7 +17162,7 @@
     </row>
     <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
-      <c r="B33" s="190"/>
+      <c r="B33" s="180"/>
       <c r="C33" s="10"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6" t="s">
@@ -17268,7 +17292,7 @@
     </row>
     <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1"/>
-      <c r="B43" s="179" t="s">
+      <c r="B43" s="191" t="s">
         <v>13</v>
       </c>
       <c r="C43" s="11"/>
@@ -17282,7 +17306,7 @@
     </row>
     <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="1"/>
-      <c r="B44" s="179"/>
+      <c r="B44" s="191"/>
       <c r="C44" s="11"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -17294,7 +17318,7 @@
     </row>
     <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1"/>
-      <c r="B45" s="180"/>
+      <c r="B45" s="192"/>
       <c r="C45" s="10"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
@@ -17396,12 +17420,16 @@
     </row>
     <row r="51" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1"/>
-      <c r="B51" s="189" t="s">
+      <c r="B51" s="179" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="11"/>
+      <c r="C51" s="11" t="s">
+        <v>1038</v>
+      </c>
       <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
+      <c r="E51" s="5" t="s">
+        <v>1039</v>
+      </c>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
@@ -17410,7 +17438,7 @@
     </row>
     <row r="52" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1"/>
-      <c r="B52" s="189"/>
+      <c r="B52" s="179"/>
       <c r="C52" s="11"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -17422,7 +17450,7 @@
     </row>
     <row r="53" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="1"/>
-      <c r="B53" s="190"/>
+      <c r="B53" s="180"/>
       <c r="C53" s="10"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
@@ -17549,7 +17577,7 @@
     </row>
     <row r="63" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="1"/>
-      <c r="B63" s="179" t="s">
+      <c r="B63" s="191" t="s">
         <v>13</v>
       </c>
       <c r="C63" s="11"/>
@@ -17563,7 +17591,7 @@
     </row>
     <row r="64" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="1"/>
-      <c r="B64" s="179"/>
+      <c r="B64" s="191"/>
       <c r="C64" s="11"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -17578,7 +17606,7 @@
     </row>
     <row r="65" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="1"/>
-      <c r="B65" s="180"/>
+      <c r="B65" s="192"/>
       <c r="C65" s="10"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
@@ -17698,7 +17726,7 @@
     </row>
     <row r="71" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="1"/>
-      <c r="B71" s="189" t="s">
+      <c r="B71" s="179" t="s">
         <v>9</v>
       </c>
       <c r="C71" s="11"/>
@@ -17715,7 +17743,7 @@
     </row>
     <row r="72" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="1"/>
-      <c r="B72" s="189"/>
+      <c r="B72" s="179"/>
       <c r="C72" s="11"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -17730,7 +17758,7 @@
     </row>
     <row r="73" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="1"/>
-      <c r="B73" s="190"/>
+      <c r="B73" s="180"/>
       <c r="C73" s="10"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
@@ -17886,7 +17914,7 @@
     </row>
     <row r="83" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="1"/>
-      <c r="B83" s="179" t="s">
+      <c r="B83" s="191" t="s">
         <v>13</v>
       </c>
       <c r="C83" s="11"/>
@@ -17903,7 +17931,7 @@
     </row>
     <row r="84" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="1"/>
-      <c r="B84" s="179"/>
+      <c r="B84" s="191"/>
       <c r="C84" s="11"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -17918,7 +17946,7 @@
     </row>
     <row r="85" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="1"/>
-      <c r="B85" s="180"/>
+      <c r="B85" s="192"/>
       <c r="C85" s="10"/>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
@@ -18026,7 +18054,7 @@
     </row>
     <row r="91" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="1"/>
-      <c r="B91" s="189" t="s">
+      <c r="B91" s="179" t="s">
         <v>9</v>
       </c>
       <c r="C91" s="11"/>
@@ -18040,7 +18068,7 @@
     </row>
     <row r="92" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="1"/>
-      <c r="B92" s="189"/>
+      <c r="B92" s="179"/>
       <c r="C92" s="11"/>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -18052,7 +18080,7 @@
     </row>
     <row r="93" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="1"/>
-      <c r="B93" s="190"/>
+      <c r="B93" s="180"/>
       <c r="C93" s="10"/>
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
@@ -18178,7 +18206,7 @@
     </row>
     <row r="103" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="1"/>
-      <c r="B103" s="179" t="s">
+      <c r="B103" s="191" t="s">
         <v>13</v>
       </c>
       <c r="C103" s="11"/>
@@ -18192,7 +18220,7 @@
     </row>
     <row r="104" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="1"/>
-      <c r="B104" s="179"/>
+      <c r="B104" s="191"/>
       <c r="C104" s="11"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
@@ -18204,7 +18232,7 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A105" s="1"/>
-      <c r="B105" s="180"/>
+      <c r="B105" s="192"/>
       <c r="C105" s="68"/>
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
@@ -22470,13 +22498,22 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="A5:XFD5"/>
+    <mergeCell ref="B94:B96"/>
+    <mergeCell ref="B97:B99"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B60:B62"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="B23:B25"/>
@@ -22493,22 +22530,13 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="A5:XFD5"/>
-    <mergeCell ref="B94:B96"/>
-    <mergeCell ref="B97:B99"/>
-    <mergeCell ref="B100:B102"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B68:B70"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -22551,30 +22579,30 @@
     </row>
     <row r="2" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
-      <c r="B2" s="171" t="s">
+      <c r="B2" s="176" t="s">
         <v>778</v>
       </c>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
-      <c r="I2" s="173"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="177"/>
+      <c r="G2" s="177"/>
+      <c r="H2" s="177"/>
+      <c r="I2" s="178"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="66"/>
-      <c r="B3" s="164" t="s">
+      <c r="B3" s="170" t="s">
         <v>540</v>
       </c>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="166"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="171"/>
+      <c r="H3" s="171"/>
+      <c r="I3" s="172"/>
       <c r="J3" s="66"/>
     </row>
     <row r="4" spans="1:10" s="76" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -22583,24 +22611,24 @@
         <v>849</v>
       </c>
       <c r="C4" s="194"/>
-      <c r="D4" s="177" t="s">
+      <c r="D4" s="162" t="s">
         <v>545</v>
       </c>
-      <c r="E4" s="178"/>
-      <c r="F4" s="177" t="s">
+      <c r="E4" s="163"/>
+      <c r="F4" s="162" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="195"/>
-      <c r="H4" s="177" t="s">
+      <c r="H4" s="162" t="s">
         <v>529</v>
       </c>
-      <c r="I4" s="178"/>
+      <c r="I4" s="163"/>
       <c r="J4" s="73"/>
     </row>
-    <row r="5" spans="1:10" s="163" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:10" s="169" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="168"/>
+      <c r="B6" s="164"/>
       <c r="C6" s="103" t="s">
         <v>779</v>
       </c>
@@ -22626,7 +22654,7 @@
     </row>
     <row r="7" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="169"/>
+      <c r="B7" s="165"/>
       <c r="C7" s="104" t="s">
         <v>780</v>
       </c>
@@ -22652,7 +22680,7 @@
     </row>
     <row r="8" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="158" t="s">
+      <c r="B8" s="155" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="5"/>
@@ -22666,7 +22694,7 @@
     </row>
     <row r="9" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="158"/>
+      <c r="B9" s="155"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -22678,7 +22706,7 @@
     </row>
     <row r="10" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="159"/>
+      <c r="B10" s="156"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -22690,7 +22718,7 @@
     </row>
     <row r="11" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="154" t="s">
+      <c r="B11" s="158" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="5"/>
@@ -22704,7 +22732,7 @@
     </row>
     <row r="12" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="154"/>
+      <c r="B12" s="158"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -22716,7 +22744,7 @@
     </row>
     <row r="13" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="155"/>
+      <c r="B13" s="159"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -22728,7 +22756,7 @@
     </row>
     <row r="14" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="145" t="s">
+      <c r="B14" s="146" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="5"/>
@@ -22742,7 +22770,7 @@
     </row>
     <row r="15" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="145"/>
+      <c r="B15" s="146"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -22754,7 +22782,7 @@
     </row>
     <row r="16" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
-      <c r="B16" s="146"/>
+      <c r="B16" s="147"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -22766,7 +22794,7 @@
     </row>
     <row r="17" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
-      <c r="B17" s="147" t="s">
+      <c r="B17" s="149" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="5"/>
@@ -22780,7 +22808,7 @@
     </row>
     <row r="18" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
-      <c r="B18" s="147"/>
+      <c r="B18" s="149"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -22792,7 +22820,7 @@
     </row>
     <row r="19" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
-      <c r="B19" s="148"/>
+      <c r="B19" s="150"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -22804,7 +22832,7 @@
     </row>
     <row r="20" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
-      <c r="B20" s="149" t="s">
+      <c r="B20" s="152" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="5"/>
@@ -22818,7 +22846,7 @@
     </row>
     <row r="21" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
-      <c r="B21" s="149"/>
+      <c r="B21" s="152"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -22830,7 +22858,7 @@
     </row>
     <row r="22" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
-      <c r="B22" s="150"/>
+      <c r="B22" s="153"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -22842,7 +22870,7 @@
     </row>
     <row r="23" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
-      <c r="B23" s="151" t="s">
+      <c r="B23" s="174" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="5"/>
@@ -22856,7 +22884,7 @@
     </row>
     <row r="24" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
-      <c r="B24" s="151"/>
+      <c r="B24" s="174"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -22868,7 +22896,7 @@
     </row>
     <row r="25" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
-      <c r="B25" s="152"/>
+      <c r="B25" s="175"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -22932,7 +22960,7 @@
     </row>
     <row r="28" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
-      <c r="B28" s="158" t="s">
+      <c r="B28" s="155" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="5"/>
@@ -22947,7 +22975,7 @@
     </row>
     <row r="29" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
-      <c r="B29" s="158"/>
+      <c r="B29" s="155"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -22959,7 +22987,7 @@
     </row>
     <row r="30" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
-      <c r="B30" s="159"/>
+      <c r="B30" s="156"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -22971,7 +22999,7 @@
     </row>
     <row r="31" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
-      <c r="B31" s="154" t="s">
+      <c r="B31" s="158" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="5"/>
@@ -22985,7 +23013,7 @@
     </row>
     <row r="32" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
-      <c r="B32" s="154"/>
+      <c r="B32" s="158"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -22997,7 +23025,7 @@
     </row>
     <row r="33" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
-      <c r="B33" s="155"/>
+      <c r="B33" s="159"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -23009,7 +23037,7 @@
     </row>
     <row r="34" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
-      <c r="B34" s="145" t="s">
+      <c r="B34" s="146" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="5"/>
@@ -23023,7 +23051,7 @@
     </row>
     <row r="35" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
-      <c r="B35" s="145"/>
+      <c r="B35" s="146"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -23035,7 +23063,7 @@
     </row>
     <row r="36" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
-      <c r="B36" s="146"/>
+      <c r="B36" s="147"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -23047,7 +23075,7 @@
     </row>
     <row r="37" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
-      <c r="B37" s="147" t="s">
+      <c r="B37" s="149" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="5"/>
@@ -23061,7 +23089,7 @@
     </row>
     <row r="38" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
-      <c r="B38" s="147"/>
+      <c r="B38" s="149"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -23073,7 +23101,7 @@
     </row>
     <row r="39" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1"/>
-      <c r="B39" s="148"/>
+      <c r="B39" s="150"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -23085,7 +23113,7 @@
     </row>
     <row r="40" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1"/>
-      <c r="B40" s="149" t="s">
+      <c r="B40" s="152" t="s">
         <v>12</v>
       </c>
       <c r="C40" s="5"/>
@@ -23099,7 +23127,7 @@
     </row>
     <row r="41" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1"/>
-      <c r="B41" s="149"/>
+      <c r="B41" s="152"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -23111,7 +23139,7 @@
     </row>
     <row r="42" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="1"/>
-      <c r="B42" s="150"/>
+      <c r="B42" s="153"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -23123,7 +23151,7 @@
     </row>
     <row r="43" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1"/>
-      <c r="B43" s="151" t="s">
+      <c r="B43" s="174" t="s">
         <v>13</v>
       </c>
       <c r="C43" s="5"/>
@@ -23137,7 +23165,7 @@
     </row>
     <row r="44" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="1"/>
-      <c r="B44" s="151"/>
+      <c r="B44" s="174"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -23149,7 +23177,7 @@
     </row>
     <row r="45" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1"/>
-      <c r="B45" s="152"/>
+      <c r="B45" s="175"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
@@ -23213,7 +23241,7 @@
     </row>
     <row r="48" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="1"/>
-      <c r="B48" s="158" t="s">
+      <c r="B48" s="155" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="5"/>
@@ -23227,7 +23255,7 @@
     </row>
     <row r="49" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1"/>
-      <c r="B49" s="158"/>
+      <c r="B49" s="155"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -23239,7 +23267,7 @@
     </row>
     <row r="50" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="1"/>
-      <c r="B50" s="159"/>
+      <c r="B50" s="156"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
@@ -23251,7 +23279,7 @@
     </row>
     <row r="51" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1"/>
-      <c r="B51" s="154" t="s">
+      <c r="B51" s="158" t="s">
         <v>9</v>
       </c>
       <c r="C51" s="5"/>
@@ -23265,7 +23293,7 @@
     </row>
     <row r="52" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1"/>
-      <c r="B52" s="154"/>
+      <c r="B52" s="158"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -23277,7 +23305,7 @@
     </row>
     <row r="53" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="1"/>
-      <c r="B53" s="155"/>
+      <c r="B53" s="159"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
@@ -23289,7 +23317,7 @@
     </row>
     <row r="54" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="1"/>
-      <c r="B54" s="145" t="s">
+      <c r="B54" s="146" t="s">
         <v>10</v>
       </c>
       <c r="C54" s="5"/>
@@ -23303,7 +23331,7 @@
     </row>
     <row r="55" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="1"/>
-      <c r="B55" s="145"/>
+      <c r="B55" s="146"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -23315,7 +23343,7 @@
     </row>
     <row r="56" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="1"/>
-      <c r="B56" s="146"/>
+      <c r="B56" s="147"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
@@ -23327,7 +23355,7 @@
     </row>
     <row r="57" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="1"/>
-      <c r="B57" s="147" t="s">
+      <c r="B57" s="149" t="s">
         <v>11</v>
       </c>
       <c r="C57" s="5"/>
@@ -23341,7 +23369,7 @@
     </row>
     <row r="58" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="1"/>
-      <c r="B58" s="147"/>
+      <c r="B58" s="149"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -23353,7 +23381,7 @@
     </row>
     <row r="59" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="1"/>
-      <c r="B59" s="148"/>
+      <c r="B59" s="150"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
@@ -23365,7 +23393,7 @@
     </row>
     <row r="60" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="1"/>
-      <c r="B60" s="149" t="s">
+      <c r="B60" s="152" t="s">
         <v>12</v>
       </c>
       <c r="C60" s="5"/>
@@ -23379,7 +23407,7 @@
     </row>
     <row r="61" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="1"/>
-      <c r="B61" s="149"/>
+      <c r="B61" s="152"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -23391,7 +23419,7 @@
     </row>
     <row r="62" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="1"/>
-      <c r="B62" s="150"/>
+      <c r="B62" s="153"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
@@ -23403,7 +23431,7 @@
     </row>
     <row r="63" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="1"/>
-      <c r="B63" s="151" t="s">
+      <c r="B63" s="174" t="s">
         <v>13</v>
       </c>
       <c r="C63" s="5"/>
@@ -23417,7 +23445,7 @@
     </row>
     <row r="64" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="1"/>
-      <c r="B64" s="151"/>
+      <c r="B64" s="174"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -23429,7 +23457,7 @@
     </row>
     <row r="65" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="1"/>
-      <c r="B65" s="152"/>
+      <c r="B65" s="175"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
@@ -23496,7 +23524,7 @@
     </row>
     <row r="68" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="1"/>
-      <c r="B68" s="158" t="s">
+      <c r="B68" s="155" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="5"/>
@@ -23511,7 +23539,7 @@
     </row>
     <row r="69" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="1"/>
-      <c r="B69" s="158"/>
+      <c r="B69" s="155"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -23524,7 +23552,7 @@
     </row>
     <row r="70" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="1"/>
-      <c r="B70" s="159"/>
+      <c r="B70" s="156"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
@@ -23537,7 +23565,7 @@
     </row>
     <row r="71" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="1"/>
-      <c r="B71" s="154" t="s">
+      <c r="B71" s="158" t="s">
         <v>9</v>
       </c>
       <c r="C71" s="5"/>
@@ -23552,7 +23580,7 @@
     </row>
     <row r="72" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="1"/>
-      <c r="B72" s="154"/>
+      <c r="B72" s="158"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -23565,7 +23593,7 @@
     </row>
     <row r="73" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="1"/>
-      <c r="B73" s="155"/>
+      <c r="B73" s="159"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
@@ -23578,7 +23606,7 @@
     </row>
     <row r="74" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="1"/>
-      <c r="B74" s="145" t="s">
+      <c r="B74" s="146" t="s">
         <v>10</v>
       </c>
       <c r="C74" s="5"/>
@@ -23593,7 +23621,7 @@
     </row>
     <row r="75" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="1"/>
-      <c r="B75" s="145"/>
+      <c r="B75" s="146"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -23605,7 +23633,7 @@
     </row>
     <row r="76" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="1"/>
-      <c r="B76" s="146"/>
+      <c r="B76" s="147"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
@@ -23617,7 +23645,7 @@
     </row>
     <row r="77" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="1"/>
-      <c r="B77" s="147" t="s">
+      <c r="B77" s="149" t="s">
         <v>11</v>
       </c>
       <c r="C77" s="5"/>
@@ -23631,7 +23659,7 @@
     </row>
     <row r="78" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="1"/>
-      <c r="B78" s="147"/>
+      <c r="B78" s="149"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -23643,7 +23671,7 @@
     </row>
     <row r="79" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="1"/>
-      <c r="B79" s="148"/>
+      <c r="B79" s="150"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
@@ -23655,7 +23683,7 @@
     </row>
     <row r="80" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="1"/>
-      <c r="B80" s="149" t="s">
+      <c r="B80" s="152" t="s">
         <v>12</v>
       </c>
       <c r="C80" s="5"/>
@@ -23669,7 +23697,7 @@
     </row>
     <row r="81" spans="1:16" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="1"/>
-      <c r="B81" s="149"/>
+      <c r="B81" s="152"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -23681,7 +23709,7 @@
     </row>
     <row r="82" spans="1:16" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="1"/>
-      <c r="B82" s="150"/>
+      <c r="B82" s="153"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
@@ -23693,7 +23721,7 @@
     </row>
     <row r="83" spans="1:16" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="1"/>
-      <c r="B83" s="151" t="s">
+      <c r="B83" s="174" t="s">
         <v>13</v>
       </c>
       <c r="C83" s="5"/>
@@ -23707,7 +23735,7 @@
     </row>
     <row r="84" spans="1:16" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="1"/>
-      <c r="B84" s="151"/>
+      <c r="B84" s="174"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -23719,7 +23747,7 @@
     </row>
     <row r="85" spans="1:16" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="1"/>
-      <c r="B85" s="152"/>
+      <c r="B85" s="175"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
@@ -25902,18 +25930,11 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B60:B62"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="A5:XFD5"/>
@@ -25930,11 +25951,18 @@
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B68:B70"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -25952,8 +25980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -26020,23 +26048,23 @@
     </row>
     <row r="4" spans="1:13" s="98" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="97"/>
-      <c r="B4" s="177" t="s">
+      <c r="B4" s="162" t="s">
         <v>647</v>
       </c>
       <c r="C4" s="195"/>
-      <c r="D4" s="178"/>
-      <c r="E4" s="177" t="s">
+      <c r="D4" s="163"/>
+      <c r="E4" s="162" t="s">
         <v>648</v>
       </c>
       <c r="F4" s="195"/>
-      <c r="G4" s="178"/>
-      <c r="H4" s="177" t="s">
+      <c r="G4" s="163"/>
+      <c r="H4" s="162" t="s">
         <v>649</v>
       </c>
       <c r="I4" s="195"/>
       <c r="J4" s="195"/>
       <c r="K4" s="195"/>
-      <c r="L4" s="178"/>
+      <c r="L4" s="163"/>
       <c r="M4" s="97"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
@@ -26920,8 +26948,12 @@
       <c r="L43" s="28"/>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B44" s="129"/>
-      <c r="C44" s="23"/>
+      <c r="B44" s="129" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>1036</v>
+      </c>
       <c r="D44" s="28"/>
       <c r="E44" s="28"/>
       <c r="F44" s="28"/>
@@ -27039,30 +27071,30 @@
     </row>
     <row r="2" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
-      <c r="B2" s="171" t="s">
+      <c r="B2" s="176" t="s">
         <v>837</v>
       </c>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
-      <c r="I2" s="173"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="177"/>
+      <c r="G2" s="177"/>
+      <c r="H2" s="177"/>
+      <c r="I2" s="178"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="66"/>
-      <c r="B3" s="164" t="s">
+      <c r="B3" s="170" t="s">
         <v>540</v>
       </c>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="166"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="171"/>
+      <c r="H3" s="171"/>
+      <c r="I3" s="172"/>
       <c r="J3" s="66"/>
     </row>
     <row r="4" spans="1:10" s="74" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -27071,24 +27103,24 @@
         <v>848</v>
       </c>
       <c r="C4" s="194"/>
-      <c r="D4" s="177" t="s">
+      <c r="D4" s="162" t="s">
         <v>704</v>
       </c>
-      <c r="E4" s="178"/>
-      <c r="F4" s="177" t="s">
+      <c r="E4" s="163"/>
+      <c r="F4" s="162" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="195"/>
-      <c r="H4" s="177" t="s">
+      <c r="H4" s="162" t="s">
         <v>543</v>
       </c>
-      <c r="I4" s="178"/>
+      <c r="I4" s="163"/>
       <c r="J4" s="15"/>
     </row>
-    <row r="5" spans="1:10" s="163" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:10" s="169" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="168"/>
+      <c r="B6" s="164"/>
       <c r="C6" s="54" t="s">
         <v>809</v>
       </c>
@@ -27114,7 +27146,7 @@
     </row>
     <row r="7" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="169"/>
+      <c r="B7" s="165"/>
       <c r="C7" s="55" t="s">
         <v>1</v>
       </c>
@@ -27140,7 +27172,7 @@
     </row>
     <row r="8" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="158" t="s">
+      <c r="B8" s="155" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="5"/>
@@ -27154,7 +27186,7 @@
     </row>
     <row r="9" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="158"/>
+      <c r="B9" s="155"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -27166,7 +27198,7 @@
     </row>
     <row r="10" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="159"/>
+      <c r="B10" s="156"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -27178,7 +27210,7 @@
     </row>
     <row r="11" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="154" t="s">
+      <c r="B11" s="158" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="5"/>
@@ -27192,7 +27224,7 @@
     </row>
     <row r="12" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="154"/>
+      <c r="B12" s="158"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -27204,7 +27236,7 @@
     </row>
     <row r="13" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="155"/>
+      <c r="B13" s="159"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -27216,7 +27248,7 @@
     </row>
     <row r="14" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="145" t="s">
+      <c r="B14" s="146" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="5"/>
@@ -27230,7 +27262,7 @@
     </row>
     <row r="15" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="145"/>
+      <c r="B15" s="146"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -27242,7 +27274,7 @@
     </row>
     <row r="16" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
-      <c r="B16" s="146"/>
+      <c r="B16" s="147"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -27254,7 +27286,7 @@
     </row>
     <row r="17" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
-      <c r="B17" s="147" t="s">
+      <c r="B17" s="149" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="5"/>
@@ -27268,7 +27300,7 @@
     </row>
     <row r="18" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
-      <c r="B18" s="147"/>
+      <c r="B18" s="149"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -27280,7 +27312,7 @@
     </row>
     <row r="19" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
-      <c r="B19" s="148"/>
+      <c r="B19" s="150"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -27292,7 +27324,7 @@
     </row>
     <row r="20" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
-      <c r="B20" s="149" t="s">
+      <c r="B20" s="152" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="5"/>
@@ -27306,7 +27338,7 @@
     </row>
     <row r="21" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
-      <c r="B21" s="149"/>
+      <c r="B21" s="152"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -27318,7 +27350,7 @@
     </row>
     <row r="22" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
-      <c r="B22" s="150"/>
+      <c r="B22" s="153"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -27330,7 +27362,7 @@
     </row>
     <row r="23" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
-      <c r="B23" s="151" t="s">
+      <c r="B23" s="174" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="5"/>
@@ -27344,7 +27376,7 @@
     </row>
     <row r="24" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
-      <c r="B24" s="151"/>
+      <c r="B24" s="174"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -27356,7 +27388,7 @@
     </row>
     <row r="25" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
-      <c r="B25" s="152"/>
+      <c r="B25" s="175"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -27420,7 +27452,7 @@
     </row>
     <row r="28" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
-      <c r="B28" s="158" t="s">
+      <c r="B28" s="155" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="5"/>
@@ -27434,7 +27466,7 @@
     </row>
     <row r="29" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
-      <c r="B29" s="158"/>
+      <c r="B29" s="155"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -27446,7 +27478,7 @@
     </row>
     <row r="30" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
-      <c r="B30" s="159"/>
+      <c r="B30" s="156"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -27458,7 +27490,7 @@
     </row>
     <row r="31" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
-      <c r="B31" s="154" t="s">
+      <c r="B31" s="158" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="5"/>
@@ -27472,7 +27504,7 @@
     </row>
     <row r="32" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
-      <c r="B32" s="154"/>
+      <c r="B32" s="158"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -27484,7 +27516,7 @@
     </row>
     <row r="33" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
-      <c r="B33" s="155"/>
+      <c r="B33" s="159"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -27496,7 +27528,7 @@
     </row>
     <row r="34" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
-      <c r="B34" s="145" t="s">
+      <c r="B34" s="146" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="5"/>
@@ -27510,7 +27542,7 @@
     </row>
     <row r="35" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
-      <c r="B35" s="145"/>
+      <c r="B35" s="146"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -27522,7 +27554,7 @@
     </row>
     <row r="36" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
-      <c r="B36" s="146"/>
+      <c r="B36" s="147"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -27534,7 +27566,7 @@
     </row>
     <row r="37" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
-      <c r="B37" s="147" t="s">
+      <c r="B37" s="149" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="5"/>
@@ -27548,7 +27580,7 @@
     </row>
     <row r="38" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
-      <c r="B38" s="147"/>
+      <c r="B38" s="149"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -27560,7 +27592,7 @@
     </row>
     <row r="39" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1"/>
-      <c r="B39" s="148"/>
+      <c r="B39" s="150"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -27572,7 +27604,7 @@
     </row>
     <row r="40" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1"/>
-      <c r="B40" s="149" t="s">
+      <c r="B40" s="152" t="s">
         <v>12</v>
       </c>
       <c r="C40" s="5"/>
@@ -27586,7 +27618,7 @@
     </row>
     <row r="41" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1"/>
-      <c r="B41" s="149"/>
+      <c r="B41" s="152"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -27598,7 +27630,7 @@
     </row>
     <row r="42" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="1"/>
-      <c r="B42" s="150"/>
+      <c r="B42" s="153"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -27610,7 +27642,7 @@
     </row>
     <row r="43" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1"/>
-      <c r="B43" s="151" t="s">
+      <c r="B43" s="174" t="s">
         <v>13</v>
       </c>
       <c r="C43" s="5"/>
@@ -27624,7 +27656,7 @@
     </row>
     <row r="44" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="1"/>
-      <c r="B44" s="151"/>
+      <c r="B44" s="174"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -27636,7 +27668,7 @@
     </row>
     <row r="45" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1"/>
-      <c r="B45" s="152"/>
+      <c r="B45" s="175"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
@@ -27700,7 +27732,7 @@
     </row>
     <row r="48" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="1"/>
-      <c r="B48" s="158" t="s">
+      <c r="B48" s="155" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="5"/>
@@ -27714,7 +27746,7 @@
     </row>
     <row r="49" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1"/>
-      <c r="B49" s="158"/>
+      <c r="B49" s="155"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -27726,7 +27758,7 @@
     </row>
     <row r="50" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="1"/>
-      <c r="B50" s="159"/>
+      <c r="B50" s="156"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
@@ -27738,7 +27770,7 @@
     </row>
     <row r="51" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1"/>
-      <c r="B51" s="154" t="s">
+      <c r="B51" s="158" t="s">
         <v>9</v>
       </c>
       <c r="C51" s="5"/>
@@ -27752,7 +27784,7 @@
     </row>
     <row r="52" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1"/>
-      <c r="B52" s="154"/>
+      <c r="B52" s="158"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -27764,7 +27796,7 @@
     </row>
     <row r="53" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="1"/>
-      <c r="B53" s="155"/>
+      <c r="B53" s="159"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
@@ -27776,7 +27808,7 @@
     </row>
     <row r="54" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="1"/>
-      <c r="B54" s="145" t="s">
+      <c r="B54" s="146" t="s">
         <v>10</v>
       </c>
       <c r="C54" s="5"/>
@@ -27790,7 +27822,7 @@
     </row>
     <row r="55" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="1"/>
-      <c r="B55" s="145"/>
+      <c r="B55" s="146"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -27802,7 +27834,7 @@
     </row>
     <row r="56" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="1"/>
-      <c r="B56" s="146"/>
+      <c r="B56" s="147"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
@@ -27814,7 +27846,7 @@
     </row>
     <row r="57" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="1"/>
-      <c r="B57" s="147" t="s">
+      <c r="B57" s="149" t="s">
         <v>11</v>
       </c>
       <c r="C57" s="5"/>
@@ -27828,7 +27860,7 @@
     </row>
     <row r="58" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="1"/>
-      <c r="B58" s="147"/>
+      <c r="B58" s="149"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -27840,7 +27872,7 @@
     </row>
     <row r="59" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="1"/>
-      <c r="B59" s="148"/>
+      <c r="B59" s="150"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
@@ -27852,7 +27884,7 @@
     </row>
     <row r="60" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="1"/>
-      <c r="B60" s="149" t="s">
+      <c r="B60" s="152" t="s">
         <v>12</v>
       </c>
       <c r="C60" s="5"/>
@@ -27866,7 +27898,7 @@
     </row>
     <row r="61" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="1"/>
-      <c r="B61" s="149"/>
+      <c r="B61" s="152"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -27879,7 +27911,7 @@
     </row>
     <row r="62" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="1"/>
-      <c r="B62" s="150"/>
+      <c r="B62" s="153"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
@@ -27892,7 +27924,7 @@
     </row>
     <row r="63" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="1"/>
-      <c r="B63" s="151" t="s">
+      <c r="B63" s="174" t="s">
         <v>13</v>
       </c>
       <c r="C63" s="5"/>
@@ -27907,7 +27939,7 @@
     </row>
     <row r="64" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="1"/>
-      <c r="B64" s="151"/>
+      <c r="B64" s="174"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -27920,7 +27952,7 @@
     </row>
     <row r="65" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="1"/>
-      <c r="B65" s="152"/>
+      <c r="B65" s="175"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
@@ -27987,7 +28019,7 @@
     </row>
     <row r="68" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="1"/>
-      <c r="B68" s="158" t="s">
+      <c r="B68" s="155" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="5"/>
@@ -28002,7 +28034,7 @@
     </row>
     <row r="69" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="1"/>
-      <c r="B69" s="158"/>
+      <c r="B69" s="155"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -28015,7 +28047,7 @@
     </row>
     <row r="70" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="1"/>
-      <c r="B70" s="159"/>
+      <c r="B70" s="156"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
@@ -28028,7 +28060,7 @@
     </row>
     <row r="71" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="1"/>
-      <c r="B71" s="154" t="s">
+      <c r="B71" s="158" t="s">
         <v>9</v>
       </c>
       <c r="C71" s="5"/>
@@ -28043,7 +28075,7 @@
     </row>
     <row r="72" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="1"/>
-      <c r="B72" s="154"/>
+      <c r="B72" s="158"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -28056,7 +28088,7 @@
     </row>
     <row r="73" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="1"/>
-      <c r="B73" s="155"/>
+      <c r="B73" s="159"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
@@ -28069,7 +28101,7 @@
     </row>
     <row r="74" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="1"/>
-      <c r="B74" s="145" t="s">
+      <c r="B74" s="146" t="s">
         <v>10</v>
       </c>
       <c r="C74" s="5"/>
@@ -28084,7 +28116,7 @@
     </row>
     <row r="75" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="1"/>
-      <c r="B75" s="145"/>
+      <c r="B75" s="146"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -28097,7 +28129,7 @@
     </row>
     <row r="76" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="1"/>
-      <c r="B76" s="146"/>
+      <c r="B76" s="147"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
@@ -28109,7 +28141,7 @@
     </row>
     <row r="77" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="1"/>
-      <c r="B77" s="147" t="s">
+      <c r="B77" s="149" t="s">
         <v>11</v>
       </c>
       <c r="C77" s="5"/>
@@ -28123,7 +28155,7 @@
     </row>
     <row r="78" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="1"/>
-      <c r="B78" s="147"/>
+      <c r="B78" s="149"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -28135,7 +28167,7 @@
     </row>
     <row r="79" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="1"/>
-      <c r="B79" s="148"/>
+      <c r="B79" s="150"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
@@ -28147,7 +28179,7 @@
     </row>
     <row r="80" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="1"/>
-      <c r="B80" s="149" t="s">
+      <c r="B80" s="152" t="s">
         <v>12</v>
       </c>
       <c r="C80" s="5"/>
@@ -28161,7 +28193,7 @@
     </row>
     <row r="81" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="1"/>
-      <c r="B81" s="149"/>
+      <c r="B81" s="152"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -28173,7 +28205,7 @@
     </row>
     <row r="82" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="1"/>
-      <c r="B82" s="150"/>
+      <c r="B82" s="153"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
@@ -28185,7 +28217,7 @@
     </row>
     <row r="83" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="1"/>
-      <c r="B83" s="167" t="s">
+      <c r="B83" s="173" t="s">
         <v>13</v>
       </c>
       <c r="C83" s="7"/>
@@ -28199,7 +28231,7 @@
     </row>
     <row r="84" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="1"/>
-      <c r="B84" s="151"/>
+      <c r="B84" s="174"/>
       <c r="C84" s="62"/>
       <c r="D84" s="62"/>
       <c r="E84" s="62"/>
@@ -28211,7 +28243,7 @@
     </row>
     <row r="85" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="1"/>
-      <c r="B85" s="152"/>
+      <c r="B85" s="175"/>
       <c r="C85" s="106"/>
       <c r="D85" s="106"/>
       <c r="E85" s="106"/>
@@ -30732,14 +30764,15 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B22"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="B40:B42"/>
@@ -30756,15 +30789,14 @@
     <mergeCell ref="B43:B45"/>
     <mergeCell ref="B48:B50"/>
     <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B71:B73"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -30822,29 +30854,29 @@
     </row>
     <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="66"/>
-      <c r="B3" s="164" t="s">
+      <c r="B3" s="170" t="s">
         <v>540</v>
       </c>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="166"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="171"/>
+      <c r="H3" s="171"/>
+      <c r="I3" s="172"/>
       <c r="J3" s="66"/>
     </row>
     <row r="4" spans="1:10" s="74" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="73"/>
-      <c r="B4" s="175" t="s">
+      <c r="B4" s="160" t="s">
         <v>698</v>
       </c>
-      <c r="C4" s="176"/>
-      <c r="D4" s="177" t="s">
+      <c r="C4" s="161"/>
+      <c r="D4" s="162" t="s">
         <v>704</v>
       </c>
-      <c r="E4" s="178"/>
-      <c r="F4" s="177" t="s">
+      <c r="E4" s="163"/>
+      <c r="F4" s="162" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="195"/>
@@ -30854,10 +30886,10 @@
       <c r="I4" s="194"/>
       <c r="J4" s="15"/>
     </row>
-    <row r="5" spans="1:10" s="163" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:10" s="169" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="168"/>
+      <c r="B6" s="164"/>
       <c r="C6" s="54" t="s">
         <v>838</v>
       </c>
@@ -30883,7 +30915,7 @@
     </row>
     <row r="7" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="169"/>
+      <c r="B7" s="165"/>
       <c r="C7" s="55" t="s">
         <v>1</v>
       </c>
@@ -30909,7 +30941,7 @@
     </row>
     <row r="8" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="158" t="s">
+      <c r="B8" s="155" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="5"/>
@@ -30923,7 +30955,7 @@
     </row>
     <row r="9" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="158"/>
+      <c r="B9" s="155"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -30935,7 +30967,7 @@
     </row>
     <row r="10" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="159"/>
+      <c r="B10" s="156"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -30947,7 +30979,7 @@
     </row>
     <row r="11" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="154" t="s">
+      <c r="B11" s="158" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="5"/>
@@ -30961,7 +30993,7 @@
     </row>
     <row r="12" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="154"/>
+      <c r="B12" s="158"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -30973,7 +31005,7 @@
     </row>
     <row r="13" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="155"/>
+      <c r="B13" s="159"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -30985,7 +31017,7 @@
     </row>
     <row r="14" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="145" t="s">
+      <c r="B14" s="146" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="5"/>
@@ -30999,7 +31031,7 @@
     </row>
     <row r="15" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="145"/>
+      <c r="B15" s="146"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -31011,7 +31043,7 @@
     </row>
     <row r="16" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
-      <c r="B16" s="146"/>
+      <c r="B16" s="147"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -31023,7 +31055,7 @@
     </row>
     <row r="17" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
-      <c r="B17" s="147" t="s">
+      <c r="B17" s="149" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="5"/>
@@ -31037,7 +31069,7 @@
     </row>
     <row r="18" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
-      <c r="B18" s="147"/>
+      <c r="B18" s="149"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -31049,7 +31081,7 @@
     </row>
     <row r="19" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
-      <c r="B19" s="148"/>
+      <c r="B19" s="150"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -31061,7 +31093,7 @@
     </row>
     <row r="20" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
-      <c r="B20" s="149" t="s">
+      <c r="B20" s="152" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="5"/>
@@ -31075,7 +31107,7 @@
     </row>
     <row r="21" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
-      <c r="B21" s="149"/>
+      <c r="B21" s="152"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -31087,7 +31119,7 @@
     </row>
     <row r="22" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
-      <c r="B22" s="150"/>
+      <c r="B22" s="153"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -31099,7 +31131,7 @@
     </row>
     <row r="23" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
-      <c r="B23" s="151" t="s">
+      <c r="B23" s="174" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="5"/>
@@ -31113,7 +31145,7 @@
     </row>
     <row r="24" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
-      <c r="B24" s="151"/>
+      <c r="B24" s="174"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -31125,7 +31157,7 @@
     </row>
     <row r="25" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
-      <c r="B25" s="152"/>
+      <c r="B25" s="175"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -31189,7 +31221,7 @@
     </row>
     <row r="28" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
-      <c r="B28" s="158" t="s">
+      <c r="B28" s="155" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="5"/>
@@ -31203,7 +31235,7 @@
     </row>
     <row r="29" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
-      <c r="B29" s="158"/>
+      <c r="B29" s="155"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -31215,7 +31247,7 @@
     </row>
     <row r="30" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
-      <c r="B30" s="159"/>
+      <c r="B30" s="156"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -31227,7 +31259,7 @@
     </row>
     <row r="31" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
-      <c r="B31" s="154" t="s">
+      <c r="B31" s="158" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="5"/>
@@ -31241,7 +31273,7 @@
     </row>
     <row r="32" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
-      <c r="B32" s="154"/>
+      <c r="B32" s="158"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -31253,7 +31285,7 @@
     </row>
     <row r="33" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
-      <c r="B33" s="155"/>
+      <c r="B33" s="159"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -31265,7 +31297,7 @@
     </row>
     <row r="34" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
-      <c r="B34" s="145" t="s">
+      <c r="B34" s="146" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="5"/>
@@ -31280,7 +31312,7 @@
     </row>
     <row r="35" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
-      <c r="B35" s="145"/>
+      <c r="B35" s="146"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -31293,7 +31325,7 @@
     </row>
     <row r="36" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
-      <c r="B36" s="146"/>
+      <c r="B36" s="147"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -31305,7 +31337,7 @@
     </row>
     <row r="37" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
-      <c r="B37" s="147" t="s">
+      <c r="B37" s="149" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="5"/>
@@ -31319,7 +31351,7 @@
     </row>
     <row r="38" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
-      <c r="B38" s="147"/>
+      <c r="B38" s="149"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -31331,7 +31363,7 @@
     </row>
     <row r="39" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1"/>
-      <c r="B39" s="148"/>
+      <c r="B39" s="150"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -31343,7 +31375,7 @@
     </row>
     <row r="40" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1"/>
-      <c r="B40" s="149" t="s">
+      <c r="B40" s="152" t="s">
         <v>12</v>
       </c>
       <c r="C40" s="5"/>
@@ -31357,7 +31389,7 @@
     </row>
     <row r="41" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1"/>
-      <c r="B41" s="149"/>
+      <c r="B41" s="152"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -31369,7 +31401,7 @@
     </row>
     <row r="42" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="1"/>
-      <c r="B42" s="150"/>
+      <c r="B42" s="153"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -31381,7 +31413,7 @@
     </row>
     <row r="43" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1"/>
-      <c r="B43" s="151" t="s">
+      <c r="B43" s="174" t="s">
         <v>13</v>
       </c>
       <c r="C43" s="5"/>
@@ -31395,7 +31427,7 @@
     </row>
     <row r="44" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="1"/>
-      <c r="B44" s="151"/>
+      <c r="B44" s="174"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -31407,7 +31439,7 @@
     </row>
     <row r="45" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1"/>
-      <c r="B45" s="152"/>
+      <c r="B45" s="175"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
@@ -31471,7 +31503,7 @@
     </row>
     <row r="48" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="1"/>
-      <c r="B48" s="158" t="s">
+      <c r="B48" s="155" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="5"/>
@@ -31485,7 +31517,7 @@
     </row>
     <row r="49" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1"/>
-      <c r="B49" s="158"/>
+      <c r="B49" s="155"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -31497,7 +31529,7 @@
     </row>
     <row r="50" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="1"/>
-      <c r="B50" s="159"/>
+      <c r="B50" s="156"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
@@ -31509,7 +31541,7 @@
     </row>
     <row r="51" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1"/>
-      <c r="B51" s="154" t="s">
+      <c r="B51" s="158" t="s">
         <v>9</v>
       </c>
       <c r="C51" s="5"/>
@@ -31523,7 +31555,7 @@
     </row>
     <row r="52" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1"/>
-      <c r="B52" s="154"/>
+      <c r="B52" s="158"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -31535,7 +31567,7 @@
     </row>
     <row r="53" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="1"/>
-      <c r="B53" s="155"/>
+      <c r="B53" s="159"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
@@ -31547,7 +31579,7 @@
     </row>
     <row r="54" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="1"/>
-      <c r="B54" s="145" t="s">
+      <c r="B54" s="146" t="s">
         <v>10</v>
       </c>
       <c r="C54" s="5"/>
@@ -31561,7 +31593,7 @@
     </row>
     <row r="55" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="1"/>
-      <c r="B55" s="145"/>
+      <c r="B55" s="146"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -31573,7 +31605,7 @@
     </row>
     <row r="56" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="1"/>
-      <c r="B56" s="146"/>
+      <c r="B56" s="147"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
@@ -31585,7 +31617,7 @@
     </row>
     <row r="57" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="1"/>
-      <c r="B57" s="147" t="s">
+      <c r="B57" s="149" t="s">
         <v>11</v>
       </c>
       <c r="C57" s="5"/>
@@ -31599,7 +31631,7 @@
     </row>
     <row r="58" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="1"/>
-      <c r="B58" s="147"/>
+      <c r="B58" s="149"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -31611,7 +31643,7 @@
     </row>
     <row r="59" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="1"/>
-      <c r="B59" s="148"/>
+      <c r="B59" s="150"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
@@ -31623,7 +31655,7 @@
     </row>
     <row r="60" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="1"/>
-      <c r="B60" s="149" t="s">
+      <c r="B60" s="152" t="s">
         <v>12</v>
       </c>
       <c r="C60" s="5"/>
@@ -31637,7 +31669,7 @@
     </row>
     <row r="61" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="1"/>
-      <c r="B61" s="149"/>
+      <c r="B61" s="152"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -31649,7 +31681,7 @@
     </row>
     <row r="62" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="1"/>
-      <c r="B62" s="150"/>
+      <c r="B62" s="153"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
@@ -31661,7 +31693,7 @@
     </row>
     <row r="63" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="1"/>
-      <c r="B63" s="151" t="s">
+      <c r="B63" s="174" t="s">
         <v>13</v>
       </c>
       <c r="C63" s="5"/>
@@ -31675,7 +31707,7 @@
     </row>
     <row r="64" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="1"/>
-      <c r="B64" s="151"/>
+      <c r="B64" s="174"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -31688,7 +31720,7 @@
     </row>
     <row r="65" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="1"/>
-      <c r="B65" s="152"/>
+      <c r="B65" s="175"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
@@ -31755,7 +31787,7 @@
     </row>
     <row r="68" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="1"/>
-      <c r="B68" s="158" t="s">
+      <c r="B68" s="155" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="5"/>
@@ -31770,7 +31802,7 @@
     </row>
     <row r="69" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="1"/>
-      <c r="B69" s="158"/>
+      <c r="B69" s="155"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -31783,7 +31815,7 @@
     </row>
     <row r="70" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="1"/>
-      <c r="B70" s="159"/>
+      <c r="B70" s="156"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
@@ -31796,7 +31828,7 @@
     </row>
     <row r="71" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="1"/>
-      <c r="B71" s="154" t="s">
+      <c r="B71" s="158" t="s">
         <v>9</v>
       </c>
       <c r="C71" s="5"/>
@@ -31811,7 +31843,7 @@
     </row>
     <row r="72" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="1"/>
-      <c r="B72" s="154"/>
+      <c r="B72" s="158"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -31824,7 +31856,7 @@
     </row>
     <row r="73" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="1"/>
-      <c r="B73" s="155"/>
+      <c r="B73" s="159"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
@@ -31837,7 +31869,7 @@
     </row>
     <row r="74" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="1"/>
-      <c r="B74" s="145" t="s">
+      <c r="B74" s="146" t="s">
         <v>10</v>
       </c>
       <c r="C74" s="5"/>
@@ -31852,7 +31884,7 @@
     </row>
     <row r="75" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="1"/>
-      <c r="B75" s="145"/>
+      <c r="B75" s="146"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -31864,7 +31896,7 @@
     </row>
     <row r="76" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="1"/>
-      <c r="B76" s="146"/>
+      <c r="B76" s="147"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
@@ -31876,7 +31908,7 @@
     </row>
     <row r="77" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="1"/>
-      <c r="B77" s="147" t="s">
+      <c r="B77" s="149" t="s">
         <v>11</v>
       </c>
       <c r="C77" s="5"/>
@@ -31890,7 +31922,7 @@
     </row>
     <row r="78" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="1"/>
-      <c r="B78" s="147"/>
+      <c r="B78" s="149"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -31902,7 +31934,7 @@
     </row>
     <row r="79" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="1"/>
-      <c r="B79" s="148"/>
+      <c r="B79" s="150"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
@@ -31914,7 +31946,7 @@
     </row>
     <row r="80" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="1"/>
-      <c r="B80" s="149" t="s">
+      <c r="B80" s="152" t="s">
         <v>12</v>
       </c>
       <c r="C80" s="5"/>
@@ -31928,7 +31960,7 @@
     </row>
     <row r="81" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="1"/>
-      <c r="B81" s="149"/>
+      <c r="B81" s="152"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -31940,7 +31972,7 @@
     </row>
     <row r="82" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="1"/>
-      <c r="B82" s="150"/>
+      <c r="B82" s="153"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
@@ -31952,7 +31984,7 @@
     </row>
     <row r="83" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="1"/>
-      <c r="B83" s="151" t="s">
+      <c r="B83" s="174" t="s">
         <v>13</v>
       </c>
       <c r="C83" s="5"/>
@@ -31966,7 +31998,7 @@
     </row>
     <row r="84" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="1"/>
-      <c r="B84" s="151"/>
+      <c r="B84" s="174"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -31978,7 +32010,7 @@
     </row>
     <row r="85" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="1"/>
-      <c r="B85" s="152"/>
+      <c r="B85" s="175"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
@@ -32032,7 +32064,7 @@
     </row>
     <row r="88" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="1"/>
-      <c r="B88" s="158" t="s">
+      <c r="B88" s="155" t="s">
         <v>8</v>
       </c>
       <c r="C88" s="5"/>
@@ -32049,7 +32081,7 @@
     </row>
     <row r="89" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="1"/>
-      <c r="B89" s="158"/>
+      <c r="B89" s="155"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -32064,7 +32096,7 @@
     </row>
     <row r="90" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="1"/>
-      <c r="B90" s="159"/>
+      <c r="B90" s="156"/>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
@@ -32079,7 +32111,7 @@
     </row>
     <row r="91" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="1"/>
-      <c r="B91" s="154" t="s">
+      <c r="B91" s="158" t="s">
         <v>9</v>
       </c>
       <c r="C91" s="5"/>
@@ -32096,7 +32128,7 @@
     </row>
     <row r="92" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="1"/>
-      <c r="B92" s="154"/>
+      <c r="B92" s="158"/>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -32111,7 +32143,7 @@
     </row>
     <row r="93" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="1"/>
-      <c r="B93" s="155"/>
+      <c r="B93" s="159"/>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
@@ -32126,7 +32158,7 @@
     </row>
     <row r="94" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="1"/>
-      <c r="B94" s="145" t="s">
+      <c r="B94" s="146" t="s">
         <v>10</v>
       </c>
       <c r="C94" s="5"/>
@@ -32143,7 +32175,7 @@
     </row>
     <row r="95" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="1"/>
-      <c r="B95" s="145"/>
+      <c r="B95" s="146"/>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
@@ -32158,7 +32190,7 @@
     </row>
     <row r="96" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="1"/>
-      <c r="B96" s="146"/>
+      <c r="B96" s="147"/>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
@@ -32173,7 +32205,7 @@
     </row>
     <row r="97" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="1"/>
-      <c r="B97" s="147" t="s">
+      <c r="B97" s="149" t="s">
         <v>11</v>
       </c>
       <c r="C97" s="5"/>
@@ -32190,7 +32222,7 @@
     </row>
     <row r="98" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="1"/>
-      <c r="B98" s="147"/>
+      <c r="B98" s="149"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
@@ -32205,7 +32237,7 @@
     </row>
     <row r="99" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="1"/>
-      <c r="B99" s="148"/>
+      <c r="B99" s="150"/>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
       <c r="E99" s="6"/>
@@ -32220,7 +32252,7 @@
     </row>
     <row r="100" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="1"/>
-      <c r="B100" s="149" t="s">
+      <c r="B100" s="152" t="s">
         <v>12</v>
       </c>
       <c r="C100" s="5"/>
@@ -32237,7 +32269,7 @@
     </row>
     <row r="101" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="1"/>
-      <c r="B101" s="149"/>
+      <c r="B101" s="152"/>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
@@ -32252,7 +32284,7 @@
     </row>
     <row r="102" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="1"/>
-      <c r="B102" s="150"/>
+      <c r="B102" s="153"/>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
       <c r="E102" s="6"/>
@@ -32267,7 +32299,7 @@
     </row>
     <row r="103" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="1"/>
-      <c r="B103" s="151" t="s">
+      <c r="B103" s="174" t="s">
         <v>13</v>
       </c>
       <c r="C103" s="5"/>
@@ -32284,7 +32316,7 @@
     </row>
     <row r="104" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="1"/>
-      <c r="B104" s="151"/>
+      <c r="B104" s="174"/>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
@@ -32299,7 +32331,7 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A105" s="1"/>
-      <c r="B105" s="152"/>
+      <c r="B105" s="175"/>
       <c r="C105" s="88"/>
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
@@ -32886,6 +32918,29 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="B97:B99"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
     <mergeCell ref="B103:B105"/>
     <mergeCell ref="A5:XFD5"/>
     <mergeCell ref="B74:B76"/>
@@ -32902,29 +32957,6 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B94:B96"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B97:B99"/>
-    <mergeCell ref="B100:B102"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B71:B73"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -32994,53 +33026,53 @@
     </row>
     <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
-      <c r="B3" s="220" t="s">
+      <c r="B3" s="215" t="s">
         <v>541</v>
       </c>
-      <c r="C3" s="221"/>
-      <c r="D3" s="221"/>
-      <c r="E3" s="221"/>
-      <c r="F3" s="221"/>
-      <c r="G3" s="221"/>
-      <c r="H3" s="221"/>
-      <c r="I3" s="221"/>
-      <c r="J3" s="221"/>
-      <c r="K3" s="222"/>
+      <c r="C3" s="216"/>
+      <c r="D3" s="216"/>
+      <c r="E3" s="216"/>
+      <c r="F3" s="216"/>
+      <c r="G3" s="216"/>
+      <c r="H3" s="216"/>
+      <c r="I3" s="216"/>
+      <c r="J3" s="216"/>
+      <c r="K3" s="217"/>
       <c r="L3" s="24"/>
       <c r="M3" s="24"/>
     </row>
     <row r="4" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
-      <c r="B4" s="223" t="s">
+      <c r="B4" s="220" t="s">
         <v>533</v>
       </c>
-      <c r="C4" s="224"/>
-      <c r="D4" s="224"/>
-      <c r="E4" s="224"/>
-      <c r="F4" s="224"/>
-      <c r="G4" s="224"/>
-      <c r="H4" s="224"/>
-      <c r="I4" s="224"/>
-      <c r="J4" s="224"/>
-      <c r="K4" s="225"/>
+      <c r="C4" s="221"/>
+      <c r="D4" s="221"/>
+      <c r="E4" s="221"/>
+      <c r="F4" s="221"/>
+      <c r="G4" s="221"/>
+      <c r="H4" s="221"/>
+      <c r="I4" s="221"/>
+      <c r="J4" s="221"/>
+      <c r="K4" s="222"/>
       <c r="L4" s="24"/>
       <c r="M4" s="24"/>
     </row>
-    <row r="5" spans="1:20" s="214" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:20" s="219" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24"/>
-      <c r="B6" s="215" t="s">
+      <c r="B6" s="218" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="215"/>
-      <c r="D6" s="215"/>
-      <c r="E6" s="215"/>
-      <c r="F6" s="215"/>
-      <c r="G6" s="215"/>
-      <c r="H6" s="215"/>
-      <c r="I6" s="215"/>
-      <c r="J6" s="215"/>
-      <c r="K6" s="215"/>
+      <c r="C6" s="218"/>
+      <c r="D6" s="218"/>
+      <c r="E6" s="218"/>
+      <c r="F6" s="218"/>
+      <c r="G6" s="218"/>
+      <c r="H6" s="218"/>
+      <c r="I6" s="218"/>
+      <c r="J6" s="218"/>
+      <c r="K6" s="218"/>
       <c r="L6" s="24"/>
       <c r="M6" s="24"/>
     </row>
@@ -33049,19 +33081,19 @@
       <c r="B7" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="217"/>
-      <c r="D7" s="217"/>
-      <c r="E7" s="217"/>
+      <c r="C7" s="214"/>
+      <c r="D7" s="214"/>
+      <c r="E7" s="214"/>
       <c r="F7" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="217"/>
-      <c r="H7" s="217"/>
+      <c r="G7" s="214"/>
+      <c r="H7" s="214"/>
       <c r="I7" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="217"/>
-      <c r="K7" s="217"/>
+      <c r="J7" s="214"/>
+      <c r="K7" s="214"/>
       <c r="L7" s="24"/>
       <c r="M7" s="24"/>
     </row>
@@ -33070,19 +33102,19 @@
       <c r="B8" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="217"/>
-      <c r="D8" s="217"/>
-      <c r="E8" s="217"/>
+      <c r="C8" s="214"/>
+      <c r="D8" s="214"/>
+      <c r="E8" s="214"/>
       <c r="F8" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="217"/>
-      <c r="H8" s="217"/>
+      <c r="G8" s="214"/>
+      <c r="H8" s="214"/>
       <c r="I8" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="217"/>
-      <c r="K8" s="217"/>
+      <c r="J8" s="214"/>
+      <c r="K8" s="214"/>
       <c r="L8" s="24"/>
       <c r="M8" s="24"/>
     </row>
@@ -33091,15 +33123,15 @@
       <c r="B9" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="217"/>
-      <c r="D9" s="217"/>
-      <c r="E9" s="217"/>
-      <c r="F9" s="217"/>
-      <c r="G9" s="217"/>
-      <c r="H9" s="217"/>
-      <c r="I9" s="217"/>
-      <c r="J9" s="217"/>
-      <c r="K9" s="217"/>
+      <c r="C9" s="214"/>
+      <c r="D9" s="214"/>
+      <c r="E9" s="214"/>
+      <c r="F9" s="214"/>
+      <c r="G9" s="214"/>
+      <c r="H9" s="214"/>
+      <c r="I9" s="214"/>
+      <c r="J9" s="214"/>
+      <c r="K9" s="214"/>
       <c r="L9" s="24"/>
       <c r="M9" s="24"/>
     </row>
@@ -33108,15 +33140,15 @@
       <c r="B10" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="217"/>
-      <c r="D10" s="217"/>
-      <c r="E10" s="217"/>
-      <c r="F10" s="217"/>
-      <c r="G10" s="217"/>
-      <c r="H10" s="217"/>
-      <c r="I10" s="217"/>
-      <c r="J10" s="217"/>
-      <c r="K10" s="217"/>
+      <c r="C10" s="214"/>
+      <c r="D10" s="214"/>
+      <c r="E10" s="214"/>
+      <c r="F10" s="214"/>
+      <c r="G10" s="214"/>
+      <c r="H10" s="214"/>
+      <c r="I10" s="214"/>
+      <c r="J10" s="214"/>
+      <c r="K10" s="214"/>
       <c r="L10" s="24"/>
       <c r="M10" s="24"/>
     </row>
@@ -33125,19 +33157,19 @@
       <c r="B11" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="217"/>
-      <c r="D11" s="217"/>
-      <c r="E11" s="217"/>
+      <c r="C11" s="214"/>
+      <c r="D11" s="214"/>
+      <c r="E11" s="214"/>
       <c r="F11" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="217"/>
-      <c r="H11" s="217"/>
+      <c r="G11" s="214"/>
+      <c r="H11" s="214"/>
       <c r="I11" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="J11" s="217"/>
-      <c r="K11" s="217"/>
+      <c r="J11" s="214"/>
+      <c r="K11" s="214"/>
       <c r="L11" s="24"/>
       <c r="M11" s="24"/>
       <c r="T11" s="25" t="s">
@@ -33149,49 +33181,49 @@
       <c r="B12" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="216" t="s">
+      <c r="C12" s="223" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="216"/>
-      <c r="E12" s="216"/>
+      <c r="D12" s="223"/>
+      <c r="E12" s="223"/>
       <c r="F12" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="217"/>
-      <c r="H12" s="217"/>
+      <c r="G12" s="214"/>
+      <c r="H12" s="214"/>
       <c r="I12" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="217"/>
-      <c r="K12" s="217"/>
+      <c r="J12" s="214"/>
+      <c r="K12" s="214"/>
       <c r="L12" s="24"/>
       <c r="M12" s="24"/>
     </row>
-    <row r="13" spans="1:20" s="214" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:20" s="219" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24"/>
-      <c r="B14" s="215" t="s">
+      <c r="B14" s="218" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="215"/>
-      <c r="D14" s="215"/>
-      <c r="E14" s="215"/>
-      <c r="F14" s="215"/>
-      <c r="G14" s="215"/>
-      <c r="H14" s="215"/>
-      <c r="I14" s="215"/>
-      <c r="J14" s="215"/>
-      <c r="K14" s="215"/>
+      <c r="C14" s="218"/>
+      <c r="D14" s="218"/>
+      <c r="E14" s="218"/>
+      <c r="F14" s="218"/>
+      <c r="G14" s="218"/>
+      <c r="H14" s="218"/>
+      <c r="I14" s="218"/>
+      <c r="J14" s="218"/>
+      <c r="K14" s="218"/>
       <c r="L14" s="24"/>
       <c r="M14" s="24"/>
     </row>
     <row r="15" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
-      <c r="B15" s="218" t="s">
+      <c r="B15" s="224" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="218"/>
-      <c r="D15" s="218"/>
+      <c r="C15" s="224"/>
+      <c r="D15" s="224"/>
       <c r="E15" s="33" t="s">
         <v>44</v>
       </c>
@@ -33218,11 +33250,11 @@
     </row>
     <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
-      <c r="B16" s="216" t="s">
+      <c r="B16" s="223" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="216"/>
-      <c r="D16" s="216"/>
+      <c r="C16" s="223"/>
+      <c r="D16" s="223"/>
       <c r="E16" s="29"/>
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
@@ -33237,11 +33269,11 @@
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
-      <c r="B17" s="216" t="s">
+      <c r="B17" s="223" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="216"/>
-      <c r="D17" s="216"/>
+      <c r="C17" s="223"/>
+      <c r="D17" s="223"/>
       <c r="E17" s="29"/>
       <c r="F17" s="29"/>
       <c r="G17" s="29"/>
@@ -33254,11 +33286,11 @@
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
-      <c r="B18" s="216" t="s">
+      <c r="B18" s="223" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="216"/>
-      <c r="D18" s="216"/>
+      <c r="C18" s="223"/>
+      <c r="D18" s="223"/>
       <c r="E18" s="29"/>
       <c r="F18" s="29"/>
       <c r="G18" s="29"/>
@@ -33271,11 +33303,11 @@
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
-      <c r="B19" s="216" t="s">
+      <c r="B19" s="223" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="216"/>
-      <c r="D19" s="216"/>
+      <c r="C19" s="223"/>
+      <c r="D19" s="223"/>
       <c r="E19" s="29"/>
       <c r="F19" s="29"/>
       <c r="G19" s="29"/>
@@ -33288,11 +33320,11 @@
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24"/>
-      <c r="B20" s="216" t="s">
+      <c r="B20" s="223" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="216"/>
-      <c r="D20" s="216"/>
+      <c r="C20" s="223"/>
+      <c r="D20" s="223"/>
       <c r="E20" s="29"/>
       <c r="F20" s="29"/>
       <c r="G20" s="29"/>
@@ -33303,21 +33335,21 @@
       <c r="L20" s="24"/>
       <c r="M20" s="24"/>
     </row>
-    <row r="21" spans="1:13" s="214" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:13" s="219" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="24"/>
-      <c r="B22" s="215" t="s">
+      <c r="B22" s="218" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="215"/>
-      <c r="D22" s="215"/>
-      <c r="E22" s="215"/>
-      <c r="F22" s="215"/>
-      <c r="G22" s="215"/>
-      <c r="H22" s="215"/>
-      <c r="I22" s="215"/>
-      <c r="J22" s="215"/>
-      <c r="K22" s="215"/>
+      <c r="C22" s="218"/>
+      <c r="D22" s="218"/>
+      <c r="E22" s="218"/>
+      <c r="F22" s="218"/>
+      <c r="G22" s="218"/>
+      <c r="H22" s="218"/>
+      <c r="I22" s="218"/>
+      <c r="J22" s="218"/>
+      <c r="K22" s="218"/>
       <c r="L22" s="24"/>
       <c r="M22" s="24"/>
     </row>
@@ -33326,19 +33358,19 @@
       <c r="B23" s="33" t="s">
         <v>514</v>
       </c>
-      <c r="C23" s="217"/>
-      <c r="D23" s="217"/>
-      <c r="E23" s="217"/>
-      <c r="F23" s="217"/>
+      <c r="C23" s="214"/>
+      <c r="D23" s="214"/>
+      <c r="E23" s="214"/>
+      <c r="F23" s="214"/>
       <c r="G23" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="H23" s="216" t="s">
+      <c r="H23" s="223" t="s">
         <v>55</v>
       </c>
-      <c r="I23" s="216"/>
-      <c r="J23" s="216"/>
-      <c r="K23" s="216"/>
+      <c r="I23" s="223"/>
+      <c r="J23" s="223"/>
+      <c r="K23" s="223"/>
       <c r="L23" s="24"/>
       <c r="M23" s="24"/>
     </row>
@@ -33347,19 +33379,19 @@
       <c r="B24" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="217"/>
-      <c r="D24" s="217"/>
-      <c r="E24" s="217"/>
-      <c r="F24" s="217"/>
+      <c r="C24" s="214"/>
+      <c r="D24" s="214"/>
+      <c r="E24" s="214"/>
+      <c r="F24" s="214"/>
       <c r="G24" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="H24" s="219" t="s">
+      <c r="H24" s="225" t="s">
         <v>58</v>
       </c>
-      <c r="I24" s="219"/>
-      <c r="J24" s="219"/>
-      <c r="K24" s="219"/>
+      <c r="I24" s="225"/>
+      <c r="J24" s="225"/>
+      <c r="K24" s="225"/>
       <c r="L24" s="24"/>
       <c r="M24" s="24"/>
     </row>
@@ -33368,17 +33400,17 @@
       <c r="B25" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="217"/>
-      <c r="D25" s="217"/>
-      <c r="E25" s="217"/>
-      <c r="F25" s="217"/>
+      <c r="C25" s="214"/>
+      <c r="D25" s="214"/>
+      <c r="E25" s="214"/>
+      <c r="F25" s="214"/>
       <c r="G25" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="H25" s="217"/>
-      <c r="I25" s="217"/>
-      <c r="J25" s="217"/>
-      <c r="K25" s="217"/>
+      <c r="H25" s="214"/>
+      <c r="I25" s="214"/>
+      <c r="J25" s="214"/>
+      <c r="K25" s="214"/>
       <c r="L25" s="24"/>
       <c r="M25" s="24"/>
     </row>
@@ -33387,17 +33419,17 @@
       <c r="B26" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="217"/>
-      <c r="D26" s="217"/>
-      <c r="E26" s="217"/>
-      <c r="F26" s="217"/>
+      <c r="C26" s="214"/>
+      <c r="D26" s="214"/>
+      <c r="E26" s="214"/>
+      <c r="F26" s="214"/>
       <c r="G26" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="H26" s="217"/>
-      <c r="I26" s="217"/>
-      <c r="J26" s="217"/>
-      <c r="K26" s="217"/>
+      <c r="H26" s="214"/>
+      <c r="I26" s="214"/>
+      <c r="J26" s="214"/>
+      <c r="K26" s="214"/>
       <c r="L26" s="24"/>
       <c r="M26" s="24"/>
     </row>
@@ -33421,19 +33453,19 @@
       <c r="B28" s="33" t="s">
         <v>515</v>
       </c>
-      <c r="C28" s="217"/>
-      <c r="D28" s="217"/>
-      <c r="E28" s="217"/>
-      <c r="F28" s="217"/>
+      <c r="C28" s="214"/>
+      <c r="D28" s="214"/>
+      <c r="E28" s="214"/>
+      <c r="F28" s="214"/>
       <c r="G28" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="H28" s="216" t="s">
+      <c r="H28" s="223" t="s">
         <v>55</v>
       </c>
-      <c r="I28" s="216"/>
-      <c r="J28" s="216"/>
-      <c r="K28" s="216"/>
+      <c r="I28" s="223"/>
+      <c r="J28" s="223"/>
+      <c r="K28" s="223"/>
       <c r="L28" s="24"/>
       <c r="M28" s="24"/>
     </row>
@@ -33442,17 +33474,17 @@
       <c r="B29" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="217"/>
-      <c r="D29" s="217"/>
-      <c r="E29" s="217"/>
-      <c r="F29" s="217"/>
+      <c r="C29" s="214"/>
+      <c r="D29" s="214"/>
+      <c r="E29" s="214"/>
+      <c r="F29" s="214"/>
       <c r="G29" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="H29" s="217"/>
-      <c r="I29" s="217"/>
-      <c r="J29" s="217"/>
-      <c r="K29" s="217"/>
+      <c r="H29" s="214"/>
+      <c r="I29" s="214"/>
+      <c r="J29" s="214"/>
+      <c r="K29" s="214"/>
       <c r="L29" s="24"/>
       <c r="M29" s="24"/>
     </row>
@@ -33461,17 +33493,17 @@
       <c r="B30" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="217"/>
-      <c r="D30" s="217"/>
-      <c r="E30" s="217"/>
-      <c r="F30" s="217"/>
+      <c r="C30" s="214"/>
+      <c r="D30" s="214"/>
+      <c r="E30" s="214"/>
+      <c r="F30" s="214"/>
       <c r="G30" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="H30" s="217"/>
-      <c r="I30" s="217"/>
-      <c r="J30" s="217"/>
-      <c r="K30" s="217"/>
+      <c r="H30" s="214"/>
+      <c r="I30" s="214"/>
+      <c r="J30" s="214"/>
+      <c r="K30" s="214"/>
       <c r="L30" s="24"/>
       <c r="M30" s="24"/>
     </row>
@@ -33480,34 +33512,34 @@
       <c r="B31" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="217"/>
-      <c r="D31" s="217"/>
-      <c r="E31" s="217"/>
-      <c r="F31" s="217"/>
+      <c r="C31" s="214"/>
+      <c r="D31" s="214"/>
+      <c r="E31" s="214"/>
+      <c r="F31" s="214"/>
       <c r="G31" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="H31" s="217"/>
-      <c r="I31" s="217"/>
-      <c r="J31" s="217"/>
-      <c r="K31" s="217"/>
+      <c r="H31" s="214"/>
+      <c r="I31" s="214"/>
+      <c r="J31" s="214"/>
+      <c r="K31" s="214"/>
       <c r="L31" s="24"/>
       <c r="M31" s="24"/>
     </row>
-    <row r="32" spans="1:13" s="214" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:13" s="219" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="24"/>
-      <c r="B33" s="215" t="s">
+      <c r="B33" s="218" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="215"/>
-      <c r="D33" s="215"/>
-      <c r="E33" s="215"/>
-      <c r="F33" s="215"/>
-      <c r="G33" s="215"/>
-      <c r="H33" s="215"/>
-      <c r="I33" s="215"/>
-      <c r="J33" s="215"/>
+      <c r="C33" s="218"/>
+      <c r="D33" s="218"/>
+      <c r="E33" s="218"/>
+      <c r="F33" s="218"/>
+      <c r="G33" s="218"/>
+      <c r="H33" s="218"/>
+      <c r="I33" s="218"/>
+      <c r="J33" s="218"/>
       <c r="K33" s="31"/>
       <c r="L33" s="24"/>
       <c r="M33" s="24"/>
@@ -33526,12 +33558,12 @@
       <c r="E34" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="F34" s="218" t="s">
+      <c r="F34" s="224" t="s">
         <v>68</v>
       </c>
-      <c r="G34" s="218"/>
-      <c r="H34" s="218"/>
-      <c r="I34" s="218"/>
+      <c r="G34" s="224"/>
+      <c r="H34" s="224"/>
+      <c r="I34" s="224"/>
       <c r="J34" s="33" t="s">
         <v>69</v>
       </c>
@@ -33549,12 +33581,12 @@
       </c>
       <c r="D35" s="29"/>
       <c r="E35" s="29"/>
-      <c r="F35" s="216" t="s">
+      <c r="F35" s="223" t="s">
         <v>72</v>
       </c>
-      <c r="G35" s="216"/>
-      <c r="H35" s="216"/>
-      <c r="I35" s="216"/>
+      <c r="G35" s="223"/>
+      <c r="H35" s="223"/>
+      <c r="I35" s="223"/>
       <c r="J35" s="29"/>
       <c r="K35" s="31"/>
       <c r="L35" s="24"/>
@@ -33575,20 +33607,20 @@
       <c r="L36" s="24"/>
       <c r="M36" s="24"/>
     </row>
-    <row r="37" spans="1:13" s="214" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:13" s="219" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="24"/>
-      <c r="B38" s="215" t="s">
+      <c r="B38" s="218" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="215"/>
-      <c r="D38" s="215"/>
-      <c r="E38" s="215"/>
-      <c r="F38" s="215"/>
-      <c r="G38" s="215"/>
-      <c r="H38" s="215"/>
-      <c r="I38" s="215"/>
-      <c r="J38" s="215"/>
+      <c r="C38" s="218"/>
+      <c r="D38" s="218"/>
+      <c r="E38" s="218"/>
+      <c r="F38" s="218"/>
+      <c r="G38" s="218"/>
+      <c r="H38" s="218"/>
+      <c r="I38" s="218"/>
+      <c r="J38" s="218"/>
       <c r="K38" s="31"/>
       <c r="L38" s="24"/>
       <c r="M38" s="24"/>
@@ -33601,21 +33633,21 @@
       <c r="C39" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="D39" s="218" t="s">
+      <c r="D39" s="224" t="s">
         <v>75</v>
       </c>
-      <c r="E39" s="218"/>
-      <c r="F39" s="218" t="s">
+      <c r="E39" s="224"/>
+      <c r="F39" s="224" t="s">
         <v>76</v>
       </c>
-      <c r="G39" s="218"/>
+      <c r="G39" s="224"/>
       <c r="H39" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="I39" s="218" t="s">
+      <c r="I39" s="224" t="s">
         <v>78</v>
       </c>
-      <c r="J39" s="218"/>
+      <c r="J39" s="224"/>
       <c r="K39" s="31"/>
       <c r="L39" s="24"/>
       <c r="M39" s="24"/>
@@ -33626,17 +33658,17 @@
         <v>517</v>
       </c>
       <c r="C40" s="29"/>
-      <c r="D40" s="216" t="s">
+      <c r="D40" s="223" t="s">
         <v>51</v>
       </c>
-      <c r="E40" s="216"/>
-      <c r="F40" s="217"/>
-      <c r="G40" s="217"/>
+      <c r="E40" s="223"/>
+      <c r="F40" s="214"/>
+      <c r="G40" s="214"/>
       <c r="H40" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="I40" s="217"/>
-      <c r="J40" s="217"/>
+      <c r="I40" s="214"/>
+      <c r="J40" s="214"/>
       <c r="K40" s="31"/>
       <c r="L40" s="24"/>
       <c r="M40" s="24"/>
@@ -33645,17 +33677,17 @@
       <c r="A41" s="24"/>
       <c r="B41" s="29"/>
       <c r="C41" s="29"/>
-      <c r="D41" s="216" t="s">
+      <c r="D41" s="223" t="s">
         <v>51</v>
       </c>
-      <c r="E41" s="216"/>
-      <c r="F41" s="217"/>
-      <c r="G41" s="217"/>
+      <c r="E41" s="223"/>
+      <c r="F41" s="214"/>
+      <c r="G41" s="214"/>
       <c r="H41" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="I41" s="217"/>
-      <c r="J41" s="217"/>
+      <c r="I41" s="214"/>
+      <c r="J41" s="214"/>
       <c r="K41" s="31"/>
       <c r="L41" s="24"/>
       <c r="M41" s="24"/>
@@ -33664,32 +33696,32 @@
       <c r="A42" s="24"/>
       <c r="B42" s="29"/>
       <c r="C42" s="29"/>
-      <c r="D42" s="216" t="s">
+      <c r="D42" s="223" t="s">
         <v>51</v>
       </c>
-      <c r="E42" s="216"/>
-      <c r="F42" s="217"/>
-      <c r="G42" s="217"/>
+      <c r="E42" s="223"/>
+      <c r="F42" s="214"/>
+      <c r="G42" s="214"/>
       <c r="H42" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="I42" s="217"/>
-      <c r="J42" s="217"/>
+      <c r="I42" s="214"/>
+      <c r="J42" s="214"/>
       <c r="K42" s="31"/>
       <c r="L42" s="24"/>
       <c r="M42" s="24"/>
     </row>
-    <row r="43" spans="1:13" s="214" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:13" s="219" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="24"/>
-      <c r="B44" s="215" t="s">
+      <c r="B44" s="218" t="s">
         <v>80</v>
       </c>
-      <c r="C44" s="215"/>
-      <c r="D44" s="215"/>
-      <c r="E44" s="215"/>
-      <c r="F44" s="215"/>
-      <c r="G44" s="215"/>
+      <c r="C44" s="218"/>
+      <c r="D44" s="218"/>
+      <c r="E44" s="218"/>
+      <c r="F44" s="218"/>
+      <c r="G44" s="218"/>
       <c r="H44" s="31"/>
       <c r="I44" s="31"/>
       <c r="J44" s="31"/>
@@ -33705,14 +33737,14 @@
       <c r="C45" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="D45" s="218" t="s">
+      <c r="D45" s="224" t="s">
         <v>83</v>
       </c>
-      <c r="E45" s="218"/>
-      <c r="F45" s="218" t="s">
+      <c r="E45" s="224"/>
+      <c r="F45" s="224" t="s">
         <v>84</v>
       </c>
-      <c r="G45" s="218"/>
+      <c r="G45" s="224"/>
       <c r="H45" s="31"/>
       <c r="I45" s="31"/>
       <c r="J45" s="31"/>
@@ -33724,10 +33756,10 @@
       <c r="A46" s="24"/>
       <c r="B46" s="29"/>
       <c r="C46" s="29"/>
-      <c r="D46" s="217"/>
-      <c r="E46" s="217"/>
-      <c r="F46" s="217"/>
-      <c r="G46" s="217"/>
+      <c r="D46" s="214"/>
+      <c r="E46" s="214"/>
+      <c r="F46" s="214"/>
+      <c r="G46" s="214"/>
       <c r="H46" s="31"/>
       <c r="I46" s="31"/>
       <c r="J46" s="31"/>
@@ -33739,10 +33771,10 @@
       <c r="A47" s="24"/>
       <c r="B47" s="29"/>
       <c r="C47" s="29"/>
-      <c r="D47" s="217"/>
-      <c r="E47" s="217"/>
-      <c r="F47" s="217"/>
-      <c r="G47" s="217"/>
+      <c r="D47" s="214"/>
+      <c r="E47" s="214"/>
+      <c r="F47" s="214"/>
+      <c r="G47" s="214"/>
       <c r="H47" s="31"/>
       <c r="I47" s="31"/>
       <c r="J47" s="31"/>
@@ -33754,10 +33786,10 @@
       <c r="A48" s="24"/>
       <c r="B48" s="29"/>
       <c r="C48" s="29"/>
-      <c r="D48" s="217"/>
-      <c r="E48" s="217"/>
-      <c r="F48" s="217"/>
-      <c r="G48" s="217"/>
+      <c r="D48" s="214"/>
+      <c r="E48" s="214"/>
+      <c r="F48" s="214"/>
+      <c r="G48" s="214"/>
       <c r="H48" s="31"/>
       <c r="I48" s="31"/>
       <c r="J48" s="31"/>
@@ -33780,17 +33812,17 @@
       <c r="L49" s="24"/>
       <c r="M49" s="24"/>
     </row>
-    <row r="50" spans="1:13" s="214" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:13" s="219" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="24"/>
-      <c r="B51" s="215" t="s">
+      <c r="B51" s="218" t="s">
         <v>85</v>
       </c>
-      <c r="C51" s="215"/>
-      <c r="D51" s="215"/>
-      <c r="E51" s="215"/>
-      <c r="F51" s="215"/>
-      <c r="G51" s="215"/>
+      <c r="C51" s="218"/>
+      <c r="D51" s="218"/>
+      <c r="E51" s="218"/>
+      <c r="F51" s="218"/>
+      <c r="G51" s="218"/>
       <c r="H51" s="31"/>
       <c r="I51" s="31"/>
       <c r="J51" s="31"/>
@@ -33900,15 +33932,15 @@
       <c r="L57" s="24"/>
       <c r="M57" s="24"/>
     </row>
-    <row r="58" spans="1:13" s="214" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:13" s="219" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="24"/>
-      <c r="B59" s="215" t="s">
+      <c r="B59" s="218" t="s">
         <v>92</v>
       </c>
-      <c r="C59" s="215"/>
-      <c r="D59" s="215"/>
-      <c r="E59" s="215"/>
+      <c r="C59" s="218"/>
+      <c r="D59" s="218"/>
+      <c r="E59" s="218"/>
       <c r="F59" s="31"/>
       <c r="G59" s="31"/>
       <c r="H59" s="31"/>
@@ -34001,16 +34033,16 @@
       <c r="L64" s="24"/>
       <c r="M64" s="24"/>
     </row>
-    <row r="65" spans="1:13" s="214" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="1:13" s="219" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="24"/>
-      <c r="B66" s="215" t="s">
+      <c r="B66" s="218" t="s">
         <v>97</v>
       </c>
-      <c r="C66" s="215"/>
-      <c r="D66" s="215"/>
-      <c r="E66" s="215"/>
-      <c r="F66" s="215"/>
+      <c r="C66" s="218"/>
+      <c r="D66" s="218"/>
+      <c r="E66" s="218"/>
+      <c r="F66" s="218"/>
       <c r="G66" s="31"/>
       <c r="H66" s="31"/>
       <c r="I66" s="31"/>
@@ -34104,16 +34136,16 @@
       <c r="L71" s="24"/>
       <c r="M71" s="24"/>
     </row>
-    <row r="72" spans="1:13" s="214" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="1:13" s="219" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="73" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="24"/>
-      <c r="B73" s="215" t="s">
+      <c r="B73" s="218" t="s">
         <v>102</v>
       </c>
-      <c r="C73" s="215"/>
-      <c r="D73" s="215"/>
-      <c r="E73" s="215"/>
-      <c r="F73" s="215"/>
+      <c r="C73" s="218"/>
+      <c r="D73" s="218"/>
+      <c r="E73" s="218"/>
+      <c r="F73" s="218"/>
       <c r="G73" s="31"/>
       <c r="H73" s="31"/>
       <c r="I73" s="31"/>
@@ -34207,13 +34239,13 @@
       <c r="L78" s="24"/>
       <c r="M78" s="24"/>
     </row>
-    <row r="79" spans="1:13" s="214" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:13" s="219" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="80" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="24"/>
-      <c r="B80" s="215" t="s">
+      <c r="B80" s="218" t="s">
         <v>108</v>
       </c>
-      <c r="C80" s="215"/>
+      <c r="C80" s="218"/>
       <c r="D80" s="31"/>
       <c r="E80" s="31"/>
       <c r="F80" s="31"/>
@@ -34352,7 +34384,7 @@
       <c r="L87" s="24"/>
       <c r="M87" s="24"/>
     </row>
-    <row r="88" spans="1:13" s="214" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="1:13" s="219" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="89" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="24"/>
       <c r="B89" s="41" t="s">
@@ -34493,17 +34525,17 @@
       <c r="L96" s="24"/>
       <c r="M96" s="24"/>
     </row>
-    <row r="97" spans="1:13" s="214" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" spans="1:13" s="219" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="98" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="24"/>
-      <c r="B98" s="215" t="s">
+      <c r="B98" s="218" t="s">
         <v>130</v>
       </c>
-      <c r="C98" s="215"/>
-      <c r="D98" s="215"/>
-      <c r="E98" s="215"/>
-      <c r="F98" s="215"/>
-      <c r="G98" s="215"/>
+      <c r="C98" s="218"/>
+      <c r="D98" s="218"/>
+      <c r="E98" s="218"/>
+      <c r="F98" s="218"/>
+      <c r="G98" s="218"/>
       <c r="H98" s="31"/>
       <c r="I98" s="31"/>
       <c r="J98" s="31"/>
@@ -34615,14 +34647,14 @@
     </row>
     <row r="105" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="24"/>
-      <c r="B105" s="216" t="s">
+      <c r="B105" s="223" t="s">
         <v>135</v>
       </c>
-      <c r="C105" s="216"/>
-      <c r="D105" s="216"/>
-      <c r="E105" s="216"/>
-      <c r="F105" s="216"/>
-      <c r="G105" s="216"/>
+      <c r="C105" s="223"/>
+      <c r="D105" s="223"/>
+      <c r="E105" s="223"/>
+      <c r="F105" s="223"/>
+      <c r="G105" s="223"/>
       <c r="H105" s="31"/>
       <c r="I105" s="31"/>
       <c r="J105" s="31"/>
@@ -34630,7 +34662,7 @@
       <c r="L105" s="24"/>
       <c r="M105" s="24"/>
     </row>
-    <row r="106" spans="1:13" s="214" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" spans="1:13" s="219" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="24"/>
       <c r="B107" s="24"/>
@@ -34678,6 +34710,81 @@
     </row>
   </sheetData>
   <mergeCells count="91">
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="A106:XFD106"/>
+    <mergeCell ref="A43:XFD43"/>
+    <mergeCell ref="A50:XFD50"/>
+    <mergeCell ref="A58:XFD58"/>
+    <mergeCell ref="A65:XFD65"/>
+    <mergeCell ref="A72:XFD72"/>
+    <mergeCell ref="A79:XFD79"/>
+    <mergeCell ref="B98:G98"/>
+    <mergeCell ref="B105:G105"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="A88:XFD88"/>
+    <mergeCell ref="A97:XFD97"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B66:F66"/>
+    <mergeCell ref="B73:F73"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B38:J38"/>
+    <mergeCell ref="A37:XFD37"/>
+    <mergeCell ref="A32:XFD32"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="B33:J33"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="A21:XFD21"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="A13:XFD13"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B22:K22"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="J11:K11"/>
@@ -34694,81 +34801,6 @@
     <mergeCell ref="C9:K9"/>
     <mergeCell ref="C10:K10"/>
     <mergeCell ref="B4:K4"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="A21:XFD21"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="A13:XFD13"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B22:K22"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="B38:J38"/>
-    <mergeCell ref="A37:XFD37"/>
-    <mergeCell ref="A32:XFD32"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="B33:J33"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B66:F66"/>
-    <mergeCell ref="B73:F73"/>
-    <mergeCell ref="B27:K27"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="A106:XFD106"/>
-    <mergeCell ref="A43:XFD43"/>
-    <mergeCell ref="A50:XFD50"/>
-    <mergeCell ref="A58:XFD58"/>
-    <mergeCell ref="A65:XFD65"/>
-    <mergeCell ref="A72:XFD72"/>
-    <mergeCell ref="A79:XFD79"/>
-    <mergeCell ref="B98:G98"/>
-    <mergeCell ref="B105:G105"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="A88:XFD88"/>
-    <mergeCell ref="A97:XFD97"/>
-    <mergeCell ref="B44:G44"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -34807,38 +34839,38 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="2:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="226" t="s">
+      <c r="B2" s="239" t="s">
         <v>531</v>
       </c>
-      <c r="C2" s="227"/>
-      <c r="D2" s="227"/>
-      <c r="E2" s="227"/>
-      <c r="F2" s="228"/>
+      <c r="C2" s="240"/>
+      <c r="D2" s="240"/>
+      <c r="E2" s="240"/>
+      <c r="F2" s="241"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="229" t="s">
+      <c r="B3" s="242" t="s">
         <v>542</v>
       </c>
-      <c r="C3" s="230"/>
-      <c r="D3" s="230"/>
-      <c r="E3" s="230"/>
-      <c r="F3" s="231"/>
+      <c r="C3" s="243"/>
+      <c r="D3" s="243"/>
+      <c r="E3" s="243"/>
+      <c r="F3" s="244"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="2:7" s="47" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="177" t="s">
+      <c r="B4" s="162" t="s">
         <v>136</v>
       </c>
       <c r="C4" s="195"/>
-      <c r="D4" s="178"/>
+      <c r="D4" s="163"/>
       <c r="E4" s="195" t="s">
         <v>536</v>
       </c>
-      <c r="F4" s="178"/>
+      <c r="F4" s="163"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="2:7" s="232" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="2:7" s="226" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="2:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="13"/>
       <c r="C6" s="43" t="s">
@@ -34856,39 +34888,39 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="2:7" s="51" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="241" t="s">
+      <c r="B7" s="235" t="s">
         <v>141</v>
       </c>
-      <c r="C7" s="243" t="s">
+      <c r="C7" s="237" t="s">
         <v>538</v>
       </c>
-      <c r="D7" s="168" t="s">
+      <c r="D7" s="164" t="s">
         <v>142</v>
       </c>
       <c r="E7" s="83" t="s">
         <v>677</v>
       </c>
-      <c r="F7" s="233" t="s">
+      <c r="F7" s="227" t="s">
         <v>539</v>
       </c>
       <c r="G7" s="18"/>
     </row>
     <row r="8" spans="2:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="242"/>
-      <c r="C8" s="244"/>
-      <c r="D8" s="169"/>
+      <c r="B8" s="236"/>
+      <c r="C8" s="238"/>
+      <c r="D8" s="165"/>
       <c r="E8" s="82" t="s">
         <v>676</v>
       </c>
-      <c r="F8" s="234"/>
+      <c r="F8" s="228"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="2:7" s="51" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="199"/>
-      <c r="C9" s="235" t="s">
+      <c r="C9" s="229" t="s">
         <v>537</v>
       </c>
-      <c r="D9" s="238" t="s">
+      <c r="D9" s="232" t="s">
         <v>525</v>
       </c>
       <c r="E9" s="81" t="s">
@@ -34903,8 +34935,8 @@
     </row>
     <row r="10" spans="2:7" s="51" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="200"/>
-      <c r="C10" s="236"/>
-      <c r="D10" s="239"/>
+      <c r="C10" s="230"/>
+      <c r="D10" s="233"/>
       <c r="E10" s="81" t="s">
         <v>518</v>
       </c>
@@ -34913,8 +34945,8 @@
     </row>
     <row r="11" spans="2:7" s="51" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="200"/>
-      <c r="C11" s="236"/>
-      <c r="D11" s="239"/>
+      <c r="C11" s="230"/>
+      <c r="D11" s="233"/>
       <c r="E11" s="81" t="s">
         <v>520</v>
       </c>
@@ -34923,8 +34955,8 @@
     </row>
     <row r="12" spans="2:7" s="51" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="200"/>
-      <c r="C12" s="236"/>
-      <c r="D12" s="239"/>
+      <c r="C12" s="230"/>
+      <c r="D12" s="233"/>
       <c r="E12" s="81" t="s">
         <v>521</v>
       </c>
@@ -34933,8 +34965,8 @@
     </row>
     <row r="13" spans="2:7" s="51" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="200"/>
-      <c r="C13" s="236"/>
-      <c r="D13" s="239"/>
+      <c r="C13" s="230"/>
+      <c r="D13" s="233"/>
       <c r="E13" s="81" t="s">
         <v>519</v>
       </c>
@@ -34943,8 +34975,8 @@
     </row>
     <row r="14" spans="2:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="201"/>
-      <c r="C14" s="237"/>
-      <c r="D14" s="240"/>
+      <c r="C14" s="231"/>
+      <c r="D14" s="234"/>
       <c r="E14" s="81" t="s">
         <v>523</v>
       </c>
@@ -35111,6 +35143,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:F4"/>
     <mergeCell ref="A5:XFD5"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="B9:B14"/>
@@ -35120,11 +35157,6 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="G9:G14"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:F4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>

--- a/자소서/스펙업 2017 하반기 채용다이어리.xlsx
+++ b/자소서/스펙업 2017 하반기 채용다이어리.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="1062">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="1066">
   <si>
     <t>카톡으로 공채 소식 받기</t>
   </si>
@@ -4372,6 +4372,22 @@
   </si>
   <si>
     <t>넥슨코리아</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>넷마블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월 11일 23:59</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NC소프트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월 12일 13:00</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -12275,7 +12291,7 @@
   </sheetPr>
   <dimension ref="A1:K440"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A107" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E113" sqref="E113"/>
     </sheetView>
   </sheetViews>
@@ -16773,8 +16789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M579"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -26098,8 +26114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:XFD54"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -27187,9 +27203,15 @@
       <c r="L48" s="28"/>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B49" s="129"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="28"/>
+      <c r="B49" s="129" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D49" s="28" t="s">
+        <v>1063</v>
+      </c>
       <c r="E49" s="28"/>
       <c r="F49" s="28"/>
       <c r="G49" s="28"/>
@@ -27200,9 +27222,15 @@
       <c r="L49" s="28"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B50" s="129"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="28"/>
+      <c r="B50" s="129" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D50" s="28" t="s">
+        <v>1065</v>
+      </c>
       <c r="E50" s="28"/>
       <c r="F50" s="28"/>
       <c r="G50" s="28"/>

--- a/자소서/스펙업 2017 하반기 채용다이어리.xlsx
+++ b/자소서/스펙업 2017 하반기 채용다이어리.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8628" windowHeight="11436" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8628" windowHeight="11436" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="메인" sheetId="18" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="1071">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1803" uniqueCount="1073">
   <si>
     <t>카톡으로 공채 소식 받기</t>
   </si>
@@ -4408,6 +4408,14 @@
   </si>
   <si>
     <t>SPC그룹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5411,6 +5419,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5429,25 +5446,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5456,25 +5458,19 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5483,22 +5479,16 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5525,10 +5515,13 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5540,10 +5533,25 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5570,16 +5578,16 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5645,8 +5653,23 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5657,12 +5680,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5672,14 +5689,23 @@
     <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5720,24 +5746,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5771,7 +5779,10 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5783,10 +5794,7 @@
     <xf numFmtId="0" fontId="5" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7386,84 +7394,84 @@
       <c r="M1" s="137"/>
     </row>
     <row r="2" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="144" t="s">
+      <c r="B2" s="138" t="s">
         <v>706</v>
       </c>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="145"/>
-      <c r="M2" s="146"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
+      <c r="L2" s="139"/>
+      <c r="M2" s="140"/>
     </row>
     <row r="3" spans="2:13" ht="171" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="141" t="s">
+      <c r="B3" s="144" t="s">
         <v>675</v>
       </c>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="142"/>
-      <c r="L3" s="142"/>
-      <c r="M3" s="143"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="145"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="145"/>
+      <c r="J3" s="145"/>
+      <c r="K3" s="145"/>
+      <c r="L3" s="145"/>
+      <c r="M3" s="146"/>
     </row>
     <row r="4" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="144" t="s">
+      <c r="B4" s="138" t="s">
         <v>707</v>
       </c>
-      <c r="C4" s="145"/>
-      <c r="D4" s="145"/>
-      <c r="E4" s="145"/>
-      <c r="F4" s="145"/>
-      <c r="G4" s="145"/>
-      <c r="H4" s="145"/>
-      <c r="I4" s="145"/>
-      <c r="J4" s="145"/>
-      <c r="K4" s="145"/>
-      <c r="L4" s="145"/>
-      <c r="M4" s="146"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="139"/>
+      <c r="J4" s="139"/>
+      <c r="K4" s="139"/>
+      <c r="L4" s="139"/>
+      <c r="M4" s="140"/>
     </row>
     <row r="5" spans="2:13" ht="286.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="144" t="s">
         <v>850</v>
       </c>
-      <c r="C5" s="142"/>
-      <c r="D5" s="142"/>
-      <c r="E5" s="142"/>
-      <c r="F5" s="142"/>
-      <c r="G5" s="142"/>
-      <c r="H5" s="142"/>
-      <c r="I5" s="142"/>
-      <c r="J5" s="142"/>
-      <c r="K5" s="142"/>
-      <c r="L5" s="142"/>
-      <c r="M5" s="143"/>
+      <c r="C5" s="145"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="145"/>
+      <c r="F5" s="145"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="145"/>
+      <c r="I5" s="145"/>
+      <c r="J5" s="145"/>
+      <c r="K5" s="145"/>
+      <c r="L5" s="145"/>
+      <c r="M5" s="146"/>
     </row>
     <row r="6" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="144" t="s">
+      <c r="B6" s="138" t="s">
         <v>651</v>
       </c>
-      <c r="C6" s="145"/>
-      <c r="D6" s="145"/>
-      <c r="E6" s="145"/>
-      <c r="F6" s="145"/>
-      <c r="G6" s="145"/>
-      <c r="H6" s="145"/>
-      <c r="I6" s="145"/>
-      <c r="J6" s="145"/>
-      <c r="K6" s="145"/>
-      <c r="L6" s="145"/>
-      <c r="M6" s="146"/>
+      <c r="C6" s="139"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="139"/>
+      <c r="J6" s="139"/>
+      <c r="K6" s="139"/>
+      <c r="L6" s="139"/>
+      <c r="M6" s="140"/>
     </row>
     <row r="7" spans="2:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="135"/>
@@ -7514,23 +7522,17 @@
       <c r="E10" s="136"/>
       <c r="F10" s="136"/>
       <c r="G10" s="137"/>
-      <c r="H10" s="138" t="s">
+      <c r="H10" s="141" t="s">
         <v>653</v>
       </c>
-      <c r="I10" s="139"/>
-      <c r="J10" s="139"/>
-      <c r="K10" s="139"/>
-      <c r="L10" s="139"/>
-      <c r="M10" s="140"/>
+      <c r="I10" s="142"/>
+      <c r="J10" s="142"/>
+      <c r="K10" s="142"/>
+      <c r="L10" s="142"/>
+      <c r="M10" s="143"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="H9:M9"/>
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="H10:M10"/>
     <mergeCell ref="B3:M3"/>
@@ -7538,6 +7540,12 @@
     <mergeCell ref="B5:M5"/>
     <mergeCell ref="B6:M6"/>
     <mergeCell ref="B7:M7"/>
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="H9:M9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7582,7 +7590,7 @@
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
-      <c r="B3" s="217" t="s">
+      <c r="B3" s="222" t="s">
         <v>639</v>
       </c>
       <c r="C3" s="136"/>
@@ -7919,7 +7927,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="171" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:3" s="165" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:3" s="47" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="15"/>
       <c r="B6" s="43" t="s">
@@ -8142,7 +8150,7 @@
     </row>
     <row r="4" spans="1:14" s="76" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="73"/>
-      <c r="B4" s="164" t="s">
+      <c r="B4" s="179" t="s">
         <v>547</v>
       </c>
       <c r="C4" s="197"/>
@@ -8151,32 +8159,32 @@
       <c r="F4" s="197"/>
       <c r="G4" s="197"/>
       <c r="H4" s="197"/>
-      <c r="I4" s="165"/>
-      <c r="J4" s="262" t="s">
+      <c r="I4" s="180"/>
+      <c r="J4" s="258" t="s">
         <v>642</v>
       </c>
-      <c r="K4" s="262"/>
-      <c r="L4" s="262"/>
-      <c r="M4" s="262"/>
-      <c r="N4" s="263"/>
-    </row>
-    <row r="5" spans="1:14" s="171" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="K4" s="258"/>
+      <c r="L4" s="258"/>
+      <c r="M4" s="258"/>
+      <c r="N4" s="259"/>
+    </row>
+    <row r="5" spans="1:14" s="165" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:14" s="85" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="259" t="s">
+      <c r="B6" s="260" t="s">
         <v>638</v>
       </c>
-      <c r="C6" s="260"/>
-      <c r="D6" s="260"/>
-      <c r="E6" s="260"/>
-      <c r="F6" s="260"/>
-      <c r="G6" s="260"/>
-      <c r="H6" s="260"/>
-      <c r="I6" s="260"/>
-      <c r="J6" s="260"/>
-      <c r="K6" s="260"/>
-      <c r="L6" s="260"/>
-      <c r="M6" s="260"/>
-      <c r="N6" s="261"/>
+      <c r="C6" s="261"/>
+      <c r="D6" s="261"/>
+      <c r="E6" s="261"/>
+      <c r="F6" s="261"/>
+      <c r="G6" s="261"/>
+      <c r="H6" s="261"/>
+      <c r="I6" s="261"/>
+      <c r="J6" s="261"/>
+      <c r="K6" s="261"/>
+      <c r="L6" s="261"/>
+      <c r="M6" s="261"/>
+      <c r="N6" s="262"/>
     </row>
     <row r="7" spans="1:14" s="47" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="15"/>
@@ -8222,7 +8230,7 @@
     </row>
     <row r="8" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="85"/>
-      <c r="B8" s="258" t="s">
+      <c r="B8" s="263" t="s">
         <v>625</v>
       </c>
       <c r="C8" s="256" t="s">
@@ -8246,7 +8254,7 @@
     </row>
     <row r="9" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="85"/>
-      <c r="B9" s="258"/>
+      <c r="B9" s="263"/>
       <c r="C9" s="256"/>
       <c r="D9" s="93" t="s">
         <v>629</v>
@@ -8266,7 +8274,7 @@
     </row>
     <row r="10" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="85"/>
-      <c r="B10" s="258"/>
+      <c r="B10" s="263"/>
       <c r="C10" s="256"/>
       <c r="D10" s="93" t="s">
         <v>630</v>
@@ -8290,7 +8298,7 @@
     </row>
     <row r="11" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="85"/>
-      <c r="B11" s="258"/>
+      <c r="B11" s="263"/>
       <c r="C11" s="256" t="s">
         <v>631</v>
       </c>
@@ -8318,7 +8326,7 @@
     </row>
     <row r="12" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="85"/>
-      <c r="B12" s="258"/>
+      <c r="B12" s="263"/>
       <c r="C12" s="256"/>
       <c r="D12" s="94" t="s">
         <v>633</v>
@@ -8356,7 +8364,7 @@
     </row>
     <row r="13" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="85"/>
-      <c r="B13" s="258"/>
+      <c r="B13" s="263"/>
       <c r="C13" s="256"/>
       <c r="D13" s="94" t="s">
         <v>634</v>
@@ -8394,7 +8402,7 @@
     </row>
     <row r="14" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="85"/>
-      <c r="B14" s="258"/>
+      <c r="B14" s="263"/>
       <c r="C14" s="256"/>
       <c r="D14" s="94" t="s">
         <v>635</v>
@@ -8418,7 +8426,7 @@
     </row>
     <row r="15" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="85"/>
-      <c r="B15" s="258"/>
+      <c r="B15" s="263"/>
       <c r="C15" s="256"/>
       <c r="D15" s="94" t="s">
         <v>636</v>
@@ -8440,7 +8448,7 @@
     </row>
     <row r="16" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="85"/>
-      <c r="B16" s="258"/>
+      <c r="B16" s="263"/>
       <c r="C16" s="256"/>
       <c r="D16" s="94" t="s">
         <v>637</v>
@@ -8466,7 +8474,7 @@
     </row>
     <row r="17" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="85"/>
-      <c r="B17" s="258" t="s">
+      <c r="B17" s="263" t="s">
         <v>550</v>
       </c>
       <c r="C17" s="256" t="s">
@@ -8496,7 +8504,7 @@
     </row>
     <row r="18" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="85"/>
-      <c r="B18" s="258"/>
+      <c r="B18" s="263"/>
       <c r="C18" s="256"/>
       <c r="D18" s="94" t="s">
         <v>553</v>
@@ -8516,7 +8524,7 @@
     </row>
     <row r="19" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="85"/>
-      <c r="B19" s="258"/>
+      <c r="B19" s="263"/>
       <c r="C19" s="256"/>
       <c r="D19" s="94" t="s">
         <v>554</v>
@@ -8540,7 +8548,7 @@
     </row>
     <row r="20" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="85"/>
-      <c r="B20" s="258"/>
+      <c r="B20" s="263"/>
       <c r="C20" s="256"/>
       <c r="D20" s="94" t="s">
         <v>555</v>
@@ -8560,7 +8568,7 @@
     </row>
     <row r="21" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="85"/>
-      <c r="B21" s="258"/>
+      <c r="B21" s="263"/>
       <c r="C21" s="256"/>
       <c r="D21" s="94" t="s">
         <v>556</v>
@@ -8584,7 +8592,7 @@
     </row>
     <row r="22" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="85"/>
-      <c r="B22" s="258"/>
+      <c r="B22" s="263"/>
       <c r="C22" s="256"/>
       <c r="D22" s="94" t="s">
         <v>557</v>
@@ -8606,7 +8614,7 @@
     </row>
     <row r="23" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="85"/>
-      <c r="B23" s="258"/>
+      <c r="B23" s="263"/>
       <c r="C23" s="256"/>
       <c r="D23" s="94" t="s">
         <v>558</v>
@@ -8630,7 +8638,7 @@
     </row>
     <row r="24" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="85"/>
-      <c r="B24" s="258"/>
+      <c r="B24" s="263"/>
       <c r="C24" s="13" t="s">
         <v>559</v>
       </c>
@@ -8670,7 +8678,7 @@
     </row>
     <row r="25" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="85"/>
-      <c r="B25" s="258" t="s">
+      <c r="B25" s="263" t="s">
         <v>560</v>
       </c>
       <c r="C25" s="256" t="s">
@@ -8698,7 +8706,7 @@
     </row>
     <row r="26" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="85"/>
-      <c r="B26" s="258"/>
+      <c r="B26" s="263"/>
       <c r="C26" s="256"/>
       <c r="D26" s="94" t="s">
         <v>563</v>
@@ -8722,7 +8730,7 @@
     </row>
     <row r="27" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="85"/>
-      <c r="B27" s="258"/>
+      <c r="B27" s="263"/>
       <c r="C27" s="256"/>
       <c r="D27" s="94" t="s">
         <v>564</v>
@@ -8744,7 +8752,7 @@
     </row>
     <row r="28" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="85"/>
-      <c r="B28" s="258"/>
+      <c r="B28" s="263"/>
       <c r="C28" s="256" t="s">
         <v>565</v>
       </c>
@@ -8774,7 +8782,7 @@
     </row>
     <row r="29" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="85"/>
-      <c r="B29" s="258"/>
+      <c r="B29" s="263"/>
       <c r="C29" s="256"/>
       <c r="D29" s="94" t="s">
         <v>567</v>
@@ -8798,7 +8806,7 @@
     </row>
     <row r="30" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="85"/>
-      <c r="B30" s="258"/>
+      <c r="B30" s="263"/>
       <c r="C30" s="256"/>
       <c r="D30" s="94" t="s">
         <v>568</v>
@@ -8828,7 +8836,7 @@
     </row>
     <row r="31" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="85"/>
-      <c r="B31" s="258"/>
+      <c r="B31" s="263"/>
       <c r="C31" s="256"/>
       <c r="D31" s="95" t="s">
         <v>569</v>
@@ -8860,7 +8868,7 @@
     </row>
     <row r="32" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="85"/>
-      <c r="B32" s="258"/>
+      <c r="B32" s="263"/>
       <c r="C32" s="256"/>
       <c r="D32" s="94" t="s">
         <v>570</v>
@@ -8884,7 +8892,7 @@
     </row>
     <row r="33" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="85"/>
-      <c r="B33" s="258"/>
+      <c r="B33" s="263"/>
       <c r="C33" s="256" t="s">
         <v>571</v>
       </c>
@@ -8908,7 +8916,7 @@
     </row>
     <row r="34" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="85"/>
-      <c r="B34" s="258"/>
+      <c r="B34" s="263"/>
       <c r="C34" s="256"/>
       <c r="D34" s="94" t="s">
         <v>573</v>
@@ -8932,7 +8940,7 @@
     </row>
     <row r="35" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="85"/>
-      <c r="B35" s="258" t="s">
+      <c r="B35" s="263" t="s">
         <v>574</v>
       </c>
       <c r="C35" s="256" t="s">
@@ -8956,7 +8964,7 @@
     </row>
     <row r="36" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="85"/>
-      <c r="B36" s="258"/>
+      <c r="B36" s="263"/>
       <c r="C36" s="256"/>
       <c r="D36" s="94" t="s">
         <v>577</v>
@@ -8976,7 +8984,7 @@
     </row>
     <row r="37" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="85"/>
-      <c r="B37" s="258"/>
+      <c r="B37" s="263"/>
       <c r="C37" s="256"/>
       <c r="D37" s="94" t="s">
         <v>578</v>
@@ -8996,7 +9004,7 @@
     </row>
     <row r="38" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="85"/>
-      <c r="B38" s="258"/>
+      <c r="B38" s="263"/>
       <c r="C38" s="256" t="s">
         <v>579</v>
       </c>
@@ -9018,7 +9026,7 @@
     </row>
     <row r="39" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="85"/>
-      <c r="B39" s="258"/>
+      <c r="B39" s="263"/>
       <c r="C39" s="256"/>
       <c r="D39" s="94" t="s">
         <v>581</v>
@@ -9042,7 +9050,7 @@
     </row>
     <row r="40" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="85"/>
-      <c r="B40" s="258"/>
+      <c r="B40" s="263"/>
       <c r="C40" s="256"/>
       <c r="D40" s="94" t="s">
         <v>582</v>
@@ -9068,7 +9076,7 @@
     </row>
     <row r="41" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="85"/>
-      <c r="B41" s="258"/>
+      <c r="B41" s="263"/>
       <c r="C41" s="256"/>
       <c r="D41" s="94" t="s">
         <v>583</v>
@@ -9088,18 +9096,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="B3:N3"/>
-    <mergeCell ref="A5:XFD5"/>
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:N4"/>
-    <mergeCell ref="B6:N6"/>
-    <mergeCell ref="B8:B16"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="B17:B24"/>
-    <mergeCell ref="C17:C23"/>
     <mergeCell ref="B25:B34"/>
     <mergeCell ref="C25:C27"/>
     <mergeCell ref="C28:C32"/>
@@ -9107,6 +9103,18 @@
     <mergeCell ref="B35:B41"/>
     <mergeCell ref="C35:C37"/>
     <mergeCell ref="C38:C41"/>
+    <mergeCell ref="B6:N6"/>
+    <mergeCell ref="B8:B16"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="B17:B24"/>
+    <mergeCell ref="C17:C23"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="A5:XFD5"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:N4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -12325,66 +12333,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="118.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="168"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="170"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="164"/>
     </row>
     <row r="2" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="173" t="s">
         <v>708</v>
       </c>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="180"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="174"/>
+      <c r="I2" s="175"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="66"/>
-      <c r="B3" s="172" t="s">
+      <c r="B3" s="166" t="s">
         <v>540</v>
       </c>
-      <c r="C3" s="173"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="173"/>
-      <c r="F3" s="173"/>
-      <c r="G3" s="173"/>
-      <c r="H3" s="173"/>
-      <c r="I3" s="174"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="168"/>
       <c r="J3" s="66"/>
     </row>
     <row r="4" spans="1:10" s="74" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="73"/>
-      <c r="B4" s="162" t="s">
+      <c r="B4" s="177" t="s">
         <v>709</v>
       </c>
-      <c r="C4" s="163"/>
-      <c r="D4" s="164" t="s">
+      <c r="C4" s="178"/>
+      <c r="D4" s="179" t="s">
         <v>529</v>
       </c>
-      <c r="E4" s="165"/>
-      <c r="F4" s="164" t="s">
+      <c r="E4" s="180"/>
+      <c r="F4" s="179" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="165"/>
-      <c r="H4" s="164" t="s">
+      <c r="G4" s="180"/>
+      <c r="H4" s="179" t="s">
         <v>530</v>
       </c>
-      <c r="I4" s="165"/>
+      <c r="I4" s="180"/>
       <c r="J4" s="15"/>
     </row>
-    <row r="5" spans="1:10" s="171" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:10" s="165" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:10" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="166"/>
+      <c r="B6" s="170"/>
       <c r="C6" s="54" t="s">
         <v>858</v>
       </c>
@@ -12408,7 +12416,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="167"/>
+      <c r="B7" s="171"/>
       <c r="C7" s="120" t="s">
         <v>711</v>
       </c>
@@ -12432,7 +12440,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="157" t="s">
+      <c r="B8" s="160" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="62"/>
@@ -12452,7 +12460,7 @@
       <c r="I8" s="62"/>
     </row>
     <row r="9" spans="1:10" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="157"/>
+      <c r="B9" s="160"/>
       <c r="C9" s="62"/>
       <c r="D9" s="62"/>
       <c r="E9" s="62"/>
@@ -12464,7 +12472,7 @@
       <c r="I9" s="62"/>
     </row>
     <row r="10" spans="1:10" s="131" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="157"/>
+      <c r="B10" s="160"/>
       <c r="C10" s="62"/>
       <c r="D10" s="62"/>
       <c r="E10" s="62"/>
@@ -12476,7 +12484,7 @@
       <c r="I10" s="62"/>
     </row>
     <row r="11" spans="1:10" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="157"/>
+      <c r="B11" s="160"/>
       <c r="C11" s="62"/>
       <c r="D11" s="62"/>
       <c r="E11" s="62"/>
@@ -12488,7 +12496,7 @@
       <c r="I11" s="62"/>
     </row>
     <row r="12" spans="1:10" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="157"/>
+      <c r="B12" s="160"/>
       <c r="C12" s="62"/>
       <c r="D12" s="62"/>
       <c r="E12" s="62"/>
@@ -12500,7 +12508,7 @@
       <c r="I12" s="62"/>
     </row>
     <row r="13" spans="1:10" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="157"/>
+      <c r="B13" s="160"/>
       <c r="C13" s="62"/>
       <c r="D13" s="62"/>
       <c r="E13" s="62"/>
@@ -12512,7 +12520,7 @@
       <c r="I13" s="62"/>
     </row>
     <row r="14" spans="1:10" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="157"/>
+      <c r="B14" s="160"/>
       <c r="C14" s="62"/>
       <c r="D14" s="62"/>
       <c r="E14" s="62"/>
@@ -12524,7 +12532,7 @@
       <c r="I14" s="62"/>
     </row>
     <row r="15" spans="1:10" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="157"/>
+      <c r="B15" s="160"/>
       <c r="C15" s="62"/>
       <c r="D15" s="62"/>
       <c r="E15" s="62"/>
@@ -12536,7 +12544,7 @@
       <c r="I15" s="62"/>
     </row>
     <row r="16" spans="1:10" s="123" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="157"/>
+      <c r="B16" s="160"/>
       <c r="C16" s="62"/>
       <c r="D16" s="62"/>
       <c r="E16" s="62"/>
@@ -12548,7 +12556,7 @@
       <c r="I16" s="62"/>
     </row>
     <row r="17" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="157"/>
+      <c r="B17" s="160"/>
       <c r="C17" s="62"/>
       <c r="D17" s="62"/>
       <c r="E17" s="62"/>
@@ -12560,7 +12568,7 @@
       <c r="I17" s="62"/>
     </row>
     <row r="18" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="159" t="s">
+      <c r="B18" s="172" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="69"/>
@@ -12572,7 +12580,7 @@
       <c r="I18" s="7"/>
     </row>
     <row r="19" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="160"/>
+      <c r="B19" s="156"/>
       <c r="C19" s="71"/>
       <c r="D19" s="62"/>
       <c r="E19" s="70"/>
@@ -12582,7 +12590,7 @@
       <c r="I19" s="62"/>
     </row>
     <row r="20" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="160"/>
+      <c r="B20" s="156"/>
       <c r="C20" s="62"/>
       <c r="D20" s="62"/>
       <c r="E20" s="62"/>
@@ -12592,7 +12600,7 @@
       <c r="I20" s="62"/>
     </row>
     <row r="21" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="147" t="s">
+      <c r="B21" s="155" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="7"/>
@@ -12604,7 +12612,7 @@
       <c r="I21" s="7"/>
     </row>
     <row r="22" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="148"/>
+      <c r="B22" s="147"/>
       <c r="C22" s="62"/>
       <c r="D22" s="62"/>
       <c r="E22" s="62"/>
@@ -12614,7 +12622,7 @@
       <c r="I22" s="62"/>
     </row>
     <row r="23" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="148"/>
+      <c r="B23" s="147"/>
       <c r="C23" s="62"/>
       <c r="D23" s="62"/>
       <c r="E23" s="62"/>
@@ -12624,7 +12632,7 @@
       <c r="I23" s="62"/>
     </row>
     <row r="24" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="150" t="s">
+      <c r="B24" s="159" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="7"/>
@@ -12636,7 +12644,7 @@
       <c r="I24" s="7"/>
     </row>
     <row r="25" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="151"/>
+      <c r="B25" s="149"/>
       <c r="C25" s="62"/>
       <c r="D25" s="62"/>
       <c r="E25" s="62"/>
@@ -12646,7 +12654,7 @@
       <c r="I25" s="62"/>
     </row>
     <row r="26" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="151"/>
+      <c r="B26" s="149"/>
       <c r="C26" s="62"/>
       <c r="D26" s="62"/>
       <c r="E26" s="62"/>
@@ -12656,7 +12664,7 @@
       <c r="I26" s="62"/>
     </row>
     <row r="27" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="153" t="s">
+      <c r="B27" s="158" t="s">
         <v>12</v>
       </c>
       <c r="C27" s="7"/>
@@ -12668,7 +12676,7 @@
       <c r="I27" s="7"/>
     </row>
     <row r="28" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="154"/>
+      <c r="B28" s="151"/>
       <c r="C28" s="62"/>
       <c r="D28" s="62"/>
       <c r="E28" s="62"/>
@@ -12678,7 +12686,7 @@
       <c r="I28" s="62"/>
     </row>
     <row r="29" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="154"/>
+      <c r="B29" s="151"/>
       <c r="C29" s="62"/>
       <c r="D29" s="62"/>
       <c r="E29" s="62"/>
@@ -12688,7 +12696,7 @@
       <c r="I29" s="62"/>
     </row>
     <row r="30" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="175" t="s">
+      <c r="B30" s="169" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="59"/>
@@ -12700,7 +12708,7 @@
       <c r="I30" s="7"/>
     </row>
     <row r="31" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="176"/>
+      <c r="B31" s="153"/>
       <c r="C31" s="62"/>
       <c r="D31" s="62"/>
       <c r="E31" s="62"/>
@@ -12710,7 +12718,7 @@
       <c r="I31" s="62"/>
     </row>
     <row r="32" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="176"/>
+      <c r="B32" s="153"/>
       <c r="C32" s="62"/>
       <c r="D32" s="62"/>
       <c r="E32" s="62"/>
@@ -12721,7 +12729,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
-      <c r="B33" s="166"/>
+      <c r="B33" s="170"/>
       <c r="C33" s="54" t="s">
         <v>712</v>
       </c>
@@ -12747,7 +12755,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
-      <c r="B34" s="167"/>
+      <c r="B34" s="171"/>
       <c r="C34" s="120" t="s">
         <v>711</v>
       </c>
@@ -12773,7 +12781,7 @@
     </row>
     <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
-      <c r="B35" s="156" t="s">
+      <c r="B35" s="176" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="62" t="s">
@@ -12797,7 +12805,7 @@
     </row>
     <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="119"/>
-      <c r="B36" s="157"/>
+      <c r="B36" s="160"/>
       <c r="C36" s="62" t="s">
         <v>870</v>
       </c>
@@ -12817,7 +12825,7 @@
     </row>
     <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="119"/>
-      <c r="B37" s="157"/>
+      <c r="B37" s="160"/>
       <c r="C37" s="62" t="s">
         <v>869</v>
       </c>
@@ -12833,7 +12841,7 @@
     </row>
     <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="119"/>
-      <c r="B38" s="157"/>
+      <c r="B38" s="160"/>
       <c r="C38" s="62" t="s">
         <v>878</v>
       </c>
@@ -12847,7 +12855,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" s="1"/>
-      <c r="B39" s="157"/>
+      <c r="B39" s="160"/>
       <c r="C39" s="125" t="s">
         <v>882</v>
       </c>
@@ -12861,7 +12869,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40" s="123"/>
-      <c r="B40" s="157"/>
+      <c r="B40" s="160"/>
       <c r="C40" s="60" t="s">
         <v>883</v>
       </c>
@@ -12875,7 +12883,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41" s="123"/>
-      <c r="B41" s="157"/>
+      <c r="B41" s="160"/>
       <c r="C41" s="60" t="s">
         <v>884</v>
       </c>
@@ -12889,7 +12897,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A42" s="124"/>
-      <c r="B42" s="157"/>
+      <c r="B42" s="160"/>
       <c r="C42" s="60" t="s">
         <v>887</v>
       </c>
@@ -12903,7 +12911,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A43" s="124"/>
-      <c r="B43" s="157"/>
+      <c r="B43" s="160"/>
       <c r="C43" s="60" t="s">
         <v>892</v>
       </c>
@@ -12917,7 +12925,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44" s="126"/>
-      <c r="B44" s="157"/>
+      <c r="B44" s="160"/>
       <c r="C44" s="60" t="s">
         <v>907</v>
       </c>
@@ -12931,7 +12939,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45" s="1"/>
-      <c r="B45" s="158"/>
+      <c r="B45" s="161"/>
       <c r="C45" s="62" t="s">
         <v>898</v>
       </c>
@@ -12945,7 +12953,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A46" s="1"/>
-      <c r="B46" s="159" t="s">
+      <c r="B46" s="172" t="s">
         <v>9</v>
       </c>
       <c r="C46" s="69"/>
@@ -12961,7 +12969,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A47" s="1"/>
-      <c r="B47" s="160"/>
+      <c r="B47" s="156"/>
       <c r="C47" s="71"/>
       <c r="D47" s="5"/>
       <c r="E47" s="70"/>
@@ -12973,7 +12981,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A48" s="1"/>
-      <c r="B48" s="160"/>
+      <c r="B48" s="156"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -12985,7 +12993,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A49" s="1"/>
-      <c r="B49" s="147" t="s">
+      <c r="B49" s="155" t="s">
         <v>10</v>
       </c>
       <c r="C49" s="7"/>
@@ -12999,7 +13007,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A50" s="1"/>
-      <c r="B50" s="148"/>
+      <c r="B50" s="147"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
@@ -13011,7 +13019,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A51" s="1"/>
-      <c r="B51" s="148"/>
+      <c r="B51" s="147"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
@@ -13023,7 +13031,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A52" s="1"/>
-      <c r="B52" s="150" t="s">
+      <c r="B52" s="159" t="s">
         <v>11</v>
       </c>
       <c r="C52" s="7"/>
@@ -13037,7 +13045,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A53" s="1"/>
-      <c r="B53" s="151"/>
+      <c r="B53" s="149"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
@@ -13049,7 +13057,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A54" s="1"/>
-      <c r="B54" s="151"/>
+      <c r="B54" s="149"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
@@ -13061,7 +13069,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A55" s="1"/>
-      <c r="B55" s="153" t="s">
+      <c r="B55" s="158" t="s">
         <v>12</v>
       </c>
       <c r="C55" s="7"/>
@@ -13075,7 +13083,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A56" s="1"/>
-      <c r="B56" s="154"/>
+      <c r="B56" s="151"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
@@ -13087,7 +13095,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A57" s="1"/>
-      <c r="B57" s="154"/>
+      <c r="B57" s="151"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
@@ -13099,7 +13107,7 @@
     </row>
     <row r="58" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="1"/>
-      <c r="B58" s="175" t="s">
+      <c r="B58" s="169" t="s">
         <v>13</v>
       </c>
       <c r="C58" s="59"/>
@@ -13113,7 +13121,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A59" s="1"/>
-      <c r="B59" s="176"/>
+      <c r="B59" s="153"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
@@ -13125,7 +13133,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A60" s="1"/>
-      <c r="B60" s="176"/>
+      <c r="B60" s="153"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
@@ -13189,7 +13197,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A63" s="1"/>
-      <c r="B63" s="156" t="s">
+      <c r="B63" s="176" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="7" t="s">
@@ -13211,7 +13219,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A64" s="1"/>
-      <c r="B64" s="157"/>
+      <c r="B64" s="160"/>
       <c r="C64" s="5" t="s">
         <v>933</v>
       </c>
@@ -13229,7 +13237,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A65" s="132"/>
-      <c r="B65" s="157"/>
+      <c r="B65" s="160"/>
       <c r="C65" s="62" t="s">
         <v>999</v>
       </c>
@@ -13243,7 +13251,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A66" s="1"/>
-      <c r="B66" s="158"/>
+      <c r="B66" s="161"/>
       <c r="C66" s="6" t="s">
         <v>996</v>
       </c>
@@ -13257,7 +13265,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A67" s="1"/>
-      <c r="B67" s="159" t="s">
+      <c r="B67" s="172" t="s">
         <v>9</v>
       </c>
       <c r="C67" s="7" t="s">
@@ -13281,7 +13289,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A68" s="1"/>
-      <c r="B68" s="160"/>
+      <c r="B68" s="156"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5" t="s">
@@ -13299,7 +13307,7 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A69" s="123"/>
-      <c r="B69" s="160"/>
+      <c r="B69" s="156"/>
       <c r="C69" s="62"/>
       <c r="D69" s="62"/>
       <c r="E69" s="62" t="s">
@@ -13315,7 +13323,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A70" s="124"/>
-      <c r="B70" s="160"/>
+      <c r="B70" s="156"/>
       <c r="C70" s="62"/>
       <c r="D70" s="62"/>
       <c r="E70" s="62" t="s">
@@ -13331,7 +13339,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A71" s="124"/>
-      <c r="B71" s="160"/>
+      <c r="B71" s="156"/>
       <c r="C71" s="62"/>
       <c r="D71" s="62"/>
       <c r="E71" s="62"/>
@@ -13342,7 +13350,7 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A72" s="124"/>
-      <c r="B72" s="160"/>
+      <c r="B72" s="156"/>
       <c r="C72" s="62"/>
       <c r="D72" s="62"/>
       <c r="E72" s="62"/>
@@ -13354,7 +13362,7 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A73" s="1"/>
-      <c r="B73" s="161"/>
+      <c r="B73" s="157"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
@@ -13366,7 +13374,7 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A74" s="1"/>
-      <c r="B74" s="147" t="s">
+      <c r="B74" s="155" t="s">
         <v>10</v>
       </c>
       <c r="C74" s="7"/>
@@ -13380,7 +13388,7 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A75" s="1"/>
-      <c r="B75" s="148"/>
+      <c r="B75" s="147"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -13392,7 +13400,7 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A76" s="1"/>
-      <c r="B76" s="149"/>
+      <c r="B76" s="148"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
@@ -13404,7 +13412,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A77" s="1"/>
-      <c r="B77" s="150" t="s">
+      <c r="B77" s="159" t="s">
         <v>11</v>
       </c>
       <c r="C77" s="7"/>
@@ -13418,7 +13426,7 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A78" s="1"/>
-      <c r="B78" s="151"/>
+      <c r="B78" s="149"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -13430,7 +13438,7 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A79" s="1"/>
-      <c r="B79" s="152"/>
+      <c r="B79" s="150"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
@@ -13442,7 +13450,7 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A80" s="1"/>
-      <c r="B80" s="153" t="s">
+      <c r="B80" s="158" t="s">
         <v>12</v>
       </c>
       <c r="C80" s="7"/>
@@ -13456,7 +13464,7 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A81" s="1"/>
-      <c r="B81" s="154"/>
+      <c r="B81" s="151"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -13468,7 +13476,7 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A82" s="1"/>
-      <c r="B82" s="155"/>
+      <c r="B82" s="152"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
@@ -13480,7 +13488,7 @@
     </row>
     <row r="83" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="1"/>
-      <c r="B83" s="175" t="s">
+      <c r="B83" s="169" t="s">
         <v>13</v>
       </c>
       <c r="C83" s="7"/>
@@ -13494,7 +13502,7 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A84" s="1"/>
-      <c r="B84" s="176"/>
+      <c r="B84" s="153"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -13506,7 +13514,7 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A85" s="1"/>
-      <c r="B85" s="177"/>
+      <c r="B85" s="154"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
@@ -13570,7 +13578,7 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A88" s="1"/>
-      <c r="B88" s="156" t="s">
+      <c r="B88" s="176" t="s">
         <v>8</v>
       </c>
       <c r="C88" s="7" t="s">
@@ -13586,7 +13594,7 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A89" s="1"/>
-      <c r="B89" s="157"/>
+      <c r="B89" s="160"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -13598,7 +13606,7 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A90" s="1"/>
-      <c r="B90" s="158"/>
+      <c r="B90" s="161"/>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
@@ -13610,7 +13618,7 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A91" s="1"/>
-      <c r="B91" s="159" t="s">
+      <c r="B91" s="172" t="s">
         <v>9</v>
       </c>
       <c r="C91" s="7" t="s">
@@ -13632,7 +13640,7 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A92" s="1"/>
-      <c r="B92" s="160"/>
+      <c r="B92" s="156"/>
       <c r="C92" s="5" t="s">
         <v>862</v>
       </c>
@@ -13652,7 +13660,7 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A93" s="123"/>
-      <c r="B93" s="160"/>
+      <c r="B93" s="156"/>
       <c r="C93" s="62" t="s">
         <v>881</v>
       </c>
@@ -13672,7 +13680,7 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A94" s="124"/>
-      <c r="B94" s="160"/>
+      <c r="B94" s="156"/>
       <c r="C94" s="62" t="s">
         <v>889</v>
       </c>
@@ -13690,7 +13698,7 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A95" s="124"/>
-      <c r="B95" s="160"/>
+      <c r="B95" s="156"/>
       <c r="C95" s="62" t="s">
         <v>897</v>
       </c>
@@ -13706,7 +13714,7 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A96" s="124"/>
-      <c r="B96" s="160"/>
+      <c r="B96" s="156"/>
       <c r="C96" s="62" t="s">
         <v>907</v>
       </c>
@@ -13722,7 +13730,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A97" s="126"/>
-      <c r="B97" s="160"/>
+      <c r="B97" s="156"/>
       <c r="C97" s="60" t="s">
         <v>899</v>
       </c>
@@ -13736,7 +13744,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A98" s="1"/>
-      <c r="B98" s="161"/>
+      <c r="B98" s="157"/>
       <c r="D98" s="6"/>
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
@@ -13747,7 +13755,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A99" s="1"/>
-      <c r="B99" s="147" t="s">
+      <c r="B99" s="155" t="s">
         <v>10</v>
       </c>
       <c r="C99" s="7"/>
@@ -13761,7 +13769,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A100" s="1"/>
-      <c r="B100" s="148"/>
+      <c r="B100" s="147"/>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
@@ -13773,7 +13781,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A101" s="1"/>
-      <c r="B101" s="149"/>
+      <c r="B101" s="148"/>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
       <c r="E101" s="6"/>
@@ -13785,7 +13793,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A102" s="1"/>
-      <c r="B102" s="150" t="s">
+      <c r="B102" s="159" t="s">
         <v>11</v>
       </c>
       <c r="C102" s="7"/>
@@ -13799,7 +13807,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A103" s="1"/>
-      <c r="B103" s="151"/>
+      <c r="B103" s="149"/>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
@@ -13811,7 +13819,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A104" s="1"/>
-      <c r="B104" s="152"/>
+      <c r="B104" s="150"/>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
       <c r="E104" s="6"/>
@@ -13823,7 +13831,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A105" s="1"/>
-      <c r="B105" s="153" t="s">
+      <c r="B105" s="158" t="s">
         <v>12</v>
       </c>
       <c r="C105" s="7"/>
@@ -13837,7 +13845,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A106" s="1"/>
-      <c r="B106" s="154"/>
+      <c r="B106" s="151"/>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
@@ -13849,7 +13857,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A107" s="1"/>
-      <c r="B107" s="155"/>
+      <c r="B107" s="152"/>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
       <c r="E107" s="6"/>
@@ -13862,7 +13870,7 @@
     </row>
     <row r="108" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="1"/>
-      <c r="B108" s="175" t="s">
+      <c r="B108" s="169" t="s">
         <v>13</v>
       </c>
       <c r="C108" s="7"/>
@@ -13877,7 +13885,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A109" s="1"/>
-      <c r="B109" s="176"/>
+      <c r="B109" s="153"/>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
@@ -13890,7 +13898,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A110" s="1"/>
-      <c r="B110" s="177"/>
+      <c r="B110" s="154"/>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
       <c r="E110" s="6"/>
@@ -13957,7 +13965,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A113" s="1"/>
-      <c r="B113" s="157" t="s">
+      <c r="B113" s="160" t="s">
         <v>8</v>
       </c>
       <c r="C113" s="5" t="s">
@@ -13982,7 +13990,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A114" s="1"/>
-      <c r="B114" s="157"/>
+      <c r="B114" s="160"/>
       <c r="C114" s="5" t="s">
         <v>1018</v>
       </c>
@@ -13997,7 +14005,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A115" s="1"/>
-      <c r="B115" s="158"/>
+      <c r="B115" s="161"/>
       <c r="C115" s="6" t="s">
         <v>1041</v>
       </c>
@@ -14012,7 +14020,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A116" s="1"/>
-      <c r="B116" s="160" t="s">
+      <c r="B116" s="156" t="s">
         <v>9</v>
       </c>
       <c r="C116" s="5" t="s">
@@ -14037,7 +14045,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A117" s="1"/>
-      <c r="B117" s="160"/>
+      <c r="B117" s="156"/>
       <c r="C117" s="5"/>
       <c r="D117" s="5" t="s">
         <v>931</v>
@@ -14052,7 +14060,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A118" s="1"/>
-      <c r="B118" s="161"/>
+      <c r="B118" s="157"/>
       <c r="C118" s="6"/>
       <c r="D118" s="6"/>
       <c r="E118" s="6"/>
@@ -14065,7 +14073,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A119" s="1"/>
-      <c r="B119" s="148" t="s">
+      <c r="B119" s="147" t="s">
         <v>10</v>
       </c>
       <c r="C119" s="5"/>
@@ -14082,7 +14090,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A120" s="1"/>
-      <c r="B120" s="148"/>
+      <c r="B120" s="147"/>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
@@ -14095,7 +14103,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A121" s="1"/>
-      <c r="B121" s="149"/>
+      <c r="B121" s="148"/>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
       <c r="E121" s="6"/>
@@ -14108,7 +14116,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A122" s="1"/>
-      <c r="B122" s="151" t="s">
+      <c r="B122" s="149" t="s">
         <v>11</v>
       </c>
       <c r="C122" s="5"/>
@@ -14123,7 +14131,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A123" s="1"/>
-      <c r="B123" s="151"/>
+      <c r="B123" s="149"/>
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
@@ -14136,7 +14144,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A124" s="1"/>
-      <c r="B124" s="152"/>
+      <c r="B124" s="150"/>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
       <c r="E124" s="6"/>
@@ -14149,7 +14157,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A125" s="1"/>
-      <c r="B125" s="154" t="s">
+      <c r="B125" s="151" t="s">
         <v>12</v>
       </c>
       <c r="C125" s="5"/>
@@ -14164,7 +14172,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A126" s="1"/>
-      <c r="B126" s="154"/>
+      <c r="B126" s="151"/>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
@@ -14177,7 +14185,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A127" s="1"/>
-      <c r="B127" s="155"/>
+      <c r="B127" s="152"/>
       <c r="C127" s="6"/>
       <c r="D127" s="6"/>
       <c r="E127" s="6"/>
@@ -14189,7 +14197,7 @@
     </row>
     <row r="128" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="1"/>
-      <c r="B128" s="176" t="s">
+      <c r="B128" s="153" t="s">
         <v>13</v>
       </c>
       <c r="C128" s="5"/>
@@ -14203,7 +14211,7 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A129" s="1"/>
-      <c r="B129" s="176"/>
+      <c r="B129" s="153"/>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
@@ -14215,7 +14223,7 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A130" s="1"/>
-      <c r="B130" s="177"/>
+      <c r="B130" s="154"/>
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
       <c r="E130" s="6"/>
@@ -16753,15 +16761,21 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B119:B121"/>
-    <mergeCell ref="B122:B124"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="B116:B118"/>
-    <mergeCell ref="B105:B107"/>
-    <mergeCell ref="B102:B104"/>
-    <mergeCell ref="B113:B115"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="B91:B98"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="B67:B73"/>
+    <mergeCell ref="B35:B45"/>
+    <mergeCell ref="B46:B48"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="A5:XFD5"/>
     <mergeCell ref="B3:I3"/>
@@ -16778,21 +16792,15 @@
     <mergeCell ref="B83:B85"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B52:B54"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="B67:B73"/>
-    <mergeCell ref="B35:B45"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="B91:B98"/>
+    <mergeCell ref="B119:B121"/>
+    <mergeCell ref="B122:B124"/>
+    <mergeCell ref="B125:B127"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="B116:B118"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="B102:B104"/>
+    <mergeCell ref="B113:B115"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -16811,7 +16819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M579"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
@@ -16824,41 +16832,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="119.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="168"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="170"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="164"/>
     </row>
     <row r="2" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="173" t="s">
         <v>741</v>
       </c>
-      <c r="C2" s="191"/>
-      <c r="D2" s="191"/>
-      <c r="E2" s="191"/>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="191"/>
-      <c r="I2" s="192"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="194"/>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="66"/>
-      <c r="B3" s="172" t="s">
+      <c r="B3" s="166" t="s">
         <v>540</v>
       </c>
-      <c r="C3" s="173"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="173"/>
-      <c r="F3" s="173"/>
-      <c r="G3" s="173"/>
-      <c r="H3" s="173"/>
-      <c r="I3" s="174"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="168"/>
       <c r="J3" s="66"/>
     </row>
     <row r="4" spans="1:10" s="75" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -16867,24 +16875,24 @@
         <v>847</v>
       </c>
       <c r="C4" s="196"/>
-      <c r="D4" s="164" t="s">
+      <c r="D4" s="179" t="s">
         <v>544</v>
       </c>
-      <c r="E4" s="165"/>
-      <c r="F4" s="164" t="s">
+      <c r="E4" s="180"/>
+      <c r="F4" s="179" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="197"/>
-      <c r="H4" s="164" t="s">
+      <c r="H4" s="179" t="s">
         <v>529</v>
       </c>
-      <c r="I4" s="165"/>
+      <c r="I4" s="180"/>
       <c r="J4" s="73"/>
     </row>
-    <row r="5" spans="1:10" s="171" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:10" s="165" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="166"/>
+      <c r="B6" s="170"/>
       <c r="C6" s="54" t="s">
         <v>742</v>
       </c>
@@ -16910,7 +16918,7 @@
     </row>
     <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="167"/>
+      <c r="B7" s="171"/>
       <c r="C7" s="55" t="s">
         <v>1</v>
       </c>
@@ -16974,7 +16982,7 @@
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="181" t="s">
+      <c r="B11" s="191" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="11"/>
@@ -16988,7 +16996,7 @@
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="181"/>
+      <c r="B12" s="191"/>
       <c r="C12" s="11"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -17000,7 +17008,7 @@
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="182"/>
+      <c r="B13" s="192"/>
       <c r="C13" s="10"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -17126,7 +17134,7 @@
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
-      <c r="B23" s="193" t="s">
+      <c r="B23" s="181" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="11"/>
@@ -17140,7 +17148,7 @@
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
-      <c r="B24" s="193"/>
+      <c r="B24" s="181"/>
       <c r="C24" s="11"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -17152,7 +17160,7 @@
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
-      <c r="B25" s="194"/>
+      <c r="B25" s="182"/>
       <c r="C25" s="10"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -17256,7 +17264,7 @@
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
-      <c r="B31" s="181" t="s">
+      <c r="B31" s="191" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="11"/>
@@ -17278,7 +17286,7 @@
     </row>
     <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
-      <c r="B32" s="181"/>
+      <c r="B32" s="191"/>
       <c r="C32" s="11"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5" t="s">
@@ -17294,7 +17302,7 @@
     </row>
     <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="134"/>
-      <c r="B33" s="181"/>
+      <c r="B33" s="191"/>
       <c r="C33" s="11"/>
       <c r="D33" s="62"/>
       <c r="F33" s="62"/>
@@ -17305,7 +17313,7 @@
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="133"/>
-      <c r="B34" s="181"/>
+      <c r="B34" s="191"/>
       <c r="C34" s="11"/>
       <c r="D34" s="62"/>
       <c r="E34" s="62" t="s">
@@ -17321,7 +17329,7 @@
     </row>
     <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
-      <c r="B35" s="182"/>
+      <c r="B35" s="192"/>
       <c r="C35" s="10"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6" t="s">
@@ -17451,7 +17459,7 @@
     </row>
     <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1"/>
-      <c r="B45" s="193" t="s">
+      <c r="B45" s="181" t="s">
         <v>13</v>
       </c>
       <c r="C45" s="11"/>
@@ -17465,7 +17473,7 @@
     </row>
     <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="1"/>
-      <c r="B46" s="193"/>
+      <c r="B46" s="181"/>
       <c r="C46" s="11"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
@@ -17477,7 +17485,7 @@
     </row>
     <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="1"/>
-      <c r="B47" s="194"/>
+      <c r="B47" s="182"/>
       <c r="C47" s="10"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
@@ -17579,7 +17587,7 @@
     </row>
     <row r="53" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="1"/>
-      <c r="B53" s="181" t="s">
+      <c r="B53" s="191" t="s">
         <v>9</v>
       </c>
       <c r="C53" s="62" t="s">
@@ -17599,7 +17607,7 @@
     </row>
     <row r="54" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="1"/>
-      <c r="B54" s="181"/>
+      <c r="B54" s="191"/>
       <c r="C54" s="11"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
@@ -17611,7 +17619,7 @@
     </row>
     <row r="55" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="1"/>
-      <c r="B55" s="182"/>
+      <c r="B55" s="192"/>
       <c r="C55" s="10"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
@@ -17738,7 +17746,7 @@
     </row>
     <row r="65" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="1"/>
-      <c r="B65" s="193" t="s">
+      <c r="B65" s="181" t="s">
         <v>13</v>
       </c>
       <c r="C65" s="11"/>
@@ -17752,7 +17760,7 @@
     </row>
     <row r="66" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="1"/>
-      <c r="B66" s="193"/>
+      <c r="B66" s="181"/>
       <c r="C66" s="11"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
@@ -17767,7 +17775,7 @@
     </row>
     <row r="67" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="1"/>
-      <c r="B67" s="194"/>
+      <c r="B67" s="182"/>
       <c r="C67" s="10"/>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
@@ -17887,7 +17895,7 @@
     </row>
     <row r="73" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="1"/>
-      <c r="B73" s="181" t="s">
+      <c r="B73" s="191" t="s">
         <v>9</v>
       </c>
       <c r="C73" s="11"/>
@@ -17904,7 +17912,7 @@
     </row>
     <row r="74" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="1"/>
-      <c r="B74" s="181"/>
+      <c r="B74" s="191"/>
       <c r="C74" s="11"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
@@ -17919,7 +17927,7 @@
     </row>
     <row r="75" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="1"/>
-      <c r="B75" s="182"/>
+      <c r="B75" s="192"/>
       <c r="C75" s="10"/>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
@@ -18075,7 +18083,7 @@
     </row>
     <row r="85" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="1"/>
-      <c r="B85" s="193" t="s">
+      <c r="B85" s="181" t="s">
         <v>13</v>
       </c>
       <c r="C85" s="11"/>
@@ -18092,7 +18100,7 @@
     </row>
     <row r="86" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="1"/>
-      <c r="B86" s="193"/>
+      <c r="B86" s="181"/>
       <c r="C86" s="11"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
@@ -18107,7 +18115,7 @@
     </row>
     <row r="87" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="1"/>
-      <c r="B87" s="194"/>
+      <c r="B87" s="182"/>
       <c r="C87" s="10"/>
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
@@ -18215,7 +18223,7 @@
     </row>
     <row r="93" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="1"/>
-      <c r="B93" s="181" t="s">
+      <c r="B93" s="191" t="s">
         <v>9</v>
       </c>
       <c r="C93" s="11"/>
@@ -18229,7 +18237,7 @@
     </row>
     <row r="94" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="1"/>
-      <c r="B94" s="181"/>
+      <c r="B94" s="191"/>
       <c r="C94" s="11"/>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
@@ -18241,7 +18249,7 @@
     </row>
     <row r="95" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="1"/>
-      <c r="B95" s="182"/>
+      <c r="B95" s="192"/>
       <c r="C95" s="10"/>
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
@@ -18367,7 +18375,7 @@
     </row>
     <row r="105" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="1"/>
-      <c r="B105" s="193" t="s">
+      <c r="B105" s="181" t="s">
         <v>13</v>
       </c>
       <c r="C105" s="11"/>
@@ -18381,7 +18389,7 @@
     </row>
     <row r="106" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="1"/>
-      <c r="B106" s="193"/>
+      <c r="B106" s="181"/>
       <c r="C106" s="11"/>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
@@ -18393,7 +18401,7 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A107" s="1"/>
-      <c r="B107" s="194"/>
+      <c r="B107" s="182"/>
       <c r="C107" s="68"/>
       <c r="D107" s="6"/>
       <c r="E107" s="6"/>
@@ -22659,6 +22667,29 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B6:B7"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B105:B107"/>
     <mergeCell ref="A5:XFD5"/>
@@ -22675,29 +22706,6 @@
     <mergeCell ref="B56:B58"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B62:B64"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="B70:B72"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -22740,30 +22748,30 @@
     </row>
     <row r="2" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="173" t="s">
         <v>778</v>
       </c>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="180"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="174"/>
+      <c r="I2" s="175"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="66"/>
-      <c r="B3" s="172" t="s">
+      <c r="B3" s="166" t="s">
         <v>540</v>
       </c>
-      <c r="C3" s="173"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="173"/>
-      <c r="F3" s="173"/>
-      <c r="G3" s="173"/>
-      <c r="H3" s="173"/>
-      <c r="I3" s="174"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="168"/>
       <c r="J3" s="66"/>
     </row>
     <row r="4" spans="1:10" s="76" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -22772,24 +22780,24 @@
         <v>849</v>
       </c>
       <c r="C4" s="196"/>
-      <c r="D4" s="164" t="s">
+      <c r="D4" s="179" t="s">
         <v>545</v>
       </c>
-      <c r="E4" s="165"/>
-      <c r="F4" s="164" t="s">
+      <c r="E4" s="180"/>
+      <c r="F4" s="179" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="197"/>
-      <c r="H4" s="164" t="s">
+      <c r="H4" s="179" t="s">
         <v>529</v>
       </c>
-      <c r="I4" s="165"/>
+      <c r="I4" s="180"/>
       <c r="J4" s="73"/>
     </row>
-    <row r="5" spans="1:10" s="171" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:10" s="165" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="166"/>
+      <c r="B6" s="170"/>
       <c r="C6" s="103" t="s">
         <v>779</v>
       </c>
@@ -22815,7 +22823,7 @@
     </row>
     <row r="7" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="167"/>
+      <c r="B7" s="171"/>
       <c r="C7" s="104" t="s">
         <v>780</v>
       </c>
@@ -22841,7 +22849,7 @@
     </row>
     <row r="8" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="157" t="s">
+      <c r="B8" s="160" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="5"/>
@@ -22855,7 +22863,7 @@
     </row>
     <row r="9" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="157"/>
+      <c r="B9" s="160"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -22867,7 +22875,7 @@
     </row>
     <row r="10" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="158"/>
+      <c r="B10" s="161"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -22879,7 +22887,7 @@
     </row>
     <row r="11" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="160" t="s">
+      <c r="B11" s="156" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="5"/>
@@ -22893,7 +22901,7 @@
     </row>
     <row r="12" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="160"/>
+      <c r="B12" s="156"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -22905,7 +22913,7 @@
     </row>
     <row r="13" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="161"/>
+      <c r="B13" s="157"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -22917,7 +22925,7 @@
     </row>
     <row r="14" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="148" t="s">
+      <c r="B14" s="147" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="5"/>
@@ -22931,7 +22939,7 @@
     </row>
     <row r="15" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="148"/>
+      <c r="B15" s="147"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -22943,7 +22951,7 @@
     </row>
     <row r="16" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
-      <c r="B16" s="149"/>
+      <c r="B16" s="148"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -22955,7 +22963,7 @@
     </row>
     <row r="17" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
-      <c r="B17" s="151" t="s">
+      <c r="B17" s="149" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="5"/>
@@ -22969,7 +22977,7 @@
     </row>
     <row r="18" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
-      <c r="B18" s="151"/>
+      <c r="B18" s="149"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -22981,7 +22989,7 @@
     </row>
     <row r="19" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
-      <c r="B19" s="152"/>
+      <c r="B19" s="150"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -22993,7 +23001,7 @@
     </row>
     <row r="20" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
-      <c r="B20" s="154" t="s">
+      <c r="B20" s="151" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="5"/>
@@ -23007,7 +23015,7 @@
     </row>
     <row r="21" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
-      <c r="B21" s="154"/>
+      <c r="B21" s="151"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -23019,7 +23027,7 @@
     </row>
     <row r="22" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
-      <c r="B22" s="155"/>
+      <c r="B22" s="152"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -23031,7 +23039,7 @@
     </row>
     <row r="23" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
-      <c r="B23" s="176" t="s">
+      <c r="B23" s="153" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="5"/>
@@ -23045,7 +23053,7 @@
     </row>
     <row r="24" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
-      <c r="B24" s="176"/>
+      <c r="B24" s="153"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -23057,7 +23065,7 @@
     </row>
     <row r="25" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
-      <c r="B25" s="177"/>
+      <c r="B25" s="154"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -23121,7 +23129,7 @@
     </row>
     <row r="28" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
-      <c r="B28" s="157" t="s">
+      <c r="B28" s="160" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="5"/>
@@ -23136,7 +23144,7 @@
     </row>
     <row r="29" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
-      <c r="B29" s="157"/>
+      <c r="B29" s="160"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -23148,7 +23156,7 @@
     </row>
     <row r="30" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
-      <c r="B30" s="158"/>
+      <c r="B30" s="161"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -23160,7 +23168,7 @@
     </row>
     <row r="31" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
-      <c r="B31" s="160" t="s">
+      <c r="B31" s="156" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="5"/>
@@ -23174,7 +23182,7 @@
     </row>
     <row r="32" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
-      <c r="B32" s="160"/>
+      <c r="B32" s="156"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -23186,7 +23194,7 @@
     </row>
     <row r="33" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
-      <c r="B33" s="161"/>
+      <c r="B33" s="157"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -23198,7 +23206,7 @@
     </row>
     <row r="34" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
-      <c r="B34" s="148" t="s">
+      <c r="B34" s="147" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="5"/>
@@ -23212,7 +23220,7 @@
     </row>
     <row r="35" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
-      <c r="B35" s="148"/>
+      <c r="B35" s="147"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -23224,7 +23232,7 @@
     </row>
     <row r="36" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
-      <c r="B36" s="149"/>
+      <c r="B36" s="148"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -23236,7 +23244,7 @@
     </row>
     <row r="37" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
-      <c r="B37" s="151" t="s">
+      <c r="B37" s="149" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="5"/>
@@ -23250,7 +23258,7 @@
     </row>
     <row r="38" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
-      <c r="B38" s="151"/>
+      <c r="B38" s="149"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -23262,7 +23270,7 @@
     </row>
     <row r="39" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1"/>
-      <c r="B39" s="152"/>
+      <c r="B39" s="150"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -23274,7 +23282,7 @@
     </row>
     <row r="40" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1"/>
-      <c r="B40" s="154" t="s">
+      <c r="B40" s="151" t="s">
         <v>12</v>
       </c>
       <c r="C40" s="5"/>
@@ -23288,7 +23296,7 @@
     </row>
     <row r="41" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1"/>
-      <c r="B41" s="154"/>
+      <c r="B41" s="151"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -23300,7 +23308,7 @@
     </row>
     <row r="42" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="1"/>
-      <c r="B42" s="155"/>
+      <c r="B42" s="152"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -23312,7 +23320,7 @@
     </row>
     <row r="43" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1"/>
-      <c r="B43" s="176" t="s">
+      <c r="B43" s="153" t="s">
         <v>13</v>
       </c>
       <c r="C43" s="5"/>
@@ -23326,7 +23334,7 @@
     </row>
     <row r="44" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="1"/>
-      <c r="B44" s="176"/>
+      <c r="B44" s="153"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -23338,7 +23346,7 @@
     </row>
     <row r="45" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1"/>
-      <c r="B45" s="177"/>
+      <c r="B45" s="154"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
@@ -23402,7 +23410,7 @@
     </row>
     <row r="48" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="1"/>
-      <c r="B48" s="157" t="s">
+      <c r="B48" s="160" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="5"/>
@@ -23416,7 +23424,7 @@
     </row>
     <row r="49" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1"/>
-      <c r="B49" s="157"/>
+      <c r="B49" s="160"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -23428,7 +23436,7 @@
     </row>
     <row r="50" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="1"/>
-      <c r="B50" s="158"/>
+      <c r="B50" s="161"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
@@ -23440,7 +23448,7 @@
     </row>
     <row r="51" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1"/>
-      <c r="B51" s="160" t="s">
+      <c r="B51" s="156" t="s">
         <v>9</v>
       </c>
       <c r="C51" s="5"/>
@@ -23454,7 +23462,7 @@
     </row>
     <row r="52" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1"/>
-      <c r="B52" s="160"/>
+      <c r="B52" s="156"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -23466,7 +23474,7 @@
     </row>
     <row r="53" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="1"/>
-      <c r="B53" s="161"/>
+      <c r="B53" s="157"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
@@ -23478,7 +23486,7 @@
     </row>
     <row r="54" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="1"/>
-      <c r="B54" s="148" t="s">
+      <c r="B54" s="147" t="s">
         <v>10</v>
       </c>
       <c r="C54" s="5"/>
@@ -23492,7 +23500,7 @@
     </row>
     <row r="55" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="1"/>
-      <c r="B55" s="148"/>
+      <c r="B55" s="147"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -23504,7 +23512,7 @@
     </row>
     <row r="56" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="1"/>
-      <c r="B56" s="149"/>
+      <c r="B56" s="148"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
@@ -23516,7 +23524,7 @@
     </row>
     <row r="57" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="1"/>
-      <c r="B57" s="151" t="s">
+      <c r="B57" s="149" t="s">
         <v>11</v>
       </c>
       <c r="C57" s="5"/>
@@ -23530,7 +23538,7 @@
     </row>
     <row r="58" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="1"/>
-      <c r="B58" s="151"/>
+      <c r="B58" s="149"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -23542,7 +23550,7 @@
     </row>
     <row r="59" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="1"/>
-      <c r="B59" s="152"/>
+      <c r="B59" s="150"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
@@ -23554,7 +23562,7 @@
     </row>
     <row r="60" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="1"/>
-      <c r="B60" s="154" t="s">
+      <c r="B60" s="151" t="s">
         <v>12</v>
       </c>
       <c r="C60" s="5"/>
@@ -23568,7 +23576,7 @@
     </row>
     <row r="61" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="1"/>
-      <c r="B61" s="154"/>
+      <c r="B61" s="151"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -23580,7 +23588,7 @@
     </row>
     <row r="62" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="1"/>
-      <c r="B62" s="155"/>
+      <c r="B62" s="152"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
@@ -23592,7 +23600,7 @@
     </row>
     <row r="63" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="1"/>
-      <c r="B63" s="176" t="s">
+      <c r="B63" s="153" t="s">
         <v>13</v>
       </c>
       <c r="C63" s="5"/>
@@ -23606,7 +23614,7 @@
     </row>
     <row r="64" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="1"/>
-      <c r="B64" s="176"/>
+      <c r="B64" s="153"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -23618,7 +23626,7 @@
     </row>
     <row r="65" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="1"/>
-      <c r="B65" s="177"/>
+      <c r="B65" s="154"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
@@ -23685,7 +23693,7 @@
     </row>
     <row r="68" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="1"/>
-      <c r="B68" s="157" t="s">
+      <c r="B68" s="160" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="5"/>
@@ -23700,7 +23708,7 @@
     </row>
     <row r="69" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="1"/>
-      <c r="B69" s="157"/>
+      <c r="B69" s="160"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -23713,7 +23721,7 @@
     </row>
     <row r="70" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="1"/>
-      <c r="B70" s="158"/>
+      <c r="B70" s="161"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
@@ -23726,7 +23734,7 @@
     </row>
     <row r="71" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="1"/>
-      <c r="B71" s="160" t="s">
+      <c r="B71" s="156" t="s">
         <v>9</v>
       </c>
       <c r="C71" s="5"/>
@@ -23741,7 +23749,7 @@
     </row>
     <row r="72" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="1"/>
-      <c r="B72" s="160"/>
+      <c r="B72" s="156"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -23754,7 +23762,7 @@
     </row>
     <row r="73" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="1"/>
-      <c r="B73" s="161"/>
+      <c r="B73" s="157"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
@@ -23767,7 +23775,7 @@
     </row>
     <row r="74" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="1"/>
-      <c r="B74" s="148" t="s">
+      <c r="B74" s="147" t="s">
         <v>10</v>
       </c>
       <c r="C74" s="5"/>
@@ -23782,7 +23790,7 @@
     </row>
     <row r="75" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="1"/>
-      <c r="B75" s="148"/>
+      <c r="B75" s="147"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -23794,7 +23802,7 @@
     </row>
     <row r="76" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="1"/>
-      <c r="B76" s="149"/>
+      <c r="B76" s="148"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
@@ -23806,7 +23814,7 @@
     </row>
     <row r="77" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="1"/>
-      <c r="B77" s="151" t="s">
+      <c r="B77" s="149" t="s">
         <v>11</v>
       </c>
       <c r="C77" s="5"/>
@@ -23820,7 +23828,7 @@
     </row>
     <row r="78" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="1"/>
-      <c r="B78" s="151"/>
+      <c r="B78" s="149"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -23832,7 +23840,7 @@
     </row>
     <row r="79" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="1"/>
-      <c r="B79" s="152"/>
+      <c r="B79" s="150"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
@@ -23844,7 +23852,7 @@
     </row>
     <row r="80" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="1"/>
-      <c r="B80" s="154" t="s">
+      <c r="B80" s="151" t="s">
         <v>12</v>
       </c>
       <c r="C80" s="5"/>
@@ -23858,7 +23866,7 @@
     </row>
     <row r="81" spans="1:16" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="1"/>
-      <c r="B81" s="154"/>
+      <c r="B81" s="151"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -23870,7 +23878,7 @@
     </row>
     <row r="82" spans="1:16" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="1"/>
-      <c r="B82" s="155"/>
+      <c r="B82" s="152"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
@@ -23882,7 +23890,7 @@
     </row>
     <row r="83" spans="1:16" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="1"/>
-      <c r="B83" s="176" t="s">
+      <c r="B83" s="153" t="s">
         <v>13</v>
       </c>
       <c r="C83" s="5"/>
@@ -23896,7 +23904,7 @@
     </row>
     <row r="84" spans="1:16" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="1"/>
-      <c r="B84" s="176"/>
+      <c r="B84" s="153"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -23908,7 +23916,7 @@
     </row>
     <row r="85" spans="1:16" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="1"/>
-      <c r="B85" s="177"/>
+      <c r="B85" s="154"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
@@ -26091,11 +26099,18 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B68:B70"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="A5:XFD5"/>
@@ -26112,18 +26127,11 @@
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B60:B62"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -26141,8 +26149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -26209,23 +26217,23 @@
     </row>
     <row r="4" spans="1:13" s="98" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="97"/>
-      <c r="B4" s="164" t="s">
+      <c r="B4" s="179" t="s">
         <v>647</v>
       </c>
       <c r="C4" s="197"/>
-      <c r="D4" s="165"/>
-      <c r="E4" s="164" t="s">
+      <c r="D4" s="180"/>
+      <c r="E4" s="179" t="s">
         <v>648</v>
       </c>
       <c r="F4" s="197"/>
-      <c r="G4" s="165"/>
-      <c r="H4" s="164" t="s">
+      <c r="G4" s="180"/>
+      <c r="H4" s="179" t="s">
         <v>649</v>
       </c>
       <c r="I4" s="197"/>
       <c r="J4" s="197"/>
       <c r="K4" s="197"/>
-      <c r="L4" s="165"/>
+      <c r="L4" s="180"/>
       <c r="M4" s="97"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
@@ -26870,7 +26878,9 @@
       <c r="E31" s="28" t="s">
         <v>997</v>
       </c>
-      <c r="F31" s="28"/>
+      <c r="F31" s="28" t="s">
+        <v>1072</v>
+      </c>
       <c r="G31" s="28"/>
       <c r="H31" s="28"/>
       <c r="I31" s="28"/>
@@ -26937,7 +26947,9 @@
       <c r="E34" s="28" t="s">
         <v>1004</v>
       </c>
-      <c r="F34" s="28"/>
+      <c r="F34" s="28" t="s">
+        <v>1071</v>
+      </c>
       <c r="G34" s="28"/>
       <c r="H34" s="28"/>
       <c r="I34" s="28"/>
@@ -27378,30 +27390,30 @@
     </row>
     <row r="2" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="173" t="s">
         <v>837</v>
       </c>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="180"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="174"/>
+      <c r="I2" s="175"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="66"/>
-      <c r="B3" s="172" t="s">
+      <c r="B3" s="166" t="s">
         <v>540</v>
       </c>
-      <c r="C3" s="173"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="173"/>
-      <c r="F3" s="173"/>
-      <c r="G3" s="173"/>
-      <c r="H3" s="173"/>
-      <c r="I3" s="174"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="168"/>
       <c r="J3" s="66"/>
     </row>
     <row r="4" spans="1:10" s="74" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -27410,24 +27422,24 @@
         <v>848</v>
       </c>
       <c r="C4" s="196"/>
-      <c r="D4" s="164" t="s">
+      <c r="D4" s="179" t="s">
         <v>704</v>
       </c>
-      <c r="E4" s="165"/>
-      <c r="F4" s="164" t="s">
+      <c r="E4" s="180"/>
+      <c r="F4" s="179" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="197"/>
-      <c r="H4" s="164" t="s">
+      <c r="H4" s="179" t="s">
         <v>543</v>
       </c>
-      <c r="I4" s="165"/>
+      <c r="I4" s="180"/>
       <c r="J4" s="15"/>
     </row>
-    <row r="5" spans="1:10" s="171" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:10" s="165" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="166"/>
+      <c r="B6" s="170"/>
       <c r="C6" s="54" t="s">
         <v>809</v>
       </c>
@@ -27453,7 +27465,7 @@
     </row>
     <row r="7" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="167"/>
+      <c r="B7" s="171"/>
       <c r="C7" s="55" t="s">
         <v>1</v>
       </c>
@@ -27479,7 +27491,7 @@
     </row>
     <row r="8" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="157" t="s">
+      <c r="B8" s="160" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="5"/>
@@ -27493,7 +27505,7 @@
     </row>
     <row r="9" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="157"/>
+      <c r="B9" s="160"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -27505,7 +27517,7 @@
     </row>
     <row r="10" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="158"/>
+      <c r="B10" s="161"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -27517,7 +27529,7 @@
     </row>
     <row r="11" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="160" t="s">
+      <c r="B11" s="156" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="5"/>
@@ -27531,7 +27543,7 @@
     </row>
     <row r="12" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="160"/>
+      <c r="B12" s="156"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -27543,7 +27555,7 @@
     </row>
     <row r="13" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="161"/>
+      <c r="B13" s="157"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -27555,7 +27567,7 @@
     </row>
     <row r="14" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="148" t="s">
+      <c r="B14" s="147" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="5"/>
@@ -27569,7 +27581,7 @@
     </row>
     <row r="15" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="148"/>
+      <c r="B15" s="147"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -27581,7 +27593,7 @@
     </row>
     <row r="16" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
-      <c r="B16" s="149"/>
+      <c r="B16" s="148"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -27593,7 +27605,7 @@
     </row>
     <row r="17" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
-      <c r="B17" s="151" t="s">
+      <c r="B17" s="149" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="5"/>
@@ -27607,7 +27619,7 @@
     </row>
     <row r="18" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
-      <c r="B18" s="151"/>
+      <c r="B18" s="149"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -27619,7 +27631,7 @@
     </row>
     <row r="19" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
-      <c r="B19" s="152"/>
+      <c r="B19" s="150"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -27631,7 +27643,7 @@
     </row>
     <row r="20" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
-      <c r="B20" s="154" t="s">
+      <c r="B20" s="151" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="5"/>
@@ -27645,7 +27657,7 @@
     </row>
     <row r="21" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
-      <c r="B21" s="154"/>
+      <c r="B21" s="151"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -27657,7 +27669,7 @@
     </row>
     <row r="22" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
-      <c r="B22" s="155"/>
+      <c r="B22" s="152"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -27669,7 +27681,7 @@
     </row>
     <row r="23" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
-      <c r="B23" s="176" t="s">
+      <c r="B23" s="153" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="5"/>
@@ -27683,7 +27695,7 @@
     </row>
     <row r="24" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
-      <c r="B24" s="176"/>
+      <c r="B24" s="153"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -27695,7 +27707,7 @@
     </row>
     <row r="25" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
-      <c r="B25" s="177"/>
+      <c r="B25" s="154"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -27759,7 +27771,7 @@
     </row>
     <row r="28" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
-      <c r="B28" s="157" t="s">
+      <c r="B28" s="160" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="5"/>
@@ -27773,7 +27785,7 @@
     </row>
     <row r="29" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
-      <c r="B29" s="157"/>
+      <c r="B29" s="160"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -27785,7 +27797,7 @@
     </row>
     <row r="30" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
-      <c r="B30" s="158"/>
+      <c r="B30" s="161"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -27797,7 +27809,7 @@
     </row>
     <row r="31" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
-      <c r="B31" s="160" t="s">
+      <c r="B31" s="156" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="5"/>
@@ -27811,7 +27823,7 @@
     </row>
     <row r="32" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
-      <c r="B32" s="160"/>
+      <c r="B32" s="156"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -27823,7 +27835,7 @@
     </row>
     <row r="33" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
-      <c r="B33" s="161"/>
+      <c r="B33" s="157"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -27835,7 +27847,7 @@
     </row>
     <row r="34" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
-      <c r="B34" s="148" t="s">
+      <c r="B34" s="147" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="5"/>
@@ -27849,7 +27861,7 @@
     </row>
     <row r="35" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
-      <c r="B35" s="148"/>
+      <c r="B35" s="147"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -27861,7 +27873,7 @@
     </row>
     <row r="36" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
-      <c r="B36" s="149"/>
+      <c r="B36" s="148"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -27873,7 +27885,7 @@
     </row>
     <row r="37" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
-      <c r="B37" s="151" t="s">
+      <c r="B37" s="149" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="5"/>
@@ -27887,7 +27899,7 @@
     </row>
     <row r="38" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
-      <c r="B38" s="151"/>
+      <c r="B38" s="149"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -27899,7 +27911,7 @@
     </row>
     <row r="39" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1"/>
-      <c r="B39" s="152"/>
+      <c r="B39" s="150"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -27911,7 +27923,7 @@
     </row>
     <row r="40" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1"/>
-      <c r="B40" s="154" t="s">
+      <c r="B40" s="151" t="s">
         <v>12</v>
       </c>
       <c r="C40" s="5"/>
@@ -27925,7 +27937,7 @@
     </row>
     <row r="41" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1"/>
-      <c r="B41" s="154"/>
+      <c r="B41" s="151"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -27937,7 +27949,7 @@
     </row>
     <row r="42" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="1"/>
-      <c r="B42" s="155"/>
+      <c r="B42" s="152"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -27949,7 +27961,7 @@
     </row>
     <row r="43" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1"/>
-      <c r="B43" s="176" t="s">
+      <c r="B43" s="153" t="s">
         <v>13</v>
       </c>
       <c r="C43" s="5"/>
@@ -27963,7 +27975,7 @@
     </row>
     <row r="44" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="1"/>
-      <c r="B44" s="176"/>
+      <c r="B44" s="153"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -27975,7 +27987,7 @@
     </row>
     <row r="45" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1"/>
-      <c r="B45" s="177"/>
+      <c r="B45" s="154"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
@@ -28039,7 +28051,7 @@
     </row>
     <row r="48" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="1"/>
-      <c r="B48" s="157" t="s">
+      <c r="B48" s="160" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="5"/>
@@ -28053,7 +28065,7 @@
     </row>
     <row r="49" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1"/>
-      <c r="B49" s="157"/>
+      <c r="B49" s="160"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -28065,7 +28077,7 @@
     </row>
     <row r="50" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="1"/>
-      <c r="B50" s="158"/>
+      <c r="B50" s="161"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
@@ -28077,7 +28089,7 @@
     </row>
     <row r="51" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1"/>
-      <c r="B51" s="160" t="s">
+      <c r="B51" s="156" t="s">
         <v>9</v>
       </c>
       <c r="C51" s="5"/>
@@ -28091,7 +28103,7 @@
     </row>
     <row r="52" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1"/>
-      <c r="B52" s="160"/>
+      <c r="B52" s="156"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -28103,7 +28115,7 @@
     </row>
     <row r="53" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="1"/>
-      <c r="B53" s="161"/>
+      <c r="B53" s="157"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
@@ -28115,7 +28127,7 @@
     </row>
     <row r="54" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="1"/>
-      <c r="B54" s="148" t="s">
+      <c r="B54" s="147" t="s">
         <v>10</v>
       </c>
       <c r="C54" s="5"/>
@@ -28129,7 +28141,7 @@
     </row>
     <row r="55" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="1"/>
-      <c r="B55" s="148"/>
+      <c r="B55" s="147"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -28141,7 +28153,7 @@
     </row>
     <row r="56" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="1"/>
-      <c r="B56" s="149"/>
+      <c r="B56" s="148"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
@@ -28153,7 +28165,7 @@
     </row>
     <row r="57" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="1"/>
-      <c r="B57" s="151" t="s">
+      <c r="B57" s="149" t="s">
         <v>11</v>
       </c>
       <c r="C57" s="5"/>
@@ -28167,7 +28179,7 @@
     </row>
     <row r="58" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="1"/>
-      <c r="B58" s="151"/>
+      <c r="B58" s="149"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -28179,7 +28191,7 @@
     </row>
     <row r="59" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="1"/>
-      <c r="B59" s="152"/>
+      <c r="B59" s="150"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
@@ -28191,7 +28203,7 @@
     </row>
     <row r="60" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="1"/>
-      <c r="B60" s="154" t="s">
+      <c r="B60" s="151" t="s">
         <v>12</v>
       </c>
       <c r="C60" s="5"/>
@@ -28205,7 +28217,7 @@
     </row>
     <row r="61" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="1"/>
-      <c r="B61" s="154"/>
+      <c r="B61" s="151"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -28218,7 +28230,7 @@
     </row>
     <row r="62" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="1"/>
-      <c r="B62" s="155"/>
+      <c r="B62" s="152"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
@@ -28231,7 +28243,7 @@
     </row>
     <row r="63" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="1"/>
-      <c r="B63" s="176" t="s">
+      <c r="B63" s="153" t="s">
         <v>13</v>
       </c>
       <c r="C63" s="5"/>
@@ -28246,7 +28258,7 @@
     </row>
     <row r="64" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="1"/>
-      <c r="B64" s="176"/>
+      <c r="B64" s="153"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -28259,7 +28271,7 @@
     </row>
     <row r="65" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="1"/>
-      <c r="B65" s="177"/>
+      <c r="B65" s="154"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
@@ -28326,7 +28338,7 @@
     </row>
     <row r="68" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="1"/>
-      <c r="B68" s="157" t="s">
+      <c r="B68" s="160" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="5"/>
@@ -28341,7 +28353,7 @@
     </row>
     <row r="69" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="1"/>
-      <c r="B69" s="157"/>
+      <c r="B69" s="160"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -28354,7 +28366,7 @@
     </row>
     <row r="70" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="1"/>
-      <c r="B70" s="158"/>
+      <c r="B70" s="161"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
@@ -28367,7 +28379,7 @@
     </row>
     <row r="71" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="1"/>
-      <c r="B71" s="160" t="s">
+      <c r="B71" s="156" t="s">
         <v>9</v>
       </c>
       <c r="C71" s="5"/>
@@ -28382,7 +28394,7 @@
     </row>
     <row r="72" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="1"/>
-      <c r="B72" s="160"/>
+      <c r="B72" s="156"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -28395,7 +28407,7 @@
     </row>
     <row r="73" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="1"/>
-      <c r="B73" s="161"/>
+      <c r="B73" s="157"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
@@ -28408,7 +28420,7 @@
     </row>
     <row r="74" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="1"/>
-      <c r="B74" s="148" t="s">
+      <c r="B74" s="147" t="s">
         <v>10</v>
       </c>
       <c r="C74" s="5"/>
@@ -28423,7 +28435,7 @@
     </row>
     <row r="75" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="1"/>
-      <c r="B75" s="148"/>
+      <c r="B75" s="147"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -28436,7 +28448,7 @@
     </row>
     <row r="76" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="1"/>
-      <c r="B76" s="149"/>
+      <c r="B76" s="148"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
@@ -28448,7 +28460,7 @@
     </row>
     <row r="77" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="1"/>
-      <c r="B77" s="151" t="s">
+      <c r="B77" s="149" t="s">
         <v>11</v>
       </c>
       <c r="C77" s="5"/>
@@ -28462,7 +28474,7 @@
     </row>
     <row r="78" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="1"/>
-      <c r="B78" s="151"/>
+      <c r="B78" s="149"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -28474,7 +28486,7 @@
     </row>
     <row r="79" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="1"/>
-      <c r="B79" s="152"/>
+      <c r="B79" s="150"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
@@ -28486,7 +28498,7 @@
     </row>
     <row r="80" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="1"/>
-      <c r="B80" s="154" t="s">
+      <c r="B80" s="151" t="s">
         <v>12</v>
       </c>
       <c r="C80" s="5"/>
@@ -28500,7 +28512,7 @@
     </row>
     <row r="81" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="1"/>
-      <c r="B81" s="154"/>
+      <c r="B81" s="151"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -28512,7 +28524,7 @@
     </row>
     <row r="82" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="1"/>
-      <c r="B82" s="155"/>
+      <c r="B82" s="152"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
@@ -28524,7 +28536,7 @@
     </row>
     <row r="83" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="1"/>
-      <c r="B83" s="175" t="s">
+      <c r="B83" s="169" t="s">
         <v>13</v>
       </c>
       <c r="C83" s="7"/>
@@ -28538,7 +28550,7 @@
     </row>
     <row r="84" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="1"/>
-      <c r="B84" s="176"/>
+      <c r="B84" s="153"/>
       <c r="C84" s="62"/>
       <c r="D84" s="62"/>
       <c r="E84" s="62"/>
@@ -28550,7 +28562,7 @@
     </row>
     <row r="85" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="1"/>
-      <c r="B85" s="177"/>
+      <c r="B85" s="154"/>
       <c r="C85" s="106"/>
       <c r="D85" s="106"/>
       <c r="E85" s="106"/>
@@ -31071,15 +31083,14 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B71:B73"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="B40:B42"/>
@@ -31096,14 +31107,15 @@
     <mergeCell ref="B43:B45"/>
     <mergeCell ref="B48:B50"/>
     <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -31161,29 +31173,29 @@
     </row>
     <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="66"/>
-      <c r="B3" s="172" t="s">
+      <c r="B3" s="166" t="s">
         <v>540</v>
       </c>
-      <c r="C3" s="173"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="173"/>
-      <c r="F3" s="173"/>
-      <c r="G3" s="173"/>
-      <c r="H3" s="173"/>
-      <c r="I3" s="174"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="168"/>
       <c r="J3" s="66"/>
     </row>
     <row r="4" spans="1:10" s="74" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="73"/>
-      <c r="B4" s="162" t="s">
+      <c r="B4" s="177" t="s">
         <v>698</v>
       </c>
-      <c r="C4" s="163"/>
-      <c r="D4" s="164" t="s">
+      <c r="C4" s="178"/>
+      <c r="D4" s="179" t="s">
         <v>704</v>
       </c>
-      <c r="E4" s="165"/>
-      <c r="F4" s="164" t="s">
+      <c r="E4" s="180"/>
+      <c r="F4" s="179" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="197"/>
@@ -31193,10 +31205,10 @@
       <c r="I4" s="196"/>
       <c r="J4" s="15"/>
     </row>
-    <row r="5" spans="1:10" s="171" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:10" s="165" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="166"/>
+      <c r="B6" s="170"/>
       <c r="C6" s="54" t="s">
         <v>838</v>
       </c>
@@ -31222,7 +31234,7 @@
     </row>
     <row r="7" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="167"/>
+      <c r="B7" s="171"/>
       <c r="C7" s="55" t="s">
         <v>1</v>
       </c>
@@ -31248,7 +31260,7 @@
     </row>
     <row r="8" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="157" t="s">
+      <c r="B8" s="160" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="5"/>
@@ -31262,7 +31274,7 @@
     </row>
     <row r="9" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="157"/>
+      <c r="B9" s="160"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -31274,7 +31286,7 @@
     </row>
     <row r="10" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="158"/>
+      <c r="B10" s="161"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -31286,7 +31298,7 @@
     </row>
     <row r="11" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="160" t="s">
+      <c r="B11" s="156" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="5"/>
@@ -31300,7 +31312,7 @@
     </row>
     <row r="12" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="160"/>
+      <c r="B12" s="156"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -31312,7 +31324,7 @@
     </row>
     <row r="13" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="161"/>
+      <c r="B13" s="157"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -31324,7 +31336,7 @@
     </row>
     <row r="14" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="148" t="s">
+      <c r="B14" s="147" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="5"/>
@@ -31338,7 +31350,7 @@
     </row>
     <row r="15" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="148"/>
+      <c r="B15" s="147"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -31350,7 +31362,7 @@
     </row>
     <row r="16" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
-      <c r="B16" s="149"/>
+      <c r="B16" s="148"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -31362,7 +31374,7 @@
     </row>
     <row r="17" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
-      <c r="B17" s="151" t="s">
+      <c r="B17" s="149" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="5"/>
@@ -31376,7 +31388,7 @@
     </row>
     <row r="18" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
-      <c r="B18" s="151"/>
+      <c r="B18" s="149"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -31388,7 +31400,7 @@
     </row>
     <row r="19" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
-      <c r="B19" s="152"/>
+      <c r="B19" s="150"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -31400,7 +31412,7 @@
     </row>
     <row r="20" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
-      <c r="B20" s="154" t="s">
+      <c r="B20" s="151" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="5"/>
@@ -31414,7 +31426,7 @@
     </row>
     <row r="21" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
-      <c r="B21" s="154"/>
+      <c r="B21" s="151"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -31426,7 +31438,7 @@
     </row>
     <row r="22" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
-      <c r="B22" s="155"/>
+      <c r="B22" s="152"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -31438,7 +31450,7 @@
     </row>
     <row r="23" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
-      <c r="B23" s="176" t="s">
+      <c r="B23" s="153" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="5"/>
@@ -31452,7 +31464,7 @@
     </row>
     <row r="24" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
-      <c r="B24" s="176"/>
+      <c r="B24" s="153"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -31464,7 +31476,7 @@
     </row>
     <row r="25" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
-      <c r="B25" s="177"/>
+      <c r="B25" s="154"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -31528,7 +31540,7 @@
     </row>
     <row r="28" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
-      <c r="B28" s="157" t="s">
+      <c r="B28" s="160" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="5"/>
@@ -31542,7 +31554,7 @@
     </row>
     <row r="29" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
-      <c r="B29" s="157"/>
+      <c r="B29" s="160"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -31554,7 +31566,7 @@
     </row>
     <row r="30" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
-      <c r="B30" s="158"/>
+      <c r="B30" s="161"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -31566,7 +31578,7 @@
     </row>
     <row r="31" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
-      <c r="B31" s="160" t="s">
+      <c r="B31" s="156" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="5"/>
@@ -31580,7 +31592,7 @@
     </row>
     <row r="32" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
-      <c r="B32" s="160"/>
+      <c r="B32" s="156"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -31592,7 +31604,7 @@
     </row>
     <row r="33" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
-      <c r="B33" s="161"/>
+      <c r="B33" s="157"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -31604,7 +31616,7 @@
     </row>
     <row r="34" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
-      <c r="B34" s="148" t="s">
+      <c r="B34" s="147" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="5"/>
@@ -31619,7 +31631,7 @@
     </row>
     <row r="35" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
-      <c r="B35" s="148"/>
+      <c r="B35" s="147"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -31632,7 +31644,7 @@
     </row>
     <row r="36" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
-      <c r="B36" s="149"/>
+      <c r="B36" s="148"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -31644,7 +31656,7 @@
     </row>
     <row r="37" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
-      <c r="B37" s="151" t="s">
+      <c r="B37" s="149" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="5"/>
@@ -31658,7 +31670,7 @@
     </row>
     <row r="38" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
-      <c r="B38" s="151"/>
+      <c r="B38" s="149"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -31670,7 +31682,7 @@
     </row>
     <row r="39" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1"/>
-      <c r="B39" s="152"/>
+      <c r="B39" s="150"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -31682,7 +31694,7 @@
     </row>
     <row r="40" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1"/>
-      <c r="B40" s="154" t="s">
+      <c r="B40" s="151" t="s">
         <v>12</v>
       </c>
       <c r="C40" s="5"/>
@@ -31696,7 +31708,7 @@
     </row>
     <row r="41" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1"/>
-      <c r="B41" s="154"/>
+      <c r="B41" s="151"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -31708,7 +31720,7 @@
     </row>
     <row r="42" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="1"/>
-      <c r="B42" s="155"/>
+      <c r="B42" s="152"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -31720,7 +31732,7 @@
     </row>
     <row r="43" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1"/>
-      <c r="B43" s="176" t="s">
+      <c r="B43" s="153" t="s">
         <v>13</v>
       </c>
       <c r="C43" s="5"/>
@@ -31734,7 +31746,7 @@
     </row>
     <row r="44" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="1"/>
-      <c r="B44" s="176"/>
+      <c r="B44" s="153"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -31746,7 +31758,7 @@
     </row>
     <row r="45" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1"/>
-      <c r="B45" s="177"/>
+      <c r="B45" s="154"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
@@ -31810,7 +31822,7 @@
     </row>
     <row r="48" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="1"/>
-      <c r="B48" s="157" t="s">
+      <c r="B48" s="160" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="5"/>
@@ -31824,7 +31836,7 @@
     </row>
     <row r="49" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1"/>
-      <c r="B49" s="157"/>
+      <c r="B49" s="160"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -31836,7 +31848,7 @@
     </row>
     <row r="50" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="1"/>
-      <c r="B50" s="158"/>
+      <c r="B50" s="161"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
@@ -31848,7 +31860,7 @@
     </row>
     <row r="51" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1"/>
-      <c r="B51" s="160" t="s">
+      <c r="B51" s="156" t="s">
         <v>9</v>
       </c>
       <c r="C51" s="5"/>
@@ -31862,7 +31874,7 @@
     </row>
     <row r="52" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1"/>
-      <c r="B52" s="160"/>
+      <c r="B52" s="156"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -31874,7 +31886,7 @@
     </row>
     <row r="53" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="1"/>
-      <c r="B53" s="161"/>
+      <c r="B53" s="157"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
@@ -31886,7 +31898,7 @@
     </row>
     <row r="54" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="1"/>
-      <c r="B54" s="148" t="s">
+      <c r="B54" s="147" t="s">
         <v>10</v>
       </c>
       <c r="C54" s="5"/>
@@ -31900,7 +31912,7 @@
     </row>
     <row r="55" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="1"/>
-      <c r="B55" s="148"/>
+      <c r="B55" s="147"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -31912,7 +31924,7 @@
     </row>
     <row r="56" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="1"/>
-      <c r="B56" s="149"/>
+      <c r="B56" s="148"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
@@ -31924,7 +31936,7 @@
     </row>
     <row r="57" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="1"/>
-      <c r="B57" s="151" t="s">
+      <c r="B57" s="149" t="s">
         <v>11</v>
       </c>
       <c r="C57" s="5"/>
@@ -31938,7 +31950,7 @@
     </row>
     <row r="58" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="1"/>
-      <c r="B58" s="151"/>
+      <c r="B58" s="149"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -31950,7 +31962,7 @@
     </row>
     <row r="59" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="1"/>
-      <c r="B59" s="152"/>
+      <c r="B59" s="150"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
@@ -31962,7 +31974,7 @@
     </row>
     <row r="60" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="1"/>
-      <c r="B60" s="154" t="s">
+      <c r="B60" s="151" t="s">
         <v>12</v>
       </c>
       <c r="C60" s="5"/>
@@ -31976,7 +31988,7 @@
     </row>
     <row r="61" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="1"/>
-      <c r="B61" s="154"/>
+      <c r="B61" s="151"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -31988,7 +32000,7 @@
     </row>
     <row r="62" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="1"/>
-      <c r="B62" s="155"/>
+      <c r="B62" s="152"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
@@ -32000,7 +32012,7 @@
     </row>
     <row r="63" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="1"/>
-      <c r="B63" s="176" t="s">
+      <c r="B63" s="153" t="s">
         <v>13</v>
       </c>
       <c r="C63" s="5"/>
@@ -32014,7 +32026,7 @@
     </row>
     <row r="64" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="1"/>
-      <c r="B64" s="176"/>
+      <c r="B64" s="153"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -32027,7 +32039,7 @@
     </row>
     <row r="65" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="1"/>
-      <c r="B65" s="177"/>
+      <c r="B65" s="154"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
@@ -32094,7 +32106,7 @@
     </row>
     <row r="68" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="1"/>
-      <c r="B68" s="157" t="s">
+      <c r="B68" s="160" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="5"/>
@@ -32109,7 +32121,7 @@
     </row>
     <row r="69" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="1"/>
-      <c r="B69" s="157"/>
+      <c r="B69" s="160"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -32122,7 +32134,7 @@
     </row>
     <row r="70" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="1"/>
-      <c r="B70" s="158"/>
+      <c r="B70" s="161"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
@@ -32135,7 +32147,7 @@
     </row>
     <row r="71" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="1"/>
-      <c r="B71" s="160" t="s">
+      <c r="B71" s="156" t="s">
         <v>9</v>
       </c>
       <c r="C71" s="5"/>
@@ -32150,7 +32162,7 @@
     </row>
     <row r="72" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="1"/>
-      <c r="B72" s="160"/>
+      <c r="B72" s="156"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -32163,7 +32175,7 @@
     </row>
     <row r="73" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="1"/>
-      <c r="B73" s="161"/>
+      <c r="B73" s="157"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
@@ -32176,7 +32188,7 @@
     </row>
     <row r="74" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="1"/>
-      <c r="B74" s="148" t="s">
+      <c r="B74" s="147" t="s">
         <v>10</v>
       </c>
       <c r="C74" s="5"/>
@@ -32191,7 +32203,7 @@
     </row>
     <row r="75" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="1"/>
-      <c r="B75" s="148"/>
+      <c r="B75" s="147"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -32203,7 +32215,7 @@
     </row>
     <row r="76" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="1"/>
-      <c r="B76" s="149"/>
+      <c r="B76" s="148"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
@@ -32215,7 +32227,7 @@
     </row>
     <row r="77" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="1"/>
-      <c r="B77" s="151" t="s">
+      <c r="B77" s="149" t="s">
         <v>11</v>
       </c>
       <c r="C77" s="5"/>
@@ -32229,7 +32241,7 @@
     </row>
     <row r="78" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="1"/>
-      <c r="B78" s="151"/>
+      <c r="B78" s="149"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -32241,7 +32253,7 @@
     </row>
     <row r="79" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="1"/>
-      <c r="B79" s="152"/>
+      <c r="B79" s="150"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
@@ -32253,7 +32265,7 @@
     </row>
     <row r="80" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="1"/>
-      <c r="B80" s="154" t="s">
+      <c r="B80" s="151" t="s">
         <v>12</v>
       </c>
       <c r="C80" s="5"/>
@@ -32267,7 +32279,7 @@
     </row>
     <row r="81" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="1"/>
-      <c r="B81" s="154"/>
+      <c r="B81" s="151"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -32279,7 +32291,7 @@
     </row>
     <row r="82" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="1"/>
-      <c r="B82" s="155"/>
+      <c r="B82" s="152"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
@@ -32291,7 +32303,7 @@
     </row>
     <row r="83" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="1"/>
-      <c r="B83" s="176" t="s">
+      <c r="B83" s="153" t="s">
         <v>13</v>
       </c>
       <c r="C83" s="5"/>
@@ -32305,7 +32317,7 @@
     </row>
     <row r="84" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="1"/>
-      <c r="B84" s="176"/>
+      <c r="B84" s="153"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -32317,7 +32329,7 @@
     </row>
     <row r="85" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="1"/>
-      <c r="B85" s="177"/>
+      <c r="B85" s="154"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
@@ -32371,7 +32383,7 @@
     </row>
     <row r="88" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="1"/>
-      <c r="B88" s="157" t="s">
+      <c r="B88" s="160" t="s">
         <v>8</v>
       </c>
       <c r="C88" s="5"/>
@@ -32388,7 +32400,7 @@
     </row>
     <row r="89" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="1"/>
-      <c r="B89" s="157"/>
+      <c r="B89" s="160"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -32403,7 +32415,7 @@
     </row>
     <row r="90" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="1"/>
-      <c r="B90" s="158"/>
+      <c r="B90" s="161"/>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
@@ -32418,7 +32430,7 @@
     </row>
     <row r="91" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="1"/>
-      <c r="B91" s="160" t="s">
+      <c r="B91" s="156" t="s">
         <v>9</v>
       </c>
       <c r="C91" s="5"/>
@@ -32435,7 +32447,7 @@
     </row>
     <row r="92" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="1"/>
-      <c r="B92" s="160"/>
+      <c r="B92" s="156"/>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -32450,7 +32462,7 @@
     </row>
     <row r="93" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="1"/>
-      <c r="B93" s="161"/>
+      <c r="B93" s="157"/>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
@@ -32465,7 +32477,7 @@
     </row>
     <row r="94" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="1"/>
-      <c r="B94" s="148" t="s">
+      <c r="B94" s="147" t="s">
         <v>10</v>
       </c>
       <c r="C94" s="5"/>
@@ -32482,7 +32494,7 @@
     </row>
     <row r="95" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="1"/>
-      <c r="B95" s="148"/>
+      <c r="B95" s="147"/>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
@@ -32497,7 +32509,7 @@
     </row>
     <row r="96" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="1"/>
-      <c r="B96" s="149"/>
+      <c r="B96" s="148"/>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
@@ -32512,7 +32524,7 @@
     </row>
     <row r="97" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="1"/>
-      <c r="B97" s="151" t="s">
+      <c r="B97" s="149" t="s">
         <v>11</v>
       </c>
       <c r="C97" s="5"/>
@@ -32529,7 +32541,7 @@
     </row>
     <row r="98" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="1"/>
-      <c r="B98" s="151"/>
+      <c r="B98" s="149"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
@@ -32544,7 +32556,7 @@
     </row>
     <row r="99" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="1"/>
-      <c r="B99" s="152"/>
+      <c r="B99" s="150"/>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
       <c r="E99" s="6"/>
@@ -32559,7 +32571,7 @@
     </row>
     <row r="100" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="1"/>
-      <c r="B100" s="154" t="s">
+      <c r="B100" s="151" t="s">
         <v>12</v>
       </c>
       <c r="C100" s="5"/>
@@ -32576,7 +32588,7 @@
     </row>
     <row r="101" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="1"/>
-      <c r="B101" s="154"/>
+      <c r="B101" s="151"/>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
@@ -32591,7 +32603,7 @@
     </row>
     <row r="102" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="1"/>
-      <c r="B102" s="155"/>
+      <c r="B102" s="152"/>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
       <c r="E102" s="6"/>
@@ -32606,7 +32618,7 @@
     </row>
     <row r="103" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="1"/>
-      <c r="B103" s="176" t="s">
+      <c r="B103" s="153" t="s">
         <v>13</v>
       </c>
       <c r="C103" s="5"/>
@@ -32623,7 +32635,7 @@
     </row>
     <row r="104" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="1"/>
-      <c r="B104" s="176"/>
+      <c r="B104" s="153"/>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
@@ -32638,7 +32650,7 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A105" s="1"/>
-      <c r="B105" s="177"/>
+      <c r="B105" s="154"/>
       <c r="C105" s="88"/>
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
@@ -33225,29 +33237,6 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="B97:B99"/>
-    <mergeCell ref="B100:B102"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
     <mergeCell ref="B103:B105"/>
     <mergeCell ref="A5:XFD5"/>
     <mergeCell ref="B74:B76"/>
@@ -33264,6 +33253,29 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B94:B96"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B97:B99"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B71:B73"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -33333,53 +33345,53 @@
     </row>
     <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
-      <c r="B3" s="217" t="s">
+      <c r="B3" s="222" t="s">
         <v>541</v>
       </c>
-      <c r="C3" s="218"/>
-      <c r="D3" s="218"/>
-      <c r="E3" s="218"/>
-      <c r="F3" s="218"/>
-      <c r="G3" s="218"/>
-      <c r="H3" s="218"/>
-      <c r="I3" s="218"/>
-      <c r="J3" s="218"/>
-      <c r="K3" s="219"/>
+      <c r="C3" s="223"/>
+      <c r="D3" s="223"/>
+      <c r="E3" s="223"/>
+      <c r="F3" s="223"/>
+      <c r="G3" s="223"/>
+      <c r="H3" s="223"/>
+      <c r="I3" s="223"/>
+      <c r="J3" s="223"/>
+      <c r="K3" s="224"/>
       <c r="L3" s="24"/>
       <c r="M3" s="24"/>
     </row>
     <row r="4" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
-      <c r="B4" s="222" t="s">
+      <c r="B4" s="225" t="s">
         <v>533</v>
       </c>
-      <c r="C4" s="223"/>
-      <c r="D4" s="223"/>
-      <c r="E4" s="223"/>
-      <c r="F4" s="223"/>
-      <c r="G4" s="223"/>
-      <c r="H4" s="223"/>
-      <c r="I4" s="223"/>
-      <c r="J4" s="223"/>
-      <c r="K4" s="224"/>
+      <c r="C4" s="226"/>
+      <c r="D4" s="226"/>
+      <c r="E4" s="226"/>
+      <c r="F4" s="226"/>
+      <c r="G4" s="226"/>
+      <c r="H4" s="226"/>
+      <c r="I4" s="226"/>
+      <c r="J4" s="226"/>
+      <c r="K4" s="227"/>
       <c r="L4" s="24"/>
       <c r="M4" s="24"/>
     </row>
-    <row r="5" spans="1:20" s="221" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:20" s="216" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24"/>
-      <c r="B6" s="220" t="s">
+      <c r="B6" s="217" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="220"/>
-      <c r="D6" s="220"/>
-      <c r="E6" s="220"/>
-      <c r="F6" s="220"/>
-      <c r="G6" s="220"/>
-      <c r="H6" s="220"/>
-      <c r="I6" s="220"/>
-      <c r="J6" s="220"/>
-      <c r="K6" s="220"/>
+      <c r="C6" s="217"/>
+      <c r="D6" s="217"/>
+      <c r="E6" s="217"/>
+      <c r="F6" s="217"/>
+      <c r="G6" s="217"/>
+      <c r="H6" s="217"/>
+      <c r="I6" s="217"/>
+      <c r="J6" s="217"/>
+      <c r="K6" s="217"/>
       <c r="L6" s="24"/>
       <c r="M6" s="24"/>
     </row>
@@ -33388,19 +33400,19 @@
       <c r="B7" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="216"/>
-      <c r="D7" s="216"/>
-      <c r="E7" s="216"/>
+      <c r="C7" s="219"/>
+      <c r="D7" s="219"/>
+      <c r="E7" s="219"/>
       <c r="F7" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="216"/>
-      <c r="H7" s="216"/>
+      <c r="G7" s="219"/>
+      <c r="H7" s="219"/>
       <c r="I7" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="216"/>
-      <c r="K7" s="216"/>
+      <c r="J7" s="219"/>
+      <c r="K7" s="219"/>
       <c r="L7" s="24"/>
       <c r="M7" s="24"/>
     </row>
@@ -33409,19 +33421,19 @@
       <c r="B8" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="216"/>
-      <c r="D8" s="216"/>
-      <c r="E8" s="216"/>
+      <c r="C8" s="219"/>
+      <c r="D8" s="219"/>
+      <c r="E8" s="219"/>
       <c r="F8" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="216"/>
-      <c r="H8" s="216"/>
+      <c r="G8" s="219"/>
+      <c r="H8" s="219"/>
       <c r="I8" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="216"/>
-      <c r="K8" s="216"/>
+      <c r="J8" s="219"/>
+      <c r="K8" s="219"/>
       <c r="L8" s="24"/>
       <c r="M8" s="24"/>
     </row>
@@ -33430,15 +33442,15 @@
       <c r="B9" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="216"/>
-      <c r="D9" s="216"/>
-      <c r="E9" s="216"/>
-      <c r="F9" s="216"/>
-      <c r="G9" s="216"/>
-      <c r="H9" s="216"/>
-      <c r="I9" s="216"/>
-      <c r="J9" s="216"/>
-      <c r="K9" s="216"/>
+      <c r="C9" s="219"/>
+      <c r="D9" s="219"/>
+      <c r="E9" s="219"/>
+      <c r="F9" s="219"/>
+      <c r="G9" s="219"/>
+      <c r="H9" s="219"/>
+      <c r="I9" s="219"/>
+      <c r="J9" s="219"/>
+      <c r="K9" s="219"/>
       <c r="L9" s="24"/>
       <c r="M9" s="24"/>
     </row>
@@ -33447,15 +33459,15 @@
       <c r="B10" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="216"/>
-      <c r="D10" s="216"/>
-      <c r="E10" s="216"/>
-      <c r="F10" s="216"/>
-      <c r="G10" s="216"/>
-      <c r="H10" s="216"/>
-      <c r="I10" s="216"/>
-      <c r="J10" s="216"/>
-      <c r="K10" s="216"/>
+      <c r="C10" s="219"/>
+      <c r="D10" s="219"/>
+      <c r="E10" s="219"/>
+      <c r="F10" s="219"/>
+      <c r="G10" s="219"/>
+      <c r="H10" s="219"/>
+      <c r="I10" s="219"/>
+      <c r="J10" s="219"/>
+      <c r="K10" s="219"/>
       <c r="L10" s="24"/>
       <c r="M10" s="24"/>
     </row>
@@ -33464,19 +33476,19 @@
       <c r="B11" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="216"/>
-      <c r="D11" s="216"/>
-      <c r="E11" s="216"/>
+      <c r="C11" s="219"/>
+      <c r="D11" s="219"/>
+      <c r="E11" s="219"/>
       <c r="F11" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="216"/>
-      <c r="H11" s="216"/>
+      <c r="G11" s="219"/>
+      <c r="H11" s="219"/>
       <c r="I11" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="J11" s="216"/>
-      <c r="K11" s="216"/>
+      <c r="J11" s="219"/>
+      <c r="K11" s="219"/>
       <c r="L11" s="24"/>
       <c r="M11" s="24"/>
       <c r="T11" s="25" t="s">
@@ -33488,49 +33500,49 @@
       <c r="B12" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="225" t="s">
+      <c r="C12" s="218" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="225"/>
-      <c r="E12" s="225"/>
+      <c r="D12" s="218"/>
+      <c r="E12" s="218"/>
       <c r="F12" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="216"/>
-      <c r="H12" s="216"/>
+      <c r="G12" s="219"/>
+      <c r="H12" s="219"/>
       <c r="I12" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="216"/>
-      <c r="K12" s="216"/>
+      <c r="J12" s="219"/>
+      <c r="K12" s="219"/>
       <c r="L12" s="24"/>
       <c r="M12" s="24"/>
     </row>
-    <row r="13" spans="1:20" s="221" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:20" s="216" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24"/>
-      <c r="B14" s="220" t="s">
+      <c r="B14" s="217" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="220"/>
-      <c r="D14" s="220"/>
-      <c r="E14" s="220"/>
-      <c r="F14" s="220"/>
-      <c r="G14" s="220"/>
-      <c r="H14" s="220"/>
-      <c r="I14" s="220"/>
-      <c r="J14" s="220"/>
-      <c r="K14" s="220"/>
+      <c r="C14" s="217"/>
+      <c r="D14" s="217"/>
+      <c r="E14" s="217"/>
+      <c r="F14" s="217"/>
+      <c r="G14" s="217"/>
+      <c r="H14" s="217"/>
+      <c r="I14" s="217"/>
+      <c r="J14" s="217"/>
+      <c r="K14" s="217"/>
       <c r="L14" s="24"/>
       <c r="M14" s="24"/>
     </row>
     <row r="15" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
-      <c r="B15" s="226" t="s">
+      <c r="B15" s="220" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="226"/>
-      <c r="D15" s="226"/>
+      <c r="C15" s="220"/>
+      <c r="D15" s="220"/>
       <c r="E15" s="33" t="s">
         <v>44</v>
       </c>
@@ -33557,11 +33569,11 @@
     </row>
     <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
-      <c r="B16" s="225" t="s">
+      <c r="B16" s="218" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="225"/>
-      <c r="D16" s="225"/>
+      <c r="C16" s="218"/>
+      <c r="D16" s="218"/>
       <c r="E16" s="29"/>
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
@@ -33576,11 +33588,11 @@
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
-      <c r="B17" s="225" t="s">
+      <c r="B17" s="218" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="225"/>
-      <c r="D17" s="225"/>
+      <c r="C17" s="218"/>
+      <c r="D17" s="218"/>
       <c r="E17" s="29"/>
       <c r="F17" s="29"/>
       <c r="G17" s="29"/>
@@ -33593,11 +33605,11 @@
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
-      <c r="B18" s="225" t="s">
+      <c r="B18" s="218" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="225"/>
-      <c r="D18" s="225"/>
+      <c r="C18" s="218"/>
+      <c r="D18" s="218"/>
       <c r="E18" s="29"/>
       <c r="F18" s="29"/>
       <c r="G18" s="29"/>
@@ -33610,11 +33622,11 @@
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
-      <c r="B19" s="225" t="s">
+      <c r="B19" s="218" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="225"/>
-      <c r="D19" s="225"/>
+      <c r="C19" s="218"/>
+      <c r="D19" s="218"/>
       <c r="E19" s="29"/>
       <c r="F19" s="29"/>
       <c r="G19" s="29"/>
@@ -33627,11 +33639,11 @@
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24"/>
-      <c r="B20" s="225" t="s">
+      <c r="B20" s="218" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="225"/>
-      <c r="D20" s="225"/>
+      <c r="C20" s="218"/>
+      <c r="D20" s="218"/>
       <c r="E20" s="29"/>
       <c r="F20" s="29"/>
       <c r="G20" s="29"/>
@@ -33642,21 +33654,21 @@
       <c r="L20" s="24"/>
       <c r="M20" s="24"/>
     </row>
-    <row r="21" spans="1:13" s="221" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:13" s="216" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="24"/>
-      <c r="B22" s="220" t="s">
+      <c r="B22" s="217" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="220"/>
-      <c r="D22" s="220"/>
-      <c r="E22" s="220"/>
-      <c r="F22" s="220"/>
-      <c r="G22" s="220"/>
-      <c r="H22" s="220"/>
-      <c r="I22" s="220"/>
-      <c r="J22" s="220"/>
-      <c r="K22" s="220"/>
+      <c r="C22" s="217"/>
+      <c r="D22" s="217"/>
+      <c r="E22" s="217"/>
+      <c r="F22" s="217"/>
+      <c r="G22" s="217"/>
+      <c r="H22" s="217"/>
+      <c r="I22" s="217"/>
+      <c r="J22" s="217"/>
+      <c r="K22" s="217"/>
       <c r="L22" s="24"/>
       <c r="M22" s="24"/>
     </row>
@@ -33665,19 +33677,19 @@
       <c r="B23" s="33" t="s">
         <v>514</v>
       </c>
-      <c r="C23" s="216"/>
-      <c r="D23" s="216"/>
-      <c r="E23" s="216"/>
-      <c r="F23" s="216"/>
+      <c r="C23" s="219"/>
+      <c r="D23" s="219"/>
+      <c r="E23" s="219"/>
+      <c r="F23" s="219"/>
       <c r="G23" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="H23" s="225" t="s">
+      <c r="H23" s="218" t="s">
         <v>55</v>
       </c>
-      <c r="I23" s="225"/>
-      <c r="J23" s="225"/>
-      <c r="K23" s="225"/>
+      <c r="I23" s="218"/>
+      <c r="J23" s="218"/>
+      <c r="K23" s="218"/>
       <c r="L23" s="24"/>
       <c r="M23" s="24"/>
     </row>
@@ -33686,19 +33698,19 @@
       <c r="B24" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="216"/>
-      <c r="D24" s="216"/>
-      <c r="E24" s="216"/>
-      <c r="F24" s="216"/>
+      <c r="C24" s="219"/>
+      <c r="D24" s="219"/>
+      <c r="E24" s="219"/>
+      <c r="F24" s="219"/>
       <c r="G24" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="H24" s="227" t="s">
+      <c r="H24" s="221" t="s">
         <v>58</v>
       </c>
-      <c r="I24" s="227"/>
-      <c r="J24" s="227"/>
-      <c r="K24" s="227"/>
+      <c r="I24" s="221"/>
+      <c r="J24" s="221"/>
+      <c r="K24" s="221"/>
       <c r="L24" s="24"/>
       <c r="M24" s="24"/>
     </row>
@@ -33707,17 +33719,17 @@
       <c r="B25" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="216"/>
-      <c r="D25" s="216"/>
-      <c r="E25" s="216"/>
-      <c r="F25" s="216"/>
+      <c r="C25" s="219"/>
+      <c r="D25" s="219"/>
+      <c r="E25" s="219"/>
+      <c r="F25" s="219"/>
       <c r="G25" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="H25" s="216"/>
-      <c r="I25" s="216"/>
-      <c r="J25" s="216"/>
-      <c r="K25" s="216"/>
+      <c r="H25" s="219"/>
+      <c r="I25" s="219"/>
+      <c r="J25" s="219"/>
+      <c r="K25" s="219"/>
       <c r="L25" s="24"/>
       <c r="M25" s="24"/>
     </row>
@@ -33726,17 +33738,17 @@
       <c r="B26" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="216"/>
-      <c r="D26" s="216"/>
-      <c r="E26" s="216"/>
-      <c r="F26" s="216"/>
+      <c r="C26" s="219"/>
+      <c r="D26" s="219"/>
+      <c r="E26" s="219"/>
+      <c r="F26" s="219"/>
       <c r="G26" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="H26" s="216"/>
-      <c r="I26" s="216"/>
-      <c r="J26" s="216"/>
-      <c r="K26" s="216"/>
+      <c r="H26" s="219"/>
+      <c r="I26" s="219"/>
+      <c r="J26" s="219"/>
+      <c r="K26" s="219"/>
       <c r="L26" s="24"/>
       <c r="M26" s="24"/>
     </row>
@@ -33760,19 +33772,19 @@
       <c r="B28" s="33" t="s">
         <v>515</v>
       </c>
-      <c r="C28" s="216"/>
-      <c r="D28" s="216"/>
-      <c r="E28" s="216"/>
-      <c r="F28" s="216"/>
+      <c r="C28" s="219"/>
+      <c r="D28" s="219"/>
+      <c r="E28" s="219"/>
+      <c r="F28" s="219"/>
       <c r="G28" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="H28" s="225" t="s">
+      <c r="H28" s="218" t="s">
         <v>55</v>
       </c>
-      <c r="I28" s="225"/>
-      <c r="J28" s="225"/>
-      <c r="K28" s="225"/>
+      <c r="I28" s="218"/>
+      <c r="J28" s="218"/>
+      <c r="K28" s="218"/>
       <c r="L28" s="24"/>
       <c r="M28" s="24"/>
     </row>
@@ -33781,17 +33793,17 @@
       <c r="B29" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="216"/>
-      <c r="D29" s="216"/>
-      <c r="E29" s="216"/>
-      <c r="F29" s="216"/>
+      <c r="C29" s="219"/>
+      <c r="D29" s="219"/>
+      <c r="E29" s="219"/>
+      <c r="F29" s="219"/>
       <c r="G29" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="H29" s="216"/>
-      <c r="I29" s="216"/>
-      <c r="J29" s="216"/>
-      <c r="K29" s="216"/>
+      <c r="H29" s="219"/>
+      <c r="I29" s="219"/>
+      <c r="J29" s="219"/>
+      <c r="K29" s="219"/>
       <c r="L29" s="24"/>
       <c r="M29" s="24"/>
     </row>
@@ -33800,17 +33812,17 @@
       <c r="B30" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="216"/>
-      <c r="D30" s="216"/>
-      <c r="E30" s="216"/>
-      <c r="F30" s="216"/>
+      <c r="C30" s="219"/>
+      <c r="D30" s="219"/>
+      <c r="E30" s="219"/>
+      <c r="F30" s="219"/>
       <c r="G30" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="H30" s="216"/>
-      <c r="I30" s="216"/>
-      <c r="J30" s="216"/>
-      <c r="K30" s="216"/>
+      <c r="H30" s="219"/>
+      <c r="I30" s="219"/>
+      <c r="J30" s="219"/>
+      <c r="K30" s="219"/>
       <c r="L30" s="24"/>
       <c r="M30" s="24"/>
     </row>
@@ -33819,34 +33831,34 @@
       <c r="B31" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="216"/>
-      <c r="D31" s="216"/>
-      <c r="E31" s="216"/>
-      <c r="F31" s="216"/>
+      <c r="C31" s="219"/>
+      <c r="D31" s="219"/>
+      <c r="E31" s="219"/>
+      <c r="F31" s="219"/>
       <c r="G31" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="H31" s="216"/>
-      <c r="I31" s="216"/>
-      <c r="J31" s="216"/>
-      <c r="K31" s="216"/>
+      <c r="H31" s="219"/>
+      <c r="I31" s="219"/>
+      <c r="J31" s="219"/>
+      <c r="K31" s="219"/>
       <c r="L31" s="24"/>
       <c r="M31" s="24"/>
     </row>
-    <row r="32" spans="1:13" s="221" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:13" s="216" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="24"/>
-      <c r="B33" s="220" t="s">
+      <c r="B33" s="217" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="220"/>
-      <c r="D33" s="220"/>
-      <c r="E33" s="220"/>
-      <c r="F33" s="220"/>
-      <c r="G33" s="220"/>
-      <c r="H33" s="220"/>
-      <c r="I33" s="220"/>
-      <c r="J33" s="220"/>
+      <c r="C33" s="217"/>
+      <c r="D33" s="217"/>
+      <c r="E33" s="217"/>
+      <c r="F33" s="217"/>
+      <c r="G33" s="217"/>
+      <c r="H33" s="217"/>
+      <c r="I33" s="217"/>
+      <c r="J33" s="217"/>
       <c r="K33" s="31"/>
       <c r="L33" s="24"/>
       <c r="M33" s="24"/>
@@ -33865,12 +33877,12 @@
       <c r="E34" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="F34" s="226" t="s">
+      <c r="F34" s="220" t="s">
         <v>68</v>
       </c>
-      <c r="G34" s="226"/>
-      <c r="H34" s="226"/>
-      <c r="I34" s="226"/>
+      <c r="G34" s="220"/>
+      <c r="H34" s="220"/>
+      <c r="I34" s="220"/>
       <c r="J34" s="33" t="s">
         <v>69</v>
       </c>
@@ -33888,12 +33900,12 @@
       </c>
       <c r="D35" s="29"/>
       <c r="E35" s="29"/>
-      <c r="F35" s="225" t="s">
+      <c r="F35" s="218" t="s">
         <v>72</v>
       </c>
-      <c r="G35" s="225"/>
-      <c r="H35" s="225"/>
-      <c r="I35" s="225"/>
+      <c r="G35" s="218"/>
+      <c r="H35" s="218"/>
+      <c r="I35" s="218"/>
       <c r="J35" s="29"/>
       <c r="K35" s="31"/>
       <c r="L35" s="24"/>
@@ -33914,20 +33926,20 @@
       <c r="L36" s="24"/>
       <c r="M36" s="24"/>
     </row>
-    <row r="37" spans="1:13" s="221" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:13" s="216" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="24"/>
-      <c r="B38" s="220" t="s">
+      <c r="B38" s="217" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="220"/>
-      <c r="D38" s="220"/>
-      <c r="E38" s="220"/>
-      <c r="F38" s="220"/>
-      <c r="G38" s="220"/>
-      <c r="H38" s="220"/>
-      <c r="I38" s="220"/>
-      <c r="J38" s="220"/>
+      <c r="C38" s="217"/>
+      <c r="D38" s="217"/>
+      <c r="E38" s="217"/>
+      <c r="F38" s="217"/>
+      <c r="G38" s="217"/>
+      <c r="H38" s="217"/>
+      <c r="I38" s="217"/>
+      <c r="J38" s="217"/>
       <c r="K38" s="31"/>
       <c r="L38" s="24"/>
       <c r="M38" s="24"/>
@@ -33940,21 +33952,21 @@
       <c r="C39" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="D39" s="226" t="s">
+      <c r="D39" s="220" t="s">
         <v>75</v>
       </c>
-      <c r="E39" s="226"/>
-      <c r="F39" s="226" t="s">
+      <c r="E39" s="220"/>
+      <c r="F39" s="220" t="s">
         <v>76</v>
       </c>
-      <c r="G39" s="226"/>
+      <c r="G39" s="220"/>
       <c r="H39" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="I39" s="226" t="s">
+      <c r="I39" s="220" t="s">
         <v>78</v>
       </c>
-      <c r="J39" s="226"/>
+      <c r="J39" s="220"/>
       <c r="K39" s="31"/>
       <c r="L39" s="24"/>
       <c r="M39" s="24"/>
@@ -33965,17 +33977,17 @@
         <v>517</v>
       </c>
       <c r="C40" s="29"/>
-      <c r="D40" s="225" t="s">
+      <c r="D40" s="218" t="s">
         <v>51</v>
       </c>
-      <c r="E40" s="225"/>
-      <c r="F40" s="216"/>
-      <c r="G40" s="216"/>
+      <c r="E40" s="218"/>
+      <c r="F40" s="219"/>
+      <c r="G40" s="219"/>
       <c r="H40" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="I40" s="216"/>
-      <c r="J40" s="216"/>
+      <c r="I40" s="219"/>
+      <c r="J40" s="219"/>
       <c r="K40" s="31"/>
       <c r="L40" s="24"/>
       <c r="M40" s="24"/>
@@ -33984,17 +33996,17 @@
       <c r="A41" s="24"/>
       <c r="B41" s="29"/>
       <c r="C41" s="29"/>
-      <c r="D41" s="225" t="s">
+      <c r="D41" s="218" t="s">
         <v>51</v>
       </c>
-      <c r="E41" s="225"/>
-      <c r="F41" s="216"/>
-      <c r="G41" s="216"/>
+      <c r="E41" s="218"/>
+      <c r="F41" s="219"/>
+      <c r="G41" s="219"/>
       <c r="H41" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="I41" s="216"/>
-      <c r="J41" s="216"/>
+      <c r="I41" s="219"/>
+      <c r="J41" s="219"/>
       <c r="K41" s="31"/>
       <c r="L41" s="24"/>
       <c r="M41" s="24"/>
@@ -34003,32 +34015,32 @@
       <c r="A42" s="24"/>
       <c r="B42" s="29"/>
       <c r="C42" s="29"/>
-      <c r="D42" s="225" t="s">
+      <c r="D42" s="218" t="s">
         <v>51</v>
       </c>
-      <c r="E42" s="225"/>
-      <c r="F42" s="216"/>
-      <c r="G42" s="216"/>
+      <c r="E42" s="218"/>
+      <c r="F42" s="219"/>
+      <c r="G42" s="219"/>
       <c r="H42" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="I42" s="216"/>
-      <c r="J42" s="216"/>
+      <c r="I42" s="219"/>
+      <c r="J42" s="219"/>
       <c r="K42" s="31"/>
       <c r="L42" s="24"/>
       <c r="M42" s="24"/>
     </row>
-    <row r="43" spans="1:13" s="221" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:13" s="216" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="24"/>
-      <c r="B44" s="220" t="s">
+      <c r="B44" s="217" t="s">
         <v>80</v>
       </c>
-      <c r="C44" s="220"/>
-      <c r="D44" s="220"/>
-      <c r="E44" s="220"/>
-      <c r="F44" s="220"/>
-      <c r="G44" s="220"/>
+      <c r="C44" s="217"/>
+      <c r="D44" s="217"/>
+      <c r="E44" s="217"/>
+      <c r="F44" s="217"/>
+      <c r="G44" s="217"/>
       <c r="H44" s="31"/>
       <c r="I44" s="31"/>
       <c r="J44" s="31"/>
@@ -34044,14 +34056,14 @@
       <c r="C45" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="D45" s="226" t="s">
+      <c r="D45" s="220" t="s">
         <v>83</v>
       </c>
-      <c r="E45" s="226"/>
-      <c r="F45" s="226" t="s">
+      <c r="E45" s="220"/>
+      <c r="F45" s="220" t="s">
         <v>84</v>
       </c>
-      <c r="G45" s="226"/>
+      <c r="G45" s="220"/>
       <c r="H45" s="31"/>
       <c r="I45" s="31"/>
       <c r="J45" s="31"/>
@@ -34063,10 +34075,10 @@
       <c r="A46" s="24"/>
       <c r="B46" s="29"/>
       <c r="C46" s="29"/>
-      <c r="D46" s="216"/>
-      <c r="E46" s="216"/>
-      <c r="F46" s="216"/>
-      <c r="G46" s="216"/>
+      <c r="D46" s="219"/>
+      <c r="E46" s="219"/>
+      <c r="F46" s="219"/>
+      <c r="G46" s="219"/>
       <c r="H46" s="31"/>
       <c r="I46" s="31"/>
       <c r="J46" s="31"/>
@@ -34078,10 +34090,10 @@
       <c r="A47" s="24"/>
       <c r="B47" s="29"/>
       <c r="C47" s="29"/>
-      <c r="D47" s="216"/>
-      <c r="E47" s="216"/>
-      <c r="F47" s="216"/>
-      <c r="G47" s="216"/>
+      <c r="D47" s="219"/>
+      <c r="E47" s="219"/>
+      <c r="F47" s="219"/>
+      <c r="G47" s="219"/>
       <c r="H47" s="31"/>
       <c r="I47" s="31"/>
       <c r="J47" s="31"/>
@@ -34093,10 +34105,10 @@
       <c r="A48" s="24"/>
       <c r="B48" s="29"/>
       <c r="C48" s="29"/>
-      <c r="D48" s="216"/>
-      <c r="E48" s="216"/>
-      <c r="F48" s="216"/>
-      <c r="G48" s="216"/>
+      <c r="D48" s="219"/>
+      <c r="E48" s="219"/>
+      <c r="F48" s="219"/>
+      <c r="G48" s="219"/>
       <c r="H48" s="31"/>
       <c r="I48" s="31"/>
       <c r="J48" s="31"/>
@@ -34119,17 +34131,17 @@
       <c r="L49" s="24"/>
       <c r="M49" s="24"/>
     </row>
-    <row r="50" spans="1:13" s="221" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:13" s="216" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="24"/>
-      <c r="B51" s="220" t="s">
+      <c r="B51" s="217" t="s">
         <v>85</v>
       </c>
-      <c r="C51" s="220"/>
-      <c r="D51" s="220"/>
-      <c r="E51" s="220"/>
-      <c r="F51" s="220"/>
-      <c r="G51" s="220"/>
+      <c r="C51" s="217"/>
+      <c r="D51" s="217"/>
+      <c r="E51" s="217"/>
+      <c r="F51" s="217"/>
+      <c r="G51" s="217"/>
       <c r="H51" s="31"/>
       <c r="I51" s="31"/>
       <c r="J51" s="31"/>
@@ -34239,15 +34251,15 @@
       <c r="L57" s="24"/>
       <c r="M57" s="24"/>
     </row>
-    <row r="58" spans="1:13" s="221" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:13" s="216" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="24"/>
-      <c r="B59" s="220" t="s">
+      <c r="B59" s="217" t="s">
         <v>92</v>
       </c>
-      <c r="C59" s="220"/>
-      <c r="D59" s="220"/>
-      <c r="E59" s="220"/>
+      <c r="C59" s="217"/>
+      <c r="D59" s="217"/>
+      <c r="E59" s="217"/>
       <c r="F59" s="31"/>
       <c r="G59" s="31"/>
       <c r="H59" s="31"/>
@@ -34340,16 +34352,16 @@
       <c r="L64" s="24"/>
       <c r="M64" s="24"/>
     </row>
-    <row r="65" spans="1:13" s="221" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="1:13" s="216" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="24"/>
-      <c r="B66" s="220" t="s">
+      <c r="B66" s="217" t="s">
         <v>97</v>
       </c>
-      <c r="C66" s="220"/>
-      <c r="D66" s="220"/>
-      <c r="E66" s="220"/>
-      <c r="F66" s="220"/>
+      <c r="C66" s="217"/>
+      <c r="D66" s="217"/>
+      <c r="E66" s="217"/>
+      <c r="F66" s="217"/>
       <c r="G66" s="31"/>
       <c r="H66" s="31"/>
       <c r="I66" s="31"/>
@@ -34443,16 +34455,16 @@
       <c r="L71" s="24"/>
       <c r="M71" s="24"/>
     </row>
-    <row r="72" spans="1:13" s="221" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="1:13" s="216" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="73" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="24"/>
-      <c r="B73" s="220" t="s">
+      <c r="B73" s="217" t="s">
         <v>102</v>
       </c>
-      <c r="C73" s="220"/>
-      <c r="D73" s="220"/>
-      <c r="E73" s="220"/>
-      <c r="F73" s="220"/>
+      <c r="C73" s="217"/>
+      <c r="D73" s="217"/>
+      <c r="E73" s="217"/>
+      <c r="F73" s="217"/>
       <c r="G73" s="31"/>
       <c r="H73" s="31"/>
       <c r="I73" s="31"/>
@@ -34546,13 +34558,13 @@
       <c r="L78" s="24"/>
       <c r="M78" s="24"/>
     </row>
-    <row r="79" spans="1:13" s="221" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:13" s="216" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="80" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="24"/>
-      <c r="B80" s="220" t="s">
+      <c r="B80" s="217" t="s">
         <v>108</v>
       </c>
-      <c r="C80" s="220"/>
+      <c r="C80" s="217"/>
       <c r="D80" s="31"/>
       <c r="E80" s="31"/>
       <c r="F80" s="31"/>
@@ -34691,7 +34703,7 @@
       <c r="L87" s="24"/>
       <c r="M87" s="24"/>
     </row>
-    <row r="88" spans="1:13" s="221" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="1:13" s="216" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="89" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="24"/>
       <c r="B89" s="41" t="s">
@@ -34832,17 +34844,17 @@
       <c r="L96" s="24"/>
       <c r="M96" s="24"/>
     </row>
-    <row r="97" spans="1:13" s="221" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" spans="1:13" s="216" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="98" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="24"/>
-      <c r="B98" s="220" t="s">
+      <c r="B98" s="217" t="s">
         <v>130</v>
       </c>
-      <c r="C98" s="220"/>
-      <c r="D98" s="220"/>
-      <c r="E98" s="220"/>
-      <c r="F98" s="220"/>
-      <c r="G98" s="220"/>
+      <c r="C98" s="217"/>
+      <c r="D98" s="217"/>
+      <c r="E98" s="217"/>
+      <c r="F98" s="217"/>
+      <c r="G98" s="217"/>
       <c r="H98" s="31"/>
       <c r="I98" s="31"/>
       <c r="J98" s="31"/>
@@ -34954,14 +34966,14 @@
     </row>
     <row r="105" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="24"/>
-      <c r="B105" s="225" t="s">
+      <c r="B105" s="218" t="s">
         <v>135</v>
       </c>
-      <c r="C105" s="225"/>
-      <c r="D105" s="225"/>
-      <c r="E105" s="225"/>
-      <c r="F105" s="225"/>
-      <c r="G105" s="225"/>
+      <c r="C105" s="218"/>
+      <c r="D105" s="218"/>
+      <c r="E105" s="218"/>
+      <c r="F105" s="218"/>
+      <c r="G105" s="218"/>
       <c r="H105" s="31"/>
       <c r="I105" s="31"/>
       <c r="J105" s="31"/>
@@ -34969,7 +34981,7 @@
       <c r="L105" s="24"/>
       <c r="M105" s="24"/>
     </row>
-    <row r="106" spans="1:13" s="221" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" spans="1:13" s="216" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="24"/>
       <c r="B107" s="24"/>
@@ -35017,6 +35029,81 @@
     </row>
   </sheetData>
   <mergeCells count="91">
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A5:XFD5"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="A21:XFD21"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="A13:XFD13"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B22:K22"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="B38:J38"/>
+    <mergeCell ref="A37:XFD37"/>
+    <mergeCell ref="A32:XFD32"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="B33:J33"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B66:F66"/>
+    <mergeCell ref="B73:F73"/>
     <mergeCell ref="B27:K27"/>
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="A106:XFD106"/>
@@ -35033,81 +35120,6 @@
     <mergeCell ref="A88:XFD88"/>
     <mergeCell ref="A97:XFD97"/>
     <mergeCell ref="B44:G44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B66:F66"/>
-    <mergeCell ref="B73:F73"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B38:J38"/>
-    <mergeCell ref="A37:XFD37"/>
-    <mergeCell ref="A32:XFD32"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="B33:J33"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="A21:XFD21"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="A13:XFD13"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B22:K22"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A5:XFD5"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="B4:K4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -35146,38 +35158,38 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="2:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="241" t="s">
+      <c r="B2" s="228" t="s">
         <v>531</v>
       </c>
-      <c r="C2" s="242"/>
-      <c r="D2" s="242"/>
-      <c r="E2" s="242"/>
-      <c r="F2" s="243"/>
+      <c r="C2" s="229"/>
+      <c r="D2" s="229"/>
+      <c r="E2" s="229"/>
+      <c r="F2" s="230"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="244" t="s">
+      <c r="B3" s="231" t="s">
         <v>542</v>
       </c>
-      <c r="C3" s="245"/>
-      <c r="D3" s="245"/>
-      <c r="E3" s="245"/>
-      <c r="F3" s="246"/>
+      <c r="C3" s="232"/>
+      <c r="D3" s="232"/>
+      <c r="E3" s="232"/>
+      <c r="F3" s="233"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="2:7" s="47" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="164" t="s">
+      <c r="B4" s="179" t="s">
         <v>136</v>
       </c>
       <c r="C4" s="197"/>
-      <c r="D4" s="165"/>
+      <c r="D4" s="180"/>
       <c r="E4" s="197" t="s">
         <v>536</v>
       </c>
-      <c r="F4" s="165"/>
+      <c r="F4" s="180"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="2:7" s="228" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="2:7" s="234" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="2:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="13"/>
       <c r="C6" s="43" t="s">
@@ -35195,39 +35207,39 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="2:7" s="51" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="237" t="s">
+      <c r="B7" s="243" t="s">
         <v>141</v>
       </c>
-      <c r="C7" s="239" t="s">
+      <c r="C7" s="245" t="s">
         <v>538</v>
       </c>
-      <c r="D7" s="166" t="s">
+      <c r="D7" s="170" t="s">
         <v>142</v>
       </c>
       <c r="E7" s="83" t="s">
         <v>677</v>
       </c>
-      <c r="F7" s="229" t="s">
+      <c r="F7" s="235" t="s">
         <v>539</v>
       </c>
       <c r="G7" s="18"/>
     </row>
     <row r="8" spans="2:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="238"/>
-      <c r="C8" s="240"/>
-      <c r="D8" s="167"/>
+      <c r="B8" s="244"/>
+      <c r="C8" s="246"/>
+      <c r="D8" s="171"/>
       <c r="E8" s="82" t="s">
         <v>676</v>
       </c>
-      <c r="F8" s="230"/>
+      <c r="F8" s="236"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="2:7" s="51" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="201"/>
-      <c r="C9" s="231" t="s">
+      <c r="C9" s="237" t="s">
         <v>537</v>
       </c>
-      <c r="D9" s="234" t="s">
+      <c r="D9" s="240" t="s">
         <v>525</v>
       </c>
       <c r="E9" s="81" t="s">
@@ -35242,8 +35254,8 @@
     </row>
     <row r="10" spans="2:7" s="51" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="202"/>
-      <c r="C10" s="232"/>
-      <c r="D10" s="235"/>
+      <c r="C10" s="238"/>
+      <c r="D10" s="241"/>
       <c r="E10" s="81" t="s">
         <v>518</v>
       </c>
@@ -35252,8 +35264,8 @@
     </row>
     <row r="11" spans="2:7" s="51" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="202"/>
-      <c r="C11" s="232"/>
-      <c r="D11" s="235"/>
+      <c r="C11" s="238"/>
+      <c r="D11" s="241"/>
       <c r="E11" s="81" t="s">
         <v>520</v>
       </c>
@@ -35262,8 +35274,8 @@
     </row>
     <row r="12" spans="2:7" s="51" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="202"/>
-      <c r="C12" s="232"/>
-      <c r="D12" s="235"/>
+      <c r="C12" s="238"/>
+      <c r="D12" s="241"/>
       <c r="E12" s="81" t="s">
         <v>521</v>
       </c>
@@ -35272,8 +35284,8 @@
     </row>
     <row r="13" spans="2:7" s="51" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="202"/>
-      <c r="C13" s="232"/>
-      <c r="D13" s="235"/>
+      <c r="C13" s="238"/>
+      <c r="D13" s="241"/>
       <c r="E13" s="81" t="s">
         <v>519</v>
       </c>
@@ -35282,8 +35294,8 @@
     </row>
     <row r="14" spans="2:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="203"/>
-      <c r="C14" s="233"/>
-      <c r="D14" s="236"/>
+      <c r="C14" s="239"/>
+      <c r="D14" s="242"/>
       <c r="E14" s="81" t="s">
         <v>523</v>
       </c>
@@ -35450,11 +35462,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:F4"/>
     <mergeCell ref="A5:XFD5"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="B9:B14"/>
@@ -35464,6 +35471,11 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="G9:G14"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:F4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>

--- a/자소서/스펙업 2017 하반기 채용다이어리.xlsx
+++ b/자소서/스펙업 2017 하반기 채용다이어리.xlsx
@@ -29,12 +29,12 @@
   <definedNames>
     <definedName name="_2017_9월_공채달력">'9월 스케줄관리'!$B$4</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="1073">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1593" uniqueCount="1082">
   <si>
     <t>카톡으로 공채 소식 받기</t>
   </si>
@@ -4343,10 +4343,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10월 11일 18:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>금융결제원</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4359,30 +4355,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>동부그룹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>㈜동부</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>넥슨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>넥슨코리아</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>넷마블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10월 11일 23:59</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>NC소프트</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4416,6 +4388,70 @@
   </si>
   <si>
     <t>10월 14일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월 16일 18:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신한금융그룹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신한금융투자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월 15일 23:59</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서류합격</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서류탈락</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아모레퍼시픽그룹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아모레퍼시픽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월 13일 14:00</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -13981,7 +14017,7 @@
         <v>1040</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>1066</v>
+        <v>1059</v>
       </c>
       <c r="H113" s="5"/>
       <c r="I113" s="5"/>
@@ -17228,7 +17264,7 @@
         <v>8</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>1069</v>
+        <v>1062</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -17317,7 +17353,7 @@
       <c r="C34" s="11"/>
       <c r="D34" s="62"/>
       <c r="E34" s="62" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="F34" s="62"/>
       <c r="G34" s="62" t="s">
@@ -17597,11 +17633,11 @@
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5" t="s">
-        <v>1070</v>
+        <v>1063</v>
       </c>
       <c r="H53" s="5"/>
       <c r="I53" s="5" t="s">
-        <v>1066</v>
+        <v>1059</v>
       </c>
       <c r="J53" s="1"/>
     </row>
@@ -26147,10 +26183,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M59"/>
+  <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -26168,7 +26204,7 @@
     <col min="12" max="12" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="127.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="127.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="204"/>
       <c r="C1" s="205"/>
@@ -26183,7 +26219,7 @@
       <c r="L1" s="206"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="207"/>
       <c r="C2" s="208"/>
@@ -26198,7 +26234,7 @@
       <c r="L2" s="209"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="210" t="s">
         <v>808</v>
@@ -26215,7 +26251,7 @@
       <c r="L3" s="212"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" s="98" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" s="98" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="97"/>
       <c r="B4" s="179" t="s">
         <v>647</v>
@@ -26236,7 +26272,7 @@
       <c r="L4" s="180"/>
       <c r="M4" s="97"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -26251,7 +26287,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="128"/>
       <c r="C6" s="13"/>
@@ -26286,7 +26322,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="23" t="s">
         <v>20</v>
@@ -26321,7 +26357,7 @@
       </c>
       <c r="M7" s="202"/>
     </row>
-    <row r="8" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="62"/>
       <c r="B8" s="23" t="s">
         <v>23</v>
@@ -26358,7 +26394,7 @@
       </c>
       <c r="M8" s="202"/>
     </row>
-    <row r="9" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="23" t="s">
         <v>527</v>
@@ -26379,7 +26415,7 @@
       <c r="L9" s="61"/>
       <c r="M9" s="203"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="127"/>
       <c r="C10" s="1"/>
@@ -26393,7 +26429,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="128" t="s">
         <v>513</v>
       </c>
@@ -26428,7 +26464,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B12" s="23" t="s">
         <v>895</v>
       </c>
@@ -26453,7 +26489,7 @@
       <c r="K12" s="28"/>
       <c r="L12" s="27"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B13" s="129" t="s">
         <v>908</v>
       </c>
@@ -26476,7 +26512,7 @@
       <c r="K13" s="28"/>
       <c r="L13" s="28"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B14" s="129" t="s">
         <v>916</v>
       </c>
@@ -26499,7 +26535,7 @@
       <c r="K14" s="28"/>
       <c r="L14" s="28"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B15" s="129" t="s">
         <v>872</v>
       </c>
@@ -26521,8 +26557,15 @@
       <c r="J15" s="28"/>
       <c r="K15" s="28"/>
       <c r="L15" s="28"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O15" t="s">
+        <v>1074</v>
+      </c>
+      <c r="P15">
+        <f>COUNTIF(F12:F50,"O")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B16" s="23" t="s">
         <v>922</v>
       </c>
@@ -26535,13 +26578,22 @@
       <c r="E16" s="28" t="s">
         <v>934</v>
       </c>
-      <c r="F16" s="28"/>
+      <c r="F16" s="28" t="s">
+        <v>1073</v>
+      </c>
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
       <c r="I16" s="28"/>
       <c r="J16" s="28"/>
       <c r="K16" s="28"/>
       <c r="L16" s="28"/>
+      <c r="O16" t="s">
+        <v>1075</v>
+      </c>
+      <c r="P16">
+        <f>COUNTIF(F12:F50,"X")</f>
+        <v>19</v>
+      </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="129" t="s">
@@ -26658,9 +26710,13 @@
       <c r="I21" s="28" t="s">
         <v>1003</v>
       </c>
-      <c r="J21" s="28"/>
+      <c r="J21" s="28" t="s">
+        <v>1066</v>
+      </c>
       <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
+      <c r="L21" s="28" t="s">
+        <v>1066</v>
+      </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" s="129" t="s">
@@ -26699,10 +26755,10 @@
         <v>965</v>
       </c>
       <c r="F23" s="28" t="s">
-        <v>1071</v>
+        <v>1064</v>
       </c>
       <c r="G23" s="28" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
       <c r="H23" s="28"/>
       <c r="I23" s="28"/>
@@ -26794,10 +26850,10 @@
         <v>1036</v>
       </c>
       <c r="G27" s="28" t="s">
-        <v>1068</v>
+        <v>1061</v>
       </c>
       <c r="H27" s="28" t="s">
-        <v>1067</v>
+        <v>1060</v>
       </c>
       <c r="I27" s="28"/>
       <c r="J27" s="28"/>
@@ -26840,7 +26896,9 @@
       <c r="E29" s="28" t="s">
         <v>995</v>
       </c>
-      <c r="F29" s="28"/>
+      <c r="F29" s="28" t="s">
+        <v>1077</v>
+      </c>
       <c r="G29" s="28"/>
       <c r="H29" s="28"/>
       <c r="I29" s="28"/>
@@ -26882,7 +26940,9 @@
       <c r="E31" s="28" t="s">
         <v>997</v>
       </c>
-      <c r="F31" s="28"/>
+      <c r="F31" s="28" t="s">
+        <v>1068</v>
+      </c>
       <c r="G31" s="28"/>
       <c r="H31" s="28"/>
       <c r="I31" s="28"/>
@@ -26949,7 +27009,9 @@
       <c r="E34" s="28" t="s">
         <v>1004</v>
       </c>
-      <c r="F34" s="28"/>
+      <c r="F34" s="28" t="s">
+        <v>1068</v>
+      </c>
       <c r="G34" s="28"/>
       <c r="H34" s="28"/>
       <c r="I34" s="28"/>
@@ -26970,7 +27032,9 @@
       <c r="E35" s="28" t="s">
         <v>1007</v>
       </c>
-      <c r="F35" s="28"/>
+      <c r="F35" s="28" t="s">
+        <v>1069</v>
+      </c>
       <c r="G35" s="28"/>
       <c r="H35" s="28"/>
       <c r="I35" s="28"/>
@@ -27012,7 +27076,9 @@
       <c r="E37" s="28" t="s">
         <v>1007</v>
       </c>
-      <c r="F37" s="28"/>
+      <c r="F37" s="28" t="s">
+        <v>1076</v>
+      </c>
       <c r="G37" s="28"/>
       <c r="H37" s="28"/>
       <c r="I37" s="28"/>
@@ -27177,7 +27243,7 @@
         <v>1052</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>1054</v>
+        <v>1067</v>
       </c>
       <c r="E45" s="28"/>
       <c r="F45" s="28"/>
@@ -27190,16 +27256,16 @@
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B46" s="129" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D46" s="28" t="s">
         <v>1056</v>
       </c>
-      <c r="C46" s="23" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D46" s="28" t="s">
-        <v>1057</v>
-      </c>
       <c r="E46" s="28" t="s">
-        <v>1071</v>
+        <v>1064</v>
       </c>
       <c r="F46" s="28"/>
       <c r="G46" s="28"/>
@@ -27211,15 +27277,17 @@
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B47" s="129" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D47" s="28" t="s">
         <v>1058</v>
       </c>
-      <c r="C47" s="23" t="s">
-        <v>1059</v>
-      </c>
-      <c r="D47" s="28" t="s">
-        <v>1057</v>
-      </c>
-      <c r="E47" s="28"/>
+      <c r="E47" s="28" t="s">
+        <v>1066</v>
+      </c>
       <c r="F47" s="28"/>
       <c r="G47" s="28"/>
       <c r="H47" s="28"/>
@@ -27229,16 +27297,18 @@
       <c r="L47" s="28"/>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B48" s="23" t="s">
-        <v>1060</v>
+      <c r="B48" s="129" t="s">
+        <v>1070</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>1061</v>
+        <v>1071</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>1057</v>
-      </c>
-      <c r="E48" s="28"/>
+        <v>1072</v>
+      </c>
+      <c r="E48" s="28" t="s">
+        <v>1078</v>
+      </c>
       <c r="F48" s="28"/>
       <c r="G48" s="28"/>
       <c r="H48" s="28"/>
@@ -27249,15 +27319,17 @@
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B49" s="129" t="s">
-        <v>1062</v>
+        <v>1079</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>1062</v>
+        <v>1080</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>1063</v>
-      </c>
-      <c r="E49" s="28"/>
+        <v>1081</v>
+      </c>
+      <c r="E49" s="28" t="s">
+        <v>1078</v>
+      </c>
       <c r="F49" s="28"/>
       <c r="G49" s="28"/>
       <c r="H49" s="28"/>
@@ -27267,15 +27339,9 @@
       <c r="L49" s="28"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B50" s="129" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C50" s="23" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D50" s="28" t="s">
-        <v>1065</v>
-      </c>
+      <c r="B50" s="129"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="28"/>
       <c r="E50" s="28"/>
       <c r="F50" s="28"/>
       <c r="G50" s="28"/>
@@ -27286,43 +27352,13 @@
       <c r="L50" s="28"/>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B51" s="129"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="28"/>
-      <c r="K51" s="28"/>
-      <c r="L51" s="28"/>
+      <c r="B51" s="130"/>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B52" s="129"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="28"/>
-      <c r="J52" s="28"/>
-      <c r="K52" s="28"/>
-      <c r="L52" s="28"/>
+      <c r="B52" s="130"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B53" s="129"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="28"/>
-      <c r="K53" s="28"/>
-      <c r="L53" s="28"/>
+      <c r="B53" s="130"/>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B54" s="130"/>
@@ -27332,15 +27368,6 @@
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B56" s="130"/>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B57" s="130"/>
-    </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B58" s="130"/>
-    </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B59" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/자소서/스펙업 2017 하반기 채용다이어리.xlsx
+++ b/자소서/스펙업 2017 하반기 채용다이어리.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1593" uniqueCount="1082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="1099">
   <si>
     <t>카톡으로 공채 소식 받기</t>
   </si>
@@ -4452,6 +4452,74 @@
   </si>
   <si>
     <t>10월 13일 14:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>블루홀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>블루홀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>케이뱅크</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>케이뱅크</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월 16일 18:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>만도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>만도헬라일렉트로닉스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>만도헬라일렉트로닉스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPC그룹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월 17일 17:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월 20일 18:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SK 증권</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SK그룹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월 22일 23:59</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>블루홀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월 26일 19:00</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -12355,7 +12423,7 @@
   </sheetPr>
   <dimension ref="A1:K440"/>
   <sheetViews>
-    <sheetView topLeftCell="A107" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A101" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E135" sqref="E135"/>
     </sheetView>
   </sheetViews>
@@ -16855,8 +16923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M579"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.3"/>
@@ -17269,7 +17337,9 @@
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
+      <c r="G28" s="5" t="s">
+        <v>1082</v>
+      </c>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="1"/>
@@ -17629,7 +17699,9 @@
       <c r="C53" s="62" t="s">
         <v>1052</v>
       </c>
-      <c r="D53" s="5"/>
+      <c r="D53" s="5" t="s">
+        <v>1090</v>
+      </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5" t="s">
@@ -17937,7 +18009,9 @@
       <c r="C73" s="11"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
+      <c r="F73" s="5" t="s">
+        <v>1083</v>
+      </c>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
@@ -22760,7 +22834,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P330"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:I1"/>
     </sheetView>
   </sheetViews>
@@ -26183,10 +26257,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P56"/>
+  <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -26561,7 +26635,7 @@
         <v>1074</v>
       </c>
       <c r="P15">
-        <f>COUNTIF(F12:F50,"O")</f>
+        <f>COUNTIF(F12:F54,"O")</f>
         <v>5</v>
       </c>
     </row>
@@ -26591,7 +26665,7 @@
         <v>1075</v>
       </c>
       <c r="P16">
-        <f>COUNTIF(F12:F50,"X")</f>
+        <f>COUNTIF(F12:F54,"X")</f>
         <v>19</v>
       </c>
     </row>
@@ -27245,7 +27319,9 @@
       <c r="D45" s="28" t="s">
         <v>1067</v>
       </c>
-      <c r="E45" s="28"/>
+      <c r="E45" s="28" t="s">
+        <v>1084</v>
+      </c>
       <c r="F45" s="28"/>
       <c r="G45" s="28"/>
       <c r="H45" s="28"/>
@@ -27339,10 +27415,18 @@
       <c r="L49" s="28"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B50" s="129"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
+      <c r="B50" s="129" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D50" s="28" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E50" s="28" t="s">
+        <v>1084</v>
+      </c>
       <c r="F50" s="28"/>
       <c r="G50" s="28"/>
       <c r="H50" s="28"/>
@@ -27352,22 +27436,96 @@
       <c r="L50" s="28"/>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B51" s="130"/>
+      <c r="B51" s="129" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D51" s="28" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="28"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="28"/>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B52" s="130"/>
+      <c r="B52" s="129" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C52" s="23"/>
+      <c r="D52" s="28" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="28"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B53" s="130"/>
+      <c r="B53" s="129" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D53" s="28" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="28"/>
+      <c r="L53" s="28"/>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B54" s="130"/>
+      <c r="B54" s="129" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D54" s="28" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="28"/>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B55" s="130"/>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B56" s="130"/>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B57" s="130"/>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B58" s="130"/>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B59" s="130"/>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B60" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/자소서/스펙업 2017 하반기 채용다이어리.xlsx
+++ b/자소서/스펙업 2017 하반기 채용다이어리.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="1099">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="1097">
   <si>
     <t>카톡으로 공채 소식 받기</t>
   </si>
@@ -4503,23 +4503,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SK 증권</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SK그룹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10월 22일 23:59</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>블루홀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>10월 26일 19:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월 21일</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -26259,8 +26251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -26636,7 +26628,7 @@
       </c>
       <c r="P15">
         <f>COUNTIF(F12:F54,"O")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
@@ -26993,8 +26985,12 @@
       <c r="E30" s="28" t="s">
         <v>997</v>
       </c>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
+      <c r="F30" s="28" t="s">
+        <v>1095</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>1096</v>
+      </c>
       <c r="H30" s="28"/>
       <c r="I30" s="28"/>
       <c r="J30" s="28"/>
@@ -27153,7 +27149,9 @@
       <c r="F37" s="28" t="s">
         <v>1076</v>
       </c>
-      <c r="G37" s="28"/>
+      <c r="G37" s="28" t="s">
+        <v>1096</v>
+      </c>
       <c r="H37" s="28"/>
       <c r="I37" s="28"/>
       <c r="J37" s="28"/>
@@ -27473,13 +27471,13 @@
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B53" s="129" t="s">
-        <v>1095</v>
+        <v>1082</v>
       </c>
       <c r="C53" s="23" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D53" s="28" t="s">
         <v>1094</v>
-      </c>
-      <c r="D53" s="28" t="s">
-        <v>1096</v>
       </c>
       <c r="E53" s="28"/>
       <c r="F53" s="28"/>
@@ -27491,15 +27489,9 @@
       <c r="L53" s="28"/>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B54" s="129" t="s">
-        <v>1097</v>
-      </c>
-      <c r="C54" s="23" t="s">
-        <v>1097</v>
-      </c>
-      <c r="D54" s="28" t="s">
-        <v>1098</v>
-      </c>
+      <c r="B54" s="129"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="28"/>
       <c r="E54" s="28"/>
       <c r="F54" s="28"/>
       <c r="G54" s="28"/>

--- a/자소서/스펙업 2017 하반기 채용다이어리.xlsx
+++ b/자소서/스펙업 2017 하반기 채용다이어리.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="1097">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="1100">
   <si>
     <t>카톡으로 공채 소식 받기</t>
   </si>
@@ -4512,6 +4512,18 @@
   </si>
   <si>
     <t>10월 21일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11월 2일 07:00</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5515,15 +5527,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5542,10 +5545,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5554,19 +5572,25 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5575,16 +5599,22 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5611,13 +5641,10 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5629,25 +5656,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5674,16 +5686,16 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5749,23 +5761,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5776,6 +5773,12 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5785,23 +5788,14 @@
     <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5842,6 +5836,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5875,10 +5887,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5890,7 +5899,10 @@
     <xf numFmtId="0" fontId="5" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7490,84 +7502,84 @@
       <c r="M1" s="137"/>
     </row>
     <row r="2" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="138" t="s">
+      <c r="B2" s="144" t="s">
         <v>706</v>
       </c>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
-      <c r="K2" s="139"/>
-      <c r="L2" s="139"/>
-      <c r="M2" s="140"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="145"/>
+      <c r="M2" s="146"/>
     </row>
     <row r="3" spans="2:13" ht="171" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="144" t="s">
+      <c r="B3" s="141" t="s">
         <v>675</v>
       </c>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="145"/>
-      <c r="J3" s="145"/>
-      <c r="K3" s="145"/>
-      <c r="L3" s="145"/>
-      <c r="M3" s="146"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="143"/>
     </row>
     <row r="4" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="138" t="s">
+      <c r="B4" s="144" t="s">
         <v>707</v>
       </c>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="139"/>
-      <c r="M4" s="140"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="145"/>
+      <c r="H4" s="145"/>
+      <c r="I4" s="145"/>
+      <c r="J4" s="145"/>
+      <c r="K4" s="145"/>
+      <c r="L4" s="145"/>
+      <c r="M4" s="146"/>
     </row>
     <row r="5" spans="2:13" ht="286.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="144" t="s">
+      <c r="B5" s="141" t="s">
         <v>850</v>
       </c>
-      <c r="C5" s="145"/>
-      <c r="D5" s="145"/>
-      <c r="E5" s="145"/>
-      <c r="F5" s="145"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="145"/>
-      <c r="I5" s="145"/>
-      <c r="J5" s="145"/>
-      <c r="K5" s="145"/>
-      <c r="L5" s="145"/>
-      <c r="M5" s="146"/>
+      <c r="C5" s="142"/>
+      <c r="D5" s="142"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="142"/>
+      <c r="H5" s="142"/>
+      <c r="I5" s="142"/>
+      <c r="J5" s="142"/>
+      <c r="K5" s="142"/>
+      <c r="L5" s="142"/>
+      <c r="M5" s="143"/>
     </row>
     <row r="6" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="138" t="s">
+      <c r="B6" s="144" t="s">
         <v>651</v>
       </c>
-      <c r="C6" s="139"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="139"/>
-      <c r="K6" s="139"/>
-      <c r="L6" s="139"/>
-      <c r="M6" s="140"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="145"/>
+      <c r="K6" s="145"/>
+      <c r="L6" s="145"/>
+      <c r="M6" s="146"/>
     </row>
     <row r="7" spans="2:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="135"/>
@@ -7618,17 +7630,23 @@
       <c r="E10" s="136"/>
       <c r="F10" s="136"/>
       <c r="G10" s="137"/>
-      <c r="H10" s="141" t="s">
+      <c r="H10" s="138" t="s">
         <v>653</v>
       </c>
-      <c r="I10" s="142"/>
-      <c r="J10" s="142"/>
-      <c r="K10" s="142"/>
-      <c r="L10" s="142"/>
-      <c r="M10" s="143"/>
+      <c r="I10" s="139"/>
+      <c r="J10" s="139"/>
+      <c r="K10" s="139"/>
+      <c r="L10" s="139"/>
+      <c r="M10" s="140"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="H9:M9"/>
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="H10:M10"/>
     <mergeCell ref="B3:M3"/>
@@ -7636,12 +7654,6 @@
     <mergeCell ref="B5:M5"/>
     <mergeCell ref="B6:M6"/>
     <mergeCell ref="B7:M7"/>
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="H9:M9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7686,7 +7698,7 @@
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="222" t="s">
+      <c r="B3" s="217" t="s">
         <v>639</v>
       </c>
       <c r="C3" s="136"/>
@@ -8023,7 +8035,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="165" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:3" s="171" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:3" s="47" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15"/>
       <c r="B6" s="43" t="s">
@@ -8246,7 +8258,7 @@
     </row>
     <row r="4" spans="1:14" s="76" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="73"/>
-      <c r="B4" s="179" t="s">
+      <c r="B4" s="164" t="s">
         <v>547</v>
       </c>
       <c r="C4" s="197"/>
@@ -8255,32 +8267,32 @@
       <c r="F4" s="197"/>
       <c r="G4" s="197"/>
       <c r="H4" s="197"/>
-      <c r="I4" s="180"/>
-      <c r="J4" s="258" t="s">
+      <c r="I4" s="165"/>
+      <c r="J4" s="262" t="s">
         <v>642</v>
       </c>
-      <c r="K4" s="258"/>
-      <c r="L4" s="258"/>
-      <c r="M4" s="258"/>
-      <c r="N4" s="259"/>
-    </row>
-    <row r="5" spans="1:14" s="165" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="K4" s="262"/>
+      <c r="L4" s="262"/>
+      <c r="M4" s="262"/>
+      <c r="N4" s="263"/>
+    </row>
+    <row r="5" spans="1:14" s="171" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:14" s="85" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="260" t="s">
+      <c r="B6" s="259" t="s">
         <v>638</v>
       </c>
-      <c r="C6" s="261"/>
-      <c r="D6" s="261"/>
-      <c r="E6" s="261"/>
-      <c r="F6" s="261"/>
-      <c r="G6" s="261"/>
-      <c r="H6" s="261"/>
-      <c r="I6" s="261"/>
-      <c r="J6" s="261"/>
-      <c r="K6" s="261"/>
-      <c r="L6" s="261"/>
-      <c r="M6" s="261"/>
-      <c r="N6" s="262"/>
+      <c r="C6" s="260"/>
+      <c r="D6" s="260"/>
+      <c r="E6" s="260"/>
+      <c r="F6" s="260"/>
+      <c r="G6" s="260"/>
+      <c r="H6" s="260"/>
+      <c r="I6" s="260"/>
+      <c r="J6" s="260"/>
+      <c r="K6" s="260"/>
+      <c r="L6" s="260"/>
+      <c r="M6" s="260"/>
+      <c r="N6" s="261"/>
     </row>
     <row r="7" spans="1:14" s="47" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
@@ -8326,7 +8338,7 @@
     </row>
     <row r="8" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="85"/>
-      <c r="B8" s="263" t="s">
+      <c r="B8" s="258" t="s">
         <v>625</v>
       </c>
       <c r="C8" s="256" t="s">
@@ -8350,7 +8362,7 @@
     </row>
     <row r="9" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="85"/>
-      <c r="B9" s="263"/>
+      <c r="B9" s="258"/>
       <c r="C9" s="256"/>
       <c r="D9" s="93" t="s">
         <v>629</v>
@@ -8370,7 +8382,7 @@
     </row>
     <row r="10" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="85"/>
-      <c r="B10" s="263"/>
+      <c r="B10" s="258"/>
       <c r="C10" s="256"/>
       <c r="D10" s="93" t="s">
         <v>630</v>
@@ -8394,7 +8406,7 @@
     </row>
     <row r="11" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="85"/>
-      <c r="B11" s="263"/>
+      <c r="B11" s="258"/>
       <c r="C11" s="256" t="s">
         <v>631</v>
       </c>
@@ -8422,7 +8434,7 @@
     </row>
     <row r="12" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="85"/>
-      <c r="B12" s="263"/>
+      <c r="B12" s="258"/>
       <c r="C12" s="256"/>
       <c r="D12" s="94" t="s">
         <v>633</v>
@@ -8460,7 +8472,7 @@
     </row>
     <row r="13" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="85"/>
-      <c r="B13" s="263"/>
+      <c r="B13" s="258"/>
       <c r="C13" s="256"/>
       <c r="D13" s="94" t="s">
         <v>634</v>
@@ -8498,7 +8510,7 @@
     </row>
     <row r="14" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="85"/>
-      <c r="B14" s="263"/>
+      <c r="B14" s="258"/>
       <c r="C14" s="256"/>
       <c r="D14" s="94" t="s">
         <v>635</v>
@@ -8522,7 +8534,7 @@
     </row>
     <row r="15" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="85"/>
-      <c r="B15" s="263"/>
+      <c r="B15" s="258"/>
       <c r="C15" s="256"/>
       <c r="D15" s="94" t="s">
         <v>636</v>
@@ -8544,7 +8556,7 @@
     </row>
     <row r="16" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="85"/>
-      <c r="B16" s="263"/>
+      <c r="B16" s="258"/>
       <c r="C16" s="256"/>
       <c r="D16" s="94" t="s">
         <v>637</v>
@@ -8570,7 +8582,7 @@
     </row>
     <row r="17" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="85"/>
-      <c r="B17" s="263" t="s">
+      <c r="B17" s="258" t="s">
         <v>550</v>
       </c>
       <c r="C17" s="256" t="s">
@@ -8600,7 +8612,7 @@
     </row>
     <row r="18" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="85"/>
-      <c r="B18" s="263"/>
+      <c r="B18" s="258"/>
       <c r="C18" s="256"/>
       <c r="D18" s="94" t="s">
         <v>553</v>
@@ -8620,7 +8632,7 @@
     </row>
     <row r="19" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="85"/>
-      <c r="B19" s="263"/>
+      <c r="B19" s="258"/>
       <c r="C19" s="256"/>
       <c r="D19" s="94" t="s">
         <v>554</v>
@@ -8644,7 +8656,7 @@
     </row>
     <row r="20" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="85"/>
-      <c r="B20" s="263"/>
+      <c r="B20" s="258"/>
       <c r="C20" s="256"/>
       <c r="D20" s="94" t="s">
         <v>555</v>
@@ -8664,7 +8676,7 @@
     </row>
     <row r="21" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="85"/>
-      <c r="B21" s="263"/>
+      <c r="B21" s="258"/>
       <c r="C21" s="256"/>
       <c r="D21" s="94" t="s">
         <v>556</v>
@@ -8688,7 +8700,7 @@
     </row>
     <row r="22" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="85"/>
-      <c r="B22" s="263"/>
+      <c r="B22" s="258"/>
       <c r="C22" s="256"/>
       <c r="D22" s="94" t="s">
         <v>557</v>
@@ -8710,7 +8722,7 @@
     </row>
     <row r="23" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="85"/>
-      <c r="B23" s="263"/>
+      <c r="B23" s="258"/>
       <c r="C23" s="256"/>
       <c r="D23" s="94" t="s">
         <v>558</v>
@@ -8734,7 +8746,7 @@
     </row>
     <row r="24" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="85"/>
-      <c r="B24" s="263"/>
+      <c r="B24" s="258"/>
       <c r="C24" s="13" t="s">
         <v>559</v>
       </c>
@@ -8774,7 +8786,7 @@
     </row>
     <row r="25" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="85"/>
-      <c r="B25" s="263" t="s">
+      <c r="B25" s="258" t="s">
         <v>560</v>
       </c>
       <c r="C25" s="256" t="s">
@@ -8802,7 +8814,7 @@
     </row>
     <row r="26" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="85"/>
-      <c r="B26" s="263"/>
+      <c r="B26" s="258"/>
       <c r="C26" s="256"/>
       <c r="D26" s="94" t="s">
         <v>563</v>
@@ -8826,7 +8838,7 @@
     </row>
     <row r="27" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="85"/>
-      <c r="B27" s="263"/>
+      <c r="B27" s="258"/>
       <c r="C27" s="256"/>
       <c r="D27" s="94" t="s">
         <v>564</v>
@@ -8848,7 +8860,7 @@
     </row>
     <row r="28" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="85"/>
-      <c r="B28" s="263"/>
+      <c r="B28" s="258"/>
       <c r="C28" s="256" t="s">
         <v>565</v>
       </c>
@@ -8878,7 +8890,7 @@
     </row>
     <row r="29" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="85"/>
-      <c r="B29" s="263"/>
+      <c r="B29" s="258"/>
       <c r="C29" s="256"/>
       <c r="D29" s="94" t="s">
         <v>567</v>
@@ -8902,7 +8914,7 @@
     </row>
     <row r="30" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="85"/>
-      <c r="B30" s="263"/>
+      <c r="B30" s="258"/>
       <c r="C30" s="256"/>
       <c r="D30" s="94" t="s">
         <v>568</v>
@@ -8932,7 +8944,7 @@
     </row>
     <row r="31" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="85"/>
-      <c r="B31" s="263"/>
+      <c r="B31" s="258"/>
       <c r="C31" s="256"/>
       <c r="D31" s="95" t="s">
         <v>569</v>
@@ -8964,7 +8976,7 @@
     </row>
     <row r="32" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="85"/>
-      <c r="B32" s="263"/>
+      <c r="B32" s="258"/>
       <c r="C32" s="256"/>
       <c r="D32" s="94" t="s">
         <v>570</v>
@@ -8988,7 +9000,7 @@
     </row>
     <row r="33" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="85"/>
-      <c r="B33" s="263"/>
+      <c r="B33" s="258"/>
       <c r="C33" s="256" t="s">
         <v>571</v>
       </c>
@@ -9012,7 +9024,7 @@
     </row>
     <row r="34" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="85"/>
-      <c r="B34" s="263"/>
+      <c r="B34" s="258"/>
       <c r="C34" s="256"/>
       <c r="D34" s="94" t="s">
         <v>573</v>
@@ -9036,7 +9048,7 @@
     </row>
     <row r="35" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="85"/>
-      <c r="B35" s="263" t="s">
+      <c r="B35" s="258" t="s">
         <v>574</v>
       </c>
       <c r="C35" s="256" t="s">
@@ -9060,7 +9072,7 @@
     </row>
     <row r="36" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="85"/>
-      <c r="B36" s="263"/>
+      <c r="B36" s="258"/>
       <c r="C36" s="256"/>
       <c r="D36" s="94" t="s">
         <v>577</v>
@@ -9080,7 +9092,7 @@
     </row>
     <row r="37" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="85"/>
-      <c r="B37" s="263"/>
+      <c r="B37" s="258"/>
       <c r="C37" s="256"/>
       <c r="D37" s="94" t="s">
         <v>578</v>
@@ -9100,7 +9112,7 @@
     </row>
     <row r="38" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="85"/>
-      <c r="B38" s="263"/>
+      <c r="B38" s="258"/>
       <c r="C38" s="256" t="s">
         <v>579</v>
       </c>
@@ -9122,7 +9134,7 @@
     </row>
     <row r="39" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="85"/>
-      <c r="B39" s="263"/>
+      <c r="B39" s="258"/>
       <c r="C39" s="256"/>
       <c r="D39" s="94" t="s">
         <v>581</v>
@@ -9146,7 +9158,7 @@
     </row>
     <row r="40" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="85"/>
-      <c r="B40" s="263"/>
+      <c r="B40" s="258"/>
       <c r="C40" s="256"/>
       <c r="D40" s="94" t="s">
         <v>582</v>
@@ -9172,7 +9184,7 @@
     </row>
     <row r="41" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="85"/>
-      <c r="B41" s="263"/>
+      <c r="B41" s="258"/>
       <c r="C41" s="256"/>
       <c r="D41" s="94" t="s">
         <v>583</v>
@@ -9192,6 +9204,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="A5:XFD5"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="B6:N6"/>
+    <mergeCell ref="B8:B16"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="B17:B24"/>
+    <mergeCell ref="C17:C23"/>
     <mergeCell ref="B25:B34"/>
     <mergeCell ref="C25:C27"/>
     <mergeCell ref="C28:C32"/>
@@ -9199,18 +9223,6 @@
     <mergeCell ref="B35:B41"/>
     <mergeCell ref="C35:C37"/>
     <mergeCell ref="C38:C41"/>
-    <mergeCell ref="B6:N6"/>
-    <mergeCell ref="B8:B16"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="B17:B24"/>
-    <mergeCell ref="C17:C23"/>
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="B3:N3"/>
-    <mergeCell ref="A5:XFD5"/>
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:N4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -12429,66 +12441,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="118.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="162"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="164"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
+      <c r="I1" s="170"/>
     </row>
     <row r="2" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="173" t="s">
+      <c r="B2" s="178" t="s">
         <v>708</v>
       </c>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174"/>
-      <c r="H2" s="174"/>
-      <c r="I2" s="175"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="179"/>
+      <c r="F2" s="179"/>
+      <c r="G2" s="179"/>
+      <c r="H2" s="179"/>
+      <c r="I2" s="180"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="66"/>
-      <c r="B3" s="166" t="s">
+      <c r="B3" s="172" t="s">
         <v>540</v>
       </c>
-      <c r="C3" s="167"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="168"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="173"/>
+      <c r="F3" s="173"/>
+      <c r="G3" s="173"/>
+      <c r="H3" s="173"/>
+      <c r="I3" s="174"/>
       <c r="J3" s="66"/>
     </row>
     <row r="4" spans="1:10" s="74" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="73"/>
-      <c r="B4" s="177" t="s">
+      <c r="B4" s="162" t="s">
         <v>709</v>
       </c>
-      <c r="C4" s="178"/>
-      <c r="D4" s="179" t="s">
+      <c r="C4" s="163"/>
+      <c r="D4" s="164" t="s">
         <v>529</v>
       </c>
-      <c r="E4" s="180"/>
-      <c r="F4" s="179" t="s">
+      <c r="E4" s="165"/>
+      <c r="F4" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="180"/>
-      <c r="H4" s="179" t="s">
+      <c r="G4" s="165"/>
+      <c r="H4" s="164" t="s">
         <v>530</v>
       </c>
-      <c r="I4" s="180"/>
+      <c r="I4" s="165"/>
       <c r="J4" s="15"/>
     </row>
-    <row r="5" spans="1:10" s="165" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:10" s="171" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:10" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="170"/>
+      <c r="B6" s="166"/>
       <c r="C6" s="54" t="s">
         <v>858</v>
       </c>
@@ -12512,7 +12524,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="171"/>
+      <c r="B7" s="167"/>
       <c r="C7" s="120" t="s">
         <v>711</v>
       </c>
@@ -12536,7 +12548,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="160" t="s">
+      <c r="B8" s="157" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="62"/>
@@ -12556,7 +12568,7 @@
       <c r="I8" s="62"/>
     </row>
     <row r="9" spans="1:10" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="160"/>
+      <c r="B9" s="157"/>
       <c r="C9" s="62"/>
       <c r="D9" s="62"/>
       <c r="E9" s="62"/>
@@ -12568,7 +12580,7 @@
       <c r="I9" s="62"/>
     </row>
     <row r="10" spans="1:10" s="131" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="160"/>
+      <c r="B10" s="157"/>
       <c r="C10" s="62"/>
       <c r="D10" s="62"/>
       <c r="E10" s="62"/>
@@ -12580,7 +12592,7 @@
       <c r="I10" s="62"/>
     </row>
     <row r="11" spans="1:10" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="160"/>
+      <c r="B11" s="157"/>
       <c r="C11" s="62"/>
       <c r="D11" s="62"/>
       <c r="E11" s="62"/>
@@ -12592,7 +12604,7 @@
       <c r="I11" s="62"/>
     </row>
     <row r="12" spans="1:10" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="160"/>
+      <c r="B12" s="157"/>
       <c r="C12" s="62"/>
       <c r="D12" s="62"/>
       <c r="E12" s="62"/>
@@ -12604,7 +12616,7 @@
       <c r="I12" s="62"/>
     </row>
     <row r="13" spans="1:10" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="160"/>
+      <c r="B13" s="157"/>
       <c r="C13" s="62"/>
       <c r="D13" s="62"/>
       <c r="E13" s="62"/>
@@ -12616,7 +12628,7 @@
       <c r="I13" s="62"/>
     </row>
     <row r="14" spans="1:10" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="160"/>
+      <c r="B14" s="157"/>
       <c r="C14" s="62"/>
       <c r="D14" s="62"/>
       <c r="E14" s="62"/>
@@ -12628,7 +12640,7 @@
       <c r="I14" s="62"/>
     </row>
     <row r="15" spans="1:10" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="160"/>
+      <c r="B15" s="157"/>
       <c r="C15" s="62"/>
       <c r="D15" s="62"/>
       <c r="E15" s="62"/>
@@ -12640,7 +12652,7 @@
       <c r="I15" s="62"/>
     </row>
     <row r="16" spans="1:10" s="123" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="160"/>
+      <c r="B16" s="157"/>
       <c r="C16" s="62"/>
       <c r="D16" s="62"/>
       <c r="E16" s="62"/>
@@ -12652,7 +12664,7 @@
       <c r="I16" s="62"/>
     </row>
     <row r="17" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="160"/>
+      <c r="B17" s="157"/>
       <c r="C17" s="62"/>
       <c r="D17" s="62"/>
       <c r="E17" s="62"/>
@@ -12664,7 +12676,7 @@
       <c r="I17" s="62"/>
     </row>
     <row r="18" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="172" t="s">
+      <c r="B18" s="159" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="69"/>
@@ -12676,7 +12688,7 @@
       <c r="I18" s="7"/>
     </row>
     <row r="19" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="156"/>
+      <c r="B19" s="160"/>
       <c r="C19" s="71"/>
       <c r="D19" s="62"/>
       <c r="E19" s="70"/>
@@ -12686,7 +12698,7 @@
       <c r="I19" s="62"/>
     </row>
     <row r="20" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="156"/>
+      <c r="B20" s="160"/>
       <c r="C20" s="62"/>
       <c r="D20" s="62"/>
       <c r="E20" s="62"/>
@@ -12696,7 +12708,7 @@
       <c r="I20" s="62"/>
     </row>
     <row r="21" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="155" t="s">
+      <c r="B21" s="147" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="7"/>
@@ -12708,7 +12720,7 @@
       <c r="I21" s="7"/>
     </row>
     <row r="22" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="147"/>
+      <c r="B22" s="148"/>
       <c r="C22" s="62"/>
       <c r="D22" s="62"/>
       <c r="E22" s="62"/>
@@ -12718,7 +12730,7 @@
       <c r="I22" s="62"/>
     </row>
     <row r="23" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="147"/>
+      <c r="B23" s="148"/>
       <c r="C23" s="62"/>
       <c r="D23" s="62"/>
       <c r="E23" s="62"/>
@@ -12728,7 +12740,7 @@
       <c r="I23" s="62"/>
     </row>
     <row r="24" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="159" t="s">
+      <c r="B24" s="150" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="7"/>
@@ -12740,7 +12752,7 @@
       <c r="I24" s="7"/>
     </row>
     <row r="25" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="149"/>
+      <c r="B25" s="151"/>
       <c r="C25" s="62"/>
       <c r="D25" s="62"/>
       <c r="E25" s="62"/>
@@ -12750,7 +12762,7 @@
       <c r="I25" s="62"/>
     </row>
     <row r="26" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="149"/>
+      <c r="B26" s="151"/>
       <c r="C26" s="62"/>
       <c r="D26" s="62"/>
       <c r="E26" s="62"/>
@@ -12760,7 +12772,7 @@
       <c r="I26" s="62"/>
     </row>
     <row r="27" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="158" t="s">
+      <c r="B27" s="153" t="s">
         <v>12</v>
       </c>
       <c r="C27" s="7"/>
@@ -12772,7 +12784,7 @@
       <c r="I27" s="7"/>
     </row>
     <row r="28" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="151"/>
+      <c r="B28" s="154"/>
       <c r="C28" s="62"/>
       <c r="D28" s="62"/>
       <c r="E28" s="62"/>
@@ -12782,7 +12794,7 @@
       <c r="I28" s="62"/>
     </row>
     <row r="29" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="151"/>
+      <c r="B29" s="154"/>
       <c r="C29" s="62"/>
       <c r="D29" s="62"/>
       <c r="E29" s="62"/>
@@ -12792,7 +12804,7 @@
       <c r="I29" s="62"/>
     </row>
     <row r="30" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="169" t="s">
+      <c r="B30" s="175" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="59"/>
@@ -12804,7 +12816,7 @@
       <c r="I30" s="7"/>
     </row>
     <row r="31" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="153"/>
+      <c r="B31" s="176"/>
       <c r="C31" s="62"/>
       <c r="D31" s="62"/>
       <c r="E31" s="62"/>
@@ -12814,7 +12826,7 @@
       <c r="I31" s="62"/>
     </row>
     <row r="32" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="153"/>
+      <c r="B32" s="176"/>
       <c r="C32" s="62"/>
       <c r="D32" s="62"/>
       <c r="E32" s="62"/>
@@ -12825,7 +12837,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
-      <c r="B33" s="170"/>
+      <c r="B33" s="166"/>
       <c r="C33" s="54" t="s">
         <v>712</v>
       </c>
@@ -12851,7 +12863,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
-      <c r="B34" s="171"/>
+      <c r="B34" s="167"/>
       <c r="C34" s="120" t="s">
         <v>711</v>
       </c>
@@ -12877,7 +12889,7 @@
     </row>
     <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
-      <c r="B35" s="176" t="s">
+      <c r="B35" s="156" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="62" t="s">
@@ -12901,7 +12913,7 @@
     </row>
     <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="119"/>
-      <c r="B36" s="160"/>
+      <c r="B36" s="157"/>
       <c r="C36" s="62" t="s">
         <v>870</v>
       </c>
@@ -12921,7 +12933,7 @@
     </row>
     <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="119"/>
-      <c r="B37" s="160"/>
+      <c r="B37" s="157"/>
       <c r="C37" s="62" t="s">
         <v>869</v>
       </c>
@@ -12937,7 +12949,7 @@
     </row>
     <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="119"/>
-      <c r="B38" s="160"/>
+      <c r="B38" s="157"/>
       <c r="C38" s="62" t="s">
         <v>878</v>
       </c>
@@ -12951,7 +12963,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
-      <c r="B39" s="160"/>
+      <c r="B39" s="157"/>
       <c r="C39" s="125" t="s">
         <v>882</v>
       </c>
@@ -12965,7 +12977,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="123"/>
-      <c r="B40" s="160"/>
+      <c r="B40" s="157"/>
       <c r="C40" s="60" t="s">
         <v>883</v>
       </c>
@@ -12979,7 +12991,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="123"/>
-      <c r="B41" s="160"/>
+      <c r="B41" s="157"/>
       <c r="C41" s="60" t="s">
         <v>884</v>
       </c>
@@ -12993,7 +13005,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="124"/>
-      <c r="B42" s="160"/>
+      <c r="B42" s="157"/>
       <c r="C42" s="60" t="s">
         <v>887</v>
       </c>
@@ -13007,7 +13019,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="124"/>
-      <c r="B43" s="160"/>
+      <c r="B43" s="157"/>
       <c r="C43" s="60" t="s">
         <v>892</v>
       </c>
@@ -13021,7 +13033,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="126"/>
-      <c r="B44" s="160"/>
+      <c r="B44" s="157"/>
       <c r="C44" s="60" t="s">
         <v>907</v>
       </c>
@@ -13035,7 +13047,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
-      <c r="B45" s="161"/>
+      <c r="B45" s="158"/>
       <c r="C45" s="62" t="s">
         <v>898</v>
       </c>
@@ -13049,7 +13061,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
-      <c r="B46" s="172" t="s">
+      <c r="B46" s="159" t="s">
         <v>9</v>
       </c>
       <c r="C46" s="69"/>
@@ -13065,7 +13077,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
-      <c r="B47" s="156"/>
+      <c r="B47" s="160"/>
       <c r="C47" s="71"/>
       <c r="D47" s="5"/>
       <c r="E47" s="70"/>
@@ -13077,7 +13089,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
-      <c r="B48" s="156"/>
+      <c r="B48" s="160"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -13089,7 +13101,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
-      <c r="B49" s="155" t="s">
+      <c r="B49" s="147" t="s">
         <v>10</v>
       </c>
       <c r="C49" s="7"/>
@@ -13103,7 +13115,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
-      <c r="B50" s="147"/>
+      <c r="B50" s="148"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
@@ -13115,7 +13127,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
-      <c r="B51" s="147"/>
+      <c r="B51" s="148"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
@@ -13127,7 +13139,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
-      <c r="B52" s="159" t="s">
+      <c r="B52" s="150" t="s">
         <v>11</v>
       </c>
       <c r="C52" s="7"/>
@@ -13141,7 +13153,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
-      <c r="B53" s="149"/>
+      <c r="B53" s="151"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
@@ -13153,7 +13165,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
-      <c r="B54" s="149"/>
+      <c r="B54" s="151"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
@@ -13165,7 +13177,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
-      <c r="B55" s="158" t="s">
+      <c r="B55" s="153" t="s">
         <v>12</v>
       </c>
       <c r="C55" s="7"/>
@@ -13179,7 +13191,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
-      <c r="B56" s="151"/>
+      <c r="B56" s="154"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
@@ -13191,7 +13203,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
-      <c r="B57" s="151"/>
+      <c r="B57" s="154"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
@@ -13203,7 +13215,7 @@
     </row>
     <row r="58" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
-      <c r="B58" s="169" t="s">
+      <c r="B58" s="175" t="s">
         <v>13</v>
       </c>
       <c r="C58" s="59"/>
@@ -13217,7 +13229,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
-      <c r="B59" s="153"/>
+      <c r="B59" s="176"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
@@ -13229,7 +13241,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
-      <c r="B60" s="153"/>
+      <c r="B60" s="176"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
@@ -13293,7 +13305,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
-      <c r="B63" s="176" t="s">
+      <c r="B63" s="156" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="7" t="s">
@@ -13315,7 +13327,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
-      <c r="B64" s="160"/>
+      <c r="B64" s="157"/>
       <c r="C64" s="5" t="s">
         <v>933</v>
       </c>
@@ -13333,7 +13345,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="132"/>
-      <c r="B65" s="160"/>
+      <c r="B65" s="157"/>
       <c r="C65" s="62" t="s">
         <v>999</v>
       </c>
@@ -13347,7 +13359,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
-      <c r="B66" s="161"/>
+      <c r="B66" s="158"/>
       <c r="C66" s="6" t="s">
         <v>996</v>
       </c>
@@ -13361,7 +13373,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
-      <c r="B67" s="172" t="s">
+      <c r="B67" s="159" t="s">
         <v>9</v>
       </c>
       <c r="C67" s="7" t="s">
@@ -13385,7 +13397,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
-      <c r="B68" s="156"/>
+      <c r="B68" s="160"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5" t="s">
@@ -13403,7 +13415,7 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="123"/>
-      <c r="B69" s="156"/>
+      <c r="B69" s="160"/>
       <c r="C69" s="62"/>
       <c r="D69" s="62"/>
       <c r="E69" s="62" t="s">
@@ -13419,7 +13431,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="124"/>
-      <c r="B70" s="156"/>
+      <c r="B70" s="160"/>
       <c r="C70" s="62"/>
       <c r="D70" s="62"/>
       <c r="E70" s="62" t="s">
@@ -13435,7 +13447,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="124"/>
-      <c r="B71" s="156"/>
+      <c r="B71" s="160"/>
       <c r="C71" s="62"/>
       <c r="D71" s="62"/>
       <c r="E71" s="62"/>
@@ -13446,7 +13458,7 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="124"/>
-      <c r="B72" s="156"/>
+      <c r="B72" s="160"/>
       <c r="C72" s="62"/>
       <c r="D72" s="62"/>
       <c r="E72" s="62"/>
@@ -13458,7 +13470,7 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
-      <c r="B73" s="157"/>
+      <c r="B73" s="161"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
@@ -13470,7 +13482,7 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
-      <c r="B74" s="155" t="s">
+      <c r="B74" s="147" t="s">
         <v>10</v>
       </c>
       <c r="C74" s="7"/>
@@ -13484,7 +13496,7 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
-      <c r="B75" s="147"/>
+      <c r="B75" s="148"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -13496,7 +13508,7 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
-      <c r="B76" s="148"/>
+      <c r="B76" s="149"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
@@ -13508,7 +13520,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
-      <c r="B77" s="159" t="s">
+      <c r="B77" s="150" t="s">
         <v>11</v>
       </c>
       <c r="C77" s="7"/>
@@ -13522,7 +13534,7 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
-      <c r="B78" s="149"/>
+      <c r="B78" s="151"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -13534,7 +13546,7 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
-      <c r="B79" s="150"/>
+      <c r="B79" s="152"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
@@ -13546,7 +13558,7 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
-      <c r="B80" s="158" t="s">
+      <c r="B80" s="153" t="s">
         <v>12</v>
       </c>
       <c r="C80" s="7"/>
@@ -13560,7 +13572,7 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
-      <c r="B81" s="151"/>
+      <c r="B81" s="154"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -13572,7 +13584,7 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
-      <c r="B82" s="152"/>
+      <c r="B82" s="155"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
@@ -13584,7 +13596,7 @@
     </row>
     <row r="83" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
-      <c r="B83" s="169" t="s">
+      <c r="B83" s="175" t="s">
         <v>13</v>
       </c>
       <c r="C83" s="7"/>
@@ -13598,7 +13610,7 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
-      <c r="B84" s="153"/>
+      <c r="B84" s="176"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -13610,7 +13622,7 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
-      <c r="B85" s="154"/>
+      <c r="B85" s="177"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
@@ -13674,7 +13686,7 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
-      <c r="B88" s="176" t="s">
+      <c r="B88" s="156" t="s">
         <v>8</v>
       </c>
       <c r="C88" s="7" t="s">
@@ -13690,7 +13702,7 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
-      <c r="B89" s="160"/>
+      <c r="B89" s="157"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -13702,7 +13714,7 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
-      <c r="B90" s="161"/>
+      <c r="B90" s="158"/>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
@@ -13714,7 +13726,7 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
-      <c r="B91" s="172" t="s">
+      <c r="B91" s="159" t="s">
         <v>9</v>
       </c>
       <c r="C91" s="7" t="s">
@@ -13736,7 +13748,7 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
-      <c r="B92" s="156"/>
+      <c r="B92" s="160"/>
       <c r="C92" s="5" t="s">
         <v>862</v>
       </c>
@@ -13756,7 +13768,7 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="123"/>
-      <c r="B93" s="156"/>
+      <c r="B93" s="160"/>
       <c r="C93" s="62" t="s">
         <v>881</v>
       </c>
@@ -13776,7 +13788,7 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="124"/>
-      <c r="B94" s="156"/>
+      <c r="B94" s="160"/>
       <c r="C94" s="62" t="s">
         <v>889</v>
       </c>
@@ -13794,7 +13806,7 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="124"/>
-      <c r="B95" s="156"/>
+      <c r="B95" s="160"/>
       <c r="C95" s="62" t="s">
         <v>897</v>
       </c>
@@ -13810,7 +13822,7 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="124"/>
-      <c r="B96" s="156"/>
+      <c r="B96" s="160"/>
       <c r="C96" s="62" t="s">
         <v>907</v>
       </c>
@@ -13826,7 +13838,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="126"/>
-      <c r="B97" s="156"/>
+      <c r="B97" s="160"/>
       <c r="C97" s="60" t="s">
         <v>899</v>
       </c>
@@ -13840,7 +13852,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
-      <c r="B98" s="157"/>
+      <c r="B98" s="161"/>
       <c r="D98" s="6"/>
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
@@ -13851,7 +13863,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
-      <c r="B99" s="155" t="s">
+      <c r="B99" s="147" t="s">
         <v>10</v>
       </c>
       <c r="C99" s="7"/>
@@ -13865,7 +13877,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
-      <c r="B100" s="147"/>
+      <c r="B100" s="148"/>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
@@ -13877,7 +13889,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
-      <c r="B101" s="148"/>
+      <c r="B101" s="149"/>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
       <c r="E101" s="6"/>
@@ -13889,7 +13901,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
-      <c r="B102" s="159" t="s">
+      <c r="B102" s="150" t="s">
         <v>11</v>
       </c>
       <c r="C102" s="7"/>
@@ -13903,7 +13915,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
-      <c r="B103" s="149"/>
+      <c r="B103" s="151"/>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
@@ -13915,7 +13927,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
-      <c r="B104" s="150"/>
+      <c r="B104" s="152"/>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
       <c r="E104" s="6"/>
@@ -13927,7 +13939,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
-      <c r="B105" s="158" t="s">
+      <c r="B105" s="153" t="s">
         <v>12</v>
       </c>
       <c r="C105" s="7"/>
@@ -13941,7 +13953,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
-      <c r="B106" s="151"/>
+      <c r="B106" s="154"/>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
@@ -13953,7 +13965,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
-      <c r="B107" s="152"/>
+      <c r="B107" s="155"/>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
       <c r="E107" s="6"/>
@@ -13966,7 +13978,7 @@
     </row>
     <row r="108" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
-      <c r="B108" s="169" t="s">
+      <c r="B108" s="175" t="s">
         <v>13</v>
       </c>
       <c r="C108" s="7"/>
@@ -13981,7 +13993,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
-      <c r="B109" s="153"/>
+      <c r="B109" s="176"/>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
@@ -13994,7 +14006,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
-      <c r="B110" s="154"/>
+      <c r="B110" s="177"/>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
       <c r="E110" s="6"/>
@@ -14061,7 +14073,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
-      <c r="B113" s="160" t="s">
+      <c r="B113" s="157" t="s">
         <v>8</v>
       </c>
       <c r="C113" s="5" t="s">
@@ -14086,7 +14098,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
-      <c r="B114" s="160"/>
+      <c r="B114" s="157"/>
       <c r="C114" s="5" t="s">
         <v>1018</v>
       </c>
@@ -14101,7 +14113,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
-      <c r="B115" s="161"/>
+      <c r="B115" s="158"/>
       <c r="C115" s="6" t="s">
         <v>1041</v>
       </c>
@@ -14116,7 +14128,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
-      <c r="B116" s="156" t="s">
+      <c r="B116" s="160" t="s">
         <v>9</v>
       </c>
       <c r="C116" s="5" t="s">
@@ -14141,7 +14153,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
-      <c r="B117" s="156"/>
+      <c r="B117" s="160"/>
       <c r="C117" s="5"/>
       <c r="D117" s="5" t="s">
         <v>931</v>
@@ -14156,7 +14168,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
-      <c r="B118" s="157"/>
+      <c r="B118" s="161"/>
       <c r="C118" s="6"/>
       <c r="D118" s="6"/>
       <c r="E118" s="6"/>
@@ -14169,7 +14181,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
-      <c r="B119" s="147" t="s">
+      <c r="B119" s="148" t="s">
         <v>10</v>
       </c>
       <c r="C119" s="5"/>
@@ -14186,7 +14198,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
-      <c r="B120" s="147"/>
+      <c r="B120" s="148"/>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
@@ -14199,7 +14211,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
-      <c r="B121" s="148"/>
+      <c r="B121" s="149"/>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
       <c r="E121" s="6"/>
@@ -14212,7 +14224,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
-      <c r="B122" s="149" t="s">
+      <c r="B122" s="151" t="s">
         <v>11</v>
       </c>
       <c r="C122" s="5"/>
@@ -14227,7 +14239,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
-      <c r="B123" s="149"/>
+      <c r="B123" s="151"/>
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
@@ -14240,7 +14252,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
-      <c r="B124" s="150"/>
+      <c r="B124" s="152"/>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
       <c r="E124" s="6"/>
@@ -14253,7 +14265,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
-      <c r="B125" s="151" t="s">
+      <c r="B125" s="154" t="s">
         <v>12</v>
       </c>
       <c r="C125" s="5"/>
@@ -14268,7 +14280,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
-      <c r="B126" s="151"/>
+      <c r="B126" s="154"/>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
@@ -14281,7 +14293,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
-      <c r="B127" s="152"/>
+      <c r="B127" s="155"/>
       <c r="C127" s="6"/>
       <c r="D127" s="6"/>
       <c r="E127" s="6"/>
@@ -14293,7 +14305,7 @@
     </row>
     <row r="128" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
-      <c r="B128" s="153" t="s">
+      <c r="B128" s="176" t="s">
         <v>13</v>
       </c>
       <c r="C128" s="5"/>
@@ -14307,7 +14319,7 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
-      <c r="B129" s="153"/>
+      <c r="B129" s="176"/>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
@@ -14319,7 +14331,7 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="1"/>
-      <c r="B130" s="154"/>
+      <c r="B130" s="177"/>
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
       <c r="E130" s="6"/>
@@ -16857,21 +16869,15 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="B91:B98"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="B67:B73"/>
-    <mergeCell ref="B35:B45"/>
-    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B119:B121"/>
+    <mergeCell ref="B122:B124"/>
+    <mergeCell ref="B125:B127"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="B116:B118"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="B102:B104"/>
+    <mergeCell ref="B113:B115"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="A5:XFD5"/>
     <mergeCell ref="B3:I3"/>
@@ -16888,15 +16894,21 @@
     <mergeCell ref="B83:B85"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B52:B54"/>
-    <mergeCell ref="B119:B121"/>
-    <mergeCell ref="B122:B124"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="B116:B118"/>
-    <mergeCell ref="B105:B107"/>
-    <mergeCell ref="B102:B104"/>
-    <mergeCell ref="B113:B115"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="B67:B73"/>
+    <mergeCell ref="B35:B45"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="B91:B98"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -16928,41 +16940,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="119.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="162"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="164"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
+      <c r="I1" s="170"/>
     </row>
     <row r="2" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="173" t="s">
+      <c r="B2" s="178" t="s">
         <v>741</v>
       </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="193"/>
-      <c r="I2" s="194"/>
+      <c r="C2" s="191"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="192"/>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="66"/>
-      <c r="B3" s="166" t="s">
+      <c r="B3" s="172" t="s">
         <v>540</v>
       </c>
-      <c r="C3" s="167"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="168"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="173"/>
+      <c r="F3" s="173"/>
+      <c r="G3" s="173"/>
+      <c r="H3" s="173"/>
+      <c r="I3" s="174"/>
       <c r="J3" s="66"/>
     </row>
     <row r="4" spans="1:10" s="75" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -16971,24 +16983,24 @@
         <v>847</v>
       </c>
       <c r="C4" s="196"/>
-      <c r="D4" s="179" t="s">
+      <c r="D4" s="164" t="s">
         <v>544</v>
       </c>
-      <c r="E4" s="180"/>
-      <c r="F4" s="179" t="s">
+      <c r="E4" s="165"/>
+      <c r="F4" s="164" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="197"/>
-      <c r="H4" s="179" t="s">
+      <c r="H4" s="164" t="s">
         <v>529</v>
       </c>
-      <c r="I4" s="180"/>
+      <c r="I4" s="165"/>
       <c r="J4" s="73"/>
     </row>
-    <row r="5" spans="1:10" s="165" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:10" s="171" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="170"/>
+      <c r="B6" s="166"/>
       <c r="C6" s="54" t="s">
         <v>742</v>
       </c>
@@ -17014,7 +17026,7 @@
     </row>
     <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="171"/>
+      <c r="B7" s="167"/>
       <c r="C7" s="55" t="s">
         <v>1</v>
       </c>
@@ -17078,7 +17090,7 @@
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="191" t="s">
+      <c r="B11" s="181" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="11"/>
@@ -17092,7 +17104,7 @@
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="191"/>
+      <c r="B12" s="181"/>
       <c r="C12" s="11"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -17104,7 +17116,7 @@
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="192"/>
+      <c r="B13" s="182"/>
       <c r="C13" s="10"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -17230,7 +17242,7 @@
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="181" t="s">
+      <c r="B23" s="193" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="11"/>
@@ -17244,7 +17256,7 @@
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="181"/>
+      <c r="B24" s="193"/>
       <c r="C24" s="11"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -17256,7 +17268,7 @@
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
-      <c r="B25" s="182"/>
+      <c r="B25" s="194"/>
       <c r="C25" s="10"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -17362,7 +17374,7 @@
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
-      <c r="B31" s="191" t="s">
+      <c r="B31" s="181" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="11"/>
@@ -17384,7 +17396,7 @@
     </row>
     <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
-      <c r="B32" s="191"/>
+      <c r="B32" s="181"/>
       <c r="C32" s="11"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5" t="s">
@@ -17400,7 +17412,7 @@
     </row>
     <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="134"/>
-      <c r="B33" s="191"/>
+      <c r="B33" s="181"/>
       <c r="C33" s="11"/>
       <c r="D33" s="62"/>
       <c r="F33" s="62"/>
@@ -17411,7 +17423,7 @@
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="133"/>
-      <c r="B34" s="191"/>
+      <c r="B34" s="181"/>
       <c r="C34" s="11"/>
       <c r="D34" s="62"/>
       <c r="E34" s="62" t="s">
@@ -17427,7 +17439,7 @@
     </row>
     <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
-      <c r="B35" s="192"/>
+      <c r="B35" s="182"/>
       <c r="C35" s="10"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6" t="s">
@@ -17557,7 +17569,7 @@
     </row>
     <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
-      <c r="B45" s="181" t="s">
+      <c r="B45" s="193" t="s">
         <v>13</v>
       </c>
       <c r="C45" s="11"/>
@@ -17571,7 +17583,7 @@
     </row>
     <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
-      <c r="B46" s="181"/>
+      <c r="B46" s="193"/>
       <c r="C46" s="11"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
@@ -17583,7 +17595,7 @@
     </row>
     <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
-      <c r="B47" s="182"/>
+      <c r="B47" s="194"/>
       <c r="C47" s="10"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
@@ -17685,7 +17697,7 @@
     </row>
     <row r="53" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
-      <c r="B53" s="191" t="s">
+      <c r="B53" s="181" t="s">
         <v>9</v>
       </c>
       <c r="C53" s="62" t="s">
@@ -17707,7 +17719,7 @@
     </row>
     <row r="54" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
-      <c r="B54" s="191"/>
+      <c r="B54" s="181"/>
       <c r="C54" s="11"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
@@ -17719,7 +17731,7 @@
     </row>
     <row r="55" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
-      <c r="B55" s="192"/>
+      <c r="B55" s="182"/>
       <c r="C55" s="10"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
@@ -17846,7 +17858,7 @@
     </row>
     <row r="65" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
-      <c r="B65" s="181" t="s">
+      <c r="B65" s="193" t="s">
         <v>13</v>
       </c>
       <c r="C65" s="11"/>
@@ -17860,7 +17872,7 @@
     </row>
     <row r="66" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
-      <c r="B66" s="181"/>
+      <c r="B66" s="193"/>
       <c r="C66" s="11"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
@@ -17875,7 +17887,7 @@
     </row>
     <row r="67" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
-      <c r="B67" s="182"/>
+      <c r="B67" s="194"/>
       <c r="C67" s="10"/>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
@@ -17995,7 +18007,7 @@
     </row>
     <row r="73" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
-      <c r="B73" s="191" t="s">
+      <c r="B73" s="181" t="s">
         <v>9</v>
       </c>
       <c r="C73" s="11"/>
@@ -18014,7 +18026,7 @@
     </row>
     <row r="74" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
-      <c r="B74" s="191"/>
+      <c r="B74" s="181"/>
       <c r="C74" s="11"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
@@ -18029,7 +18041,7 @@
     </row>
     <row r="75" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
-      <c r="B75" s="192"/>
+      <c r="B75" s="182"/>
       <c r="C75" s="10"/>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
@@ -18185,7 +18197,7 @@
     </row>
     <row r="85" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
-      <c r="B85" s="181" t="s">
+      <c r="B85" s="193" t="s">
         <v>13</v>
       </c>
       <c r="C85" s="11"/>
@@ -18202,7 +18214,7 @@
     </row>
     <row r="86" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
-      <c r="B86" s="181"/>
+      <c r="B86" s="193"/>
       <c r="C86" s="11"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
@@ -18217,7 +18229,7 @@
     </row>
     <row r="87" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
-      <c r="B87" s="182"/>
+      <c r="B87" s="194"/>
       <c r="C87" s="10"/>
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
@@ -18325,7 +18337,7 @@
     </row>
     <row r="93" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
-      <c r="B93" s="191" t="s">
+      <c r="B93" s="181" t="s">
         <v>9</v>
       </c>
       <c r="C93" s="11"/>
@@ -18339,7 +18351,7 @@
     </row>
     <row r="94" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
-      <c r="B94" s="191"/>
+      <c r="B94" s="181"/>
       <c r="C94" s="11"/>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
@@ -18351,7 +18363,7 @@
     </row>
     <row r="95" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
-      <c r="B95" s="192"/>
+      <c r="B95" s="182"/>
       <c r="C95" s="10"/>
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
@@ -18477,7 +18489,7 @@
     </row>
     <row r="105" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
-      <c r="B105" s="181" t="s">
+      <c r="B105" s="193" t="s">
         <v>13</v>
       </c>
       <c r="C105" s="11"/>
@@ -18491,7 +18503,7 @@
     </row>
     <row r="106" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
-      <c r="B106" s="181"/>
+      <c r="B106" s="193"/>
       <c r="C106" s="11"/>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
@@ -18503,7 +18515,7 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
-      <c r="B107" s="182"/>
+      <c r="B107" s="194"/>
       <c r="C107" s="68"/>
       <c r="D107" s="6"/>
       <c r="E107" s="6"/>
@@ -22769,13 +22781,22 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="A5:XFD5"/>
+    <mergeCell ref="B96:B98"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="B102:B104"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="B90:B92"/>
+    <mergeCell ref="B93:B95"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B62:B64"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="B23:B25"/>
@@ -22792,22 +22813,13 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B105:B107"/>
-    <mergeCell ref="A5:XFD5"/>
-    <mergeCell ref="B96:B98"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="B102:B104"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="B82:B84"/>
-    <mergeCell ref="B90:B92"/>
-    <mergeCell ref="B93:B95"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="B70:B72"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -22850,30 +22862,30 @@
     </row>
     <row r="2" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="173" t="s">
+      <c r="B2" s="178" t="s">
         <v>778</v>
       </c>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174"/>
-      <c r="H2" s="174"/>
-      <c r="I2" s="175"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="179"/>
+      <c r="F2" s="179"/>
+      <c r="G2" s="179"/>
+      <c r="H2" s="179"/>
+      <c r="I2" s="180"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="66"/>
-      <c r="B3" s="166" t="s">
+      <c r="B3" s="172" t="s">
         <v>540</v>
       </c>
-      <c r="C3" s="167"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="168"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="173"/>
+      <c r="F3" s="173"/>
+      <c r="G3" s="173"/>
+      <c r="H3" s="173"/>
+      <c r="I3" s="174"/>
       <c r="J3" s="66"/>
     </row>
     <row r="4" spans="1:10" s="76" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -22882,24 +22894,24 @@
         <v>849</v>
       </c>
       <c r="C4" s="196"/>
-      <c r="D4" s="179" t="s">
+      <c r="D4" s="164" t="s">
         <v>545</v>
       </c>
-      <c r="E4" s="180"/>
-      <c r="F4" s="179" t="s">
+      <c r="E4" s="165"/>
+      <c r="F4" s="164" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="197"/>
-      <c r="H4" s="179" t="s">
+      <c r="H4" s="164" t="s">
         <v>529</v>
       </c>
-      <c r="I4" s="180"/>
+      <c r="I4" s="165"/>
       <c r="J4" s="73"/>
     </row>
-    <row r="5" spans="1:10" s="165" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:10" s="171" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="170"/>
+      <c r="B6" s="166"/>
       <c r="C6" s="103" t="s">
         <v>779</v>
       </c>
@@ -22925,7 +22937,7 @@
     </row>
     <row r="7" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="171"/>
+      <c r="B7" s="167"/>
       <c r="C7" s="104" t="s">
         <v>780</v>
       </c>
@@ -22951,7 +22963,7 @@
     </row>
     <row r="8" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="160" t="s">
+      <c r="B8" s="157" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="5"/>
@@ -22965,7 +22977,7 @@
     </row>
     <row r="9" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="160"/>
+      <c r="B9" s="157"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -22977,7 +22989,7 @@
     </row>
     <row r="10" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="161"/>
+      <c r="B10" s="158"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -22989,7 +23001,7 @@
     </row>
     <row r="11" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="156" t="s">
+      <c r="B11" s="160" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="5"/>
@@ -23003,7 +23015,7 @@
     </row>
     <row r="12" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="156"/>
+      <c r="B12" s="160"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -23015,7 +23027,7 @@
     </row>
     <row r="13" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="157"/>
+      <c r="B13" s="161"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -23027,7 +23039,7 @@
     </row>
     <row r="14" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="147" t="s">
+      <c r="B14" s="148" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="5"/>
@@ -23041,7 +23053,7 @@
     </row>
     <row r="15" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="147"/>
+      <c r="B15" s="148"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -23053,7 +23065,7 @@
     </row>
     <row r="16" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="148"/>
+      <c r="B16" s="149"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -23065,7 +23077,7 @@
     </row>
     <row r="17" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="149" t="s">
+      <c r="B17" s="151" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="5"/>
@@ -23079,7 +23091,7 @@
     </row>
     <row r="18" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="149"/>
+      <c r="B18" s="151"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -23091,7 +23103,7 @@
     </row>
     <row r="19" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="150"/>
+      <c r="B19" s="152"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -23103,7 +23115,7 @@
     </row>
     <row r="20" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="151" t="s">
+      <c r="B20" s="154" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="5"/>
@@ -23117,7 +23129,7 @@
     </row>
     <row r="21" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="151"/>
+      <c r="B21" s="154"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -23129,7 +23141,7 @@
     </row>
     <row r="22" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="152"/>
+      <c r="B22" s="155"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -23141,7 +23153,7 @@
     </row>
     <row r="23" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="153" t="s">
+      <c r="B23" s="176" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="5"/>
@@ -23155,7 +23167,7 @@
     </row>
     <row r="24" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="153"/>
+      <c r="B24" s="176"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -23167,7 +23179,7 @@
     </row>
     <row r="25" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
-      <c r="B25" s="154"/>
+      <c r="B25" s="177"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -23231,7 +23243,7 @@
     </row>
     <row r="28" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
-      <c r="B28" s="160" t="s">
+      <c r="B28" s="157" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="5"/>
@@ -23246,7 +23258,7 @@
     </row>
     <row r="29" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
-      <c r="B29" s="160"/>
+      <c r="B29" s="157"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -23258,7 +23270,7 @@
     </row>
     <row r="30" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="B30" s="161"/>
+      <c r="B30" s="158"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -23270,7 +23282,7 @@
     </row>
     <row r="31" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
-      <c r="B31" s="156" t="s">
+      <c r="B31" s="160" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="5"/>
@@ -23284,7 +23296,7 @@
     </row>
     <row r="32" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
-      <c r="B32" s="156"/>
+      <c r="B32" s="160"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -23296,7 +23308,7 @@
     </row>
     <row r="33" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
-      <c r="B33" s="157"/>
+      <c r="B33" s="161"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -23308,7 +23320,7 @@
     </row>
     <row r="34" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
-      <c r="B34" s="147" t="s">
+      <c r="B34" s="148" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="5"/>
@@ -23322,7 +23334,7 @@
     </row>
     <row r="35" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
-      <c r="B35" s="147"/>
+      <c r="B35" s="148"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -23334,7 +23346,7 @@
     </row>
     <row r="36" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
-      <c r="B36" s="148"/>
+      <c r="B36" s="149"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -23346,7 +23358,7 @@
     </row>
     <row r="37" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
-      <c r="B37" s="149" t="s">
+      <c r="B37" s="151" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="5"/>
@@ -23360,7 +23372,7 @@
     </row>
     <row r="38" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
-      <c r="B38" s="149"/>
+      <c r="B38" s="151"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -23372,7 +23384,7 @@
     </row>
     <row r="39" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
-      <c r="B39" s="150"/>
+      <c r="B39" s="152"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -23384,7 +23396,7 @@
     </row>
     <row r="40" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
-      <c r="B40" s="151" t="s">
+      <c r="B40" s="154" t="s">
         <v>12</v>
       </c>
       <c r="C40" s="5"/>
@@ -23398,7 +23410,7 @@
     </row>
     <row r="41" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
-      <c r="B41" s="151"/>
+      <c r="B41" s="154"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -23410,7 +23422,7 @@
     </row>
     <row r="42" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
-      <c r="B42" s="152"/>
+      <c r="B42" s="155"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -23422,7 +23434,7 @@
     </row>
     <row r="43" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
-      <c r="B43" s="153" t="s">
+      <c r="B43" s="176" t="s">
         <v>13</v>
       </c>
       <c r="C43" s="5"/>
@@ -23436,7 +23448,7 @@
     </row>
     <row r="44" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
-      <c r="B44" s="153"/>
+      <c r="B44" s="176"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -23448,7 +23460,7 @@
     </row>
     <row r="45" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
-      <c r="B45" s="154"/>
+      <c r="B45" s="177"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
@@ -23512,7 +23524,7 @@
     </row>
     <row r="48" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
-      <c r="B48" s="160" t="s">
+      <c r="B48" s="157" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="5"/>
@@ -23526,7 +23538,7 @@
     </row>
     <row r="49" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
-      <c r="B49" s="160"/>
+      <c r="B49" s="157"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -23538,7 +23550,7 @@
     </row>
     <row r="50" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
-      <c r="B50" s="161"/>
+      <c r="B50" s="158"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
@@ -23550,7 +23562,7 @@
     </row>
     <row r="51" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
-      <c r="B51" s="156" t="s">
+      <c r="B51" s="160" t="s">
         <v>9</v>
       </c>
       <c r="C51" s="5"/>
@@ -23564,7 +23576,7 @@
     </row>
     <row r="52" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
-      <c r="B52" s="156"/>
+      <c r="B52" s="160"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -23576,7 +23588,7 @@
     </row>
     <row r="53" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
-      <c r="B53" s="157"/>
+      <c r="B53" s="161"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
@@ -23588,7 +23600,7 @@
     </row>
     <row r="54" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
-      <c r="B54" s="147" t="s">
+      <c r="B54" s="148" t="s">
         <v>10</v>
       </c>
       <c r="C54" s="5"/>
@@ -23602,7 +23614,7 @@
     </row>
     <row r="55" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
-      <c r="B55" s="147"/>
+      <c r="B55" s="148"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -23614,7 +23626,7 @@
     </row>
     <row r="56" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
-      <c r="B56" s="148"/>
+      <c r="B56" s="149"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
@@ -23626,7 +23638,7 @@
     </row>
     <row r="57" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
-      <c r="B57" s="149" t="s">
+      <c r="B57" s="151" t="s">
         <v>11</v>
       </c>
       <c r="C57" s="5"/>
@@ -23640,7 +23652,7 @@
     </row>
     <row r="58" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
-      <c r="B58" s="149"/>
+      <c r="B58" s="151"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -23652,7 +23664,7 @@
     </row>
     <row r="59" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
-      <c r="B59" s="150"/>
+      <c r="B59" s="152"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
@@ -23664,7 +23676,7 @@
     </row>
     <row r="60" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
-      <c r="B60" s="151" t="s">
+      <c r="B60" s="154" t="s">
         <v>12</v>
       </c>
       <c r="C60" s="5"/>
@@ -23678,7 +23690,7 @@
     </row>
     <row r="61" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
-      <c r="B61" s="151"/>
+      <c r="B61" s="154"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -23690,7 +23702,7 @@
     </row>
     <row r="62" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
-      <c r="B62" s="152"/>
+      <c r="B62" s="155"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
@@ -23702,7 +23714,7 @@
     </row>
     <row r="63" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
-      <c r="B63" s="153" t="s">
+      <c r="B63" s="176" t="s">
         <v>13</v>
       </c>
       <c r="C63" s="5"/>
@@ -23716,7 +23728,7 @@
     </row>
     <row r="64" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
-      <c r="B64" s="153"/>
+      <c r="B64" s="176"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -23728,7 +23740,7 @@
     </row>
     <row r="65" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
-      <c r="B65" s="154"/>
+      <c r="B65" s="177"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
@@ -23795,7 +23807,7 @@
     </row>
     <row r="68" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
-      <c r="B68" s="160" t="s">
+      <c r="B68" s="157" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="5"/>
@@ -23810,7 +23822,7 @@
     </row>
     <row r="69" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
-      <c r="B69" s="160"/>
+      <c r="B69" s="157"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -23823,7 +23835,7 @@
     </row>
     <row r="70" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
-      <c r="B70" s="161"/>
+      <c r="B70" s="158"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
@@ -23836,7 +23848,7 @@
     </row>
     <row r="71" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
-      <c r="B71" s="156" t="s">
+      <c r="B71" s="160" t="s">
         <v>9</v>
       </c>
       <c r="C71" s="5"/>
@@ -23851,7 +23863,7 @@
     </row>
     <row r="72" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
-      <c r="B72" s="156"/>
+      <c r="B72" s="160"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -23864,7 +23876,7 @@
     </row>
     <row r="73" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
-      <c r="B73" s="157"/>
+      <c r="B73" s="161"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
@@ -23877,7 +23889,7 @@
     </row>
     <row r="74" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
-      <c r="B74" s="147" t="s">
+      <c r="B74" s="148" t="s">
         <v>10</v>
       </c>
       <c r="C74" s="5"/>
@@ -23892,7 +23904,7 @@
     </row>
     <row r="75" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
-      <c r="B75" s="147"/>
+      <c r="B75" s="148"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -23904,7 +23916,7 @@
     </row>
     <row r="76" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
-      <c r="B76" s="148"/>
+      <c r="B76" s="149"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
@@ -23916,7 +23928,7 @@
     </row>
     <row r="77" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
-      <c r="B77" s="149" t="s">
+      <c r="B77" s="151" t="s">
         <v>11</v>
       </c>
       <c r="C77" s="5"/>
@@ -23930,7 +23942,7 @@
     </row>
     <row r="78" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
-      <c r="B78" s="149"/>
+      <c r="B78" s="151"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -23942,7 +23954,7 @@
     </row>
     <row r="79" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
-      <c r="B79" s="150"/>
+      <c r="B79" s="152"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
@@ -23954,7 +23966,7 @@
     </row>
     <row r="80" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
-      <c r="B80" s="151" t="s">
+      <c r="B80" s="154" t="s">
         <v>12</v>
       </c>
       <c r="C80" s="5"/>
@@ -23968,7 +23980,7 @@
     </row>
     <row r="81" spans="1:16" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
-      <c r="B81" s="151"/>
+      <c r="B81" s="154"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -23980,7 +23992,7 @@
     </row>
     <row r="82" spans="1:16" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
-      <c r="B82" s="152"/>
+      <c r="B82" s="155"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
@@ -23992,7 +24004,7 @@
     </row>
     <row r="83" spans="1:16" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
-      <c r="B83" s="153" t="s">
+      <c r="B83" s="176" t="s">
         <v>13</v>
       </c>
       <c r="C83" s="5"/>
@@ -24006,7 +24018,7 @@
     </row>
     <row r="84" spans="1:16" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
-      <c r="B84" s="153"/>
+      <c r="B84" s="176"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -24018,7 +24030,7 @@
     </row>
     <row r="85" spans="1:16" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
-      <c r="B85" s="154"/>
+      <c r="B85" s="177"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
@@ -26201,18 +26213,11 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B60:B62"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="A5:XFD5"/>
@@ -26229,11 +26234,18 @@
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B68:B70"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -26251,8 +26263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -26319,23 +26331,23 @@
     </row>
     <row r="4" spans="1:16" s="98" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="97"/>
-      <c r="B4" s="179" t="s">
+      <c r="B4" s="164" t="s">
         <v>647</v>
       </c>
       <c r="C4" s="197"/>
-      <c r="D4" s="180"/>
-      <c r="E4" s="179" t="s">
+      <c r="D4" s="165"/>
+      <c r="E4" s="164" t="s">
         <v>648</v>
       </c>
       <c r="F4" s="197"/>
-      <c r="G4" s="180"/>
-      <c r="H4" s="179" t="s">
+      <c r="G4" s="165"/>
+      <c r="H4" s="164" t="s">
         <v>649</v>
       </c>
       <c r="I4" s="197"/>
       <c r="J4" s="197"/>
       <c r="K4" s="197"/>
-      <c r="L4" s="180"/>
+      <c r="L4" s="165"/>
       <c r="M4" s="97"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -26628,7 +26640,7 @@
       </c>
       <c r="P15">
         <f>COUNTIF(F12:F54,"O")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
@@ -26658,7 +26670,7 @@
       </c>
       <c r="P16">
         <f>COUNTIF(F12:F54,"X")</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
@@ -26868,10 +26880,14 @@
       <c r="E25" s="28" t="s">
         <v>994</v>
       </c>
-      <c r="F25" s="28"/>
+      <c r="F25" s="28" t="s">
+        <v>1098</v>
+      </c>
       <c r="G25" s="28"/>
       <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
+      <c r="I25" s="28" t="s">
+        <v>1099</v>
+      </c>
       <c r="J25" s="28"/>
       <c r="K25" s="28"/>
       <c r="L25" s="28"/>
@@ -27236,7 +27252,9 @@
       <c r="E41" s="28" t="s">
         <v>1033</v>
       </c>
-      <c r="F41" s="28"/>
+      <c r="F41" s="28" t="s">
+        <v>1097</v>
+      </c>
       <c r="G41" s="28"/>
       <c r="H41" s="28"/>
       <c r="I41" s="28"/>
@@ -27569,30 +27587,30 @@
     </row>
     <row r="2" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="173" t="s">
+      <c r="B2" s="178" t="s">
         <v>837</v>
       </c>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174"/>
-      <c r="H2" s="174"/>
-      <c r="I2" s="175"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="179"/>
+      <c r="F2" s="179"/>
+      <c r="G2" s="179"/>
+      <c r="H2" s="179"/>
+      <c r="I2" s="180"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="66"/>
-      <c r="B3" s="166" t="s">
+      <c r="B3" s="172" t="s">
         <v>540</v>
       </c>
-      <c r="C3" s="167"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="168"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="173"/>
+      <c r="F3" s="173"/>
+      <c r="G3" s="173"/>
+      <c r="H3" s="173"/>
+      <c r="I3" s="174"/>
       <c r="J3" s="66"/>
     </row>
     <row r="4" spans="1:10" s="74" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -27601,24 +27619,24 @@
         <v>848</v>
       </c>
       <c r="C4" s="196"/>
-      <c r="D4" s="179" t="s">
+      <c r="D4" s="164" t="s">
         <v>704</v>
       </c>
-      <c r="E4" s="180"/>
-      <c r="F4" s="179" t="s">
+      <c r="E4" s="165"/>
+      <c r="F4" s="164" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="197"/>
-      <c r="H4" s="179" t="s">
+      <c r="H4" s="164" t="s">
         <v>543</v>
       </c>
-      <c r="I4" s="180"/>
+      <c r="I4" s="165"/>
       <c r="J4" s="15"/>
     </row>
-    <row r="5" spans="1:10" s="165" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:10" s="171" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="170"/>
+      <c r="B6" s="166"/>
       <c r="C6" s="54" t="s">
         <v>809</v>
       </c>
@@ -27644,7 +27662,7 @@
     </row>
     <row r="7" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="171"/>
+      <c r="B7" s="167"/>
       <c r="C7" s="55" t="s">
         <v>1</v>
       </c>
@@ -27670,7 +27688,7 @@
     </row>
     <row r="8" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="160" t="s">
+      <c r="B8" s="157" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="5"/>
@@ -27684,7 +27702,7 @@
     </row>
     <row r="9" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="160"/>
+      <c r="B9" s="157"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -27696,7 +27714,7 @@
     </row>
     <row r="10" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="161"/>
+      <c r="B10" s="158"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -27708,7 +27726,7 @@
     </row>
     <row r="11" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="156" t="s">
+      <c r="B11" s="160" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="5"/>
@@ -27722,7 +27740,7 @@
     </row>
     <row r="12" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="156"/>
+      <c r="B12" s="160"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -27734,7 +27752,7 @@
     </row>
     <row r="13" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="157"/>
+      <c r="B13" s="161"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -27746,7 +27764,7 @@
     </row>
     <row r="14" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="147" t="s">
+      <c r="B14" s="148" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="5"/>
@@ -27760,7 +27778,7 @@
     </row>
     <row r="15" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="147"/>
+      <c r="B15" s="148"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -27772,7 +27790,7 @@
     </row>
     <row r="16" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="148"/>
+      <c r="B16" s="149"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -27784,7 +27802,7 @@
     </row>
     <row r="17" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="149" t="s">
+      <c r="B17" s="151" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="5"/>
@@ -27798,7 +27816,7 @@
     </row>
     <row r="18" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="149"/>
+      <c r="B18" s="151"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -27810,7 +27828,7 @@
     </row>
     <row r="19" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="150"/>
+      <c r="B19" s="152"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -27822,7 +27840,7 @@
     </row>
     <row r="20" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="151" t="s">
+      <c r="B20" s="154" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="5"/>
@@ -27836,7 +27854,7 @@
     </row>
     <row r="21" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="151"/>
+      <c r="B21" s="154"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -27848,7 +27866,7 @@
     </row>
     <row r="22" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="152"/>
+      <c r="B22" s="155"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -27860,7 +27878,7 @@
     </row>
     <row r="23" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="153" t="s">
+      <c r="B23" s="176" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="5"/>
@@ -27874,7 +27892,7 @@
     </row>
     <row r="24" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="153"/>
+      <c r="B24" s="176"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -27886,7 +27904,7 @@
     </row>
     <row r="25" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
-      <c r="B25" s="154"/>
+      <c r="B25" s="177"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -27950,7 +27968,7 @@
     </row>
     <row r="28" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
-      <c r="B28" s="160" t="s">
+      <c r="B28" s="157" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="5"/>
@@ -27964,7 +27982,7 @@
     </row>
     <row r="29" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
-      <c r="B29" s="160"/>
+      <c r="B29" s="157"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -27976,7 +27994,7 @@
     </row>
     <row r="30" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="B30" s="161"/>
+      <c r="B30" s="158"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -27988,7 +28006,7 @@
     </row>
     <row r="31" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
-      <c r="B31" s="156" t="s">
+      <c r="B31" s="160" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="5"/>
@@ -28002,7 +28020,7 @@
     </row>
     <row r="32" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
-      <c r="B32" s="156"/>
+      <c r="B32" s="160"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -28014,7 +28032,7 @@
     </row>
     <row r="33" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
-      <c r="B33" s="157"/>
+      <c r="B33" s="161"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -28026,7 +28044,7 @@
     </row>
     <row r="34" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
-      <c r="B34" s="147" t="s">
+      <c r="B34" s="148" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="5"/>
@@ -28040,7 +28058,7 @@
     </row>
     <row r="35" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
-      <c r="B35" s="147"/>
+      <c r="B35" s="148"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -28052,7 +28070,7 @@
     </row>
     <row r="36" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
-      <c r="B36" s="148"/>
+      <c r="B36" s="149"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -28064,7 +28082,7 @@
     </row>
     <row r="37" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
-      <c r="B37" s="149" t="s">
+      <c r="B37" s="151" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="5"/>
@@ -28078,7 +28096,7 @@
     </row>
     <row r="38" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
-      <c r="B38" s="149"/>
+      <c r="B38" s="151"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -28090,7 +28108,7 @@
     </row>
     <row r="39" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
-      <c r="B39" s="150"/>
+      <c r="B39" s="152"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -28102,7 +28120,7 @@
     </row>
     <row r="40" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
-      <c r="B40" s="151" t="s">
+      <c r="B40" s="154" t="s">
         <v>12</v>
       </c>
       <c r="C40" s="5"/>
@@ -28116,7 +28134,7 @@
     </row>
     <row r="41" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
-      <c r="B41" s="151"/>
+      <c r="B41" s="154"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -28128,7 +28146,7 @@
     </row>
     <row r="42" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
-      <c r="B42" s="152"/>
+      <c r="B42" s="155"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -28140,7 +28158,7 @@
     </row>
     <row r="43" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
-      <c r="B43" s="153" t="s">
+      <c r="B43" s="176" t="s">
         <v>13</v>
       </c>
       <c r="C43" s="5"/>
@@ -28154,7 +28172,7 @@
     </row>
     <row r="44" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
-      <c r="B44" s="153"/>
+      <c r="B44" s="176"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -28166,7 +28184,7 @@
     </row>
     <row r="45" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
-      <c r="B45" s="154"/>
+      <c r="B45" s="177"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
@@ -28230,7 +28248,7 @@
     </row>
     <row r="48" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
-      <c r="B48" s="160" t="s">
+      <c r="B48" s="157" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="5"/>
@@ -28244,7 +28262,7 @@
     </row>
     <row r="49" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
-      <c r="B49" s="160"/>
+      <c r="B49" s="157"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -28256,7 +28274,7 @@
     </row>
     <row r="50" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
-      <c r="B50" s="161"/>
+      <c r="B50" s="158"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
@@ -28268,7 +28286,7 @@
     </row>
     <row r="51" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
-      <c r="B51" s="156" t="s">
+      <c r="B51" s="160" t="s">
         <v>9</v>
       </c>
       <c r="C51" s="5"/>
@@ -28282,7 +28300,7 @@
     </row>
     <row r="52" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
-      <c r="B52" s="156"/>
+      <c r="B52" s="160"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -28294,7 +28312,7 @@
     </row>
     <row r="53" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
-      <c r="B53" s="157"/>
+      <c r="B53" s="161"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
@@ -28306,7 +28324,7 @@
     </row>
     <row r="54" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
-      <c r="B54" s="147" t="s">
+      <c r="B54" s="148" t="s">
         <v>10</v>
       </c>
       <c r="C54" s="5"/>
@@ -28320,7 +28338,7 @@
     </row>
     <row r="55" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
-      <c r="B55" s="147"/>
+      <c r="B55" s="148"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -28332,7 +28350,7 @@
     </row>
     <row r="56" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
-      <c r="B56" s="148"/>
+      <c r="B56" s="149"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
@@ -28344,7 +28362,7 @@
     </row>
     <row r="57" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
-      <c r="B57" s="149" t="s">
+      <c r="B57" s="151" t="s">
         <v>11</v>
       </c>
       <c r="C57" s="5"/>
@@ -28358,7 +28376,7 @@
     </row>
     <row r="58" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
-      <c r="B58" s="149"/>
+      <c r="B58" s="151"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -28370,7 +28388,7 @@
     </row>
     <row r="59" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
-      <c r="B59" s="150"/>
+      <c r="B59" s="152"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
@@ -28382,7 +28400,7 @@
     </row>
     <row r="60" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
-      <c r="B60" s="151" t="s">
+      <c r="B60" s="154" t="s">
         <v>12</v>
       </c>
       <c r="C60" s="5"/>
@@ -28396,7 +28414,7 @@
     </row>
     <row r="61" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
-      <c r="B61" s="151"/>
+      <c r="B61" s="154"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -28409,7 +28427,7 @@
     </row>
     <row r="62" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
-      <c r="B62" s="152"/>
+      <c r="B62" s="155"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
@@ -28422,7 +28440,7 @@
     </row>
     <row r="63" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
-      <c r="B63" s="153" t="s">
+      <c r="B63" s="176" t="s">
         <v>13</v>
       </c>
       <c r="C63" s="5"/>
@@ -28437,7 +28455,7 @@
     </row>
     <row r="64" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
-      <c r="B64" s="153"/>
+      <c r="B64" s="176"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -28450,7 +28468,7 @@
     </row>
     <row r="65" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
-      <c r="B65" s="154"/>
+      <c r="B65" s="177"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
@@ -28517,7 +28535,7 @@
     </row>
     <row r="68" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
-      <c r="B68" s="160" t="s">
+      <c r="B68" s="157" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="5"/>
@@ -28532,7 +28550,7 @@
     </row>
     <row r="69" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
-      <c r="B69" s="160"/>
+      <c r="B69" s="157"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -28545,7 +28563,7 @@
     </row>
     <row r="70" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
-      <c r="B70" s="161"/>
+      <c r="B70" s="158"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
@@ -28558,7 +28576,7 @@
     </row>
     <row r="71" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
-      <c r="B71" s="156" t="s">
+      <c r="B71" s="160" t="s">
         <v>9</v>
       </c>
       <c r="C71" s="5"/>
@@ -28573,7 +28591,7 @@
     </row>
     <row r="72" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
-      <c r="B72" s="156"/>
+      <c r="B72" s="160"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -28586,7 +28604,7 @@
     </row>
     <row r="73" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
-      <c r="B73" s="157"/>
+      <c r="B73" s="161"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
@@ -28599,7 +28617,7 @@
     </row>
     <row r="74" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
-      <c r="B74" s="147" t="s">
+      <c r="B74" s="148" t="s">
         <v>10</v>
       </c>
       <c r="C74" s="5"/>
@@ -28614,7 +28632,7 @@
     </row>
     <row r="75" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
-      <c r="B75" s="147"/>
+      <c r="B75" s="148"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -28627,7 +28645,7 @@
     </row>
     <row r="76" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
-      <c r="B76" s="148"/>
+      <c r="B76" s="149"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
@@ -28639,7 +28657,7 @@
     </row>
     <row r="77" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
-      <c r="B77" s="149" t="s">
+      <c r="B77" s="151" t="s">
         <v>11</v>
       </c>
       <c r="C77" s="5"/>
@@ -28653,7 +28671,7 @@
     </row>
     <row r="78" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
-      <c r="B78" s="149"/>
+      <c r="B78" s="151"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -28665,7 +28683,7 @@
     </row>
     <row r="79" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
-      <c r="B79" s="150"/>
+      <c r="B79" s="152"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
@@ -28677,7 +28695,7 @@
     </row>
     <row r="80" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
-      <c r="B80" s="151" t="s">
+      <c r="B80" s="154" t="s">
         <v>12</v>
       </c>
       <c r="C80" s="5"/>
@@ -28691,7 +28709,7 @@
     </row>
     <row r="81" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
-      <c r="B81" s="151"/>
+      <c r="B81" s="154"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -28703,7 +28721,7 @@
     </row>
     <row r="82" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
-      <c r="B82" s="152"/>
+      <c r="B82" s="155"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
@@ -28715,7 +28733,7 @@
     </row>
     <row r="83" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
-      <c r="B83" s="169" t="s">
+      <c r="B83" s="175" t="s">
         <v>13</v>
       </c>
       <c r="C83" s="7"/>
@@ -28729,7 +28747,7 @@
     </row>
     <row r="84" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
-      <c r="B84" s="153"/>
+      <c r="B84" s="176"/>
       <c r="C84" s="62"/>
       <c r="D84" s="62"/>
       <c r="E84" s="62"/>
@@ -28741,7 +28759,7 @@
     </row>
     <row r="85" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
-      <c r="B85" s="154"/>
+      <c r="B85" s="177"/>
       <c r="C85" s="106"/>
       <c r="D85" s="106"/>
       <c r="E85" s="106"/>
@@ -31262,14 +31280,15 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B22"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="B40:B42"/>
@@ -31286,15 +31305,14 @@
     <mergeCell ref="B43:B45"/>
     <mergeCell ref="B48:B50"/>
     <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B71:B73"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -31352,29 +31370,29 @@
     </row>
     <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="66"/>
-      <c r="B3" s="166" t="s">
+      <c r="B3" s="172" t="s">
         <v>540</v>
       </c>
-      <c r="C3" s="167"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="168"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="173"/>
+      <c r="F3" s="173"/>
+      <c r="G3" s="173"/>
+      <c r="H3" s="173"/>
+      <c r="I3" s="174"/>
       <c r="J3" s="66"/>
     </row>
     <row r="4" spans="1:10" s="74" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="73"/>
-      <c r="B4" s="177" t="s">
+      <c r="B4" s="162" t="s">
         <v>698</v>
       </c>
-      <c r="C4" s="178"/>
-      <c r="D4" s="179" t="s">
+      <c r="C4" s="163"/>
+      <c r="D4" s="164" t="s">
         <v>704</v>
       </c>
-      <c r="E4" s="180"/>
-      <c r="F4" s="179" t="s">
+      <c r="E4" s="165"/>
+      <c r="F4" s="164" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="197"/>
@@ -31384,10 +31402,10 @@
       <c r="I4" s="196"/>
       <c r="J4" s="15"/>
     </row>
-    <row r="5" spans="1:10" s="165" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:10" s="171" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="170"/>
+      <c r="B6" s="166"/>
       <c r="C6" s="54" t="s">
         <v>838</v>
       </c>
@@ -31413,7 +31431,7 @@
     </row>
     <row r="7" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="171"/>
+      <c r="B7" s="167"/>
       <c r="C7" s="55" t="s">
         <v>1</v>
       </c>
@@ -31439,7 +31457,7 @@
     </row>
     <row r="8" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="160" t="s">
+      <c r="B8" s="157" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="5"/>
@@ -31453,7 +31471,7 @@
     </row>
     <row r="9" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="160"/>
+      <c r="B9" s="157"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -31465,7 +31483,7 @@
     </row>
     <row r="10" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="161"/>
+      <c r="B10" s="158"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -31477,7 +31495,7 @@
     </row>
     <row r="11" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="156" t="s">
+      <c r="B11" s="160" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="5"/>
@@ -31491,7 +31509,7 @@
     </row>
     <row r="12" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="156"/>
+      <c r="B12" s="160"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -31503,7 +31521,7 @@
     </row>
     <row r="13" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="157"/>
+      <c r="B13" s="161"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -31515,7 +31533,7 @@
     </row>
     <row r="14" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="147" t="s">
+      <c r="B14" s="148" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="5"/>
@@ -31529,7 +31547,7 @@
     </row>
     <row r="15" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="147"/>
+      <c r="B15" s="148"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -31541,7 +31559,7 @@
     </row>
     <row r="16" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="148"/>
+      <c r="B16" s="149"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -31553,7 +31571,7 @@
     </row>
     <row r="17" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="149" t="s">
+      <c r="B17" s="151" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="5"/>
@@ -31567,7 +31585,7 @@
     </row>
     <row r="18" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="149"/>
+      <c r="B18" s="151"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -31579,7 +31597,7 @@
     </row>
     <row r="19" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="150"/>
+      <c r="B19" s="152"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -31591,7 +31609,7 @@
     </row>
     <row r="20" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="151" t="s">
+      <c r="B20" s="154" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="5"/>
@@ -31605,7 +31623,7 @@
     </row>
     <row r="21" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="151"/>
+      <c r="B21" s="154"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -31617,7 +31635,7 @@
     </row>
     <row r="22" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="152"/>
+      <c r="B22" s="155"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -31629,7 +31647,7 @@
     </row>
     <row r="23" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="153" t="s">
+      <c r="B23" s="176" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="5"/>
@@ -31643,7 +31661,7 @@
     </row>
     <row r="24" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="153"/>
+      <c r="B24" s="176"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -31655,7 +31673,7 @@
     </row>
     <row r="25" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
-      <c r="B25" s="154"/>
+      <c r="B25" s="177"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -31719,7 +31737,7 @@
     </row>
     <row r="28" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
-      <c r="B28" s="160" t="s">
+      <c r="B28" s="157" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="5"/>
@@ -31733,7 +31751,7 @@
     </row>
     <row r="29" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
-      <c r="B29" s="160"/>
+      <c r="B29" s="157"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -31745,7 +31763,7 @@
     </row>
     <row r="30" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="B30" s="161"/>
+      <c r="B30" s="158"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -31757,7 +31775,7 @@
     </row>
     <row r="31" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
-      <c r="B31" s="156" t="s">
+      <c r="B31" s="160" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="5"/>
@@ -31771,7 +31789,7 @@
     </row>
     <row r="32" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
-      <c r="B32" s="156"/>
+      <c r="B32" s="160"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -31783,7 +31801,7 @@
     </row>
     <row r="33" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
-      <c r="B33" s="157"/>
+      <c r="B33" s="161"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -31795,7 +31813,7 @@
     </row>
     <row r="34" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
-      <c r="B34" s="147" t="s">
+      <c r="B34" s="148" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="5"/>
@@ -31810,7 +31828,7 @@
     </row>
     <row r="35" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
-      <c r="B35" s="147"/>
+      <c r="B35" s="148"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -31823,7 +31841,7 @@
     </row>
     <row r="36" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
-      <c r="B36" s="148"/>
+      <c r="B36" s="149"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -31835,7 +31853,7 @@
     </row>
     <row r="37" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
-      <c r="B37" s="149" t="s">
+      <c r="B37" s="151" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="5"/>
@@ -31849,7 +31867,7 @@
     </row>
     <row r="38" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
-      <c r="B38" s="149"/>
+      <c r="B38" s="151"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -31861,7 +31879,7 @@
     </row>
     <row r="39" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
-      <c r="B39" s="150"/>
+      <c r="B39" s="152"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -31873,7 +31891,7 @@
     </row>
     <row r="40" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
-      <c r="B40" s="151" t="s">
+      <c r="B40" s="154" t="s">
         <v>12</v>
       </c>
       <c r="C40" s="5"/>
@@ -31887,7 +31905,7 @@
     </row>
     <row r="41" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
-      <c r="B41" s="151"/>
+      <c r="B41" s="154"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -31899,7 +31917,7 @@
     </row>
     <row r="42" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
-      <c r="B42" s="152"/>
+      <c r="B42" s="155"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -31911,7 +31929,7 @@
     </row>
     <row r="43" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
-      <c r="B43" s="153" t="s">
+      <c r="B43" s="176" t="s">
         <v>13</v>
       </c>
       <c r="C43" s="5"/>
@@ -31925,7 +31943,7 @@
     </row>
     <row r="44" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
-      <c r="B44" s="153"/>
+      <c r="B44" s="176"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -31937,7 +31955,7 @@
     </row>
     <row r="45" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
-      <c r="B45" s="154"/>
+      <c r="B45" s="177"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
@@ -32001,7 +32019,7 @@
     </row>
     <row r="48" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
-      <c r="B48" s="160" t="s">
+      <c r="B48" s="157" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="5"/>
@@ -32015,7 +32033,7 @@
     </row>
     <row r="49" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
-      <c r="B49" s="160"/>
+      <c r="B49" s="157"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -32027,7 +32045,7 @@
     </row>
     <row r="50" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
-      <c r="B50" s="161"/>
+      <c r="B50" s="158"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
@@ -32039,7 +32057,7 @@
     </row>
     <row r="51" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
-      <c r="B51" s="156" t="s">
+      <c r="B51" s="160" t="s">
         <v>9</v>
       </c>
       <c r="C51" s="5"/>
@@ -32053,7 +32071,7 @@
     </row>
     <row r="52" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
-      <c r="B52" s="156"/>
+      <c r="B52" s="160"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -32065,7 +32083,7 @@
     </row>
     <row r="53" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
-      <c r="B53" s="157"/>
+      <c r="B53" s="161"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
@@ -32077,7 +32095,7 @@
     </row>
     <row r="54" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
-      <c r="B54" s="147" t="s">
+      <c r="B54" s="148" t="s">
         <v>10</v>
       </c>
       <c r="C54" s="5"/>
@@ -32091,7 +32109,7 @@
     </row>
     <row r="55" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
-      <c r="B55" s="147"/>
+      <c r="B55" s="148"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -32103,7 +32121,7 @@
     </row>
     <row r="56" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
-      <c r="B56" s="148"/>
+      <c r="B56" s="149"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
@@ -32115,7 +32133,7 @@
     </row>
     <row r="57" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
-      <c r="B57" s="149" t="s">
+      <c r="B57" s="151" t="s">
         <v>11</v>
       </c>
       <c r="C57" s="5"/>
@@ -32129,7 +32147,7 @@
     </row>
     <row r="58" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
-      <c r="B58" s="149"/>
+      <c r="B58" s="151"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -32141,7 +32159,7 @@
     </row>
     <row r="59" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
-      <c r="B59" s="150"/>
+      <c r="B59" s="152"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
@@ -32153,7 +32171,7 @@
     </row>
     <row r="60" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
-      <c r="B60" s="151" t="s">
+      <c r="B60" s="154" t="s">
         <v>12</v>
       </c>
       <c r="C60" s="5"/>
@@ -32167,7 +32185,7 @@
     </row>
     <row r="61" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
-      <c r="B61" s="151"/>
+      <c r="B61" s="154"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -32179,7 +32197,7 @@
     </row>
     <row r="62" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
-      <c r="B62" s="152"/>
+      <c r="B62" s="155"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
@@ -32191,7 +32209,7 @@
     </row>
     <row r="63" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
-      <c r="B63" s="153" t="s">
+      <c r="B63" s="176" t="s">
         <v>13</v>
       </c>
       <c r="C63" s="5"/>
@@ -32205,7 +32223,7 @@
     </row>
     <row r="64" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
-      <c r="B64" s="153"/>
+      <c r="B64" s="176"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -32218,7 +32236,7 @@
     </row>
     <row r="65" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
-      <c r="B65" s="154"/>
+      <c r="B65" s="177"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
@@ -32285,7 +32303,7 @@
     </row>
     <row r="68" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
-      <c r="B68" s="160" t="s">
+      <c r="B68" s="157" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="5"/>
@@ -32300,7 +32318,7 @@
     </row>
     <row r="69" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
-      <c r="B69" s="160"/>
+      <c r="B69" s="157"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -32313,7 +32331,7 @@
     </row>
     <row r="70" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
-      <c r="B70" s="161"/>
+      <c r="B70" s="158"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
@@ -32326,7 +32344,7 @@
     </row>
     <row r="71" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
-      <c r="B71" s="156" t="s">
+      <c r="B71" s="160" t="s">
         <v>9</v>
       </c>
       <c r="C71" s="5"/>
@@ -32341,7 +32359,7 @@
     </row>
     <row r="72" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
-      <c r="B72" s="156"/>
+      <c r="B72" s="160"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -32354,7 +32372,7 @@
     </row>
     <row r="73" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
-      <c r="B73" s="157"/>
+      <c r="B73" s="161"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
@@ -32367,7 +32385,7 @@
     </row>
     <row r="74" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
-      <c r="B74" s="147" t="s">
+      <c r="B74" s="148" t="s">
         <v>10</v>
       </c>
       <c r="C74" s="5"/>
@@ -32382,7 +32400,7 @@
     </row>
     <row r="75" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
-      <c r="B75" s="147"/>
+      <c r="B75" s="148"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -32394,7 +32412,7 @@
     </row>
     <row r="76" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
-      <c r="B76" s="148"/>
+      <c r="B76" s="149"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
@@ -32406,7 +32424,7 @@
     </row>
     <row r="77" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
-      <c r="B77" s="149" t="s">
+      <c r="B77" s="151" t="s">
         <v>11</v>
       </c>
       <c r="C77" s="5"/>
@@ -32420,7 +32438,7 @@
     </row>
     <row r="78" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
-      <c r="B78" s="149"/>
+      <c r="B78" s="151"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -32432,7 +32450,7 @@
     </row>
     <row r="79" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
-      <c r="B79" s="150"/>
+      <c r="B79" s="152"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
@@ -32444,7 +32462,7 @@
     </row>
     <row r="80" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
-      <c r="B80" s="151" t="s">
+      <c r="B80" s="154" t="s">
         <v>12</v>
       </c>
       <c r="C80" s="5"/>
@@ -32458,7 +32476,7 @@
     </row>
     <row r="81" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
-      <c r="B81" s="151"/>
+      <c r="B81" s="154"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -32470,7 +32488,7 @@
     </row>
     <row r="82" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
-      <c r="B82" s="152"/>
+      <c r="B82" s="155"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
@@ -32482,7 +32500,7 @@
     </row>
     <row r="83" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
-      <c r="B83" s="153" t="s">
+      <c r="B83" s="176" t="s">
         <v>13</v>
       </c>
       <c r="C83" s="5"/>
@@ -32496,7 +32514,7 @@
     </row>
     <row r="84" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
-      <c r="B84" s="153"/>
+      <c r="B84" s="176"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -32508,7 +32526,7 @@
     </row>
     <row r="85" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
-      <c r="B85" s="154"/>
+      <c r="B85" s="177"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
@@ -32562,7 +32580,7 @@
     </row>
     <row r="88" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
-      <c r="B88" s="160" t="s">
+      <c r="B88" s="157" t="s">
         <v>8</v>
       </c>
       <c r="C88" s="5"/>
@@ -32579,7 +32597,7 @@
     </row>
     <row r="89" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
-      <c r="B89" s="160"/>
+      <c r="B89" s="157"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -32594,7 +32612,7 @@
     </row>
     <row r="90" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
-      <c r="B90" s="161"/>
+      <c r="B90" s="158"/>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
@@ -32609,7 +32627,7 @@
     </row>
     <row r="91" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
-      <c r="B91" s="156" t="s">
+      <c r="B91" s="160" t="s">
         <v>9</v>
       </c>
       <c r="C91" s="5"/>
@@ -32626,7 +32644,7 @@
     </row>
     <row r="92" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
-      <c r="B92" s="156"/>
+      <c r="B92" s="160"/>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -32641,7 +32659,7 @@
     </row>
     <row r="93" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
-      <c r="B93" s="157"/>
+      <c r="B93" s="161"/>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
@@ -32656,7 +32674,7 @@
     </row>
     <row r="94" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
-      <c r="B94" s="147" t="s">
+      <c r="B94" s="148" t="s">
         <v>10</v>
       </c>
       <c r="C94" s="5"/>
@@ -32673,7 +32691,7 @@
     </row>
     <row r="95" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
-      <c r="B95" s="147"/>
+      <c r="B95" s="148"/>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
@@ -32688,7 +32706,7 @@
     </row>
     <row r="96" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
-      <c r="B96" s="148"/>
+      <c r="B96" s="149"/>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
@@ -32703,7 +32721,7 @@
     </row>
     <row r="97" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
-      <c r="B97" s="149" t="s">
+      <c r="B97" s="151" t="s">
         <v>11</v>
       </c>
       <c r="C97" s="5"/>
@@ -32720,7 +32738,7 @@
     </row>
     <row r="98" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
-      <c r="B98" s="149"/>
+      <c r="B98" s="151"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
@@ -32735,7 +32753,7 @@
     </row>
     <row r="99" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
-      <c r="B99" s="150"/>
+      <c r="B99" s="152"/>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
       <c r="E99" s="6"/>
@@ -32750,7 +32768,7 @@
     </row>
     <row r="100" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
-      <c r="B100" s="151" t="s">
+      <c r="B100" s="154" t="s">
         <v>12</v>
       </c>
       <c r="C100" s="5"/>
@@ -32767,7 +32785,7 @@
     </row>
     <row r="101" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
-      <c r="B101" s="151"/>
+      <c r="B101" s="154"/>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
@@ -32782,7 +32800,7 @@
     </row>
     <row r="102" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
-      <c r="B102" s="152"/>
+      <c r="B102" s="155"/>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
       <c r="E102" s="6"/>
@@ -32797,7 +32815,7 @@
     </row>
     <row r="103" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
-      <c r="B103" s="153" t="s">
+      <c r="B103" s="176" t="s">
         <v>13</v>
       </c>
       <c r="C103" s="5"/>
@@ -32814,7 +32832,7 @@
     </row>
     <row r="104" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
-      <c r="B104" s="153"/>
+      <c r="B104" s="176"/>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
@@ -32829,7 +32847,7 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
-      <c r="B105" s="154"/>
+      <c r="B105" s="177"/>
       <c r="C105" s="88"/>
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
@@ -33416,6 +33434,29 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="B97:B99"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
     <mergeCell ref="B103:B105"/>
     <mergeCell ref="A5:XFD5"/>
     <mergeCell ref="B74:B76"/>
@@ -33432,29 +33473,6 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B94:B96"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B97:B99"/>
-    <mergeCell ref="B100:B102"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B71:B73"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -33524,53 +33542,53 @@
     </row>
     <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24"/>
-      <c r="B3" s="222" t="s">
+      <c r="B3" s="217" t="s">
         <v>541</v>
       </c>
-      <c r="C3" s="223"/>
-      <c r="D3" s="223"/>
-      <c r="E3" s="223"/>
-      <c r="F3" s="223"/>
-      <c r="G3" s="223"/>
-      <c r="H3" s="223"/>
-      <c r="I3" s="223"/>
-      <c r="J3" s="223"/>
-      <c r="K3" s="224"/>
+      <c r="C3" s="218"/>
+      <c r="D3" s="218"/>
+      <c r="E3" s="218"/>
+      <c r="F3" s="218"/>
+      <c r="G3" s="218"/>
+      <c r="H3" s="218"/>
+      <c r="I3" s="218"/>
+      <c r="J3" s="218"/>
+      <c r="K3" s="219"/>
       <c r="L3" s="24"/>
       <c r="M3" s="24"/>
     </row>
     <row r="4" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="24"/>
-      <c r="B4" s="225" t="s">
+      <c r="B4" s="222" t="s">
         <v>533</v>
       </c>
-      <c r="C4" s="226"/>
-      <c r="D4" s="226"/>
-      <c r="E4" s="226"/>
-      <c r="F4" s="226"/>
-      <c r="G4" s="226"/>
-      <c r="H4" s="226"/>
-      <c r="I4" s="226"/>
-      <c r="J4" s="226"/>
-      <c r="K4" s="227"/>
+      <c r="C4" s="223"/>
+      <c r="D4" s="223"/>
+      <c r="E4" s="223"/>
+      <c r="F4" s="223"/>
+      <c r="G4" s="223"/>
+      <c r="H4" s="223"/>
+      <c r="I4" s="223"/>
+      <c r="J4" s="223"/>
+      <c r="K4" s="224"/>
       <c r="L4" s="24"/>
       <c r="M4" s="24"/>
     </row>
-    <row r="5" spans="1:20" s="216" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:20" s="221" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="24"/>
-      <c r="B6" s="217" t="s">
+      <c r="B6" s="220" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="217"/>
-      <c r="D6" s="217"/>
-      <c r="E6" s="217"/>
-      <c r="F6" s="217"/>
-      <c r="G6" s="217"/>
-      <c r="H6" s="217"/>
-      <c r="I6" s="217"/>
-      <c r="J6" s="217"/>
-      <c r="K6" s="217"/>
+      <c r="C6" s="220"/>
+      <c r="D6" s="220"/>
+      <c r="E6" s="220"/>
+      <c r="F6" s="220"/>
+      <c r="G6" s="220"/>
+      <c r="H6" s="220"/>
+      <c r="I6" s="220"/>
+      <c r="J6" s="220"/>
+      <c r="K6" s="220"/>
       <c r="L6" s="24"/>
       <c r="M6" s="24"/>
     </row>
@@ -33579,19 +33597,19 @@
       <c r="B7" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="219"/>
-      <c r="D7" s="219"/>
-      <c r="E7" s="219"/>
+      <c r="C7" s="216"/>
+      <c r="D7" s="216"/>
+      <c r="E7" s="216"/>
       <c r="F7" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="219"/>
-      <c r="H7" s="219"/>
+      <c r="G7" s="216"/>
+      <c r="H7" s="216"/>
       <c r="I7" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="219"/>
-      <c r="K7" s="219"/>
+      <c r="J7" s="216"/>
+      <c r="K7" s="216"/>
       <c r="L7" s="24"/>
       <c r="M7" s="24"/>
     </row>
@@ -33600,19 +33618,19 @@
       <c r="B8" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="219"/>
-      <c r="D8" s="219"/>
-      <c r="E8" s="219"/>
+      <c r="C8" s="216"/>
+      <c r="D8" s="216"/>
+      <c r="E8" s="216"/>
       <c r="F8" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="219"/>
-      <c r="H8" s="219"/>
+      <c r="G8" s="216"/>
+      <c r="H8" s="216"/>
       <c r="I8" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="219"/>
-      <c r="K8" s="219"/>
+      <c r="J8" s="216"/>
+      <c r="K8" s="216"/>
       <c r="L8" s="24"/>
       <c r="M8" s="24"/>
     </row>
@@ -33621,15 +33639,15 @@
       <c r="B9" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="219"/>
-      <c r="D9" s="219"/>
-      <c r="E9" s="219"/>
-      <c r="F9" s="219"/>
-      <c r="G9" s="219"/>
-      <c r="H9" s="219"/>
-      <c r="I9" s="219"/>
-      <c r="J9" s="219"/>
-      <c r="K9" s="219"/>
+      <c r="C9" s="216"/>
+      <c r="D9" s="216"/>
+      <c r="E9" s="216"/>
+      <c r="F9" s="216"/>
+      <c r="G9" s="216"/>
+      <c r="H9" s="216"/>
+      <c r="I9" s="216"/>
+      <c r="J9" s="216"/>
+      <c r="K9" s="216"/>
       <c r="L9" s="24"/>
       <c r="M9" s="24"/>
     </row>
@@ -33638,15 +33656,15 @@
       <c r="B10" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="219"/>
-      <c r="D10" s="219"/>
-      <c r="E10" s="219"/>
-      <c r="F10" s="219"/>
-      <c r="G10" s="219"/>
-      <c r="H10" s="219"/>
-      <c r="I10" s="219"/>
-      <c r="J10" s="219"/>
-      <c r="K10" s="219"/>
+      <c r="C10" s="216"/>
+      <c r="D10" s="216"/>
+      <c r="E10" s="216"/>
+      <c r="F10" s="216"/>
+      <c r="G10" s="216"/>
+      <c r="H10" s="216"/>
+      <c r="I10" s="216"/>
+      <c r="J10" s="216"/>
+      <c r="K10" s="216"/>
       <c r="L10" s="24"/>
       <c r="M10" s="24"/>
     </row>
@@ -33655,19 +33673,19 @@
       <c r="B11" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="219"/>
-      <c r="D11" s="219"/>
-      <c r="E11" s="219"/>
+      <c r="C11" s="216"/>
+      <c r="D11" s="216"/>
+      <c r="E11" s="216"/>
       <c r="F11" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="219"/>
-      <c r="H11" s="219"/>
+      <c r="G11" s="216"/>
+      <c r="H11" s="216"/>
       <c r="I11" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="J11" s="219"/>
-      <c r="K11" s="219"/>
+      <c r="J11" s="216"/>
+      <c r="K11" s="216"/>
       <c r="L11" s="24"/>
       <c r="M11" s="24"/>
       <c r="T11" s="25" t="s">
@@ -33679,49 +33697,49 @@
       <c r="B12" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="218" t="s">
+      <c r="C12" s="225" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="218"/>
-      <c r="E12" s="218"/>
+      <c r="D12" s="225"/>
+      <c r="E12" s="225"/>
       <c r="F12" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="219"/>
-      <c r="H12" s="219"/>
+      <c r="G12" s="216"/>
+      <c r="H12" s="216"/>
       <c r="I12" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="219"/>
-      <c r="K12" s="219"/>
+      <c r="J12" s="216"/>
+      <c r="K12" s="216"/>
       <c r="L12" s="24"/>
       <c r="M12" s="24"/>
     </row>
-    <row r="13" spans="1:20" s="216" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:20" s="221" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="24"/>
-      <c r="B14" s="217" t="s">
+      <c r="B14" s="220" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="217"/>
-      <c r="D14" s="217"/>
-      <c r="E14" s="217"/>
-      <c r="F14" s="217"/>
-      <c r="G14" s="217"/>
-      <c r="H14" s="217"/>
-      <c r="I14" s="217"/>
-      <c r="J14" s="217"/>
-      <c r="K14" s="217"/>
+      <c r="C14" s="220"/>
+      <c r="D14" s="220"/>
+      <c r="E14" s="220"/>
+      <c r="F14" s="220"/>
+      <c r="G14" s="220"/>
+      <c r="H14" s="220"/>
+      <c r="I14" s="220"/>
+      <c r="J14" s="220"/>
+      <c r="K14" s="220"/>
       <c r="L14" s="24"/>
       <c r="M14" s="24"/>
     </row>
     <row r="15" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="24"/>
-      <c r="B15" s="220" t="s">
+      <c r="B15" s="226" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="220"/>
-      <c r="D15" s="220"/>
+      <c r="C15" s="226"/>
+      <c r="D15" s="226"/>
       <c r="E15" s="33" t="s">
         <v>44</v>
       </c>
@@ -33748,11 +33766,11 @@
     </row>
     <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="24"/>
-      <c r="B16" s="218" t="s">
+      <c r="B16" s="225" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="218"/>
-      <c r="D16" s="218"/>
+      <c r="C16" s="225"/>
+      <c r="D16" s="225"/>
       <c r="E16" s="29"/>
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
@@ -33767,11 +33785,11 @@
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="24"/>
-      <c r="B17" s="218" t="s">
+      <c r="B17" s="225" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="218"/>
-      <c r="D17" s="218"/>
+      <c r="C17" s="225"/>
+      <c r="D17" s="225"/>
       <c r="E17" s="29"/>
       <c r="F17" s="29"/>
       <c r="G17" s="29"/>
@@ -33784,11 +33802,11 @@
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="24"/>
-      <c r="B18" s="218" t="s">
+      <c r="B18" s="225" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="218"/>
-      <c r="D18" s="218"/>
+      <c r="C18" s="225"/>
+      <c r="D18" s="225"/>
       <c r="E18" s="29"/>
       <c r="F18" s="29"/>
       <c r="G18" s="29"/>
@@ -33801,11 +33819,11 @@
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="24"/>
-      <c r="B19" s="218" t="s">
+      <c r="B19" s="225" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="218"/>
-      <c r="D19" s="218"/>
+      <c r="C19" s="225"/>
+      <c r="D19" s="225"/>
       <c r="E19" s="29"/>
       <c r="F19" s="29"/>
       <c r="G19" s="29"/>
@@ -33818,11 +33836,11 @@
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="24"/>
-      <c r="B20" s="218" t="s">
+      <c r="B20" s="225" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="218"/>
-      <c r="D20" s="218"/>
+      <c r="C20" s="225"/>
+      <c r="D20" s="225"/>
       <c r="E20" s="29"/>
       <c r="F20" s="29"/>
       <c r="G20" s="29"/>
@@ -33833,21 +33851,21 @@
       <c r="L20" s="24"/>
       <c r="M20" s="24"/>
     </row>
-    <row r="21" spans="1:13" s="216" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:13" s="221" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="24"/>
-      <c r="B22" s="217" t="s">
+      <c r="B22" s="220" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="217"/>
-      <c r="D22" s="217"/>
-      <c r="E22" s="217"/>
-      <c r="F22" s="217"/>
-      <c r="G22" s="217"/>
-      <c r="H22" s="217"/>
-      <c r="I22" s="217"/>
-      <c r="J22" s="217"/>
-      <c r="K22" s="217"/>
+      <c r="C22" s="220"/>
+      <c r="D22" s="220"/>
+      <c r="E22" s="220"/>
+      <c r="F22" s="220"/>
+      <c r="G22" s="220"/>
+      <c r="H22" s="220"/>
+      <c r="I22" s="220"/>
+      <c r="J22" s="220"/>
+      <c r="K22" s="220"/>
       <c r="L22" s="24"/>
       <c r="M22" s="24"/>
     </row>
@@ -33856,19 +33874,19 @@
       <c r="B23" s="33" t="s">
         <v>514</v>
       </c>
-      <c r="C23" s="219"/>
-      <c r="D23" s="219"/>
-      <c r="E23" s="219"/>
-      <c r="F23" s="219"/>
+      <c r="C23" s="216"/>
+      <c r="D23" s="216"/>
+      <c r="E23" s="216"/>
+      <c r="F23" s="216"/>
       <c r="G23" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="H23" s="218" t="s">
+      <c r="H23" s="225" t="s">
         <v>55</v>
       </c>
-      <c r="I23" s="218"/>
-      <c r="J23" s="218"/>
-      <c r="K23" s="218"/>
+      <c r="I23" s="225"/>
+      <c r="J23" s="225"/>
+      <c r="K23" s="225"/>
       <c r="L23" s="24"/>
       <c r="M23" s="24"/>
     </row>
@@ -33877,19 +33895,19 @@
       <c r="B24" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="219"/>
-      <c r="D24" s="219"/>
-      <c r="E24" s="219"/>
-      <c r="F24" s="219"/>
+      <c r="C24" s="216"/>
+      <c r="D24" s="216"/>
+      <c r="E24" s="216"/>
+      <c r="F24" s="216"/>
       <c r="G24" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="H24" s="221" t="s">
+      <c r="H24" s="227" t="s">
         <v>58</v>
       </c>
-      <c r="I24" s="221"/>
-      <c r="J24" s="221"/>
-      <c r="K24" s="221"/>
+      <c r="I24" s="227"/>
+      <c r="J24" s="227"/>
+      <c r="K24" s="227"/>
       <c r="L24" s="24"/>
       <c r="M24" s="24"/>
     </row>
@@ -33898,17 +33916,17 @@
       <c r="B25" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="219"/>
-      <c r="D25" s="219"/>
-      <c r="E25" s="219"/>
-      <c r="F25" s="219"/>
+      <c r="C25" s="216"/>
+      <c r="D25" s="216"/>
+      <c r="E25" s="216"/>
+      <c r="F25" s="216"/>
       <c r="G25" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="H25" s="219"/>
-      <c r="I25" s="219"/>
-      <c r="J25" s="219"/>
-      <c r="K25" s="219"/>
+      <c r="H25" s="216"/>
+      <c r="I25" s="216"/>
+      <c r="J25" s="216"/>
+      <c r="K25" s="216"/>
       <c r="L25" s="24"/>
       <c r="M25" s="24"/>
     </row>
@@ -33917,17 +33935,17 @@
       <c r="B26" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="219"/>
-      <c r="D26" s="219"/>
-      <c r="E26" s="219"/>
-      <c r="F26" s="219"/>
+      <c r="C26" s="216"/>
+      <c r="D26" s="216"/>
+      <c r="E26" s="216"/>
+      <c r="F26" s="216"/>
       <c r="G26" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="H26" s="219"/>
-      <c r="I26" s="219"/>
-      <c r="J26" s="219"/>
-      <c r="K26" s="219"/>
+      <c r="H26" s="216"/>
+      <c r="I26" s="216"/>
+      <c r="J26" s="216"/>
+      <c r="K26" s="216"/>
       <c r="L26" s="24"/>
       <c r="M26" s="24"/>
     </row>
@@ -33951,19 +33969,19 @@
       <c r="B28" s="33" t="s">
         <v>515</v>
       </c>
-      <c r="C28" s="219"/>
-      <c r="D28" s="219"/>
-      <c r="E28" s="219"/>
-      <c r="F28" s="219"/>
+      <c r="C28" s="216"/>
+      <c r="D28" s="216"/>
+      <c r="E28" s="216"/>
+      <c r="F28" s="216"/>
       <c r="G28" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="H28" s="218" t="s">
+      <c r="H28" s="225" t="s">
         <v>55</v>
       </c>
-      <c r="I28" s="218"/>
-      <c r="J28" s="218"/>
-      <c r="K28" s="218"/>
+      <c r="I28" s="225"/>
+      <c r="J28" s="225"/>
+      <c r="K28" s="225"/>
       <c r="L28" s="24"/>
       <c r="M28" s="24"/>
     </row>
@@ -33972,17 +33990,17 @@
       <c r="B29" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="219"/>
-      <c r="D29" s="219"/>
-      <c r="E29" s="219"/>
-      <c r="F29" s="219"/>
+      <c r="C29" s="216"/>
+      <c r="D29" s="216"/>
+      <c r="E29" s="216"/>
+      <c r="F29" s="216"/>
       <c r="G29" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="H29" s="219"/>
-      <c r="I29" s="219"/>
-      <c r="J29" s="219"/>
-      <c r="K29" s="219"/>
+      <c r="H29" s="216"/>
+      <c r="I29" s="216"/>
+      <c r="J29" s="216"/>
+      <c r="K29" s="216"/>
       <c r="L29" s="24"/>
       <c r="M29" s="24"/>
     </row>
@@ -33991,17 +34009,17 @@
       <c r="B30" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="219"/>
-      <c r="D30" s="219"/>
-      <c r="E30" s="219"/>
-      <c r="F30" s="219"/>
+      <c r="C30" s="216"/>
+      <c r="D30" s="216"/>
+      <c r="E30" s="216"/>
+      <c r="F30" s="216"/>
       <c r="G30" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="H30" s="219"/>
-      <c r="I30" s="219"/>
-      <c r="J30" s="219"/>
-      <c r="K30" s="219"/>
+      <c r="H30" s="216"/>
+      <c r="I30" s="216"/>
+      <c r="J30" s="216"/>
+      <c r="K30" s="216"/>
       <c r="L30" s="24"/>
       <c r="M30" s="24"/>
     </row>
@@ -34010,34 +34028,34 @@
       <c r="B31" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="219"/>
-      <c r="D31" s="219"/>
-      <c r="E31" s="219"/>
-      <c r="F31" s="219"/>
+      <c r="C31" s="216"/>
+      <c r="D31" s="216"/>
+      <c r="E31" s="216"/>
+      <c r="F31" s="216"/>
       <c r="G31" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="H31" s="219"/>
-      <c r="I31" s="219"/>
-      <c r="J31" s="219"/>
-      <c r="K31" s="219"/>
+      <c r="H31" s="216"/>
+      <c r="I31" s="216"/>
+      <c r="J31" s="216"/>
+      <c r="K31" s="216"/>
       <c r="L31" s="24"/>
       <c r="M31" s="24"/>
     </row>
-    <row r="32" spans="1:13" s="216" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:13" s="221" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="24"/>
-      <c r="B33" s="217" t="s">
+      <c r="B33" s="220" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="217"/>
-      <c r="D33" s="217"/>
-      <c r="E33" s="217"/>
-      <c r="F33" s="217"/>
-      <c r="G33" s="217"/>
-      <c r="H33" s="217"/>
-      <c r="I33" s="217"/>
-      <c r="J33" s="217"/>
+      <c r="C33" s="220"/>
+      <c r="D33" s="220"/>
+      <c r="E33" s="220"/>
+      <c r="F33" s="220"/>
+      <c r="G33" s="220"/>
+      <c r="H33" s="220"/>
+      <c r="I33" s="220"/>
+      <c r="J33" s="220"/>
       <c r="K33" s="31"/>
       <c r="L33" s="24"/>
       <c r="M33" s="24"/>
@@ -34056,12 +34074,12 @@
       <c r="E34" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="F34" s="220" t="s">
+      <c r="F34" s="226" t="s">
         <v>68</v>
       </c>
-      <c r="G34" s="220"/>
-      <c r="H34" s="220"/>
-      <c r="I34" s="220"/>
+      <c r="G34" s="226"/>
+      <c r="H34" s="226"/>
+      <c r="I34" s="226"/>
       <c r="J34" s="33" t="s">
         <v>69</v>
       </c>
@@ -34079,12 +34097,12 @@
       </c>
       <c r="D35" s="29"/>
       <c r="E35" s="29"/>
-      <c r="F35" s="218" t="s">
+      <c r="F35" s="225" t="s">
         <v>72</v>
       </c>
-      <c r="G35" s="218"/>
-      <c r="H35" s="218"/>
-      <c r="I35" s="218"/>
+      <c r="G35" s="225"/>
+      <c r="H35" s="225"/>
+      <c r="I35" s="225"/>
       <c r="J35" s="29"/>
       <c r="K35" s="31"/>
       <c r="L35" s="24"/>
@@ -34105,20 +34123,20 @@
       <c r="L36" s="24"/>
       <c r="M36" s="24"/>
     </row>
-    <row r="37" spans="1:13" s="216" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:13" s="221" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="24"/>
-      <c r="B38" s="217" t="s">
+      <c r="B38" s="220" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="217"/>
-      <c r="D38" s="217"/>
-      <c r="E38" s="217"/>
-      <c r="F38" s="217"/>
-      <c r="G38" s="217"/>
-      <c r="H38" s="217"/>
-      <c r="I38" s="217"/>
-      <c r="J38" s="217"/>
+      <c r="C38" s="220"/>
+      <c r="D38" s="220"/>
+      <c r="E38" s="220"/>
+      <c r="F38" s="220"/>
+      <c r="G38" s="220"/>
+      <c r="H38" s="220"/>
+      <c r="I38" s="220"/>
+      <c r="J38" s="220"/>
       <c r="K38" s="31"/>
       <c r="L38" s="24"/>
       <c r="M38" s="24"/>
@@ -34131,21 +34149,21 @@
       <c r="C39" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="D39" s="220" t="s">
+      <c r="D39" s="226" t="s">
         <v>75</v>
       </c>
-      <c r="E39" s="220"/>
-      <c r="F39" s="220" t="s">
+      <c r="E39" s="226"/>
+      <c r="F39" s="226" t="s">
         <v>76</v>
       </c>
-      <c r="G39" s="220"/>
+      <c r="G39" s="226"/>
       <c r="H39" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="I39" s="220" t="s">
+      <c r="I39" s="226" t="s">
         <v>78</v>
       </c>
-      <c r="J39" s="220"/>
+      <c r="J39" s="226"/>
       <c r="K39" s="31"/>
       <c r="L39" s="24"/>
       <c r="M39" s="24"/>
@@ -34156,17 +34174,17 @@
         <v>517</v>
       </c>
       <c r="C40" s="29"/>
-      <c r="D40" s="218" t="s">
+      <c r="D40" s="225" t="s">
         <v>51</v>
       </c>
-      <c r="E40" s="218"/>
-      <c r="F40" s="219"/>
-      <c r="G40" s="219"/>
+      <c r="E40" s="225"/>
+      <c r="F40" s="216"/>
+      <c r="G40" s="216"/>
       <c r="H40" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="I40" s="219"/>
-      <c r="J40" s="219"/>
+      <c r="I40" s="216"/>
+      <c r="J40" s="216"/>
       <c r="K40" s="31"/>
       <c r="L40" s="24"/>
       <c r="M40" s="24"/>
@@ -34175,17 +34193,17 @@
       <c r="A41" s="24"/>
       <c r="B41" s="29"/>
       <c r="C41" s="29"/>
-      <c r="D41" s="218" t="s">
+      <c r="D41" s="225" t="s">
         <v>51</v>
       </c>
-      <c r="E41" s="218"/>
-      <c r="F41" s="219"/>
-      <c r="G41" s="219"/>
+      <c r="E41" s="225"/>
+      <c r="F41" s="216"/>
+      <c r="G41" s="216"/>
       <c r="H41" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="I41" s="219"/>
-      <c r="J41" s="219"/>
+      <c r="I41" s="216"/>
+      <c r="J41" s="216"/>
       <c r="K41" s="31"/>
       <c r="L41" s="24"/>
       <c r="M41" s="24"/>
@@ -34194,32 +34212,32 @@
       <c r="A42" s="24"/>
       <c r="B42" s="29"/>
       <c r="C42" s="29"/>
-      <c r="D42" s="218" t="s">
+      <c r="D42" s="225" t="s">
         <v>51</v>
       </c>
-      <c r="E42" s="218"/>
-      <c r="F42" s="219"/>
-      <c r="G42" s="219"/>
+      <c r="E42" s="225"/>
+      <c r="F42" s="216"/>
+      <c r="G42" s="216"/>
       <c r="H42" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="I42" s="219"/>
-      <c r="J42" s="219"/>
+      <c r="I42" s="216"/>
+      <c r="J42" s="216"/>
       <c r="K42" s="31"/>
       <c r="L42" s="24"/>
       <c r="M42" s="24"/>
     </row>
-    <row r="43" spans="1:13" s="216" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:13" s="221" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="44" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="24"/>
-      <c r="B44" s="217" t="s">
+      <c r="B44" s="220" t="s">
         <v>80</v>
       </c>
-      <c r="C44" s="217"/>
-      <c r="D44" s="217"/>
-      <c r="E44" s="217"/>
-      <c r="F44" s="217"/>
-      <c r="G44" s="217"/>
+      <c r="C44" s="220"/>
+      <c r="D44" s="220"/>
+      <c r="E44" s="220"/>
+      <c r="F44" s="220"/>
+      <c r="G44" s="220"/>
       <c r="H44" s="31"/>
       <c r="I44" s="31"/>
       <c r="J44" s="31"/>
@@ -34235,14 +34253,14 @@
       <c r="C45" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="D45" s="220" t="s">
+      <c r="D45" s="226" t="s">
         <v>83</v>
       </c>
-      <c r="E45" s="220"/>
-      <c r="F45" s="220" t="s">
+      <c r="E45" s="226"/>
+      <c r="F45" s="226" t="s">
         <v>84</v>
       </c>
-      <c r="G45" s="220"/>
+      <c r="G45" s="226"/>
       <c r="H45" s="31"/>
       <c r="I45" s="31"/>
       <c r="J45" s="31"/>
@@ -34254,10 +34272,10 @@
       <c r="A46" s="24"/>
       <c r="B46" s="29"/>
       <c r="C46" s="29"/>
-      <c r="D46" s="219"/>
-      <c r="E46" s="219"/>
-      <c r="F46" s="219"/>
-      <c r="G46" s="219"/>
+      <c r="D46" s="216"/>
+      <c r="E46" s="216"/>
+      <c r="F46" s="216"/>
+      <c r="G46" s="216"/>
       <c r="H46" s="31"/>
       <c r="I46" s="31"/>
       <c r="J46" s="31"/>
@@ -34269,10 +34287,10 @@
       <c r="A47" s="24"/>
       <c r="B47" s="29"/>
       <c r="C47" s="29"/>
-      <c r="D47" s="219"/>
-      <c r="E47" s="219"/>
-      <c r="F47" s="219"/>
-      <c r="G47" s="219"/>
+      <c r="D47" s="216"/>
+      <c r="E47" s="216"/>
+      <c r="F47" s="216"/>
+      <c r="G47" s="216"/>
       <c r="H47" s="31"/>
       <c r="I47" s="31"/>
       <c r="J47" s="31"/>
@@ -34284,10 +34302,10 @@
       <c r="A48" s="24"/>
       <c r="B48" s="29"/>
       <c r="C48" s="29"/>
-      <c r="D48" s="219"/>
-      <c r="E48" s="219"/>
-      <c r="F48" s="219"/>
-      <c r="G48" s="219"/>
+      <c r="D48" s="216"/>
+      <c r="E48" s="216"/>
+      <c r="F48" s="216"/>
+      <c r="G48" s="216"/>
       <c r="H48" s="31"/>
       <c r="I48" s="31"/>
       <c r="J48" s="31"/>
@@ -34310,17 +34328,17 @@
       <c r="L49" s="24"/>
       <c r="M49" s="24"/>
     </row>
-    <row r="50" spans="1:13" s="216" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" spans="1:13" s="221" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="24"/>
-      <c r="B51" s="217" t="s">
+      <c r="B51" s="220" t="s">
         <v>85</v>
       </c>
-      <c r="C51" s="217"/>
-      <c r="D51" s="217"/>
-      <c r="E51" s="217"/>
-      <c r="F51" s="217"/>
-      <c r="G51" s="217"/>
+      <c r="C51" s="220"/>
+      <c r="D51" s="220"/>
+      <c r="E51" s="220"/>
+      <c r="F51" s="220"/>
+      <c r="G51" s="220"/>
       <c r="H51" s="31"/>
       <c r="I51" s="31"/>
       <c r="J51" s="31"/>
@@ -34430,15 +34448,15 @@
       <c r="L57" s="24"/>
       <c r="M57" s="24"/>
     </row>
-    <row r="58" spans="1:13" s="216" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="1:13" s="221" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="59" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="24"/>
-      <c r="B59" s="217" t="s">
+      <c r="B59" s="220" t="s">
         <v>92</v>
       </c>
-      <c r="C59" s="217"/>
-      <c r="D59" s="217"/>
-      <c r="E59" s="217"/>
+      <c r="C59" s="220"/>
+      <c r="D59" s="220"/>
+      <c r="E59" s="220"/>
       <c r="F59" s="31"/>
       <c r="G59" s="31"/>
       <c r="H59" s="31"/>
@@ -34531,16 +34549,16 @@
       <c r="L64" s="24"/>
       <c r="M64" s="24"/>
     </row>
-    <row r="65" spans="1:13" s="216" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" spans="1:13" s="221" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="66" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="24"/>
-      <c r="B66" s="217" t="s">
+      <c r="B66" s="220" t="s">
         <v>97</v>
       </c>
-      <c r="C66" s="217"/>
-      <c r="D66" s="217"/>
-      <c r="E66" s="217"/>
-      <c r="F66" s="217"/>
+      <c r="C66" s="220"/>
+      <c r="D66" s="220"/>
+      <c r="E66" s="220"/>
+      <c r="F66" s="220"/>
       <c r="G66" s="31"/>
       <c r="H66" s="31"/>
       <c r="I66" s="31"/>
@@ -34634,16 +34652,16 @@
       <c r="L71" s="24"/>
       <c r="M71" s="24"/>
     </row>
-    <row r="72" spans="1:13" s="216" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" spans="1:13" s="221" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="73" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="24"/>
-      <c r="B73" s="217" t="s">
+      <c r="B73" s="220" t="s">
         <v>102</v>
       </c>
-      <c r="C73" s="217"/>
-      <c r="D73" s="217"/>
-      <c r="E73" s="217"/>
-      <c r="F73" s="217"/>
+      <c r="C73" s="220"/>
+      <c r="D73" s="220"/>
+      <c r="E73" s="220"/>
+      <c r="F73" s="220"/>
       <c r="G73" s="31"/>
       <c r="H73" s="31"/>
       <c r="I73" s="31"/>
@@ -34737,13 +34755,13 @@
       <c r="L78" s="24"/>
       <c r="M78" s="24"/>
     </row>
-    <row r="79" spans="1:13" s="216" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="1:13" s="221" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="80" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="24"/>
-      <c r="B80" s="217" t="s">
+      <c r="B80" s="220" t="s">
         <v>108</v>
       </c>
-      <c r="C80" s="217"/>
+      <c r="C80" s="220"/>
       <c r="D80" s="31"/>
       <c r="E80" s="31"/>
       <c r="F80" s="31"/>
@@ -34882,7 +34900,7 @@
       <c r="L87" s="24"/>
       <c r="M87" s="24"/>
     </row>
-    <row r="88" spans="1:13" s="216" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" spans="1:13" s="221" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="89" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="24"/>
       <c r="B89" s="41" t="s">
@@ -35023,17 +35041,17 @@
       <c r="L96" s="24"/>
       <c r="M96" s="24"/>
     </row>
-    <row r="97" spans="1:13" s="216" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" spans="1:13" s="221" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="98" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="24"/>
-      <c r="B98" s="217" t="s">
+      <c r="B98" s="220" t="s">
         <v>130</v>
       </c>
-      <c r="C98" s="217"/>
-      <c r="D98" s="217"/>
-      <c r="E98" s="217"/>
-      <c r="F98" s="217"/>
-      <c r="G98" s="217"/>
+      <c r="C98" s="220"/>
+      <c r="D98" s="220"/>
+      <c r="E98" s="220"/>
+      <c r="F98" s="220"/>
+      <c r="G98" s="220"/>
       <c r="H98" s="31"/>
       <c r="I98" s="31"/>
       <c r="J98" s="31"/>
@@ -35145,14 +35163,14 @@
     </row>
     <row r="105" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="24"/>
-      <c r="B105" s="218" t="s">
+      <c r="B105" s="225" t="s">
         <v>135</v>
       </c>
-      <c r="C105" s="218"/>
-      <c r="D105" s="218"/>
-      <c r="E105" s="218"/>
-      <c r="F105" s="218"/>
-      <c r="G105" s="218"/>
+      <c r="C105" s="225"/>
+      <c r="D105" s="225"/>
+      <c r="E105" s="225"/>
+      <c r="F105" s="225"/>
+      <c r="G105" s="225"/>
       <c r="H105" s="31"/>
       <c r="I105" s="31"/>
       <c r="J105" s="31"/>
@@ -35160,7 +35178,7 @@
       <c r="L105" s="24"/>
       <c r="M105" s="24"/>
     </row>
-    <row r="106" spans="1:13" s="216" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="106" spans="1:13" s="221" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" s="24"/>
       <c r="B107" s="24"/>
@@ -35208,6 +35226,81 @@
     </row>
   </sheetData>
   <mergeCells count="91">
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="A106:XFD106"/>
+    <mergeCell ref="A43:XFD43"/>
+    <mergeCell ref="A50:XFD50"/>
+    <mergeCell ref="A58:XFD58"/>
+    <mergeCell ref="A65:XFD65"/>
+    <mergeCell ref="A72:XFD72"/>
+    <mergeCell ref="A79:XFD79"/>
+    <mergeCell ref="B98:G98"/>
+    <mergeCell ref="B105:G105"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="A88:XFD88"/>
+    <mergeCell ref="A97:XFD97"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B66:F66"/>
+    <mergeCell ref="B73:F73"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B38:J38"/>
+    <mergeCell ref="A37:XFD37"/>
+    <mergeCell ref="A32:XFD32"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="B33:J33"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="A21:XFD21"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="A13:XFD13"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B22:K22"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="J11:K11"/>
@@ -35224,81 +35317,6 @@
     <mergeCell ref="C9:K9"/>
     <mergeCell ref="C10:K10"/>
     <mergeCell ref="B4:K4"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="A21:XFD21"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="A13:XFD13"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B22:K22"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="B38:J38"/>
-    <mergeCell ref="A37:XFD37"/>
-    <mergeCell ref="A32:XFD32"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="B33:J33"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B66:F66"/>
-    <mergeCell ref="B73:F73"/>
-    <mergeCell ref="B27:K27"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="A106:XFD106"/>
-    <mergeCell ref="A43:XFD43"/>
-    <mergeCell ref="A50:XFD50"/>
-    <mergeCell ref="A58:XFD58"/>
-    <mergeCell ref="A65:XFD65"/>
-    <mergeCell ref="A72:XFD72"/>
-    <mergeCell ref="A79:XFD79"/>
-    <mergeCell ref="B98:G98"/>
-    <mergeCell ref="B105:G105"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="A88:XFD88"/>
-    <mergeCell ref="A97:XFD97"/>
-    <mergeCell ref="B44:G44"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -35337,38 +35355,38 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="2:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="228" t="s">
+      <c r="B2" s="241" t="s">
         <v>531</v>
       </c>
-      <c r="C2" s="229"/>
-      <c r="D2" s="229"/>
-      <c r="E2" s="229"/>
-      <c r="F2" s="230"/>
+      <c r="C2" s="242"/>
+      <c r="D2" s="242"/>
+      <c r="E2" s="242"/>
+      <c r="F2" s="243"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="231" t="s">
+      <c r="B3" s="244" t="s">
         <v>542</v>
       </c>
-      <c r="C3" s="232"/>
-      <c r="D3" s="232"/>
-      <c r="E3" s="232"/>
-      <c r="F3" s="233"/>
+      <c r="C3" s="245"/>
+      <c r="D3" s="245"/>
+      <c r="E3" s="245"/>
+      <c r="F3" s="246"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="2:7" s="47" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="179" t="s">
+      <c r="B4" s="164" t="s">
         <v>136</v>
       </c>
       <c r="C4" s="197"/>
-      <c r="D4" s="180"/>
+      <c r="D4" s="165"/>
       <c r="E4" s="197" t="s">
         <v>536</v>
       </c>
-      <c r="F4" s="180"/>
+      <c r="F4" s="165"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="2:7" s="234" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:7" s="228" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="13"/>
       <c r="C6" s="43" t="s">
@@ -35386,39 +35404,39 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="2:7" s="51" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="243" t="s">
+      <c r="B7" s="237" t="s">
         <v>141</v>
       </c>
-      <c r="C7" s="245" t="s">
+      <c r="C7" s="239" t="s">
         <v>538</v>
       </c>
-      <c r="D7" s="170" t="s">
+      <c r="D7" s="166" t="s">
         <v>142</v>
       </c>
       <c r="E7" s="83" t="s">
         <v>677</v>
       </c>
-      <c r="F7" s="235" t="s">
+      <c r="F7" s="229" t="s">
         <v>539</v>
       </c>
       <c r="G7" s="18"/>
     </row>
     <row r="8" spans="2:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="244"/>
-      <c r="C8" s="246"/>
-      <c r="D8" s="171"/>
+      <c r="B8" s="238"/>
+      <c r="C8" s="240"/>
+      <c r="D8" s="167"/>
       <c r="E8" s="82" t="s">
         <v>676</v>
       </c>
-      <c r="F8" s="236"/>
+      <c r="F8" s="230"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="2:7" s="51" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="201"/>
-      <c r="C9" s="237" t="s">
+      <c r="C9" s="231" t="s">
         <v>537</v>
       </c>
-      <c r="D9" s="240" t="s">
+      <c r="D9" s="234" t="s">
         <v>525</v>
       </c>
       <c r="E9" s="81" t="s">
@@ -35433,8 +35451,8 @@
     </row>
     <row r="10" spans="2:7" s="51" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="202"/>
-      <c r="C10" s="238"/>
-      <c r="D10" s="241"/>
+      <c r="C10" s="232"/>
+      <c r="D10" s="235"/>
       <c r="E10" s="81" t="s">
         <v>518</v>
       </c>
@@ -35443,8 +35461,8 @@
     </row>
     <row r="11" spans="2:7" s="51" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="202"/>
-      <c r="C11" s="238"/>
-      <c r="D11" s="241"/>
+      <c r="C11" s="232"/>
+      <c r="D11" s="235"/>
       <c r="E11" s="81" t="s">
         <v>520</v>
       </c>
@@ -35453,8 +35471,8 @@
     </row>
     <row r="12" spans="2:7" s="51" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="202"/>
-      <c r="C12" s="238"/>
-      <c r="D12" s="241"/>
+      <c r="C12" s="232"/>
+      <c r="D12" s="235"/>
       <c r="E12" s="81" t="s">
         <v>521</v>
       </c>
@@ -35463,8 +35481,8 @@
     </row>
     <row r="13" spans="2:7" s="51" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="202"/>
-      <c r="C13" s="238"/>
-      <c r="D13" s="241"/>
+      <c r="C13" s="232"/>
+      <c r="D13" s="235"/>
       <c r="E13" s="81" t="s">
         <v>519</v>
       </c>
@@ -35473,8 +35491,8 @@
     </row>
     <row r="14" spans="2:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="203"/>
-      <c r="C14" s="239"/>
-      <c r="D14" s="242"/>
+      <c r="C14" s="233"/>
+      <c r="D14" s="236"/>
       <c r="E14" s="81" t="s">
         <v>523</v>
       </c>
@@ -35641,6 +35659,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:F4"/>
     <mergeCell ref="A5:XFD5"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="B9:B14"/>
@@ -35650,11 +35673,6 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="G9:G14"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:F4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>

--- a/자소서/스펙업 2017 하반기 채용다이어리.xlsx
+++ b/자소서/스펙업 2017 하반기 채용다이어리.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="1099">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="1099">
   <si>
     <t>카톡으로 공채 소식 받기</t>
   </si>
@@ -4479,26 +4479,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>만도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>만도헬라일렉트로닉스</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>만도헬라일렉트로닉스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>SPC그룹</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10월 17일 17:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>10월 20일 18:00</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4520,6 +4508,18 @@
   </si>
   <si>
     <t>10월 21일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11월 2일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5523,6 +5523,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5541,25 +5550,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5568,25 +5562,19 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5595,22 +5583,16 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5637,10 +5619,13 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5652,10 +5637,25 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5682,16 +5682,16 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5757,8 +5757,23 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5769,12 +5784,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5784,14 +5793,23 @@
     <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5832,24 +5850,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5883,7 +5883,10 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5895,10 +5898,7 @@
     <xf numFmtId="0" fontId="5" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7498,84 +7498,84 @@
       <c r="M1" s="137"/>
     </row>
     <row r="2" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="144" t="s">
+      <c r="B2" s="138" t="s">
         <v>706</v>
       </c>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="145"/>
-      <c r="M2" s="146"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
+      <c r="L2" s="139"/>
+      <c r="M2" s="140"/>
     </row>
     <row r="3" spans="2:13" ht="171" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="141" t="s">
+      <c r="B3" s="144" t="s">
         <v>675</v>
       </c>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="142"/>
-      <c r="L3" s="142"/>
-      <c r="M3" s="143"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="145"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="145"/>
+      <c r="J3" s="145"/>
+      <c r="K3" s="145"/>
+      <c r="L3" s="145"/>
+      <c r="M3" s="146"/>
     </row>
     <row r="4" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="144" t="s">
+      <c r="B4" s="138" t="s">
         <v>707</v>
       </c>
-      <c r="C4" s="145"/>
-      <c r="D4" s="145"/>
-      <c r="E4" s="145"/>
-      <c r="F4" s="145"/>
-      <c r="G4" s="145"/>
-      <c r="H4" s="145"/>
-      <c r="I4" s="145"/>
-      <c r="J4" s="145"/>
-      <c r="K4" s="145"/>
-      <c r="L4" s="145"/>
-      <c r="M4" s="146"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="139"/>
+      <c r="J4" s="139"/>
+      <c r="K4" s="139"/>
+      <c r="L4" s="139"/>
+      <c r="M4" s="140"/>
     </row>
     <row r="5" spans="2:13" ht="286.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="144" t="s">
         <v>850</v>
       </c>
-      <c r="C5" s="142"/>
-      <c r="D5" s="142"/>
-      <c r="E5" s="142"/>
-      <c r="F5" s="142"/>
-      <c r="G5" s="142"/>
-      <c r="H5" s="142"/>
-      <c r="I5" s="142"/>
-      <c r="J5" s="142"/>
-      <c r="K5" s="142"/>
-      <c r="L5" s="142"/>
-      <c r="M5" s="143"/>
+      <c r="C5" s="145"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="145"/>
+      <c r="F5" s="145"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="145"/>
+      <c r="I5" s="145"/>
+      <c r="J5" s="145"/>
+      <c r="K5" s="145"/>
+      <c r="L5" s="145"/>
+      <c r="M5" s="146"/>
     </row>
     <row r="6" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="144" t="s">
+      <c r="B6" s="138" t="s">
         <v>651</v>
       </c>
-      <c r="C6" s="145"/>
-      <c r="D6" s="145"/>
-      <c r="E6" s="145"/>
-      <c r="F6" s="145"/>
-      <c r="G6" s="145"/>
-      <c r="H6" s="145"/>
-      <c r="I6" s="145"/>
-      <c r="J6" s="145"/>
-      <c r="K6" s="145"/>
-      <c r="L6" s="145"/>
-      <c r="M6" s="146"/>
+      <c r="C6" s="139"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="139"/>
+      <c r="J6" s="139"/>
+      <c r="K6" s="139"/>
+      <c r="L6" s="139"/>
+      <c r="M6" s="140"/>
     </row>
     <row r="7" spans="2:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="135"/>
@@ -7626,23 +7626,17 @@
       <c r="E10" s="136"/>
       <c r="F10" s="136"/>
       <c r="G10" s="137"/>
-      <c r="H10" s="138" t="s">
+      <c r="H10" s="141" t="s">
         <v>653</v>
       </c>
-      <c r="I10" s="139"/>
-      <c r="J10" s="139"/>
-      <c r="K10" s="139"/>
-      <c r="L10" s="139"/>
-      <c r="M10" s="140"/>
+      <c r="I10" s="142"/>
+      <c r="J10" s="142"/>
+      <c r="K10" s="142"/>
+      <c r="L10" s="142"/>
+      <c r="M10" s="143"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="H9:M9"/>
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="H10:M10"/>
     <mergeCell ref="B3:M3"/>
@@ -7650,6 +7644,12 @@
     <mergeCell ref="B5:M5"/>
     <mergeCell ref="B6:M6"/>
     <mergeCell ref="B7:M7"/>
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="H9:M9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7694,7 +7694,7 @@
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
-      <c r="B3" s="217" t="s">
+      <c r="B3" s="222" t="s">
         <v>639</v>
       </c>
       <c r="C3" s="136"/>
@@ -8031,7 +8031,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="171" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:3" s="165" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:3" s="47" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="15"/>
       <c r="B6" s="43" t="s">
@@ -8254,7 +8254,7 @@
     </row>
     <row r="4" spans="1:14" s="76" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="73"/>
-      <c r="B4" s="164" t="s">
+      <c r="B4" s="179" t="s">
         <v>547</v>
       </c>
       <c r="C4" s="197"/>
@@ -8263,32 +8263,32 @@
       <c r="F4" s="197"/>
       <c r="G4" s="197"/>
       <c r="H4" s="197"/>
-      <c r="I4" s="165"/>
-      <c r="J4" s="262" t="s">
+      <c r="I4" s="180"/>
+      <c r="J4" s="258" t="s">
         <v>642</v>
       </c>
-      <c r="K4" s="262"/>
-      <c r="L4" s="262"/>
-      <c r="M4" s="262"/>
-      <c r="N4" s="263"/>
-    </row>
-    <row r="5" spans="1:14" s="171" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="K4" s="258"/>
+      <c r="L4" s="258"/>
+      <c r="M4" s="258"/>
+      <c r="N4" s="259"/>
+    </row>
+    <row r="5" spans="1:14" s="165" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:14" s="85" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="259" t="s">
+      <c r="B6" s="260" t="s">
         <v>638</v>
       </c>
-      <c r="C6" s="260"/>
-      <c r="D6" s="260"/>
-      <c r="E6" s="260"/>
-      <c r="F6" s="260"/>
-      <c r="G6" s="260"/>
-      <c r="H6" s="260"/>
-      <c r="I6" s="260"/>
-      <c r="J6" s="260"/>
-      <c r="K6" s="260"/>
-      <c r="L6" s="260"/>
-      <c r="M6" s="260"/>
-      <c r="N6" s="261"/>
+      <c r="C6" s="261"/>
+      <c r="D6" s="261"/>
+      <c r="E6" s="261"/>
+      <c r="F6" s="261"/>
+      <c r="G6" s="261"/>
+      <c r="H6" s="261"/>
+      <c r="I6" s="261"/>
+      <c r="J6" s="261"/>
+      <c r="K6" s="261"/>
+      <c r="L6" s="261"/>
+      <c r="M6" s="261"/>
+      <c r="N6" s="262"/>
     </row>
     <row r="7" spans="1:14" s="47" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="15"/>
@@ -8334,7 +8334,7 @@
     </row>
     <row r="8" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="85"/>
-      <c r="B8" s="258" t="s">
+      <c r="B8" s="263" t="s">
         <v>625</v>
       </c>
       <c r="C8" s="256" t="s">
@@ -8358,7 +8358,7 @@
     </row>
     <row r="9" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="85"/>
-      <c r="B9" s="258"/>
+      <c r="B9" s="263"/>
       <c r="C9" s="256"/>
       <c r="D9" s="93" t="s">
         <v>629</v>
@@ -8378,7 +8378,7 @@
     </row>
     <row r="10" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="85"/>
-      <c r="B10" s="258"/>
+      <c r="B10" s="263"/>
       <c r="C10" s="256"/>
       <c r="D10" s="93" t="s">
         <v>630</v>
@@ -8402,7 +8402,7 @@
     </row>
     <row r="11" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="85"/>
-      <c r="B11" s="258"/>
+      <c r="B11" s="263"/>
       <c r="C11" s="256" t="s">
         <v>631</v>
       </c>
@@ -8430,7 +8430,7 @@
     </row>
     <row r="12" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="85"/>
-      <c r="B12" s="258"/>
+      <c r="B12" s="263"/>
       <c r="C12" s="256"/>
       <c r="D12" s="94" t="s">
         <v>633</v>
@@ -8468,7 +8468,7 @@
     </row>
     <row r="13" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="85"/>
-      <c r="B13" s="258"/>
+      <c r="B13" s="263"/>
       <c r="C13" s="256"/>
       <c r="D13" s="94" t="s">
         <v>634</v>
@@ -8506,7 +8506,7 @@
     </row>
     <row r="14" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="85"/>
-      <c r="B14" s="258"/>
+      <c r="B14" s="263"/>
       <c r="C14" s="256"/>
       <c r="D14" s="94" t="s">
         <v>635</v>
@@ -8530,7 +8530,7 @@
     </row>
     <row r="15" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="85"/>
-      <c r="B15" s="258"/>
+      <c r="B15" s="263"/>
       <c r="C15" s="256"/>
       <c r="D15" s="94" t="s">
         <v>636</v>
@@ -8552,7 +8552,7 @@
     </row>
     <row r="16" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="85"/>
-      <c r="B16" s="258"/>
+      <c r="B16" s="263"/>
       <c r="C16" s="256"/>
       <c r="D16" s="94" t="s">
         <v>637</v>
@@ -8578,7 +8578,7 @@
     </row>
     <row r="17" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="85"/>
-      <c r="B17" s="258" t="s">
+      <c r="B17" s="263" t="s">
         <v>550</v>
       </c>
       <c r="C17" s="256" t="s">
@@ -8608,7 +8608,7 @@
     </row>
     <row r="18" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="85"/>
-      <c r="B18" s="258"/>
+      <c r="B18" s="263"/>
       <c r="C18" s="256"/>
       <c r="D18" s="94" t="s">
         <v>553</v>
@@ -8628,7 +8628,7 @@
     </row>
     <row r="19" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="85"/>
-      <c r="B19" s="258"/>
+      <c r="B19" s="263"/>
       <c r="C19" s="256"/>
       <c r="D19" s="94" t="s">
         <v>554</v>
@@ -8652,7 +8652,7 @@
     </row>
     <row r="20" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="85"/>
-      <c r="B20" s="258"/>
+      <c r="B20" s="263"/>
       <c r="C20" s="256"/>
       <c r="D20" s="94" t="s">
         <v>555</v>
@@ -8672,7 +8672,7 @@
     </row>
     <row r="21" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="85"/>
-      <c r="B21" s="258"/>
+      <c r="B21" s="263"/>
       <c r="C21" s="256"/>
       <c r="D21" s="94" t="s">
         <v>556</v>
@@ -8696,7 +8696,7 @@
     </row>
     <row r="22" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="85"/>
-      <c r="B22" s="258"/>
+      <c r="B22" s="263"/>
       <c r="C22" s="256"/>
       <c r="D22" s="94" t="s">
         <v>557</v>
@@ -8718,7 +8718,7 @@
     </row>
     <row r="23" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="85"/>
-      <c r="B23" s="258"/>
+      <c r="B23" s="263"/>
       <c r="C23" s="256"/>
       <c r="D23" s="94" t="s">
         <v>558</v>
@@ -8742,7 +8742,7 @@
     </row>
     <row r="24" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="85"/>
-      <c r="B24" s="258"/>
+      <c r="B24" s="263"/>
       <c r="C24" s="13" t="s">
         <v>559</v>
       </c>
@@ -8782,7 +8782,7 @@
     </row>
     <row r="25" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="85"/>
-      <c r="B25" s="258" t="s">
+      <c r="B25" s="263" t="s">
         <v>560</v>
       </c>
       <c r="C25" s="256" t="s">
@@ -8810,7 +8810,7 @@
     </row>
     <row r="26" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="85"/>
-      <c r="B26" s="258"/>
+      <c r="B26" s="263"/>
       <c r="C26" s="256"/>
       <c r="D26" s="94" t="s">
         <v>563</v>
@@ -8834,7 +8834,7 @@
     </row>
     <row r="27" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="85"/>
-      <c r="B27" s="258"/>
+      <c r="B27" s="263"/>
       <c r="C27" s="256"/>
       <c r="D27" s="94" t="s">
         <v>564</v>
@@ -8856,7 +8856,7 @@
     </row>
     <row r="28" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="85"/>
-      <c r="B28" s="258"/>
+      <c r="B28" s="263"/>
       <c r="C28" s="256" t="s">
         <v>565</v>
       </c>
@@ -8886,7 +8886,7 @@
     </row>
     <row r="29" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="85"/>
-      <c r="B29" s="258"/>
+      <c r="B29" s="263"/>
       <c r="C29" s="256"/>
       <c r="D29" s="94" t="s">
         <v>567</v>
@@ -8910,7 +8910,7 @@
     </row>
     <row r="30" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="85"/>
-      <c r="B30" s="258"/>
+      <c r="B30" s="263"/>
       <c r="C30" s="256"/>
       <c r="D30" s="94" t="s">
         <v>568</v>
@@ -8940,7 +8940,7 @@
     </row>
     <row r="31" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="85"/>
-      <c r="B31" s="258"/>
+      <c r="B31" s="263"/>
       <c r="C31" s="256"/>
       <c r="D31" s="95" t="s">
         <v>569</v>
@@ -8972,7 +8972,7 @@
     </row>
     <row r="32" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="85"/>
-      <c r="B32" s="258"/>
+      <c r="B32" s="263"/>
       <c r="C32" s="256"/>
       <c r="D32" s="94" t="s">
         <v>570</v>
@@ -8996,7 +8996,7 @@
     </row>
     <row r="33" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="85"/>
-      <c r="B33" s="258"/>
+      <c r="B33" s="263"/>
       <c r="C33" s="256" t="s">
         <v>571</v>
       </c>
@@ -9020,7 +9020,7 @@
     </row>
     <row r="34" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="85"/>
-      <c r="B34" s="258"/>
+      <c r="B34" s="263"/>
       <c r="C34" s="256"/>
       <c r="D34" s="94" t="s">
         <v>573</v>
@@ -9044,7 +9044,7 @@
     </row>
     <row r="35" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="85"/>
-      <c r="B35" s="258" t="s">
+      <c r="B35" s="263" t="s">
         <v>574</v>
       </c>
       <c r="C35" s="256" t="s">
@@ -9068,7 +9068,7 @@
     </row>
     <row r="36" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="85"/>
-      <c r="B36" s="258"/>
+      <c r="B36" s="263"/>
       <c r="C36" s="256"/>
       <c r="D36" s="94" t="s">
         <v>577</v>
@@ -9088,7 +9088,7 @@
     </row>
     <row r="37" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="85"/>
-      <c r="B37" s="258"/>
+      <c r="B37" s="263"/>
       <c r="C37" s="256"/>
       <c r="D37" s="94" t="s">
         <v>578</v>
@@ -9108,7 +9108,7 @@
     </row>
     <row r="38" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="85"/>
-      <c r="B38" s="258"/>
+      <c r="B38" s="263"/>
       <c r="C38" s="256" t="s">
         <v>579</v>
       </c>
@@ -9130,7 +9130,7 @@
     </row>
     <row r="39" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="85"/>
-      <c r="B39" s="258"/>
+      <c r="B39" s="263"/>
       <c r="C39" s="256"/>
       <c r="D39" s="94" t="s">
         <v>581</v>
@@ -9154,7 +9154,7 @@
     </row>
     <row r="40" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="85"/>
-      <c r="B40" s="258"/>
+      <c r="B40" s="263"/>
       <c r="C40" s="256"/>
       <c r="D40" s="94" t="s">
         <v>582</v>
@@ -9180,7 +9180,7 @@
     </row>
     <row r="41" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="85"/>
-      <c r="B41" s="258"/>
+      <c r="B41" s="263"/>
       <c r="C41" s="256"/>
       <c r="D41" s="94" t="s">
         <v>583</v>
@@ -9200,18 +9200,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="B3:N3"/>
-    <mergeCell ref="A5:XFD5"/>
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:N4"/>
-    <mergeCell ref="B6:N6"/>
-    <mergeCell ref="B8:B16"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="B17:B24"/>
-    <mergeCell ref="C17:C23"/>
     <mergeCell ref="B25:B34"/>
     <mergeCell ref="C25:C27"/>
     <mergeCell ref="C28:C32"/>
@@ -9219,6 +9207,18 @@
     <mergeCell ref="B35:B41"/>
     <mergeCell ref="C35:C37"/>
     <mergeCell ref="C38:C41"/>
+    <mergeCell ref="B6:N6"/>
+    <mergeCell ref="B8:B16"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="B17:B24"/>
+    <mergeCell ref="C17:C23"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="A5:XFD5"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:N4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -12437,66 +12437,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="118.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="168"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="170"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="164"/>
     </row>
     <row r="2" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="173" t="s">
         <v>708</v>
       </c>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="180"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="174"/>
+      <c r="I2" s="175"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="66"/>
-      <c r="B3" s="172" t="s">
+      <c r="B3" s="166" t="s">
         <v>540</v>
       </c>
-      <c r="C3" s="173"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="173"/>
-      <c r="F3" s="173"/>
-      <c r="G3" s="173"/>
-      <c r="H3" s="173"/>
-      <c r="I3" s="174"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="168"/>
       <c r="J3" s="66"/>
     </row>
     <row r="4" spans="1:10" s="74" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="73"/>
-      <c r="B4" s="162" t="s">
+      <c r="B4" s="177" t="s">
         <v>709</v>
       </c>
-      <c r="C4" s="163"/>
-      <c r="D4" s="164" t="s">
+      <c r="C4" s="178"/>
+      <c r="D4" s="179" t="s">
         <v>529</v>
       </c>
-      <c r="E4" s="165"/>
-      <c r="F4" s="164" t="s">
+      <c r="E4" s="180"/>
+      <c r="F4" s="179" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="165"/>
-      <c r="H4" s="164" t="s">
+      <c r="G4" s="180"/>
+      <c r="H4" s="179" t="s">
         <v>530</v>
       </c>
-      <c r="I4" s="165"/>
+      <c r="I4" s="180"/>
       <c r="J4" s="15"/>
     </row>
-    <row r="5" spans="1:10" s="171" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:10" s="165" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:10" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="166"/>
+      <c r="B6" s="170"/>
       <c r="C6" s="54" t="s">
         <v>858</v>
       </c>
@@ -12520,7 +12520,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="167"/>
+      <c r="B7" s="171"/>
       <c r="C7" s="120" t="s">
         <v>711</v>
       </c>
@@ -12544,7 +12544,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="157" t="s">
+      <c r="B8" s="160" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="62"/>
@@ -12564,7 +12564,7 @@
       <c r="I8" s="62"/>
     </row>
     <row r="9" spans="1:10" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="157"/>
+      <c r="B9" s="160"/>
       <c r="C9" s="62"/>
       <c r="D9" s="62"/>
       <c r="E9" s="62"/>
@@ -12576,7 +12576,7 @@
       <c r="I9" s="62"/>
     </row>
     <row r="10" spans="1:10" s="131" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="157"/>
+      <c r="B10" s="160"/>
       <c r="C10" s="62"/>
       <c r="D10" s="62"/>
       <c r="E10" s="62"/>
@@ -12588,7 +12588,7 @@
       <c r="I10" s="62"/>
     </row>
     <row r="11" spans="1:10" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="157"/>
+      <c r="B11" s="160"/>
       <c r="C11" s="62"/>
       <c r="D11" s="62"/>
       <c r="E11" s="62"/>
@@ -12600,7 +12600,7 @@
       <c r="I11" s="62"/>
     </row>
     <row r="12" spans="1:10" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="157"/>
+      <c r="B12" s="160"/>
       <c r="C12" s="62"/>
       <c r="D12" s="62"/>
       <c r="E12" s="62"/>
@@ -12612,7 +12612,7 @@
       <c r="I12" s="62"/>
     </row>
     <row r="13" spans="1:10" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="157"/>
+      <c r="B13" s="160"/>
       <c r="C13" s="62"/>
       <c r="D13" s="62"/>
       <c r="E13" s="62"/>
@@ -12624,7 +12624,7 @@
       <c r="I13" s="62"/>
     </row>
     <row r="14" spans="1:10" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="157"/>
+      <c r="B14" s="160"/>
       <c r="C14" s="62"/>
       <c r="D14" s="62"/>
       <c r="E14" s="62"/>
@@ -12636,7 +12636,7 @@
       <c r="I14" s="62"/>
     </row>
     <row r="15" spans="1:10" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="157"/>
+      <c r="B15" s="160"/>
       <c r="C15" s="62"/>
       <c r="D15" s="62"/>
       <c r="E15" s="62"/>
@@ -12648,7 +12648,7 @@
       <c r="I15" s="62"/>
     </row>
     <row r="16" spans="1:10" s="123" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="157"/>
+      <c r="B16" s="160"/>
       <c r="C16" s="62"/>
       <c r="D16" s="62"/>
       <c r="E16" s="62"/>
@@ -12660,7 +12660,7 @@
       <c r="I16" s="62"/>
     </row>
     <row r="17" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="157"/>
+      <c r="B17" s="160"/>
       <c r="C17" s="62"/>
       <c r="D17" s="62"/>
       <c r="E17" s="62"/>
@@ -12672,7 +12672,7 @@
       <c r="I17" s="62"/>
     </row>
     <row r="18" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="159" t="s">
+      <c r="B18" s="172" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="69"/>
@@ -12684,7 +12684,7 @@
       <c r="I18" s="7"/>
     </row>
     <row r="19" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="160"/>
+      <c r="B19" s="156"/>
       <c r="C19" s="71"/>
       <c r="D19" s="62"/>
       <c r="E19" s="70"/>
@@ -12694,7 +12694,7 @@
       <c r="I19" s="62"/>
     </row>
     <row r="20" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="160"/>
+      <c r="B20" s="156"/>
       <c r="C20" s="62"/>
       <c r="D20" s="62"/>
       <c r="E20" s="62"/>
@@ -12704,7 +12704,7 @@
       <c r="I20" s="62"/>
     </row>
     <row r="21" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="147" t="s">
+      <c r="B21" s="155" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="7"/>
@@ -12716,7 +12716,7 @@
       <c r="I21" s="7"/>
     </row>
     <row r="22" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="148"/>
+      <c r="B22" s="147"/>
       <c r="C22" s="62"/>
       <c r="D22" s="62"/>
       <c r="E22" s="62"/>
@@ -12726,7 +12726,7 @@
       <c r="I22" s="62"/>
     </row>
     <row r="23" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="148"/>
+      <c r="B23" s="147"/>
       <c r="C23" s="62"/>
       <c r="D23" s="62"/>
       <c r="E23" s="62"/>
@@ -12736,7 +12736,7 @@
       <c r="I23" s="62"/>
     </row>
     <row r="24" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="150" t="s">
+      <c r="B24" s="159" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="7"/>
@@ -12748,7 +12748,7 @@
       <c r="I24" s="7"/>
     </row>
     <row r="25" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="151"/>
+      <c r="B25" s="149"/>
       <c r="C25" s="62"/>
       <c r="D25" s="62"/>
       <c r="E25" s="62"/>
@@ -12758,7 +12758,7 @@
       <c r="I25" s="62"/>
     </row>
     <row r="26" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="151"/>
+      <c r="B26" s="149"/>
       <c r="C26" s="62"/>
       <c r="D26" s="62"/>
       <c r="E26" s="62"/>
@@ -12768,7 +12768,7 @@
       <c r="I26" s="62"/>
     </row>
     <row r="27" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="153" t="s">
+      <c r="B27" s="158" t="s">
         <v>12</v>
       </c>
       <c r="C27" s="7"/>
@@ -12780,7 +12780,7 @@
       <c r="I27" s="7"/>
     </row>
     <row r="28" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="154"/>
+      <c r="B28" s="151"/>
       <c r="C28" s="62"/>
       <c r="D28" s="62"/>
       <c r="E28" s="62"/>
@@ -12790,7 +12790,7 @@
       <c r="I28" s="62"/>
     </row>
     <row r="29" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="154"/>
+      <c r="B29" s="151"/>
       <c r="C29" s="62"/>
       <c r="D29" s="62"/>
       <c r="E29" s="62"/>
@@ -12800,7 +12800,7 @@
       <c r="I29" s="62"/>
     </row>
     <row r="30" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="175" t="s">
+      <c r="B30" s="169" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="59"/>
@@ -12812,7 +12812,7 @@
       <c r="I30" s="7"/>
     </row>
     <row r="31" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="176"/>
+      <c r="B31" s="153"/>
       <c r="C31" s="62"/>
       <c r="D31" s="62"/>
       <c r="E31" s="62"/>
@@ -12822,7 +12822,7 @@
       <c r="I31" s="62"/>
     </row>
     <row r="32" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="176"/>
+      <c r="B32" s="153"/>
       <c r="C32" s="62"/>
       <c r="D32" s="62"/>
       <c r="E32" s="62"/>
@@ -12833,7 +12833,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
-      <c r="B33" s="166"/>
+      <c r="B33" s="170"/>
       <c r="C33" s="54" t="s">
         <v>712</v>
       </c>
@@ -12859,7 +12859,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
-      <c r="B34" s="167"/>
+      <c r="B34" s="171"/>
       <c r="C34" s="120" t="s">
         <v>711</v>
       </c>
@@ -12885,7 +12885,7 @@
     </row>
     <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
-      <c r="B35" s="156" t="s">
+      <c r="B35" s="176" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="62" t="s">
@@ -12909,7 +12909,7 @@
     </row>
     <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="119"/>
-      <c r="B36" s="157"/>
+      <c r="B36" s="160"/>
       <c r="C36" s="62" t="s">
         <v>870</v>
       </c>
@@ -12929,7 +12929,7 @@
     </row>
     <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="119"/>
-      <c r="B37" s="157"/>
+      <c r="B37" s="160"/>
       <c r="C37" s="62" t="s">
         <v>869</v>
       </c>
@@ -12945,7 +12945,7 @@
     </row>
     <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="119"/>
-      <c r="B38" s="157"/>
+      <c r="B38" s="160"/>
       <c r="C38" s="62" t="s">
         <v>878</v>
       </c>
@@ -12959,7 +12959,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" s="1"/>
-      <c r="B39" s="157"/>
+      <c r="B39" s="160"/>
       <c r="C39" s="125" t="s">
         <v>882</v>
       </c>
@@ -12973,7 +12973,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40" s="123"/>
-      <c r="B40" s="157"/>
+      <c r="B40" s="160"/>
       <c r="C40" s="60" t="s">
         <v>883</v>
       </c>
@@ -12987,7 +12987,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41" s="123"/>
-      <c r="B41" s="157"/>
+      <c r="B41" s="160"/>
       <c r="C41" s="60" t="s">
         <v>884</v>
       </c>
@@ -13001,7 +13001,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A42" s="124"/>
-      <c r="B42" s="157"/>
+      <c r="B42" s="160"/>
       <c r="C42" s="60" t="s">
         <v>887</v>
       </c>
@@ -13015,7 +13015,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A43" s="124"/>
-      <c r="B43" s="157"/>
+      <c r="B43" s="160"/>
       <c r="C43" s="60" t="s">
         <v>892</v>
       </c>
@@ -13029,7 +13029,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44" s="126"/>
-      <c r="B44" s="157"/>
+      <c r="B44" s="160"/>
       <c r="C44" s="60" t="s">
         <v>907</v>
       </c>
@@ -13043,7 +13043,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45" s="1"/>
-      <c r="B45" s="158"/>
+      <c r="B45" s="161"/>
       <c r="C45" s="62" t="s">
         <v>898</v>
       </c>
@@ -13057,7 +13057,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A46" s="1"/>
-      <c r="B46" s="159" t="s">
+      <c r="B46" s="172" t="s">
         <v>9</v>
       </c>
       <c r="C46" s="69"/>
@@ -13073,7 +13073,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A47" s="1"/>
-      <c r="B47" s="160"/>
+      <c r="B47" s="156"/>
       <c r="C47" s="71"/>
       <c r="D47" s="5"/>
       <c r="E47" s="70"/>
@@ -13085,7 +13085,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A48" s="1"/>
-      <c r="B48" s="160"/>
+      <c r="B48" s="156"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -13097,7 +13097,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A49" s="1"/>
-      <c r="B49" s="147" t="s">
+      <c r="B49" s="155" t="s">
         <v>10</v>
       </c>
       <c r="C49" s="7"/>
@@ -13111,7 +13111,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A50" s="1"/>
-      <c r="B50" s="148"/>
+      <c r="B50" s="147"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
@@ -13123,7 +13123,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A51" s="1"/>
-      <c r="B51" s="148"/>
+      <c r="B51" s="147"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
@@ -13135,7 +13135,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A52" s="1"/>
-      <c r="B52" s="150" t="s">
+      <c r="B52" s="159" t="s">
         <v>11</v>
       </c>
       <c r="C52" s="7"/>
@@ -13149,7 +13149,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A53" s="1"/>
-      <c r="B53" s="151"/>
+      <c r="B53" s="149"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
@@ -13161,7 +13161,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A54" s="1"/>
-      <c r="B54" s="151"/>
+      <c r="B54" s="149"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
@@ -13173,7 +13173,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A55" s="1"/>
-      <c r="B55" s="153" t="s">
+      <c r="B55" s="158" t="s">
         <v>12</v>
       </c>
       <c r="C55" s="7"/>
@@ -13187,7 +13187,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A56" s="1"/>
-      <c r="B56" s="154"/>
+      <c r="B56" s="151"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
@@ -13199,7 +13199,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A57" s="1"/>
-      <c r="B57" s="154"/>
+      <c r="B57" s="151"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
@@ -13211,7 +13211,7 @@
     </row>
     <row r="58" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="1"/>
-      <c r="B58" s="175" t="s">
+      <c r="B58" s="169" t="s">
         <v>13</v>
       </c>
       <c r="C58" s="59"/>
@@ -13225,7 +13225,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A59" s="1"/>
-      <c r="B59" s="176"/>
+      <c r="B59" s="153"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
@@ -13237,7 +13237,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A60" s="1"/>
-      <c r="B60" s="176"/>
+      <c r="B60" s="153"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
@@ -13301,7 +13301,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A63" s="1"/>
-      <c r="B63" s="156" t="s">
+      <c r="B63" s="176" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="7" t="s">
@@ -13323,7 +13323,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A64" s="1"/>
-      <c r="B64" s="157"/>
+      <c r="B64" s="160"/>
       <c r="C64" s="5" t="s">
         <v>933</v>
       </c>
@@ -13341,7 +13341,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A65" s="132"/>
-      <c r="B65" s="157"/>
+      <c r="B65" s="160"/>
       <c r="C65" s="62" t="s">
         <v>999</v>
       </c>
@@ -13355,7 +13355,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A66" s="1"/>
-      <c r="B66" s="158"/>
+      <c r="B66" s="161"/>
       <c r="C66" s="6" t="s">
         <v>996</v>
       </c>
@@ -13369,7 +13369,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A67" s="1"/>
-      <c r="B67" s="159" t="s">
+      <c r="B67" s="172" t="s">
         <v>9</v>
       </c>
       <c r="C67" s="7" t="s">
@@ -13393,7 +13393,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A68" s="1"/>
-      <c r="B68" s="160"/>
+      <c r="B68" s="156"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5" t="s">
@@ -13411,7 +13411,7 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A69" s="123"/>
-      <c r="B69" s="160"/>
+      <c r="B69" s="156"/>
       <c r="C69" s="62"/>
       <c r="D69" s="62"/>
       <c r="E69" s="62" t="s">
@@ -13427,7 +13427,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A70" s="124"/>
-      <c r="B70" s="160"/>
+      <c r="B70" s="156"/>
       <c r="C70" s="62"/>
       <c r="D70" s="62"/>
       <c r="E70" s="62" t="s">
@@ -13443,7 +13443,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A71" s="124"/>
-      <c r="B71" s="160"/>
+      <c r="B71" s="156"/>
       <c r="C71" s="62"/>
       <c r="D71" s="62"/>
       <c r="E71" s="62"/>
@@ -13454,7 +13454,7 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A72" s="124"/>
-      <c r="B72" s="160"/>
+      <c r="B72" s="156"/>
       <c r="C72" s="62"/>
       <c r="D72" s="62"/>
       <c r="E72" s="62"/>
@@ -13466,7 +13466,7 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A73" s="1"/>
-      <c r="B73" s="161"/>
+      <c r="B73" s="157"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
@@ -13478,7 +13478,7 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A74" s="1"/>
-      <c r="B74" s="147" t="s">
+      <c r="B74" s="155" t="s">
         <v>10</v>
       </c>
       <c r="C74" s="7"/>
@@ -13492,7 +13492,7 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A75" s="1"/>
-      <c r="B75" s="148"/>
+      <c r="B75" s="147"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -13504,7 +13504,7 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A76" s="1"/>
-      <c r="B76" s="149"/>
+      <c r="B76" s="148"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
@@ -13516,7 +13516,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A77" s="1"/>
-      <c r="B77" s="150" t="s">
+      <c r="B77" s="159" t="s">
         <v>11</v>
       </c>
       <c r="C77" s="7"/>
@@ -13530,7 +13530,7 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A78" s="1"/>
-      <c r="B78" s="151"/>
+      <c r="B78" s="149"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -13542,7 +13542,7 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A79" s="1"/>
-      <c r="B79" s="152"/>
+      <c r="B79" s="150"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
@@ -13554,7 +13554,7 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A80" s="1"/>
-      <c r="B80" s="153" t="s">
+      <c r="B80" s="158" t="s">
         <v>12</v>
       </c>
       <c r="C80" s="7"/>
@@ -13568,7 +13568,7 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A81" s="1"/>
-      <c r="B81" s="154"/>
+      <c r="B81" s="151"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -13580,7 +13580,7 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A82" s="1"/>
-      <c r="B82" s="155"/>
+      <c r="B82" s="152"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
@@ -13592,7 +13592,7 @@
     </row>
     <row r="83" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="1"/>
-      <c r="B83" s="175" t="s">
+      <c r="B83" s="169" t="s">
         <v>13</v>
       </c>
       <c r="C83" s="7"/>
@@ -13606,7 +13606,7 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A84" s="1"/>
-      <c r="B84" s="176"/>
+      <c r="B84" s="153"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -13618,7 +13618,7 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A85" s="1"/>
-      <c r="B85" s="177"/>
+      <c r="B85" s="154"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
@@ -13682,7 +13682,7 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A88" s="1"/>
-      <c r="B88" s="156" t="s">
+      <c r="B88" s="176" t="s">
         <v>8</v>
       </c>
       <c r="C88" s="7" t="s">
@@ -13698,7 +13698,7 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A89" s="1"/>
-      <c r="B89" s="157"/>
+      <c r="B89" s="160"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -13710,7 +13710,7 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A90" s="1"/>
-      <c r="B90" s="158"/>
+      <c r="B90" s="161"/>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
@@ -13722,7 +13722,7 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A91" s="1"/>
-      <c r="B91" s="159" t="s">
+      <c r="B91" s="172" t="s">
         <v>9</v>
       </c>
       <c r="C91" s="7" t="s">
@@ -13744,7 +13744,7 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A92" s="1"/>
-      <c r="B92" s="160"/>
+      <c r="B92" s="156"/>
       <c r="C92" s="5" t="s">
         <v>862</v>
       </c>
@@ -13764,7 +13764,7 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A93" s="123"/>
-      <c r="B93" s="160"/>
+      <c r="B93" s="156"/>
       <c r="C93" s="62" t="s">
         <v>881</v>
       </c>
@@ -13784,7 +13784,7 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A94" s="124"/>
-      <c r="B94" s="160"/>
+      <c r="B94" s="156"/>
       <c r="C94" s="62" t="s">
         <v>889</v>
       </c>
@@ -13802,7 +13802,7 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A95" s="124"/>
-      <c r="B95" s="160"/>
+      <c r="B95" s="156"/>
       <c r="C95" s="62" t="s">
         <v>897</v>
       </c>
@@ -13818,7 +13818,7 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A96" s="124"/>
-      <c r="B96" s="160"/>
+      <c r="B96" s="156"/>
       <c r="C96" s="62" t="s">
         <v>907</v>
       </c>
@@ -13834,7 +13834,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A97" s="126"/>
-      <c r="B97" s="160"/>
+      <c r="B97" s="156"/>
       <c r="C97" s="60" t="s">
         <v>899</v>
       </c>
@@ -13848,7 +13848,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A98" s="1"/>
-      <c r="B98" s="161"/>
+      <c r="B98" s="157"/>
       <c r="D98" s="6"/>
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
@@ -13859,7 +13859,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A99" s="1"/>
-      <c r="B99" s="147" t="s">
+      <c r="B99" s="155" t="s">
         <v>10</v>
       </c>
       <c r="C99" s="7"/>
@@ -13873,7 +13873,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A100" s="1"/>
-      <c r="B100" s="148"/>
+      <c r="B100" s="147"/>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
@@ -13885,7 +13885,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A101" s="1"/>
-      <c r="B101" s="149"/>
+      <c r="B101" s="148"/>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
       <c r="E101" s="6"/>
@@ -13897,7 +13897,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A102" s="1"/>
-      <c r="B102" s="150" t="s">
+      <c r="B102" s="159" t="s">
         <v>11</v>
       </c>
       <c r="C102" s="7"/>
@@ -13911,7 +13911,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A103" s="1"/>
-      <c r="B103" s="151"/>
+      <c r="B103" s="149"/>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
@@ -13923,7 +13923,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A104" s="1"/>
-      <c r="B104" s="152"/>
+      <c r="B104" s="150"/>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
       <c r="E104" s="6"/>
@@ -13935,7 +13935,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A105" s="1"/>
-      <c r="B105" s="153" t="s">
+      <c r="B105" s="158" t="s">
         <v>12</v>
       </c>
       <c r="C105" s="7"/>
@@ -13949,7 +13949,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A106" s="1"/>
-      <c r="B106" s="154"/>
+      <c r="B106" s="151"/>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
@@ -13961,7 +13961,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A107" s="1"/>
-      <c r="B107" s="155"/>
+      <c r="B107" s="152"/>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
       <c r="E107" s="6"/>
@@ -13974,7 +13974,7 @@
     </row>
     <row r="108" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="1"/>
-      <c r="B108" s="175" t="s">
+      <c r="B108" s="169" t="s">
         <v>13</v>
       </c>
       <c r="C108" s="7"/>
@@ -13989,7 +13989,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A109" s="1"/>
-      <c r="B109" s="176"/>
+      <c r="B109" s="153"/>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
@@ -14002,7 +14002,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A110" s="1"/>
-      <c r="B110" s="177"/>
+      <c r="B110" s="154"/>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
       <c r="E110" s="6"/>
@@ -14069,7 +14069,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A113" s="1"/>
-      <c r="B113" s="157" t="s">
+      <c r="B113" s="160" t="s">
         <v>8</v>
       </c>
       <c r="C113" s="5" t="s">
@@ -14094,7 +14094,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A114" s="1"/>
-      <c r="B114" s="157"/>
+      <c r="B114" s="160"/>
       <c r="C114" s="5" t="s">
         <v>1018</v>
       </c>
@@ -14109,7 +14109,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A115" s="1"/>
-      <c r="B115" s="158"/>
+      <c r="B115" s="161"/>
       <c r="C115" s="6" t="s">
         <v>1041</v>
       </c>
@@ -14124,7 +14124,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A116" s="1"/>
-      <c r="B116" s="160" t="s">
+      <c r="B116" s="156" t="s">
         <v>9</v>
       </c>
       <c r="C116" s="5" t="s">
@@ -14149,7 +14149,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A117" s="1"/>
-      <c r="B117" s="160"/>
+      <c r="B117" s="156"/>
       <c r="C117" s="5"/>
       <c r="D117" s="5" t="s">
         <v>931</v>
@@ -14164,7 +14164,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A118" s="1"/>
-      <c r="B118" s="161"/>
+      <c r="B118" s="157"/>
       <c r="C118" s="6"/>
       <c r="D118" s="6"/>
       <c r="E118" s="6"/>
@@ -14177,7 +14177,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A119" s="1"/>
-      <c r="B119" s="148" t="s">
+      <c r="B119" s="147" t="s">
         <v>10</v>
       </c>
       <c r="C119" s="5"/>
@@ -14194,7 +14194,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A120" s="1"/>
-      <c r="B120" s="148"/>
+      <c r="B120" s="147"/>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
@@ -14207,7 +14207,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A121" s="1"/>
-      <c r="B121" s="149"/>
+      <c r="B121" s="148"/>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
       <c r="E121" s="6"/>
@@ -14220,7 +14220,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A122" s="1"/>
-      <c r="B122" s="151" t="s">
+      <c r="B122" s="149" t="s">
         <v>11</v>
       </c>
       <c r="C122" s="5"/>
@@ -14235,7 +14235,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A123" s="1"/>
-      <c r="B123" s="151"/>
+      <c r="B123" s="149"/>
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
@@ -14248,7 +14248,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A124" s="1"/>
-      <c r="B124" s="152"/>
+      <c r="B124" s="150"/>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
       <c r="E124" s="6"/>
@@ -14261,7 +14261,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A125" s="1"/>
-      <c r="B125" s="154" t="s">
+      <c r="B125" s="151" t="s">
         <v>12</v>
       </c>
       <c r="C125" s="5"/>
@@ -14276,7 +14276,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A126" s="1"/>
-      <c r="B126" s="154"/>
+      <c r="B126" s="151"/>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
@@ -14289,7 +14289,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A127" s="1"/>
-      <c r="B127" s="155"/>
+      <c r="B127" s="152"/>
       <c r="C127" s="6"/>
       <c r="D127" s="6"/>
       <c r="E127" s="6"/>
@@ -14301,7 +14301,7 @@
     </row>
     <row r="128" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="1"/>
-      <c r="B128" s="176" t="s">
+      <c r="B128" s="153" t="s">
         <v>13</v>
       </c>
       <c r="C128" s="5"/>
@@ -14315,7 +14315,7 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A129" s="1"/>
-      <c r="B129" s="176"/>
+      <c r="B129" s="153"/>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
@@ -14327,7 +14327,7 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A130" s="1"/>
-      <c r="B130" s="177"/>
+      <c r="B130" s="154"/>
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
       <c r="E130" s="6"/>
@@ -16865,15 +16865,21 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B119:B121"/>
-    <mergeCell ref="B122:B124"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="B116:B118"/>
-    <mergeCell ref="B105:B107"/>
-    <mergeCell ref="B102:B104"/>
-    <mergeCell ref="B113:B115"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="B91:B98"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="B67:B73"/>
+    <mergeCell ref="B35:B45"/>
+    <mergeCell ref="B46:B48"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="A5:XFD5"/>
     <mergeCell ref="B3:I3"/>
@@ -16890,21 +16896,15 @@
     <mergeCell ref="B83:B85"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B52:B54"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="B67:B73"/>
-    <mergeCell ref="B35:B45"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="B91:B98"/>
+    <mergeCell ref="B119:B121"/>
+    <mergeCell ref="B122:B124"/>
+    <mergeCell ref="B125:B127"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="B116:B118"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="B102:B104"/>
+    <mergeCell ref="B113:B115"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -16936,41 +16936,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="119.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="168"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="170"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="164"/>
     </row>
     <row r="2" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="173" t="s">
         <v>741</v>
       </c>
-      <c r="C2" s="191"/>
-      <c r="D2" s="191"/>
-      <c r="E2" s="191"/>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="191"/>
-      <c r="I2" s="192"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="194"/>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="66"/>
-      <c r="B3" s="172" t="s">
+      <c r="B3" s="166" t="s">
         <v>540</v>
       </c>
-      <c r="C3" s="173"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="173"/>
-      <c r="F3" s="173"/>
-      <c r="G3" s="173"/>
-      <c r="H3" s="173"/>
-      <c r="I3" s="174"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="168"/>
       <c r="J3" s="66"/>
     </row>
     <row r="4" spans="1:10" s="75" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -16979,24 +16979,24 @@
         <v>847</v>
       </c>
       <c r="C4" s="196"/>
-      <c r="D4" s="164" t="s">
+      <c r="D4" s="179" t="s">
         <v>544</v>
       </c>
-      <c r="E4" s="165"/>
-      <c r="F4" s="164" t="s">
+      <c r="E4" s="180"/>
+      <c r="F4" s="179" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="197"/>
-      <c r="H4" s="164" t="s">
+      <c r="H4" s="179" t="s">
         <v>529</v>
       </c>
-      <c r="I4" s="165"/>
+      <c r="I4" s="180"/>
       <c r="J4" s="73"/>
     </row>
-    <row r="5" spans="1:10" s="171" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:10" s="165" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="166"/>
+      <c r="B6" s="170"/>
       <c r="C6" s="54" t="s">
         <v>742</v>
       </c>
@@ -17022,7 +17022,7 @@
     </row>
     <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="167"/>
+      <c r="B7" s="171"/>
       <c r="C7" s="55" t="s">
         <v>1</v>
       </c>
@@ -17086,7 +17086,7 @@
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="181" t="s">
+      <c r="B11" s="191" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="11"/>
@@ -17100,7 +17100,7 @@
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="181"/>
+      <c r="B12" s="191"/>
       <c r="C12" s="11"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -17112,7 +17112,7 @@
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="182"/>
+      <c r="B13" s="192"/>
       <c r="C13" s="10"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -17238,7 +17238,7 @@
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
-      <c r="B23" s="193" t="s">
+      <c r="B23" s="181" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="11"/>
@@ -17252,7 +17252,7 @@
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
-      <c r="B24" s="193"/>
+      <c r="B24" s="181"/>
       <c r="C24" s="11"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -17264,7 +17264,7 @@
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
-      <c r="B25" s="194"/>
+      <c r="B25" s="182"/>
       <c r="C25" s="10"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -17370,7 +17370,7 @@
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
-      <c r="B31" s="181" t="s">
+      <c r="B31" s="191" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="11"/>
@@ -17392,7 +17392,7 @@
     </row>
     <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
-      <c r="B32" s="181"/>
+      <c r="B32" s="191"/>
       <c r="C32" s="11"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5" t="s">
@@ -17408,7 +17408,7 @@
     </row>
     <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="134"/>
-      <c r="B33" s="181"/>
+      <c r="B33" s="191"/>
       <c r="C33" s="11"/>
       <c r="D33" s="62"/>
       <c r="F33" s="62"/>
@@ -17419,7 +17419,7 @@
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="133"/>
-      <c r="B34" s="181"/>
+      <c r="B34" s="191"/>
       <c r="C34" s="11"/>
       <c r="D34" s="62"/>
       <c r="E34" s="62" t="s">
@@ -17435,7 +17435,7 @@
     </row>
     <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
-      <c r="B35" s="182"/>
+      <c r="B35" s="192"/>
       <c r="C35" s="10"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6" t="s">
@@ -17565,7 +17565,7 @@
     </row>
     <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1"/>
-      <c r="B45" s="193" t="s">
+      <c r="B45" s="181" t="s">
         <v>13</v>
       </c>
       <c r="C45" s="11"/>
@@ -17579,7 +17579,7 @@
     </row>
     <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="1"/>
-      <c r="B46" s="193"/>
+      <c r="B46" s="181"/>
       <c r="C46" s="11"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
@@ -17591,7 +17591,7 @@
     </row>
     <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="1"/>
-      <c r="B47" s="194"/>
+      <c r="B47" s="182"/>
       <c r="C47" s="10"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
@@ -17693,14 +17693,14 @@
     </row>
     <row r="53" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="1"/>
-      <c r="B53" s="181" t="s">
+      <c r="B53" s="191" t="s">
         <v>9</v>
       </c>
       <c r="C53" s="62" t="s">
         <v>1052</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
@@ -17715,7 +17715,7 @@
     </row>
     <row r="54" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="1"/>
-      <c r="B54" s="181"/>
+      <c r="B54" s="191"/>
       <c r="C54" s="11"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
@@ -17727,7 +17727,7 @@
     </row>
     <row r="55" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="1"/>
-      <c r="B55" s="182"/>
+      <c r="B55" s="192"/>
       <c r="C55" s="10"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
@@ -17854,7 +17854,7 @@
     </row>
     <row r="65" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="1"/>
-      <c r="B65" s="193" t="s">
+      <c r="B65" s="181" t="s">
         <v>13</v>
       </c>
       <c r="C65" s="11"/>
@@ -17868,7 +17868,7 @@
     </row>
     <row r="66" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="1"/>
-      <c r="B66" s="193"/>
+      <c r="B66" s="181"/>
       <c r="C66" s="11"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
@@ -17883,7 +17883,7 @@
     </row>
     <row r="67" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="1"/>
-      <c r="B67" s="194"/>
+      <c r="B67" s="182"/>
       <c r="C67" s="10"/>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
@@ -18003,7 +18003,7 @@
     </row>
     <row r="73" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="1"/>
-      <c r="B73" s="181" t="s">
+      <c r="B73" s="191" t="s">
         <v>9</v>
       </c>
       <c r="C73" s="11"/>
@@ -18022,7 +18022,7 @@
     </row>
     <row r="74" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="1"/>
-      <c r="B74" s="181"/>
+      <c r="B74" s="191"/>
       <c r="C74" s="11"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
@@ -18037,7 +18037,7 @@
     </row>
     <row r="75" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="1"/>
-      <c r="B75" s="182"/>
+      <c r="B75" s="192"/>
       <c r="C75" s="10"/>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
@@ -18193,7 +18193,7 @@
     </row>
     <row r="85" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="1"/>
-      <c r="B85" s="193" t="s">
+      <c r="B85" s="181" t="s">
         <v>13</v>
       </c>
       <c r="C85" s="11"/>
@@ -18210,7 +18210,7 @@
     </row>
     <row r="86" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="1"/>
-      <c r="B86" s="193"/>
+      <c r="B86" s="181"/>
       <c r="C86" s="11"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
@@ -18225,7 +18225,7 @@
     </row>
     <row r="87" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="1"/>
-      <c r="B87" s="194"/>
+      <c r="B87" s="182"/>
       <c r="C87" s="10"/>
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
@@ -18333,7 +18333,7 @@
     </row>
     <row r="93" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="1"/>
-      <c r="B93" s="181" t="s">
+      <c r="B93" s="191" t="s">
         <v>9</v>
       </c>
       <c r="C93" s="11"/>
@@ -18347,7 +18347,7 @@
     </row>
     <row r="94" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="1"/>
-      <c r="B94" s="181"/>
+      <c r="B94" s="191"/>
       <c r="C94" s="11"/>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
@@ -18359,7 +18359,7 @@
     </row>
     <row r="95" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="1"/>
-      <c r="B95" s="182"/>
+      <c r="B95" s="192"/>
       <c r="C95" s="10"/>
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
@@ -18485,7 +18485,7 @@
     </row>
     <row r="105" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="1"/>
-      <c r="B105" s="193" t="s">
+      <c r="B105" s="181" t="s">
         <v>13</v>
       </c>
       <c r="C105" s="11"/>
@@ -18499,7 +18499,7 @@
     </row>
     <row r="106" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="1"/>
-      <c r="B106" s="193"/>
+      <c r="B106" s="181"/>
       <c r="C106" s="11"/>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
@@ -18511,7 +18511,7 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A107" s="1"/>
-      <c r="B107" s="194"/>
+      <c r="B107" s="182"/>
       <c r="C107" s="68"/>
       <c r="D107" s="6"/>
       <c r="E107" s="6"/>
@@ -22777,6 +22777,29 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B6:B7"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B105:B107"/>
     <mergeCell ref="A5:XFD5"/>
@@ -22793,29 +22816,6 @@
     <mergeCell ref="B56:B58"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B62:B64"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="B70:B72"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -22858,30 +22858,30 @@
     </row>
     <row r="2" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="173" t="s">
         <v>778</v>
       </c>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="180"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="174"/>
+      <c r="I2" s="175"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="66"/>
-      <c r="B3" s="172" t="s">
+      <c r="B3" s="166" t="s">
         <v>540</v>
       </c>
-      <c r="C3" s="173"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="173"/>
-      <c r="F3" s="173"/>
-      <c r="G3" s="173"/>
-      <c r="H3" s="173"/>
-      <c r="I3" s="174"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="168"/>
       <c r="J3" s="66"/>
     </row>
     <row r="4" spans="1:10" s="76" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -22890,24 +22890,24 @@
         <v>849</v>
       </c>
       <c r="C4" s="196"/>
-      <c r="D4" s="164" t="s">
+      <c r="D4" s="179" t="s">
         <v>545</v>
       </c>
-      <c r="E4" s="165"/>
-      <c r="F4" s="164" t="s">
+      <c r="E4" s="180"/>
+      <c r="F4" s="179" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="197"/>
-      <c r="H4" s="164" t="s">
+      <c r="H4" s="179" t="s">
         <v>529</v>
       </c>
-      <c r="I4" s="165"/>
+      <c r="I4" s="180"/>
       <c r="J4" s="73"/>
     </row>
-    <row r="5" spans="1:10" s="171" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:10" s="165" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="166"/>
+      <c r="B6" s="170"/>
       <c r="C6" s="103" t="s">
         <v>779</v>
       </c>
@@ -22933,7 +22933,7 @@
     </row>
     <row r="7" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="167"/>
+      <c r="B7" s="171"/>
       <c r="C7" s="104" t="s">
         <v>780</v>
       </c>
@@ -22959,7 +22959,7 @@
     </row>
     <row r="8" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="157" t="s">
+      <c r="B8" s="160" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="5"/>
@@ -22973,7 +22973,7 @@
     </row>
     <row r="9" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="157"/>
+      <c r="B9" s="160"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -22985,7 +22985,7 @@
     </row>
     <row r="10" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="158"/>
+      <c r="B10" s="161"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -22997,7 +22997,7 @@
     </row>
     <row r="11" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="160" t="s">
+      <c r="B11" s="156" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="5"/>
@@ -23011,7 +23011,7 @@
     </row>
     <row r="12" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="160"/>
+      <c r="B12" s="156"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -23023,7 +23023,7 @@
     </row>
     <row r="13" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="161"/>
+      <c r="B13" s="157"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -23035,7 +23035,7 @@
     </row>
     <row r="14" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="148" t="s">
+      <c r="B14" s="147" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="5"/>
@@ -23049,7 +23049,7 @@
     </row>
     <row r="15" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="148"/>
+      <c r="B15" s="147"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -23061,7 +23061,7 @@
     </row>
     <row r="16" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
-      <c r="B16" s="149"/>
+      <c r="B16" s="148"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -23073,7 +23073,7 @@
     </row>
     <row r="17" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
-      <c r="B17" s="151" t="s">
+      <c r="B17" s="149" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="5"/>
@@ -23087,7 +23087,7 @@
     </row>
     <row r="18" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
-      <c r="B18" s="151"/>
+      <c r="B18" s="149"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -23099,7 +23099,7 @@
     </row>
     <row r="19" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
-      <c r="B19" s="152"/>
+      <c r="B19" s="150"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -23111,7 +23111,7 @@
     </row>
     <row r="20" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
-      <c r="B20" s="154" t="s">
+      <c r="B20" s="151" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="5"/>
@@ -23125,7 +23125,7 @@
     </row>
     <row r="21" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
-      <c r="B21" s="154"/>
+      <c r="B21" s="151"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -23137,7 +23137,7 @@
     </row>
     <row r="22" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
-      <c r="B22" s="155"/>
+      <c r="B22" s="152"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -23149,7 +23149,7 @@
     </row>
     <row r="23" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
-      <c r="B23" s="176" t="s">
+      <c r="B23" s="153" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="5"/>
@@ -23163,7 +23163,7 @@
     </row>
     <row r="24" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
-      <c r="B24" s="176"/>
+      <c r="B24" s="153"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -23175,7 +23175,7 @@
     </row>
     <row r="25" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
-      <c r="B25" s="177"/>
+      <c r="B25" s="154"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -23239,7 +23239,7 @@
     </row>
     <row r="28" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
-      <c r="B28" s="157" t="s">
+      <c r="B28" s="160" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="5"/>
@@ -23254,7 +23254,7 @@
     </row>
     <row r="29" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
-      <c r="B29" s="157"/>
+      <c r="B29" s="160"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -23266,7 +23266,7 @@
     </row>
     <row r="30" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
-      <c r="B30" s="158"/>
+      <c r="B30" s="161"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -23278,7 +23278,7 @@
     </row>
     <row r="31" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
-      <c r="B31" s="160" t="s">
+      <c r="B31" s="156" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="5"/>
@@ -23292,7 +23292,7 @@
     </row>
     <row r="32" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
-      <c r="B32" s="160"/>
+      <c r="B32" s="156"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -23304,7 +23304,7 @@
     </row>
     <row r="33" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
-      <c r="B33" s="161"/>
+      <c r="B33" s="157"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -23316,7 +23316,7 @@
     </row>
     <row r="34" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
-      <c r="B34" s="148" t="s">
+      <c r="B34" s="147" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="5"/>
@@ -23330,7 +23330,7 @@
     </row>
     <row r="35" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
-      <c r="B35" s="148"/>
+      <c r="B35" s="147"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -23342,7 +23342,7 @@
     </row>
     <row r="36" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
-      <c r="B36" s="149"/>
+      <c r="B36" s="148"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -23354,7 +23354,7 @@
     </row>
     <row r="37" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
-      <c r="B37" s="151" t="s">
+      <c r="B37" s="149" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="5"/>
@@ -23368,7 +23368,7 @@
     </row>
     <row r="38" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
-      <c r="B38" s="151"/>
+      <c r="B38" s="149"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -23380,7 +23380,7 @@
     </row>
     <row r="39" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1"/>
-      <c r="B39" s="152"/>
+      <c r="B39" s="150"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -23392,7 +23392,7 @@
     </row>
     <row r="40" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1"/>
-      <c r="B40" s="154" t="s">
+      <c r="B40" s="151" t="s">
         <v>12</v>
       </c>
       <c r="C40" s="5"/>
@@ -23406,7 +23406,7 @@
     </row>
     <row r="41" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1"/>
-      <c r="B41" s="154"/>
+      <c r="B41" s="151"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -23418,7 +23418,7 @@
     </row>
     <row r="42" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="1"/>
-      <c r="B42" s="155"/>
+      <c r="B42" s="152"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -23430,7 +23430,7 @@
     </row>
     <row r="43" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1"/>
-      <c r="B43" s="176" t="s">
+      <c r="B43" s="153" t="s">
         <v>13</v>
       </c>
       <c r="C43" s="5"/>
@@ -23444,7 +23444,7 @@
     </row>
     <row r="44" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="1"/>
-      <c r="B44" s="176"/>
+      <c r="B44" s="153"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -23456,7 +23456,7 @@
     </row>
     <row r="45" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1"/>
-      <c r="B45" s="177"/>
+      <c r="B45" s="154"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
@@ -23520,7 +23520,7 @@
     </row>
     <row r="48" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="1"/>
-      <c r="B48" s="157" t="s">
+      <c r="B48" s="160" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="5"/>
@@ -23534,7 +23534,7 @@
     </row>
     <row r="49" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1"/>
-      <c r="B49" s="157"/>
+      <c r="B49" s="160"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -23546,7 +23546,7 @@
     </row>
     <row r="50" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="1"/>
-      <c r="B50" s="158"/>
+      <c r="B50" s="161"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
@@ -23558,7 +23558,7 @@
     </row>
     <row r="51" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1"/>
-      <c r="B51" s="160" t="s">
+      <c r="B51" s="156" t="s">
         <v>9</v>
       </c>
       <c r="C51" s="5"/>
@@ -23572,7 +23572,7 @@
     </row>
     <row r="52" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1"/>
-      <c r="B52" s="160"/>
+      <c r="B52" s="156"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -23584,7 +23584,7 @@
     </row>
     <row r="53" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="1"/>
-      <c r="B53" s="161"/>
+      <c r="B53" s="157"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
@@ -23596,7 +23596,7 @@
     </row>
     <row r="54" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="1"/>
-      <c r="B54" s="148" t="s">
+      <c r="B54" s="147" t="s">
         <v>10</v>
       </c>
       <c r="C54" s="5"/>
@@ -23610,7 +23610,7 @@
     </row>
     <row r="55" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="1"/>
-      <c r="B55" s="148"/>
+      <c r="B55" s="147"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -23622,7 +23622,7 @@
     </row>
     <row r="56" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="1"/>
-      <c r="B56" s="149"/>
+      <c r="B56" s="148"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
@@ -23634,7 +23634,7 @@
     </row>
     <row r="57" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="1"/>
-      <c r="B57" s="151" t="s">
+      <c r="B57" s="149" t="s">
         <v>11</v>
       </c>
       <c r="C57" s="5"/>
@@ -23648,7 +23648,7 @@
     </row>
     <row r="58" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="1"/>
-      <c r="B58" s="151"/>
+      <c r="B58" s="149"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -23660,7 +23660,7 @@
     </row>
     <row r="59" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="1"/>
-      <c r="B59" s="152"/>
+      <c r="B59" s="150"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
@@ -23672,7 +23672,7 @@
     </row>
     <row r="60" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="1"/>
-      <c r="B60" s="154" t="s">
+      <c r="B60" s="151" t="s">
         <v>12</v>
       </c>
       <c r="C60" s="5"/>
@@ -23686,7 +23686,7 @@
     </row>
     <row r="61" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="1"/>
-      <c r="B61" s="154"/>
+      <c r="B61" s="151"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -23698,7 +23698,7 @@
     </row>
     <row r="62" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="1"/>
-      <c r="B62" s="155"/>
+      <c r="B62" s="152"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
@@ -23710,7 +23710,7 @@
     </row>
     <row r="63" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="1"/>
-      <c r="B63" s="176" t="s">
+      <c r="B63" s="153" t="s">
         <v>13</v>
       </c>
       <c r="C63" s="5"/>
@@ -23724,7 +23724,7 @@
     </row>
     <row r="64" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="1"/>
-      <c r="B64" s="176"/>
+      <c r="B64" s="153"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -23736,7 +23736,7 @@
     </row>
     <row r="65" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="1"/>
-      <c r="B65" s="177"/>
+      <c r="B65" s="154"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
@@ -23803,7 +23803,7 @@
     </row>
     <row r="68" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="1"/>
-      <c r="B68" s="157" t="s">
+      <c r="B68" s="160" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="5"/>
@@ -23818,7 +23818,7 @@
     </row>
     <row r="69" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="1"/>
-      <c r="B69" s="157"/>
+      <c r="B69" s="160"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -23831,7 +23831,7 @@
     </row>
     <row r="70" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="1"/>
-      <c r="B70" s="158"/>
+      <c r="B70" s="161"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
@@ -23844,7 +23844,7 @@
     </row>
     <row r="71" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="1"/>
-      <c r="B71" s="160" t="s">
+      <c r="B71" s="156" t="s">
         <v>9</v>
       </c>
       <c r="C71" s="5"/>
@@ -23859,7 +23859,7 @@
     </row>
     <row r="72" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="1"/>
-      <c r="B72" s="160"/>
+      <c r="B72" s="156"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -23872,7 +23872,7 @@
     </row>
     <row r="73" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="1"/>
-      <c r="B73" s="161"/>
+      <c r="B73" s="157"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
@@ -23885,7 +23885,7 @@
     </row>
     <row r="74" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="1"/>
-      <c r="B74" s="148" t="s">
+      <c r="B74" s="147" t="s">
         <v>10</v>
       </c>
       <c r="C74" s="5"/>
@@ -23900,7 +23900,7 @@
     </row>
     <row r="75" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="1"/>
-      <c r="B75" s="148"/>
+      <c r="B75" s="147"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -23912,7 +23912,7 @@
     </row>
     <row r="76" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="1"/>
-      <c r="B76" s="149"/>
+      <c r="B76" s="148"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
@@ -23924,7 +23924,7 @@
     </row>
     <row r="77" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="1"/>
-      <c r="B77" s="151" t="s">
+      <c r="B77" s="149" t="s">
         <v>11</v>
       </c>
       <c r="C77" s="5"/>
@@ -23938,7 +23938,7 @@
     </row>
     <row r="78" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="1"/>
-      <c r="B78" s="151"/>
+      <c r="B78" s="149"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -23950,7 +23950,7 @@
     </row>
     <row r="79" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="1"/>
-      <c r="B79" s="152"/>
+      <c r="B79" s="150"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
@@ -23962,7 +23962,7 @@
     </row>
     <row r="80" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="1"/>
-      <c r="B80" s="154" t="s">
+      <c r="B80" s="151" t="s">
         <v>12</v>
       </c>
       <c r="C80" s="5"/>
@@ -23976,7 +23976,7 @@
     </row>
     <row r="81" spans="1:16" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="1"/>
-      <c r="B81" s="154"/>
+      <c r="B81" s="151"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -23988,7 +23988,7 @@
     </row>
     <row r="82" spans="1:16" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="1"/>
-      <c r="B82" s="155"/>
+      <c r="B82" s="152"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
@@ -24000,7 +24000,7 @@
     </row>
     <row r="83" spans="1:16" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="1"/>
-      <c r="B83" s="176" t="s">
+      <c r="B83" s="153" t="s">
         <v>13</v>
       </c>
       <c r="C83" s="5"/>
@@ -24014,7 +24014,7 @@
     </row>
     <row r="84" spans="1:16" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="1"/>
-      <c r="B84" s="176"/>
+      <c r="B84" s="153"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -24026,7 +24026,7 @@
     </row>
     <row r="85" spans="1:16" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="1"/>
-      <c r="B85" s="177"/>
+      <c r="B85" s="154"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
@@ -26209,11 +26209,18 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B68:B70"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="A5:XFD5"/>
@@ -26230,18 +26237,11 @@
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B60:B62"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -26257,10 +26257,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P60"/>
+  <dimension ref="A1:P59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -26327,23 +26327,23 @@
     </row>
     <row r="4" spans="1:16" s="98" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="97"/>
-      <c r="B4" s="164" t="s">
+      <c r="B4" s="179" t="s">
         <v>647</v>
       </c>
       <c r="C4" s="197"/>
-      <c r="D4" s="165"/>
-      <c r="E4" s="164" t="s">
+      <c r="D4" s="180"/>
+      <c r="E4" s="179" t="s">
         <v>648</v>
       </c>
       <c r="F4" s="197"/>
-      <c r="G4" s="165"/>
-      <c r="H4" s="164" t="s">
+      <c r="G4" s="180"/>
+      <c r="H4" s="179" t="s">
         <v>649</v>
       </c>
       <c r="I4" s="197"/>
       <c r="J4" s="197"/>
       <c r="K4" s="197"/>
-      <c r="L4" s="165"/>
+      <c r="L4" s="180"/>
       <c r="M4" s="97"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.4">
@@ -26635,8 +26635,8 @@
         <v>1074</v>
       </c>
       <c r="P15">
-        <f>COUNTIF(F12:F54,"O")</f>
-        <v>7</v>
+        <f>COUNTIF(F12:F53,"O")</f>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.4">
@@ -26665,8 +26665,8 @@
         <v>1075</v>
       </c>
       <c r="P16">
-        <f>COUNTIF(F12:F54,"X")</f>
-        <v>19</v>
+        <f>COUNTIF(F12:F53,"X")</f>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.4">
@@ -26876,10 +26876,16 @@
       <c r="E25" s="28" t="s">
         <v>994</v>
       </c>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
+      <c r="F25" s="28" t="s">
+        <v>1096</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>1097</v>
+      </c>
       <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
+      <c r="I25" s="28" t="s">
+        <v>1097</v>
+      </c>
       <c r="J25" s="28"/>
       <c r="K25" s="28"/>
       <c r="L25" s="28"/>
@@ -26994,10 +27000,10 @@
         <v>997</v>
       </c>
       <c r="F30" s="28" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="G30" s="28" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="H30" s="28"/>
       <c r="I30" s="28"/>
@@ -27158,7 +27164,7 @@
         <v>1076</v>
       </c>
       <c r="G37" s="28" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="H37" s="28"/>
       <c r="I37" s="28"/>
@@ -27202,7 +27208,9 @@
       <c r="E39" s="28" t="s">
         <v>1017</v>
       </c>
-      <c r="F39" s="28"/>
+      <c r="F39" s="28" t="s">
+        <v>1096</v>
+      </c>
       <c r="G39" s="28"/>
       <c r="H39" s="28"/>
       <c r="I39" s="28"/>
@@ -27224,10 +27232,10 @@
         <v>1017</v>
       </c>
       <c r="F40" s="28" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="G40" s="28" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="H40" s="28"/>
       <c r="I40" s="28"/>
@@ -27248,7 +27256,9 @@
       <c r="E41" s="28" t="s">
         <v>1033</v>
       </c>
-      <c r="F41" s="28"/>
+      <c r="F41" s="28" t="s">
+        <v>1098</v>
+      </c>
       <c r="G41" s="28"/>
       <c r="H41" s="28"/>
       <c r="I41" s="28"/>
@@ -27447,13 +27457,11 @@
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B51" s="129" t="s">
-        <v>1088</v>
-      </c>
-      <c r="C51" s="23" t="s">
         <v>1089</v>
       </c>
+      <c r="C51" s="23"/>
       <c r="D51" s="28" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="E51" s="28"/>
       <c r="F51" s="28"/>
@@ -27466,11 +27474,13 @@
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B52" s="129" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D52" s="28" t="s">
         <v>1091</v>
-      </c>
-      <c r="C52" s="23"/>
-      <c r="D52" s="28" t="s">
-        <v>1093</v>
       </c>
       <c r="E52" s="28"/>
       <c r="F52" s="28"/>
@@ -27482,15 +27492,9 @@
       <c r="L52" s="28"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B53" s="129" t="s">
-        <v>1082</v>
-      </c>
-      <c r="C53" s="23" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D53" s="28" t="s">
-        <v>1094</v>
-      </c>
+      <c r="B53" s="129"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="28"/>
       <c r="E53" s="28"/>
       <c r="F53" s="28"/>
       <c r="G53" s="28"/>
@@ -27501,17 +27505,7 @@
       <c r="L53" s="28"/>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B54" s="129"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="28"/>
-      <c r="K54" s="28"/>
-      <c r="L54" s="28"/>
+      <c r="B54" s="130"/>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B55" s="130"/>
@@ -27527,9 +27521,6 @@
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B59" s="130"/>
-    </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B60" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -27581,30 +27572,30 @@
     </row>
     <row r="2" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="173" t="s">
         <v>837</v>
       </c>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="180"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="174"/>
+      <c r="I2" s="175"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="66"/>
-      <c r="B3" s="172" t="s">
+      <c r="B3" s="166" t="s">
         <v>540</v>
       </c>
-      <c r="C3" s="173"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="173"/>
-      <c r="F3" s="173"/>
-      <c r="G3" s="173"/>
-      <c r="H3" s="173"/>
-      <c r="I3" s="174"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="168"/>
       <c r="J3" s="66"/>
     </row>
     <row r="4" spans="1:10" s="74" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -27613,24 +27604,24 @@
         <v>848</v>
       </c>
       <c r="C4" s="196"/>
-      <c r="D4" s="164" t="s">
+      <c r="D4" s="179" t="s">
         <v>704</v>
       </c>
-      <c r="E4" s="165"/>
-      <c r="F4" s="164" t="s">
+      <c r="E4" s="180"/>
+      <c r="F4" s="179" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="197"/>
-      <c r="H4" s="164" t="s">
+      <c r="H4" s="179" t="s">
         <v>543</v>
       </c>
-      <c r="I4" s="165"/>
+      <c r="I4" s="180"/>
       <c r="J4" s="15"/>
     </row>
-    <row r="5" spans="1:10" s="171" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:10" s="165" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="166"/>
+      <c r="B6" s="170"/>
       <c r="C6" s="54" t="s">
         <v>809</v>
       </c>
@@ -27656,7 +27647,7 @@
     </row>
     <row r="7" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="167"/>
+      <c r="B7" s="171"/>
       <c r="C7" s="55" t="s">
         <v>1</v>
       </c>
@@ -27682,7 +27673,7 @@
     </row>
     <row r="8" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="157" t="s">
+      <c r="B8" s="160" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="5"/>
@@ -27696,7 +27687,7 @@
     </row>
     <row r="9" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="157"/>
+      <c r="B9" s="160"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -27708,7 +27699,7 @@
     </row>
     <row r="10" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="158"/>
+      <c r="B10" s="161"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -27720,7 +27711,7 @@
     </row>
     <row r="11" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="160" t="s">
+      <c r="B11" s="156" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="5"/>
@@ -27734,7 +27725,7 @@
     </row>
     <row r="12" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="160"/>
+      <c r="B12" s="156"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -27746,7 +27737,7 @@
     </row>
     <row r="13" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="161"/>
+      <c r="B13" s="157"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -27758,7 +27749,7 @@
     </row>
     <row r="14" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="148" t="s">
+      <c r="B14" s="147" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="5"/>
@@ -27772,7 +27763,7 @@
     </row>
     <row r="15" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="148"/>
+      <c r="B15" s="147"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -27784,7 +27775,7 @@
     </row>
     <row r="16" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
-      <c r="B16" s="149"/>
+      <c r="B16" s="148"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -27796,7 +27787,7 @@
     </row>
     <row r="17" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
-      <c r="B17" s="151" t="s">
+      <c r="B17" s="149" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="5"/>
@@ -27810,7 +27801,7 @@
     </row>
     <row r="18" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
-      <c r="B18" s="151"/>
+      <c r="B18" s="149"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -27822,7 +27813,7 @@
     </row>
     <row r="19" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
-      <c r="B19" s="152"/>
+      <c r="B19" s="150"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -27834,7 +27825,7 @@
     </row>
     <row r="20" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
-      <c r="B20" s="154" t="s">
+      <c r="B20" s="151" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="5"/>
@@ -27848,7 +27839,7 @@
     </row>
     <row r="21" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
-      <c r="B21" s="154"/>
+      <c r="B21" s="151"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -27860,7 +27851,7 @@
     </row>
     <row r="22" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
-      <c r="B22" s="155"/>
+      <c r="B22" s="152"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -27872,7 +27863,7 @@
     </row>
     <row r="23" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
-      <c r="B23" s="176" t="s">
+      <c r="B23" s="153" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="5"/>
@@ -27886,7 +27877,7 @@
     </row>
     <row r="24" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
-      <c r="B24" s="176"/>
+      <c r="B24" s="153"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -27898,7 +27889,7 @@
     </row>
     <row r="25" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
-      <c r="B25" s="177"/>
+      <c r="B25" s="154"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -27962,7 +27953,7 @@
     </row>
     <row r="28" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
-      <c r="B28" s="157" t="s">
+      <c r="B28" s="160" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="5"/>
@@ -27976,7 +27967,7 @@
     </row>
     <row r="29" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
-      <c r="B29" s="157"/>
+      <c r="B29" s="160"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -27988,7 +27979,7 @@
     </row>
     <row r="30" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
-      <c r="B30" s="158"/>
+      <c r="B30" s="161"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -28000,7 +27991,7 @@
     </row>
     <row r="31" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
-      <c r="B31" s="160" t="s">
+      <c r="B31" s="156" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="5"/>
@@ -28014,7 +28005,7 @@
     </row>
     <row r="32" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
-      <c r="B32" s="160"/>
+      <c r="B32" s="156"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -28026,7 +28017,7 @@
     </row>
     <row r="33" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
-      <c r="B33" s="161"/>
+      <c r="B33" s="157"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -28038,7 +28029,7 @@
     </row>
     <row r="34" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
-      <c r="B34" s="148" t="s">
+      <c r="B34" s="147" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="5"/>
@@ -28052,7 +28043,7 @@
     </row>
     <row r="35" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
-      <c r="B35" s="148"/>
+      <c r="B35" s="147"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -28064,7 +28055,7 @@
     </row>
     <row r="36" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
-      <c r="B36" s="149"/>
+      <c r="B36" s="148"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -28076,7 +28067,7 @@
     </row>
     <row r="37" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
-      <c r="B37" s="151" t="s">
+      <c r="B37" s="149" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="5"/>
@@ -28090,7 +28081,7 @@
     </row>
     <row r="38" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
-      <c r="B38" s="151"/>
+      <c r="B38" s="149"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -28102,7 +28093,7 @@
     </row>
     <row r="39" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1"/>
-      <c r="B39" s="152"/>
+      <c r="B39" s="150"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -28114,7 +28105,7 @@
     </row>
     <row r="40" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1"/>
-      <c r="B40" s="154" t="s">
+      <c r="B40" s="151" t="s">
         <v>12</v>
       </c>
       <c r="C40" s="5"/>
@@ -28128,7 +28119,7 @@
     </row>
     <row r="41" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1"/>
-      <c r="B41" s="154"/>
+      <c r="B41" s="151"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -28140,7 +28131,7 @@
     </row>
     <row r="42" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="1"/>
-      <c r="B42" s="155"/>
+      <c r="B42" s="152"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -28152,7 +28143,7 @@
     </row>
     <row r="43" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1"/>
-      <c r="B43" s="176" t="s">
+      <c r="B43" s="153" t="s">
         <v>13</v>
       </c>
       <c r="C43" s="5"/>
@@ -28166,7 +28157,7 @@
     </row>
     <row r="44" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="1"/>
-      <c r="B44" s="176"/>
+      <c r="B44" s="153"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -28178,7 +28169,7 @@
     </row>
     <row r="45" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1"/>
-      <c r="B45" s="177"/>
+      <c r="B45" s="154"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
@@ -28242,7 +28233,7 @@
     </row>
     <row r="48" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="1"/>
-      <c r="B48" s="157" t="s">
+      <c r="B48" s="160" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="5"/>
@@ -28256,7 +28247,7 @@
     </row>
     <row r="49" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1"/>
-      <c r="B49" s="157"/>
+      <c r="B49" s="160"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -28268,7 +28259,7 @@
     </row>
     <row r="50" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="1"/>
-      <c r="B50" s="158"/>
+      <c r="B50" s="161"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
@@ -28280,7 +28271,7 @@
     </row>
     <row r="51" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1"/>
-      <c r="B51" s="160" t="s">
+      <c r="B51" s="156" t="s">
         <v>9</v>
       </c>
       <c r="C51" s="5"/>
@@ -28294,7 +28285,7 @@
     </row>
     <row r="52" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1"/>
-      <c r="B52" s="160"/>
+      <c r="B52" s="156"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -28306,7 +28297,7 @@
     </row>
     <row r="53" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="1"/>
-      <c r="B53" s="161"/>
+      <c r="B53" s="157"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
@@ -28318,7 +28309,7 @@
     </row>
     <row r="54" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="1"/>
-      <c r="B54" s="148" t="s">
+      <c r="B54" s="147" t="s">
         <v>10</v>
       </c>
       <c r="C54" s="5"/>
@@ -28332,7 +28323,7 @@
     </row>
     <row r="55" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="1"/>
-      <c r="B55" s="148"/>
+      <c r="B55" s="147"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -28344,7 +28335,7 @@
     </row>
     <row r="56" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="1"/>
-      <c r="B56" s="149"/>
+      <c r="B56" s="148"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
@@ -28356,7 +28347,7 @@
     </row>
     <row r="57" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="1"/>
-      <c r="B57" s="151" t="s">
+      <c r="B57" s="149" t="s">
         <v>11</v>
       </c>
       <c r="C57" s="5"/>
@@ -28370,7 +28361,7 @@
     </row>
     <row r="58" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="1"/>
-      <c r="B58" s="151"/>
+      <c r="B58" s="149"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -28382,7 +28373,7 @@
     </row>
     <row r="59" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="1"/>
-      <c r="B59" s="152"/>
+      <c r="B59" s="150"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
@@ -28394,7 +28385,7 @@
     </row>
     <row r="60" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="1"/>
-      <c r="B60" s="154" t="s">
+      <c r="B60" s="151" t="s">
         <v>12</v>
       </c>
       <c r="C60" s="5"/>
@@ -28408,7 +28399,7 @@
     </row>
     <row r="61" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="1"/>
-      <c r="B61" s="154"/>
+      <c r="B61" s="151"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -28421,7 +28412,7 @@
     </row>
     <row r="62" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="1"/>
-      <c r="B62" s="155"/>
+      <c r="B62" s="152"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
@@ -28434,7 +28425,7 @@
     </row>
     <row r="63" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="1"/>
-      <c r="B63" s="176" t="s">
+      <c r="B63" s="153" t="s">
         <v>13</v>
       </c>
       <c r="C63" s="5"/>
@@ -28449,7 +28440,7 @@
     </row>
     <row r="64" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="1"/>
-      <c r="B64" s="176"/>
+      <c r="B64" s="153"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -28462,7 +28453,7 @@
     </row>
     <row r="65" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="1"/>
-      <c r="B65" s="177"/>
+      <c r="B65" s="154"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
@@ -28529,7 +28520,7 @@
     </row>
     <row r="68" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="1"/>
-      <c r="B68" s="157" t="s">
+      <c r="B68" s="160" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="5"/>
@@ -28544,7 +28535,7 @@
     </row>
     <row r="69" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="1"/>
-      <c r="B69" s="157"/>
+      <c r="B69" s="160"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -28557,7 +28548,7 @@
     </row>
     <row r="70" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="1"/>
-      <c r="B70" s="158"/>
+      <c r="B70" s="161"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
@@ -28570,7 +28561,7 @@
     </row>
     <row r="71" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="1"/>
-      <c r="B71" s="160" t="s">
+      <c r="B71" s="156" t="s">
         <v>9</v>
       </c>
       <c r="C71" s="5"/>
@@ -28585,7 +28576,7 @@
     </row>
     <row r="72" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="1"/>
-      <c r="B72" s="160"/>
+      <c r="B72" s="156"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -28598,7 +28589,7 @@
     </row>
     <row r="73" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="1"/>
-      <c r="B73" s="161"/>
+      <c r="B73" s="157"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
@@ -28611,7 +28602,7 @@
     </row>
     <row r="74" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="1"/>
-      <c r="B74" s="148" t="s">
+      <c r="B74" s="147" t="s">
         <v>10</v>
       </c>
       <c r="C74" s="5"/>
@@ -28626,7 +28617,7 @@
     </row>
     <row r="75" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="1"/>
-      <c r="B75" s="148"/>
+      <c r="B75" s="147"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -28639,7 +28630,7 @@
     </row>
     <row r="76" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="1"/>
-      <c r="B76" s="149"/>
+      <c r="B76" s="148"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
@@ -28651,7 +28642,7 @@
     </row>
     <row r="77" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="1"/>
-      <c r="B77" s="151" t="s">
+      <c r="B77" s="149" t="s">
         <v>11</v>
       </c>
       <c r="C77" s="5"/>
@@ -28665,7 +28656,7 @@
     </row>
     <row r="78" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="1"/>
-      <c r="B78" s="151"/>
+      <c r="B78" s="149"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -28677,7 +28668,7 @@
     </row>
     <row r="79" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="1"/>
-      <c r="B79" s="152"/>
+      <c r="B79" s="150"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
@@ -28689,7 +28680,7 @@
     </row>
     <row r="80" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="1"/>
-      <c r="B80" s="154" t="s">
+      <c r="B80" s="151" t="s">
         <v>12</v>
       </c>
       <c r="C80" s="5"/>
@@ -28703,7 +28694,7 @@
     </row>
     <row r="81" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="1"/>
-      <c r="B81" s="154"/>
+      <c r="B81" s="151"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -28715,7 +28706,7 @@
     </row>
     <row r="82" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="1"/>
-      <c r="B82" s="155"/>
+      <c r="B82" s="152"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
@@ -28727,7 +28718,7 @@
     </row>
     <row r="83" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="1"/>
-      <c r="B83" s="175" t="s">
+      <c r="B83" s="169" t="s">
         <v>13</v>
       </c>
       <c r="C83" s="7"/>
@@ -28741,7 +28732,7 @@
     </row>
     <row r="84" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="1"/>
-      <c r="B84" s="176"/>
+      <c r="B84" s="153"/>
       <c r="C84" s="62"/>
       <c r="D84" s="62"/>
       <c r="E84" s="62"/>
@@ -28753,7 +28744,7 @@
     </row>
     <row r="85" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="1"/>
-      <c r="B85" s="177"/>
+      <c r="B85" s="154"/>
       <c r="C85" s="106"/>
       <c r="D85" s="106"/>
       <c r="E85" s="106"/>
@@ -31274,15 +31265,14 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B71:B73"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="B40:B42"/>
@@ -31299,14 +31289,15 @@
     <mergeCell ref="B43:B45"/>
     <mergeCell ref="B48:B50"/>
     <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -31364,29 +31355,29 @@
     </row>
     <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="66"/>
-      <c r="B3" s="172" t="s">
+      <c r="B3" s="166" t="s">
         <v>540</v>
       </c>
-      <c r="C3" s="173"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="173"/>
-      <c r="F3" s="173"/>
-      <c r="G3" s="173"/>
-      <c r="H3" s="173"/>
-      <c r="I3" s="174"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="168"/>
       <c r="J3" s="66"/>
     </row>
     <row r="4" spans="1:10" s="74" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="73"/>
-      <c r="B4" s="162" t="s">
+      <c r="B4" s="177" t="s">
         <v>698</v>
       </c>
-      <c r="C4" s="163"/>
-      <c r="D4" s="164" t="s">
+      <c r="C4" s="178"/>
+      <c r="D4" s="179" t="s">
         <v>704</v>
       </c>
-      <c r="E4" s="165"/>
-      <c r="F4" s="164" t="s">
+      <c r="E4" s="180"/>
+      <c r="F4" s="179" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="197"/>
@@ -31396,10 +31387,10 @@
       <c r="I4" s="196"/>
       <c r="J4" s="15"/>
     </row>
-    <row r="5" spans="1:10" s="171" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:10" s="165" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="166"/>
+      <c r="B6" s="170"/>
       <c r="C6" s="54" t="s">
         <v>838</v>
       </c>
@@ -31425,7 +31416,7 @@
     </row>
     <row r="7" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="167"/>
+      <c r="B7" s="171"/>
       <c r="C7" s="55" t="s">
         <v>1</v>
       </c>
@@ -31451,7 +31442,7 @@
     </row>
     <row r="8" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="157" t="s">
+      <c r="B8" s="160" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="5"/>
@@ -31465,7 +31456,7 @@
     </row>
     <row r="9" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="157"/>
+      <c r="B9" s="160"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -31477,7 +31468,7 @@
     </row>
     <row r="10" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="158"/>
+      <c r="B10" s="161"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -31489,7 +31480,7 @@
     </row>
     <row r="11" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="160" t="s">
+      <c r="B11" s="156" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="5"/>
@@ -31503,7 +31494,7 @@
     </row>
     <row r="12" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="160"/>
+      <c r="B12" s="156"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -31515,7 +31506,7 @@
     </row>
     <row r="13" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="161"/>
+      <c r="B13" s="157"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -31527,7 +31518,7 @@
     </row>
     <row r="14" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="148" t="s">
+      <c r="B14" s="147" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="5"/>
@@ -31541,7 +31532,7 @@
     </row>
     <row r="15" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="148"/>
+      <c r="B15" s="147"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -31553,7 +31544,7 @@
     </row>
     <row r="16" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
-      <c r="B16" s="149"/>
+      <c r="B16" s="148"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -31565,7 +31556,7 @@
     </row>
     <row r="17" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
-      <c r="B17" s="151" t="s">
+      <c r="B17" s="149" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="5"/>
@@ -31579,7 +31570,7 @@
     </row>
     <row r="18" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
-      <c r="B18" s="151"/>
+      <c r="B18" s="149"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -31591,7 +31582,7 @@
     </row>
     <row r="19" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
-      <c r="B19" s="152"/>
+      <c r="B19" s="150"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -31603,7 +31594,7 @@
     </row>
     <row r="20" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
-      <c r="B20" s="154" t="s">
+      <c r="B20" s="151" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="5"/>
@@ -31617,7 +31608,7 @@
     </row>
     <row r="21" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
-      <c r="B21" s="154"/>
+      <c r="B21" s="151"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -31629,7 +31620,7 @@
     </row>
     <row r="22" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
-      <c r="B22" s="155"/>
+      <c r="B22" s="152"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -31641,7 +31632,7 @@
     </row>
     <row r="23" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
-      <c r="B23" s="176" t="s">
+      <c r="B23" s="153" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="5"/>
@@ -31655,7 +31646,7 @@
     </row>
     <row r="24" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
-      <c r="B24" s="176"/>
+      <c r="B24" s="153"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -31667,7 +31658,7 @@
     </row>
     <row r="25" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
-      <c r="B25" s="177"/>
+      <c r="B25" s="154"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -31731,7 +31722,7 @@
     </row>
     <row r="28" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
-      <c r="B28" s="157" t="s">
+      <c r="B28" s="160" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="5"/>
@@ -31745,7 +31736,7 @@
     </row>
     <row r="29" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
-      <c r="B29" s="157"/>
+      <c r="B29" s="160"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -31757,7 +31748,7 @@
     </row>
     <row r="30" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
-      <c r="B30" s="158"/>
+      <c r="B30" s="161"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -31769,7 +31760,7 @@
     </row>
     <row r="31" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
-      <c r="B31" s="160" t="s">
+      <c r="B31" s="156" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="5"/>
@@ -31783,7 +31774,7 @@
     </row>
     <row r="32" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
-      <c r="B32" s="160"/>
+      <c r="B32" s="156"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -31795,7 +31786,7 @@
     </row>
     <row r="33" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
-      <c r="B33" s="161"/>
+      <c r="B33" s="157"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -31807,7 +31798,7 @@
     </row>
     <row r="34" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
-      <c r="B34" s="148" t="s">
+      <c r="B34" s="147" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="5"/>
@@ -31822,7 +31813,7 @@
     </row>
     <row r="35" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
-      <c r="B35" s="148"/>
+      <c r="B35" s="147"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -31835,7 +31826,7 @@
     </row>
     <row r="36" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
-      <c r="B36" s="149"/>
+      <c r="B36" s="148"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -31847,7 +31838,7 @@
     </row>
     <row r="37" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
-      <c r="B37" s="151" t="s">
+      <c r="B37" s="149" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="5"/>
@@ -31861,7 +31852,7 @@
     </row>
     <row r="38" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
-      <c r="B38" s="151"/>
+      <c r="B38" s="149"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -31873,7 +31864,7 @@
     </row>
     <row r="39" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1"/>
-      <c r="B39" s="152"/>
+      <c r="B39" s="150"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -31885,7 +31876,7 @@
     </row>
     <row r="40" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1"/>
-      <c r="B40" s="154" t="s">
+      <c r="B40" s="151" t="s">
         <v>12</v>
       </c>
       <c r="C40" s="5"/>
@@ -31899,7 +31890,7 @@
     </row>
     <row r="41" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1"/>
-      <c r="B41" s="154"/>
+      <c r="B41" s="151"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -31911,7 +31902,7 @@
     </row>
     <row r="42" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="1"/>
-      <c r="B42" s="155"/>
+      <c r="B42" s="152"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -31923,7 +31914,7 @@
     </row>
     <row r="43" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1"/>
-      <c r="B43" s="176" t="s">
+      <c r="B43" s="153" t="s">
         <v>13</v>
       </c>
       <c r="C43" s="5"/>
@@ -31937,7 +31928,7 @@
     </row>
     <row r="44" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="1"/>
-      <c r="B44" s="176"/>
+      <c r="B44" s="153"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -31949,7 +31940,7 @@
     </row>
     <row r="45" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1"/>
-      <c r="B45" s="177"/>
+      <c r="B45" s="154"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
@@ -32013,7 +32004,7 @@
     </row>
     <row r="48" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="1"/>
-      <c r="B48" s="157" t="s">
+      <c r="B48" s="160" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="5"/>
@@ -32027,7 +32018,7 @@
     </row>
     <row r="49" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1"/>
-      <c r="B49" s="157"/>
+      <c r="B49" s="160"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -32039,7 +32030,7 @@
     </row>
     <row r="50" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="1"/>
-      <c r="B50" s="158"/>
+      <c r="B50" s="161"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
@@ -32051,7 +32042,7 @@
     </row>
     <row r="51" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1"/>
-      <c r="B51" s="160" t="s">
+      <c r="B51" s="156" t="s">
         <v>9</v>
       </c>
       <c r="C51" s="5"/>
@@ -32065,7 +32056,7 @@
     </row>
     <row r="52" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1"/>
-      <c r="B52" s="160"/>
+      <c r="B52" s="156"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -32077,7 +32068,7 @@
     </row>
     <row r="53" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="1"/>
-      <c r="B53" s="161"/>
+      <c r="B53" s="157"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
@@ -32089,7 +32080,7 @@
     </row>
     <row r="54" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="1"/>
-      <c r="B54" s="148" t="s">
+      <c r="B54" s="147" t="s">
         <v>10</v>
       </c>
       <c r="C54" s="5"/>
@@ -32103,7 +32094,7 @@
     </row>
     <row r="55" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="1"/>
-      <c r="B55" s="148"/>
+      <c r="B55" s="147"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -32115,7 +32106,7 @@
     </row>
     <row r="56" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="1"/>
-      <c r="B56" s="149"/>
+      <c r="B56" s="148"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
@@ -32127,7 +32118,7 @@
     </row>
     <row r="57" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="1"/>
-      <c r="B57" s="151" t="s">
+      <c r="B57" s="149" t="s">
         <v>11</v>
       </c>
       <c r="C57" s="5"/>
@@ -32141,7 +32132,7 @@
     </row>
     <row r="58" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="1"/>
-      <c r="B58" s="151"/>
+      <c r="B58" s="149"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -32153,7 +32144,7 @@
     </row>
     <row r="59" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="1"/>
-      <c r="B59" s="152"/>
+      <c r="B59" s="150"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
@@ -32165,7 +32156,7 @@
     </row>
     <row r="60" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="1"/>
-      <c r="B60" s="154" t="s">
+      <c r="B60" s="151" t="s">
         <v>12</v>
       </c>
       <c r="C60" s="5"/>
@@ -32179,7 +32170,7 @@
     </row>
     <row r="61" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="1"/>
-      <c r="B61" s="154"/>
+      <c r="B61" s="151"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -32191,7 +32182,7 @@
     </row>
     <row r="62" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="1"/>
-      <c r="B62" s="155"/>
+      <c r="B62" s="152"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
@@ -32203,7 +32194,7 @@
     </row>
     <row r="63" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="1"/>
-      <c r="B63" s="176" t="s">
+      <c r="B63" s="153" t="s">
         <v>13</v>
       </c>
       <c r="C63" s="5"/>
@@ -32217,7 +32208,7 @@
     </row>
     <row r="64" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="1"/>
-      <c r="B64" s="176"/>
+      <c r="B64" s="153"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -32230,7 +32221,7 @@
     </row>
     <row r="65" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="1"/>
-      <c r="B65" s="177"/>
+      <c r="B65" s="154"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
@@ -32297,7 +32288,7 @@
     </row>
     <row r="68" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="1"/>
-      <c r="B68" s="157" t="s">
+      <c r="B68" s="160" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="5"/>
@@ -32312,7 +32303,7 @@
     </row>
     <row r="69" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="1"/>
-      <c r="B69" s="157"/>
+      <c r="B69" s="160"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -32325,7 +32316,7 @@
     </row>
     <row r="70" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="1"/>
-      <c r="B70" s="158"/>
+      <c r="B70" s="161"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
@@ -32338,7 +32329,7 @@
     </row>
     <row r="71" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="1"/>
-      <c r="B71" s="160" t="s">
+      <c r="B71" s="156" t="s">
         <v>9</v>
       </c>
       <c r="C71" s="5"/>
@@ -32353,7 +32344,7 @@
     </row>
     <row r="72" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="1"/>
-      <c r="B72" s="160"/>
+      <c r="B72" s="156"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -32366,7 +32357,7 @@
     </row>
     <row r="73" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="1"/>
-      <c r="B73" s="161"/>
+      <c r="B73" s="157"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
@@ -32379,7 +32370,7 @@
     </row>
     <row r="74" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="1"/>
-      <c r="B74" s="148" t="s">
+      <c r="B74" s="147" t="s">
         <v>10</v>
       </c>
       <c r="C74" s="5"/>
@@ -32394,7 +32385,7 @@
     </row>
     <row r="75" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="1"/>
-      <c r="B75" s="148"/>
+      <c r="B75" s="147"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -32406,7 +32397,7 @@
     </row>
     <row r="76" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="1"/>
-      <c r="B76" s="149"/>
+      <c r="B76" s="148"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
@@ -32418,7 +32409,7 @@
     </row>
     <row r="77" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="1"/>
-      <c r="B77" s="151" t="s">
+      <c r="B77" s="149" t="s">
         <v>11</v>
       </c>
       <c r="C77" s="5"/>
@@ -32432,7 +32423,7 @@
     </row>
     <row r="78" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="1"/>
-      <c r="B78" s="151"/>
+      <c r="B78" s="149"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -32444,7 +32435,7 @@
     </row>
     <row r="79" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="1"/>
-      <c r="B79" s="152"/>
+      <c r="B79" s="150"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
@@ -32456,7 +32447,7 @@
     </row>
     <row r="80" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="1"/>
-      <c r="B80" s="154" t="s">
+      <c r="B80" s="151" t="s">
         <v>12</v>
       </c>
       <c r="C80" s="5"/>
@@ -32470,7 +32461,7 @@
     </row>
     <row r="81" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="1"/>
-      <c r="B81" s="154"/>
+      <c r="B81" s="151"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -32482,7 +32473,7 @@
     </row>
     <row r="82" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="1"/>
-      <c r="B82" s="155"/>
+      <c r="B82" s="152"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
@@ -32494,7 +32485,7 @@
     </row>
     <row r="83" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="1"/>
-      <c r="B83" s="176" t="s">
+      <c r="B83" s="153" t="s">
         <v>13</v>
       </c>
       <c r="C83" s="5"/>
@@ -32508,7 +32499,7 @@
     </row>
     <row r="84" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="1"/>
-      <c r="B84" s="176"/>
+      <c r="B84" s="153"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -32520,7 +32511,7 @@
     </row>
     <row r="85" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="1"/>
-      <c r="B85" s="177"/>
+      <c r="B85" s="154"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
@@ -32574,7 +32565,7 @@
     </row>
     <row r="88" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="1"/>
-      <c r="B88" s="157" t="s">
+      <c r="B88" s="160" t="s">
         <v>8</v>
       </c>
       <c r="C88" s="5"/>
@@ -32591,7 +32582,7 @@
     </row>
     <row r="89" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="1"/>
-      <c r="B89" s="157"/>
+      <c r="B89" s="160"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -32606,7 +32597,7 @@
     </row>
     <row r="90" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="1"/>
-      <c r="B90" s="158"/>
+      <c r="B90" s="161"/>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
@@ -32621,7 +32612,7 @@
     </row>
     <row r="91" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="1"/>
-      <c r="B91" s="160" t="s">
+      <c r="B91" s="156" t="s">
         <v>9</v>
       </c>
       <c r="C91" s="5"/>
@@ -32638,7 +32629,7 @@
     </row>
     <row r="92" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="1"/>
-      <c r="B92" s="160"/>
+      <c r="B92" s="156"/>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -32653,7 +32644,7 @@
     </row>
     <row r="93" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="1"/>
-      <c r="B93" s="161"/>
+      <c r="B93" s="157"/>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
@@ -32668,7 +32659,7 @@
     </row>
     <row r="94" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="1"/>
-      <c r="B94" s="148" t="s">
+      <c r="B94" s="147" t="s">
         <v>10</v>
       </c>
       <c r="C94" s="5"/>
@@ -32685,7 +32676,7 @@
     </row>
     <row r="95" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="1"/>
-      <c r="B95" s="148"/>
+      <c r="B95" s="147"/>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
@@ -32700,7 +32691,7 @@
     </row>
     <row r="96" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="1"/>
-      <c r="B96" s="149"/>
+      <c r="B96" s="148"/>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
@@ -32715,7 +32706,7 @@
     </row>
     <row r="97" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="1"/>
-      <c r="B97" s="151" t="s">
+      <c r="B97" s="149" t="s">
         <v>11</v>
       </c>
       <c r="C97" s="5"/>
@@ -32732,7 +32723,7 @@
     </row>
     <row r="98" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="1"/>
-      <c r="B98" s="151"/>
+      <c r="B98" s="149"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
@@ -32747,7 +32738,7 @@
     </row>
     <row r="99" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="1"/>
-      <c r="B99" s="152"/>
+      <c r="B99" s="150"/>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
       <c r="E99" s="6"/>
@@ -32762,7 +32753,7 @@
     </row>
     <row r="100" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="1"/>
-      <c r="B100" s="154" t="s">
+      <c r="B100" s="151" t="s">
         <v>12</v>
       </c>
       <c r="C100" s="5"/>
@@ -32779,7 +32770,7 @@
     </row>
     <row r="101" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="1"/>
-      <c r="B101" s="154"/>
+      <c r="B101" s="151"/>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
@@ -32794,7 +32785,7 @@
     </row>
     <row r="102" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="1"/>
-      <c r="B102" s="155"/>
+      <c r="B102" s="152"/>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
       <c r="E102" s="6"/>
@@ -32809,7 +32800,7 @@
     </row>
     <row r="103" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="1"/>
-      <c r="B103" s="176" t="s">
+      <c r="B103" s="153" t="s">
         <v>13</v>
       </c>
       <c r="C103" s="5"/>
@@ -32826,7 +32817,7 @@
     </row>
     <row r="104" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="1"/>
-      <c r="B104" s="176"/>
+      <c r="B104" s="153"/>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
@@ -32841,7 +32832,7 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A105" s="1"/>
-      <c r="B105" s="177"/>
+      <c r="B105" s="154"/>
       <c r="C105" s="88"/>
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
@@ -33428,29 +33419,6 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="B97:B99"/>
-    <mergeCell ref="B100:B102"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
     <mergeCell ref="B103:B105"/>
     <mergeCell ref="A5:XFD5"/>
     <mergeCell ref="B74:B76"/>
@@ -33467,6 +33435,29 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B94:B96"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B97:B99"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B71:B73"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -33536,53 +33527,53 @@
     </row>
     <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
-      <c r="B3" s="217" t="s">
+      <c r="B3" s="222" t="s">
         <v>541</v>
       </c>
-      <c r="C3" s="218"/>
-      <c r="D3" s="218"/>
-      <c r="E3" s="218"/>
-      <c r="F3" s="218"/>
-      <c r="G3" s="218"/>
-      <c r="H3" s="218"/>
-      <c r="I3" s="218"/>
-      <c r="J3" s="218"/>
-      <c r="K3" s="219"/>
+      <c r="C3" s="223"/>
+      <c r="D3" s="223"/>
+      <c r="E3" s="223"/>
+      <c r="F3" s="223"/>
+      <c r="G3" s="223"/>
+      <c r="H3" s="223"/>
+      <c r="I3" s="223"/>
+      <c r="J3" s="223"/>
+      <c r="K3" s="224"/>
       <c r="L3" s="24"/>
       <c r="M3" s="24"/>
     </row>
     <row r="4" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
-      <c r="B4" s="222" t="s">
+      <c r="B4" s="225" t="s">
         <v>533</v>
       </c>
-      <c r="C4" s="223"/>
-      <c r="D4" s="223"/>
-      <c r="E4" s="223"/>
-      <c r="F4" s="223"/>
-      <c r="G4" s="223"/>
-      <c r="H4" s="223"/>
-      <c r="I4" s="223"/>
-      <c r="J4" s="223"/>
-      <c r="K4" s="224"/>
+      <c r="C4" s="226"/>
+      <c r="D4" s="226"/>
+      <c r="E4" s="226"/>
+      <c r="F4" s="226"/>
+      <c r="G4" s="226"/>
+      <c r="H4" s="226"/>
+      <c r="I4" s="226"/>
+      <c r="J4" s="226"/>
+      <c r="K4" s="227"/>
       <c r="L4" s="24"/>
       <c r="M4" s="24"/>
     </row>
-    <row r="5" spans="1:20" s="221" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:20" s="216" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24"/>
-      <c r="B6" s="220" t="s">
+      <c r="B6" s="217" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="220"/>
-      <c r="D6" s="220"/>
-      <c r="E6" s="220"/>
-      <c r="F6" s="220"/>
-      <c r="G6" s="220"/>
-      <c r="H6" s="220"/>
-      <c r="I6" s="220"/>
-      <c r="J6" s="220"/>
-      <c r="K6" s="220"/>
+      <c r="C6" s="217"/>
+      <c r="D6" s="217"/>
+      <c r="E6" s="217"/>
+      <c r="F6" s="217"/>
+      <c r="G6" s="217"/>
+      <c r="H6" s="217"/>
+      <c r="I6" s="217"/>
+      <c r="J6" s="217"/>
+      <c r="K6" s="217"/>
       <c r="L6" s="24"/>
       <c r="M6" s="24"/>
     </row>
@@ -33591,19 +33582,19 @@
       <c r="B7" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="216"/>
-      <c r="D7" s="216"/>
-      <c r="E7" s="216"/>
+      <c r="C7" s="219"/>
+      <c r="D7" s="219"/>
+      <c r="E7" s="219"/>
       <c r="F7" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="216"/>
-      <c r="H7" s="216"/>
+      <c r="G7" s="219"/>
+      <c r="H7" s="219"/>
       <c r="I7" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="216"/>
-      <c r="K7" s="216"/>
+      <c r="J7" s="219"/>
+      <c r="K7" s="219"/>
       <c r="L7" s="24"/>
       <c r="M7" s="24"/>
     </row>
@@ -33612,19 +33603,19 @@
       <c r="B8" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="216"/>
-      <c r="D8" s="216"/>
-      <c r="E8" s="216"/>
+      <c r="C8" s="219"/>
+      <c r="D8" s="219"/>
+      <c r="E8" s="219"/>
       <c r="F8" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="216"/>
-      <c r="H8" s="216"/>
+      <c r="G8" s="219"/>
+      <c r="H8" s="219"/>
       <c r="I8" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="216"/>
-      <c r="K8" s="216"/>
+      <c r="J8" s="219"/>
+      <c r="K8" s="219"/>
       <c r="L8" s="24"/>
       <c r="M8" s="24"/>
     </row>
@@ -33633,15 +33624,15 @@
       <c r="B9" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="216"/>
-      <c r="D9" s="216"/>
-      <c r="E9" s="216"/>
-      <c r="F9" s="216"/>
-      <c r="G9" s="216"/>
-      <c r="H9" s="216"/>
-      <c r="I9" s="216"/>
-      <c r="J9" s="216"/>
-      <c r="K9" s="216"/>
+      <c r="C9" s="219"/>
+      <c r="D9" s="219"/>
+      <c r="E9" s="219"/>
+      <c r="F9" s="219"/>
+      <c r="G9" s="219"/>
+      <c r="H9" s="219"/>
+      <c r="I9" s="219"/>
+      <c r="J9" s="219"/>
+      <c r="K9" s="219"/>
       <c r="L9" s="24"/>
       <c r="M9" s="24"/>
     </row>
@@ -33650,15 +33641,15 @@
       <c r="B10" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="216"/>
-      <c r="D10" s="216"/>
-      <c r="E10" s="216"/>
-      <c r="F10" s="216"/>
-      <c r="G10" s="216"/>
-      <c r="H10" s="216"/>
-      <c r="I10" s="216"/>
-      <c r="J10" s="216"/>
-      <c r="K10" s="216"/>
+      <c r="C10" s="219"/>
+      <c r="D10" s="219"/>
+      <c r="E10" s="219"/>
+      <c r="F10" s="219"/>
+      <c r="G10" s="219"/>
+      <c r="H10" s="219"/>
+      <c r="I10" s="219"/>
+      <c r="J10" s="219"/>
+      <c r="K10" s="219"/>
       <c r="L10" s="24"/>
       <c r="M10" s="24"/>
     </row>
@@ -33667,19 +33658,19 @@
       <c r="B11" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="216"/>
-      <c r="D11" s="216"/>
-      <c r="E11" s="216"/>
+      <c r="C11" s="219"/>
+      <c r="D11" s="219"/>
+      <c r="E11" s="219"/>
       <c r="F11" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="216"/>
-      <c r="H11" s="216"/>
+      <c r="G11" s="219"/>
+      <c r="H11" s="219"/>
       <c r="I11" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="J11" s="216"/>
-      <c r="K11" s="216"/>
+      <c r="J11" s="219"/>
+      <c r="K11" s="219"/>
       <c r="L11" s="24"/>
       <c r="M11" s="24"/>
       <c r="T11" s="25" t="s">
@@ -33691,49 +33682,49 @@
       <c r="B12" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="225" t="s">
+      <c r="C12" s="218" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="225"/>
-      <c r="E12" s="225"/>
+      <c r="D12" s="218"/>
+      <c r="E12" s="218"/>
       <c r="F12" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="216"/>
-      <c r="H12" s="216"/>
+      <c r="G12" s="219"/>
+      <c r="H12" s="219"/>
       <c r="I12" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="216"/>
-      <c r="K12" s="216"/>
+      <c r="J12" s="219"/>
+      <c r="K12" s="219"/>
       <c r="L12" s="24"/>
       <c r="M12" s="24"/>
     </row>
-    <row r="13" spans="1:20" s="221" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:20" s="216" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24"/>
-      <c r="B14" s="220" t="s">
+      <c r="B14" s="217" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="220"/>
-      <c r="D14" s="220"/>
-      <c r="E14" s="220"/>
-      <c r="F14" s="220"/>
-      <c r="G14" s="220"/>
-      <c r="H14" s="220"/>
-      <c r="I14" s="220"/>
-      <c r="J14" s="220"/>
-      <c r="K14" s="220"/>
+      <c r="C14" s="217"/>
+      <c r="D14" s="217"/>
+      <c r="E14" s="217"/>
+      <c r="F14" s="217"/>
+      <c r="G14" s="217"/>
+      <c r="H14" s="217"/>
+      <c r="I14" s="217"/>
+      <c r="J14" s="217"/>
+      <c r="K14" s="217"/>
       <c r="L14" s="24"/>
       <c r="M14" s="24"/>
     </row>
     <row r="15" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
-      <c r="B15" s="226" t="s">
+      <c r="B15" s="220" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="226"/>
-      <c r="D15" s="226"/>
+      <c r="C15" s="220"/>
+      <c r="D15" s="220"/>
       <c r="E15" s="33" t="s">
         <v>44</v>
       </c>
@@ -33760,11 +33751,11 @@
     </row>
     <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
-      <c r="B16" s="225" t="s">
+      <c r="B16" s="218" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="225"/>
-      <c r="D16" s="225"/>
+      <c r="C16" s="218"/>
+      <c r="D16" s="218"/>
       <c r="E16" s="29"/>
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
@@ -33779,11 +33770,11 @@
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
-      <c r="B17" s="225" t="s">
+      <c r="B17" s="218" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="225"/>
-      <c r="D17" s="225"/>
+      <c r="C17" s="218"/>
+      <c r="D17" s="218"/>
       <c r="E17" s="29"/>
       <c r="F17" s="29"/>
       <c r="G17" s="29"/>
@@ -33796,11 +33787,11 @@
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
-      <c r="B18" s="225" t="s">
+      <c r="B18" s="218" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="225"/>
-      <c r="D18" s="225"/>
+      <c r="C18" s="218"/>
+      <c r="D18" s="218"/>
       <c r="E18" s="29"/>
       <c r="F18" s="29"/>
       <c r="G18" s="29"/>
@@ -33813,11 +33804,11 @@
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
-      <c r="B19" s="225" t="s">
+      <c r="B19" s="218" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="225"/>
-      <c r="D19" s="225"/>
+      <c r="C19" s="218"/>
+      <c r="D19" s="218"/>
       <c r="E19" s="29"/>
       <c r="F19" s="29"/>
       <c r="G19" s="29"/>
@@ -33830,11 +33821,11 @@
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24"/>
-      <c r="B20" s="225" t="s">
+      <c r="B20" s="218" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="225"/>
-      <c r="D20" s="225"/>
+      <c r="C20" s="218"/>
+      <c r="D20" s="218"/>
       <c r="E20" s="29"/>
       <c r="F20" s="29"/>
       <c r="G20" s="29"/>
@@ -33845,21 +33836,21 @@
       <c r="L20" s="24"/>
       <c r="M20" s="24"/>
     </row>
-    <row r="21" spans="1:13" s="221" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:13" s="216" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="24"/>
-      <c r="B22" s="220" t="s">
+      <c r="B22" s="217" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="220"/>
-      <c r="D22" s="220"/>
-      <c r="E22" s="220"/>
-      <c r="F22" s="220"/>
-      <c r="G22" s="220"/>
-      <c r="H22" s="220"/>
-      <c r="I22" s="220"/>
-      <c r="J22" s="220"/>
-      <c r="K22" s="220"/>
+      <c r="C22" s="217"/>
+      <c r="D22" s="217"/>
+      <c r="E22" s="217"/>
+      <c r="F22" s="217"/>
+      <c r="G22" s="217"/>
+      <c r="H22" s="217"/>
+      <c r="I22" s="217"/>
+      <c r="J22" s="217"/>
+      <c r="K22" s="217"/>
       <c r="L22" s="24"/>
       <c r="M22" s="24"/>
     </row>
@@ -33868,19 +33859,19 @@
       <c r="B23" s="33" t="s">
         <v>514</v>
       </c>
-      <c r="C23" s="216"/>
-      <c r="D23" s="216"/>
-      <c r="E23" s="216"/>
-      <c r="F23" s="216"/>
+      <c r="C23" s="219"/>
+      <c r="D23" s="219"/>
+      <c r="E23" s="219"/>
+      <c r="F23" s="219"/>
       <c r="G23" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="H23" s="225" t="s">
+      <c r="H23" s="218" t="s">
         <v>55</v>
       </c>
-      <c r="I23" s="225"/>
-      <c r="J23" s="225"/>
-      <c r="K23" s="225"/>
+      <c r="I23" s="218"/>
+      <c r="J23" s="218"/>
+      <c r="K23" s="218"/>
       <c r="L23" s="24"/>
       <c r="M23" s="24"/>
     </row>
@@ -33889,19 +33880,19 @@
       <c r="B24" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="216"/>
-      <c r="D24" s="216"/>
-      <c r="E24" s="216"/>
-      <c r="F24" s="216"/>
+      <c r="C24" s="219"/>
+      <c r="D24" s="219"/>
+      <c r="E24" s="219"/>
+      <c r="F24" s="219"/>
       <c r="G24" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="H24" s="227" t="s">
+      <c r="H24" s="221" t="s">
         <v>58</v>
       </c>
-      <c r="I24" s="227"/>
-      <c r="J24" s="227"/>
-      <c r="K24" s="227"/>
+      <c r="I24" s="221"/>
+      <c r="J24" s="221"/>
+      <c r="K24" s="221"/>
       <c r="L24" s="24"/>
       <c r="M24" s="24"/>
     </row>
@@ -33910,17 +33901,17 @@
       <c r="B25" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="216"/>
-      <c r="D25" s="216"/>
-      <c r="E25" s="216"/>
-      <c r="F25" s="216"/>
+      <c r="C25" s="219"/>
+      <c r="D25" s="219"/>
+      <c r="E25" s="219"/>
+      <c r="F25" s="219"/>
       <c r="G25" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="H25" s="216"/>
-      <c r="I25" s="216"/>
-      <c r="J25" s="216"/>
-      <c r="K25" s="216"/>
+      <c r="H25" s="219"/>
+      <c r="I25" s="219"/>
+      <c r="J25" s="219"/>
+      <c r="K25" s="219"/>
       <c r="L25" s="24"/>
       <c r="M25" s="24"/>
     </row>
@@ -33929,17 +33920,17 @@
       <c r="B26" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="216"/>
-      <c r="D26" s="216"/>
-      <c r="E26" s="216"/>
-      <c r="F26" s="216"/>
+      <c r="C26" s="219"/>
+      <c r="D26" s="219"/>
+      <c r="E26" s="219"/>
+      <c r="F26" s="219"/>
       <c r="G26" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="H26" s="216"/>
-      <c r="I26" s="216"/>
-      <c r="J26" s="216"/>
-      <c r="K26" s="216"/>
+      <c r="H26" s="219"/>
+      <c r="I26" s="219"/>
+      <c r="J26" s="219"/>
+      <c r="K26" s="219"/>
       <c r="L26" s="24"/>
       <c r="M26" s="24"/>
     </row>
@@ -33963,19 +33954,19 @@
       <c r="B28" s="33" t="s">
         <v>515</v>
       </c>
-      <c r="C28" s="216"/>
-      <c r="D28" s="216"/>
-      <c r="E28" s="216"/>
-      <c r="F28" s="216"/>
+      <c r="C28" s="219"/>
+      <c r="D28" s="219"/>
+      <c r="E28" s="219"/>
+      <c r="F28" s="219"/>
       <c r="G28" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="H28" s="225" t="s">
+      <c r="H28" s="218" t="s">
         <v>55</v>
       </c>
-      <c r="I28" s="225"/>
-      <c r="J28" s="225"/>
-      <c r="K28" s="225"/>
+      <c r="I28" s="218"/>
+      <c r="J28" s="218"/>
+      <c r="K28" s="218"/>
       <c r="L28" s="24"/>
       <c r="M28" s="24"/>
     </row>
@@ -33984,17 +33975,17 @@
       <c r="B29" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="216"/>
-      <c r="D29" s="216"/>
-      <c r="E29" s="216"/>
-      <c r="F29" s="216"/>
+      <c r="C29" s="219"/>
+      <c r="D29" s="219"/>
+      <c r="E29" s="219"/>
+      <c r="F29" s="219"/>
       <c r="G29" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="H29" s="216"/>
-      <c r="I29" s="216"/>
-      <c r="J29" s="216"/>
-      <c r="K29" s="216"/>
+      <c r="H29" s="219"/>
+      <c r="I29" s="219"/>
+      <c r="J29" s="219"/>
+      <c r="K29" s="219"/>
       <c r="L29" s="24"/>
       <c r="M29" s="24"/>
     </row>
@@ -34003,17 +33994,17 @@
       <c r="B30" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="216"/>
-      <c r="D30" s="216"/>
-      <c r="E30" s="216"/>
-      <c r="F30" s="216"/>
+      <c r="C30" s="219"/>
+      <c r="D30" s="219"/>
+      <c r="E30" s="219"/>
+      <c r="F30" s="219"/>
       <c r="G30" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="H30" s="216"/>
-      <c r="I30" s="216"/>
-      <c r="J30" s="216"/>
-      <c r="K30" s="216"/>
+      <c r="H30" s="219"/>
+      <c r="I30" s="219"/>
+      <c r="J30" s="219"/>
+      <c r="K30" s="219"/>
       <c r="L30" s="24"/>
       <c r="M30" s="24"/>
     </row>
@@ -34022,34 +34013,34 @@
       <c r="B31" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="216"/>
-      <c r="D31" s="216"/>
-      <c r="E31" s="216"/>
-      <c r="F31" s="216"/>
+      <c r="C31" s="219"/>
+      <c r="D31" s="219"/>
+      <c r="E31" s="219"/>
+      <c r="F31" s="219"/>
       <c r="G31" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="H31" s="216"/>
-      <c r="I31" s="216"/>
-      <c r="J31" s="216"/>
-      <c r="K31" s="216"/>
+      <c r="H31" s="219"/>
+      <c r="I31" s="219"/>
+      <c r="J31" s="219"/>
+      <c r="K31" s="219"/>
       <c r="L31" s="24"/>
       <c r="M31" s="24"/>
     </row>
-    <row r="32" spans="1:13" s="221" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:13" s="216" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="24"/>
-      <c r="B33" s="220" t="s">
+      <c r="B33" s="217" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="220"/>
-      <c r="D33" s="220"/>
-      <c r="E33" s="220"/>
-      <c r="F33" s="220"/>
-      <c r="G33" s="220"/>
-      <c r="H33" s="220"/>
-      <c r="I33" s="220"/>
-      <c r="J33" s="220"/>
+      <c r="C33" s="217"/>
+      <c r="D33" s="217"/>
+      <c r="E33" s="217"/>
+      <c r="F33" s="217"/>
+      <c r="G33" s="217"/>
+      <c r="H33" s="217"/>
+      <c r="I33" s="217"/>
+      <c r="J33" s="217"/>
       <c r="K33" s="31"/>
       <c r="L33" s="24"/>
       <c r="M33" s="24"/>
@@ -34068,12 +34059,12 @@
       <c r="E34" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="F34" s="226" t="s">
+      <c r="F34" s="220" t="s">
         <v>68</v>
       </c>
-      <c r="G34" s="226"/>
-      <c r="H34" s="226"/>
-      <c r="I34" s="226"/>
+      <c r="G34" s="220"/>
+      <c r="H34" s="220"/>
+      <c r="I34" s="220"/>
       <c r="J34" s="33" t="s">
         <v>69</v>
       </c>
@@ -34091,12 +34082,12 @@
       </c>
       <c r="D35" s="29"/>
       <c r="E35" s="29"/>
-      <c r="F35" s="225" t="s">
+      <c r="F35" s="218" t="s">
         <v>72</v>
       </c>
-      <c r="G35" s="225"/>
-      <c r="H35" s="225"/>
-      <c r="I35" s="225"/>
+      <c r="G35" s="218"/>
+      <c r="H35" s="218"/>
+      <c r="I35" s="218"/>
       <c r="J35" s="29"/>
       <c r="K35" s="31"/>
       <c r="L35" s="24"/>
@@ -34117,20 +34108,20 @@
       <c r="L36" s="24"/>
       <c r="M36" s="24"/>
     </row>
-    <row r="37" spans="1:13" s="221" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:13" s="216" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="24"/>
-      <c r="B38" s="220" t="s">
+      <c r="B38" s="217" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="220"/>
-      <c r="D38" s="220"/>
-      <c r="E38" s="220"/>
-      <c r="F38" s="220"/>
-      <c r="G38" s="220"/>
-      <c r="H38" s="220"/>
-      <c r="I38" s="220"/>
-      <c r="J38" s="220"/>
+      <c r="C38" s="217"/>
+      <c r="D38" s="217"/>
+      <c r="E38" s="217"/>
+      <c r="F38" s="217"/>
+      <c r="G38" s="217"/>
+      <c r="H38" s="217"/>
+      <c r="I38" s="217"/>
+      <c r="J38" s="217"/>
       <c r="K38" s="31"/>
       <c r="L38" s="24"/>
       <c r="M38" s="24"/>
@@ -34143,21 +34134,21 @@
       <c r="C39" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="D39" s="226" t="s">
+      <c r="D39" s="220" t="s">
         <v>75</v>
       </c>
-      <c r="E39" s="226"/>
-      <c r="F39" s="226" t="s">
+      <c r="E39" s="220"/>
+      <c r="F39" s="220" t="s">
         <v>76</v>
       </c>
-      <c r="G39" s="226"/>
+      <c r="G39" s="220"/>
       <c r="H39" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="I39" s="226" t="s">
+      <c r="I39" s="220" t="s">
         <v>78</v>
       </c>
-      <c r="J39" s="226"/>
+      <c r="J39" s="220"/>
       <c r="K39" s="31"/>
       <c r="L39" s="24"/>
       <c r="M39" s="24"/>
@@ -34168,17 +34159,17 @@
         <v>517</v>
       </c>
       <c r="C40" s="29"/>
-      <c r="D40" s="225" t="s">
+      <c r="D40" s="218" t="s">
         <v>51</v>
       </c>
-      <c r="E40" s="225"/>
-      <c r="F40" s="216"/>
-      <c r="G40" s="216"/>
+      <c r="E40" s="218"/>
+      <c r="F40" s="219"/>
+      <c r="G40" s="219"/>
       <c r="H40" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="I40" s="216"/>
-      <c r="J40" s="216"/>
+      <c r="I40" s="219"/>
+      <c r="J40" s="219"/>
       <c r="K40" s="31"/>
       <c r="L40" s="24"/>
       <c r="M40" s="24"/>
@@ -34187,17 +34178,17 @@
       <c r="A41" s="24"/>
       <c r="B41" s="29"/>
       <c r="C41" s="29"/>
-      <c r="D41" s="225" t="s">
+      <c r="D41" s="218" t="s">
         <v>51</v>
       </c>
-      <c r="E41" s="225"/>
-      <c r="F41" s="216"/>
-      <c r="G41" s="216"/>
+      <c r="E41" s="218"/>
+      <c r="F41" s="219"/>
+      <c r="G41" s="219"/>
       <c r="H41" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="I41" s="216"/>
-      <c r="J41" s="216"/>
+      <c r="I41" s="219"/>
+      <c r="J41" s="219"/>
       <c r="K41" s="31"/>
       <c r="L41" s="24"/>
       <c r="M41" s="24"/>
@@ -34206,32 +34197,32 @@
       <c r="A42" s="24"/>
       <c r="B42" s="29"/>
       <c r="C42" s="29"/>
-      <c r="D42" s="225" t="s">
+      <c r="D42" s="218" t="s">
         <v>51</v>
       </c>
-      <c r="E42" s="225"/>
-      <c r="F42" s="216"/>
-      <c r="G42" s="216"/>
+      <c r="E42" s="218"/>
+      <c r="F42" s="219"/>
+      <c r="G42" s="219"/>
       <c r="H42" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="I42" s="216"/>
-      <c r="J42" s="216"/>
+      <c r="I42" s="219"/>
+      <c r="J42" s="219"/>
       <c r="K42" s="31"/>
       <c r="L42" s="24"/>
       <c r="M42" s="24"/>
     </row>
-    <row r="43" spans="1:13" s="221" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:13" s="216" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="24"/>
-      <c r="B44" s="220" t="s">
+      <c r="B44" s="217" t="s">
         <v>80</v>
       </c>
-      <c r="C44" s="220"/>
-      <c r="D44" s="220"/>
-      <c r="E44" s="220"/>
-      <c r="F44" s="220"/>
-      <c r="G44" s="220"/>
+      <c r="C44" s="217"/>
+      <c r="D44" s="217"/>
+      <c r="E44" s="217"/>
+      <c r="F44" s="217"/>
+      <c r="G44" s="217"/>
       <c r="H44" s="31"/>
       <c r="I44" s="31"/>
       <c r="J44" s="31"/>
@@ -34247,14 +34238,14 @@
       <c r="C45" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="D45" s="226" t="s">
+      <c r="D45" s="220" t="s">
         <v>83</v>
       </c>
-      <c r="E45" s="226"/>
-      <c r="F45" s="226" t="s">
+      <c r="E45" s="220"/>
+      <c r="F45" s="220" t="s">
         <v>84</v>
       </c>
-      <c r="G45" s="226"/>
+      <c r="G45" s="220"/>
       <c r="H45" s="31"/>
       <c r="I45" s="31"/>
       <c r="J45" s="31"/>
@@ -34266,10 +34257,10 @@
       <c r="A46" s="24"/>
       <c r="B46" s="29"/>
       <c r="C46" s="29"/>
-      <c r="D46" s="216"/>
-      <c r="E46" s="216"/>
-      <c r="F46" s="216"/>
-      <c r="G46" s="216"/>
+      <c r="D46" s="219"/>
+      <c r="E46" s="219"/>
+      <c r="F46" s="219"/>
+      <c r="G46" s="219"/>
       <c r="H46" s="31"/>
       <c r="I46" s="31"/>
       <c r="J46" s="31"/>
@@ -34281,10 +34272,10 @@
       <c r="A47" s="24"/>
       <c r="B47" s="29"/>
       <c r="C47" s="29"/>
-      <c r="D47" s="216"/>
-      <c r="E47" s="216"/>
-      <c r="F47" s="216"/>
-      <c r="G47" s="216"/>
+      <c r="D47" s="219"/>
+      <c r="E47" s="219"/>
+      <c r="F47" s="219"/>
+      <c r="G47" s="219"/>
       <c r="H47" s="31"/>
       <c r="I47" s="31"/>
       <c r="J47" s="31"/>
@@ -34296,10 +34287,10 @@
       <c r="A48" s="24"/>
       <c r="B48" s="29"/>
       <c r="C48" s="29"/>
-      <c r="D48" s="216"/>
-      <c r="E48" s="216"/>
-      <c r="F48" s="216"/>
-      <c r="G48" s="216"/>
+      <c r="D48" s="219"/>
+      <c r="E48" s="219"/>
+      <c r="F48" s="219"/>
+      <c r="G48" s="219"/>
       <c r="H48" s="31"/>
       <c r="I48" s="31"/>
       <c r="J48" s="31"/>
@@ -34322,17 +34313,17 @@
       <c r="L49" s="24"/>
       <c r="M49" s="24"/>
     </row>
-    <row r="50" spans="1:13" s="221" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:13" s="216" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="24"/>
-      <c r="B51" s="220" t="s">
+      <c r="B51" s="217" t="s">
         <v>85</v>
       </c>
-      <c r="C51" s="220"/>
-      <c r="D51" s="220"/>
-      <c r="E51" s="220"/>
-      <c r="F51" s="220"/>
-      <c r="G51" s="220"/>
+      <c r="C51" s="217"/>
+      <c r="D51" s="217"/>
+      <c r="E51" s="217"/>
+      <c r="F51" s="217"/>
+      <c r="G51" s="217"/>
       <c r="H51" s="31"/>
       <c r="I51" s="31"/>
       <c r="J51" s="31"/>
@@ -34442,15 +34433,15 @@
       <c r="L57" s="24"/>
       <c r="M57" s="24"/>
     </row>
-    <row r="58" spans="1:13" s="221" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:13" s="216" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="24"/>
-      <c r="B59" s="220" t="s">
+      <c r="B59" s="217" t="s">
         <v>92</v>
       </c>
-      <c r="C59" s="220"/>
-      <c r="D59" s="220"/>
-      <c r="E59" s="220"/>
+      <c r="C59" s="217"/>
+      <c r="D59" s="217"/>
+      <c r="E59" s="217"/>
       <c r="F59" s="31"/>
       <c r="G59" s="31"/>
       <c r="H59" s="31"/>
@@ -34543,16 +34534,16 @@
       <c r="L64" s="24"/>
       <c r="M64" s="24"/>
     </row>
-    <row r="65" spans="1:13" s="221" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="1:13" s="216" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="24"/>
-      <c r="B66" s="220" t="s">
+      <c r="B66" s="217" t="s">
         <v>97</v>
       </c>
-      <c r="C66" s="220"/>
-      <c r="D66" s="220"/>
-      <c r="E66" s="220"/>
-      <c r="F66" s="220"/>
+      <c r="C66" s="217"/>
+      <c r="D66" s="217"/>
+      <c r="E66" s="217"/>
+      <c r="F66" s="217"/>
       <c r="G66" s="31"/>
       <c r="H66" s="31"/>
       <c r="I66" s="31"/>
@@ -34646,16 +34637,16 @@
       <c r="L71" s="24"/>
       <c r="M71" s="24"/>
     </row>
-    <row r="72" spans="1:13" s="221" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="1:13" s="216" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="73" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="24"/>
-      <c r="B73" s="220" t="s">
+      <c r="B73" s="217" t="s">
         <v>102</v>
       </c>
-      <c r="C73" s="220"/>
-      <c r="D73" s="220"/>
-      <c r="E73" s="220"/>
-      <c r="F73" s="220"/>
+      <c r="C73" s="217"/>
+      <c r="D73" s="217"/>
+      <c r="E73" s="217"/>
+      <c r="F73" s="217"/>
       <c r="G73" s="31"/>
       <c r="H73" s="31"/>
       <c r="I73" s="31"/>
@@ -34749,13 +34740,13 @@
       <c r="L78" s="24"/>
       <c r="M78" s="24"/>
     </row>
-    <row r="79" spans="1:13" s="221" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:13" s="216" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="80" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="24"/>
-      <c r="B80" s="220" t="s">
+      <c r="B80" s="217" t="s">
         <v>108</v>
       </c>
-      <c r="C80" s="220"/>
+      <c r="C80" s="217"/>
       <c r="D80" s="31"/>
       <c r="E80" s="31"/>
       <c r="F80" s="31"/>
@@ -34894,7 +34885,7 @@
       <c r="L87" s="24"/>
       <c r="M87" s="24"/>
     </row>
-    <row r="88" spans="1:13" s="221" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="1:13" s="216" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="89" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="24"/>
       <c r="B89" s="41" t="s">
@@ -35035,17 +35026,17 @@
       <c r="L96" s="24"/>
       <c r="M96" s="24"/>
     </row>
-    <row r="97" spans="1:13" s="221" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" spans="1:13" s="216" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="98" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="24"/>
-      <c r="B98" s="220" t="s">
+      <c r="B98" s="217" t="s">
         <v>130</v>
       </c>
-      <c r="C98" s="220"/>
-      <c r="D98" s="220"/>
-      <c r="E98" s="220"/>
-      <c r="F98" s="220"/>
-      <c r="G98" s="220"/>
+      <c r="C98" s="217"/>
+      <c r="D98" s="217"/>
+      <c r="E98" s="217"/>
+      <c r="F98" s="217"/>
+      <c r="G98" s="217"/>
       <c r="H98" s="31"/>
       <c r="I98" s="31"/>
       <c r="J98" s="31"/>
@@ -35157,14 +35148,14 @@
     </row>
     <row r="105" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="24"/>
-      <c r="B105" s="225" t="s">
+      <c r="B105" s="218" t="s">
         <v>135</v>
       </c>
-      <c r="C105" s="225"/>
-      <c r="D105" s="225"/>
-      <c r="E105" s="225"/>
-      <c r="F105" s="225"/>
-      <c r="G105" s="225"/>
+      <c r="C105" s="218"/>
+      <c r="D105" s="218"/>
+      <c r="E105" s="218"/>
+      <c r="F105" s="218"/>
+      <c r="G105" s="218"/>
       <c r="H105" s="31"/>
       <c r="I105" s="31"/>
       <c r="J105" s="31"/>
@@ -35172,7 +35163,7 @@
       <c r="L105" s="24"/>
       <c r="M105" s="24"/>
     </row>
-    <row r="106" spans="1:13" s="221" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" spans="1:13" s="216" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="24"/>
       <c r="B107" s="24"/>
@@ -35220,6 +35211,81 @@
     </row>
   </sheetData>
   <mergeCells count="91">
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A5:XFD5"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="A21:XFD21"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="A13:XFD13"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B22:K22"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="B38:J38"/>
+    <mergeCell ref="A37:XFD37"/>
+    <mergeCell ref="A32:XFD32"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="B33:J33"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B66:F66"/>
+    <mergeCell ref="B73:F73"/>
     <mergeCell ref="B27:K27"/>
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="A106:XFD106"/>
@@ -35236,81 +35302,6 @@
     <mergeCell ref="A88:XFD88"/>
     <mergeCell ref="A97:XFD97"/>
     <mergeCell ref="B44:G44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B66:F66"/>
-    <mergeCell ref="B73:F73"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B38:J38"/>
-    <mergeCell ref="A37:XFD37"/>
-    <mergeCell ref="A32:XFD32"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="B33:J33"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="A21:XFD21"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="A13:XFD13"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B22:K22"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A5:XFD5"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="B4:K4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -35349,38 +35340,38 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="2:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="241" t="s">
+      <c r="B2" s="228" t="s">
         <v>531</v>
       </c>
-      <c r="C2" s="242"/>
-      <c r="D2" s="242"/>
-      <c r="E2" s="242"/>
-      <c r="F2" s="243"/>
+      <c r="C2" s="229"/>
+      <c r="D2" s="229"/>
+      <c r="E2" s="229"/>
+      <c r="F2" s="230"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="244" t="s">
+      <c r="B3" s="231" t="s">
         <v>542</v>
       </c>
-      <c r="C3" s="245"/>
-      <c r="D3" s="245"/>
-      <c r="E3" s="245"/>
-      <c r="F3" s="246"/>
+      <c r="C3" s="232"/>
+      <c r="D3" s="232"/>
+      <c r="E3" s="232"/>
+      <c r="F3" s="233"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="2:7" s="47" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="164" t="s">
+      <c r="B4" s="179" t="s">
         <v>136</v>
       </c>
       <c r="C4" s="197"/>
-      <c r="D4" s="165"/>
+      <c r="D4" s="180"/>
       <c r="E4" s="197" t="s">
         <v>536</v>
       </c>
-      <c r="F4" s="165"/>
+      <c r="F4" s="180"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="2:7" s="228" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="2:7" s="234" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="2:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="13"/>
       <c r="C6" s="43" t="s">
@@ -35398,39 +35389,39 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="2:7" s="51" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="237" t="s">
+      <c r="B7" s="243" t="s">
         <v>141</v>
       </c>
-      <c r="C7" s="239" t="s">
+      <c r="C7" s="245" t="s">
         <v>538</v>
       </c>
-      <c r="D7" s="166" t="s">
+      <c r="D7" s="170" t="s">
         <v>142</v>
       </c>
       <c r="E7" s="83" t="s">
         <v>677</v>
       </c>
-      <c r="F7" s="229" t="s">
+      <c r="F7" s="235" t="s">
         <v>539</v>
       </c>
       <c r="G7" s="18"/>
     </row>
     <row r="8" spans="2:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="238"/>
-      <c r="C8" s="240"/>
-      <c r="D8" s="167"/>
+      <c r="B8" s="244"/>
+      <c r="C8" s="246"/>
+      <c r="D8" s="171"/>
       <c r="E8" s="82" t="s">
         <v>676</v>
       </c>
-      <c r="F8" s="230"/>
+      <c r="F8" s="236"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="2:7" s="51" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="201"/>
-      <c r="C9" s="231" t="s">
+      <c r="C9" s="237" t="s">
         <v>537</v>
       </c>
-      <c r="D9" s="234" t="s">
+      <c r="D9" s="240" t="s">
         <v>525</v>
       </c>
       <c r="E9" s="81" t="s">
@@ -35445,8 +35436,8 @@
     </row>
     <row r="10" spans="2:7" s="51" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="202"/>
-      <c r="C10" s="232"/>
-      <c r="D10" s="235"/>
+      <c r="C10" s="238"/>
+      <c r="D10" s="241"/>
       <c r="E10" s="81" t="s">
         <v>518</v>
       </c>
@@ -35455,8 +35446,8 @@
     </row>
     <row r="11" spans="2:7" s="51" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="202"/>
-      <c r="C11" s="232"/>
-      <c r="D11" s="235"/>
+      <c r="C11" s="238"/>
+      <c r="D11" s="241"/>
       <c r="E11" s="81" t="s">
         <v>520</v>
       </c>
@@ -35465,8 +35456,8 @@
     </row>
     <row r="12" spans="2:7" s="51" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="202"/>
-      <c r="C12" s="232"/>
-      <c r="D12" s="235"/>
+      <c r="C12" s="238"/>
+      <c r="D12" s="241"/>
       <c r="E12" s="81" t="s">
         <v>521</v>
       </c>
@@ -35475,8 +35466,8 @@
     </row>
     <row r="13" spans="2:7" s="51" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="202"/>
-      <c r="C13" s="232"/>
-      <c r="D13" s="235"/>
+      <c r="C13" s="238"/>
+      <c r="D13" s="241"/>
       <c r="E13" s="81" t="s">
         <v>519</v>
       </c>
@@ -35485,8 +35476,8 @@
     </row>
     <row r="14" spans="2:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="203"/>
-      <c r="C14" s="233"/>
-      <c r="D14" s="236"/>
+      <c r="C14" s="239"/>
+      <c r="D14" s="242"/>
       <c r="E14" s="81" t="s">
         <v>523</v>
       </c>
@@ -35653,11 +35644,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:F4"/>
     <mergeCell ref="A5:XFD5"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="B9:B14"/>
@@ -35667,6 +35653,11 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="G9:G14"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:F4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>

--- a/자소서/스펙업 2017 하반기 채용다이어리.xlsx
+++ b/자소서/스펙업 2017 하반기 채용다이어리.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="1100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="1101">
   <si>
     <t>카톡으로 공채 소식 받기</t>
   </si>
@@ -4524,6 +4524,10 @@
   </si>
   <si>
     <t>11월 2일 07:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5527,6 +5531,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5545,25 +5558,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5572,25 +5570,19 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5599,22 +5591,16 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5641,10 +5627,13 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5656,10 +5645,25 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5686,16 +5690,16 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5761,8 +5765,23 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5773,12 +5792,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5788,14 +5801,23 @@
     <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5836,24 +5858,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5887,7 +5891,10 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5899,10 +5906,7 @@
     <xf numFmtId="0" fontId="5" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7502,84 +7506,84 @@
       <c r="M1" s="137"/>
     </row>
     <row r="2" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="144" t="s">
+      <c r="B2" s="138" t="s">
         <v>706</v>
       </c>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="145"/>
-      <c r="M2" s="146"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
+      <c r="L2" s="139"/>
+      <c r="M2" s="140"/>
     </row>
     <row r="3" spans="2:13" ht="171" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="141" t="s">
+      <c r="B3" s="144" t="s">
         <v>675</v>
       </c>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="142"/>
-      <c r="L3" s="142"/>
-      <c r="M3" s="143"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="145"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="145"/>
+      <c r="J3" s="145"/>
+      <c r="K3" s="145"/>
+      <c r="L3" s="145"/>
+      <c r="M3" s="146"/>
     </row>
     <row r="4" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="144" t="s">
+      <c r="B4" s="138" t="s">
         <v>707</v>
       </c>
-      <c r="C4" s="145"/>
-      <c r="D4" s="145"/>
-      <c r="E4" s="145"/>
-      <c r="F4" s="145"/>
-      <c r="G4" s="145"/>
-      <c r="H4" s="145"/>
-      <c r="I4" s="145"/>
-      <c r="J4" s="145"/>
-      <c r="K4" s="145"/>
-      <c r="L4" s="145"/>
-      <c r="M4" s="146"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="139"/>
+      <c r="J4" s="139"/>
+      <c r="K4" s="139"/>
+      <c r="L4" s="139"/>
+      <c r="M4" s="140"/>
     </row>
     <row r="5" spans="2:13" ht="286.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="144" t="s">
         <v>850</v>
       </c>
-      <c r="C5" s="142"/>
-      <c r="D5" s="142"/>
-      <c r="E5" s="142"/>
-      <c r="F5" s="142"/>
-      <c r="G5" s="142"/>
-      <c r="H5" s="142"/>
-      <c r="I5" s="142"/>
-      <c r="J5" s="142"/>
-      <c r="K5" s="142"/>
-      <c r="L5" s="142"/>
-      <c r="M5" s="143"/>
+      <c r="C5" s="145"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="145"/>
+      <c r="F5" s="145"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="145"/>
+      <c r="I5" s="145"/>
+      <c r="J5" s="145"/>
+      <c r="K5" s="145"/>
+      <c r="L5" s="145"/>
+      <c r="M5" s="146"/>
     </row>
     <row r="6" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="144" t="s">
+      <c r="B6" s="138" t="s">
         <v>651</v>
       </c>
-      <c r="C6" s="145"/>
-      <c r="D6" s="145"/>
-      <c r="E6" s="145"/>
-      <c r="F6" s="145"/>
-      <c r="G6" s="145"/>
-      <c r="H6" s="145"/>
-      <c r="I6" s="145"/>
-      <c r="J6" s="145"/>
-      <c r="K6" s="145"/>
-      <c r="L6" s="145"/>
-      <c r="M6" s="146"/>
+      <c r="C6" s="139"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="139"/>
+      <c r="J6" s="139"/>
+      <c r="K6" s="139"/>
+      <c r="L6" s="139"/>
+      <c r="M6" s="140"/>
     </row>
     <row r="7" spans="2:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="135"/>
@@ -7630,23 +7634,17 @@
       <c r="E10" s="136"/>
       <c r="F10" s="136"/>
       <c r="G10" s="137"/>
-      <c r="H10" s="138" t="s">
+      <c r="H10" s="141" t="s">
         <v>653</v>
       </c>
-      <c r="I10" s="139"/>
-      <c r="J10" s="139"/>
-      <c r="K10" s="139"/>
-      <c r="L10" s="139"/>
-      <c r="M10" s="140"/>
+      <c r="I10" s="142"/>
+      <c r="J10" s="142"/>
+      <c r="K10" s="142"/>
+      <c r="L10" s="142"/>
+      <c r="M10" s="143"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="H9:M9"/>
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="H10:M10"/>
     <mergeCell ref="B3:M3"/>
@@ -7654,6 +7652,12 @@
     <mergeCell ref="B5:M5"/>
     <mergeCell ref="B6:M6"/>
     <mergeCell ref="B7:M7"/>
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="H9:M9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7698,7 +7702,7 @@
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="217" t="s">
+      <c r="B3" s="222" t="s">
         <v>639</v>
       </c>
       <c r="C3" s="136"/>
@@ -8035,7 +8039,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="171" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:3" s="165" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:3" s="47" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15"/>
       <c r="B6" s="43" t="s">
@@ -8258,7 +8262,7 @@
     </row>
     <row r="4" spans="1:14" s="76" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="73"/>
-      <c r="B4" s="164" t="s">
+      <c r="B4" s="179" t="s">
         <v>547</v>
       </c>
       <c r="C4" s="197"/>
@@ -8267,32 +8271,32 @@
       <c r="F4" s="197"/>
       <c r="G4" s="197"/>
       <c r="H4" s="197"/>
-      <c r="I4" s="165"/>
-      <c r="J4" s="262" t="s">
+      <c r="I4" s="180"/>
+      <c r="J4" s="258" t="s">
         <v>642</v>
       </c>
-      <c r="K4" s="262"/>
-      <c r="L4" s="262"/>
-      <c r="M4" s="262"/>
-      <c r="N4" s="263"/>
-    </row>
-    <row r="5" spans="1:14" s="171" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="K4" s="258"/>
+      <c r="L4" s="258"/>
+      <c r="M4" s="258"/>
+      <c r="N4" s="259"/>
+    </row>
+    <row r="5" spans="1:14" s="165" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:14" s="85" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="259" t="s">
+      <c r="B6" s="260" t="s">
         <v>638</v>
       </c>
-      <c r="C6" s="260"/>
-      <c r="D6" s="260"/>
-      <c r="E6" s="260"/>
-      <c r="F6" s="260"/>
-      <c r="G6" s="260"/>
-      <c r="H6" s="260"/>
-      <c r="I6" s="260"/>
-      <c r="J6" s="260"/>
-      <c r="K6" s="260"/>
-      <c r="L6" s="260"/>
-      <c r="M6" s="260"/>
-      <c r="N6" s="261"/>
+      <c r="C6" s="261"/>
+      <c r="D6" s="261"/>
+      <c r="E6" s="261"/>
+      <c r="F6" s="261"/>
+      <c r="G6" s="261"/>
+      <c r="H6" s="261"/>
+      <c r="I6" s="261"/>
+      <c r="J6" s="261"/>
+      <c r="K6" s="261"/>
+      <c r="L6" s="261"/>
+      <c r="M6" s="261"/>
+      <c r="N6" s="262"/>
     </row>
     <row r="7" spans="1:14" s="47" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
@@ -8338,7 +8342,7 @@
     </row>
     <row r="8" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="85"/>
-      <c r="B8" s="258" t="s">
+      <c r="B8" s="263" t="s">
         <v>625</v>
       </c>
       <c r="C8" s="256" t="s">
@@ -8362,7 +8366,7 @@
     </row>
     <row r="9" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="85"/>
-      <c r="B9" s="258"/>
+      <c r="B9" s="263"/>
       <c r="C9" s="256"/>
       <c r="D9" s="93" t="s">
         <v>629</v>
@@ -8382,7 +8386,7 @@
     </row>
     <row r="10" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="85"/>
-      <c r="B10" s="258"/>
+      <c r="B10" s="263"/>
       <c r="C10" s="256"/>
       <c r="D10" s="93" t="s">
         <v>630</v>
@@ -8406,7 +8410,7 @@
     </row>
     <row r="11" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="85"/>
-      <c r="B11" s="258"/>
+      <c r="B11" s="263"/>
       <c r="C11" s="256" t="s">
         <v>631</v>
       </c>
@@ -8434,7 +8438,7 @@
     </row>
     <row r="12" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="85"/>
-      <c r="B12" s="258"/>
+      <c r="B12" s="263"/>
       <c r="C12" s="256"/>
       <c r="D12" s="94" t="s">
         <v>633</v>
@@ -8472,7 +8476,7 @@
     </row>
     <row r="13" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="85"/>
-      <c r="B13" s="258"/>
+      <c r="B13" s="263"/>
       <c r="C13" s="256"/>
       <c r="D13" s="94" t="s">
         <v>634</v>
@@ -8510,7 +8514,7 @@
     </row>
     <row r="14" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="85"/>
-      <c r="B14" s="258"/>
+      <c r="B14" s="263"/>
       <c r="C14" s="256"/>
       <c r="D14" s="94" t="s">
         <v>635</v>
@@ -8534,7 +8538,7 @@
     </row>
     <row r="15" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="85"/>
-      <c r="B15" s="258"/>
+      <c r="B15" s="263"/>
       <c r="C15" s="256"/>
       <c r="D15" s="94" t="s">
         <v>636</v>
@@ -8556,7 +8560,7 @@
     </row>
     <row r="16" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="85"/>
-      <c r="B16" s="258"/>
+      <c r="B16" s="263"/>
       <c r="C16" s="256"/>
       <c r="D16" s="94" t="s">
         <v>637</v>
@@ -8582,7 +8586,7 @@
     </row>
     <row r="17" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="85"/>
-      <c r="B17" s="258" t="s">
+      <c r="B17" s="263" t="s">
         <v>550</v>
       </c>
       <c r="C17" s="256" t="s">
@@ -8612,7 +8616,7 @@
     </row>
     <row r="18" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="85"/>
-      <c r="B18" s="258"/>
+      <c r="B18" s="263"/>
       <c r="C18" s="256"/>
       <c r="D18" s="94" t="s">
         <v>553</v>
@@ -8632,7 +8636,7 @@
     </row>
     <row r="19" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="85"/>
-      <c r="B19" s="258"/>
+      <c r="B19" s="263"/>
       <c r="C19" s="256"/>
       <c r="D19" s="94" t="s">
         <v>554</v>
@@ -8656,7 +8660,7 @@
     </row>
     <row r="20" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="85"/>
-      <c r="B20" s="258"/>
+      <c r="B20" s="263"/>
       <c r="C20" s="256"/>
       <c r="D20" s="94" t="s">
         <v>555</v>
@@ -8676,7 +8680,7 @@
     </row>
     <row r="21" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="85"/>
-      <c r="B21" s="258"/>
+      <c r="B21" s="263"/>
       <c r="C21" s="256"/>
       <c r="D21" s="94" t="s">
         <v>556</v>
@@ -8700,7 +8704,7 @@
     </row>
     <row r="22" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="85"/>
-      <c r="B22" s="258"/>
+      <c r="B22" s="263"/>
       <c r="C22" s="256"/>
       <c r="D22" s="94" t="s">
         <v>557</v>
@@ -8722,7 +8726,7 @@
     </row>
     <row r="23" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="85"/>
-      <c r="B23" s="258"/>
+      <c r="B23" s="263"/>
       <c r="C23" s="256"/>
       <c r="D23" s="94" t="s">
         <v>558</v>
@@ -8746,7 +8750,7 @@
     </row>
     <row r="24" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="85"/>
-      <c r="B24" s="258"/>
+      <c r="B24" s="263"/>
       <c r="C24" s="13" t="s">
         <v>559</v>
       </c>
@@ -8786,7 +8790,7 @@
     </row>
     <row r="25" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="85"/>
-      <c r="B25" s="258" t="s">
+      <c r="B25" s="263" t="s">
         <v>560</v>
       </c>
       <c r="C25" s="256" t="s">
@@ -8814,7 +8818,7 @@
     </row>
     <row r="26" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="85"/>
-      <c r="B26" s="258"/>
+      <c r="B26" s="263"/>
       <c r="C26" s="256"/>
       <c r="D26" s="94" t="s">
         <v>563</v>
@@ -8838,7 +8842,7 @@
     </row>
     <row r="27" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="85"/>
-      <c r="B27" s="258"/>
+      <c r="B27" s="263"/>
       <c r="C27" s="256"/>
       <c r="D27" s="94" t="s">
         <v>564</v>
@@ -8860,7 +8864,7 @@
     </row>
     <row r="28" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="85"/>
-      <c r="B28" s="258"/>
+      <c r="B28" s="263"/>
       <c r="C28" s="256" t="s">
         <v>565</v>
       </c>
@@ -8890,7 +8894,7 @@
     </row>
     <row r="29" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="85"/>
-      <c r="B29" s="258"/>
+      <c r="B29" s="263"/>
       <c r="C29" s="256"/>
       <c r="D29" s="94" t="s">
         <v>567</v>
@@ -8914,7 +8918,7 @@
     </row>
     <row r="30" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="85"/>
-      <c r="B30" s="258"/>
+      <c r="B30" s="263"/>
       <c r="C30" s="256"/>
       <c r="D30" s="94" t="s">
         <v>568</v>
@@ -8944,7 +8948,7 @@
     </row>
     <row r="31" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="85"/>
-      <c r="B31" s="258"/>
+      <c r="B31" s="263"/>
       <c r="C31" s="256"/>
       <c r="D31" s="95" t="s">
         <v>569</v>
@@ -8976,7 +8980,7 @@
     </row>
     <row r="32" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="85"/>
-      <c r="B32" s="258"/>
+      <c r="B32" s="263"/>
       <c r="C32" s="256"/>
       <c r="D32" s="94" t="s">
         <v>570</v>
@@ -9000,7 +9004,7 @@
     </row>
     <row r="33" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="85"/>
-      <c r="B33" s="258"/>
+      <c r="B33" s="263"/>
       <c r="C33" s="256" t="s">
         <v>571</v>
       </c>
@@ -9024,7 +9028,7 @@
     </row>
     <row r="34" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="85"/>
-      <c r="B34" s="258"/>
+      <c r="B34" s="263"/>
       <c r="C34" s="256"/>
       <c r="D34" s="94" t="s">
         <v>573</v>
@@ -9048,7 +9052,7 @@
     </row>
     <row r="35" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="85"/>
-      <c r="B35" s="258" t="s">
+      <c r="B35" s="263" t="s">
         <v>574</v>
       </c>
       <c r="C35" s="256" t="s">
@@ -9072,7 +9076,7 @@
     </row>
     <row r="36" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="85"/>
-      <c r="B36" s="258"/>
+      <c r="B36" s="263"/>
       <c r="C36" s="256"/>
       <c r="D36" s="94" t="s">
         <v>577</v>
@@ -9092,7 +9096,7 @@
     </row>
     <row r="37" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="85"/>
-      <c r="B37" s="258"/>
+      <c r="B37" s="263"/>
       <c r="C37" s="256"/>
       <c r="D37" s="94" t="s">
         <v>578</v>
@@ -9112,7 +9116,7 @@
     </row>
     <row r="38" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="85"/>
-      <c r="B38" s="258"/>
+      <c r="B38" s="263"/>
       <c r="C38" s="256" t="s">
         <v>579</v>
       </c>
@@ -9134,7 +9138,7 @@
     </row>
     <row r="39" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="85"/>
-      <c r="B39" s="258"/>
+      <c r="B39" s="263"/>
       <c r="C39" s="256"/>
       <c r="D39" s="94" t="s">
         <v>581</v>
@@ -9158,7 +9162,7 @@
     </row>
     <row r="40" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="85"/>
-      <c r="B40" s="258"/>
+      <c r="B40" s="263"/>
       <c r="C40" s="256"/>
       <c r="D40" s="94" t="s">
         <v>582</v>
@@ -9184,7 +9188,7 @@
     </row>
     <row r="41" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="85"/>
-      <c r="B41" s="258"/>
+      <c r="B41" s="263"/>
       <c r="C41" s="256"/>
       <c r="D41" s="94" t="s">
         <v>583</v>
@@ -9204,18 +9208,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="B3:N3"/>
-    <mergeCell ref="A5:XFD5"/>
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:N4"/>
-    <mergeCell ref="B6:N6"/>
-    <mergeCell ref="B8:B16"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="B17:B24"/>
-    <mergeCell ref="C17:C23"/>
     <mergeCell ref="B25:B34"/>
     <mergeCell ref="C25:C27"/>
     <mergeCell ref="C28:C32"/>
@@ -9223,6 +9215,18 @@
     <mergeCell ref="B35:B41"/>
     <mergeCell ref="C35:C37"/>
     <mergeCell ref="C38:C41"/>
+    <mergeCell ref="B6:N6"/>
+    <mergeCell ref="B8:B16"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="B17:B24"/>
+    <mergeCell ref="C17:C23"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="A5:XFD5"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:N4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -12441,66 +12445,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="118.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="168"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="170"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="164"/>
     </row>
     <row r="2" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="173" t="s">
         <v>708</v>
       </c>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="180"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="174"/>
+      <c r="I2" s="175"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="66"/>
-      <c r="B3" s="172" t="s">
+      <c r="B3" s="166" t="s">
         <v>540</v>
       </c>
-      <c r="C3" s="173"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="173"/>
-      <c r="F3" s="173"/>
-      <c r="G3" s="173"/>
-      <c r="H3" s="173"/>
-      <c r="I3" s="174"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="168"/>
       <c r="J3" s="66"/>
     </row>
     <row r="4" spans="1:10" s="74" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="73"/>
-      <c r="B4" s="162" t="s">
+      <c r="B4" s="177" t="s">
         <v>709</v>
       </c>
-      <c r="C4" s="163"/>
-      <c r="D4" s="164" t="s">
+      <c r="C4" s="178"/>
+      <c r="D4" s="179" t="s">
         <v>529</v>
       </c>
-      <c r="E4" s="165"/>
-      <c r="F4" s="164" t="s">
+      <c r="E4" s="180"/>
+      <c r="F4" s="179" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="165"/>
-      <c r="H4" s="164" t="s">
+      <c r="G4" s="180"/>
+      <c r="H4" s="179" t="s">
         <v>530</v>
       </c>
-      <c r="I4" s="165"/>
+      <c r="I4" s="180"/>
       <c r="J4" s="15"/>
     </row>
-    <row r="5" spans="1:10" s="171" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:10" s="165" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:10" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="166"/>
+      <c r="B6" s="170"/>
       <c r="C6" s="54" t="s">
         <v>858</v>
       </c>
@@ -12524,7 +12528,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="167"/>
+      <c r="B7" s="171"/>
       <c r="C7" s="120" t="s">
         <v>711</v>
       </c>
@@ -12548,7 +12552,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="157" t="s">
+      <c r="B8" s="160" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="62"/>
@@ -12568,7 +12572,7 @@
       <c r="I8" s="62"/>
     </row>
     <row r="9" spans="1:10" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="157"/>
+      <c r="B9" s="160"/>
       <c r="C9" s="62"/>
       <c r="D9" s="62"/>
       <c r="E9" s="62"/>
@@ -12580,7 +12584,7 @@
       <c r="I9" s="62"/>
     </row>
     <row r="10" spans="1:10" s="131" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="157"/>
+      <c r="B10" s="160"/>
       <c r="C10" s="62"/>
       <c r="D10" s="62"/>
       <c r="E10" s="62"/>
@@ -12592,7 +12596,7 @@
       <c r="I10" s="62"/>
     </row>
     <row r="11" spans="1:10" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="157"/>
+      <c r="B11" s="160"/>
       <c r="C11" s="62"/>
       <c r="D11" s="62"/>
       <c r="E11" s="62"/>
@@ -12604,7 +12608,7 @@
       <c r="I11" s="62"/>
     </row>
     <row r="12" spans="1:10" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="157"/>
+      <c r="B12" s="160"/>
       <c r="C12" s="62"/>
       <c r="D12" s="62"/>
       <c r="E12" s="62"/>
@@ -12616,7 +12620,7 @@
       <c r="I12" s="62"/>
     </row>
     <row r="13" spans="1:10" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="157"/>
+      <c r="B13" s="160"/>
       <c r="C13" s="62"/>
       <c r="D13" s="62"/>
       <c r="E13" s="62"/>
@@ -12628,7 +12632,7 @@
       <c r="I13" s="62"/>
     </row>
     <row r="14" spans="1:10" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="157"/>
+      <c r="B14" s="160"/>
       <c r="C14" s="62"/>
       <c r="D14" s="62"/>
       <c r="E14" s="62"/>
@@ -12640,7 +12644,7 @@
       <c r="I14" s="62"/>
     </row>
     <row r="15" spans="1:10" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="157"/>
+      <c r="B15" s="160"/>
       <c r="C15" s="62"/>
       <c r="D15" s="62"/>
       <c r="E15" s="62"/>
@@ -12652,7 +12656,7 @@
       <c r="I15" s="62"/>
     </row>
     <row r="16" spans="1:10" s="123" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="157"/>
+      <c r="B16" s="160"/>
       <c r="C16" s="62"/>
       <c r="D16" s="62"/>
       <c r="E16" s="62"/>
@@ -12664,7 +12668,7 @@
       <c r="I16" s="62"/>
     </row>
     <row r="17" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="157"/>
+      <c r="B17" s="160"/>
       <c r="C17" s="62"/>
       <c r="D17" s="62"/>
       <c r="E17" s="62"/>
@@ -12676,7 +12680,7 @@
       <c r="I17" s="62"/>
     </row>
     <row r="18" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="159" t="s">
+      <c r="B18" s="172" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="69"/>
@@ -12688,7 +12692,7 @@
       <c r="I18" s="7"/>
     </row>
     <row r="19" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="160"/>
+      <c r="B19" s="156"/>
       <c r="C19" s="71"/>
       <c r="D19" s="62"/>
       <c r="E19" s="70"/>
@@ -12698,7 +12702,7 @@
       <c r="I19" s="62"/>
     </row>
     <row r="20" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="160"/>
+      <c r="B20" s="156"/>
       <c r="C20" s="62"/>
       <c r="D20" s="62"/>
       <c r="E20" s="62"/>
@@ -12708,7 +12712,7 @@
       <c r="I20" s="62"/>
     </row>
     <row r="21" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="147" t="s">
+      <c r="B21" s="155" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="7"/>
@@ -12720,7 +12724,7 @@
       <c r="I21" s="7"/>
     </row>
     <row r="22" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="148"/>
+      <c r="B22" s="147"/>
       <c r="C22" s="62"/>
       <c r="D22" s="62"/>
       <c r="E22" s="62"/>
@@ -12730,7 +12734,7 @@
       <c r="I22" s="62"/>
     </row>
     <row r="23" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="148"/>
+      <c r="B23" s="147"/>
       <c r="C23" s="62"/>
       <c r="D23" s="62"/>
       <c r="E23" s="62"/>
@@ -12740,7 +12744,7 @@
       <c r="I23" s="62"/>
     </row>
     <row r="24" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="150" t="s">
+      <c r="B24" s="159" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="7"/>
@@ -12752,7 +12756,7 @@
       <c r="I24" s="7"/>
     </row>
     <row r="25" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="151"/>
+      <c r="B25" s="149"/>
       <c r="C25" s="62"/>
       <c r="D25" s="62"/>
       <c r="E25" s="62"/>
@@ -12762,7 +12766,7 @@
       <c r="I25" s="62"/>
     </row>
     <row r="26" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="151"/>
+      <c r="B26" s="149"/>
       <c r="C26" s="62"/>
       <c r="D26" s="62"/>
       <c r="E26" s="62"/>
@@ -12772,7 +12776,7 @@
       <c r="I26" s="62"/>
     </row>
     <row r="27" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="153" t="s">
+      <c r="B27" s="158" t="s">
         <v>12</v>
       </c>
       <c r="C27" s="7"/>
@@ -12784,7 +12788,7 @@
       <c r="I27" s="7"/>
     </row>
     <row r="28" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="154"/>
+      <c r="B28" s="151"/>
       <c r="C28" s="62"/>
       <c r="D28" s="62"/>
       <c r="E28" s="62"/>
@@ -12794,7 +12798,7 @@
       <c r="I28" s="62"/>
     </row>
     <row r="29" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="154"/>
+      <c r="B29" s="151"/>
       <c r="C29" s="62"/>
       <c r="D29" s="62"/>
       <c r="E29" s="62"/>
@@ -12804,7 +12808,7 @@
       <c r="I29" s="62"/>
     </row>
     <row r="30" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="175" t="s">
+      <c r="B30" s="169" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="59"/>
@@ -12816,7 +12820,7 @@
       <c r="I30" s="7"/>
     </row>
     <row r="31" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="176"/>
+      <c r="B31" s="153"/>
       <c r="C31" s="62"/>
       <c r="D31" s="62"/>
       <c r="E31" s="62"/>
@@ -12826,7 +12830,7 @@
       <c r="I31" s="62"/>
     </row>
     <row r="32" spans="2:9" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="176"/>
+      <c r="B32" s="153"/>
       <c r="C32" s="62"/>
       <c r="D32" s="62"/>
       <c r="E32" s="62"/>
@@ -12837,7 +12841,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
-      <c r="B33" s="166"/>
+      <c r="B33" s="170"/>
       <c r="C33" s="54" t="s">
         <v>712</v>
       </c>
@@ -12863,7 +12867,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
-      <c r="B34" s="167"/>
+      <c r="B34" s="171"/>
       <c r="C34" s="120" t="s">
         <v>711</v>
       </c>
@@ -12889,7 +12893,7 @@
     </row>
     <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
-      <c r="B35" s="156" t="s">
+      <c r="B35" s="176" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="62" t="s">
@@ -12913,7 +12917,7 @@
     </row>
     <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="119"/>
-      <c r="B36" s="157"/>
+      <c r="B36" s="160"/>
       <c r="C36" s="62" t="s">
         <v>870</v>
       </c>
@@ -12933,7 +12937,7 @@
     </row>
     <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="119"/>
-      <c r="B37" s="157"/>
+      <c r="B37" s="160"/>
       <c r="C37" s="62" t="s">
         <v>869</v>
       </c>
@@ -12949,7 +12953,7 @@
     </row>
     <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="119"/>
-      <c r="B38" s="157"/>
+      <c r="B38" s="160"/>
       <c r="C38" s="62" t="s">
         <v>878</v>
       </c>
@@ -12963,7 +12967,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
-      <c r="B39" s="157"/>
+      <c r="B39" s="160"/>
       <c r="C39" s="125" t="s">
         <v>882</v>
       </c>
@@ -12977,7 +12981,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="123"/>
-      <c r="B40" s="157"/>
+      <c r="B40" s="160"/>
       <c r="C40" s="60" t="s">
         <v>883</v>
       </c>
@@ -12991,7 +12995,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="123"/>
-      <c r="B41" s="157"/>
+      <c r="B41" s="160"/>
       <c r="C41" s="60" t="s">
         <v>884</v>
       </c>
@@ -13005,7 +13009,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="124"/>
-      <c r="B42" s="157"/>
+      <c r="B42" s="160"/>
       <c r="C42" s="60" t="s">
         <v>887</v>
       </c>
@@ -13019,7 +13023,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="124"/>
-      <c r="B43" s="157"/>
+      <c r="B43" s="160"/>
       <c r="C43" s="60" t="s">
         <v>892</v>
       </c>
@@ -13033,7 +13037,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="126"/>
-      <c r="B44" s="157"/>
+      <c r="B44" s="160"/>
       <c r="C44" s="60" t="s">
         <v>907</v>
       </c>
@@ -13047,7 +13051,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
-      <c r="B45" s="158"/>
+      <c r="B45" s="161"/>
       <c r="C45" s="62" t="s">
         <v>898</v>
       </c>
@@ -13061,7 +13065,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
-      <c r="B46" s="159" t="s">
+      <c r="B46" s="172" t="s">
         <v>9</v>
       </c>
       <c r="C46" s="69"/>
@@ -13077,7 +13081,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
-      <c r="B47" s="160"/>
+      <c r="B47" s="156"/>
       <c r="C47" s="71"/>
       <c r="D47" s="5"/>
       <c r="E47" s="70"/>
@@ -13089,7 +13093,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
-      <c r="B48" s="160"/>
+      <c r="B48" s="156"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -13101,7 +13105,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
-      <c r="B49" s="147" t="s">
+      <c r="B49" s="155" t="s">
         <v>10</v>
       </c>
       <c r="C49" s="7"/>
@@ -13115,7 +13119,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
-      <c r="B50" s="148"/>
+      <c r="B50" s="147"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
@@ -13127,7 +13131,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
-      <c r="B51" s="148"/>
+      <c r="B51" s="147"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
@@ -13139,7 +13143,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
-      <c r="B52" s="150" t="s">
+      <c r="B52" s="159" t="s">
         <v>11</v>
       </c>
       <c r="C52" s="7"/>
@@ -13153,7 +13157,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
-      <c r="B53" s="151"/>
+      <c r="B53" s="149"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
@@ -13165,7 +13169,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
-      <c r="B54" s="151"/>
+      <c r="B54" s="149"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
@@ -13177,7 +13181,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
-      <c r="B55" s="153" t="s">
+      <c r="B55" s="158" t="s">
         <v>12</v>
       </c>
       <c r="C55" s="7"/>
@@ -13191,7 +13195,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
-      <c r="B56" s="154"/>
+      <c r="B56" s="151"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
@@ -13203,7 +13207,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
-      <c r="B57" s="154"/>
+      <c r="B57" s="151"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
@@ -13215,7 +13219,7 @@
     </row>
     <row r="58" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
-      <c r="B58" s="175" t="s">
+      <c r="B58" s="169" t="s">
         <v>13</v>
       </c>
       <c r="C58" s="59"/>
@@ -13229,7 +13233,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
-      <c r="B59" s="176"/>
+      <c r="B59" s="153"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
@@ -13241,7 +13245,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
-      <c r="B60" s="176"/>
+      <c r="B60" s="153"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
@@ -13305,7 +13309,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
-      <c r="B63" s="156" t="s">
+      <c r="B63" s="176" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="7" t="s">
@@ -13327,7 +13331,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
-      <c r="B64" s="157"/>
+      <c r="B64" s="160"/>
       <c r="C64" s="5" t="s">
         <v>933</v>
       </c>
@@ -13345,7 +13349,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="132"/>
-      <c r="B65" s="157"/>
+      <c r="B65" s="160"/>
       <c r="C65" s="62" t="s">
         <v>999</v>
       </c>
@@ -13359,7 +13363,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
-      <c r="B66" s="158"/>
+      <c r="B66" s="161"/>
       <c r="C66" s="6" t="s">
         <v>996</v>
       </c>
@@ -13373,7 +13377,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
-      <c r="B67" s="159" t="s">
+      <c r="B67" s="172" t="s">
         <v>9</v>
       </c>
       <c r="C67" s="7" t="s">
@@ -13397,7 +13401,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
-      <c r="B68" s="160"/>
+      <c r="B68" s="156"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5" t="s">
@@ -13415,7 +13419,7 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="123"/>
-      <c r="B69" s="160"/>
+      <c r="B69" s="156"/>
       <c r="C69" s="62"/>
       <c r="D69" s="62"/>
       <c r="E69" s="62" t="s">
@@ -13431,7 +13435,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="124"/>
-      <c r="B70" s="160"/>
+      <c r="B70" s="156"/>
       <c r="C70" s="62"/>
       <c r="D70" s="62"/>
       <c r="E70" s="62" t="s">
@@ -13447,7 +13451,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="124"/>
-      <c r="B71" s="160"/>
+      <c r="B71" s="156"/>
       <c r="C71" s="62"/>
       <c r="D71" s="62"/>
       <c r="E71" s="62"/>
@@ -13458,7 +13462,7 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="124"/>
-      <c r="B72" s="160"/>
+      <c r="B72" s="156"/>
       <c r="C72" s="62"/>
       <c r="D72" s="62"/>
       <c r="E72" s="62"/>
@@ -13470,7 +13474,7 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
-      <c r="B73" s="161"/>
+      <c r="B73" s="157"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
@@ -13482,7 +13486,7 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
-      <c r="B74" s="147" t="s">
+      <c r="B74" s="155" t="s">
         <v>10</v>
       </c>
       <c r="C74" s="7"/>
@@ -13496,7 +13500,7 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
-      <c r="B75" s="148"/>
+      <c r="B75" s="147"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -13508,7 +13512,7 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
-      <c r="B76" s="149"/>
+      <c r="B76" s="148"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
@@ -13520,7 +13524,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
-      <c r="B77" s="150" t="s">
+      <c r="B77" s="159" t="s">
         <v>11</v>
       </c>
       <c r="C77" s="7"/>
@@ -13534,7 +13538,7 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
-      <c r="B78" s="151"/>
+      <c r="B78" s="149"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -13546,7 +13550,7 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
-      <c r="B79" s="152"/>
+      <c r="B79" s="150"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
@@ -13558,7 +13562,7 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
-      <c r="B80" s="153" t="s">
+      <c r="B80" s="158" t="s">
         <v>12</v>
       </c>
       <c r="C80" s="7"/>
@@ -13572,7 +13576,7 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
-      <c r="B81" s="154"/>
+      <c r="B81" s="151"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -13584,7 +13588,7 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
-      <c r="B82" s="155"/>
+      <c r="B82" s="152"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
@@ -13596,7 +13600,7 @@
     </row>
     <row r="83" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
-      <c r="B83" s="175" t="s">
+      <c r="B83" s="169" t="s">
         <v>13</v>
       </c>
       <c r="C83" s="7"/>
@@ -13610,7 +13614,7 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
-      <c r="B84" s="176"/>
+      <c r="B84" s="153"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -13622,7 +13626,7 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
-      <c r="B85" s="177"/>
+      <c r="B85" s="154"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
@@ -13686,7 +13690,7 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
-      <c r="B88" s="156" t="s">
+      <c r="B88" s="176" t="s">
         <v>8</v>
       </c>
       <c r="C88" s="7" t="s">
@@ -13702,7 +13706,7 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
-      <c r="B89" s="157"/>
+      <c r="B89" s="160"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -13714,7 +13718,7 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
-      <c r="B90" s="158"/>
+      <c r="B90" s="161"/>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
@@ -13726,7 +13730,7 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
-      <c r="B91" s="159" t="s">
+      <c r="B91" s="172" t="s">
         <v>9</v>
       </c>
       <c r="C91" s="7" t="s">
@@ -13748,7 +13752,7 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
-      <c r="B92" s="160"/>
+      <c r="B92" s="156"/>
       <c r="C92" s="5" t="s">
         <v>862</v>
       </c>
@@ -13768,7 +13772,7 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="123"/>
-      <c r="B93" s="160"/>
+      <c r="B93" s="156"/>
       <c r="C93" s="62" t="s">
         <v>881</v>
       </c>
@@ -13788,7 +13792,7 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="124"/>
-      <c r="B94" s="160"/>
+      <c r="B94" s="156"/>
       <c r="C94" s="62" t="s">
         <v>889</v>
       </c>
@@ -13806,7 +13810,7 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="124"/>
-      <c r="B95" s="160"/>
+      <c r="B95" s="156"/>
       <c r="C95" s="62" t="s">
         <v>897</v>
       </c>
@@ -13822,7 +13826,7 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="124"/>
-      <c r="B96" s="160"/>
+      <c r="B96" s="156"/>
       <c r="C96" s="62" t="s">
         <v>907</v>
       </c>
@@ -13838,7 +13842,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="126"/>
-      <c r="B97" s="160"/>
+      <c r="B97" s="156"/>
       <c r="C97" s="60" t="s">
         <v>899</v>
       </c>
@@ -13852,7 +13856,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
-      <c r="B98" s="161"/>
+      <c r="B98" s="157"/>
       <c r="D98" s="6"/>
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
@@ -13863,7 +13867,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
-      <c r="B99" s="147" t="s">
+      <c r="B99" s="155" t="s">
         <v>10</v>
       </c>
       <c r="C99" s="7"/>
@@ -13877,7 +13881,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
-      <c r="B100" s="148"/>
+      <c r="B100" s="147"/>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
@@ -13889,7 +13893,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
-      <c r="B101" s="149"/>
+      <c r="B101" s="148"/>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
       <c r="E101" s="6"/>
@@ -13901,7 +13905,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
-      <c r="B102" s="150" t="s">
+      <c r="B102" s="159" t="s">
         <v>11</v>
       </c>
       <c r="C102" s="7"/>
@@ -13915,7 +13919,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
-      <c r="B103" s="151"/>
+      <c r="B103" s="149"/>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
@@ -13927,7 +13931,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
-      <c r="B104" s="152"/>
+      <c r="B104" s="150"/>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
       <c r="E104" s="6"/>
@@ -13939,7 +13943,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
-      <c r="B105" s="153" t="s">
+      <c r="B105" s="158" t="s">
         <v>12</v>
       </c>
       <c r="C105" s="7"/>
@@ -13953,7 +13957,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
-      <c r="B106" s="154"/>
+      <c r="B106" s="151"/>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
@@ -13965,7 +13969,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
-      <c r="B107" s="155"/>
+      <c r="B107" s="152"/>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
       <c r="E107" s="6"/>
@@ -13978,7 +13982,7 @@
     </row>
     <row r="108" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
-      <c r="B108" s="175" t="s">
+      <c r="B108" s="169" t="s">
         <v>13</v>
       </c>
       <c r="C108" s="7"/>
@@ -13993,7 +13997,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
-      <c r="B109" s="176"/>
+      <c r="B109" s="153"/>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
@@ -14006,7 +14010,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
-      <c r="B110" s="177"/>
+      <c r="B110" s="154"/>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
       <c r="E110" s="6"/>
@@ -14073,7 +14077,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
-      <c r="B113" s="157" t="s">
+      <c r="B113" s="160" t="s">
         <v>8</v>
       </c>
       <c r="C113" s="5" t="s">
@@ -14098,7 +14102,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
-      <c r="B114" s="157"/>
+      <c r="B114" s="160"/>
       <c r="C114" s="5" t="s">
         <v>1018</v>
       </c>
@@ -14113,7 +14117,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
-      <c r="B115" s="158"/>
+      <c r="B115" s="161"/>
       <c r="C115" s="6" t="s">
         <v>1041</v>
       </c>
@@ -14128,7 +14132,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
-      <c r="B116" s="160" t="s">
+      <c r="B116" s="156" t="s">
         <v>9</v>
       </c>
       <c r="C116" s="5" t="s">
@@ -14153,7 +14157,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
-      <c r="B117" s="160"/>
+      <c r="B117" s="156"/>
       <c r="C117" s="5"/>
       <c r="D117" s="5" t="s">
         <v>931</v>
@@ -14168,7 +14172,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
-      <c r="B118" s="161"/>
+      <c r="B118" s="157"/>
       <c r="C118" s="6"/>
       <c r="D118" s="6"/>
       <c r="E118" s="6"/>
@@ -14181,7 +14185,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
-      <c r="B119" s="148" t="s">
+      <c r="B119" s="147" t="s">
         <v>10</v>
       </c>
       <c r="C119" s="5"/>
@@ -14198,7 +14202,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
-      <c r="B120" s="148"/>
+      <c r="B120" s="147"/>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
@@ -14211,7 +14215,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
-      <c r="B121" s="149"/>
+      <c r="B121" s="148"/>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
       <c r="E121" s="6"/>
@@ -14224,7 +14228,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
-      <c r="B122" s="151" t="s">
+      <c r="B122" s="149" t="s">
         <v>11</v>
       </c>
       <c r="C122" s="5"/>
@@ -14239,7 +14243,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
-      <c r="B123" s="151"/>
+      <c r="B123" s="149"/>
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
@@ -14252,7 +14256,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
-      <c r="B124" s="152"/>
+      <c r="B124" s="150"/>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
       <c r="E124" s="6"/>
@@ -14265,7 +14269,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
-      <c r="B125" s="154" t="s">
+      <c r="B125" s="151" t="s">
         <v>12</v>
       </c>
       <c r="C125" s="5"/>
@@ -14280,7 +14284,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
-      <c r="B126" s="154"/>
+      <c r="B126" s="151"/>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
@@ -14293,7 +14297,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
-      <c r="B127" s="155"/>
+      <c r="B127" s="152"/>
       <c r="C127" s="6"/>
       <c r="D127" s="6"/>
       <c r="E127" s="6"/>
@@ -14305,7 +14309,7 @@
     </row>
     <row r="128" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
-      <c r="B128" s="176" t="s">
+      <c r="B128" s="153" t="s">
         <v>13</v>
       </c>
       <c r="C128" s="5"/>
@@ -14319,7 +14323,7 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
-      <c r="B129" s="176"/>
+      <c r="B129" s="153"/>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
@@ -14331,7 +14335,7 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="1"/>
-      <c r="B130" s="177"/>
+      <c r="B130" s="154"/>
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
       <c r="E130" s="6"/>
@@ -16869,15 +16873,21 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B119:B121"/>
-    <mergeCell ref="B122:B124"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="B116:B118"/>
-    <mergeCell ref="B105:B107"/>
-    <mergeCell ref="B102:B104"/>
-    <mergeCell ref="B113:B115"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="B91:B98"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="B67:B73"/>
+    <mergeCell ref="B35:B45"/>
+    <mergeCell ref="B46:B48"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="A5:XFD5"/>
     <mergeCell ref="B3:I3"/>
@@ -16894,21 +16904,15 @@
     <mergeCell ref="B83:B85"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B52:B54"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="B67:B73"/>
-    <mergeCell ref="B35:B45"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="B91:B98"/>
+    <mergeCell ref="B119:B121"/>
+    <mergeCell ref="B122:B124"/>
+    <mergeCell ref="B125:B127"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="B116:B118"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="B102:B104"/>
+    <mergeCell ref="B113:B115"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -16940,41 +16944,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="119.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="168"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="170"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="164"/>
     </row>
     <row r="2" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="173" t="s">
         <v>741</v>
       </c>
-      <c r="C2" s="191"/>
-      <c r="D2" s="191"/>
-      <c r="E2" s="191"/>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="191"/>
-      <c r="I2" s="192"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="194"/>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="66"/>
-      <c r="B3" s="172" t="s">
+      <c r="B3" s="166" t="s">
         <v>540</v>
       </c>
-      <c r="C3" s="173"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="173"/>
-      <c r="F3" s="173"/>
-      <c r="G3" s="173"/>
-      <c r="H3" s="173"/>
-      <c r="I3" s="174"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="168"/>
       <c r="J3" s="66"/>
     </row>
     <row r="4" spans="1:10" s="75" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -16983,24 +16987,24 @@
         <v>847</v>
       </c>
       <c r="C4" s="196"/>
-      <c r="D4" s="164" t="s">
+      <c r="D4" s="179" t="s">
         <v>544</v>
       </c>
-      <c r="E4" s="165"/>
-      <c r="F4" s="164" t="s">
+      <c r="E4" s="180"/>
+      <c r="F4" s="179" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="197"/>
-      <c r="H4" s="164" t="s">
+      <c r="H4" s="179" t="s">
         <v>529</v>
       </c>
-      <c r="I4" s="165"/>
+      <c r="I4" s="180"/>
       <c r="J4" s="73"/>
     </row>
-    <row r="5" spans="1:10" s="171" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:10" s="165" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="166"/>
+      <c r="B6" s="170"/>
       <c r="C6" s="54" t="s">
         <v>742</v>
       </c>
@@ -17026,7 +17030,7 @@
     </row>
     <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="167"/>
+      <c r="B7" s="171"/>
       <c r="C7" s="55" t="s">
         <v>1</v>
       </c>
@@ -17090,7 +17094,7 @@
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="181" t="s">
+      <c r="B11" s="191" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="11"/>
@@ -17104,7 +17108,7 @@
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="181"/>
+      <c r="B12" s="191"/>
       <c r="C12" s="11"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -17116,7 +17120,7 @@
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="182"/>
+      <c r="B13" s="192"/>
       <c r="C13" s="10"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -17242,7 +17246,7 @@
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="193" t="s">
+      <c r="B23" s="181" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="11"/>
@@ -17256,7 +17260,7 @@
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="193"/>
+      <c r="B24" s="181"/>
       <c r="C24" s="11"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -17268,7 +17272,7 @@
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
-      <c r="B25" s="194"/>
+      <c r="B25" s="182"/>
       <c r="C25" s="10"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -17374,7 +17378,7 @@
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
-      <c r="B31" s="181" t="s">
+      <c r="B31" s="191" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="11"/>
@@ -17396,7 +17400,7 @@
     </row>
     <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
-      <c r="B32" s="181"/>
+      <c r="B32" s="191"/>
       <c r="C32" s="11"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5" t="s">
@@ -17412,7 +17416,7 @@
     </row>
     <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="134"/>
-      <c r="B33" s="181"/>
+      <c r="B33" s="191"/>
       <c r="C33" s="11"/>
       <c r="D33" s="62"/>
       <c r="F33" s="62"/>
@@ -17423,7 +17427,7 @@
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="133"/>
-      <c r="B34" s="181"/>
+      <c r="B34" s="191"/>
       <c r="C34" s="11"/>
       <c r="D34" s="62"/>
       <c r="E34" s="62" t="s">
@@ -17439,7 +17443,7 @@
     </row>
     <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
-      <c r="B35" s="182"/>
+      <c r="B35" s="192"/>
       <c r="C35" s="10"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6" t="s">
@@ -17569,7 +17573,7 @@
     </row>
     <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
-      <c r="B45" s="193" t="s">
+      <c r="B45" s="181" t="s">
         <v>13</v>
       </c>
       <c r="C45" s="11"/>
@@ -17583,7 +17587,7 @@
     </row>
     <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
-      <c r="B46" s="193"/>
+      <c r="B46" s="181"/>
       <c r="C46" s="11"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
@@ -17595,7 +17599,7 @@
     </row>
     <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
-      <c r="B47" s="194"/>
+      <c r="B47" s="182"/>
       <c r="C47" s="10"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
@@ -17697,7 +17701,7 @@
     </row>
     <row r="53" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
-      <c r="B53" s="181" t="s">
+      <c r="B53" s="191" t="s">
         <v>9</v>
       </c>
       <c r="C53" s="62" t="s">
@@ -17719,7 +17723,7 @@
     </row>
     <row r="54" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
-      <c r="B54" s="181"/>
+      <c r="B54" s="191"/>
       <c r="C54" s="11"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
@@ -17731,7 +17735,7 @@
     </row>
     <row r="55" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
-      <c r="B55" s="182"/>
+      <c r="B55" s="192"/>
       <c r="C55" s="10"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
@@ -17858,7 +17862,7 @@
     </row>
     <row r="65" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
-      <c r="B65" s="193" t="s">
+      <c r="B65" s="181" t="s">
         <v>13</v>
       </c>
       <c r="C65" s="11"/>
@@ -17872,7 +17876,7 @@
     </row>
     <row r="66" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
-      <c r="B66" s="193"/>
+      <c r="B66" s="181"/>
       <c r="C66" s="11"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
@@ -17887,7 +17891,7 @@
     </row>
     <row r="67" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
-      <c r="B67" s="194"/>
+      <c r="B67" s="182"/>
       <c r="C67" s="10"/>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
@@ -18007,7 +18011,7 @@
     </row>
     <row r="73" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
-      <c r="B73" s="181" t="s">
+      <c r="B73" s="191" t="s">
         <v>9</v>
       </c>
       <c r="C73" s="11"/>
@@ -18026,7 +18030,7 @@
     </row>
     <row r="74" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
-      <c r="B74" s="181"/>
+      <c r="B74" s="191"/>
       <c r="C74" s="11"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
@@ -18041,7 +18045,7 @@
     </row>
     <row r="75" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
-      <c r="B75" s="182"/>
+      <c r="B75" s="192"/>
       <c r="C75" s="10"/>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
@@ -18197,7 +18201,7 @@
     </row>
     <row r="85" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
-      <c r="B85" s="193" t="s">
+      <c r="B85" s="181" t="s">
         <v>13</v>
       </c>
       <c r="C85" s="11"/>
@@ -18214,7 +18218,7 @@
     </row>
     <row r="86" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
-      <c r="B86" s="193"/>
+      <c r="B86" s="181"/>
       <c r="C86" s="11"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
@@ -18229,7 +18233,7 @@
     </row>
     <row r="87" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
-      <c r="B87" s="194"/>
+      <c r="B87" s="182"/>
       <c r="C87" s="10"/>
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
@@ -18337,7 +18341,7 @@
     </row>
     <row r="93" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
-      <c r="B93" s="181" t="s">
+      <c r="B93" s="191" t="s">
         <v>9</v>
       </c>
       <c r="C93" s="11"/>
@@ -18351,7 +18355,7 @@
     </row>
     <row r="94" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
-      <c r="B94" s="181"/>
+      <c r="B94" s="191"/>
       <c r="C94" s="11"/>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
@@ -18363,7 +18367,7 @@
     </row>
     <row r="95" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
-      <c r="B95" s="182"/>
+      <c r="B95" s="192"/>
       <c r="C95" s="10"/>
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
@@ -18489,7 +18493,7 @@
     </row>
     <row r="105" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
-      <c r="B105" s="193" t="s">
+      <c r="B105" s="181" t="s">
         <v>13</v>
       </c>
       <c r="C105" s="11"/>
@@ -18503,7 +18507,7 @@
     </row>
     <row r="106" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
-      <c r="B106" s="193"/>
+      <c r="B106" s="181"/>
       <c r="C106" s="11"/>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
@@ -18515,7 +18519,7 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
-      <c r="B107" s="194"/>
+      <c r="B107" s="182"/>
       <c r="C107" s="68"/>
       <c r="D107" s="6"/>
       <c r="E107" s="6"/>
@@ -22781,6 +22785,29 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B6:B7"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B105:B107"/>
     <mergeCell ref="A5:XFD5"/>
@@ -22797,29 +22824,6 @@
     <mergeCell ref="B56:B58"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B62:B64"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="B70:B72"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -22862,30 +22866,30 @@
     </row>
     <row r="2" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="173" t="s">
         <v>778</v>
       </c>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="180"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="174"/>
+      <c r="I2" s="175"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="66"/>
-      <c r="B3" s="172" t="s">
+      <c r="B3" s="166" t="s">
         <v>540</v>
       </c>
-      <c r="C3" s="173"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="173"/>
-      <c r="F3" s="173"/>
-      <c r="G3" s="173"/>
-      <c r="H3" s="173"/>
-      <c r="I3" s="174"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="168"/>
       <c r="J3" s="66"/>
     </row>
     <row r="4" spans="1:10" s="76" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -22894,24 +22898,24 @@
         <v>849</v>
       </c>
       <c r="C4" s="196"/>
-      <c r="D4" s="164" t="s">
+      <c r="D4" s="179" t="s">
         <v>545</v>
       </c>
-      <c r="E4" s="165"/>
-      <c r="F4" s="164" t="s">
+      <c r="E4" s="180"/>
+      <c r="F4" s="179" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="197"/>
-      <c r="H4" s="164" t="s">
+      <c r="H4" s="179" t="s">
         <v>529</v>
       </c>
-      <c r="I4" s="165"/>
+      <c r="I4" s="180"/>
       <c r="J4" s="73"/>
     </row>
-    <row r="5" spans="1:10" s="171" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:10" s="165" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="166"/>
+      <c r="B6" s="170"/>
       <c r="C6" s="103" t="s">
         <v>779</v>
       </c>
@@ -22937,7 +22941,7 @@
     </row>
     <row r="7" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="167"/>
+      <c r="B7" s="171"/>
       <c r="C7" s="104" t="s">
         <v>780</v>
       </c>
@@ -22963,7 +22967,7 @@
     </row>
     <row r="8" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="157" t="s">
+      <c r="B8" s="160" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="5"/>
@@ -22977,7 +22981,7 @@
     </row>
     <row r="9" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="157"/>
+      <c r="B9" s="160"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -22989,7 +22993,7 @@
     </row>
     <row r="10" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="158"/>
+      <c r="B10" s="161"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -23001,7 +23005,7 @@
     </row>
     <row r="11" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="160" t="s">
+      <c r="B11" s="156" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="5"/>
@@ -23015,7 +23019,7 @@
     </row>
     <row r="12" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="160"/>
+      <c r="B12" s="156"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -23027,7 +23031,7 @@
     </row>
     <row r="13" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="161"/>
+      <c r="B13" s="157"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -23039,7 +23043,7 @@
     </row>
     <row r="14" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="148" t="s">
+      <c r="B14" s="147" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="5"/>
@@ -23053,7 +23057,7 @@
     </row>
     <row r="15" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="148"/>
+      <c r="B15" s="147"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -23065,7 +23069,7 @@
     </row>
     <row r="16" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="149"/>
+      <c r="B16" s="148"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -23077,7 +23081,7 @@
     </row>
     <row r="17" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="151" t="s">
+      <c r="B17" s="149" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="5"/>
@@ -23091,7 +23095,7 @@
     </row>
     <row r="18" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="151"/>
+      <c r="B18" s="149"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -23103,7 +23107,7 @@
     </row>
     <row r="19" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="152"/>
+      <c r="B19" s="150"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -23115,7 +23119,7 @@
     </row>
     <row r="20" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="154" t="s">
+      <c r="B20" s="151" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="5"/>
@@ -23129,7 +23133,7 @@
     </row>
     <row r="21" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="154"/>
+      <c r="B21" s="151"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -23141,7 +23145,7 @@
     </row>
     <row r="22" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="155"/>
+      <c r="B22" s="152"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -23153,7 +23157,7 @@
     </row>
     <row r="23" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="176" t="s">
+      <c r="B23" s="153" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="5"/>
@@ -23167,7 +23171,7 @@
     </row>
     <row r="24" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="176"/>
+      <c r="B24" s="153"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -23179,7 +23183,7 @@
     </row>
     <row r="25" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
-      <c r="B25" s="177"/>
+      <c r="B25" s="154"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -23243,7 +23247,7 @@
     </row>
     <row r="28" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
-      <c r="B28" s="157" t="s">
+      <c r="B28" s="160" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="5"/>
@@ -23258,7 +23262,7 @@
     </row>
     <row r="29" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
-      <c r="B29" s="157"/>
+      <c r="B29" s="160"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -23270,7 +23274,7 @@
     </row>
     <row r="30" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="B30" s="158"/>
+      <c r="B30" s="161"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -23282,7 +23286,7 @@
     </row>
     <row r="31" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
-      <c r="B31" s="160" t="s">
+      <c r="B31" s="156" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="5"/>
@@ -23296,7 +23300,7 @@
     </row>
     <row r="32" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
-      <c r="B32" s="160"/>
+      <c r="B32" s="156"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -23308,7 +23312,7 @@
     </row>
     <row r="33" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
-      <c r="B33" s="161"/>
+      <c r="B33" s="157"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -23320,7 +23324,7 @@
     </row>
     <row r="34" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
-      <c r="B34" s="148" t="s">
+      <c r="B34" s="147" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="5"/>
@@ -23334,7 +23338,7 @@
     </row>
     <row r="35" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
-      <c r="B35" s="148"/>
+      <c r="B35" s="147"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -23346,7 +23350,7 @@
     </row>
     <row r="36" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
-      <c r="B36" s="149"/>
+      <c r="B36" s="148"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -23358,7 +23362,7 @@
     </row>
     <row r="37" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
-      <c r="B37" s="151" t="s">
+      <c r="B37" s="149" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="5"/>
@@ -23372,7 +23376,7 @@
     </row>
     <row r="38" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
-      <c r="B38" s="151"/>
+      <c r="B38" s="149"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -23384,7 +23388,7 @@
     </row>
     <row r="39" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
-      <c r="B39" s="152"/>
+      <c r="B39" s="150"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -23396,7 +23400,7 @@
     </row>
     <row r="40" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
-      <c r="B40" s="154" t="s">
+      <c r="B40" s="151" t="s">
         <v>12</v>
       </c>
       <c r="C40" s="5"/>
@@ -23410,7 +23414,7 @@
     </row>
     <row r="41" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
-      <c r="B41" s="154"/>
+      <c r="B41" s="151"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -23422,7 +23426,7 @@
     </row>
     <row r="42" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
-      <c r="B42" s="155"/>
+      <c r="B42" s="152"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -23434,7 +23438,7 @@
     </row>
     <row r="43" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
-      <c r="B43" s="176" t="s">
+      <c r="B43" s="153" t="s">
         <v>13</v>
       </c>
       <c r="C43" s="5"/>
@@ -23448,7 +23452,7 @@
     </row>
     <row r="44" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
-      <c r="B44" s="176"/>
+      <c r="B44" s="153"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -23460,7 +23464,7 @@
     </row>
     <row r="45" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
-      <c r="B45" s="177"/>
+      <c r="B45" s="154"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
@@ -23524,7 +23528,7 @@
     </row>
     <row r="48" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
-      <c r="B48" s="157" t="s">
+      <c r="B48" s="160" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="5"/>
@@ -23538,7 +23542,7 @@
     </row>
     <row r="49" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
-      <c r="B49" s="157"/>
+      <c r="B49" s="160"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -23550,7 +23554,7 @@
     </row>
     <row r="50" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
-      <c r="B50" s="158"/>
+      <c r="B50" s="161"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
@@ -23562,7 +23566,7 @@
     </row>
     <row r="51" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
-      <c r="B51" s="160" t="s">
+      <c r="B51" s="156" t="s">
         <v>9</v>
       </c>
       <c r="C51" s="5"/>
@@ -23576,7 +23580,7 @@
     </row>
     <row r="52" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
-      <c r="B52" s="160"/>
+      <c r="B52" s="156"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -23588,7 +23592,7 @@
     </row>
     <row r="53" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
-      <c r="B53" s="161"/>
+      <c r="B53" s="157"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
@@ -23600,7 +23604,7 @@
     </row>
     <row r="54" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
-      <c r="B54" s="148" t="s">
+      <c r="B54" s="147" t="s">
         <v>10</v>
       </c>
       <c r="C54" s="5"/>
@@ -23614,7 +23618,7 @@
     </row>
     <row r="55" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
-      <c r="B55" s="148"/>
+      <c r="B55" s="147"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -23626,7 +23630,7 @@
     </row>
     <row r="56" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
-      <c r="B56" s="149"/>
+      <c r="B56" s="148"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
@@ -23638,7 +23642,7 @@
     </row>
     <row r="57" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
-      <c r="B57" s="151" t="s">
+      <c r="B57" s="149" t="s">
         <v>11</v>
       </c>
       <c r="C57" s="5"/>
@@ -23652,7 +23656,7 @@
     </row>
     <row r="58" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
-      <c r="B58" s="151"/>
+      <c r="B58" s="149"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -23664,7 +23668,7 @@
     </row>
     <row r="59" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
-      <c r="B59" s="152"/>
+      <c r="B59" s="150"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
@@ -23676,7 +23680,7 @@
     </row>
     <row r="60" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
-      <c r="B60" s="154" t="s">
+      <c r="B60" s="151" t="s">
         <v>12</v>
       </c>
       <c r="C60" s="5"/>
@@ -23690,7 +23694,7 @@
     </row>
     <row r="61" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
-      <c r="B61" s="154"/>
+      <c r="B61" s="151"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -23702,7 +23706,7 @@
     </row>
     <row r="62" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
-      <c r="B62" s="155"/>
+      <c r="B62" s="152"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
@@ -23714,7 +23718,7 @@
     </row>
     <row r="63" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
-      <c r="B63" s="176" t="s">
+      <c r="B63" s="153" t="s">
         <v>13</v>
       </c>
       <c r="C63" s="5"/>
@@ -23728,7 +23732,7 @@
     </row>
     <row r="64" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
-      <c r="B64" s="176"/>
+      <c r="B64" s="153"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -23740,7 +23744,7 @@
     </row>
     <row r="65" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
-      <c r="B65" s="177"/>
+      <c r="B65" s="154"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
@@ -23807,7 +23811,7 @@
     </row>
     <row r="68" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
-      <c r="B68" s="157" t="s">
+      <c r="B68" s="160" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="5"/>
@@ -23822,7 +23826,7 @@
     </row>
     <row r="69" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
-      <c r="B69" s="157"/>
+      <c r="B69" s="160"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -23835,7 +23839,7 @@
     </row>
     <row r="70" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
-      <c r="B70" s="158"/>
+      <c r="B70" s="161"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
@@ -23848,7 +23852,7 @@
     </row>
     <row r="71" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
-      <c r="B71" s="160" t="s">
+      <c r="B71" s="156" t="s">
         <v>9</v>
       </c>
       <c r="C71" s="5"/>
@@ -23863,7 +23867,7 @@
     </row>
     <row r="72" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
-      <c r="B72" s="160"/>
+      <c r="B72" s="156"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -23876,7 +23880,7 @@
     </row>
     <row r="73" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
-      <c r="B73" s="161"/>
+      <c r="B73" s="157"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
@@ -23889,7 +23893,7 @@
     </row>
     <row r="74" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
-      <c r="B74" s="148" t="s">
+      <c r="B74" s="147" t="s">
         <v>10</v>
       </c>
       <c r="C74" s="5"/>
@@ -23904,7 +23908,7 @@
     </row>
     <row r="75" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
-      <c r="B75" s="148"/>
+      <c r="B75" s="147"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -23916,7 +23920,7 @@
     </row>
     <row r="76" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
-      <c r="B76" s="149"/>
+      <c r="B76" s="148"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
@@ -23928,7 +23932,7 @@
     </row>
     <row r="77" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
-      <c r="B77" s="151" t="s">
+      <c r="B77" s="149" t="s">
         <v>11</v>
       </c>
       <c r="C77" s="5"/>
@@ -23942,7 +23946,7 @@
     </row>
     <row r="78" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
-      <c r="B78" s="151"/>
+      <c r="B78" s="149"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -23954,7 +23958,7 @@
     </row>
     <row r="79" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
-      <c r="B79" s="152"/>
+      <c r="B79" s="150"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
@@ -23966,7 +23970,7 @@
     </row>
     <row r="80" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
-      <c r="B80" s="154" t="s">
+      <c r="B80" s="151" t="s">
         <v>12</v>
       </c>
       <c r="C80" s="5"/>
@@ -23980,7 +23984,7 @@
     </row>
     <row r="81" spans="1:16" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
-      <c r="B81" s="154"/>
+      <c r="B81" s="151"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -23992,7 +23996,7 @@
     </row>
     <row r="82" spans="1:16" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
-      <c r="B82" s="155"/>
+      <c r="B82" s="152"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
@@ -24004,7 +24008,7 @@
     </row>
     <row r="83" spans="1:16" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
-      <c r="B83" s="176" t="s">
+      <c r="B83" s="153" t="s">
         <v>13</v>
       </c>
       <c r="C83" s="5"/>
@@ -24018,7 +24022,7 @@
     </row>
     <row r="84" spans="1:16" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
-      <c r="B84" s="176"/>
+      <c r="B84" s="153"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -24030,7 +24034,7 @@
     </row>
     <row r="85" spans="1:16" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
-      <c r="B85" s="177"/>
+      <c r="B85" s="154"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
@@ -26213,11 +26217,18 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B68:B70"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="A5:XFD5"/>
@@ -26234,18 +26245,11 @@
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B60:B62"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -26264,7 +26268,7 @@
   <dimension ref="A1:P60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -26331,23 +26335,23 @@
     </row>
     <row r="4" spans="1:16" s="98" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="97"/>
-      <c r="B4" s="164" t="s">
+      <c r="B4" s="179" t="s">
         <v>647</v>
       </c>
       <c r="C4" s="197"/>
-      <c r="D4" s="165"/>
-      <c r="E4" s="164" t="s">
+      <c r="D4" s="180"/>
+      <c r="E4" s="179" t="s">
         <v>648</v>
       </c>
       <c r="F4" s="197"/>
-      <c r="G4" s="165"/>
-      <c r="H4" s="164" t="s">
+      <c r="G4" s="180"/>
+      <c r="H4" s="179" t="s">
         <v>649</v>
       </c>
       <c r="I4" s="197"/>
       <c r="J4" s="197"/>
       <c r="K4" s="197"/>
-      <c r="L4" s="165"/>
+      <c r="L4" s="180"/>
       <c r="M4" s="97"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -26640,7 +26644,7 @@
       </c>
       <c r="P15">
         <f>COUNTIF(F12:F54,"O")</f>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
@@ -27210,7 +27214,9 @@
       <c r="E39" s="28" t="s">
         <v>1017</v>
       </c>
-      <c r="F39" s="28"/>
+      <c r="F39" s="28" t="s">
+        <v>1100</v>
+      </c>
       <c r="G39" s="28"/>
       <c r="H39" s="28"/>
       <c r="I39" s="28"/>
@@ -27231,7 +27237,9 @@
       <c r="E40" s="28" t="s">
         <v>1017</v>
       </c>
-      <c r="F40" s="28"/>
+      <c r="F40" s="28" t="s">
+        <v>1100</v>
+      </c>
       <c r="G40" s="28"/>
       <c r="H40" s="28"/>
       <c r="I40" s="28"/>
@@ -27587,30 +27595,30 @@
     </row>
     <row r="2" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="173" t="s">
         <v>837</v>
       </c>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="180"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="174"/>
+      <c r="I2" s="175"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="66"/>
-      <c r="B3" s="172" t="s">
+      <c r="B3" s="166" t="s">
         <v>540</v>
       </c>
-      <c r="C3" s="173"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="173"/>
-      <c r="F3" s="173"/>
-      <c r="G3" s="173"/>
-      <c r="H3" s="173"/>
-      <c r="I3" s="174"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="168"/>
       <c r="J3" s="66"/>
     </row>
     <row r="4" spans="1:10" s="74" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -27619,24 +27627,24 @@
         <v>848</v>
       </c>
       <c r="C4" s="196"/>
-      <c r="D4" s="164" t="s">
+      <c r="D4" s="179" t="s">
         <v>704</v>
       </c>
-      <c r="E4" s="165"/>
-      <c r="F4" s="164" t="s">
+      <c r="E4" s="180"/>
+      <c r="F4" s="179" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="197"/>
-      <c r="H4" s="164" t="s">
+      <c r="H4" s="179" t="s">
         <v>543</v>
       </c>
-      <c r="I4" s="165"/>
+      <c r="I4" s="180"/>
       <c r="J4" s="15"/>
     </row>
-    <row r="5" spans="1:10" s="171" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:10" s="165" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="166"/>
+      <c r="B6" s="170"/>
       <c r="C6" s="54" t="s">
         <v>809</v>
       </c>
@@ -27662,7 +27670,7 @@
     </row>
     <row r="7" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="167"/>
+      <c r="B7" s="171"/>
       <c r="C7" s="55" t="s">
         <v>1</v>
       </c>
@@ -27688,7 +27696,7 @@
     </row>
     <row r="8" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="157" t="s">
+      <c r="B8" s="160" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="5"/>
@@ -27702,7 +27710,7 @@
     </row>
     <row r="9" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="157"/>
+      <c r="B9" s="160"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -27714,7 +27722,7 @@
     </row>
     <row r="10" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="158"/>
+      <c r="B10" s="161"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -27726,7 +27734,7 @@
     </row>
     <row r="11" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="160" t="s">
+      <c r="B11" s="156" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="5"/>
@@ -27740,7 +27748,7 @@
     </row>
     <row r="12" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="160"/>
+      <c r="B12" s="156"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -27752,7 +27760,7 @@
     </row>
     <row r="13" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="161"/>
+      <c r="B13" s="157"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -27764,7 +27772,7 @@
     </row>
     <row r="14" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="148" t="s">
+      <c r="B14" s="147" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="5"/>
@@ -27778,7 +27786,7 @@
     </row>
     <row r="15" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="148"/>
+      <c r="B15" s="147"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -27790,7 +27798,7 @@
     </row>
     <row r="16" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="149"/>
+      <c r="B16" s="148"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -27802,7 +27810,7 @@
     </row>
     <row r="17" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="151" t="s">
+      <c r="B17" s="149" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="5"/>
@@ -27816,7 +27824,7 @@
     </row>
     <row r="18" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="151"/>
+      <c r="B18" s="149"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -27828,7 +27836,7 @@
     </row>
     <row r="19" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="152"/>
+      <c r="B19" s="150"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -27840,7 +27848,7 @@
     </row>
     <row r="20" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="154" t="s">
+      <c r="B20" s="151" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="5"/>
@@ -27854,7 +27862,7 @@
     </row>
     <row r="21" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="154"/>
+      <c r="B21" s="151"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -27866,7 +27874,7 @@
     </row>
     <row r="22" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="155"/>
+      <c r="B22" s="152"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -27878,7 +27886,7 @@
     </row>
     <row r="23" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="176" t="s">
+      <c r="B23" s="153" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="5"/>
@@ -27892,7 +27900,7 @@
     </row>
     <row r="24" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="176"/>
+      <c r="B24" s="153"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -27904,7 +27912,7 @@
     </row>
     <row r="25" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
-      <c r="B25" s="177"/>
+      <c r="B25" s="154"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -27968,7 +27976,7 @@
     </row>
     <row r="28" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
-      <c r="B28" s="157" t="s">
+      <c r="B28" s="160" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="5"/>
@@ -27982,7 +27990,7 @@
     </row>
     <row r="29" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
-      <c r="B29" s="157"/>
+      <c r="B29" s="160"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -27994,7 +28002,7 @@
     </row>
     <row r="30" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="B30" s="158"/>
+      <c r="B30" s="161"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -28006,7 +28014,7 @@
     </row>
     <row r="31" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
-      <c r="B31" s="160" t="s">
+      <c r="B31" s="156" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="5"/>
@@ -28020,7 +28028,7 @@
     </row>
     <row r="32" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
-      <c r="B32" s="160"/>
+      <c r="B32" s="156"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -28032,7 +28040,7 @@
     </row>
     <row r="33" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
-      <c r="B33" s="161"/>
+      <c r="B33" s="157"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -28044,7 +28052,7 @@
     </row>
     <row r="34" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
-      <c r="B34" s="148" t="s">
+      <c r="B34" s="147" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="5"/>
@@ -28058,7 +28066,7 @@
     </row>
     <row r="35" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
-      <c r="B35" s="148"/>
+      <c r="B35" s="147"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -28070,7 +28078,7 @@
     </row>
     <row r="36" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
-      <c r="B36" s="149"/>
+      <c r="B36" s="148"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -28082,7 +28090,7 @@
     </row>
     <row r="37" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
-      <c r="B37" s="151" t="s">
+      <c r="B37" s="149" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="5"/>
@@ -28096,7 +28104,7 @@
     </row>
     <row r="38" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
-      <c r="B38" s="151"/>
+      <c r="B38" s="149"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -28108,7 +28116,7 @@
     </row>
     <row r="39" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
-      <c r="B39" s="152"/>
+      <c r="B39" s="150"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -28120,7 +28128,7 @@
     </row>
     <row r="40" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
-      <c r="B40" s="154" t="s">
+      <c r="B40" s="151" t="s">
         <v>12</v>
       </c>
       <c r="C40" s="5"/>
@@ -28134,7 +28142,7 @@
     </row>
     <row r="41" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
-      <c r="B41" s="154"/>
+      <c r="B41" s="151"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -28146,7 +28154,7 @@
     </row>
     <row r="42" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
-      <c r="B42" s="155"/>
+      <c r="B42" s="152"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -28158,7 +28166,7 @@
     </row>
     <row r="43" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
-      <c r="B43" s="176" t="s">
+      <c r="B43" s="153" t="s">
         <v>13</v>
       </c>
       <c r="C43" s="5"/>
@@ -28172,7 +28180,7 @@
     </row>
     <row r="44" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
-      <c r="B44" s="176"/>
+      <c r="B44" s="153"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -28184,7 +28192,7 @@
     </row>
     <row r="45" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
-      <c r="B45" s="177"/>
+      <c r="B45" s="154"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
@@ -28248,7 +28256,7 @@
     </row>
     <row r="48" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
-      <c r="B48" s="157" t="s">
+      <c r="B48" s="160" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="5"/>
@@ -28262,7 +28270,7 @@
     </row>
     <row r="49" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
-      <c r="B49" s="157"/>
+      <c r="B49" s="160"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -28274,7 +28282,7 @@
     </row>
     <row r="50" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
-      <c r="B50" s="158"/>
+      <c r="B50" s="161"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
@@ -28286,7 +28294,7 @@
     </row>
     <row r="51" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
-      <c r="B51" s="160" t="s">
+      <c r="B51" s="156" t="s">
         <v>9</v>
       </c>
       <c r="C51" s="5"/>
@@ -28300,7 +28308,7 @@
     </row>
     <row r="52" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
-      <c r="B52" s="160"/>
+      <c r="B52" s="156"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -28312,7 +28320,7 @@
     </row>
     <row r="53" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
-      <c r="B53" s="161"/>
+      <c r="B53" s="157"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
@@ -28324,7 +28332,7 @@
     </row>
     <row r="54" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
-      <c r="B54" s="148" t="s">
+      <c r="B54" s="147" t="s">
         <v>10</v>
       </c>
       <c r="C54" s="5"/>
@@ -28338,7 +28346,7 @@
     </row>
     <row r="55" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
-      <c r="B55" s="148"/>
+      <c r="B55" s="147"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -28350,7 +28358,7 @@
     </row>
     <row r="56" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
-      <c r="B56" s="149"/>
+      <c r="B56" s="148"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
@@ -28362,7 +28370,7 @@
     </row>
     <row r="57" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
-      <c r="B57" s="151" t="s">
+      <c r="B57" s="149" t="s">
         <v>11</v>
       </c>
       <c r="C57" s="5"/>
@@ -28376,7 +28384,7 @@
     </row>
     <row r="58" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
-      <c r="B58" s="151"/>
+      <c r="B58" s="149"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -28388,7 +28396,7 @@
     </row>
     <row r="59" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
-      <c r="B59" s="152"/>
+      <c r="B59" s="150"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
@@ -28400,7 +28408,7 @@
     </row>
     <row r="60" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
-      <c r="B60" s="154" t="s">
+      <c r="B60" s="151" t="s">
         <v>12</v>
       </c>
       <c r="C60" s="5"/>
@@ -28414,7 +28422,7 @@
     </row>
     <row r="61" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
-      <c r="B61" s="154"/>
+      <c r="B61" s="151"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -28427,7 +28435,7 @@
     </row>
     <row r="62" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
-      <c r="B62" s="155"/>
+      <c r="B62" s="152"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
@@ -28440,7 +28448,7 @@
     </row>
     <row r="63" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
-      <c r="B63" s="176" t="s">
+      <c r="B63" s="153" t="s">
         <v>13</v>
       </c>
       <c r="C63" s="5"/>
@@ -28455,7 +28463,7 @@
     </row>
     <row r="64" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
-      <c r="B64" s="176"/>
+      <c r="B64" s="153"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -28468,7 +28476,7 @@
     </row>
     <row r="65" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
-      <c r="B65" s="177"/>
+      <c r="B65" s="154"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
@@ -28535,7 +28543,7 @@
     </row>
     <row r="68" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
-      <c r="B68" s="157" t="s">
+      <c r="B68" s="160" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="5"/>
@@ -28550,7 +28558,7 @@
     </row>
     <row r="69" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
-      <c r="B69" s="157"/>
+      <c r="B69" s="160"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -28563,7 +28571,7 @@
     </row>
     <row r="70" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
-      <c r="B70" s="158"/>
+      <c r="B70" s="161"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
@@ -28576,7 +28584,7 @@
     </row>
     <row r="71" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
-      <c r="B71" s="160" t="s">
+      <c r="B71" s="156" t="s">
         <v>9</v>
       </c>
       <c r="C71" s="5"/>
@@ -28591,7 +28599,7 @@
     </row>
     <row r="72" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
-      <c r="B72" s="160"/>
+      <c r="B72" s="156"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -28604,7 +28612,7 @@
     </row>
     <row r="73" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
-      <c r="B73" s="161"/>
+      <c r="B73" s="157"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
@@ -28617,7 +28625,7 @@
     </row>
     <row r="74" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
-      <c r="B74" s="148" t="s">
+      <c r="B74" s="147" t="s">
         <v>10</v>
       </c>
       <c r="C74" s="5"/>
@@ -28632,7 +28640,7 @@
     </row>
     <row r="75" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
-      <c r="B75" s="148"/>
+      <c r="B75" s="147"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -28645,7 +28653,7 @@
     </row>
     <row r="76" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
-      <c r="B76" s="149"/>
+      <c r="B76" s="148"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
@@ -28657,7 +28665,7 @@
     </row>
     <row r="77" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
-      <c r="B77" s="151" t="s">
+      <c r="B77" s="149" t="s">
         <v>11</v>
       </c>
       <c r="C77" s="5"/>
@@ -28671,7 +28679,7 @@
     </row>
     <row r="78" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
-      <c r="B78" s="151"/>
+      <c r="B78" s="149"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -28683,7 +28691,7 @@
     </row>
     <row r="79" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
-      <c r="B79" s="152"/>
+      <c r="B79" s="150"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
@@ -28695,7 +28703,7 @@
     </row>
     <row r="80" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
-      <c r="B80" s="154" t="s">
+      <c r="B80" s="151" t="s">
         <v>12</v>
       </c>
       <c r="C80" s="5"/>
@@ -28709,7 +28717,7 @@
     </row>
     <row r="81" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
-      <c r="B81" s="154"/>
+      <c r="B81" s="151"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -28721,7 +28729,7 @@
     </row>
     <row r="82" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
-      <c r="B82" s="155"/>
+      <c r="B82" s="152"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
@@ -28733,7 +28741,7 @@
     </row>
     <row r="83" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
-      <c r="B83" s="175" t="s">
+      <c r="B83" s="169" t="s">
         <v>13</v>
       </c>
       <c r="C83" s="7"/>
@@ -28747,7 +28755,7 @@
     </row>
     <row r="84" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
-      <c r="B84" s="176"/>
+      <c r="B84" s="153"/>
       <c r="C84" s="62"/>
       <c r="D84" s="62"/>
       <c r="E84" s="62"/>
@@ -28759,7 +28767,7 @@
     </row>
     <row r="85" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
-      <c r="B85" s="177"/>
+      <c r="B85" s="154"/>
       <c r="C85" s="106"/>
       <c r="D85" s="106"/>
       <c r="E85" s="106"/>
@@ -31280,15 +31288,14 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B71:B73"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="B40:B42"/>
@@ -31305,14 +31312,15 @@
     <mergeCell ref="B43:B45"/>
     <mergeCell ref="B48:B50"/>
     <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -31370,29 +31378,29 @@
     </row>
     <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="66"/>
-      <c r="B3" s="172" t="s">
+      <c r="B3" s="166" t="s">
         <v>540</v>
       </c>
-      <c r="C3" s="173"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="173"/>
-      <c r="F3" s="173"/>
-      <c r="G3" s="173"/>
-      <c r="H3" s="173"/>
-      <c r="I3" s="174"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="168"/>
       <c r="J3" s="66"/>
     </row>
     <row r="4" spans="1:10" s="74" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="73"/>
-      <c r="B4" s="162" t="s">
+      <c r="B4" s="177" t="s">
         <v>698</v>
       </c>
-      <c r="C4" s="163"/>
-      <c r="D4" s="164" t="s">
+      <c r="C4" s="178"/>
+      <c r="D4" s="179" t="s">
         <v>704</v>
       </c>
-      <c r="E4" s="165"/>
-      <c r="F4" s="164" t="s">
+      <c r="E4" s="180"/>
+      <c r="F4" s="179" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="197"/>
@@ -31402,10 +31410,10 @@
       <c r="I4" s="196"/>
       <c r="J4" s="15"/>
     </row>
-    <row r="5" spans="1:10" s="171" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:10" s="165" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="166"/>
+      <c r="B6" s="170"/>
       <c r="C6" s="54" t="s">
         <v>838</v>
       </c>
@@ -31431,7 +31439,7 @@
     </row>
     <row r="7" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="167"/>
+      <c r="B7" s="171"/>
       <c r="C7" s="55" t="s">
         <v>1</v>
       </c>
@@ -31457,7 +31465,7 @@
     </row>
     <row r="8" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="157" t="s">
+      <c r="B8" s="160" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="5"/>
@@ -31471,7 +31479,7 @@
     </row>
     <row r="9" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="157"/>
+      <c r="B9" s="160"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -31483,7 +31491,7 @@
     </row>
     <row r="10" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="158"/>
+      <c r="B10" s="161"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -31495,7 +31503,7 @@
     </row>
     <row r="11" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="160" t="s">
+      <c r="B11" s="156" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="5"/>
@@ -31509,7 +31517,7 @@
     </row>
     <row r="12" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="160"/>
+      <c r="B12" s="156"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -31521,7 +31529,7 @@
     </row>
     <row r="13" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="161"/>
+      <c r="B13" s="157"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -31533,7 +31541,7 @@
     </row>
     <row r="14" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="148" t="s">
+      <c r="B14" s="147" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="5"/>
@@ -31547,7 +31555,7 @@
     </row>
     <row r="15" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="148"/>
+      <c r="B15" s="147"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -31559,7 +31567,7 @@
     </row>
     <row r="16" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="149"/>
+      <c r="B16" s="148"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -31571,7 +31579,7 @@
     </row>
     <row r="17" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="151" t="s">
+      <c r="B17" s="149" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="5"/>
@@ -31585,7 +31593,7 @@
     </row>
     <row r="18" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="151"/>
+      <c r="B18" s="149"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -31597,7 +31605,7 @@
     </row>
     <row r="19" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="152"/>
+      <c r="B19" s="150"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -31609,7 +31617,7 @@
     </row>
     <row r="20" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="154" t="s">
+      <c r="B20" s="151" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="5"/>
@@ -31623,7 +31631,7 @@
     </row>
     <row r="21" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="154"/>
+      <c r="B21" s="151"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -31635,7 +31643,7 @@
     </row>
     <row r="22" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="155"/>
+      <c r="B22" s="152"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -31647,7 +31655,7 @@
     </row>
     <row r="23" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="176" t="s">
+      <c r="B23" s="153" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="5"/>
@@ -31661,7 +31669,7 @@
     </row>
     <row r="24" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="176"/>
+      <c r="B24" s="153"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -31673,7 +31681,7 @@
     </row>
     <row r="25" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
-      <c r="B25" s="177"/>
+      <c r="B25" s="154"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -31737,7 +31745,7 @@
     </row>
     <row r="28" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
-      <c r="B28" s="157" t="s">
+      <c r="B28" s="160" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="5"/>
@@ -31751,7 +31759,7 @@
     </row>
     <row r="29" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
-      <c r="B29" s="157"/>
+      <c r="B29" s="160"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -31763,7 +31771,7 @@
     </row>
     <row r="30" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="B30" s="158"/>
+      <c r="B30" s="161"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -31775,7 +31783,7 @@
     </row>
     <row r="31" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
-      <c r="B31" s="160" t="s">
+      <c r="B31" s="156" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="5"/>
@@ -31789,7 +31797,7 @@
     </row>
     <row r="32" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
-      <c r="B32" s="160"/>
+      <c r="B32" s="156"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -31801,7 +31809,7 @@
     </row>
     <row r="33" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
-      <c r="B33" s="161"/>
+      <c r="B33" s="157"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -31813,7 +31821,7 @@
     </row>
     <row r="34" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
-      <c r="B34" s="148" t="s">
+      <c r="B34" s="147" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="5"/>
@@ -31828,7 +31836,7 @@
     </row>
     <row r="35" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
-      <c r="B35" s="148"/>
+      <c r="B35" s="147"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -31841,7 +31849,7 @@
     </row>
     <row r="36" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
-      <c r="B36" s="149"/>
+      <c r="B36" s="148"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -31853,7 +31861,7 @@
     </row>
     <row r="37" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
-      <c r="B37" s="151" t="s">
+      <c r="B37" s="149" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="5"/>
@@ -31867,7 +31875,7 @@
     </row>
     <row r="38" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
-      <c r="B38" s="151"/>
+      <c r="B38" s="149"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -31879,7 +31887,7 @@
     </row>
     <row r="39" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
-      <c r="B39" s="152"/>
+      <c r="B39" s="150"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -31891,7 +31899,7 @@
     </row>
     <row r="40" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
-      <c r="B40" s="154" t="s">
+      <c r="B40" s="151" t="s">
         <v>12</v>
       </c>
       <c r="C40" s="5"/>
@@ -31905,7 +31913,7 @@
     </row>
     <row r="41" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
-      <c r="B41" s="154"/>
+      <c r="B41" s="151"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -31917,7 +31925,7 @@
     </row>
     <row r="42" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
-      <c r="B42" s="155"/>
+      <c r="B42" s="152"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -31929,7 +31937,7 @@
     </row>
     <row r="43" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
-      <c r="B43" s="176" t="s">
+      <c r="B43" s="153" t="s">
         <v>13</v>
       </c>
       <c r="C43" s="5"/>
@@ -31943,7 +31951,7 @@
     </row>
     <row r="44" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
-      <c r="B44" s="176"/>
+      <c r="B44" s="153"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -31955,7 +31963,7 @@
     </row>
     <row r="45" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
-      <c r="B45" s="177"/>
+      <c r="B45" s="154"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
@@ -32019,7 +32027,7 @@
     </row>
     <row r="48" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
-      <c r="B48" s="157" t="s">
+      <c r="B48" s="160" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="5"/>
@@ -32033,7 +32041,7 @@
     </row>
     <row r="49" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
-      <c r="B49" s="157"/>
+      <c r="B49" s="160"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -32045,7 +32053,7 @@
     </row>
     <row r="50" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
-      <c r="B50" s="158"/>
+      <c r="B50" s="161"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
@@ -32057,7 +32065,7 @@
     </row>
     <row r="51" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
-      <c r="B51" s="160" t="s">
+      <c r="B51" s="156" t="s">
         <v>9</v>
       </c>
       <c r="C51" s="5"/>
@@ -32071,7 +32079,7 @@
     </row>
     <row r="52" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
-      <c r="B52" s="160"/>
+      <c r="B52" s="156"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -32083,7 +32091,7 @@
     </row>
     <row r="53" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
-      <c r="B53" s="161"/>
+      <c r="B53" s="157"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
@@ -32095,7 +32103,7 @@
     </row>
     <row r="54" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
-      <c r="B54" s="148" t="s">
+      <c r="B54" s="147" t="s">
         <v>10</v>
       </c>
       <c r="C54" s="5"/>
@@ -32109,7 +32117,7 @@
     </row>
     <row r="55" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
-      <c r="B55" s="148"/>
+      <c r="B55" s="147"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -32121,7 +32129,7 @@
     </row>
     <row r="56" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
-      <c r="B56" s="149"/>
+      <c r="B56" s="148"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
@@ -32133,7 +32141,7 @@
     </row>
     <row r="57" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
-      <c r="B57" s="151" t="s">
+      <c r="B57" s="149" t="s">
         <v>11</v>
       </c>
       <c r="C57" s="5"/>
@@ -32147,7 +32155,7 @@
     </row>
     <row r="58" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
-      <c r="B58" s="151"/>
+      <c r="B58" s="149"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -32159,7 +32167,7 @@
     </row>
     <row r="59" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
-      <c r="B59" s="152"/>
+      <c r="B59" s="150"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
@@ -32171,7 +32179,7 @@
     </row>
     <row r="60" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
-      <c r="B60" s="154" t="s">
+      <c r="B60" s="151" t="s">
         <v>12</v>
       </c>
       <c r="C60" s="5"/>
@@ -32185,7 +32193,7 @@
     </row>
     <row r="61" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
-      <c r="B61" s="154"/>
+      <c r="B61" s="151"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -32197,7 +32205,7 @@
     </row>
     <row r="62" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
-      <c r="B62" s="155"/>
+      <c r="B62" s="152"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
@@ -32209,7 +32217,7 @@
     </row>
     <row r="63" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
-      <c r="B63" s="176" t="s">
+      <c r="B63" s="153" t="s">
         <v>13</v>
       </c>
       <c r="C63" s="5"/>
@@ -32223,7 +32231,7 @@
     </row>
     <row r="64" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
-      <c r="B64" s="176"/>
+      <c r="B64" s="153"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -32236,7 +32244,7 @@
     </row>
     <row r="65" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
-      <c r="B65" s="177"/>
+      <c r="B65" s="154"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
@@ -32303,7 +32311,7 @@
     </row>
     <row r="68" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
-      <c r="B68" s="157" t="s">
+      <c r="B68" s="160" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="5"/>
@@ -32318,7 +32326,7 @@
     </row>
     <row r="69" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
-      <c r="B69" s="157"/>
+      <c r="B69" s="160"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -32331,7 +32339,7 @@
     </row>
     <row r="70" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
-      <c r="B70" s="158"/>
+      <c r="B70" s="161"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
@@ -32344,7 +32352,7 @@
     </row>
     <row r="71" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
-      <c r="B71" s="160" t="s">
+      <c r="B71" s="156" t="s">
         <v>9</v>
       </c>
       <c r="C71" s="5"/>
@@ -32359,7 +32367,7 @@
     </row>
     <row r="72" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
-      <c r="B72" s="160"/>
+      <c r="B72" s="156"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -32372,7 +32380,7 @@
     </row>
     <row r="73" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
-      <c r="B73" s="161"/>
+      <c r="B73" s="157"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
@@ -32385,7 +32393,7 @@
     </row>
     <row r="74" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
-      <c r="B74" s="148" t="s">
+      <c r="B74" s="147" t="s">
         <v>10</v>
       </c>
       <c r="C74" s="5"/>
@@ -32400,7 +32408,7 @@
     </row>
     <row r="75" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
-      <c r="B75" s="148"/>
+      <c r="B75" s="147"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -32412,7 +32420,7 @@
     </row>
     <row r="76" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
-      <c r="B76" s="149"/>
+      <c r="B76" s="148"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
@@ -32424,7 +32432,7 @@
     </row>
     <row r="77" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
-      <c r="B77" s="151" t="s">
+      <c r="B77" s="149" t="s">
         <v>11</v>
       </c>
       <c r="C77" s="5"/>
@@ -32438,7 +32446,7 @@
     </row>
     <row r="78" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
-      <c r="B78" s="151"/>
+      <c r="B78" s="149"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -32450,7 +32458,7 @@
     </row>
     <row r="79" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
-      <c r="B79" s="152"/>
+      <c r="B79" s="150"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
@@ -32462,7 +32470,7 @@
     </row>
     <row r="80" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
-      <c r="B80" s="154" t="s">
+      <c r="B80" s="151" t="s">
         <v>12</v>
       </c>
       <c r="C80" s="5"/>
@@ -32476,7 +32484,7 @@
     </row>
     <row r="81" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
-      <c r="B81" s="154"/>
+      <c r="B81" s="151"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -32488,7 +32496,7 @@
     </row>
     <row r="82" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
-      <c r="B82" s="155"/>
+      <c r="B82" s="152"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
@@ -32500,7 +32508,7 @@
     </row>
     <row r="83" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
-      <c r="B83" s="176" t="s">
+      <c r="B83" s="153" t="s">
         <v>13</v>
       </c>
       <c r="C83" s="5"/>
@@ -32514,7 +32522,7 @@
     </row>
     <row r="84" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
-      <c r="B84" s="176"/>
+      <c r="B84" s="153"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -32526,7 +32534,7 @@
     </row>
     <row r="85" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
-      <c r="B85" s="177"/>
+      <c r="B85" s="154"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
@@ -32580,7 +32588,7 @@
     </row>
     <row r="88" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
-      <c r="B88" s="157" t="s">
+      <c r="B88" s="160" t="s">
         <v>8</v>
       </c>
       <c r="C88" s="5"/>
@@ -32597,7 +32605,7 @@
     </row>
     <row r="89" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
-      <c r="B89" s="157"/>
+      <c r="B89" s="160"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -32612,7 +32620,7 @@
     </row>
     <row r="90" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
-      <c r="B90" s="158"/>
+      <c r="B90" s="161"/>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
@@ -32627,7 +32635,7 @@
     </row>
     <row r="91" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
-      <c r="B91" s="160" t="s">
+      <c r="B91" s="156" t="s">
         <v>9</v>
       </c>
       <c r="C91" s="5"/>
@@ -32644,7 +32652,7 @@
     </row>
     <row r="92" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
-      <c r="B92" s="160"/>
+      <c r="B92" s="156"/>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -32659,7 +32667,7 @@
     </row>
     <row r="93" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
-      <c r="B93" s="161"/>
+      <c r="B93" s="157"/>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
@@ -32674,7 +32682,7 @@
     </row>
     <row r="94" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
-      <c r="B94" s="148" t="s">
+      <c r="B94" s="147" t="s">
         <v>10</v>
       </c>
       <c r="C94" s="5"/>
@@ -32691,7 +32699,7 @@
     </row>
     <row r="95" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
-      <c r="B95" s="148"/>
+      <c r="B95" s="147"/>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
@@ -32706,7 +32714,7 @@
     </row>
     <row r="96" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
-      <c r="B96" s="149"/>
+      <c r="B96" s="148"/>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
@@ -32721,7 +32729,7 @@
     </row>
     <row r="97" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
-      <c r="B97" s="151" t="s">
+      <c r="B97" s="149" t="s">
         <v>11</v>
       </c>
       <c r="C97" s="5"/>
@@ -32738,7 +32746,7 @@
     </row>
     <row r="98" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
-      <c r="B98" s="151"/>
+      <c r="B98" s="149"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
@@ -32753,7 +32761,7 @@
     </row>
     <row r="99" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
-      <c r="B99" s="152"/>
+      <c r="B99" s="150"/>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
       <c r="E99" s="6"/>
@@ -32768,7 +32776,7 @@
     </row>
     <row r="100" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
-      <c r="B100" s="154" t="s">
+      <c r="B100" s="151" t="s">
         <v>12</v>
       </c>
       <c r="C100" s="5"/>
@@ -32785,7 +32793,7 @@
     </row>
     <row r="101" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
-      <c r="B101" s="154"/>
+      <c r="B101" s="151"/>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
@@ -32800,7 +32808,7 @@
     </row>
     <row r="102" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
-      <c r="B102" s="155"/>
+      <c r="B102" s="152"/>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
       <c r="E102" s="6"/>
@@ -32815,7 +32823,7 @@
     </row>
     <row r="103" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
-      <c r="B103" s="176" t="s">
+      <c r="B103" s="153" t="s">
         <v>13</v>
       </c>
       <c r="C103" s="5"/>
@@ -32832,7 +32840,7 @@
     </row>
     <row r="104" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
-      <c r="B104" s="176"/>
+      <c r="B104" s="153"/>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
@@ -32847,7 +32855,7 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
-      <c r="B105" s="177"/>
+      <c r="B105" s="154"/>
       <c r="C105" s="88"/>
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
@@ -33434,29 +33442,6 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="B97:B99"/>
-    <mergeCell ref="B100:B102"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
     <mergeCell ref="B103:B105"/>
     <mergeCell ref="A5:XFD5"/>
     <mergeCell ref="B74:B76"/>
@@ -33473,6 +33458,29 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B94:B96"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B97:B99"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B71:B73"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -33542,53 +33550,53 @@
     </row>
     <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24"/>
-      <c r="B3" s="217" t="s">
+      <c r="B3" s="222" t="s">
         <v>541</v>
       </c>
-      <c r="C3" s="218"/>
-      <c r="D3" s="218"/>
-      <c r="E3" s="218"/>
-      <c r="F3" s="218"/>
-      <c r="G3" s="218"/>
-      <c r="H3" s="218"/>
-      <c r="I3" s="218"/>
-      <c r="J3" s="218"/>
-      <c r="K3" s="219"/>
+      <c r="C3" s="223"/>
+      <c r="D3" s="223"/>
+      <c r="E3" s="223"/>
+      <c r="F3" s="223"/>
+      <c r="G3" s="223"/>
+      <c r="H3" s="223"/>
+      <c r="I3" s="223"/>
+      <c r="J3" s="223"/>
+      <c r="K3" s="224"/>
       <c r="L3" s="24"/>
       <c r="M3" s="24"/>
     </row>
     <row r="4" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="24"/>
-      <c r="B4" s="222" t="s">
+      <c r="B4" s="225" t="s">
         <v>533</v>
       </c>
-      <c r="C4" s="223"/>
-      <c r="D4" s="223"/>
-      <c r="E4" s="223"/>
-      <c r="F4" s="223"/>
-      <c r="G4" s="223"/>
-      <c r="H4" s="223"/>
-      <c r="I4" s="223"/>
-      <c r="J4" s="223"/>
-      <c r="K4" s="224"/>
+      <c r="C4" s="226"/>
+      <c r="D4" s="226"/>
+      <c r="E4" s="226"/>
+      <c r="F4" s="226"/>
+      <c r="G4" s="226"/>
+      <c r="H4" s="226"/>
+      <c r="I4" s="226"/>
+      <c r="J4" s="226"/>
+      <c r="K4" s="227"/>
       <c r="L4" s="24"/>
       <c r="M4" s="24"/>
     </row>
-    <row r="5" spans="1:20" s="221" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:20" s="216" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="24"/>
-      <c r="B6" s="220" t="s">
+      <c r="B6" s="217" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="220"/>
-      <c r="D6" s="220"/>
-      <c r="E6" s="220"/>
-      <c r="F6" s="220"/>
-      <c r="G6" s="220"/>
-      <c r="H6" s="220"/>
-      <c r="I6" s="220"/>
-      <c r="J6" s="220"/>
-      <c r="K6" s="220"/>
+      <c r="C6" s="217"/>
+      <c r="D6" s="217"/>
+      <c r="E6" s="217"/>
+      <c r="F6" s="217"/>
+      <c r="G6" s="217"/>
+      <c r="H6" s="217"/>
+      <c r="I6" s="217"/>
+      <c r="J6" s="217"/>
+      <c r="K6" s="217"/>
       <c r="L6" s="24"/>
       <c r="M6" s="24"/>
     </row>
@@ -33597,19 +33605,19 @@
       <c r="B7" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="216"/>
-      <c r="D7" s="216"/>
-      <c r="E7" s="216"/>
+      <c r="C7" s="219"/>
+      <c r="D7" s="219"/>
+      <c r="E7" s="219"/>
       <c r="F7" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="216"/>
-      <c r="H7" s="216"/>
+      <c r="G7" s="219"/>
+      <c r="H7" s="219"/>
       <c r="I7" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="216"/>
-      <c r="K7" s="216"/>
+      <c r="J7" s="219"/>
+      <c r="K7" s="219"/>
       <c r="L7" s="24"/>
       <c r="M7" s="24"/>
     </row>
@@ -33618,19 +33626,19 @@
       <c r="B8" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="216"/>
-      <c r="D8" s="216"/>
-      <c r="E8" s="216"/>
+      <c r="C8" s="219"/>
+      <c r="D8" s="219"/>
+      <c r="E8" s="219"/>
       <c r="F8" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="216"/>
-      <c r="H8" s="216"/>
+      <c r="G8" s="219"/>
+      <c r="H8" s="219"/>
       <c r="I8" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="216"/>
-      <c r="K8" s="216"/>
+      <c r="J8" s="219"/>
+      <c r="K8" s="219"/>
       <c r="L8" s="24"/>
       <c r="M8" s="24"/>
     </row>
@@ -33639,15 +33647,15 @@
       <c r="B9" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="216"/>
-      <c r="D9" s="216"/>
-      <c r="E9" s="216"/>
-      <c r="F9" s="216"/>
-      <c r="G9" s="216"/>
-      <c r="H9" s="216"/>
-      <c r="I9" s="216"/>
-      <c r="J9" s="216"/>
-      <c r="K9" s="216"/>
+      <c r="C9" s="219"/>
+      <c r="D9" s="219"/>
+      <c r="E9" s="219"/>
+      <c r="F9" s="219"/>
+      <c r="G9" s="219"/>
+      <c r="H9" s="219"/>
+      <c r="I9" s="219"/>
+      <c r="J9" s="219"/>
+      <c r="K9" s="219"/>
       <c r="L9" s="24"/>
       <c r="M9" s="24"/>
     </row>
@@ -33656,15 +33664,15 @@
       <c r="B10" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="216"/>
-      <c r="D10" s="216"/>
-      <c r="E10" s="216"/>
-      <c r="F10" s="216"/>
-      <c r="G10" s="216"/>
-      <c r="H10" s="216"/>
-      <c r="I10" s="216"/>
-      <c r="J10" s="216"/>
-      <c r="K10" s="216"/>
+      <c r="C10" s="219"/>
+      <c r="D10" s="219"/>
+      <c r="E10" s="219"/>
+      <c r="F10" s="219"/>
+      <c r="G10" s="219"/>
+      <c r="H10" s="219"/>
+      <c r="I10" s="219"/>
+      <c r="J10" s="219"/>
+      <c r="K10" s="219"/>
       <c r="L10" s="24"/>
       <c r="M10" s="24"/>
     </row>
@@ -33673,19 +33681,19 @@
       <c r="B11" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="216"/>
-      <c r="D11" s="216"/>
-      <c r="E11" s="216"/>
+      <c r="C11" s="219"/>
+      <c r="D11" s="219"/>
+      <c r="E11" s="219"/>
       <c r="F11" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="216"/>
-      <c r="H11" s="216"/>
+      <c r="G11" s="219"/>
+      <c r="H11" s="219"/>
       <c r="I11" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="J11" s="216"/>
-      <c r="K11" s="216"/>
+      <c r="J11" s="219"/>
+      <c r="K11" s="219"/>
       <c r="L11" s="24"/>
       <c r="M11" s="24"/>
       <c r="T11" s="25" t="s">
@@ -33697,49 +33705,49 @@
       <c r="B12" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="225" t="s">
+      <c r="C12" s="218" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="225"/>
-      <c r="E12" s="225"/>
+      <c r="D12" s="218"/>
+      <c r="E12" s="218"/>
       <c r="F12" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="216"/>
-      <c r="H12" s="216"/>
+      <c r="G12" s="219"/>
+      <c r="H12" s="219"/>
       <c r="I12" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="216"/>
-      <c r="K12" s="216"/>
+      <c r="J12" s="219"/>
+      <c r="K12" s="219"/>
       <c r="L12" s="24"/>
       <c r="M12" s="24"/>
     </row>
-    <row r="13" spans="1:20" s="221" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:20" s="216" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="24"/>
-      <c r="B14" s="220" t="s">
+      <c r="B14" s="217" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="220"/>
-      <c r="D14" s="220"/>
-      <c r="E14" s="220"/>
-      <c r="F14" s="220"/>
-      <c r="G14" s="220"/>
-      <c r="H14" s="220"/>
-      <c r="I14" s="220"/>
-      <c r="J14" s="220"/>
-      <c r="K14" s="220"/>
+      <c r="C14" s="217"/>
+      <c r="D14" s="217"/>
+      <c r="E14" s="217"/>
+      <c r="F14" s="217"/>
+      <c r="G14" s="217"/>
+      <c r="H14" s="217"/>
+      <c r="I14" s="217"/>
+      <c r="J14" s="217"/>
+      <c r="K14" s="217"/>
       <c r="L14" s="24"/>
       <c r="M14" s="24"/>
     </row>
     <row r="15" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="24"/>
-      <c r="B15" s="226" t="s">
+      <c r="B15" s="220" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="226"/>
-      <c r="D15" s="226"/>
+      <c r="C15" s="220"/>
+      <c r="D15" s="220"/>
       <c r="E15" s="33" t="s">
         <v>44</v>
       </c>
@@ -33766,11 +33774,11 @@
     </row>
     <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="24"/>
-      <c r="B16" s="225" t="s">
+      <c r="B16" s="218" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="225"/>
-      <c r="D16" s="225"/>
+      <c r="C16" s="218"/>
+      <c r="D16" s="218"/>
       <c r="E16" s="29"/>
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
@@ -33785,11 +33793,11 @@
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="24"/>
-      <c r="B17" s="225" t="s">
+      <c r="B17" s="218" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="225"/>
-      <c r="D17" s="225"/>
+      <c r="C17" s="218"/>
+      <c r="D17" s="218"/>
       <c r="E17" s="29"/>
       <c r="F17" s="29"/>
       <c r="G17" s="29"/>
@@ -33802,11 +33810,11 @@
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="24"/>
-      <c r="B18" s="225" t="s">
+      <c r="B18" s="218" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="225"/>
-      <c r="D18" s="225"/>
+      <c r="C18" s="218"/>
+      <c r="D18" s="218"/>
       <c r="E18" s="29"/>
       <c r="F18" s="29"/>
       <c r="G18" s="29"/>
@@ -33819,11 +33827,11 @@
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="24"/>
-      <c r="B19" s="225" t="s">
+      <c r="B19" s="218" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="225"/>
-      <c r="D19" s="225"/>
+      <c r="C19" s="218"/>
+      <c r="D19" s="218"/>
       <c r="E19" s="29"/>
       <c r="F19" s="29"/>
       <c r="G19" s="29"/>
@@ -33836,11 +33844,11 @@
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="24"/>
-      <c r="B20" s="225" t="s">
+      <c r="B20" s="218" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="225"/>
-      <c r="D20" s="225"/>
+      <c r="C20" s="218"/>
+      <c r="D20" s="218"/>
       <c r="E20" s="29"/>
       <c r="F20" s="29"/>
       <c r="G20" s="29"/>
@@ -33851,21 +33859,21 @@
       <c r="L20" s="24"/>
       <c r="M20" s="24"/>
     </row>
-    <row r="21" spans="1:13" s="221" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:13" s="216" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="24"/>
-      <c r="B22" s="220" t="s">
+      <c r="B22" s="217" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="220"/>
-      <c r="D22" s="220"/>
-      <c r="E22" s="220"/>
-      <c r="F22" s="220"/>
-      <c r="G22" s="220"/>
-      <c r="H22" s="220"/>
-      <c r="I22" s="220"/>
-      <c r="J22" s="220"/>
-      <c r="K22" s="220"/>
+      <c r="C22" s="217"/>
+      <c r="D22" s="217"/>
+      <c r="E22" s="217"/>
+      <c r="F22" s="217"/>
+      <c r="G22" s="217"/>
+      <c r="H22" s="217"/>
+      <c r="I22" s="217"/>
+      <c r="J22" s="217"/>
+      <c r="K22" s="217"/>
       <c r="L22" s="24"/>
       <c r="M22" s="24"/>
     </row>
@@ -33874,19 +33882,19 @@
       <c r="B23" s="33" t="s">
         <v>514</v>
       </c>
-      <c r="C23" s="216"/>
-      <c r="D23" s="216"/>
-      <c r="E23" s="216"/>
-      <c r="F23" s="216"/>
+      <c r="C23" s="219"/>
+      <c r="D23" s="219"/>
+      <c r="E23" s="219"/>
+      <c r="F23" s="219"/>
       <c r="G23" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="H23" s="225" t="s">
+      <c r="H23" s="218" t="s">
         <v>55</v>
       </c>
-      <c r="I23" s="225"/>
-      <c r="J23" s="225"/>
-      <c r="K23" s="225"/>
+      <c r="I23" s="218"/>
+      <c r="J23" s="218"/>
+      <c r="K23" s="218"/>
       <c r="L23" s="24"/>
       <c r="M23" s="24"/>
     </row>
@@ -33895,19 +33903,19 @@
       <c r="B24" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="216"/>
-      <c r="D24" s="216"/>
-      <c r="E24" s="216"/>
-      <c r="F24" s="216"/>
+      <c r="C24" s="219"/>
+      <c r="D24" s="219"/>
+      <c r="E24" s="219"/>
+      <c r="F24" s="219"/>
       <c r="G24" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="H24" s="227" t="s">
+      <c r="H24" s="221" t="s">
         <v>58</v>
       </c>
-      <c r="I24" s="227"/>
-      <c r="J24" s="227"/>
-      <c r="K24" s="227"/>
+      <c r="I24" s="221"/>
+      <c r="J24" s="221"/>
+      <c r="K24" s="221"/>
       <c r="L24" s="24"/>
       <c r="M24" s="24"/>
     </row>
@@ -33916,17 +33924,17 @@
       <c r="B25" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="216"/>
-      <c r="D25" s="216"/>
-      <c r="E25" s="216"/>
-      <c r="F25" s="216"/>
+      <c r="C25" s="219"/>
+      <c r="D25" s="219"/>
+      <c r="E25" s="219"/>
+      <c r="F25" s="219"/>
       <c r="G25" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="H25" s="216"/>
-      <c r="I25" s="216"/>
-      <c r="J25" s="216"/>
-      <c r="K25" s="216"/>
+      <c r="H25" s="219"/>
+      <c r="I25" s="219"/>
+      <c r="J25" s="219"/>
+      <c r="K25" s="219"/>
       <c r="L25" s="24"/>
       <c r="M25" s="24"/>
     </row>
@@ -33935,17 +33943,17 @@
       <c r="B26" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="216"/>
-      <c r="D26" s="216"/>
-      <c r="E26" s="216"/>
-      <c r="F26" s="216"/>
+      <c r="C26" s="219"/>
+      <c r="D26" s="219"/>
+      <c r="E26" s="219"/>
+      <c r="F26" s="219"/>
       <c r="G26" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="H26" s="216"/>
-      <c r="I26" s="216"/>
-      <c r="J26" s="216"/>
-      <c r="K26" s="216"/>
+      <c r="H26" s="219"/>
+      <c r="I26" s="219"/>
+      <c r="J26" s="219"/>
+      <c r="K26" s="219"/>
       <c r="L26" s="24"/>
       <c r="M26" s="24"/>
     </row>
@@ -33969,19 +33977,19 @@
       <c r="B28" s="33" t="s">
         <v>515</v>
       </c>
-      <c r="C28" s="216"/>
-      <c r="D28" s="216"/>
-      <c r="E28" s="216"/>
-      <c r="F28" s="216"/>
+      <c r="C28" s="219"/>
+      <c r="D28" s="219"/>
+      <c r="E28" s="219"/>
+      <c r="F28" s="219"/>
       <c r="G28" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="H28" s="225" t="s">
+      <c r="H28" s="218" t="s">
         <v>55</v>
       </c>
-      <c r="I28" s="225"/>
-      <c r="J28" s="225"/>
-      <c r="K28" s="225"/>
+      <c r="I28" s="218"/>
+      <c r="J28" s="218"/>
+      <c r="K28" s="218"/>
       <c r="L28" s="24"/>
       <c r="M28" s="24"/>
     </row>
@@ -33990,17 +33998,17 @@
       <c r="B29" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="216"/>
-      <c r="D29" s="216"/>
-      <c r="E29" s="216"/>
-      <c r="F29" s="216"/>
+      <c r="C29" s="219"/>
+      <c r="D29" s="219"/>
+      <c r="E29" s="219"/>
+      <c r="F29" s="219"/>
       <c r="G29" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="H29" s="216"/>
-      <c r="I29" s="216"/>
-      <c r="J29" s="216"/>
-      <c r="K29" s="216"/>
+      <c r="H29" s="219"/>
+      <c r="I29" s="219"/>
+      <c r="J29" s="219"/>
+      <c r="K29" s="219"/>
       <c r="L29" s="24"/>
       <c r="M29" s="24"/>
     </row>
@@ -34009,17 +34017,17 @@
       <c r="B30" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="216"/>
-      <c r="D30" s="216"/>
-      <c r="E30" s="216"/>
-      <c r="F30" s="216"/>
+      <c r="C30" s="219"/>
+      <c r="D30" s="219"/>
+      <c r="E30" s="219"/>
+      <c r="F30" s="219"/>
       <c r="G30" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="H30" s="216"/>
-      <c r="I30" s="216"/>
-      <c r="J30" s="216"/>
-      <c r="K30" s="216"/>
+      <c r="H30" s="219"/>
+      <c r="I30" s="219"/>
+      <c r="J30" s="219"/>
+      <c r="K30" s="219"/>
       <c r="L30" s="24"/>
       <c r="M30" s="24"/>
     </row>
@@ -34028,34 +34036,34 @@
       <c r="B31" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="216"/>
-      <c r="D31" s="216"/>
-      <c r="E31" s="216"/>
-      <c r="F31" s="216"/>
+      <c r="C31" s="219"/>
+      <c r="D31" s="219"/>
+      <c r="E31" s="219"/>
+      <c r="F31" s="219"/>
       <c r="G31" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="H31" s="216"/>
-      <c r="I31" s="216"/>
-      <c r="J31" s="216"/>
-      <c r="K31" s="216"/>
+      <c r="H31" s="219"/>
+      <c r="I31" s="219"/>
+      <c r="J31" s="219"/>
+      <c r="K31" s="219"/>
       <c r="L31" s="24"/>
       <c r="M31" s="24"/>
     </row>
-    <row r="32" spans="1:13" s="221" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:13" s="216" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="24"/>
-      <c r="B33" s="220" t="s">
+      <c r="B33" s="217" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="220"/>
-      <c r="D33" s="220"/>
-      <c r="E33" s="220"/>
-      <c r="F33" s="220"/>
-      <c r="G33" s="220"/>
-      <c r="H33" s="220"/>
-      <c r="I33" s="220"/>
-      <c r="J33" s="220"/>
+      <c r="C33" s="217"/>
+      <c r="D33" s="217"/>
+      <c r="E33" s="217"/>
+      <c r="F33" s="217"/>
+      <c r="G33" s="217"/>
+      <c r="H33" s="217"/>
+      <c r="I33" s="217"/>
+      <c r="J33" s="217"/>
       <c r="K33" s="31"/>
       <c r="L33" s="24"/>
       <c r="M33" s="24"/>
@@ -34074,12 +34082,12 @@
       <c r="E34" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="F34" s="226" t="s">
+      <c r="F34" s="220" t="s">
         <v>68</v>
       </c>
-      <c r="G34" s="226"/>
-      <c r="H34" s="226"/>
-      <c r="I34" s="226"/>
+      <c r="G34" s="220"/>
+      <c r="H34" s="220"/>
+      <c r="I34" s="220"/>
       <c r="J34" s="33" t="s">
         <v>69</v>
       </c>
@@ -34097,12 +34105,12 @@
       </c>
       <c r="D35" s="29"/>
       <c r="E35" s="29"/>
-      <c r="F35" s="225" t="s">
+      <c r="F35" s="218" t="s">
         <v>72</v>
       </c>
-      <c r="G35" s="225"/>
-      <c r="H35" s="225"/>
-      <c r="I35" s="225"/>
+      <c r="G35" s="218"/>
+      <c r="H35" s="218"/>
+      <c r="I35" s="218"/>
       <c r="J35" s="29"/>
       <c r="K35" s="31"/>
       <c r="L35" s="24"/>
@@ -34123,20 +34131,20 @@
       <c r="L36" s="24"/>
       <c r="M36" s="24"/>
     </row>
-    <row r="37" spans="1:13" s="221" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:13" s="216" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="24"/>
-      <c r="B38" s="220" t="s">
+      <c r="B38" s="217" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="220"/>
-      <c r="D38" s="220"/>
-      <c r="E38" s="220"/>
-      <c r="F38" s="220"/>
-      <c r="G38" s="220"/>
-      <c r="H38" s="220"/>
-      <c r="I38" s="220"/>
-      <c r="J38" s="220"/>
+      <c r="C38" s="217"/>
+      <c r="D38" s="217"/>
+      <c r="E38" s="217"/>
+      <c r="F38" s="217"/>
+      <c r="G38" s="217"/>
+      <c r="H38" s="217"/>
+      <c r="I38" s="217"/>
+      <c r="J38" s="217"/>
       <c r="K38" s="31"/>
       <c r="L38" s="24"/>
       <c r="M38" s="24"/>
@@ -34149,21 +34157,21 @@
       <c r="C39" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="D39" s="226" t="s">
+      <c r="D39" s="220" t="s">
         <v>75</v>
       </c>
-      <c r="E39" s="226"/>
-      <c r="F39" s="226" t="s">
+      <c r="E39" s="220"/>
+      <c r="F39" s="220" t="s">
         <v>76</v>
       </c>
-      <c r="G39" s="226"/>
+      <c r="G39" s="220"/>
       <c r="H39" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="I39" s="226" t="s">
+      <c r="I39" s="220" t="s">
         <v>78</v>
       </c>
-      <c r="J39" s="226"/>
+      <c r="J39" s="220"/>
       <c r="K39" s="31"/>
       <c r="L39" s="24"/>
       <c r="M39" s="24"/>
@@ -34174,17 +34182,17 @@
         <v>517</v>
       </c>
       <c r="C40" s="29"/>
-      <c r="D40" s="225" t="s">
+      <c r="D40" s="218" t="s">
         <v>51</v>
       </c>
-      <c r="E40" s="225"/>
-      <c r="F40" s="216"/>
-      <c r="G40" s="216"/>
+      <c r="E40" s="218"/>
+      <c r="F40" s="219"/>
+      <c r="G40" s="219"/>
       <c r="H40" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="I40" s="216"/>
-      <c r="J40" s="216"/>
+      <c r="I40" s="219"/>
+      <c r="J40" s="219"/>
       <c r="K40" s="31"/>
       <c r="L40" s="24"/>
       <c r="M40" s="24"/>
@@ -34193,17 +34201,17 @@
       <c r="A41" s="24"/>
       <c r="B41" s="29"/>
       <c r="C41" s="29"/>
-      <c r="D41" s="225" t="s">
+      <c r="D41" s="218" t="s">
         <v>51</v>
       </c>
-      <c r="E41" s="225"/>
-      <c r="F41" s="216"/>
-      <c r="G41" s="216"/>
+      <c r="E41" s="218"/>
+      <c r="F41" s="219"/>
+      <c r="G41" s="219"/>
       <c r="H41" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="I41" s="216"/>
-      <c r="J41" s="216"/>
+      <c r="I41" s="219"/>
+      <c r="J41" s="219"/>
       <c r="K41" s="31"/>
       <c r="L41" s="24"/>
       <c r="M41" s="24"/>
@@ -34212,32 +34220,32 @@
       <c r="A42" s="24"/>
       <c r="B42" s="29"/>
       <c r="C42" s="29"/>
-      <c r="D42" s="225" t="s">
+      <c r="D42" s="218" t="s">
         <v>51</v>
       </c>
-      <c r="E42" s="225"/>
-      <c r="F42" s="216"/>
-      <c r="G42" s="216"/>
+      <c r="E42" s="218"/>
+      <c r="F42" s="219"/>
+      <c r="G42" s="219"/>
       <c r="H42" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="I42" s="216"/>
-      <c r="J42" s="216"/>
+      <c r="I42" s="219"/>
+      <c r="J42" s="219"/>
       <c r="K42" s="31"/>
       <c r="L42" s="24"/>
       <c r="M42" s="24"/>
     </row>
-    <row r="43" spans="1:13" s="221" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:13" s="216" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="44" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="24"/>
-      <c r="B44" s="220" t="s">
+      <c r="B44" s="217" t="s">
         <v>80</v>
       </c>
-      <c r="C44" s="220"/>
-      <c r="D44" s="220"/>
-      <c r="E44" s="220"/>
-      <c r="F44" s="220"/>
-      <c r="G44" s="220"/>
+      <c r="C44" s="217"/>
+      <c r="D44" s="217"/>
+      <c r="E44" s="217"/>
+      <c r="F44" s="217"/>
+      <c r="G44" s="217"/>
       <c r="H44" s="31"/>
       <c r="I44" s="31"/>
       <c r="J44" s="31"/>
@@ -34253,14 +34261,14 @@
       <c r="C45" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="D45" s="226" t="s">
+      <c r="D45" s="220" t="s">
         <v>83</v>
       </c>
-      <c r="E45" s="226"/>
-      <c r="F45" s="226" t="s">
+      <c r="E45" s="220"/>
+      <c r="F45" s="220" t="s">
         <v>84</v>
       </c>
-      <c r="G45" s="226"/>
+      <c r="G45" s="220"/>
       <c r="H45" s="31"/>
       <c r="I45" s="31"/>
       <c r="J45" s="31"/>
@@ -34272,10 +34280,10 @@
       <c r="A46" s="24"/>
       <c r="B46" s="29"/>
       <c r="C46" s="29"/>
-      <c r="D46" s="216"/>
-      <c r="E46" s="216"/>
-      <c r="F46" s="216"/>
-      <c r="G46" s="216"/>
+      <c r="D46" s="219"/>
+      <c r="E46" s="219"/>
+      <c r="F46" s="219"/>
+      <c r="G46" s="219"/>
       <c r="H46" s="31"/>
       <c r="I46" s="31"/>
       <c r="J46" s="31"/>
@@ -34287,10 +34295,10 @@
       <c r="A47" s="24"/>
       <c r="B47" s="29"/>
       <c r="C47" s="29"/>
-      <c r="D47" s="216"/>
-      <c r="E47" s="216"/>
-      <c r="F47" s="216"/>
-      <c r="G47" s="216"/>
+      <c r="D47" s="219"/>
+      <c r="E47" s="219"/>
+      <c r="F47" s="219"/>
+      <c r="G47" s="219"/>
       <c r="H47" s="31"/>
       <c r="I47" s="31"/>
       <c r="J47" s="31"/>
@@ -34302,10 +34310,10 @@
       <c r="A48" s="24"/>
       <c r="B48" s="29"/>
       <c r="C48" s="29"/>
-      <c r="D48" s="216"/>
-      <c r="E48" s="216"/>
-      <c r="F48" s="216"/>
-      <c r="G48" s="216"/>
+      <c r="D48" s="219"/>
+      <c r="E48" s="219"/>
+      <c r="F48" s="219"/>
+      <c r="G48" s="219"/>
       <c r="H48" s="31"/>
       <c r="I48" s="31"/>
       <c r="J48" s="31"/>
@@ -34328,17 +34336,17 @@
       <c r="L49" s="24"/>
       <c r="M49" s="24"/>
     </row>
-    <row r="50" spans="1:13" s="221" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" spans="1:13" s="216" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="24"/>
-      <c r="B51" s="220" t="s">
+      <c r="B51" s="217" t="s">
         <v>85</v>
       </c>
-      <c r="C51" s="220"/>
-      <c r="D51" s="220"/>
-      <c r="E51" s="220"/>
-      <c r="F51" s="220"/>
-      <c r="G51" s="220"/>
+      <c r="C51" s="217"/>
+      <c r="D51" s="217"/>
+      <c r="E51" s="217"/>
+      <c r="F51" s="217"/>
+      <c r="G51" s="217"/>
       <c r="H51" s="31"/>
       <c r="I51" s="31"/>
       <c r="J51" s="31"/>
@@ -34448,15 +34456,15 @@
       <c r="L57" s="24"/>
       <c r="M57" s="24"/>
     </row>
-    <row r="58" spans="1:13" s="221" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="1:13" s="216" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="59" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="24"/>
-      <c r="B59" s="220" t="s">
+      <c r="B59" s="217" t="s">
         <v>92</v>
       </c>
-      <c r="C59" s="220"/>
-      <c r="D59" s="220"/>
-      <c r="E59" s="220"/>
+      <c r="C59" s="217"/>
+      <c r="D59" s="217"/>
+      <c r="E59" s="217"/>
       <c r="F59" s="31"/>
       <c r="G59" s="31"/>
       <c r="H59" s="31"/>
@@ -34549,16 +34557,16 @@
       <c r="L64" s="24"/>
       <c r="M64" s="24"/>
     </row>
-    <row r="65" spans="1:13" s="221" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" spans="1:13" s="216" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="66" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="24"/>
-      <c r="B66" s="220" t="s">
+      <c r="B66" s="217" t="s">
         <v>97</v>
       </c>
-      <c r="C66" s="220"/>
-      <c r="D66" s="220"/>
-      <c r="E66" s="220"/>
-      <c r="F66" s="220"/>
+      <c r="C66" s="217"/>
+      <c r="D66" s="217"/>
+      <c r="E66" s="217"/>
+      <c r="F66" s="217"/>
       <c r="G66" s="31"/>
       <c r="H66" s="31"/>
       <c r="I66" s="31"/>
@@ -34652,16 +34660,16 @@
       <c r="L71" s="24"/>
       <c r="M71" s="24"/>
     </row>
-    <row r="72" spans="1:13" s="221" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" spans="1:13" s="216" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="73" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="24"/>
-      <c r="B73" s="220" t="s">
+      <c r="B73" s="217" t="s">
         <v>102</v>
       </c>
-      <c r="C73" s="220"/>
-      <c r="D73" s="220"/>
-      <c r="E73" s="220"/>
-      <c r="F73" s="220"/>
+      <c r="C73" s="217"/>
+      <c r="D73" s="217"/>
+      <c r="E73" s="217"/>
+      <c r="F73" s="217"/>
       <c r="G73" s="31"/>
       <c r="H73" s="31"/>
       <c r="I73" s="31"/>
@@ -34755,13 +34763,13 @@
       <c r="L78" s="24"/>
       <c r="M78" s="24"/>
     </row>
-    <row r="79" spans="1:13" s="221" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="1:13" s="216" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="80" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="24"/>
-      <c r="B80" s="220" t="s">
+      <c r="B80" s="217" t="s">
         <v>108</v>
       </c>
-      <c r="C80" s="220"/>
+      <c r="C80" s="217"/>
       <c r="D80" s="31"/>
       <c r="E80" s="31"/>
       <c r="F80" s="31"/>
@@ -34900,7 +34908,7 @@
       <c r="L87" s="24"/>
       <c r="M87" s="24"/>
     </row>
-    <row r="88" spans="1:13" s="221" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" spans="1:13" s="216" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="89" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="24"/>
       <c r="B89" s="41" t="s">
@@ -35041,17 +35049,17 @@
       <c r="L96" s="24"/>
       <c r="M96" s="24"/>
     </row>
-    <row r="97" spans="1:13" s="221" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" spans="1:13" s="216" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="98" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="24"/>
-      <c r="B98" s="220" t="s">
+      <c r="B98" s="217" t="s">
         <v>130</v>
       </c>
-      <c r="C98" s="220"/>
-      <c r="D98" s="220"/>
-      <c r="E98" s="220"/>
-      <c r="F98" s="220"/>
-      <c r="G98" s="220"/>
+      <c r="C98" s="217"/>
+      <c r="D98" s="217"/>
+      <c r="E98" s="217"/>
+      <c r="F98" s="217"/>
+      <c r="G98" s="217"/>
       <c r="H98" s="31"/>
       <c r="I98" s="31"/>
       <c r="J98" s="31"/>
@@ -35163,14 +35171,14 @@
     </row>
     <row r="105" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="24"/>
-      <c r="B105" s="225" t="s">
+      <c r="B105" s="218" t="s">
         <v>135</v>
       </c>
-      <c r="C105" s="225"/>
-      <c r="D105" s="225"/>
-      <c r="E105" s="225"/>
-      <c r="F105" s="225"/>
-      <c r="G105" s="225"/>
+      <c r="C105" s="218"/>
+      <c r="D105" s="218"/>
+      <c r="E105" s="218"/>
+      <c r="F105" s="218"/>
+      <c r="G105" s="218"/>
       <c r="H105" s="31"/>
       <c r="I105" s="31"/>
       <c r="J105" s="31"/>
@@ -35178,7 +35186,7 @@
       <c r="L105" s="24"/>
       <c r="M105" s="24"/>
     </row>
-    <row r="106" spans="1:13" s="221" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="106" spans="1:13" s="216" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" s="24"/>
       <c r="B107" s="24"/>
@@ -35226,6 +35234,81 @@
     </row>
   </sheetData>
   <mergeCells count="91">
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A5:XFD5"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="A21:XFD21"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="A13:XFD13"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B22:K22"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="B38:J38"/>
+    <mergeCell ref="A37:XFD37"/>
+    <mergeCell ref="A32:XFD32"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="B33:J33"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B66:F66"/>
+    <mergeCell ref="B73:F73"/>
     <mergeCell ref="B27:K27"/>
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="A106:XFD106"/>
@@ -35242,81 +35325,6 @@
     <mergeCell ref="A88:XFD88"/>
     <mergeCell ref="A97:XFD97"/>
     <mergeCell ref="B44:G44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B66:F66"/>
-    <mergeCell ref="B73:F73"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B38:J38"/>
-    <mergeCell ref="A37:XFD37"/>
-    <mergeCell ref="A32:XFD32"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="B33:J33"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="A21:XFD21"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="A13:XFD13"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B22:K22"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A5:XFD5"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="B4:K4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -35355,38 +35363,38 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="2:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="241" t="s">
+      <c r="B2" s="228" t="s">
         <v>531</v>
       </c>
-      <c r="C2" s="242"/>
-      <c r="D2" s="242"/>
-      <c r="E2" s="242"/>
-      <c r="F2" s="243"/>
+      <c r="C2" s="229"/>
+      <c r="D2" s="229"/>
+      <c r="E2" s="229"/>
+      <c r="F2" s="230"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="244" t="s">
+      <c r="B3" s="231" t="s">
         <v>542</v>
       </c>
-      <c r="C3" s="245"/>
-      <c r="D3" s="245"/>
-      <c r="E3" s="245"/>
-      <c r="F3" s="246"/>
+      <c r="C3" s="232"/>
+      <c r="D3" s="232"/>
+      <c r="E3" s="232"/>
+      <c r="F3" s="233"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="2:7" s="47" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="164" t="s">
+      <c r="B4" s="179" t="s">
         <v>136</v>
       </c>
       <c r="C4" s="197"/>
-      <c r="D4" s="165"/>
+      <c r="D4" s="180"/>
       <c r="E4" s="197" t="s">
         <v>536</v>
       </c>
-      <c r="F4" s="165"/>
+      <c r="F4" s="180"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="2:7" s="228" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:7" s="234" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="13"/>
       <c r="C6" s="43" t="s">
@@ -35404,39 +35412,39 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="2:7" s="51" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="237" t="s">
+      <c r="B7" s="243" t="s">
         <v>141</v>
       </c>
-      <c r="C7" s="239" t="s">
+      <c r="C7" s="245" t="s">
         <v>538</v>
       </c>
-      <c r="D7" s="166" t="s">
+      <c r="D7" s="170" t="s">
         <v>142</v>
       </c>
       <c r="E7" s="83" t="s">
         <v>677</v>
       </c>
-      <c r="F7" s="229" t="s">
+      <c r="F7" s="235" t="s">
         <v>539</v>
       </c>
       <c r="G7" s="18"/>
     </row>
     <row r="8" spans="2:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="238"/>
-      <c r="C8" s="240"/>
-      <c r="D8" s="167"/>
+      <c r="B8" s="244"/>
+      <c r="C8" s="246"/>
+      <c r="D8" s="171"/>
       <c r="E8" s="82" t="s">
         <v>676</v>
       </c>
-      <c r="F8" s="230"/>
+      <c r="F8" s="236"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="2:7" s="51" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="201"/>
-      <c r="C9" s="231" t="s">
+      <c r="C9" s="237" t="s">
         <v>537</v>
       </c>
-      <c r="D9" s="234" t="s">
+      <c r="D9" s="240" t="s">
         <v>525</v>
       </c>
       <c r="E9" s="81" t="s">
@@ -35451,8 +35459,8 @@
     </row>
     <row r="10" spans="2:7" s="51" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="202"/>
-      <c r="C10" s="232"/>
-      <c r="D10" s="235"/>
+      <c r="C10" s="238"/>
+      <c r="D10" s="241"/>
       <c r="E10" s="81" t="s">
         <v>518</v>
       </c>
@@ -35461,8 +35469,8 @@
     </row>
     <row r="11" spans="2:7" s="51" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="202"/>
-      <c r="C11" s="232"/>
-      <c r="D11" s="235"/>
+      <c r="C11" s="238"/>
+      <c r="D11" s="241"/>
       <c r="E11" s="81" t="s">
         <v>520</v>
       </c>
@@ -35471,8 +35479,8 @@
     </row>
     <row r="12" spans="2:7" s="51" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="202"/>
-      <c r="C12" s="232"/>
-      <c r="D12" s="235"/>
+      <c r="C12" s="238"/>
+      <c r="D12" s="241"/>
       <c r="E12" s="81" t="s">
         <v>521</v>
       </c>
@@ -35481,8 +35489,8 @@
     </row>
     <row r="13" spans="2:7" s="51" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="202"/>
-      <c r="C13" s="232"/>
-      <c r="D13" s="235"/>
+      <c r="C13" s="238"/>
+      <c r="D13" s="241"/>
       <c r="E13" s="81" t="s">
         <v>519</v>
       </c>
@@ -35491,8 +35499,8 @@
     </row>
     <row r="14" spans="2:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="203"/>
-      <c r="C14" s="233"/>
-      <c r="D14" s="236"/>
+      <c r="C14" s="239"/>
+      <c r="D14" s="242"/>
       <c r="E14" s="81" t="s">
         <v>523</v>
       </c>
@@ -35659,11 +35667,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:F4"/>
     <mergeCell ref="A5:XFD5"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="B9:B14"/>
@@ -35673,6 +35676,11 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="G9:G14"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:F4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>

--- a/자소서/스펙업 2017 하반기 채용다이어리.xlsx
+++ b/자소서/스펙업 2017 하반기 채용다이어리.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="1101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="1095">
   <si>
     <t>카톡으로 공채 소식 받기</t>
   </si>
@@ -3763,22 +3763,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>신한카드(디지털패스)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9월 11일 18:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>9월 8일 11:59</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>9월 30일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>넷마블</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4087,31 +4075,183 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>NICE 그룹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NICE평가정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9월 18일 18:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예금보험공사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예금보험공사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEB 하나은행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔씨소프트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔씨소프트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9월 28일 14:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미래에셋대우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9월 21일 16:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이다스아이티</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이다스아이티</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9월 26일 18:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>금호그룹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아시아나IDT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9월 26일 18:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>X</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>NICE 그룹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NICE평가정보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9월 18일 18:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>O</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>넥센타이어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>넥센타이어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>두산그룹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>두산정보통신</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9월 27일 18:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신세계그룹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신세계I&amp;C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9월 29일 18:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한화그룹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한화S&amp;C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9월 30일 15:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>두산정보통신</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>두산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아모레퍼시픽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>O</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>예금보험공사</t>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -4119,11 +4259,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>예금보험공사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KEB 하나은행</t>
+    <t>X</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -4131,15 +4267,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>엔씨소프트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>엔씨소프트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9월 28일 14:00</t>
+    <t>10월 22일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신한카드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국금융결제원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신한금융투자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나금융그룹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나금융티아이</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -4147,11 +4295,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>미래에셋대우</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9월 21일 16:00</t>
+    <t>X</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -4159,35 +4303,83 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>O</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>신한카드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신한금융그룹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>금융결제원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>금융결제원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월 11일 17:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NC소프트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월 12일 13:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SK증권</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>O</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>마이다스아이티</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>마이다스아이티</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9월 26일 18:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>금호그룹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>아시아나IDT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9월 26일 18:00</t>
+    <t>9월 24일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPC그룹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPC그룹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월 14일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월 16일 18:00</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -4195,339 +4387,123 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신한금융그룹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신한금융투자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월 15일 23:59</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서류합격</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서류탈락</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>O</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>넥센타이어</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>넥센타이어</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>두산그룹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>두산정보통신</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9월 27일 18:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신세계그룹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신세계I&amp;C</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9월 29일 18:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>한화그룹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>한화S&amp;C</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9월 30일 15:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>두산정보통신</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>두산</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>X</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>O</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아모레퍼시픽그룹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>아모레퍼시픽</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>10월 13일 14:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>블루홀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>블루홀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>O</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>케이뱅크</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>케이뱅크</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월 16일 18:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>만도헬라일렉트로닉스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월 26일 19:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월 21일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>X</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>O</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11월 2일 07:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>X</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>O</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>X</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>O</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10월 22일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신한카드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국금융결제원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신한금융투자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>하나금융그룹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>하나금융티아이</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신한카드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신한금융그룹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>금융결제원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>금융결제원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10월 11일 17:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NC소프트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10월 12일 13:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SK증권</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9월 24일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPC그룹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPC그룹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10월 14일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10월 16일 18:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신한금융그룹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신한금융투자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10월 15일 23:59</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>서류합격</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>서류탈락</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>아모레퍼시픽그룹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>아모레퍼시픽</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10월 13일 14:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>블루홀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>블루홀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>케이뱅크</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>케이뱅크</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10월 16일 18:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>만도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>만도헬라일렉트로닉스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>만도헬라일렉트로닉스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPC그룹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10월 17일 17:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10월 20일 18:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10월 26일 19:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10월 21일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>11월 2일 07:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
+    <t>10월 31일 14:00</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5531,15 +5507,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5558,10 +5525,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5570,19 +5552,25 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" b